--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1657.9990743144</v>
+        <v>657.140190151281</v>
       </c>
       <c r="C2">
-        <v>32.404034477967</v>
+        <v>51.7645687046953</v>
       </c>
       <c r="D2">
-        <v>46.3613761846357</v>
+        <v>76.17133706289251</v>
       </c>
       <c r="E2">
-        <v>47.7180287539671</v>
+        <v>78.13157962407711</v>
       </c>
       <c r="F2">
-        <v>16.6514049803872</v>
+        <v>25.4332872993228</v>
       </c>
       <c r="G2">
-        <v>8.70162998103943</v>
+        <v>15.7604770016634</v>
       </c>
       <c r="H2">
-        <v>10.4845049683273</v>
+        <v>22.7197705163076</v>
       </c>
       <c r="I2">
-        <v>14.5321095252028</v>
+        <v>19.4613429375847</v>
       </c>
       <c r="J2">
-        <v>54.7940404690568</v>
+        <v>79.3055530599992</v>
       </c>
       <c r="K2">
-        <v>14.5261733874241</v>
+        <v>26.7854120259258</v>
       </c>
       <c r="L2">
-        <v>27.5249195100281</v>
+        <v>38.4728514617085</v>
       </c>
       <c r="M2">
-        <v>44.5046579206874</v>
+        <v>53.7197557026485</v>
       </c>
       <c r="N2">
-        <v>27.8847606208253</v>
+        <v>27.3365260518174</v>
       </c>
       <c r="O2">
-        <v>1145.44228387465</v>
+        <v>1981.02302970296</v>
       </c>
       <c r="P2">
-        <v>26.0743400052516</v>
+        <v>36.0976950426954</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>267.291176884637</v>
+        <v>108.186872102387</v>
       </c>
       <c r="C3">
-        <v>1.84193810698776</v>
+        <v>6.9256478162646</v>
       </c>
       <c r="D3">
-        <v>0.0252979978640203</v>
+        <v>0.138665896204393</v>
       </c>
       <c r="E3">
-        <v>0.845884851390822</v>
+        <v>1.10806482636218</v>
       </c>
       <c r="F3">
-        <v>10.8765432747208</v>
+        <v>13.5308608778815</v>
       </c>
       <c r="G3">
-        <v>0.187926999318276</v>
+        <v>0.224932067386917</v>
       </c>
       <c r="H3">
-        <v>0.0390530412885753</v>
+        <v>0.160864153576143</v>
       </c>
       <c r="I3">
-        <v>0.408207897688779</v>
+        <v>0.261597987068742</v>
       </c>
       <c r="J3">
-        <v>0.372155108922393</v>
+        <v>0.350379118224849</v>
       </c>
       <c r="K3">
-        <v>0.405769147298599</v>
+        <v>0.06372406671072101</v>
       </c>
       <c r="L3">
-        <v>0.365549551238076</v>
+        <v>0.170567734481927</v>
       </c>
       <c r="M3">
-        <v>0.880989811169287</v>
+        <v>0.819156573022645</v>
       </c>
       <c r="N3">
-        <v>0.604408955824679</v>
+        <v>0.769713487244439</v>
       </c>
       <c r="O3">
-        <v>289.860613509436</v>
+        <v>398.288139157154</v>
       </c>
       <c r="P3">
-        <v>3.69159067430894</v>
+        <v>13.0324659845001</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1848.02427708257</v>
+        <v>757.136430831154</v>
       </c>
       <c r="C4">
-        <v>18.9129314297074</v>
+        <v>14.5149188125829</v>
       </c>
       <c r="D4">
-        <v>2.96957692124305</v>
+        <v>3.79509041499656</v>
       </c>
       <c r="E4">
-        <v>17.3235577338585</v>
+        <v>20.7754994330272</v>
       </c>
       <c r="F4">
-        <v>14.0971330690579</v>
+        <v>10.5849242717684</v>
       </c>
       <c r="G4">
-        <v>8.93535133757155</v>
+        <v>8.93428255000584</v>
       </c>
       <c r="H4">
-        <v>11.3419714208775</v>
+        <v>11.0038378288435</v>
       </c>
       <c r="I4">
-        <v>9.073792168896709</v>
+        <v>16.0865768885505</v>
       </c>
       <c r="J4">
-        <v>24.9849725267768</v>
+        <v>38.8454226061528</v>
       </c>
       <c r="K4">
-        <v>11.5529244555056</v>
+        <v>12.0966791382625</v>
       </c>
       <c r="L4">
-        <v>68.88401624276349</v>
+        <v>77.4174659567729</v>
       </c>
       <c r="M4">
-        <v>60.0627915371994</v>
+        <v>62.9459685467634</v>
       </c>
       <c r="N4">
-        <v>28.0554281259469</v>
+        <v>38.7375077121074</v>
       </c>
       <c r="O4">
-        <v>1648.26712261914</v>
+        <v>2681.24984104664</v>
       </c>
       <c r="P4">
-        <v>25.1847412697082</v>
+        <v>51.3685448356174</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>1043.43983183633</v>
+        <v>367.970167940391</v>
       </c>
       <c r="C5">
-        <v>61.3824804092896</v>
+        <v>86.98376653267729</v>
       </c>
       <c r="D5">
-        <v>8.59263789064781</v>
+        <v>18.5045067773393</v>
       </c>
       <c r="E5">
-        <v>35.3803291628745</v>
+        <v>54.129688879876</v>
       </c>
       <c r="F5">
-        <v>3.61418714027862</v>
+        <v>4.56959576151222</v>
       </c>
       <c r="G5">
-        <v>12.6896420321836</v>
+        <v>10.822621050242</v>
       </c>
       <c r="H5">
-        <v>12.2709993052733</v>
+        <v>16.3344341681315</v>
       </c>
       <c r="I5">
-        <v>5.85556195575253</v>
+        <v>10.6851842976513</v>
       </c>
       <c r="J5">
-        <v>18.2759554936881</v>
+        <v>33.556471414275</v>
       </c>
       <c r="K5">
-        <v>14.2960889001992</v>
+        <v>23.0605220735187</v>
       </c>
       <c r="L5">
-        <v>13.1722119353485</v>
+        <v>21.6062028072093</v>
       </c>
       <c r="M5">
-        <v>19.68123941537</v>
+        <v>27.3187159058807</v>
       </c>
       <c r="N5">
-        <v>14.3255982482939</v>
+        <v>22.2726090254452</v>
       </c>
       <c r="O5">
-        <v>623.018509651686</v>
+        <v>1149.96302112712</v>
       </c>
       <c r="P5">
-        <v>32.0721932241352</v>
+        <v>75.0631148171409</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>10397.1530561984</v>
+        <v>5013.67840782424</v>
       </c>
       <c r="C6">
-        <v>132.911103452873</v>
+        <v>184.112447941056</v>
       </c>
       <c r="D6">
-        <v>122.996212544889</v>
+        <v>166.091154867007</v>
       </c>
       <c r="E6">
-        <v>210.95267050881</v>
+        <v>173.685448416674</v>
       </c>
       <c r="F6">
-        <v>34.7352744779783</v>
+        <v>30.521562107976</v>
       </c>
       <c r="G6">
-        <v>87.9555659591844</v>
+        <v>106.275803568414</v>
       </c>
       <c r="H6">
-        <v>49.633804387761</v>
+        <v>69.9667727586336</v>
       </c>
       <c r="I6">
-        <v>46.5164373166788</v>
+        <v>52.32840739289</v>
       </c>
       <c r="J6">
-        <v>157.961393490248</v>
+        <v>190.897886134577</v>
       </c>
       <c r="K6">
-        <v>107.672849530437</v>
+        <v>113.557757470528</v>
       </c>
       <c r="L6">
-        <v>560.531122845141</v>
+        <v>578.1368428349909</v>
       </c>
       <c r="M6">
-        <v>234.158993171423</v>
+        <v>284.346893926202</v>
       </c>
       <c r="N6">
-        <v>216.948692904162</v>
+        <v>299.820352726886</v>
       </c>
       <c r="O6">
-        <v>9765.280268522691</v>
+        <v>15022.451993317</v>
       </c>
       <c r="P6">
-        <v>216.418244688116</v>
+        <v>304.927496897434</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1186.09724160117</v>
+        <v>465.785654531871</v>
       </c>
       <c r="C7">
-        <v>18.4965684935557</v>
+        <v>34.1730008425295</v>
       </c>
       <c r="D7">
-        <v>5.15156009497484</v>
+        <v>2.89173212116724</v>
       </c>
       <c r="E7">
-        <v>22.0515805716716</v>
+        <v>22.2043898269157</v>
       </c>
       <c r="F7">
-        <v>28.1734959432531</v>
+        <v>18.0078535927491</v>
       </c>
       <c r="G7">
-        <v>14.9843579367428</v>
+        <v>10.7431725757744</v>
       </c>
       <c r="H7">
-        <v>6.79862937469164</v>
+        <v>6.64042484726812</v>
       </c>
       <c r="I7">
-        <v>6.77043512844403</v>
+        <v>10.7073889171795</v>
       </c>
       <c r="J7">
-        <v>18.7507505009521</v>
+        <v>19.6178688516104</v>
       </c>
       <c r="K7">
-        <v>11.9116270140837</v>
+        <v>12.7078252346363</v>
       </c>
       <c r="L7">
-        <v>63.4268401098493</v>
+        <v>58.1234404877447</v>
       </c>
       <c r="M7">
-        <v>19.2881625609502</v>
+        <v>19.6059481574489</v>
       </c>
       <c r="N7">
-        <v>25.1719541163167</v>
+        <v>26.6639608658677</v>
       </c>
       <c r="O7">
-        <v>1412.51905192785</v>
+        <v>2165.61875120571</v>
       </c>
       <c r="P7">
-        <v>52.6184465988874</v>
+        <v>43.5450550520061</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>1003.16464515746</v>
+        <v>392.011932905888</v>
       </c>
       <c r="C8">
-        <v>8.30580652882032</v>
+        <v>10.4072409277742</v>
       </c>
       <c r="D8">
-        <v>6.65934741117964</v>
+        <v>9.31341041661895</v>
       </c>
       <c r="E8">
-        <v>24.408068167098</v>
+        <v>22.4963296437516</v>
       </c>
       <c r="F8">
-        <v>2.13245959786742</v>
+        <v>2.59795762133597</v>
       </c>
       <c r="G8">
-        <v>30.0105593441803</v>
+        <v>39.0449231806075</v>
       </c>
       <c r="H8">
-        <v>5.57103089495743</v>
+        <v>9.534495656912879</v>
       </c>
       <c r="I8">
-        <v>2.89636317496339</v>
+        <v>2.41873724111107</v>
       </c>
       <c r="J8">
-        <v>53.3870382969066</v>
+        <v>61.7138972750619</v>
       </c>
       <c r="K8">
-        <v>20.8733007391615</v>
+        <v>23.0011045486381</v>
       </c>
       <c r="L8">
-        <v>40.8081147453836</v>
+        <v>44.5895729508758</v>
       </c>
       <c r="M8">
-        <v>57.2886138815175</v>
+        <v>63.6360066316019</v>
       </c>
       <c r="N8">
-        <v>17.9784355653451</v>
+        <v>20.000922545052</v>
       </c>
       <c r="O8">
-        <v>1051.66811189409</v>
+        <v>1622.55621341233</v>
       </c>
       <c r="P8">
-        <v>5.37426985493393</v>
+        <v>7.61367263941063</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>385.145186474979</v>
+        <v>95.7649309563953</v>
       </c>
       <c r="C9">
-        <v>8.435142488895099</v>
+        <v>15.7267759019443</v>
       </c>
       <c r="D9">
-        <v>1.52255980974587</v>
+        <v>2.32202595997666</v>
       </c>
       <c r="E9">
-        <v>5.64174495875438</v>
+        <v>8.54809453603392</v>
       </c>
       <c r="F9">
-        <v>2.00223822607646</v>
+        <v>2.14003281099748</v>
       </c>
       <c r="G9">
-        <v>21.4516410364244</v>
+        <v>28.675251348072</v>
       </c>
       <c r="H9">
-        <v>1.95623519278866</v>
+        <v>2.51273951082817</v>
       </c>
       <c r="I9">
-        <v>0.8771603662334651</v>
+        <v>2.71856341959865</v>
       </c>
       <c r="J9">
-        <v>2.84742737634313</v>
+        <v>5.18907053099714</v>
       </c>
       <c r="K9">
-        <v>1.98101758042139</v>
+        <v>4.07564149189708</v>
       </c>
       <c r="L9">
-        <v>4.23896664101452</v>
+        <v>4.98078737466693</v>
       </c>
       <c r="M9">
-        <v>5.6230655258664</v>
+        <v>11.9538816888236</v>
       </c>
       <c r="N9">
-        <v>5.38495383750402</v>
+        <v>6.45673603616003</v>
       </c>
       <c r="O9">
-        <v>292.115501558594</v>
+        <v>499.587666182358</v>
       </c>
       <c r="P9">
-        <v>6.18103786719645</v>
+        <v>10.2719162783541</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>6460.17650549986</v>
+        <v>2455.52172603233</v>
       </c>
       <c r="C10">
-        <v>48.7235657094265</v>
+        <v>61.0883234246001</v>
       </c>
       <c r="D10">
-        <v>16.0715187096978</v>
+        <v>20.2320434922974</v>
       </c>
       <c r="E10">
-        <v>88.41498767711541</v>
+        <v>65.54950078021341</v>
       </c>
       <c r="F10">
-        <v>8.04186340752627</v>
+        <v>15.143303483614</v>
       </c>
       <c r="G10">
-        <v>27.0768095749334</v>
+        <v>26.8294739171164</v>
       </c>
       <c r="H10">
-        <v>21.6992268569189</v>
+        <v>18.2078545648382</v>
       </c>
       <c r="I10">
-        <v>26.9511670704737</v>
+        <v>34.6750074341051</v>
       </c>
       <c r="J10">
-        <v>41.9285929375256</v>
+        <v>62.7603201553404</v>
       </c>
       <c r="K10">
-        <v>33.0615064962484</v>
+        <v>32.1858788597858</v>
       </c>
       <c r="L10">
-        <v>78.94977906841911</v>
+        <v>109.854767551156</v>
       </c>
       <c r="M10">
-        <v>87.8706558699289</v>
+        <v>109.593376848223</v>
       </c>
       <c r="N10">
-        <v>70.87171701187459</v>
+        <v>101.538748647878</v>
       </c>
       <c r="O10">
-        <v>5269.74164685565</v>
+        <v>9039.076110061091</v>
       </c>
       <c r="P10">
-        <v>50.1201195795217</v>
+        <v>88.5946622386527</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2692.19807967196</v>
+        <v>1031.3519987804</v>
       </c>
       <c r="C11">
-        <v>61.9964539866973</v>
+        <v>65.9796454775823</v>
       </c>
       <c r="D11">
-        <v>78.1607842984813</v>
+        <v>166.138740343659</v>
       </c>
       <c r="E11">
-        <v>106.191735384718</v>
+        <v>106.248456633125</v>
       </c>
       <c r="F11">
-        <v>14.5514963668078</v>
+        <v>7.07529313864293</v>
       </c>
       <c r="G11">
-        <v>30.0850753432478</v>
+        <v>31.9229280622748</v>
       </c>
       <c r="H11">
-        <v>23.5186348610591</v>
+        <v>21.2768814371247</v>
       </c>
       <c r="I11">
-        <v>21.4655945688678</v>
+        <v>21.1062038427121</v>
       </c>
       <c r="J11">
-        <v>40.6833144642423</v>
+        <v>79.5857248101285</v>
       </c>
       <c r="K11">
-        <v>31.3271446198231</v>
+        <v>30.2433308128685</v>
       </c>
       <c r="L11">
-        <v>47.5924396193071</v>
+        <v>62.7604868365285</v>
       </c>
       <c r="M11">
-        <v>68.78595710372279</v>
+        <v>60.2574770720863</v>
       </c>
       <c r="N11">
-        <v>55.0258776183327</v>
+        <v>51.9402656146316</v>
       </c>
       <c r="O11">
-        <v>2422.33556741023</v>
+        <v>4009.57486010589</v>
       </c>
       <c r="P11">
-        <v>32.75634193126</v>
+        <v>30.1434933515949</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>498.652878967351</v>
+        <v>164.939595534702</v>
       </c>
       <c r="C12">
-        <v>5.23861118197756</v>
+        <v>7.22331289454339</v>
       </c>
       <c r="D12">
-        <v>2.93550327830121</v>
+        <v>2.13654325339308</v>
       </c>
       <c r="E12">
-        <v>2.36558590062759</v>
+        <v>1.1632026767087</v>
       </c>
       <c r="F12">
-        <v>0.623509314334793</v>
+        <v>0.366932918859682</v>
       </c>
       <c r="G12">
-        <v>0.65075513535663</v>
+        <v>0.801470610815015</v>
       </c>
       <c r="H12">
-        <v>0.359831148681641</v>
+        <v>0.833285898454962</v>
       </c>
       <c r="I12">
-        <v>0.582710865237544</v>
+        <v>1.31412530606915</v>
       </c>
       <c r="J12">
-        <v>0.436937628927892</v>
+        <v>0.814009700196789</v>
       </c>
       <c r="K12">
-        <v>0.170115381602377</v>
+        <v>0.256009389368032</v>
       </c>
       <c r="L12">
-        <v>0.980853484648638</v>
+        <v>0.477362881410084</v>
       </c>
       <c r="M12">
-        <v>2.7657834207039</v>
+        <v>3.02175298579692</v>
       </c>
       <c r="N12">
-        <v>4.75929986286915</v>
+        <v>4.96897215786795</v>
       </c>
       <c r="O12">
-        <v>492.576866432341</v>
+        <v>758.651599714853</v>
       </c>
       <c r="P12">
-        <v>11.21819463663</v>
+        <v>27.4571055496984</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>495.671876779564</v>
+        <v>152.909269276732</v>
       </c>
       <c r="C13">
-        <v>20.0642325397259</v>
+        <v>31.4406384452083</v>
       </c>
       <c r="D13">
-        <v>1.17348242923809</v>
+        <v>2.61603816840781</v>
       </c>
       <c r="E13">
-        <v>21.046663188092</v>
+        <v>17.5261406082834</v>
       </c>
       <c r="F13">
-        <v>0.312918317924927</v>
+        <v>3.37796937556676</v>
       </c>
       <c r="G13">
-        <v>4.03150311389793</v>
+        <v>4.96216805001016</v>
       </c>
       <c r="H13">
-        <v>0.758238418992058</v>
+        <v>2.67001096208899</v>
       </c>
       <c r="I13">
-        <v>2.95323659732992</v>
+        <v>1.1907051193128</v>
       </c>
       <c r="J13">
-        <v>5.26958719469776</v>
+        <v>7.81743866456723</v>
       </c>
       <c r="K13">
-        <v>4.97576380025792</v>
+        <v>3.3772621635486</v>
       </c>
       <c r="L13">
-        <v>15.7897979832623</v>
+        <v>23.8925461283486</v>
       </c>
       <c r="M13">
-        <v>1.3459661400774</v>
+        <v>1.90710207564038</v>
       </c>
       <c r="N13">
-        <v>6.05611445020883</v>
+        <v>8.467679220248341</v>
       </c>
       <c r="O13">
-        <v>388.306069516675</v>
+        <v>667.448307065504</v>
       </c>
       <c r="P13">
-        <v>49.4782908615085</v>
+        <v>63.8330927084445</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3715.85523386589</v>
+        <v>1578.12750791072</v>
       </c>
       <c r="C14">
-        <v>90.2413899681813</v>
+        <v>109.284632671765</v>
       </c>
       <c r="D14">
-        <v>17.0732796619438</v>
+        <v>12.6849922577901</v>
       </c>
       <c r="E14">
-        <v>139.793797323369</v>
+        <v>94.8637202123755</v>
       </c>
       <c r="F14">
-        <v>33.3487489020216</v>
+        <v>24.5082436634371</v>
       </c>
       <c r="G14">
-        <v>67.6767132647629</v>
+        <v>80.3068671353156</v>
       </c>
       <c r="H14">
-        <v>66.6614433317001</v>
+        <v>66.7540982390872</v>
       </c>
       <c r="I14">
-        <v>12.21925016257</v>
+        <v>23.1105009798888</v>
       </c>
       <c r="J14">
-        <v>139.017072645782</v>
+        <v>160.82567142776</v>
       </c>
       <c r="K14">
-        <v>123.608979695946</v>
+        <v>166.343377440287</v>
       </c>
       <c r="L14">
-        <v>105.582203139826</v>
+        <v>124.118629480053</v>
       </c>
       <c r="M14">
-        <v>75.0512620075295</v>
+        <v>87.0762003409945</v>
       </c>
       <c r="N14">
-        <v>61.667332528073</v>
+        <v>81.6425104005354</v>
       </c>
       <c r="O14">
-        <v>3629.7965505354</v>
+        <v>5726.31695355429</v>
       </c>
       <c r="P14">
-        <v>87.3635235338807</v>
+        <v>76.1652406033763</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1872.33049848089</v>
+        <v>641.672078335101</v>
       </c>
       <c r="C15">
-        <v>49.888448617698</v>
+        <v>63.6066313665236</v>
       </c>
       <c r="D15">
-        <v>7.32516433370298</v>
+        <v>6.72388525409331</v>
       </c>
       <c r="E15">
-        <v>66.8794931772548</v>
+        <v>76.6924822274478</v>
       </c>
       <c r="F15">
-        <v>9.221610665095851</v>
+        <v>16.4142282527078</v>
       </c>
       <c r="G15">
-        <v>39.307599007532</v>
+        <v>43.7169023599986</v>
       </c>
       <c r="H15">
-        <v>27.8905660191725</v>
+        <v>46.5127460936464</v>
       </c>
       <c r="I15">
-        <v>22.3350802968685</v>
+        <v>43.4424150021567</v>
       </c>
       <c r="J15">
-        <v>133.947132501819</v>
+        <v>199.222810309433</v>
       </c>
       <c r="K15">
-        <v>33.4690323108871</v>
+        <v>53.3073057429982</v>
       </c>
       <c r="L15">
-        <v>53.6789991909814</v>
+        <v>53.5470376238575</v>
       </c>
       <c r="M15">
-        <v>221.240581047174</v>
+        <v>201.80560848279</v>
       </c>
       <c r="N15">
-        <v>63.9111281174961</v>
+        <v>88.76163425536819</v>
       </c>
       <c r="O15">
-        <v>1632.72938301459</v>
+        <v>2685.02914348255</v>
       </c>
       <c r="P15">
-        <v>39.7427237973851</v>
+        <v>55.0214238907706</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>890.733217874196</v>
+        <v>235.208677363693</v>
       </c>
       <c r="C16">
-        <v>55.1412508791471</v>
+        <v>76.675693914573</v>
       </c>
       <c r="D16">
-        <v>6.36059008872886</v>
+        <v>8.80528959143733</v>
       </c>
       <c r="E16">
-        <v>36.3660709933749</v>
+        <v>34.4974862117056</v>
       </c>
       <c r="F16">
-        <v>2.51413531821017</v>
+        <v>5.75684451235348</v>
       </c>
       <c r="G16">
-        <v>9.19674297528875</v>
+        <v>14.8279528948659</v>
       </c>
       <c r="H16">
-        <v>18.6343459905198</v>
+        <v>25.3536636536092</v>
       </c>
       <c r="I16">
-        <v>4.24134693992829</v>
+        <v>7.03681954529878</v>
       </c>
       <c r="J16">
-        <v>58.7696709878723</v>
+        <v>54.6288495813327</v>
       </c>
       <c r="K16">
-        <v>47.9716370629462</v>
+        <v>59.5450803225448</v>
       </c>
       <c r="L16">
-        <v>24.7529687862571</v>
+        <v>37.5663925508345</v>
       </c>
       <c r="M16">
-        <v>30.5065740151119</v>
+        <v>29.0240494671392</v>
       </c>
       <c r="N16">
-        <v>17.1985487114976</v>
+        <v>27.3037098741171</v>
       </c>
       <c r="O16">
-        <v>893.654504996785</v>
+        <v>1417.26501806006</v>
       </c>
       <c r="P16">
-        <v>84.21189048254971</v>
+        <v>108.704953301224</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>783.527366247417</v>
+        <v>292.006483947076</v>
       </c>
       <c r="C17">
-        <v>21.1464619246362</v>
+        <v>29.1069857191215</v>
       </c>
       <c r="D17">
-        <v>6.94394282467172</v>
+        <v>5.78247355088181</v>
       </c>
       <c r="E17">
-        <v>30.7058888762351</v>
+        <v>23.5994321921711</v>
       </c>
       <c r="F17">
-        <v>18.3233919015028</v>
+        <v>16.2353866481289</v>
       </c>
       <c r="G17">
-        <v>8.719290792892791</v>
+        <v>12.421454429737</v>
       </c>
       <c r="H17">
-        <v>8.814319970836291</v>
+        <v>12.7036161482329</v>
       </c>
       <c r="I17">
-        <v>11.2306166117253</v>
+        <v>7.75995665886092</v>
       </c>
       <c r="J17">
-        <v>17.0873107937882</v>
+        <v>19.3223274344973</v>
       </c>
       <c r="K17">
-        <v>20.2447282751971</v>
+        <v>17.7248253048893</v>
       </c>
       <c r="L17">
-        <v>9.964756924405</v>
+        <v>12.1723504426851</v>
       </c>
       <c r="M17">
-        <v>65.16301156612759</v>
+        <v>87.200271980892</v>
       </c>
       <c r="N17">
-        <v>14.788143907028</v>
+        <v>12.8657524282604</v>
       </c>
       <c r="O17">
-        <v>840.543266725962</v>
+        <v>1287.98323739517</v>
       </c>
       <c r="P17">
-        <v>69.7973433345776</v>
+        <v>64.30908931709379</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1800.42421286435</v>
+        <v>625.298670348436</v>
       </c>
       <c r="C18">
-        <v>35.0355483040684</v>
+        <v>37.0159898763166</v>
       </c>
       <c r="D18">
-        <v>19.1056688908798</v>
+        <v>13.6711083602616</v>
       </c>
       <c r="E18">
-        <v>64.16865665164249</v>
+        <v>46.3384838464277</v>
       </c>
       <c r="F18">
-        <v>21.7110119913415</v>
+        <v>40.2780708899777</v>
       </c>
       <c r="G18">
-        <v>7.40605777045269</v>
+        <v>18.7979794825018</v>
       </c>
       <c r="H18">
-        <v>16.458742878323</v>
+        <v>28.1162842463176</v>
       </c>
       <c r="I18">
-        <v>11.1822888770036</v>
+        <v>9.285701460980411</v>
       </c>
       <c r="J18">
-        <v>45.6066576162156</v>
+        <v>53.7629400806467</v>
       </c>
       <c r="K18">
-        <v>25.5074351509409</v>
+        <v>24.8193488642891</v>
       </c>
       <c r="L18">
-        <v>13.527847726981</v>
+        <v>37.0827399850514</v>
       </c>
       <c r="M18">
-        <v>80.67554516666161</v>
+        <v>80.77545327404449</v>
       </c>
       <c r="N18">
-        <v>22.7454130795287</v>
+        <v>31.2043064270135</v>
       </c>
       <c r="O18">
-        <v>918.4218980291849</v>
+        <v>1946.8854836613</v>
       </c>
       <c r="P18">
-        <v>35.1399792183918</v>
+        <v>65.1696136849919</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1681.09721379708</v>
+        <v>683.457565396648</v>
       </c>
       <c r="C19">
-        <v>15.1014638636351</v>
+        <v>23.9390828066193</v>
       </c>
       <c r="D19">
-        <v>6.01740302770164</v>
+        <v>8.197225141305511</v>
       </c>
       <c r="E19">
-        <v>36.4029584018894</v>
+        <v>39.025975991751</v>
       </c>
       <c r="F19">
-        <v>51.4306679805426</v>
+        <v>73.0052320265977</v>
       </c>
       <c r="G19">
-        <v>32.0358936838991</v>
+        <v>37.5229172275505</v>
       </c>
       <c r="H19">
-        <v>6.20640436357681</v>
+        <v>7.72479571340602</v>
       </c>
       <c r="I19">
-        <v>16.7179623533312</v>
+        <v>10.3627670980481</v>
       </c>
       <c r="J19">
-        <v>23.5840253386354</v>
+        <v>19.4911677792739</v>
       </c>
       <c r="K19">
-        <v>11.399645665934</v>
+        <v>12.6335771990762</v>
       </c>
       <c r="L19">
-        <v>5.85823766676447</v>
+        <v>3.42600710387581</v>
       </c>
       <c r="M19">
-        <v>27.8456883738404</v>
+        <v>50.1821751882975</v>
       </c>
       <c r="N19">
-        <v>3.13624816554706</v>
+        <v>4.09548613025783</v>
       </c>
       <c r="O19">
-        <v>1175.73260192742</v>
+        <v>2017.15382201863</v>
       </c>
       <c r="P19">
-        <v>40.2598414579064</v>
+        <v>62.7259164793122</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>493.976132200421</v>
+        <v>163.759047902302</v>
       </c>
       <c r="C20">
-        <v>6.17169628113658</v>
+        <v>10.2335616930807</v>
       </c>
       <c r="D20">
-        <v>7.17977203761126</v>
+        <v>12.4800591345884</v>
       </c>
       <c r="E20">
-        <v>34.8339887464721</v>
+        <v>41.1814904775115</v>
       </c>
       <c r="F20">
-        <v>0.286076436171278</v>
+        <v>0.583205571082719</v>
       </c>
       <c r="G20">
-        <v>1.19278162145511</v>
+        <v>0.866677295233846</v>
       </c>
       <c r="H20">
-        <v>1.77764485875211</v>
+        <v>2.13546693179543</v>
       </c>
       <c r="I20">
-        <v>0.758269278997824</v>
+        <v>0.475061920160563</v>
       </c>
       <c r="J20">
-        <v>5.84086549064505</v>
+        <v>8.421989323626351</v>
       </c>
       <c r="K20">
-        <v>4.51734219079616</v>
+        <v>3.86395921512508</v>
       </c>
       <c r="L20">
-        <v>8.03258191552067</v>
+        <v>8.93796956563927</v>
       </c>
       <c r="M20">
-        <v>15.9109608679263</v>
+        <v>19.6149048363888</v>
       </c>
       <c r="N20">
-        <v>5.19892838336429</v>
+        <v>6.84592947781528</v>
       </c>
       <c r="O20">
-        <v>398.872314296702</v>
+        <v>679.604913433607</v>
       </c>
       <c r="P20">
-        <v>12.459322156407</v>
+        <v>23.895875135325</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1681.03048512868</v>
+        <v>505.189582683953</v>
       </c>
       <c r="C21">
-        <v>15.3168800620784</v>
+        <v>16.5789966304431</v>
       </c>
       <c r="D21">
-        <v>14.1199532276203</v>
+        <v>8.3720218382374</v>
       </c>
       <c r="E21">
-        <v>47.5149202009701</v>
+        <v>31.6510594957373</v>
       </c>
       <c r="F21">
-        <v>3.32407117323083</v>
+        <v>1.6732504987497</v>
       </c>
       <c r="G21">
-        <v>19.3664780808773</v>
+        <v>20.2774404827046</v>
       </c>
       <c r="H21">
-        <v>7.11288238797575</v>
+        <v>12.7961141086961</v>
       </c>
       <c r="I21">
-        <v>7.0824937361207</v>
+        <v>5.71388887671107</v>
       </c>
       <c r="J21">
-        <v>18.3348052182718</v>
+        <v>19.6263502372026</v>
       </c>
       <c r="K21">
-        <v>8.81681872645877</v>
+        <v>4.79989248313678</v>
       </c>
       <c r="L21">
-        <v>39.5389501344568</v>
+        <v>35.1831555113598</v>
       </c>
       <c r="M21">
-        <v>27.8990229263932</v>
+        <v>27.9262091950369</v>
       </c>
       <c r="N21">
-        <v>18.5440137046513</v>
+        <v>16.6999252365316</v>
       </c>
       <c r="O21">
-        <v>1709.91171635249</v>
+        <v>2870.7908740847</v>
       </c>
       <c r="P21">
-        <v>15.304381062276</v>
+        <v>22.7281763631495</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1796.64914578919</v>
+        <v>694.514571379216</v>
       </c>
       <c r="C22">
-        <v>20.029755280626</v>
+        <v>15.3447504581075</v>
       </c>
       <c r="D22">
-        <v>16.3765036996799</v>
+        <v>21.7373447364399</v>
       </c>
       <c r="E22">
-        <v>51.1132750654045</v>
+        <v>48.6487624024517</v>
       </c>
       <c r="F22">
-        <v>0.555212054462954</v>
+        <v>0.881761569955258</v>
       </c>
       <c r="G22">
-        <v>28.305966136686</v>
+        <v>30.4944371799171</v>
       </c>
       <c r="H22">
-        <v>20.8843179191366</v>
+        <v>26.5094643131319</v>
       </c>
       <c r="I22">
-        <v>9.00411386657076</v>
+        <v>9.13963562074246</v>
       </c>
       <c r="J22">
-        <v>42.7225701612552</v>
+        <v>56.206465693156</v>
       </c>
       <c r="K22">
-        <v>28.1006762254505</v>
+        <v>26.1425625920565</v>
       </c>
       <c r="L22">
-        <v>105.615379427781</v>
+        <v>121.920618906445</v>
       </c>
       <c r="M22">
-        <v>24.1843190143638</v>
+        <v>27.109160858867</v>
       </c>
       <c r="N22">
-        <v>36.0676887955619</v>
+        <v>61.5768590665922</v>
       </c>
       <c r="O22">
-        <v>2019.98654208438</v>
+        <v>3097.30193514364</v>
       </c>
       <c r="P22">
-        <v>6.71599885267072</v>
+        <v>15.2485748938892</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>3246.02777813313</v>
+        <v>1311.05774792499</v>
       </c>
       <c r="C23">
-        <v>50.1514537516978</v>
+        <v>56.1486397703053</v>
       </c>
       <c r="D23">
-        <v>5.81958964580297</v>
+        <v>11.0406840459086</v>
       </c>
       <c r="E23">
-        <v>80.6084276534703</v>
+        <v>69.6488695397688</v>
       </c>
       <c r="F23">
-        <v>7.00684808960671</v>
+        <v>2.04005582783878</v>
       </c>
       <c r="G23">
-        <v>52.0750762368946</v>
+        <v>66.4470270309649</v>
       </c>
       <c r="H23">
-        <v>57.8277642791463</v>
+        <v>95.50633182898091</v>
       </c>
       <c r="I23">
-        <v>30.6566845625734</v>
+        <v>37.2484191252307</v>
       </c>
       <c r="J23">
-        <v>135.526315377694</v>
+        <v>168.953803680566</v>
       </c>
       <c r="K23">
-        <v>82.3341511373704</v>
+        <v>106.525900319665</v>
       </c>
       <c r="L23">
-        <v>38.1317299126447</v>
+        <v>42.6467010512413</v>
       </c>
       <c r="M23">
-        <v>508.884450269683</v>
+        <v>674.069385541536</v>
       </c>
       <c r="N23">
-        <v>73.347254692788</v>
+        <v>104.204440470254</v>
       </c>
       <c r="O23">
-        <v>2503.6161196134</v>
+        <v>4091.39084171963</v>
       </c>
       <c r="P23">
-        <v>48.9766705239461</v>
+        <v>71.5466946586716</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1221.19785189785</v>
+        <v>403.037200275129</v>
       </c>
       <c r="C24">
-        <v>64.4760047107419</v>
+        <v>74.9759185347496</v>
       </c>
       <c r="D24">
-        <v>7.23268662200635</v>
+        <v>12.654709361334</v>
       </c>
       <c r="E24">
-        <v>89.3398017962039</v>
+        <v>69.3786077176883</v>
       </c>
       <c r="F24">
-        <v>9.440152744334901</v>
+        <v>23.6078301742985</v>
       </c>
       <c r="G24">
-        <v>12.041388505115</v>
+        <v>15.1107288648826</v>
       </c>
       <c r="H24">
-        <v>10.5132222691238</v>
+        <v>14.7244995734658</v>
       </c>
       <c r="I24">
-        <v>11.9522926653653</v>
+        <v>15.2251885567419</v>
       </c>
       <c r="J24">
-        <v>58.0552395714762</v>
+        <v>63.8872330705022</v>
       </c>
       <c r="K24">
-        <v>45.298120789214</v>
+        <v>53.3891328333715</v>
       </c>
       <c r="L24">
-        <v>72.84033451813301</v>
+        <v>73.6074221053133</v>
       </c>
       <c r="M24">
-        <v>27.0419023247214</v>
+        <v>25.4278801635836</v>
       </c>
       <c r="N24">
-        <v>44.3167737070696</v>
+        <v>66.8260207497667</v>
       </c>
       <c r="O24">
-        <v>1585.28627381499</v>
+        <v>2333.49032923475</v>
       </c>
       <c r="P24">
-        <v>98.0403292403122</v>
+        <v>117.99828861715</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>1252.71090302728</v>
+        <v>468.242779526618</v>
       </c>
       <c r="C25">
-        <v>17.4186726175049</v>
+        <v>50.169353387625</v>
       </c>
       <c r="D25">
-        <v>16.6844153784014</v>
+        <v>19.0841502321416</v>
       </c>
       <c r="E25">
-        <v>25.8312411667283</v>
+        <v>42.6790479884954</v>
       </c>
       <c r="F25">
-        <v>6.57238284530055</v>
+        <v>20.8700074034537</v>
       </c>
       <c r="G25">
-        <v>15.5969547317528</v>
+        <v>15.6440533696264</v>
       </c>
       <c r="H25">
-        <v>8.76721587617679</v>
+        <v>12.8007713697812</v>
       </c>
       <c r="I25">
-        <v>2.61054467453808</v>
+        <v>4.20035628640316</v>
       </c>
       <c r="J25">
-        <v>16.5916386093516</v>
+        <v>21.7322753960477</v>
       </c>
       <c r="K25">
-        <v>20.2815272874993</v>
+        <v>17.4175123230553</v>
       </c>
       <c r="L25">
-        <v>20.3106883476236</v>
+        <v>35.4412109424434</v>
       </c>
       <c r="M25">
-        <v>16.273525707209</v>
+        <v>51.893861080617</v>
       </c>
       <c r="N25">
-        <v>46.4151220363523</v>
+        <v>46.1136149211425</v>
       </c>
       <c r="O25">
-        <v>657.507407556634</v>
+        <v>1218.37284972274</v>
       </c>
       <c r="P25">
-        <v>30.7387666717012</v>
+        <v>63.4722714746134</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1897.59200258601</v>
+        <v>594.271087449599</v>
       </c>
       <c r="C26">
-        <v>63.5496437496338</v>
+        <v>66.939621546979</v>
       </c>
       <c r="D26">
-        <v>14.1224683060051</v>
+        <v>15.9454335391723</v>
       </c>
       <c r="E26">
-        <v>45.2779656771615</v>
+        <v>52.8363512450627</v>
       </c>
       <c r="F26">
-        <v>14.5259089391689</v>
+        <v>11.3737605737702</v>
       </c>
       <c r="G26">
-        <v>25.040553112609</v>
+        <v>44.0541134376344</v>
       </c>
       <c r="H26">
-        <v>14.8611122563623</v>
+        <v>28.708099709478</v>
       </c>
       <c r="I26">
-        <v>8.4676179804057</v>
+        <v>13.1082884994357</v>
       </c>
       <c r="J26">
-        <v>62.3864659883781</v>
+        <v>56.3949349419658</v>
       </c>
       <c r="K26">
-        <v>41.4514626583442</v>
+        <v>29.5719343015821</v>
       </c>
       <c r="L26">
-        <v>40.4823265288166</v>
+        <v>45.0107186995911</v>
       </c>
       <c r="M26">
-        <v>63.1222104597856</v>
+        <v>90.9366814730885</v>
       </c>
       <c r="N26">
-        <v>32.1134195436675</v>
+        <v>35.089370914751</v>
       </c>
       <c r="O26">
-        <v>1452.97161951939</v>
+        <v>2677.79085368371</v>
       </c>
       <c r="P26">
-        <v>71.86324044588091</v>
+        <v>78.10818529706749</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>379.008881649107</v>
+        <v>100.451266807649</v>
       </c>
       <c r="C27">
-        <v>4.29006133750471</v>
+        <v>4.53859982045052</v>
       </c>
       <c r="D27">
-        <v>0.309220604877207</v>
+        <v>1.1000203383202</v>
       </c>
       <c r="E27">
-        <v>7.58337595950577</v>
+        <v>15.6389905946747</v>
       </c>
       <c r="F27">
-        <v>8.19330123649428</v>
+        <v>10.4183063909036</v>
       </c>
       <c r="G27">
-        <v>1.16071726571987</v>
+        <v>0.829301280516539</v>
       </c>
       <c r="H27">
-        <v>0.006816270902108</v>
+        <v>0.167574969193715</v>
       </c>
       <c r="I27">
-        <v>2.05279191415649</v>
+        <v>2.69318565876199</v>
       </c>
       <c r="J27">
-        <v>3.30956195565637</v>
+        <v>5.17179771734361</v>
       </c>
       <c r="K27">
-        <v>1.0131251924724</v>
+        <v>2.70222363843945</v>
       </c>
       <c r="L27">
-        <v>1.67682512512176</v>
+        <v>2.21646330255174</v>
       </c>
       <c r="M27">
-        <v>1.1441284688029</v>
+        <v>1.11417571145021</v>
       </c>
       <c r="N27">
-        <v>4.58468018578677</v>
+        <v>6.0870734329602</v>
       </c>
       <c r="O27">
-        <v>318.851660955745</v>
+        <v>536.450352538864</v>
       </c>
       <c r="P27">
-        <v>42.0431428094186</v>
+        <v>57.7427002241099</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>495.874001020546</v>
+        <v>142.89534848374</v>
       </c>
       <c r="C28">
-        <v>38.2544738899401</v>
+        <v>44.7327550484176</v>
       </c>
       <c r="D28">
-        <v>1.49013369649556</v>
+        <v>1.44727374285782</v>
       </c>
       <c r="E28">
-        <v>14.1974111366845</v>
+        <v>11.730202450186</v>
       </c>
       <c r="F28">
-        <v>2.89823454722896</v>
+        <v>2.49641224189662</v>
       </c>
       <c r="G28">
-        <v>6.01233682732577</v>
+        <v>6.93793439454358</v>
       </c>
       <c r="H28">
-        <v>4.15409935135805</v>
+        <v>6.54508125556039</v>
       </c>
       <c r="I28">
-        <v>4.24671879716083</v>
+        <v>5.11204374204889</v>
       </c>
       <c r="J28">
-        <v>11.5055816770009</v>
+        <v>19.7566610135342</v>
       </c>
       <c r="K28">
-        <v>15.8329123624355</v>
+        <v>19.402319398573</v>
       </c>
       <c r="L28">
-        <v>7.91319710475876</v>
+        <v>12.6912687051161</v>
       </c>
       <c r="M28">
-        <v>12.0382026624882</v>
+        <v>9.92734396729332</v>
       </c>
       <c r="N28">
-        <v>11.6788940065966</v>
+        <v>10.1294416364426</v>
       </c>
       <c r="O28">
-        <v>569.0921620201031</v>
+        <v>864.590367963756</v>
       </c>
       <c r="P28">
-        <v>87.1117644340175</v>
+        <v>98.56285234404039</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>793.0067348723391</v>
+        <v>275.40041802613</v>
       </c>
       <c r="C29">
-        <v>3.50168560914746</v>
+        <v>2.63134676798339</v>
       </c>
       <c r="D29">
-        <v>2.44376365462508</v>
+        <v>3.69979511600315</v>
       </c>
       <c r="E29">
-        <v>11.0626939796375</v>
+        <v>6.28074896073978</v>
       </c>
       <c r="F29">
-        <v>12.1317745299733</v>
+        <v>19.6416511796304</v>
       </c>
       <c r="G29">
-        <v>2.86096848811028</v>
+        <v>2.41900674871286</v>
       </c>
       <c r="H29">
-        <v>2.42750727293047</v>
+        <v>2.87608908451968</v>
       </c>
       <c r="I29">
-        <v>5.57383063813484</v>
+        <v>5.17206857384347</v>
       </c>
       <c r="J29">
-        <v>8.216442554414289</v>
+        <v>5.06435477619182</v>
       </c>
       <c r="K29">
-        <v>1.13523623337024</v>
+        <v>2.11597220581931</v>
       </c>
       <c r="L29">
-        <v>7.1129388546314</v>
+        <v>3.92086274090877</v>
       </c>
       <c r="M29">
-        <v>2.25371190611918</v>
+        <v>3.16631821630824</v>
       </c>
       <c r="N29">
-        <v>7.24717742620361</v>
+        <v>11.7023187510851</v>
       </c>
       <c r="O29">
-        <v>767.649288244303</v>
+        <v>1255.90176460447</v>
       </c>
       <c r="P29">
-        <v>9.150225487666519</v>
+        <v>6.75705019190333</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>407.957784951722</v>
+        <v>122.937631944566</v>
       </c>
       <c r="C30">
-        <v>3.53195558463256</v>
+        <v>4.0273212537618</v>
       </c>
       <c r="D30">
-        <v>3.33442350722695</v>
+        <v>5.00798614866924</v>
       </c>
       <c r="E30">
-        <v>13.6912920988563</v>
+        <v>12.9802117486905</v>
       </c>
       <c r="F30">
-        <v>0.202173793007021</v>
+        <v>0.23754202913375</v>
       </c>
       <c r="G30">
-        <v>3.70195193927846</v>
+        <v>6.78737351478121</v>
       </c>
       <c r="H30">
-        <v>4.44276826047136</v>
+        <v>7.63825627230738</v>
       </c>
       <c r="I30">
-        <v>1.25043184889997</v>
+        <v>2.22625937126231</v>
       </c>
       <c r="J30">
-        <v>21.2252957358213</v>
+        <v>24.0311091602247</v>
       </c>
       <c r="K30">
-        <v>8.989965685024631</v>
+        <v>11.5925196786807</v>
       </c>
       <c r="L30">
-        <v>26.6801016533019</v>
+        <v>48.1685951027727</v>
       </c>
       <c r="M30">
-        <v>7.02268317605444</v>
+        <v>10.7581118491311</v>
       </c>
       <c r="N30">
-        <v>9.82273016529793</v>
+        <v>13.0866890334432</v>
       </c>
       <c r="O30">
-        <v>457.37448148118</v>
+        <v>674.528423524745</v>
       </c>
       <c r="P30">
-        <v>5.35136382322708</v>
+        <v>5.64931282623833</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2758.89308522256</v>
+        <v>1123.5701245734</v>
       </c>
       <c r="C31">
-        <v>28.8148750232989</v>
+        <v>42.0178333585841</v>
       </c>
       <c r="D31">
-        <v>14.8125073946319</v>
+        <v>25.1387502526008</v>
       </c>
       <c r="E31">
-        <v>51.1172063935951</v>
+        <v>42.8411696176089</v>
       </c>
       <c r="F31">
-        <v>16.0878275127727</v>
+        <v>11.6372115074091</v>
       </c>
       <c r="G31">
-        <v>136.57038714423</v>
+        <v>152.51281553513</v>
       </c>
       <c r="H31">
-        <v>18.9802456759598</v>
+        <v>18.2662645721158</v>
       </c>
       <c r="I31">
-        <v>17.2961371465674</v>
+        <v>27.4954674109753</v>
       </c>
       <c r="J31">
-        <v>45.5813120838593</v>
+        <v>43.2788598139176</v>
       </c>
       <c r="K31">
-        <v>28.2423936789441</v>
+        <v>19.6376049841303</v>
       </c>
       <c r="L31">
-        <v>84.72409495305161</v>
+        <v>93.1351721069303</v>
       </c>
       <c r="M31">
-        <v>14.9188741207856</v>
+        <v>21.9845512415291</v>
       </c>
       <c r="N31">
-        <v>51.3549795052327</v>
+        <v>60.001253970974</v>
       </c>
       <c r="O31">
-        <v>2489.65441574003</v>
+        <v>4086.56297903454</v>
       </c>
       <c r="P31">
-        <v>12.3547258433403</v>
+        <v>13.8083801232083</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>703.901157079637</v>
+        <v>272.241283703204</v>
       </c>
       <c r="C32">
-        <v>11.3928742717593</v>
+        <v>7.5739079124271</v>
       </c>
       <c r="D32">
-        <v>0.575647446031092</v>
+        <v>2.49915464763106</v>
       </c>
       <c r="E32">
-        <v>4.5221356632852</v>
+        <v>6.27050382687728</v>
       </c>
       <c r="F32">
-        <v>27.3377571603912</v>
+        <v>28.9402404762153</v>
       </c>
       <c r="G32">
-        <v>2.71290913609474</v>
+        <v>0.903710179408539</v>
       </c>
       <c r="H32">
-        <v>0.000576568586531512</v>
+        <v>0.101186204866579</v>
       </c>
       <c r="I32">
-        <v>3.58760542142415</v>
+        <v>4.93071255156167</v>
       </c>
       <c r="J32">
-        <v>4.98538352591902</v>
+        <v>8.57999675743787</v>
       </c>
       <c r="K32">
-        <v>1.32669612254825</v>
+        <v>4.12135750622148</v>
       </c>
       <c r="L32">
-        <v>8.566846475584869</v>
+        <v>12.4220320862276</v>
       </c>
       <c r="M32">
-        <v>6.91910225920956</v>
+        <v>5.152671590268</v>
       </c>
       <c r="N32">
-        <v>3.31839149754818</v>
+        <v>6.8942962500805</v>
       </c>
       <c r="O32">
-        <v>552.86303419602</v>
+        <v>945.371332731899</v>
       </c>
       <c r="P32">
-        <v>20.2091044503763</v>
+        <v>33.5050243500312</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>6080.97445330382</v>
+        <v>2748.45409868031</v>
       </c>
       <c r="C33">
-        <v>64.6833082282526</v>
+        <v>87.8224833786679</v>
       </c>
       <c r="D33">
-        <v>51.3155430226383</v>
+        <v>72.5385529260779</v>
       </c>
       <c r="E33">
-        <v>132.597196752171</v>
+        <v>94.5030025981344</v>
       </c>
       <c r="F33">
-        <v>7.45639852182456</v>
+        <v>7.32369772519493</v>
       </c>
       <c r="G33">
-        <v>60.001377335357</v>
+        <v>73.0796304069552</v>
       </c>
       <c r="H33">
-        <v>35.6343230697585</v>
+        <v>55.1324484527477</v>
       </c>
       <c r="I33">
-        <v>23.5316767125746</v>
+        <v>27.4922993057387</v>
       </c>
       <c r="J33">
-        <v>80.04840962083161</v>
+        <v>113.519828338052</v>
       </c>
       <c r="K33">
-        <v>119.860262521413</v>
+        <v>101.488210115922</v>
       </c>
       <c r="L33">
-        <v>128.102941653564</v>
+        <v>155.286093474999</v>
       </c>
       <c r="M33">
-        <v>93.0167763898593</v>
+        <v>91.4803272377825</v>
       </c>
       <c r="N33">
-        <v>90.4048515661473</v>
+        <v>165.769915839819</v>
       </c>
       <c r="O33">
-        <v>5584.3518761581</v>
+        <v>8907.47482909863</v>
       </c>
       <c r="P33">
-        <v>81.87460503687851</v>
+        <v>75.2178596038253</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2791.94479513308</v>
+        <v>1041.43834293359</v>
       </c>
       <c r="C34">
-        <v>58.5034392920211</v>
+        <v>102.498873138947</v>
       </c>
       <c r="D34">
-        <v>133.199558294289</v>
+        <v>210.067572993429</v>
       </c>
       <c r="E34">
-        <v>94.2440237055922</v>
+        <v>74.3095191156288</v>
       </c>
       <c r="F34">
-        <v>5.75401848239683</v>
+        <v>3.27336851785923</v>
       </c>
       <c r="G34">
-        <v>53.1972365882602</v>
+        <v>79.3412262564828</v>
       </c>
       <c r="H34">
-        <v>32.9002844620462</v>
+        <v>53.8667374170699</v>
       </c>
       <c r="I34">
-        <v>21.0367458984501</v>
+        <v>26.918628343171</v>
       </c>
       <c r="J34">
-        <v>35.9305487304922</v>
+        <v>45.6999325606298</v>
       </c>
       <c r="K34">
-        <v>33.7462100677717</v>
+        <v>52.0552144091179</v>
       </c>
       <c r="L34">
-        <v>72.35193236536981</v>
+        <v>103.315631541115</v>
       </c>
       <c r="M34">
-        <v>33.1632726266825</v>
+        <v>54.882704974944</v>
       </c>
       <c r="N34">
-        <v>110.933921776565</v>
+        <v>156.319573682239</v>
       </c>
       <c r="O34">
-        <v>2224.28562393086</v>
+        <v>3687.04367007452</v>
       </c>
       <c r="P34">
-        <v>48.3325587675443</v>
+        <v>91.42989037936241</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>224.291151253875</v>
+        <v>59.126996305186</v>
       </c>
       <c r="C35">
-        <v>7.49197227931595</v>
+        <v>10.780940798731</v>
       </c>
       <c r="D35">
-        <v>0.616815428511034</v>
+        <v>0.638345411910222</v>
       </c>
       <c r="E35">
-        <v>2.76193321205291</v>
+        <v>3.58443667655008</v>
       </c>
       <c r="F35">
-        <v>6.8931958637045</v>
+        <v>7.11619200887555</v>
       </c>
       <c r="G35">
-        <v>0.499906908370478</v>
+        <v>0.435076712246811</v>
       </c>
       <c r="H35">
-        <v>0.42626663392242</v>
+        <v>0.471648634735549</v>
       </c>
       <c r="I35">
-        <v>0.905465993800436</v>
+        <v>0.700797484456322</v>
       </c>
       <c r="J35">
-        <v>2.88124767403666</v>
+        <v>2.9035859412781</v>
       </c>
       <c r="K35">
-        <v>4.54176324520408</v>
+        <v>6.28900657690696</v>
       </c>
       <c r="L35">
-        <v>3.49415005429472</v>
+        <v>2.95599476280536</v>
       </c>
       <c r="M35">
-        <v>3.69483308474367</v>
+        <v>2.71738373208931</v>
       </c>
       <c r="N35">
-        <v>2.41224957061577</v>
+        <v>3.54857879570068</v>
       </c>
       <c r="O35">
-        <v>239.051034928969</v>
+        <v>357.093991421371</v>
       </c>
       <c r="P35">
-        <v>42.3660540681254</v>
+        <v>61.2174468353626</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3674.11032955122</v>
+        <v>1420.66462979211</v>
       </c>
       <c r="C36">
-        <v>76.71939507184</v>
+        <v>83.4454966803616</v>
       </c>
       <c r="D36">
-        <v>24.23977843043</v>
+        <v>18.8877826693928</v>
       </c>
       <c r="E36">
-        <v>119.834769292614</v>
+        <v>120.460748505175</v>
       </c>
       <c r="F36">
-        <v>18.5315828172532</v>
+        <v>30.1167026717828</v>
       </c>
       <c r="G36">
-        <v>80.596798956705</v>
+        <v>91.9793740259029</v>
       </c>
       <c r="H36">
-        <v>85.1324619922769</v>
+        <v>124.296189818084</v>
       </c>
       <c r="I36">
-        <v>42.8749061696533</v>
+        <v>63.1371106322419</v>
       </c>
       <c r="J36">
-        <v>214.097410217794</v>
+        <v>253.664745690867</v>
       </c>
       <c r="K36">
-        <v>102.345835652953</v>
+        <v>103.091749302543</v>
       </c>
       <c r="L36">
-        <v>84.09477425948219</v>
+        <v>106.961413680797</v>
       </c>
       <c r="M36">
-        <v>237.719984915377</v>
+        <v>276.417287497563</v>
       </c>
       <c r="N36">
-        <v>74.11049200165741</v>
+        <v>93.2653072413338</v>
       </c>
       <c r="O36">
-        <v>3017.09195155064</v>
+        <v>5063.77982372216</v>
       </c>
       <c r="P36">
-        <v>35.7083692262823</v>
+        <v>47.7426448737802</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1201.95592706478</v>
+        <v>430.219540146821</v>
       </c>
       <c r="C37">
-        <v>20.6743105866682</v>
+        <v>30.0258035798255</v>
       </c>
       <c r="D37">
-        <v>8.428266924088369</v>
+        <v>6.0439350997975</v>
       </c>
       <c r="E37">
-        <v>10.3497460172658</v>
+        <v>16.0591491069247</v>
       </c>
       <c r="F37">
-        <v>43.1417006183881</v>
+        <v>48.0203555272131</v>
       </c>
       <c r="G37">
-        <v>10.8514937630021</v>
+        <v>6.82755944574516</v>
       </c>
       <c r="H37">
-        <v>12.7740142097952</v>
+        <v>23.1497054981364</v>
       </c>
       <c r="I37">
-        <v>6.18452441034005</v>
+        <v>9.411821890953149</v>
       </c>
       <c r="J37">
-        <v>29.8238184477511</v>
+        <v>37.609694168453</v>
       </c>
       <c r="K37">
-        <v>37.0448257013105</v>
+        <v>44.2439603791062</v>
       </c>
       <c r="L37">
-        <v>19.076215010375</v>
+        <v>26.7186565957776</v>
       </c>
       <c r="M37">
-        <v>26.4133544803904</v>
+        <v>35.0402876244235</v>
       </c>
       <c r="N37">
-        <v>9.498683044999631</v>
+        <v>18.8307961591338</v>
       </c>
       <c r="O37">
-        <v>917.0764206319821</v>
+        <v>1594.17800481725</v>
       </c>
       <c r="P37">
-        <v>20.1032427534277</v>
+        <v>51.4606637977641</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1174.94878225246</v>
+        <v>447.73977172871</v>
       </c>
       <c r="C38">
-        <v>15.8705304120518</v>
+        <v>32.006701206628</v>
       </c>
       <c r="D38">
-        <v>12.4358024030118</v>
+        <v>14.3792758703754</v>
       </c>
       <c r="E38">
-        <v>61.5718264141864</v>
+        <v>57.4032871285976</v>
       </c>
       <c r="F38">
-        <v>3.56992439466171</v>
+        <v>2.14448945864621</v>
       </c>
       <c r="G38">
-        <v>6.2413326463712</v>
+        <v>7.06137088592748</v>
       </c>
       <c r="H38">
-        <v>4.53894982058342</v>
+        <v>6.62017293425608</v>
       </c>
       <c r="I38">
-        <v>1.00076481543696</v>
+        <v>2.70448212915122</v>
       </c>
       <c r="J38">
-        <v>32.0947559990496</v>
+        <v>44.4909040932485</v>
       </c>
       <c r="K38">
-        <v>21.0986101692789</v>
+        <v>18.2393557281366</v>
       </c>
       <c r="L38">
-        <v>66.9169549034647</v>
+        <v>86.5437324758533</v>
       </c>
       <c r="M38">
-        <v>23.8621305148331</v>
+        <v>23.3790321626123</v>
       </c>
       <c r="N38">
-        <v>18.9294830986576</v>
+        <v>24.0507606899885</v>
       </c>
       <c r="O38">
-        <v>1034.80417094014</v>
+        <v>1678.60111777366</v>
       </c>
       <c r="P38">
-        <v>49.4434230084069</v>
+        <v>87.1361150789127</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>4041.5764005116</v>
+        <v>1529.50115149462</v>
       </c>
       <c r="C39">
-        <v>79.15502336800439</v>
+        <v>112.001638484627</v>
       </c>
       <c r="D39">
-        <v>60.7522721351394</v>
+        <v>81.7507949764484</v>
       </c>
       <c r="E39">
-        <v>125.206805710192</v>
+        <v>127.538854217937</v>
       </c>
       <c r="F39">
-        <v>30.3881663146254</v>
+        <v>33.4329545983311</v>
       </c>
       <c r="G39">
-        <v>78.62490177135921</v>
+        <v>115.641849937162</v>
       </c>
       <c r="H39">
-        <v>50.1299866995797</v>
+        <v>58.5345608109465</v>
       </c>
       <c r="I39">
-        <v>47.4818647197737</v>
+        <v>58.5949948448324</v>
       </c>
       <c r="J39">
-        <v>199.328433533657</v>
+        <v>206.566365604422</v>
       </c>
       <c r="K39">
-        <v>71.69652279609009</v>
+        <v>105.326211287454</v>
       </c>
       <c r="L39">
-        <v>100.426785224314</v>
+        <v>120.753284019899</v>
       </c>
       <c r="M39">
-        <v>61.7896655534562</v>
+        <v>83.656529521076</v>
       </c>
       <c r="N39">
-        <v>92.74835926730751</v>
+        <v>125.013268674051</v>
       </c>
       <c r="O39">
-        <v>3556.67250046563</v>
+        <v>5823.73131840736</v>
       </c>
       <c r="P39">
-        <v>65.057901337101</v>
+        <v>77.64487787587871</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>418.833531253823</v>
+        <v>120.26966148207</v>
       </c>
       <c r="C40">
-        <v>2.65567489825116</v>
+        <v>4.35277912864519</v>
       </c>
       <c r="D40">
-        <v>4.35368005476109</v>
+        <v>12.0338976511596</v>
       </c>
       <c r="E40">
-        <v>6.54151541698454</v>
+        <v>8.7961482071335</v>
       </c>
       <c r="F40">
-        <v>0.232728105660983</v>
+        <v>0.200413638374588</v>
       </c>
       <c r="G40">
-        <v>4.24904181739256</v>
+        <v>6.21050949497172</v>
       </c>
       <c r="H40">
-        <v>3.08409795262773</v>
+        <v>6.55563545990259</v>
       </c>
       <c r="I40">
-        <v>1.00922626426285</v>
+        <v>2.89434104505615</v>
       </c>
       <c r="J40">
-        <v>13.5269903582186</v>
+        <v>17.6008595684072</v>
       </c>
       <c r="K40">
-        <v>4.64658425728</v>
+        <v>4.98425145023234</v>
       </c>
       <c r="L40">
-        <v>10.3231958922344</v>
+        <v>17.4854513538753</v>
       </c>
       <c r="M40">
-        <v>6.56459944618419</v>
+        <v>7.90658774017877</v>
       </c>
       <c r="N40">
-        <v>17.6986362007582</v>
+        <v>34.5202007099029</v>
       </c>
       <c r="O40">
-        <v>360.451633728413</v>
+        <v>576.313616717942</v>
       </c>
       <c r="P40">
-        <v>0.833027226708942</v>
+        <v>2.02867275916006</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1549.24138858692</v>
+        <v>539.029364149457</v>
       </c>
       <c r="C41">
-        <v>12.1413089028742</v>
+        <v>17.1734066249109</v>
       </c>
       <c r="D41">
-        <v>57.1897741387141</v>
+        <v>102.669251934726</v>
       </c>
       <c r="E41">
-        <v>38.9372326040481</v>
+        <v>57.6475061276093</v>
       </c>
       <c r="F41">
-        <v>1.62335553541853</v>
+        <v>3.3956760002936</v>
       </c>
       <c r="G41">
-        <v>29.8651927416732</v>
+        <v>42.6261130275509</v>
       </c>
       <c r="H41">
-        <v>40.7041326980559</v>
+        <v>45.9723562098083</v>
       </c>
       <c r="I41">
-        <v>6.13030598239967</v>
+        <v>7.85815896869057</v>
       </c>
       <c r="J41">
-        <v>31.6461855153097</v>
+        <v>64.4783356049803</v>
       </c>
       <c r="K41">
-        <v>24.9466518333905</v>
+        <v>30.0298032282691</v>
       </c>
       <c r="L41">
-        <v>20.7411381283685</v>
+        <v>33.5758679462117</v>
       </c>
       <c r="M41">
-        <v>33.3437667870547</v>
+        <v>54.7702515579957</v>
       </c>
       <c r="N41">
-        <v>19.8752556882517</v>
+        <v>25.0726428537419</v>
       </c>
       <c r="O41">
-        <v>1012.63237907544</v>
+        <v>1842.41684268326</v>
       </c>
       <c r="P41">
-        <v>12.5993547239669</v>
+        <v>18.7128142943327</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>277.181267963645</v>
+        <v>64.38748165556061</v>
       </c>
       <c r="C42">
-        <v>9.98167523137924</v>
+        <v>11.1314576770658</v>
       </c>
       <c r="D42">
-        <v>0.563812370821536</v>
+        <v>0.379330696988338</v>
       </c>
       <c r="E42">
-        <v>8.65362033338222</v>
+        <v>12.0524053820528</v>
       </c>
       <c r="F42">
-        <v>2.89477984521923</v>
+        <v>3.37639604555796</v>
       </c>
       <c r="G42">
-        <v>0.5650011136215291</v>
+        <v>0.7018200934755</v>
       </c>
       <c r="H42">
-        <v>2.31918047633131</v>
+        <v>1.95158393440478</v>
       </c>
       <c r="I42">
-        <v>4.9923253093875</v>
+        <v>3.25517809207777</v>
       </c>
       <c r="J42">
-        <v>7.30882528802989</v>
+        <v>6.19767073429855</v>
       </c>
       <c r="K42">
-        <v>5.46410728344233</v>
+        <v>5.73528375074295</v>
       </c>
       <c r="L42">
-        <v>4.98230350842714</v>
+        <v>8.147995973276521</v>
       </c>
       <c r="M42">
-        <v>3.49084994436679</v>
+        <v>3.91497680505381</v>
       </c>
       <c r="N42">
-        <v>9.22070387587072</v>
+        <v>8.781178364693441</v>
       </c>
       <c r="O42">
-        <v>303.372968117602</v>
+        <v>453.488554816488</v>
       </c>
       <c r="P42">
-        <v>41.8002894059354</v>
+        <v>64.11715351382141</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>2096.31515510483</v>
+        <v>877.9085628796651</v>
       </c>
       <c r="C43">
-        <v>44.3778289526996</v>
+        <v>57.1990654153879</v>
       </c>
       <c r="D43">
-        <v>14.8934886254869</v>
+        <v>34.884965004985</v>
       </c>
       <c r="E43">
-        <v>71.22730389149091</v>
+        <v>75.7743882374584</v>
       </c>
       <c r="F43">
-        <v>4.11265408903464</v>
+        <v>6.59630398384727</v>
       </c>
       <c r="G43">
-        <v>38.1974121623984</v>
+        <v>41.8086413614023</v>
       </c>
       <c r="H43">
-        <v>27.7232407528747</v>
+        <v>31.2413805892072</v>
       </c>
       <c r="I43">
-        <v>11.588435355387</v>
+        <v>22.5472334279312</v>
       </c>
       <c r="J43">
-        <v>52.5648034557612</v>
+        <v>60.7698566869041</v>
       </c>
       <c r="K43">
-        <v>40.9003719891865</v>
+        <v>48.6622838670316</v>
       </c>
       <c r="L43">
-        <v>32.6513616762962</v>
+        <v>48.0528155736837</v>
       </c>
       <c r="M43">
-        <v>104.810308400604</v>
+        <v>108.561287327156</v>
       </c>
       <c r="N43">
-        <v>47.8137949620494</v>
+        <v>60.1812859771965</v>
       </c>
       <c r="O43">
-        <v>1498.92865491801</v>
+        <v>2602.97002330068</v>
       </c>
       <c r="P43">
-        <v>28.6991898688084</v>
+        <v>58.258712844942</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6500.71101859775</v>
+        <v>2986.95832234875</v>
       </c>
       <c r="C44">
-        <v>78.3769971712096</v>
+        <v>137.825896343866</v>
       </c>
       <c r="D44">
-        <v>46.0472571217111</v>
+        <v>54.8709366254781</v>
       </c>
       <c r="E44">
-        <v>103.05387952691</v>
+        <v>101.786009652934</v>
       </c>
       <c r="F44">
-        <v>219.857041430662</v>
+        <v>262.063397460524</v>
       </c>
       <c r="G44">
-        <v>101.182125897425</v>
+        <v>121.428653333767</v>
       </c>
       <c r="H44">
-        <v>48.7997262188713</v>
+        <v>49.5075821230938</v>
       </c>
       <c r="I44">
-        <v>46.3852154046542</v>
+        <v>49.9306617611807</v>
       </c>
       <c r="J44">
-        <v>124.871217372316</v>
+        <v>124.024502530622</v>
       </c>
       <c r="K44">
-        <v>82.5773771004781</v>
+        <v>91.9237812882496</v>
       </c>
       <c r="L44">
-        <v>212.050444680744</v>
+        <v>216.129470584869</v>
       </c>
       <c r="M44">
-        <v>139.3773694205</v>
+        <v>131.401633706299</v>
       </c>
       <c r="N44">
-        <v>88.23483793723911</v>
+        <v>103.223378221249</v>
       </c>
       <c r="O44">
-        <v>6028.15362588894</v>
+        <v>9442.79685704943</v>
       </c>
       <c r="P44">
-        <v>94.3309675042255</v>
+        <v>230.671796300344</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>662.587714294353</v>
+        <v>317.518818873078</v>
       </c>
       <c r="C45">
-        <v>15.0075870882433</v>
+        <v>24.2440408734722</v>
       </c>
       <c r="D45">
-        <v>3.36952285319938</v>
+        <v>4.18341992695226</v>
       </c>
       <c r="E45">
-        <v>20.1789059643555</v>
+        <v>14.0068422431402</v>
       </c>
       <c r="F45">
-        <v>17.8598068219322</v>
+        <v>23.3393716579806</v>
       </c>
       <c r="G45">
-        <v>15.374572973405</v>
+        <v>13.9073720515791</v>
       </c>
       <c r="H45">
-        <v>1.46137510759815</v>
+        <v>2.5925533363444</v>
       </c>
       <c r="I45">
-        <v>7.42064961039337</v>
+        <v>5.5987753544423</v>
       </c>
       <c r="J45">
-        <v>14.3951322671992</v>
+        <v>16.1438875840101</v>
       </c>
       <c r="K45">
-        <v>6.79347905347034</v>
+        <v>6.38806474859418</v>
       </c>
       <c r="L45">
-        <v>16.4751077859698</v>
+        <v>17.6755511887559</v>
       </c>
       <c r="M45">
-        <v>22.3609340913234</v>
+        <v>24.5073369040648</v>
       </c>
       <c r="N45">
-        <v>19.8412882742058</v>
+        <v>25.8555286710006</v>
       </c>
       <c r="O45">
-        <v>665.9576616210441</v>
+        <v>980.920686677084</v>
       </c>
       <c r="P45">
-        <v>7.37495236126901</v>
+        <v>18.8033981737221</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>230.235008116788</v>
+        <v>57.0353317587558</v>
       </c>
       <c r="C46">
-        <v>5.45388615609085</v>
+        <v>7.08209891418809</v>
       </c>
       <c r="D46">
-        <v>1.40224089499646</v>
+        <v>1.64580335129095</v>
       </c>
       <c r="E46">
-        <v>7.43583758415384</v>
+        <v>8.032293191858679</v>
       </c>
       <c r="F46">
-        <v>0.788672647285982</v>
+        <v>1.76713894929305</v>
       </c>
       <c r="G46">
-        <v>2.33008010702244</v>
+        <v>2.9823943472359</v>
       </c>
       <c r="H46">
-        <v>3.10502534108787</v>
+        <v>3.11688541719338</v>
       </c>
       <c r="I46">
-        <v>1.70695179999731</v>
+        <v>1.8288308641637</v>
       </c>
       <c r="J46">
-        <v>5.72937696850091</v>
+        <v>6.94875584858103</v>
       </c>
       <c r="K46">
-        <v>3.25169045209445</v>
+        <v>3.93119998896982</v>
       </c>
       <c r="L46">
-        <v>15.1099080205019</v>
+        <v>16.1190429789703</v>
       </c>
       <c r="M46">
-        <v>5.67736232077591</v>
+        <v>6.42262632554379</v>
       </c>
       <c r="N46">
-        <v>5.40331785657384</v>
+        <v>8.05629035289803</v>
       </c>
       <c r="O46">
-        <v>257.531860580001</v>
+        <v>385.66946843507</v>
       </c>
       <c r="P46">
-        <v>12.0339990419189</v>
+        <v>15.2765083363225</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>2219.29670977037</v>
+        <v>823.368535833025</v>
       </c>
       <c r="C47">
-        <v>41.2252172523295</v>
+        <v>62.0163744904168</v>
       </c>
       <c r="D47">
-        <v>38.5292245124961</v>
+        <v>45.4560535198921</v>
       </c>
       <c r="E47">
-        <v>57.4825669502121</v>
+        <v>56.8965138109596</v>
       </c>
       <c r="F47">
-        <v>17.8962703360888</v>
+        <v>13.8702282858318</v>
       </c>
       <c r="G47">
-        <v>16.9905528810777</v>
+        <v>20.1352542308272</v>
       </c>
       <c r="H47">
-        <v>21.8823921852127</v>
+        <v>20.3461846128804</v>
       </c>
       <c r="I47">
-        <v>14.7033512887988</v>
+        <v>10.7503312663546</v>
       </c>
       <c r="J47">
-        <v>31.7581019269656</v>
+        <v>42.4956961562746</v>
       </c>
       <c r="K47">
-        <v>17.3472316546786</v>
+        <v>16.9443495189897</v>
       </c>
       <c r="L47">
-        <v>42.005689404839</v>
+        <v>50.3804901479896</v>
       </c>
       <c r="M47">
-        <v>66.67784575612291</v>
+        <v>71.4528575209128</v>
       </c>
       <c r="N47">
-        <v>43.3889762018153</v>
+        <v>34.6667953818482</v>
       </c>
       <c r="O47">
-        <v>2177.63161004955</v>
+        <v>3518.21434349752</v>
       </c>
       <c r="P47">
-        <v>26.9167742656271</v>
+        <v>59.5444109623096</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1976.30388758954</v>
+        <v>792.448493775973</v>
       </c>
       <c r="C48">
-        <v>29.654895854597</v>
+        <v>29.7830021985186</v>
       </c>
       <c r="D48">
-        <v>7.91798534643192</v>
+        <v>7.46041141499652</v>
       </c>
       <c r="E48">
-        <v>41.9986022409952</v>
+        <v>63.64406041293</v>
       </c>
       <c r="F48">
-        <v>4.11182670086084</v>
+        <v>10.2963888674698</v>
       </c>
       <c r="G48">
-        <v>3.58803468965849</v>
+        <v>3.17554301807994</v>
       </c>
       <c r="H48">
-        <v>5.84820662420198</v>
+        <v>5.08437917939453</v>
       </c>
       <c r="I48">
-        <v>8.018758245549719</v>
+        <v>12.7963457704319</v>
       </c>
       <c r="J48">
-        <v>17.2977839536067</v>
+        <v>38.7049820577144</v>
       </c>
       <c r="K48">
-        <v>20.0151672938577</v>
+        <v>16.8604964133751</v>
       </c>
       <c r="L48">
-        <v>38.9324754314015</v>
+        <v>46.5279605344952</v>
       </c>
       <c r="M48">
-        <v>121.120380093601</v>
+        <v>138.069169527053</v>
       </c>
       <c r="N48">
-        <v>27.9927006181594</v>
+        <v>37.6964740731225</v>
       </c>
       <c r="O48">
-        <v>1821.42931856456</v>
+        <v>2876.3761320013</v>
       </c>
       <c r="P48">
-        <v>42.0778350926058</v>
+        <v>107.563033249274</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>991.9935300624831</v>
+        <v>407.155530992314</v>
       </c>
       <c r="C49">
-        <v>4.41653925619262</v>
+        <v>7.61221398088434</v>
       </c>
       <c r="D49">
-        <v>0.725077171659599</v>
+        <v>2.00608056407397</v>
       </c>
       <c r="E49">
-        <v>10.9119704839598</v>
+        <v>20.9157071720803</v>
       </c>
       <c r="F49">
-        <v>23.2857640111404</v>
+        <v>44.4472031587457</v>
       </c>
       <c r="G49">
-        <v>14.0718205945181</v>
+        <v>21.2406472915526</v>
       </c>
       <c r="H49">
-        <v>8.20313134455315</v>
+        <v>13.30501607866</v>
       </c>
       <c r="I49">
-        <v>2.21848339383</v>
+        <v>7.61806240763553</v>
       </c>
       <c r="J49">
-        <v>17.7903557884716</v>
+        <v>30.227605284738</v>
       </c>
       <c r="K49">
-        <v>6.5430941293131</v>
+        <v>10.4223303162941</v>
       </c>
       <c r="L49">
-        <v>1.96393123407241</v>
+        <v>3.09046644712118</v>
       </c>
       <c r="M49">
-        <v>3.95204893082707</v>
+        <v>6.61448661139453</v>
       </c>
       <c r="N49">
-        <v>4.11725100503754</v>
+        <v>4.36502259486892</v>
       </c>
       <c r="O49">
-        <v>405.752521006557</v>
+        <v>878.8320000889</v>
       </c>
       <c r="P49">
-        <v>14.2954238874162</v>
+        <v>20.7180374136277</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1639.71191415454</v>
+        <v>495.926951975641</v>
       </c>
       <c r="C50">
-        <v>72.65532302161191</v>
+        <v>87.9532191990365</v>
       </c>
       <c r="D50">
-        <v>8.83261142175855</v>
+        <v>11.9036063748533</v>
       </c>
       <c r="E50">
-        <v>149.778854298387</v>
+        <v>157.469226370845</v>
       </c>
       <c r="F50">
-        <v>11.3237261204705</v>
+        <v>10.4051156904585</v>
       </c>
       <c r="G50">
-        <v>15.3497846358319</v>
+        <v>26.0061437158343</v>
       </c>
       <c r="H50">
-        <v>48.5492253626327</v>
+        <v>52.3002650712702</v>
       </c>
       <c r="I50">
-        <v>10.1772022591909</v>
+        <v>19.7101920607434</v>
       </c>
       <c r="J50">
-        <v>84.063939105351</v>
+        <v>132.242487370033</v>
       </c>
       <c r="K50">
-        <v>67.52151414994729</v>
+        <v>77.09075979280929</v>
       </c>
       <c r="L50">
-        <v>46.7167421784316</v>
+        <v>75.0203546255251</v>
       </c>
       <c r="M50">
-        <v>47.4364537495578</v>
+        <v>40.9287593862555</v>
       </c>
       <c r="N50">
-        <v>62.5413327224102</v>
+        <v>77.481115209446</v>
       </c>
       <c r="O50">
-        <v>1443.65224465942</v>
+        <v>2421.05840060056</v>
       </c>
       <c r="P50">
-        <v>83.34866045102</v>
+        <v>102.683919614649</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>252.076629194189</v>
+        <v>72.48137008608219</v>
       </c>
       <c r="C51">
-        <v>0.62526818995956</v>
+        <v>2.42136951424182</v>
       </c>
       <c r="D51">
-        <v>0.539581922879762</v>
+        <v>0.106233553163122</v>
       </c>
       <c r="E51">
-        <v>1.66442529256448</v>
+        <v>3.43647600829666</v>
       </c>
       <c r="F51">
-        <v>33.7357090527483</v>
+        <v>44.5580677064122</v>
       </c>
       <c r="G51">
-        <v>6.05713062273656</v>
+        <v>3.52118677126337</v>
       </c>
       <c r="H51">
-        <v>0.00979626775636781</v>
+        <v>0.193288746903191</v>
       </c>
       <c r="I51">
-        <v>0.300419798869561</v>
+        <v>0.981759954040038</v>
       </c>
       <c r="J51">
-        <v>2.51657508013623</v>
+        <v>2.18176232237831</v>
       </c>
       <c r="K51">
-        <v>0.4663637505596</v>
+        <v>0.784548767630009</v>
       </c>
       <c r="L51">
-        <v>0.845300952045992</v>
+        <v>0.251218514078397</v>
       </c>
       <c r="M51">
-        <v>0.328813845758161</v>
+        <v>0.505480357610081</v>
       </c>
       <c r="N51">
-        <v>1.26875890027716</v>
+        <v>1.34698621586777</v>
       </c>
       <c r="O51">
-        <v>240.983464649379</v>
+        <v>353.267057532756</v>
       </c>
       <c r="P51">
-        <v>9.839546624493421</v>
+        <v>23.835534943879</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>657.140190151281</v>
+        <v>421.115981702218</v>
       </c>
       <c r="C2">
-        <v>51.7645687046953</v>
+        <v>47.8134734056944</v>
       </c>
       <c r="D2">
-        <v>76.17133706289251</v>
+        <v>72.08099924307361</v>
       </c>
       <c r="E2">
-        <v>78.13157962407711</v>
+        <v>95.55001107397879</v>
       </c>
       <c r="F2">
-        <v>25.4332872993228</v>
+        <v>28.6225669686455</v>
       </c>
       <c r="G2">
-        <v>15.7604770016634</v>
+        <v>21.7440451907773</v>
       </c>
       <c r="H2">
-        <v>22.7197705163076</v>
+        <v>36.2200309981404</v>
       </c>
       <c r="I2">
-        <v>19.4613429375847</v>
+        <v>25.9466031252899</v>
       </c>
       <c r="J2">
-        <v>79.3055530599992</v>
+        <v>91.1678313621223</v>
       </c>
       <c r="K2">
-        <v>26.7854120259258</v>
+        <v>27.9408788344928</v>
       </c>
       <c r="L2">
-        <v>38.4728514617085</v>
+        <v>37.1799277308343</v>
       </c>
       <c r="M2">
-        <v>53.7197557026485</v>
+        <v>62.7446234902174</v>
       </c>
       <c r="N2">
-        <v>27.3365260518174</v>
+        <v>28.3525351906708</v>
       </c>
       <c r="O2">
-        <v>1981.02302970296</v>
+        <v>2134.05842774711</v>
       </c>
       <c r="P2">
-        <v>36.0976950426954</v>
+        <v>38.0707236713576</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>108.186872102387</v>
+        <v>96.3241899308195</v>
       </c>
       <c r="C3">
-        <v>6.9256478162646</v>
+        <v>5.61287681729607</v>
       </c>
       <c r="D3">
-        <v>0.138665896204393</v>
+        <v>0.238261731393022</v>
       </c>
       <c r="E3">
-        <v>1.10806482636218</v>
+        <v>1.06172819542159</v>
       </c>
       <c r="F3">
-        <v>13.5308608778815</v>
+        <v>16.4359820591804</v>
       </c>
       <c r="G3">
-        <v>0.224932067386917</v>
+        <v>0.215051902743136</v>
       </c>
       <c r="H3">
-        <v>0.160864153576143</v>
+        <v>0.205795512290038</v>
       </c>
       <c r="I3">
-        <v>0.261597987068742</v>
+        <v>0.244112751631894</v>
       </c>
       <c r="J3">
-        <v>0.350379118224849</v>
+        <v>0.407371731375541</v>
       </c>
       <c r="K3">
-        <v>0.06372406671072101</v>
+        <v>0.139027018680729</v>
       </c>
       <c r="L3">
-        <v>0.170567734481927</v>
+        <v>0.19888385450403</v>
       </c>
       <c r="M3">
-        <v>0.819156573022645</v>
+        <v>0.923944385879701</v>
       </c>
       <c r="N3">
-        <v>0.769713487244439</v>
+        <v>0.91814697672401</v>
       </c>
       <c r="O3">
-        <v>398.288139157154</v>
+        <v>451.623311046533</v>
       </c>
       <c r="P3">
-        <v>13.0324659845001</v>
+        <v>12.1728697211168</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>757.136430831154</v>
+        <v>524.195350854113</v>
       </c>
       <c r="C4">
-        <v>14.5149188125829</v>
+        <v>15.217302330098</v>
       </c>
       <c r="D4">
-        <v>3.79509041499656</v>
+        <v>5.63333374896551</v>
       </c>
       <c r="E4">
-        <v>20.7754994330272</v>
+        <v>14.7234367410984</v>
       </c>
       <c r="F4">
-        <v>10.5849242717684</v>
+        <v>6.34778119921431</v>
       </c>
       <c r="G4">
-        <v>8.93428255000584</v>
+        <v>12.660138809763</v>
       </c>
       <c r="H4">
-        <v>11.0038378288435</v>
+        <v>12.1963199693725</v>
       </c>
       <c r="I4">
-        <v>16.0865768885505</v>
+        <v>17.0030624743752</v>
       </c>
       <c r="J4">
-        <v>38.8454226061528</v>
+        <v>40.7208050213831</v>
       </c>
       <c r="K4">
-        <v>12.0966791382625</v>
+        <v>12.6256950089114</v>
       </c>
       <c r="L4">
-        <v>77.4174659567729</v>
+        <v>100.229190883463</v>
       </c>
       <c r="M4">
-        <v>62.9459685467634</v>
+        <v>72.4969698508401</v>
       </c>
       <c r="N4">
-        <v>38.7375077121074</v>
+        <v>43.2048284212595</v>
       </c>
       <c r="O4">
-        <v>2681.24984104664</v>
+        <v>2822.3624141733</v>
       </c>
       <c r="P4">
-        <v>51.3685448356174</v>
+        <v>43.5029300423156</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>367.970167940391</v>
+        <v>252.387468740432</v>
       </c>
       <c r="C5">
-        <v>86.98376653267729</v>
+        <v>84.48978879885721</v>
       </c>
       <c r="D5">
-        <v>18.5045067773393</v>
+        <v>20.4024457249417</v>
       </c>
       <c r="E5">
-        <v>54.129688879876</v>
+        <v>48.846070612155</v>
       </c>
       <c r="F5">
-        <v>4.56959576151222</v>
+        <v>2.40284282023252</v>
       </c>
       <c r="G5">
-        <v>10.822621050242</v>
+        <v>10.570365153048</v>
       </c>
       <c r="H5">
-        <v>16.3344341681315</v>
+        <v>17.1986592341392</v>
       </c>
       <c r="I5">
-        <v>10.6851842976513</v>
+        <v>12.0324156461988</v>
       </c>
       <c r="J5">
-        <v>33.556471414275</v>
+        <v>41.5632370705034</v>
       </c>
       <c r="K5">
-        <v>23.0605220735187</v>
+        <v>28.0220109330783</v>
       </c>
       <c r="L5">
-        <v>21.6062028072093</v>
+        <v>27.1440284440127</v>
       </c>
       <c r="M5">
-        <v>27.3187159058807</v>
+        <v>22.9269824840616</v>
       </c>
       <c r="N5">
-        <v>22.2726090254452</v>
+        <v>21.7748405924575</v>
       </c>
       <c r="O5">
-        <v>1149.96302112712</v>
+        <v>1270.3850487022</v>
       </c>
       <c r="P5">
-        <v>75.0631148171409</v>
+        <v>61.7745410807708</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>5013.67840782424</v>
+        <v>3685.45153538335</v>
       </c>
       <c r="C6">
-        <v>184.112447941056</v>
+        <v>165.900085621703</v>
       </c>
       <c r="D6">
-        <v>166.091154867007</v>
+        <v>207.288283572162</v>
       </c>
       <c r="E6">
-        <v>173.685448416674</v>
+        <v>147.998481870238</v>
       </c>
       <c r="F6">
-        <v>30.521562107976</v>
+        <v>33.4165936466313</v>
       </c>
       <c r="G6">
-        <v>106.275803568414</v>
+        <v>135.739638389628</v>
       </c>
       <c r="H6">
-        <v>69.9667727586336</v>
+        <v>82.6037067865949</v>
       </c>
       <c r="I6">
-        <v>52.32840739289</v>
+        <v>60.1050313011654</v>
       </c>
       <c r="J6">
-        <v>190.897886134577</v>
+        <v>211.17775411097</v>
       </c>
       <c r="K6">
-        <v>113.557757470528</v>
+        <v>137.933639920787</v>
       </c>
       <c r="L6">
-        <v>578.1368428349909</v>
+        <v>593.70128144883</v>
       </c>
       <c r="M6">
-        <v>284.346893926202</v>
+        <v>375.654634612161</v>
       </c>
       <c r="N6">
-        <v>299.820352726886</v>
+        <v>348.592902582805</v>
       </c>
       <c r="O6">
-        <v>15022.451993317</v>
+        <v>15933.8055942435</v>
       </c>
       <c r="P6">
-        <v>304.927496897434</v>
+        <v>228.989057617041</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>465.785654531871</v>
+        <v>359.633140974114</v>
       </c>
       <c r="C7">
-        <v>34.1730008425295</v>
+        <v>41.1876272393768</v>
       </c>
       <c r="D7">
-        <v>2.89173212116724</v>
+        <v>2.83454556214238</v>
       </c>
       <c r="E7">
-        <v>22.2043898269157</v>
+        <v>18.3175165573384</v>
       </c>
       <c r="F7">
-        <v>18.0078535927491</v>
+        <v>15.7859234977469</v>
       </c>
       <c r="G7">
-        <v>10.7431725757744</v>
+        <v>12.7524551555623</v>
       </c>
       <c r="H7">
-        <v>6.64042484726812</v>
+        <v>8.88152976940636</v>
       </c>
       <c r="I7">
-        <v>10.7073889171795</v>
+        <v>9.656543912861091</v>
       </c>
       <c r="J7">
-        <v>19.6178688516104</v>
+        <v>21.1159474186671</v>
       </c>
       <c r="K7">
-        <v>12.7078252346363</v>
+        <v>15.0025886999214</v>
       </c>
       <c r="L7">
-        <v>58.1234404877447</v>
+        <v>63.4569001426739</v>
       </c>
       <c r="M7">
-        <v>19.6059481574489</v>
+        <v>25.4398081844754</v>
       </c>
       <c r="N7">
-        <v>26.6639608658677</v>
+        <v>30.3257285832284</v>
       </c>
       <c r="O7">
-        <v>2165.61875120571</v>
+        <v>2269.77223643784</v>
       </c>
       <c r="P7">
-        <v>43.5450550520061</v>
+        <v>26.9522431545488</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>392.011932905888</v>
+        <v>261.28739966753</v>
       </c>
       <c r="C8">
-        <v>10.4072409277742</v>
+        <v>13.857431566404</v>
       </c>
       <c r="D8">
-        <v>9.31341041661895</v>
+        <v>7.37391971591213</v>
       </c>
       <c r="E8">
-        <v>22.4963296437516</v>
+        <v>16.3614861800633</v>
       </c>
       <c r="F8">
-        <v>2.59795762133597</v>
+        <v>1.72548627846951</v>
       </c>
       <c r="G8">
-        <v>39.0449231806075</v>
+        <v>42.3434656555943</v>
       </c>
       <c r="H8">
-        <v>9.534495656912879</v>
+        <v>13.8544445428758</v>
       </c>
       <c r="I8">
-        <v>2.41873724111107</v>
+        <v>1.36655991534073</v>
       </c>
       <c r="J8">
-        <v>61.7138972750619</v>
+        <v>62.5958397845213</v>
       </c>
       <c r="K8">
-        <v>23.0011045486381</v>
+        <v>34.3854404709021</v>
       </c>
       <c r="L8">
-        <v>44.5895729508758</v>
+        <v>53.8773130815083</v>
       </c>
       <c r="M8">
-        <v>63.6360066316019</v>
+        <v>84.48070611883939</v>
       </c>
       <c r="N8">
-        <v>20.000922545052</v>
+        <v>27.9628013696776</v>
       </c>
       <c r="O8">
-        <v>1622.55621341233</v>
+        <v>1716.32446542342</v>
       </c>
       <c r="P8">
-        <v>7.61367263941063</v>
+        <v>5.98862526064642</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>95.7649309563953</v>
+        <v>72.6018229985595</v>
       </c>
       <c r="C9">
-        <v>15.7267759019443</v>
+        <v>13.9743758350063</v>
       </c>
       <c r="D9">
-        <v>2.32202595997666</v>
+        <v>2.33028551141131</v>
       </c>
       <c r="E9">
-        <v>8.54809453603392</v>
+        <v>7.05565395359307</v>
       </c>
       <c r="F9">
-        <v>2.14003281099748</v>
+        <v>2.92630682768279</v>
       </c>
       <c r="G9">
-        <v>28.675251348072</v>
+        <v>36.2816540002748</v>
       </c>
       <c r="H9">
-        <v>2.51273951082817</v>
+        <v>3.07312551671746</v>
       </c>
       <c r="I9">
-        <v>2.71856341959865</v>
+        <v>2.39556473395603</v>
       </c>
       <c r="J9">
-        <v>5.18907053099714</v>
+        <v>5.68689750967758</v>
       </c>
       <c r="K9">
-        <v>4.07564149189708</v>
+        <v>6.16517120961739</v>
       </c>
       <c r="L9">
-        <v>4.98078737466693</v>
+        <v>6.2730925994235</v>
       </c>
       <c r="M9">
-        <v>11.9538816888236</v>
+        <v>11.6826344949677</v>
       </c>
       <c r="N9">
-        <v>6.45673603616003</v>
+        <v>8.37526468948654</v>
       </c>
       <c r="O9">
-        <v>499.587666182358</v>
+        <v>559.374340771751</v>
       </c>
       <c r="P9">
-        <v>10.2719162783541</v>
+        <v>10.7982286080977</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>2455.52172603233</v>
+        <v>1621.52153741264</v>
       </c>
       <c r="C10">
-        <v>61.0883234246001</v>
+        <v>59.5117629605252</v>
       </c>
       <c r="D10">
-        <v>20.2320434922974</v>
+        <v>23.0398513175647</v>
       </c>
       <c r="E10">
-        <v>65.54950078021341</v>
+        <v>54.3898545519283</v>
       </c>
       <c r="F10">
-        <v>15.143303483614</v>
+        <v>13.1870090716699</v>
       </c>
       <c r="G10">
-        <v>26.8294739171164</v>
+        <v>29.2092768939426</v>
       </c>
       <c r="H10">
-        <v>18.2078545648382</v>
+        <v>19.100285610618</v>
       </c>
       <c r="I10">
-        <v>34.6750074341051</v>
+        <v>39.3955122701097</v>
       </c>
       <c r="J10">
-        <v>62.7603201553404</v>
+        <v>63.9152056795176</v>
       </c>
       <c r="K10">
-        <v>32.1858788597858</v>
+        <v>44.8659280645329</v>
       </c>
       <c r="L10">
-        <v>109.854767551156</v>
+        <v>127.039132810333</v>
       </c>
       <c r="M10">
-        <v>109.593376848223</v>
+        <v>127.778253692694</v>
       </c>
       <c r="N10">
-        <v>101.538748647878</v>
+        <v>115.228850382877</v>
       </c>
       <c r="O10">
-        <v>9039.076110061091</v>
+        <v>9747.09548952162</v>
       </c>
       <c r="P10">
-        <v>88.5946622386527</v>
+        <v>69.839342186187</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1031.3519987804</v>
+        <v>711.047105100742</v>
       </c>
       <c r="C11">
-        <v>65.9796454775823</v>
+        <v>68.1578834103765</v>
       </c>
       <c r="D11">
-        <v>166.138740343659</v>
+        <v>181.440642764616</v>
       </c>
       <c r="E11">
-        <v>106.248456633125</v>
+        <v>118.774487057489</v>
       </c>
       <c r="F11">
-        <v>7.07529313864293</v>
+        <v>5.15075203894028</v>
       </c>
       <c r="G11">
-        <v>31.9229280622748</v>
+        <v>37.4893486204136</v>
       </c>
       <c r="H11">
-        <v>21.2768814371247</v>
+        <v>18.1439180161912</v>
       </c>
       <c r="I11">
-        <v>21.1062038427121</v>
+        <v>25.2691197616407</v>
       </c>
       <c r="J11">
-        <v>79.5857248101285</v>
+        <v>73.61865352795481</v>
       </c>
       <c r="K11">
-        <v>30.2433308128685</v>
+        <v>37.3151639302271</v>
       </c>
       <c r="L11">
-        <v>62.7604868365285</v>
+        <v>70.3058208972289</v>
       </c>
       <c r="M11">
-        <v>60.2574770720863</v>
+        <v>56.2359076342273</v>
       </c>
       <c r="N11">
-        <v>51.9402656146316</v>
+        <v>52.2681907994966</v>
       </c>
       <c r="O11">
-        <v>4009.57486010589</v>
+        <v>4286.61122928926</v>
       </c>
       <c r="P11">
-        <v>30.1434933515949</v>
+        <v>23.6933246152142</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>164.939595534702</v>
+        <v>121.800621771707</v>
       </c>
       <c r="C12">
-        <v>7.22331289454339</v>
+        <v>10.4751360082368</v>
       </c>
       <c r="D12">
-        <v>2.13654325339308</v>
+        <v>2.40041750349058</v>
       </c>
       <c r="E12">
-        <v>1.1632026767087</v>
+        <v>1.20355570674008</v>
       </c>
       <c r="F12">
-        <v>0.366932918859682</v>
+        <v>0.575743433255197</v>
       </c>
       <c r="G12">
-        <v>0.801470610815015</v>
+        <v>0.756395584326063</v>
       </c>
       <c r="H12">
-        <v>0.833285898454962</v>
+        <v>0.66281064082799</v>
       </c>
       <c r="I12">
-        <v>1.31412530606915</v>
+        <v>1.74932370855629</v>
       </c>
       <c r="J12">
-        <v>0.814009700196789</v>
+        <v>1.06969291931135</v>
       </c>
       <c r="K12">
-        <v>0.256009389368032</v>
+        <v>0.314821849665021</v>
       </c>
       <c r="L12">
-        <v>0.477362881410084</v>
+        <v>0.5611201603211981</v>
       </c>
       <c r="M12">
-        <v>3.02175298579692</v>
+        <v>3.97648369029081</v>
       </c>
       <c r="N12">
-        <v>4.96897215786795</v>
+        <v>5.74219089420829</v>
       </c>
       <c r="O12">
-        <v>758.651599714853</v>
+        <v>845.215746701141</v>
       </c>
       <c r="P12">
-        <v>27.4571055496984</v>
+        <v>24.671296762728</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>152.909269276732</v>
+        <v>122.809644760329</v>
       </c>
       <c r="C13">
-        <v>31.4406384452083</v>
+        <v>33.0802792043695</v>
       </c>
       <c r="D13">
-        <v>2.61603816840781</v>
+        <v>2.17099517973351</v>
       </c>
       <c r="E13">
-        <v>17.5261406082834</v>
+        <v>17.220553059639</v>
       </c>
       <c r="F13">
-        <v>3.37796937556676</v>
+        <v>3.82640610283712</v>
       </c>
       <c r="G13">
-        <v>4.96216805001016</v>
+        <v>6.63165019911049</v>
       </c>
       <c r="H13">
-        <v>2.67001096208899</v>
+        <v>3.01709297810998</v>
       </c>
       <c r="I13">
-        <v>1.1907051193128</v>
+        <v>1.14259937411077</v>
       </c>
       <c r="J13">
-        <v>7.81743866456723</v>
+        <v>8.12695202748179</v>
       </c>
       <c r="K13">
-        <v>3.3772621635486</v>
+        <v>4.51828126444585</v>
       </c>
       <c r="L13">
-        <v>23.8925461283486</v>
+        <v>31.5772568092268</v>
       </c>
       <c r="M13">
-        <v>1.90710207564038</v>
+        <v>2.6214342000341</v>
       </c>
       <c r="N13">
-        <v>8.467679220248341</v>
+        <v>9.44598903581617</v>
       </c>
       <c r="O13">
-        <v>667.448307065504</v>
+        <v>708.907655722391</v>
       </c>
       <c r="P13">
-        <v>63.8330927084445</v>
+        <v>58.6859737405686</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1578.12750791072</v>
+        <v>1147.73723261399</v>
       </c>
       <c r="C14">
-        <v>109.284632671765</v>
+        <v>115.828056653834</v>
       </c>
       <c r="D14">
-        <v>12.6849922577901</v>
+        <v>13.2082036887127</v>
       </c>
       <c r="E14">
-        <v>94.8637202123755</v>
+        <v>65.8983899338041</v>
       </c>
       <c r="F14">
-        <v>24.5082436634371</v>
+        <v>17.777389156226</v>
       </c>
       <c r="G14">
-        <v>80.3068671353156</v>
+        <v>103.110320812132</v>
       </c>
       <c r="H14">
-        <v>66.7540982390872</v>
+        <v>67.33598754345179</v>
       </c>
       <c r="I14">
-        <v>23.1105009798888</v>
+        <v>27.115928639123</v>
       </c>
       <c r="J14">
-        <v>160.82567142776</v>
+        <v>146.841521006437</v>
       </c>
       <c r="K14">
-        <v>166.343377440287</v>
+        <v>200.422820959827</v>
       </c>
       <c r="L14">
-        <v>124.118629480053</v>
+        <v>145.703444755585</v>
       </c>
       <c r="M14">
-        <v>87.0762003409945</v>
+        <v>85.12626556165969</v>
       </c>
       <c r="N14">
-        <v>81.6425104005354</v>
+        <v>85.999469298444</v>
       </c>
       <c r="O14">
-        <v>5726.31695355429</v>
+        <v>6114.11962322981</v>
       </c>
       <c r="P14">
-        <v>76.1652406033763</v>
+        <v>46.8517567502259</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>641.672078335101</v>
+        <v>473.977580440048</v>
       </c>
       <c r="C15">
-        <v>63.6066313665236</v>
+        <v>52.0209607367624</v>
       </c>
       <c r="D15">
-        <v>6.72388525409331</v>
+        <v>8.84746996911748</v>
       </c>
       <c r="E15">
-        <v>76.6924822274478</v>
+        <v>75.0701473936259</v>
       </c>
       <c r="F15">
-        <v>16.4142282527078</v>
+        <v>16.2433637943759</v>
       </c>
       <c r="G15">
-        <v>43.7169023599986</v>
+        <v>52.9650860196924</v>
       </c>
       <c r="H15">
-        <v>46.5127460936464</v>
+        <v>51.0397143350143</v>
       </c>
       <c r="I15">
-        <v>43.4424150021567</v>
+        <v>59.2834893493725</v>
       </c>
       <c r="J15">
-        <v>199.222810309433</v>
+        <v>239.561639540814</v>
       </c>
       <c r="K15">
-        <v>53.3073057429982</v>
+        <v>73.88254784485891</v>
       </c>
       <c r="L15">
-        <v>53.5470376238575</v>
+        <v>57.3271456938967</v>
       </c>
       <c r="M15">
-        <v>201.80560848279</v>
+        <v>172.917264027561</v>
       </c>
       <c r="N15">
-        <v>88.76163425536819</v>
+        <v>106.181125959971</v>
       </c>
       <c r="O15">
-        <v>2685.02914348255</v>
+        <v>2797.1487612436</v>
       </c>
       <c r="P15">
-        <v>55.0214238907706</v>
+        <v>50.0409977865341</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>235.208677363693</v>
+        <v>166.543738594988</v>
       </c>
       <c r="C16">
-        <v>76.675693914573</v>
+        <v>79.3694348489208</v>
       </c>
       <c r="D16">
-        <v>8.80528959143733</v>
+        <v>16.078511050871</v>
       </c>
       <c r="E16">
-        <v>34.4974862117056</v>
+        <v>27.8931201527127</v>
       </c>
       <c r="F16">
-        <v>5.75684451235348</v>
+        <v>5.7573190447047</v>
       </c>
       <c r="G16">
-        <v>14.8279528948659</v>
+        <v>18.2352695857099</v>
       </c>
       <c r="H16">
-        <v>25.3536636536092</v>
+        <v>23.4815151991957</v>
       </c>
       <c r="I16">
-        <v>7.03681954529878</v>
+        <v>8.18086082578604</v>
       </c>
       <c r="J16">
-        <v>54.6288495813327</v>
+        <v>57.2466253677387</v>
       </c>
       <c r="K16">
-        <v>59.5450803225448</v>
+        <v>65.32825442590981</v>
       </c>
       <c r="L16">
-        <v>37.5663925508345</v>
+        <v>36.770710227534</v>
       </c>
       <c r="M16">
-        <v>29.0240494671392</v>
+        <v>19.8333491877871</v>
       </c>
       <c r="N16">
-        <v>27.3037098741171</v>
+        <v>33.340089305877</v>
       </c>
       <c r="O16">
-        <v>1417.26501806006</v>
+        <v>1528.21545546634</v>
       </c>
       <c r="P16">
-        <v>108.704953301224</v>
+        <v>107.932773628004</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>292.006483947076</v>
+        <v>203.807714497076</v>
       </c>
       <c r="C17">
-        <v>29.1069857191215</v>
+        <v>25.6635197861388</v>
       </c>
       <c r="D17">
-        <v>5.78247355088181</v>
+        <v>7.98295329627616</v>
       </c>
       <c r="E17">
-        <v>23.5994321921711</v>
+        <v>17.1547252708358</v>
       </c>
       <c r="F17">
-        <v>16.2353866481289</v>
+        <v>15.8119941161452</v>
       </c>
       <c r="G17">
-        <v>12.421454429737</v>
+        <v>15.7417604315603</v>
       </c>
       <c r="H17">
-        <v>12.7036161482329</v>
+        <v>10.2099276413767</v>
       </c>
       <c r="I17">
-        <v>7.75995665886092</v>
+        <v>9.40983105053845</v>
       </c>
       <c r="J17">
-        <v>19.3223274344973</v>
+        <v>20.1461483436483</v>
       </c>
       <c r="K17">
-        <v>17.7248253048893</v>
+        <v>22.3415080434263</v>
       </c>
       <c r="L17">
-        <v>12.1723504426851</v>
+        <v>13.7202091894046</v>
       </c>
       <c r="M17">
-        <v>87.200271980892</v>
+        <v>96.0722765782054</v>
       </c>
       <c r="N17">
-        <v>12.8657524282604</v>
+        <v>14.1964997985292</v>
       </c>
       <c r="O17">
-        <v>1287.98323739517</v>
+        <v>1407.346791116</v>
       </c>
       <c r="P17">
-        <v>64.30908931709379</v>
+        <v>58.7033333129373</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>625.298670348436</v>
+        <v>432.546483200668</v>
       </c>
       <c r="C18">
-        <v>37.0159898763166</v>
+        <v>39.9275703885656</v>
       </c>
       <c r="D18">
-        <v>13.6711083602616</v>
+        <v>11.671053544388</v>
       </c>
       <c r="E18">
-        <v>46.3384838464277</v>
+        <v>38.7307290913392</v>
       </c>
       <c r="F18">
-        <v>40.2780708899777</v>
+        <v>45.0153865692859</v>
       </c>
       <c r="G18">
-        <v>18.7979794825018</v>
+        <v>31.7679681260951</v>
       </c>
       <c r="H18">
-        <v>28.1162842463176</v>
+        <v>30.3352968427557</v>
       </c>
       <c r="I18">
-        <v>9.285701460980411</v>
+        <v>10.4555047480444</v>
       </c>
       <c r="J18">
-        <v>53.7629400806467</v>
+        <v>47.9694263236273</v>
       </c>
       <c r="K18">
-        <v>24.8193488642891</v>
+        <v>28.7466176900666</v>
       </c>
       <c r="L18">
-        <v>37.0827399850514</v>
+        <v>46.1195092636838</v>
       </c>
       <c r="M18">
-        <v>80.77545327404449</v>
+        <v>79.29619834589489</v>
       </c>
       <c r="N18">
-        <v>31.2043064270135</v>
+        <v>29.4073883656648</v>
       </c>
       <c r="O18">
-        <v>1946.8854836613</v>
+        <v>2157.66107895486</v>
       </c>
       <c r="P18">
-        <v>65.1696136849919</v>
+        <v>61.2299590700538</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>683.457565396648</v>
+        <v>489.36555045666</v>
       </c>
       <c r="C19">
-        <v>23.9390828066193</v>
+        <v>27.0447254796825</v>
       </c>
       <c r="D19">
-        <v>8.197225141305511</v>
+        <v>8.43986807610052</v>
       </c>
       <c r="E19">
-        <v>39.025975991751</v>
+        <v>29.7216556869433</v>
       </c>
       <c r="F19">
-        <v>73.0052320265977</v>
+        <v>88.9027922308057</v>
       </c>
       <c r="G19">
-        <v>37.5229172275505</v>
+        <v>45.3598607088333</v>
       </c>
       <c r="H19">
-        <v>7.72479571340602</v>
+        <v>6.71329003182477</v>
       </c>
       <c r="I19">
-        <v>10.3627670980481</v>
+        <v>11.831781171356</v>
       </c>
       <c r="J19">
-        <v>19.4911677792739</v>
+        <v>14.1198340051448</v>
       </c>
       <c r="K19">
-        <v>12.6335771990762</v>
+        <v>14.9858592079242</v>
       </c>
       <c r="L19">
-        <v>3.42600710387581</v>
+        <v>4.26827171868016</v>
       </c>
       <c r="M19">
-        <v>50.1821751882975</v>
+        <v>44.8104069495187</v>
       </c>
       <c r="N19">
-        <v>4.09548613025783</v>
+        <v>4.02107166226169</v>
       </c>
       <c r="O19">
-        <v>2017.15382201863</v>
+        <v>2212.71118024581</v>
       </c>
       <c r="P19">
-        <v>62.7259164793122</v>
+        <v>51.8373118803743</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>163.759047902302</v>
+        <v>118.68954633446</v>
       </c>
       <c r="C20">
-        <v>10.2335616930807</v>
+        <v>10.8559424392129</v>
       </c>
       <c r="D20">
-        <v>12.4800591345884</v>
+        <v>13.7773719662536</v>
       </c>
       <c r="E20">
-        <v>41.1814904775115</v>
+        <v>40.2677155430093</v>
       </c>
       <c r="F20">
-        <v>0.583205571082719</v>
+        <v>0.533775048147521</v>
       </c>
       <c r="G20">
-        <v>0.866677295233846</v>
+        <v>0.907842639612361</v>
       </c>
       <c r="H20">
-        <v>2.13546693179543</v>
+        <v>4.01055110733286</v>
       </c>
       <c r="I20">
-        <v>0.475061920160563</v>
+        <v>0.338682648234526</v>
       </c>
       <c r="J20">
-        <v>8.421989323626351</v>
+        <v>7.41690825353524</v>
       </c>
       <c r="K20">
-        <v>3.86395921512508</v>
+        <v>5.14971422955054</v>
       </c>
       <c r="L20">
-        <v>8.93796956563927</v>
+        <v>9.572675461022071</v>
       </c>
       <c r="M20">
-        <v>19.6149048363888</v>
+        <v>28.6869599802716</v>
       </c>
       <c r="N20">
-        <v>6.84592947781528</v>
+        <v>6.83191755828065</v>
       </c>
       <c r="O20">
-        <v>679.604913433607</v>
+        <v>738.044566905642</v>
       </c>
       <c r="P20">
-        <v>23.895875135325</v>
+        <v>21.1248480260407</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>505.189582683953</v>
+        <v>366.018093127576</v>
       </c>
       <c r="C21">
-        <v>16.5789966304431</v>
+        <v>17.8124635369531</v>
       </c>
       <c r="D21">
-        <v>8.3720218382374</v>
+        <v>7.73987040929255</v>
       </c>
       <c r="E21">
-        <v>31.6510594957373</v>
+        <v>23.4834534252377</v>
       </c>
       <c r="F21">
-        <v>1.6732504987497</v>
+        <v>1.38264222354762</v>
       </c>
       <c r="G21">
-        <v>20.2774404827046</v>
+        <v>22.3100028813532</v>
       </c>
       <c r="H21">
-        <v>12.7961141086961</v>
+        <v>13.1391901049702</v>
       </c>
       <c r="I21">
-        <v>5.71388887671107</v>
+        <v>6.17994285763681</v>
       </c>
       <c r="J21">
-        <v>19.6263502372026</v>
+        <v>16.303462825897</v>
       </c>
       <c r="K21">
-        <v>4.79989248313678</v>
+        <v>7.91496132831486</v>
       </c>
       <c r="L21">
-        <v>35.1831555113598</v>
+        <v>34.4963244824842</v>
       </c>
       <c r="M21">
-        <v>27.9262091950369</v>
+        <v>28.3829589204005</v>
       </c>
       <c r="N21">
-        <v>16.6999252365316</v>
+        <v>16.7544501753963</v>
       </c>
       <c r="O21">
-        <v>2870.7908740847</v>
+        <v>3027.39700921635</v>
       </c>
       <c r="P21">
-        <v>22.7281763631495</v>
+        <v>24.9178483562945</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>694.514571379216</v>
+        <v>479.530107142575</v>
       </c>
       <c r="C22">
-        <v>15.3447504581075</v>
+        <v>15.6291575802719</v>
       </c>
       <c r="D22">
-        <v>21.7373447364399</v>
+        <v>24.0195119028194</v>
       </c>
       <c r="E22">
-        <v>48.6487624024517</v>
+        <v>35.5706331068851</v>
       </c>
       <c r="F22">
-        <v>0.881761569955258</v>
+        <v>1.00911692513334</v>
       </c>
       <c r="G22">
-        <v>30.4944371799171</v>
+        <v>34.1109784821302</v>
       </c>
       <c r="H22">
-        <v>26.5094643131319</v>
+        <v>34.4869451376966</v>
       </c>
       <c r="I22">
-        <v>9.13963562074246</v>
+        <v>7.34909031198292</v>
       </c>
       <c r="J22">
-        <v>56.206465693156</v>
+        <v>58.7340057221482</v>
       </c>
       <c r="K22">
-        <v>26.1425625920565</v>
+        <v>36.3057063836474</v>
       </c>
       <c r="L22">
-        <v>121.920618906445</v>
+        <v>126.573905844986</v>
       </c>
       <c r="M22">
-        <v>27.109160858867</v>
+        <v>29.8022146292667</v>
       </c>
       <c r="N22">
-        <v>61.5768590665922</v>
+        <v>89.5531128123</v>
       </c>
       <c r="O22">
-        <v>3097.30193514364</v>
+        <v>3276.64036625524</v>
       </c>
       <c r="P22">
-        <v>15.2485748938892</v>
+        <v>14.2429962292161</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1311.05774792499</v>
+        <v>925.324415314323</v>
       </c>
       <c r="C23">
-        <v>56.1486397703053</v>
+        <v>56.3674586852655</v>
       </c>
       <c r="D23">
-        <v>11.0406840459086</v>
+        <v>13.2795192125282</v>
       </c>
       <c r="E23">
-        <v>69.6488695397688</v>
+        <v>50.325748272333</v>
       </c>
       <c r="F23">
-        <v>2.04005582783878</v>
+        <v>0.802200204669868</v>
       </c>
       <c r="G23">
-        <v>66.4470270309649</v>
+        <v>84.9086272065904</v>
       </c>
       <c r="H23">
-        <v>95.50633182898091</v>
+        <v>91.6874558184486</v>
       </c>
       <c r="I23">
-        <v>37.2484191252307</v>
+        <v>39.0452100590138</v>
       </c>
       <c r="J23">
-        <v>168.953803680566</v>
+        <v>171.962606564933</v>
       </c>
       <c r="K23">
-        <v>106.525900319665</v>
+        <v>134.805100540311</v>
       </c>
       <c r="L23">
-        <v>42.6467010512413</v>
+        <v>53.560732628296</v>
       </c>
       <c r="M23">
-        <v>674.069385541536</v>
+        <v>746.437793345754</v>
       </c>
       <c r="N23">
-        <v>104.204440470254</v>
+        <v>116.404799334196</v>
       </c>
       <c r="O23">
-        <v>4091.39084171963</v>
+        <v>4385.41382039871</v>
       </c>
       <c r="P23">
-        <v>71.5466946586716</v>
+        <v>49.0148101832119</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>403.037200275129</v>
+        <v>298.027593628755</v>
       </c>
       <c r="C24">
-        <v>74.9759185347496</v>
+        <v>52.8119627511341</v>
       </c>
       <c r="D24">
-        <v>12.654709361334</v>
+        <v>14.2821544680644</v>
       </c>
       <c r="E24">
-        <v>69.3786077176883</v>
+        <v>52.3563322645579</v>
       </c>
       <c r="F24">
-        <v>23.6078301742985</v>
+        <v>18.350434388106</v>
       </c>
       <c r="G24">
-        <v>15.1107288648826</v>
+        <v>24.5481514737152</v>
       </c>
       <c r="H24">
-        <v>14.7244995734658</v>
+        <v>16.7595807999219</v>
       </c>
       <c r="I24">
-        <v>15.2251885567419</v>
+        <v>13.5527375363346</v>
       </c>
       <c r="J24">
-        <v>63.8872330705022</v>
+        <v>54.4968504633153</v>
       </c>
       <c r="K24">
-        <v>53.3891328333715</v>
+        <v>78.7404888577087</v>
       </c>
       <c r="L24">
-        <v>73.6074221053133</v>
+        <v>70.6145129567735</v>
       </c>
       <c r="M24">
-        <v>25.4278801635836</v>
+        <v>18.3998744011317</v>
       </c>
       <c r="N24">
-        <v>66.8260207497667</v>
+        <v>84.7849635220652</v>
       </c>
       <c r="O24">
-        <v>2333.49032923475</v>
+        <v>2478.33644065968</v>
       </c>
       <c r="P24">
-        <v>117.99828861715</v>
+        <v>93.8048808751375</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>468.242779526618</v>
+        <v>323.718937234248</v>
       </c>
       <c r="C25">
-        <v>50.169353387625</v>
+        <v>53.9643284453278</v>
       </c>
       <c r="D25">
-        <v>19.0841502321416</v>
+        <v>17.9545324393468</v>
       </c>
       <c r="E25">
-        <v>42.6790479884954</v>
+        <v>49.6787881217608</v>
       </c>
       <c r="F25">
-        <v>20.8700074034537</v>
+        <v>35.3233943640585</v>
       </c>
       <c r="G25">
-        <v>15.6440533696264</v>
+        <v>17.0425127329425</v>
       </c>
       <c r="H25">
-        <v>12.8007713697812</v>
+        <v>16.4912189451966</v>
       </c>
       <c r="I25">
-        <v>4.20035628640316</v>
+        <v>4.66742074869874</v>
       </c>
       <c r="J25">
-        <v>21.7322753960477</v>
+        <v>21.2009312566614</v>
       </c>
       <c r="K25">
-        <v>17.4175123230553</v>
+        <v>18.8522130785346</v>
       </c>
       <c r="L25">
-        <v>35.4412109424434</v>
+        <v>37.0779882484933</v>
       </c>
       <c r="M25">
-        <v>51.893861080617</v>
+        <v>49.7495915387057</v>
       </c>
       <c r="N25">
-        <v>46.1136149211425</v>
+        <v>37.6937384933984</v>
       </c>
       <c r="O25">
-        <v>1218.37284972274</v>
+        <v>1371.69165343627</v>
       </c>
       <c r="P25">
-        <v>63.4722714746134</v>
+        <v>61.627396249986</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>594.271087449599</v>
+        <v>405.966731333411</v>
       </c>
       <c r="C26">
-        <v>66.939621546979</v>
+        <v>64.6767121260915</v>
       </c>
       <c r="D26">
-        <v>15.9454335391723</v>
+        <v>13.3710837789088</v>
       </c>
       <c r="E26">
-        <v>52.8363512450627</v>
+        <v>43.7307048557033</v>
       </c>
       <c r="F26">
-        <v>11.3737605737702</v>
+        <v>8.9361518772544</v>
       </c>
       <c r="G26">
-        <v>44.0541134376344</v>
+        <v>55.685458097506</v>
       </c>
       <c r="H26">
-        <v>28.708099709478</v>
+        <v>21.8388127080094</v>
       </c>
       <c r="I26">
-        <v>13.1082884994357</v>
+        <v>14.4494059718283</v>
       </c>
       <c r="J26">
-        <v>56.3949349419658</v>
+        <v>58.3619739249311</v>
       </c>
       <c r="K26">
-        <v>29.5719343015821</v>
+        <v>31.6510889968846</v>
       </c>
       <c r="L26">
-        <v>45.0107186995911</v>
+        <v>39.1285014781807</v>
       </c>
       <c r="M26">
-        <v>90.9366814730885</v>
+        <v>89.032008976139</v>
       </c>
       <c r="N26">
-        <v>35.089370914751</v>
+        <v>37.0840939628542</v>
       </c>
       <c r="O26">
-        <v>2677.79085368371</v>
+        <v>2917.89361519256</v>
       </c>
       <c r="P26">
-        <v>78.10818529706749</v>
+        <v>54.4390860207121</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>100.451266807649</v>
+        <v>79.4212021116889</v>
       </c>
       <c r="C27">
-        <v>4.53859982045052</v>
+        <v>4.71137690127293</v>
       </c>
       <c r="D27">
-        <v>1.1000203383202</v>
+        <v>1.2135863638114</v>
       </c>
       <c r="E27">
-        <v>15.6389905946747</v>
+        <v>17.7196788189702</v>
       </c>
       <c r="F27">
-        <v>10.4183063909036</v>
+        <v>10.7824856328322</v>
       </c>
       <c r="G27">
-        <v>0.829301280516539</v>
+        <v>0.762483979646953</v>
       </c>
       <c r="H27">
-        <v>0.167574969193715</v>
+        <v>0.197842249880317</v>
       </c>
       <c r="I27">
-        <v>2.69318565876199</v>
+        <v>3.83992749881718</v>
       </c>
       <c r="J27">
-        <v>5.17179771734361</v>
+        <v>4.85456230835917</v>
       </c>
       <c r="K27">
-        <v>2.70222363843945</v>
+        <v>2.71015836929212</v>
       </c>
       <c r="L27">
-        <v>2.21646330255174</v>
+        <v>3.22155068534563</v>
       </c>
       <c r="M27">
-        <v>1.11417571145021</v>
+        <v>1.20972681935602</v>
       </c>
       <c r="N27">
-        <v>6.0870734329602</v>
+        <v>6.84396146243095</v>
       </c>
       <c r="O27">
-        <v>536.450352538864</v>
+        <v>588.161524984174</v>
       </c>
       <c r="P27">
-        <v>57.7427002241099</v>
+        <v>55.7359357918597</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>142.89534848374</v>
+        <v>95.6996914724899</v>
       </c>
       <c r="C28">
-        <v>44.7327550484176</v>
+        <v>38.7080837614529</v>
       </c>
       <c r="D28">
-        <v>1.44727374285782</v>
+        <v>2.16004856151685</v>
       </c>
       <c r="E28">
-        <v>11.730202450186</v>
+        <v>9.012707855150181</v>
       </c>
       <c r="F28">
-        <v>2.49641224189662</v>
+        <v>3.17007634880891</v>
       </c>
       <c r="G28">
-        <v>6.93793439454358</v>
+        <v>9.145254318715161</v>
       </c>
       <c r="H28">
-        <v>6.54508125556039</v>
+        <v>9.01621883374062</v>
       </c>
       <c r="I28">
-        <v>5.11204374204889</v>
+        <v>5.38117002553284</v>
       </c>
       <c r="J28">
-        <v>19.7566610135342</v>
+        <v>20.1641671743617</v>
       </c>
       <c r="K28">
-        <v>19.402319398573</v>
+        <v>20.081605050844</v>
       </c>
       <c r="L28">
-        <v>12.6912687051161</v>
+        <v>13.5780029823011</v>
       </c>
       <c r="M28">
-        <v>9.92734396729332</v>
+        <v>9.02349012400215</v>
       </c>
       <c r="N28">
-        <v>10.1294416364426</v>
+        <v>11.2817191383667</v>
       </c>
       <c r="O28">
-        <v>864.590367963756</v>
+        <v>956.612522287095</v>
       </c>
       <c r="P28">
-        <v>98.56285234404039</v>
+        <v>95.47493256077451</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>275.40041802613</v>
+        <v>204.072656990109</v>
       </c>
       <c r="C29">
-        <v>2.63134676798339</v>
+        <v>2.56614933492986</v>
       </c>
       <c r="D29">
-        <v>3.69979511600315</v>
+        <v>5.79898582193846</v>
       </c>
       <c r="E29">
-        <v>6.28074896073978</v>
+        <v>4.82731616239232</v>
       </c>
       <c r="F29">
-        <v>19.6416511796304</v>
+        <v>21.5271699569259</v>
       </c>
       <c r="G29">
-        <v>2.41900674871286</v>
+        <v>3.18898372101306</v>
       </c>
       <c r="H29">
-        <v>2.87608908451968</v>
+        <v>3.2996888378794</v>
       </c>
       <c r="I29">
-        <v>5.17206857384347</v>
+        <v>7.33480588045494</v>
       </c>
       <c r="J29">
-        <v>5.06435477619182</v>
+        <v>5.04334868015618</v>
       </c>
       <c r="K29">
-        <v>2.11597220581931</v>
+        <v>2.96417226969996</v>
       </c>
       <c r="L29">
-        <v>3.92086274090877</v>
+        <v>3.41357751637936</v>
       </c>
       <c r="M29">
-        <v>3.16631821630824</v>
+        <v>3.20916145306092</v>
       </c>
       <c r="N29">
-        <v>11.7023187510851</v>
+        <v>12.2617319058579</v>
       </c>
       <c r="O29">
-        <v>1255.90176460447</v>
+        <v>1360.59256433201</v>
       </c>
       <c r="P29">
-        <v>6.75705019190333</v>
+        <v>5.35235039276365</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>122.937631944566</v>
+        <v>88.6877008078357</v>
       </c>
       <c r="C30">
-        <v>4.0273212537618</v>
+        <v>4.68969423711669</v>
       </c>
       <c r="D30">
-        <v>5.00798614866924</v>
+        <v>6.13256069597078</v>
       </c>
       <c r="E30">
-        <v>12.9802117486905</v>
+        <v>10.143783068633</v>
       </c>
       <c r="F30">
-        <v>0.23754202913375</v>
+        <v>0.254287966269566</v>
       </c>
       <c r="G30">
-        <v>6.78737351478121</v>
+        <v>7.35868193465267</v>
       </c>
       <c r="H30">
-        <v>7.63825627230738</v>
+        <v>9.653369706901531</v>
       </c>
       <c r="I30">
-        <v>2.22625937126231</v>
+        <v>2.63058516458841</v>
       </c>
       <c r="J30">
-        <v>24.0311091602247</v>
+        <v>22.1955733729808</v>
       </c>
       <c r="K30">
-        <v>11.5925196786807</v>
+        <v>16.9190757337905</v>
       </c>
       <c r="L30">
-        <v>48.1685951027727</v>
+        <v>55.8014900525874</v>
       </c>
       <c r="M30">
-        <v>10.7581118491311</v>
+        <v>12.5756716884222</v>
       </c>
       <c r="N30">
-        <v>13.0866890334432</v>
+        <v>14.0030501808088</v>
       </c>
       <c r="O30">
-        <v>674.528423524745</v>
+        <v>725.712460857263</v>
       </c>
       <c r="P30">
-        <v>5.64931282623833</v>
+        <v>5.52665524386573</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1123.5701245734</v>
+        <v>816.016563346366</v>
       </c>
       <c r="C31">
-        <v>42.0178333585841</v>
+        <v>48.0794563751396</v>
       </c>
       <c r="D31">
-        <v>25.1387502526008</v>
+        <v>27.4111502203478</v>
       </c>
       <c r="E31">
-        <v>42.8411696176089</v>
+        <v>29.3036096350158</v>
       </c>
       <c r="F31">
-        <v>11.6372115074091</v>
+        <v>12.0727664527636</v>
       </c>
       <c r="G31">
-        <v>152.51281553513</v>
+        <v>165.155927930137</v>
       </c>
       <c r="H31">
-        <v>18.2662645721158</v>
+        <v>21.2265413313194</v>
       </c>
       <c r="I31">
-        <v>27.4954674109753</v>
+        <v>35.3193184698544</v>
       </c>
       <c r="J31">
-        <v>43.2788598139176</v>
+        <v>41.2040853037308</v>
       </c>
       <c r="K31">
-        <v>19.6376049841303</v>
+        <v>27.3075537522535</v>
       </c>
       <c r="L31">
-        <v>93.1351721069303</v>
+        <v>92.5560655602724</v>
       </c>
       <c r="M31">
-        <v>21.9845512415291</v>
+        <v>21.5476375961507</v>
       </c>
       <c r="N31">
-        <v>60.001253970974</v>
+        <v>66.3260892652237</v>
       </c>
       <c r="O31">
-        <v>4086.56297903454</v>
+        <v>4346.25625050153</v>
       </c>
       <c r="P31">
-        <v>13.8083801232083</v>
+        <v>10.8634635717847</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>272.241283703204</v>
+        <v>206.98208779797</v>
       </c>
       <c r="C32">
-        <v>7.5739079124271</v>
+        <v>6.95689497585913</v>
       </c>
       <c r="D32">
-        <v>2.49915464763106</v>
+        <v>3.6049355665184</v>
       </c>
       <c r="E32">
-        <v>6.27050382687728</v>
+        <v>4.41717527030672</v>
       </c>
       <c r="F32">
-        <v>28.9402404762153</v>
+        <v>39.4131332605479</v>
       </c>
       <c r="G32">
-        <v>0.903710179408539</v>
+        <v>1.16957297342229</v>
       </c>
       <c r="H32">
-        <v>0.101186204866579</v>
+        <v>0.308738269679407</v>
       </c>
       <c r="I32">
-        <v>4.93071255156167</v>
+        <v>5.34393065145125</v>
       </c>
       <c r="J32">
-        <v>8.57999675743787</v>
+        <v>8.262962704490519</v>
       </c>
       <c r="K32">
-        <v>4.12135750622148</v>
+        <v>6.14824465963271</v>
       </c>
       <c r="L32">
-        <v>12.4220320862276</v>
+        <v>14.1604754398681</v>
       </c>
       <c r="M32">
-        <v>5.152671590268</v>
+        <v>4.94908388900519</v>
       </c>
       <c r="N32">
-        <v>6.8942962500805</v>
+        <v>7.93600929106861</v>
       </c>
       <c r="O32">
-        <v>945.371332731899</v>
+        <v>999.489892931745</v>
       </c>
       <c r="P32">
-        <v>33.5050243500312</v>
+        <v>31.8543554199941</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2748.45409868031</v>
+        <v>1979.54049193633</v>
       </c>
       <c r="C33">
-        <v>87.8224833786679</v>
+        <v>87.48550994988101</v>
       </c>
       <c r="D33">
-        <v>72.5385529260779</v>
+        <v>79.9113628521182</v>
       </c>
       <c r="E33">
-        <v>94.5030025981344</v>
+        <v>65.5894947112437</v>
       </c>
       <c r="F33">
-        <v>7.32369772519493</v>
+        <v>6.90447759041484</v>
       </c>
       <c r="G33">
-        <v>73.0796304069552</v>
+        <v>66.42128878816079</v>
       </c>
       <c r="H33">
-        <v>55.1324484527477</v>
+        <v>55.5133191858673</v>
       </c>
       <c r="I33">
-        <v>27.4922993057387</v>
+        <v>27.8091502383025</v>
       </c>
       <c r="J33">
-        <v>113.519828338052</v>
+        <v>116.773140770746</v>
       </c>
       <c r="K33">
-        <v>101.488210115922</v>
+        <v>111.08138559754</v>
       </c>
       <c r="L33">
-        <v>155.286093474999</v>
+        <v>166.664180936953</v>
       </c>
       <c r="M33">
-        <v>91.4803272377825</v>
+        <v>100.716733751427</v>
       </c>
       <c r="N33">
-        <v>165.769915839819</v>
+        <v>199.168143155994</v>
       </c>
       <c r="O33">
-        <v>8907.47482909863</v>
+        <v>9568.29342217492</v>
       </c>
       <c r="P33">
-        <v>75.2178596038253</v>
+        <v>57.0071268803272</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1041.43834293359</v>
+        <v>717.177663350687</v>
       </c>
       <c r="C34">
-        <v>102.498873138947</v>
+        <v>105.256857786183</v>
       </c>
       <c r="D34">
-        <v>210.067572993429</v>
+        <v>226.263540920965</v>
       </c>
       <c r="E34">
-        <v>74.3095191156288</v>
+        <v>67.1143333995275</v>
       </c>
       <c r="F34">
-        <v>3.27336851785923</v>
+        <v>3.30573584706208</v>
       </c>
       <c r="G34">
-        <v>79.3412262564828</v>
+        <v>89.1565833207958</v>
       </c>
       <c r="H34">
-        <v>53.8667374170699</v>
+        <v>65.6781363362939</v>
       </c>
       <c r="I34">
-        <v>26.918628343171</v>
+        <v>29.6437720294999</v>
       </c>
       <c r="J34">
-        <v>45.6999325606298</v>
+        <v>52.0453008303019</v>
       </c>
       <c r="K34">
-        <v>52.0552144091179</v>
+        <v>80.35881392084529</v>
       </c>
       <c r="L34">
-        <v>103.315631541115</v>
+        <v>132.954044609065</v>
       </c>
       <c r="M34">
-        <v>54.882704974944</v>
+        <v>54.2775097006604</v>
       </c>
       <c r="N34">
-        <v>156.319573682239</v>
+        <v>167.356076463716</v>
       </c>
       <c r="O34">
-        <v>3687.04367007452</v>
+        <v>3915.03670456684</v>
       </c>
       <c r="P34">
-        <v>91.42989037936241</v>
+        <v>87.1428770720417</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>59.126996305186</v>
+        <v>41.69951795369</v>
       </c>
       <c r="C35">
-        <v>10.780940798731</v>
+        <v>9.571814449604069</v>
       </c>
       <c r="D35">
-        <v>0.638345411910222</v>
+        <v>0.763592875503231</v>
       </c>
       <c r="E35">
-        <v>3.58443667655008</v>
+        <v>4.32256814079012</v>
       </c>
       <c r="F35">
-        <v>7.11619200887555</v>
+        <v>6.9436005130732</v>
       </c>
       <c r="G35">
-        <v>0.435076712246811</v>
+        <v>0.355506813939191</v>
       </c>
       <c r="H35">
-        <v>0.471648634735549</v>
+        <v>0.675362754454632</v>
       </c>
       <c r="I35">
-        <v>0.700797484456322</v>
+        <v>0.9492165116171381</v>
       </c>
       <c r="J35">
-        <v>2.9035859412781</v>
+        <v>2.62763875096249</v>
       </c>
       <c r="K35">
-        <v>6.28900657690696</v>
+        <v>8.10789252570572</v>
       </c>
       <c r="L35">
-        <v>2.95599476280536</v>
+        <v>3.2131860753288</v>
       </c>
       <c r="M35">
-        <v>2.71738373208931</v>
+        <v>2.86620662171682</v>
       </c>
       <c r="N35">
-        <v>3.54857879570068</v>
+        <v>3.52439609677732</v>
       </c>
       <c r="O35">
-        <v>357.093991421371</v>
+        <v>401.705708325547</v>
       </c>
       <c r="P35">
-        <v>61.2174468353626</v>
+        <v>54.2817330249497</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1420.66462979211</v>
+        <v>978.546736529624</v>
       </c>
       <c r="C36">
-        <v>83.4454966803616</v>
+        <v>82.6741963168564</v>
       </c>
       <c r="D36">
-        <v>18.8877826693928</v>
+        <v>19.1747669501565</v>
       </c>
       <c r="E36">
-        <v>120.460748505175</v>
+        <v>90.99043398250851</v>
       </c>
       <c r="F36">
-        <v>30.1167026717828</v>
+        <v>43.7607148501066</v>
       </c>
       <c r="G36">
-        <v>91.9793740259029</v>
+        <v>120.949168314293</v>
       </c>
       <c r="H36">
-        <v>124.296189818084</v>
+        <v>133.049720989794</v>
       </c>
       <c r="I36">
-        <v>63.1371106322419</v>
+        <v>55.489829812166</v>
       </c>
       <c r="J36">
-        <v>253.664745690867</v>
+        <v>252.371357768261</v>
       </c>
       <c r="K36">
-        <v>103.091749302543</v>
+        <v>139.076075181198</v>
       </c>
       <c r="L36">
-        <v>106.961413680797</v>
+        <v>118.472389913303</v>
       </c>
       <c r="M36">
-        <v>276.417287497563</v>
+        <v>266.052506718401</v>
       </c>
       <c r="N36">
-        <v>93.2653072413338</v>
+        <v>106.432086722667</v>
       </c>
       <c r="O36">
-        <v>5063.77982372216</v>
+        <v>5459.8083454814</v>
       </c>
       <c r="P36">
-        <v>47.7426448737802</v>
+        <v>40.7374672540682</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>430.219540146821</v>
+        <v>287.934885282691</v>
       </c>
       <c r="C37">
-        <v>30.0258035798255</v>
+        <v>27.1301006032344</v>
       </c>
       <c r="D37">
-        <v>6.0439350997975</v>
+        <v>6.589464161369</v>
       </c>
       <c r="E37">
-        <v>16.0591491069247</v>
+        <v>15.372627546018</v>
       </c>
       <c r="F37">
-        <v>48.0203555272131</v>
+        <v>49.9304553101322</v>
       </c>
       <c r="G37">
-        <v>6.82755944574516</v>
+        <v>8.434894538055531</v>
       </c>
       <c r="H37">
-        <v>23.1497054981364</v>
+        <v>25.188531088614</v>
       </c>
       <c r="I37">
-        <v>9.411821890953149</v>
+        <v>13.8568365595326</v>
       </c>
       <c r="J37">
-        <v>37.609694168453</v>
+        <v>39.5865853840122</v>
       </c>
       <c r="K37">
-        <v>44.2439603791062</v>
+        <v>51.8405659162057</v>
       </c>
       <c r="L37">
-        <v>26.7186565957776</v>
+        <v>30.2007546838042</v>
       </c>
       <c r="M37">
-        <v>35.0402876244235</v>
+        <v>34.626794566143</v>
       </c>
       <c r="N37">
-        <v>18.8307961591338</v>
+        <v>22.9053285285921</v>
       </c>
       <c r="O37">
-        <v>1594.17800481725</v>
+        <v>1692.39859283461</v>
       </c>
       <c r="P37">
-        <v>51.4606637977641</v>
+        <v>53.1770046980342</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>447.73977172871</v>
+        <v>348.329903805498</v>
       </c>
       <c r="C38">
-        <v>32.006701206628</v>
+        <v>31.1463530939597</v>
       </c>
       <c r="D38">
-        <v>14.3792758703754</v>
+        <v>18.9898638437078</v>
       </c>
       <c r="E38">
-        <v>57.4032871285976</v>
+        <v>50.8674655981439</v>
       </c>
       <c r="F38">
-        <v>2.14448945864621</v>
+        <v>1.90527941823672</v>
       </c>
       <c r="G38">
-        <v>7.06137088592748</v>
+        <v>8.18199133446587</v>
       </c>
       <c r="H38">
-        <v>6.62017293425608</v>
+        <v>8.28490724198576</v>
       </c>
       <c r="I38">
-        <v>2.70448212915122</v>
+        <v>2.96934766528513</v>
       </c>
       <c r="J38">
-        <v>44.4909040932485</v>
+        <v>47.072656378302</v>
       </c>
       <c r="K38">
-        <v>18.2393557281366</v>
+        <v>21.0419345828521</v>
       </c>
       <c r="L38">
-        <v>86.5437324758533</v>
+        <v>97.6087615561096</v>
       </c>
       <c r="M38">
-        <v>23.3790321626123</v>
+        <v>26.8938590343296</v>
       </c>
       <c r="N38">
-        <v>24.0507606899885</v>
+        <v>28.1786716596611</v>
       </c>
       <c r="O38">
-        <v>1678.60111777366</v>
+        <v>1752.81915710339</v>
       </c>
       <c r="P38">
-        <v>87.1361150789127</v>
+        <v>73.99990837180211</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1529.50115149462</v>
+        <v>1048.22334814039</v>
       </c>
       <c r="C39">
-        <v>112.001638484627</v>
+        <v>134.018670389639</v>
       </c>
       <c r="D39">
-        <v>81.7507949764484</v>
+        <v>70.37241661058739</v>
       </c>
       <c r="E39">
-        <v>127.538854217937</v>
+        <v>92.2163459116284</v>
       </c>
       <c r="F39">
-        <v>33.4329545983311</v>
+        <v>24.7840644254565</v>
       </c>
       <c r="G39">
-        <v>115.641849937162</v>
+        <v>149.96149473428</v>
       </c>
       <c r="H39">
-        <v>58.5345608109465</v>
+        <v>52.6682994892343</v>
       </c>
       <c r="I39">
-        <v>58.5949948448324</v>
+        <v>59.8153994760163</v>
       </c>
       <c r="J39">
-        <v>206.566365604422</v>
+        <v>187.387813244715</v>
       </c>
       <c r="K39">
-        <v>105.326211287454</v>
+        <v>139.563786579264</v>
       </c>
       <c r="L39">
-        <v>120.753284019899</v>
+        <v>137.17525328941</v>
       </c>
       <c r="M39">
-        <v>83.656529521076</v>
+        <v>88.74554731682891</v>
       </c>
       <c r="N39">
-        <v>125.013268674051</v>
+        <v>136.571892005045</v>
       </c>
       <c r="O39">
-        <v>5823.73131840736</v>
+        <v>6268.05788065533</v>
       </c>
       <c r="P39">
-        <v>77.64487787587871</v>
+        <v>60.0340266780056</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>120.26966148207</v>
+        <v>89.1341896366704</v>
       </c>
       <c r="C40">
-        <v>4.35277912864519</v>
+        <v>4.09710817485704</v>
       </c>
       <c r="D40">
-        <v>12.0338976511596</v>
+        <v>12.1952695000454</v>
       </c>
       <c r="E40">
-        <v>8.7961482071335</v>
+        <v>6.63707746000279</v>
       </c>
       <c r="F40">
-        <v>0.200413638374588</v>
+        <v>0.383508118891181</v>
       </c>
       <c r="G40">
-        <v>6.21050949497172</v>
+        <v>7.73177440851193</v>
       </c>
       <c r="H40">
-        <v>6.55563545990259</v>
+        <v>9.644776644071889</v>
       </c>
       <c r="I40">
-        <v>2.89434104505615</v>
+        <v>2.37977767016637</v>
       </c>
       <c r="J40">
-        <v>17.6008595684072</v>
+        <v>17.8896760238666</v>
       </c>
       <c r="K40">
-        <v>4.98425145023234</v>
+        <v>10.1317782016174</v>
       </c>
       <c r="L40">
-        <v>17.4854513538753</v>
+        <v>16.6908557422407</v>
       </c>
       <c r="M40">
-        <v>7.90658774017877</v>
+        <v>9.256139387002399</v>
       </c>
       <c r="N40">
-        <v>34.5202007099029</v>
+        <v>39.7640351643583</v>
       </c>
       <c r="O40">
-        <v>576.313616717942</v>
+        <v>631.131283769934</v>
       </c>
       <c r="P40">
-        <v>2.02867275916006</v>
+        <v>1.85083769721439</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>539.029364149457</v>
+        <v>369.545194221529</v>
       </c>
       <c r="C41">
-        <v>17.1734066249109</v>
+        <v>12.6206262073752</v>
       </c>
       <c r="D41">
-        <v>102.669251934726</v>
+        <v>111.268967520228</v>
       </c>
       <c r="E41">
-        <v>57.6475061276093</v>
+        <v>56.7237670099515</v>
       </c>
       <c r="F41">
-        <v>3.3956760002936</v>
+        <v>3.38608174282555</v>
       </c>
       <c r="G41">
-        <v>42.6261130275509</v>
+        <v>65.4298670045555</v>
       </c>
       <c r="H41">
-        <v>45.9723562098083</v>
+        <v>57.3840066191762</v>
       </c>
       <c r="I41">
-        <v>7.85815896869057</v>
+        <v>9.728580656123089</v>
       </c>
       <c r="J41">
-        <v>64.4783356049803</v>
+        <v>76.1631892619977</v>
       </c>
       <c r="K41">
-        <v>30.0298032282691</v>
+        <v>42.2593504568254</v>
       </c>
       <c r="L41">
-        <v>33.5758679462117</v>
+        <v>35.0298672962767</v>
       </c>
       <c r="M41">
-        <v>54.7702515579957</v>
+        <v>57.3268768859541</v>
       </c>
       <c r="N41">
-        <v>25.0726428537419</v>
+        <v>27.9617705050112</v>
       </c>
       <c r="O41">
-        <v>1842.41684268326</v>
+        <v>1939.48431399905</v>
       </c>
       <c r="P41">
-        <v>18.7128142943327</v>
+        <v>19.0166505065096</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>64.38748165556061</v>
+        <v>49.0872245879759</v>
       </c>
       <c r="C42">
-        <v>11.1314576770658</v>
+        <v>11.6598678061782</v>
       </c>
       <c r="D42">
-        <v>0.379330696988338</v>
+        <v>0.566123274811093</v>
       </c>
       <c r="E42">
-        <v>12.0524053820528</v>
+        <v>11.2535121216198</v>
       </c>
       <c r="F42">
-        <v>3.37639604555796</v>
+        <v>3.48890017252168</v>
       </c>
       <c r="G42">
-        <v>0.7018200934755</v>
+        <v>0.987614245213008</v>
       </c>
       <c r="H42">
-        <v>1.95158393440478</v>
+        <v>2.05689223746161</v>
       </c>
       <c r="I42">
-        <v>3.25517809207777</v>
+        <v>2.33494734629571</v>
       </c>
       <c r="J42">
-        <v>6.19767073429855</v>
+        <v>6.70849987427948</v>
       </c>
       <c r="K42">
-        <v>5.73528375074295</v>
+        <v>8.58204765391802</v>
       </c>
       <c r="L42">
-        <v>8.147995973276521</v>
+        <v>10.6691278855658</v>
       </c>
       <c r="M42">
-        <v>3.91497680505381</v>
+        <v>4.69651029852436</v>
       </c>
       <c r="N42">
-        <v>8.781178364693441</v>
+        <v>10.4595119671425</v>
       </c>
       <c r="O42">
-        <v>453.488554816488</v>
+        <v>519.990976402539</v>
       </c>
       <c r="P42">
-        <v>64.11715351382141</v>
+        <v>58.5013939687465</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>877.9085628796651</v>
+        <v>598.320939205811</v>
       </c>
       <c r="C43">
-        <v>57.1990654153879</v>
+        <v>50.7986405498867</v>
       </c>
       <c r="D43">
-        <v>34.884965004985</v>
+        <v>38.9409422693116</v>
       </c>
       <c r="E43">
-        <v>75.7743882374584</v>
+        <v>55.4101683518182</v>
       </c>
       <c r="F43">
-        <v>6.59630398384727</v>
+        <v>10.1359125093052</v>
       </c>
       <c r="G43">
-        <v>41.8086413614023</v>
+        <v>47.9488965214131</v>
       </c>
       <c r="H43">
-        <v>31.2413805892072</v>
+        <v>29.1563460102154</v>
       </c>
       <c r="I43">
-        <v>22.5472334279312</v>
+        <v>34.4086641718086</v>
       </c>
       <c r="J43">
-        <v>60.7698566869041</v>
+        <v>56.9159577684415</v>
       </c>
       <c r="K43">
-        <v>48.6622838670316</v>
+        <v>70.61805119749469</v>
       </c>
       <c r="L43">
-        <v>48.0528155736837</v>
+        <v>50.9773466513777</v>
       </c>
       <c r="M43">
-        <v>108.561287327156</v>
+        <v>101.357449707898</v>
       </c>
       <c r="N43">
-        <v>60.1812859771965</v>
+        <v>77.5871668607478</v>
       </c>
       <c r="O43">
-        <v>2602.97002330068</v>
+        <v>2834.46328238675</v>
       </c>
       <c r="P43">
-        <v>58.258712844942</v>
+        <v>62.1488887425518</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2986.95832234875</v>
+        <v>2139.90641079332</v>
       </c>
       <c r="C44">
-        <v>137.825896343866</v>
+        <v>176.71116300424</v>
       </c>
       <c r="D44">
-        <v>54.8709366254781</v>
+        <v>60.2755932179246</v>
       </c>
       <c r="E44">
-        <v>101.786009652934</v>
+        <v>85.9162460130966</v>
       </c>
       <c r="F44">
-        <v>262.063397460524</v>
+        <v>304.316158844864</v>
       </c>
       <c r="G44">
-        <v>121.428653333767</v>
+        <v>160.578153985526</v>
       </c>
       <c r="H44">
-        <v>49.5075821230938</v>
+        <v>50.054975346569</v>
       </c>
       <c r="I44">
-        <v>49.9306617611807</v>
+        <v>58.9033874240635</v>
       </c>
       <c r="J44">
-        <v>124.024502530622</v>
+        <v>133.813406088548</v>
       </c>
       <c r="K44">
-        <v>91.9237812882496</v>
+        <v>115.070234676333</v>
       </c>
       <c r="L44">
-        <v>216.129470584869</v>
+        <v>240.251950007915</v>
       </c>
       <c r="M44">
-        <v>131.401633706299</v>
+        <v>131.000905823747</v>
       </c>
       <c r="N44">
-        <v>103.223378221249</v>
+        <v>102.107321208875</v>
       </c>
       <c r="O44">
-        <v>9442.79685704943</v>
+        <v>9920.51669130178</v>
       </c>
       <c r="P44">
-        <v>230.671796300344</v>
+        <v>256.543236621509</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>317.518818873078</v>
+        <v>243.719528045533</v>
       </c>
       <c r="C45">
-        <v>24.2440408734722</v>
+        <v>21.1553993310561</v>
       </c>
       <c r="D45">
-        <v>4.18341992695226</v>
+        <v>4.73520228214344</v>
       </c>
       <c r="E45">
-        <v>14.0068422431402</v>
+        <v>9.772410875076661</v>
       </c>
       <c r="F45">
-        <v>23.3393716579806</v>
+        <v>26.8802451464447</v>
       </c>
       <c r="G45">
-        <v>13.9073720515791</v>
+        <v>14.6617300703497</v>
       </c>
       <c r="H45">
-        <v>2.5925533363444</v>
+        <v>3.78272990121601</v>
       </c>
       <c r="I45">
-        <v>5.5987753544423</v>
+        <v>5.22190314167941</v>
       </c>
       <c r="J45">
-        <v>16.1438875840101</v>
+        <v>16.4213941037093</v>
       </c>
       <c r="K45">
-        <v>6.38806474859418</v>
+        <v>9.422894430881691</v>
       </c>
       <c r="L45">
-        <v>17.6755511887559</v>
+        <v>20.3191263503888</v>
       </c>
       <c r="M45">
-        <v>24.5073369040648</v>
+        <v>25.3352835354485</v>
       </c>
       <c r="N45">
-        <v>25.8555286710006</v>
+        <v>26.8743054923511</v>
       </c>
       <c r="O45">
-        <v>980.920686677084</v>
+        <v>1049.80701440827</v>
       </c>
       <c r="P45">
-        <v>18.8033981737221</v>
+        <v>15.1875489280534</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>57.0353317587558</v>
+        <v>45.6574885003715</v>
       </c>
       <c r="C46">
-        <v>7.08209891418809</v>
+        <v>7.10849379769224</v>
       </c>
       <c r="D46">
-        <v>1.64580335129095</v>
+        <v>1.77075574989081</v>
       </c>
       <c r="E46">
-        <v>8.032293191858679</v>
+        <v>7.28732739224183</v>
       </c>
       <c r="F46">
-        <v>1.76713894929305</v>
+        <v>1.75889106838565</v>
       </c>
       <c r="G46">
-        <v>2.9823943472359</v>
+        <v>3.21169182237509</v>
       </c>
       <c r="H46">
-        <v>3.11688541719338</v>
+        <v>4.6782887848821</v>
       </c>
       <c r="I46">
-        <v>1.8288308641637</v>
+        <v>2.04578736972476</v>
       </c>
       <c r="J46">
-        <v>6.94875584858103</v>
+        <v>6.88953185130292</v>
       </c>
       <c r="K46">
-        <v>3.93119998896982</v>
+        <v>4.95354118989803</v>
       </c>
       <c r="L46">
-        <v>16.1190429789703</v>
+        <v>20.7255667871735</v>
       </c>
       <c r="M46">
-        <v>6.42262632554379</v>
+        <v>7.03432828790782</v>
       </c>
       <c r="N46">
-        <v>8.05629035289803</v>
+        <v>8.952343146458739</v>
       </c>
       <c r="O46">
-        <v>385.66946843507</v>
+        <v>427.486008206635</v>
       </c>
       <c r="P46">
-        <v>15.2765083363225</v>
+        <v>12.8860842061405</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>823.368535833025</v>
+        <v>564.523584250657</v>
       </c>
       <c r="C47">
-        <v>62.0163744904168</v>
+        <v>67.4917811163004</v>
       </c>
       <c r="D47">
-        <v>45.4560535198921</v>
+        <v>39.386893167033</v>
       </c>
       <c r="E47">
-        <v>56.8965138109596</v>
+        <v>41.3923510403097</v>
       </c>
       <c r="F47">
-        <v>13.8702282858318</v>
+        <v>11.5104652317203</v>
       </c>
       <c r="G47">
-        <v>20.1352542308272</v>
+        <v>25.6978293192188</v>
       </c>
       <c r="H47">
-        <v>20.3461846128804</v>
+        <v>21.6964220431095</v>
       </c>
       <c r="I47">
-        <v>10.7503312663546</v>
+        <v>13.0429311375578</v>
       </c>
       <c r="J47">
-        <v>42.4956961562746</v>
+        <v>59.0219375821575</v>
       </c>
       <c r="K47">
-        <v>16.9443495189897</v>
+        <v>17.6500683407222</v>
       </c>
       <c r="L47">
-        <v>50.3804901479896</v>
+        <v>59.5964652869692</v>
       </c>
       <c r="M47">
-        <v>71.4528575209128</v>
+        <v>77.3084098970288</v>
       </c>
       <c r="N47">
-        <v>34.6667953818482</v>
+        <v>34.1735595080322</v>
       </c>
       <c r="O47">
-        <v>3518.21434349752</v>
+        <v>3771.15948801193</v>
       </c>
       <c r="P47">
-        <v>59.5444109623096</v>
+        <v>47.2343631143088</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>792.448493775973</v>
+        <v>591.4113107358201</v>
       </c>
       <c r="C48">
-        <v>29.7830021985186</v>
+        <v>20.143121404807</v>
       </c>
       <c r="D48">
-        <v>7.46041141499652</v>
+        <v>10.8062562068797</v>
       </c>
       <c r="E48">
-        <v>63.64406041293</v>
+        <v>70.2815107536572</v>
       </c>
       <c r="F48">
-        <v>10.2963888674698</v>
+        <v>14.3220266966227</v>
       </c>
       <c r="G48">
-        <v>3.17554301807994</v>
+        <v>5.00626711526784</v>
       </c>
       <c r="H48">
-        <v>5.08437917939453</v>
+        <v>4.6842845622981</v>
       </c>
       <c r="I48">
-        <v>12.7963457704319</v>
+        <v>17.6040720286915</v>
       </c>
       <c r="J48">
-        <v>38.7049820577144</v>
+        <v>34.6014497319972</v>
       </c>
       <c r="K48">
-        <v>16.8604964133751</v>
+        <v>21.1280351452504</v>
       </c>
       <c r="L48">
-        <v>46.5279605344952</v>
+        <v>46.1336027175167</v>
       </c>
       <c r="M48">
-        <v>138.069169527053</v>
+        <v>175.843736485576</v>
       </c>
       <c r="N48">
-        <v>37.6964740731225</v>
+        <v>32.7826463083521</v>
       </c>
       <c r="O48">
-        <v>2876.3761320013</v>
+        <v>3023.82673595596</v>
       </c>
       <c r="P48">
-        <v>107.563033249274</v>
+        <v>91.7383633124393</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>407.155530992314</v>
+        <v>283.653976987007</v>
       </c>
       <c r="C49">
-        <v>7.61221398088434</v>
+        <v>7.27235418807037</v>
       </c>
       <c r="D49">
-        <v>2.00608056407397</v>
+        <v>3.54685254281713</v>
       </c>
       <c r="E49">
-        <v>20.9157071720803</v>
+        <v>22.026723563961</v>
       </c>
       <c r="F49">
-        <v>44.4472031587457</v>
+        <v>53.4255262742964</v>
       </c>
       <c r="G49">
-        <v>21.2406472915526</v>
+        <v>27.8483859640491</v>
       </c>
       <c r="H49">
-        <v>13.30501607866</v>
+        <v>11.8229345145327</v>
       </c>
       <c r="I49">
-        <v>7.61806240763553</v>
+        <v>8.632374838920191</v>
       </c>
       <c r="J49">
-        <v>30.227605284738</v>
+        <v>34.7740556294957</v>
       </c>
       <c r="K49">
-        <v>10.4223303162941</v>
+        <v>12.2450897341763</v>
       </c>
       <c r="L49">
-        <v>3.09046644712118</v>
+        <v>3.97096060314338</v>
       </c>
       <c r="M49">
-        <v>6.61448661139453</v>
+        <v>7.10430131822889</v>
       </c>
       <c r="N49">
-        <v>4.36502259486892</v>
+        <v>4.39932259122342</v>
       </c>
       <c r="O49">
-        <v>878.8320000889</v>
+        <v>984.266359018083</v>
       </c>
       <c r="P49">
-        <v>20.7180374136277</v>
+        <v>17.2007334085681</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>495.926951975641</v>
+        <v>366.225326429795</v>
       </c>
       <c r="C50">
-        <v>87.9532191990365</v>
+        <v>91.6198353192443</v>
       </c>
       <c r="D50">
-        <v>11.9036063748533</v>
+        <v>12.4943820636175</v>
       </c>
       <c r="E50">
-        <v>157.469226370845</v>
+        <v>129.829802276494</v>
       </c>
       <c r="F50">
-        <v>10.4051156904585</v>
+        <v>7.2079862995556</v>
       </c>
       <c r="G50">
-        <v>26.0061437158343</v>
+        <v>40.7403219352862</v>
       </c>
       <c r="H50">
-        <v>52.3002650712702</v>
+        <v>46.0961951631222</v>
       </c>
       <c r="I50">
-        <v>19.7101920607434</v>
+        <v>18.3445483116277</v>
       </c>
       <c r="J50">
-        <v>132.242487370033</v>
+        <v>122.948240789398</v>
       </c>
       <c r="K50">
-        <v>77.09075979280929</v>
+        <v>88.9049366646465</v>
       </c>
       <c r="L50">
-        <v>75.0203546255251</v>
+        <v>94.2191492283178</v>
       </c>
       <c r="M50">
-        <v>40.9287593862555</v>
+        <v>30.5912764623589</v>
       </c>
       <c r="N50">
-        <v>77.481115209446</v>
+        <v>89.2325749935177</v>
       </c>
       <c r="O50">
-        <v>2421.05840060056</v>
+        <v>2604.34467523992</v>
       </c>
       <c r="P50">
-        <v>102.683919614649</v>
+        <v>68.5588206370067</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>72.48137008608219</v>
+        <v>58.4091847742574</v>
       </c>
       <c r="C51">
-        <v>2.42136951424182</v>
+        <v>2.65356065433515</v>
       </c>
       <c r="D51">
-        <v>0.106233553163122</v>
+        <v>0.115783120704101</v>
       </c>
       <c r="E51">
-        <v>3.43647600829666</v>
+        <v>2.96821998021641</v>
       </c>
       <c r="F51">
-        <v>44.5580677064122</v>
+        <v>52.8655510670188</v>
       </c>
       <c r="G51">
-        <v>3.52118677126337</v>
+        <v>3.21672722429112</v>
       </c>
       <c r="H51">
-        <v>0.193288746903191</v>
+        <v>0.156333083997816</v>
       </c>
       <c r="I51">
-        <v>0.981759954040038</v>
+        <v>1.12674175436944</v>
       </c>
       <c r="J51">
-        <v>2.18176232237831</v>
+        <v>2.87491275071174</v>
       </c>
       <c r="K51">
-        <v>0.784548767630009</v>
+        <v>1.29559235616469</v>
       </c>
       <c r="L51">
-        <v>0.251218514078397</v>
+        <v>0.314968963288772</v>
       </c>
       <c r="M51">
-        <v>0.505480357610081</v>
+        <v>0.622367915339185</v>
       </c>
       <c r="N51">
-        <v>1.34698621586777</v>
+        <v>1.40918079106704</v>
       </c>
       <c r="O51">
-        <v>353.267057532756</v>
+        <v>407.957169100945</v>
       </c>
       <c r="P51">
-        <v>23.835534943879</v>
+        <v>25.358187380491</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>421.115981702218</v>
+        <v>925.83247900991</v>
       </c>
       <c r="C2">
-        <v>47.8134734056944</v>
+        <v>37.6646382082726</v>
       </c>
       <c r="D2">
-        <v>72.08099924307361</v>
+        <v>59.0293840570478</v>
       </c>
       <c r="E2">
-        <v>95.55001107397879</v>
+        <v>70.66522523780461</v>
       </c>
       <c r="F2">
-        <v>28.6225669686455</v>
+        <v>22.5755039432948</v>
       </c>
       <c r="G2">
-        <v>21.7440451907773</v>
+        <v>17.8711175754911</v>
       </c>
       <c r="H2">
-        <v>36.2200309981404</v>
+        <v>30.6736847502924</v>
       </c>
       <c r="I2">
-        <v>25.9466031252899</v>
+        <v>21.4042982181681</v>
       </c>
       <c r="J2">
-        <v>91.1678313621223</v>
+        <v>73.558132548863</v>
       </c>
       <c r="K2">
-        <v>27.9408788344928</v>
+        <v>22.2701955598882</v>
       </c>
       <c r="L2">
-        <v>37.1799277308343</v>
+        <v>32.4617424361503</v>
       </c>
       <c r="M2">
-        <v>62.7446234902174</v>
+        <v>49.2429508792649</v>
       </c>
       <c r="N2">
-        <v>28.3525351906708</v>
+        <v>22.7214480749705</v>
       </c>
       <c r="O2">
-        <v>2134.05842774711</v>
+        <v>1753.10558122306</v>
       </c>
       <c r="P2">
-        <v>38.0707236713576</v>
+        <v>30.4179828852129</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>96.3241899308195</v>
+        <v>151.980965527715</v>
       </c>
       <c r="C3">
-        <v>5.61287681729607</v>
+        <v>4.76950879617486</v>
       </c>
       <c r="D3">
-        <v>0.238261731393022</v>
+        <v>0.211002910271463</v>
       </c>
       <c r="E3">
-        <v>1.06172819542159</v>
+        <v>0.937271123687735</v>
       </c>
       <c r="F3">
-        <v>16.4359820591804</v>
+        <v>14.3815499675473</v>
       </c>
       <c r="G3">
-        <v>0.215051902743136</v>
+        <v>0.190305536176526</v>
       </c>
       <c r="H3">
-        <v>0.205795512290038</v>
+        <v>0.334932165906904</v>
       </c>
       <c r="I3">
-        <v>0.244112751631894</v>
+        <v>0.21546247191202</v>
       </c>
       <c r="J3">
-        <v>0.407371731375541</v>
+        <v>0.362799994917581</v>
       </c>
       <c r="K3">
-        <v>0.139027018680729</v>
+        <v>0.124837708438262</v>
       </c>
       <c r="L3">
-        <v>0.19888385450403</v>
+        <v>0.175345829345018</v>
       </c>
       <c r="M3">
-        <v>0.923944385879701</v>
+        <v>0.881840404080815</v>
       </c>
       <c r="N3">
-        <v>0.91814697672401</v>
+        <v>0.879935445075488</v>
       </c>
       <c r="O3">
-        <v>451.623311046533</v>
+        <v>400.548408660193</v>
       </c>
       <c r="P3">
-        <v>12.1728697211168</v>
+        <v>10.4903701058563</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>524.195350854113</v>
+        <v>969.9500847143059</v>
       </c>
       <c r="C4">
-        <v>15.217302330098</v>
+        <v>13.1609534893854</v>
       </c>
       <c r="D4">
-        <v>5.63333374896551</v>
+        <v>4.81964529896121</v>
       </c>
       <c r="E4">
-        <v>14.7234367410984</v>
+        <v>12.7654345401819</v>
       </c>
       <c r="F4">
-        <v>6.34778119921431</v>
+        <v>5.44947900534847</v>
       </c>
       <c r="G4">
-        <v>12.660138809763</v>
+        <v>10.6094237623913</v>
       </c>
       <c r="H4">
-        <v>12.1963199693725</v>
+        <v>9.972000190442699</v>
       </c>
       <c r="I4">
-        <v>17.0030624743752</v>
+        <v>14.5379288817685</v>
       </c>
       <c r="J4">
-        <v>40.7208050213831</v>
+        <v>34.1649235120527</v>
       </c>
       <c r="K4">
-        <v>12.6256950089114</v>
+        <v>10.9406297861967</v>
       </c>
       <c r="L4">
-        <v>100.229190883463</v>
+        <v>82.2636040252536</v>
       </c>
       <c r="M4">
-        <v>72.4969698508401</v>
+        <v>61.4816978638849</v>
       </c>
       <c r="N4">
-        <v>43.2048284212595</v>
+        <v>37.2066100758041</v>
       </c>
       <c r="O4">
-        <v>2822.3624141733</v>
+        <v>2444.42114680914</v>
       </c>
       <c r="P4">
-        <v>43.5029300423156</v>
+        <v>36.1913956779781</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>252.387468740432</v>
+        <v>594.7296130207971</v>
       </c>
       <c r="C5">
-        <v>84.48978879885721</v>
+        <v>67.4909485152947</v>
       </c>
       <c r="D5">
-        <v>20.4024457249417</v>
+        <v>15.2366164707586</v>
       </c>
       <c r="E5">
-        <v>48.846070612155</v>
+        <v>38.8514620296753</v>
       </c>
       <c r="F5">
-        <v>2.40284282023252</v>
+        <v>2.77141809480366</v>
       </c>
       <c r="G5">
-        <v>10.570365153048</v>
+        <v>8.57942963346272</v>
       </c>
       <c r="H5">
-        <v>17.1986592341392</v>
+        <v>13.9486518662862</v>
       </c>
       <c r="I5">
-        <v>12.0324156461988</v>
+        <v>8.820754642556461</v>
       </c>
       <c r="J5">
-        <v>41.5632370705034</v>
+        <v>33.5604075504408</v>
       </c>
       <c r="K5">
-        <v>28.0220109330783</v>
+        <v>22.4776188596987</v>
       </c>
       <c r="L5">
-        <v>27.1440284440127</v>
+        <v>21.3881553983973</v>
       </c>
       <c r="M5">
-        <v>22.9269824840616</v>
+        <v>17.1472420741379</v>
       </c>
       <c r="N5">
-        <v>21.7748405924575</v>
+        <v>17.9601275456013</v>
       </c>
       <c r="O5">
-        <v>1270.3850487022</v>
+        <v>1010.81358351105</v>
       </c>
       <c r="P5">
-        <v>61.7745410807708</v>
+        <v>49.2903234335467</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>3685.45153538335</v>
+        <v>5842.09632326584</v>
       </c>
       <c r="C6">
-        <v>165.900085621703</v>
+        <v>149.428398185847</v>
       </c>
       <c r="D6">
-        <v>207.288283572162</v>
+        <v>179.889680652052</v>
       </c>
       <c r="E6">
-        <v>147.998481870238</v>
+        <v>128.918837002281</v>
       </c>
       <c r="F6">
-        <v>33.4165936466313</v>
+        <v>29.7339088403752</v>
       </c>
       <c r="G6">
-        <v>135.739638389628</v>
+        <v>122.202799494074</v>
       </c>
       <c r="H6">
-        <v>82.6037067865949</v>
+        <v>72.53454108006351</v>
       </c>
       <c r="I6">
-        <v>60.1050313011654</v>
+        <v>52.9142636394966</v>
       </c>
       <c r="J6">
-        <v>211.17775411097</v>
+        <v>189.109142747289</v>
       </c>
       <c r="K6">
-        <v>137.933639920787</v>
+        <v>122.588446180727</v>
       </c>
       <c r="L6">
-        <v>593.70128144883</v>
+        <v>520.082624426027</v>
       </c>
       <c r="M6">
-        <v>375.654634612161</v>
+        <v>332.632168673768</v>
       </c>
       <c r="N6">
-        <v>348.592902582805</v>
+        <v>308.860861724576</v>
       </c>
       <c r="O6">
-        <v>15933.8055942435</v>
+        <v>14085.1081412228</v>
       </c>
       <c r="P6">
-        <v>228.989057617041</v>
+        <v>209.075631138222</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>359.633140974114</v>
+        <v>625.169410062626</v>
       </c>
       <c r="C7">
-        <v>41.1876272393768</v>
+        <v>36.8780571339137</v>
       </c>
       <c r="D7">
-        <v>2.83454556214238</v>
+        <v>2.57951204236617</v>
       </c>
       <c r="E7">
-        <v>18.3175165573384</v>
+        <v>17.0477269587222</v>
       </c>
       <c r="F7">
-        <v>15.7859234977469</v>
+        <v>12.8020045971085</v>
       </c>
       <c r="G7">
-        <v>12.7524551555623</v>
+        <v>10.5737099197257</v>
       </c>
       <c r="H7">
-        <v>8.88152976940636</v>
+        <v>7.97911167967686</v>
       </c>
       <c r="I7">
-        <v>9.656543912861091</v>
+        <v>8.476541847906789</v>
       </c>
       <c r="J7">
-        <v>21.1159474186671</v>
+        <v>19.6764606524824</v>
       </c>
       <c r="K7">
-        <v>15.0025886999214</v>
+        <v>14.276480553704</v>
       </c>
       <c r="L7">
-        <v>63.4569001426739</v>
+        <v>55.9432829975475</v>
       </c>
       <c r="M7">
-        <v>25.4398081844754</v>
+        <v>21.2849679107934</v>
       </c>
       <c r="N7">
-        <v>30.3257285832284</v>
+        <v>25.4559698718982</v>
       </c>
       <c r="O7">
-        <v>2269.77223643784</v>
+        <v>2038.30647472705</v>
       </c>
       <c r="P7">
-        <v>26.9522431545488</v>
+        <v>23.4025205020098</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>261.28739966753</v>
+        <v>479.703907956652</v>
       </c>
       <c r="C8">
-        <v>13.857431566404</v>
+        <v>12.1683821301674</v>
       </c>
       <c r="D8">
-        <v>7.37391971591213</v>
+        <v>7.34799737355999</v>
       </c>
       <c r="E8">
-        <v>16.3614861800633</v>
+        <v>14.7240643166844</v>
       </c>
       <c r="F8">
-        <v>1.72548627846951</v>
+        <v>1.65848200860613</v>
       </c>
       <c r="G8">
-        <v>42.3434656555943</v>
+        <v>37.5981134972571</v>
       </c>
       <c r="H8">
-        <v>13.8544445428758</v>
+        <v>13.0837447735447</v>
       </c>
       <c r="I8">
-        <v>1.36655991534073</v>
+        <v>1.23334943031351</v>
       </c>
       <c r="J8">
-        <v>62.5958397845213</v>
+        <v>55.7433985919526</v>
       </c>
       <c r="K8">
-        <v>34.3854404709021</v>
+        <v>28.7296134904342</v>
       </c>
       <c r="L8">
-        <v>53.8773130815083</v>
+        <v>47.7494016672009</v>
       </c>
       <c r="M8">
-        <v>84.48070611883939</v>
+        <v>73.07131454215759</v>
       </c>
       <c r="N8">
-        <v>27.9628013696776</v>
+        <v>24.9804253347692</v>
       </c>
       <c r="O8">
-        <v>1716.32446542342</v>
+        <v>1537.18786738464</v>
       </c>
       <c r="P8">
-        <v>5.98862526064642</v>
+        <v>6.03334496345286</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>72.6018229985595</v>
+        <v>170.361995712877</v>
       </c>
       <c r="C9">
-        <v>13.9743758350063</v>
+        <v>11.6480225640755</v>
       </c>
       <c r="D9">
-        <v>2.33028551141131</v>
+        <v>1.59392377289428</v>
       </c>
       <c r="E9">
-        <v>7.05565395359307</v>
+        <v>5.98878249670845</v>
       </c>
       <c r="F9">
-        <v>2.92630682768279</v>
+        <v>2.52642563612067</v>
       </c>
       <c r="G9">
-        <v>36.2816540002748</v>
+        <v>29.9265235556366</v>
       </c>
       <c r="H9">
-        <v>3.07312551671746</v>
+        <v>2.61428480411331</v>
       </c>
       <c r="I9">
-        <v>2.39556473395603</v>
+        <v>2.06034941022197</v>
       </c>
       <c r="J9">
-        <v>5.68689750967758</v>
+        <v>4.7500133919135</v>
       </c>
       <c r="K9">
-        <v>6.16517120961739</v>
+        <v>4.8519949840299</v>
       </c>
       <c r="L9">
-        <v>6.2730925994235</v>
+        <v>5.35857827505178</v>
       </c>
       <c r="M9">
-        <v>11.6826344949677</v>
+        <v>9.651997195754831</v>
       </c>
       <c r="N9">
-        <v>8.37526468948654</v>
+        <v>7.16689621251374</v>
       </c>
       <c r="O9">
-        <v>559.374340771751</v>
+        <v>482.14826790319</v>
       </c>
       <c r="P9">
-        <v>10.7982286080977</v>
+        <v>8.59796672398728</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1621.52153741264</v>
+        <v>3120.71924506574</v>
       </c>
       <c r="C10">
-        <v>59.5117629605252</v>
+        <v>51.6958320772291</v>
       </c>
       <c r="D10">
-        <v>23.0398513175647</v>
+        <v>19.5175222612414</v>
       </c>
       <c r="E10">
-        <v>54.3898545519283</v>
+        <v>47.2192872326065</v>
       </c>
       <c r="F10">
-        <v>13.1870090716699</v>
+        <v>11.4650648892891</v>
       </c>
       <c r="G10">
-        <v>29.2092768939426</v>
+        <v>26.6976537541433</v>
       </c>
       <c r="H10">
-        <v>19.100285610618</v>
+        <v>16.992675177576</v>
       </c>
       <c r="I10">
-        <v>39.3955122701097</v>
+        <v>34.8069510134771</v>
       </c>
       <c r="J10">
-        <v>63.9152056795176</v>
+        <v>53.8854012562809</v>
       </c>
       <c r="K10">
-        <v>44.8659280645329</v>
+        <v>38.0358527407189</v>
       </c>
       <c r="L10">
-        <v>127.039132810333</v>
+        <v>107.243505345583</v>
       </c>
       <c r="M10">
-        <v>127.778253692694</v>
+        <v>108.158845588354</v>
       </c>
       <c r="N10">
-        <v>115.228850382877</v>
+        <v>98.6837135070875</v>
       </c>
       <c r="O10">
-        <v>9747.09548952162</v>
+        <v>8363.17695240739</v>
       </c>
       <c r="P10">
-        <v>69.839342186187</v>
+        <v>63.6591127835852</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>711.047105100742</v>
+        <v>1471.43849076484</v>
       </c>
       <c r="C11">
-        <v>68.1578834103765</v>
+        <v>58.1700559843716</v>
       </c>
       <c r="D11">
-        <v>181.440642764616</v>
+        <v>152.44287370825</v>
       </c>
       <c r="E11">
-        <v>118.774487057489</v>
+        <v>98.2695626525508</v>
       </c>
       <c r="F11">
-        <v>5.15075203894028</v>
+        <v>4.46547847224848</v>
       </c>
       <c r="G11">
-        <v>37.4893486204136</v>
+        <v>30.8147611817696</v>
       </c>
       <c r="H11">
-        <v>18.1439180161912</v>
+        <v>15.7152496306619</v>
       </c>
       <c r="I11">
-        <v>25.2691197616407</v>
+        <v>21.6320473359542</v>
       </c>
       <c r="J11">
-        <v>73.61865352795481</v>
+        <v>60.4352520662724</v>
       </c>
       <c r="K11">
-        <v>37.3151639302271</v>
+        <v>30.7535549421174</v>
       </c>
       <c r="L11">
-        <v>70.3058208972289</v>
+        <v>59.6955185408867</v>
       </c>
       <c r="M11">
-        <v>56.2359076342273</v>
+        <v>45.6423228588771</v>
       </c>
       <c r="N11">
-        <v>52.2681907994966</v>
+        <v>45.5142271328852</v>
       </c>
       <c r="O11">
-        <v>4286.61122928926</v>
+        <v>3652.50681017408</v>
       </c>
       <c r="P11">
-        <v>23.6933246152142</v>
+        <v>17.8790092158937</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>121.800621771707</v>
+        <v>231.765668468874</v>
       </c>
       <c r="C12">
-        <v>10.4751360082368</v>
+        <v>8.78591581589928</v>
       </c>
       <c r="D12">
-        <v>2.40041750349058</v>
+        <v>1.86470413103306</v>
       </c>
       <c r="E12">
-        <v>1.20355570674008</v>
+        <v>1.34249676942467</v>
       </c>
       <c r="F12">
-        <v>0.575743433255197</v>
+        <v>0.514229468523755</v>
       </c>
       <c r="G12">
-        <v>0.756395584326063</v>
+        <v>0.66834822941777</v>
       </c>
       <c r="H12">
-        <v>0.66281064082799</v>
+        <v>0.585833862837458</v>
       </c>
       <c r="I12">
-        <v>1.74932370855629</v>
+        <v>1.54427079796142</v>
       </c>
       <c r="J12">
-        <v>1.06969291931135</v>
+        <v>0.942751269353726</v>
       </c>
       <c r="K12">
-        <v>0.314821849665021</v>
+        <v>0.234711860529269</v>
       </c>
       <c r="L12">
-        <v>0.5611201603211981</v>
+        <v>0.49176067421449</v>
       </c>
       <c r="M12">
-        <v>3.97648369029081</v>
+        <v>3.54941141421595</v>
       </c>
       <c r="N12">
-        <v>5.74219089420829</v>
+        <v>5.22923196844377</v>
       </c>
       <c r="O12">
-        <v>845.215746701141</v>
+        <v>744.140054270955</v>
       </c>
       <c r="P12">
-        <v>24.671296762728</v>
+        <v>20.4573102901061</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>122.809644760329</v>
+        <v>227.790800862373</v>
       </c>
       <c r="C13">
-        <v>33.0802792043695</v>
+        <v>28.7058863724392</v>
       </c>
       <c r="D13">
-        <v>2.17099517973351</v>
+        <v>1.91247724488104</v>
       </c>
       <c r="E13">
-        <v>17.220553059639</v>
+        <v>15.4724876494158</v>
       </c>
       <c r="F13">
-        <v>3.82640610283712</v>
+        <v>3.37608551992259</v>
       </c>
       <c r="G13">
-        <v>6.63165019911049</v>
+        <v>5.88268033404224</v>
       </c>
       <c r="H13">
-        <v>3.01709297810998</v>
+        <v>2.28960737676939</v>
       </c>
       <c r="I13">
-        <v>1.14259937411077</v>
+        <v>1.01469638439839</v>
       </c>
       <c r="J13">
-        <v>8.12695202748179</v>
+        <v>7.183261936408</v>
       </c>
       <c r="K13">
-        <v>4.51828126444585</v>
+        <v>3.97825092050116</v>
       </c>
       <c r="L13">
-        <v>31.5772568092268</v>
+        <v>27.5706064830875</v>
       </c>
       <c r="M13">
-        <v>2.6214342000341</v>
+        <v>3.01205091087865</v>
       </c>
       <c r="N13">
-        <v>9.44598903581617</v>
+        <v>7.71509775338577</v>
       </c>
       <c r="O13">
-        <v>708.907655722391</v>
+        <v>625.827385176864</v>
       </c>
       <c r="P13">
-        <v>58.6859737405686</v>
+        <v>52.0422141546647</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1147.73723261399</v>
+        <v>1911.83479519309</v>
       </c>
       <c r="C14">
-        <v>115.828056653834</v>
+        <v>101.493435625725</v>
       </c>
       <c r="D14">
-        <v>13.2082036887127</v>
+        <v>11.8177798027976</v>
       </c>
       <c r="E14">
-        <v>65.8983899338041</v>
+        <v>59.672708622946</v>
       </c>
       <c r="F14">
-        <v>17.777389156226</v>
+        <v>15.1515451735658</v>
       </c>
       <c r="G14">
-        <v>103.110320812132</v>
+        <v>90.2784006299659</v>
       </c>
       <c r="H14">
-        <v>67.33598754345179</v>
+        <v>58.8974555310446</v>
       </c>
       <c r="I14">
-        <v>27.115928639123</v>
+        <v>24.248779886391</v>
       </c>
       <c r="J14">
-        <v>146.841521006437</v>
+        <v>130.669014398425</v>
       </c>
       <c r="K14">
-        <v>200.422820959827</v>
+        <v>177.524484320527</v>
       </c>
       <c r="L14">
-        <v>145.703444755585</v>
+        <v>130.534802708319</v>
       </c>
       <c r="M14">
-        <v>85.12626556165969</v>
+        <v>74.95391335853751</v>
       </c>
       <c r="N14">
-        <v>85.999469298444</v>
+        <v>78.6796260091855</v>
       </c>
       <c r="O14">
-        <v>6114.11962322981</v>
+        <v>5473.77441089048</v>
       </c>
       <c r="P14">
-        <v>46.8517567502259</v>
+        <v>42.2311723897704</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>473.977580440048</v>
+        <v>921.848915121691</v>
       </c>
       <c r="C15">
-        <v>52.0209607367624</v>
+        <v>46.4950237410221</v>
       </c>
       <c r="D15">
-        <v>8.84746996911748</v>
+        <v>8.47285840212704</v>
       </c>
       <c r="E15">
-        <v>75.0701473936259</v>
+        <v>65.37620200529319</v>
       </c>
       <c r="F15">
-        <v>16.2433637943759</v>
+        <v>14.3521934051786</v>
       </c>
       <c r="G15">
-        <v>52.9650860196924</v>
+        <v>47.0852562957853</v>
       </c>
       <c r="H15">
-        <v>51.0397143350143</v>
+        <v>42.5423866764884</v>
       </c>
       <c r="I15">
-        <v>59.2834893493725</v>
+        <v>50.9824040218695</v>
       </c>
       <c r="J15">
-        <v>239.561639540814</v>
+        <v>206.384723356898</v>
       </c>
       <c r="K15">
-        <v>73.88254784485891</v>
+        <v>58.9096711983219</v>
       </c>
       <c r="L15">
-        <v>57.3271456938967</v>
+        <v>48.5253271670167</v>
       </c>
       <c r="M15">
-        <v>172.917264027561</v>
+        <v>149.58651959058</v>
       </c>
       <c r="N15">
-        <v>106.181125959971</v>
+        <v>93.0301991945296</v>
       </c>
       <c r="O15">
-        <v>2797.1487612436</v>
+        <v>2481.30875997131</v>
       </c>
       <c r="P15">
-        <v>50.0409977865341</v>
+        <v>48.2455927967961</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>166.543738594988</v>
+        <v>361.557681276079</v>
       </c>
       <c r="C16">
-        <v>79.3694348489208</v>
+        <v>72.2579211550915</v>
       </c>
       <c r="D16">
-        <v>16.078511050871</v>
+        <v>13.429561491164</v>
       </c>
       <c r="E16">
-        <v>27.8931201527127</v>
+        <v>26.2222331075535</v>
       </c>
       <c r="F16">
-        <v>5.7573190447047</v>
+        <v>5.26198956225765</v>
       </c>
       <c r="G16">
-        <v>18.2352695857099</v>
+        <v>16.4106889072995</v>
       </c>
       <c r="H16">
-        <v>23.4815151991957</v>
+        <v>21.3619371596267</v>
       </c>
       <c r="I16">
-        <v>8.18086082578604</v>
+        <v>7.38793663505119</v>
       </c>
       <c r="J16">
-        <v>57.2466253677387</v>
+        <v>52.6581060751822</v>
       </c>
       <c r="K16">
-        <v>65.32825442590981</v>
+        <v>58.1778425865235</v>
       </c>
       <c r="L16">
-        <v>36.770710227534</v>
+        <v>33.5569074569484</v>
       </c>
       <c r="M16">
-        <v>19.8333491877871</v>
+        <v>17.9603683009725</v>
       </c>
       <c r="N16">
-        <v>33.340089305877</v>
+        <v>30.0084048016654</v>
       </c>
       <c r="O16">
-        <v>1528.21545546634</v>
+        <v>1390.64216476012</v>
       </c>
       <c r="P16">
-        <v>107.932773628004</v>
+        <v>85.04818410427291</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>203.807714497076</v>
+        <v>377.661091554831</v>
       </c>
       <c r="C17">
-        <v>25.6635197861388</v>
+        <v>22.922163532</v>
       </c>
       <c r="D17">
-        <v>7.98295329627616</v>
+        <v>7.73102635061556</v>
       </c>
       <c r="E17">
-        <v>17.1547252708358</v>
+        <v>15.3125198487529</v>
       </c>
       <c r="F17">
-        <v>15.8119941161452</v>
+        <v>13.2933413274293</v>
       </c>
       <c r="G17">
-        <v>15.7417604315603</v>
+        <v>14.4983527395522</v>
       </c>
       <c r="H17">
-        <v>10.2099276413767</v>
+        <v>9.40933516562535</v>
       </c>
       <c r="I17">
-        <v>9.40983105053845</v>
+        <v>8.46675536095889</v>
       </c>
       <c r="J17">
-        <v>20.1461483436483</v>
+        <v>17.1035257095766</v>
       </c>
       <c r="K17">
-        <v>22.3415080434263</v>
+        <v>20.0739266456101</v>
       </c>
       <c r="L17">
-        <v>13.7202091894046</v>
+        <v>12.3536753338601</v>
       </c>
       <c r="M17">
-        <v>96.0722765782054</v>
+        <v>86.24513239378911</v>
       </c>
       <c r="N17">
-        <v>14.1964997985292</v>
+        <v>12.4685551279517</v>
       </c>
       <c r="O17">
-        <v>1407.346791116</v>
+        <v>1270.71305429609</v>
       </c>
       <c r="P17">
-        <v>58.7033333129373</v>
+        <v>48.7610018638168</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>432.546483200668</v>
+        <v>948.949319694193</v>
       </c>
       <c r="C18">
-        <v>39.9275703885656</v>
+        <v>32.6844924698365</v>
       </c>
       <c r="D18">
-        <v>11.671053544388</v>
+        <v>9.98223922167492</v>
       </c>
       <c r="E18">
-        <v>38.7307290913392</v>
+        <v>30.1440425278061</v>
       </c>
       <c r="F18">
-        <v>45.0153865692859</v>
+        <v>35.0197512556931</v>
       </c>
       <c r="G18">
-        <v>31.7679681260951</v>
+        <v>24.3541126209086</v>
       </c>
       <c r="H18">
-        <v>30.3352968427557</v>
+        <v>24.9031317165854</v>
       </c>
       <c r="I18">
-        <v>10.4555047480444</v>
+        <v>8.473869731596549</v>
       </c>
       <c r="J18">
-        <v>47.9694263236273</v>
+        <v>38.5933822183002</v>
       </c>
       <c r="K18">
-        <v>28.7466176900666</v>
+        <v>21.7369776580268</v>
       </c>
       <c r="L18">
-        <v>46.1195092636838</v>
+        <v>37.8301762656849</v>
       </c>
       <c r="M18">
-        <v>79.29619834589489</v>
+        <v>64.4758282029414</v>
       </c>
       <c r="N18">
-        <v>29.4073883656648</v>
+        <v>22.7872792495575</v>
       </c>
       <c r="O18">
-        <v>2157.66107895486</v>
+        <v>1739.35789060115</v>
       </c>
       <c r="P18">
-        <v>61.2299590700538</v>
+        <v>54.6037117442279</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>489.36555045666</v>
+        <v>944.290173162735</v>
       </c>
       <c r="C19">
-        <v>27.0447254796825</v>
+        <v>22.7507782178741</v>
       </c>
       <c r="D19">
-        <v>8.43986807610052</v>
+        <v>7.01200560533509</v>
       </c>
       <c r="E19">
-        <v>29.7216556869433</v>
+        <v>24.4491952841235</v>
       </c>
       <c r="F19">
-        <v>88.9027922308057</v>
+        <v>75.11874582549341</v>
       </c>
       <c r="G19">
-        <v>45.3598607088333</v>
+        <v>37.8867594800088</v>
       </c>
       <c r="H19">
-        <v>6.71329003182477</v>
+        <v>7.19236066679852</v>
       </c>
       <c r="I19">
-        <v>11.831781171356</v>
+        <v>9.819698096016561</v>
       </c>
       <c r="J19">
-        <v>14.1198340051448</v>
+        <v>11.7637947616904</v>
       </c>
       <c r="K19">
-        <v>14.9858592079242</v>
+        <v>12.5244043173584</v>
       </c>
       <c r="L19">
-        <v>4.26827171868016</v>
+        <v>3.21296875803453</v>
       </c>
       <c r="M19">
-        <v>44.8104069495187</v>
+        <v>36.4106792380615</v>
       </c>
       <c r="N19">
-        <v>4.02107166226169</v>
+        <v>3.33472315328767</v>
       </c>
       <c r="O19">
-        <v>2212.71118024581</v>
+        <v>1814.38222500518</v>
       </c>
       <c r="P19">
-        <v>51.8373118803743</v>
+        <v>47.3207958987831</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>118.68954633446</v>
+        <v>248.794394343625</v>
       </c>
       <c r="C20">
-        <v>10.8559424392129</v>
+        <v>9.07055672000422</v>
       </c>
       <c r="D20">
-        <v>13.7773719662536</v>
+        <v>11.5125527961162</v>
       </c>
       <c r="E20">
-        <v>40.2677155430093</v>
+        <v>31.8090497717275</v>
       </c>
       <c r="F20">
-        <v>0.533775048147521</v>
+        <v>0.435156544512033</v>
       </c>
       <c r="G20">
-        <v>0.907842639612361</v>
+        <v>0.780132592401055</v>
       </c>
       <c r="H20">
-        <v>4.01055110733286</v>
+        <v>3.11780932401101</v>
       </c>
       <c r="I20">
-        <v>0.338682648234526</v>
+        <v>0.395972638147528</v>
       </c>
       <c r="J20">
-        <v>7.41690825353524</v>
+        <v>6.59647891646956</v>
       </c>
       <c r="K20">
-        <v>5.14971422955054</v>
+        <v>4.66856603658752</v>
       </c>
       <c r="L20">
-        <v>9.572675461022071</v>
+        <v>7.60917869707238</v>
       </c>
       <c r="M20">
-        <v>28.6869599802716</v>
+        <v>24.3806485093481</v>
       </c>
       <c r="N20">
-        <v>6.83191755828065</v>
+        <v>5.57486969481006</v>
       </c>
       <c r="O20">
-        <v>738.044566905642</v>
+        <v>633.500886633766</v>
       </c>
       <c r="P20">
-        <v>21.1248480260407</v>
+        <v>18.0792794059244</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>366.018093127576</v>
+        <v>755.439482515182</v>
       </c>
       <c r="C21">
-        <v>17.8124635369531</v>
+        <v>15.3236429647663</v>
       </c>
       <c r="D21">
-        <v>7.73987040929255</v>
+        <v>6.80063423550112</v>
       </c>
       <c r="E21">
-        <v>23.4834534252377</v>
+        <v>19.9852099876714</v>
       </c>
       <c r="F21">
-        <v>1.38264222354762</v>
+        <v>1.23801135485222</v>
       </c>
       <c r="G21">
-        <v>22.3100028813532</v>
+        <v>19.6907521602519</v>
       </c>
       <c r="H21">
-        <v>13.1391901049702</v>
+        <v>11.5920047935906</v>
       </c>
       <c r="I21">
-        <v>6.17994285763681</v>
+        <v>5.48592554305006</v>
       </c>
       <c r="J21">
-        <v>16.303462825897</v>
+        <v>14.302050510305</v>
       </c>
       <c r="K21">
-        <v>7.91496132831486</v>
+        <v>6.06119953126937</v>
       </c>
       <c r="L21">
-        <v>34.4963244824842</v>
+        <v>29.6471587350493</v>
       </c>
       <c r="M21">
-        <v>28.3829589204005</v>
+        <v>25.1996806210748</v>
       </c>
       <c r="N21">
-        <v>16.7544501753963</v>
+        <v>14.9464791971897</v>
       </c>
       <c r="O21">
-        <v>3027.39700921635</v>
+        <v>2668.34367433611</v>
       </c>
       <c r="P21">
-        <v>24.9178483562945</v>
+        <v>20.1135371475489</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>479.530107142575</v>
+        <v>909.593570903933</v>
       </c>
       <c r="C22">
-        <v>15.6291575802719</v>
+        <v>13.8470417242319</v>
       </c>
       <c r="D22">
-        <v>24.0195119028194</v>
+        <v>20.3767226207097</v>
       </c>
       <c r="E22">
-        <v>35.5706331068851</v>
+        <v>32.623290902371</v>
       </c>
       <c r="F22">
-        <v>1.00911692513334</v>
+        <v>0.891209209638155</v>
       </c>
       <c r="G22">
-        <v>34.1109784821302</v>
+        <v>29.383089931789</v>
       </c>
       <c r="H22">
-        <v>34.4869451376966</v>
+        <v>28.438624495164</v>
       </c>
       <c r="I22">
-        <v>7.34909031198292</v>
+        <v>5.96010607840504</v>
       </c>
       <c r="J22">
-        <v>58.7340057221482</v>
+        <v>50.2374335541482</v>
       </c>
       <c r="K22">
-        <v>36.3057063836474</v>
+        <v>31.386966778211</v>
       </c>
       <c r="L22">
-        <v>126.573905844986</v>
+        <v>109.115762432396</v>
       </c>
       <c r="M22">
-        <v>29.8022146292667</v>
+        <v>27.6143846184091</v>
       </c>
       <c r="N22">
-        <v>89.5531128123</v>
+        <v>77.9618117580557</v>
       </c>
       <c r="O22">
-        <v>3276.64036625524</v>
+        <v>2911.29255150605</v>
       </c>
       <c r="P22">
-        <v>14.2429962292161</v>
+        <v>13.1656420563339</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>925.324415314323</v>
+        <v>1744.07727880396</v>
       </c>
       <c r="C23">
-        <v>56.3674586852655</v>
+        <v>52.1289064797881</v>
       </c>
       <c r="D23">
-        <v>13.2795192125282</v>
+        <v>11.5458753235267</v>
       </c>
       <c r="E23">
-        <v>50.325748272333</v>
+        <v>44.5567702024119</v>
       </c>
       <c r="F23">
-        <v>0.802200204669868</v>
+        <v>0.600065149350808</v>
       </c>
       <c r="G23">
-        <v>84.9086272065904</v>
+        <v>73.89567049567791</v>
       </c>
       <c r="H23">
-        <v>91.6874558184486</v>
+        <v>78.5514492186573</v>
       </c>
       <c r="I23">
-        <v>39.0452100590138</v>
+        <v>32.3191712891408</v>
       </c>
       <c r="J23">
-        <v>171.962606564933</v>
+        <v>147.798923333867</v>
       </c>
       <c r="K23">
-        <v>134.805100540311</v>
+        <v>117.523650681691</v>
       </c>
       <c r="L23">
-        <v>53.560732628296</v>
+        <v>46.3254137058885</v>
       </c>
       <c r="M23">
-        <v>746.437793345754</v>
+        <v>638.2955818633531</v>
       </c>
       <c r="N23">
-        <v>116.404799334196</v>
+        <v>99.8087192903899</v>
       </c>
       <c r="O23">
-        <v>4385.41382039871</v>
+        <v>3790.21976499139</v>
       </c>
       <c r="P23">
-        <v>49.0148101832119</v>
+        <v>39.942728526404</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>298.027593628755</v>
+        <v>556.699819499879</v>
       </c>
       <c r="C24">
-        <v>52.8119627511341</v>
+        <v>50.1227520422859</v>
       </c>
       <c r="D24">
-        <v>14.2821544680644</v>
+        <v>12.3627437090645</v>
       </c>
       <c r="E24">
-        <v>52.3563322645579</v>
+        <v>47.2979969329621</v>
       </c>
       <c r="F24">
-        <v>18.350434388106</v>
+        <v>17.0391088611807</v>
       </c>
       <c r="G24">
-        <v>24.5481514737152</v>
+        <v>22.5515770710333</v>
       </c>
       <c r="H24">
-        <v>16.7595807999219</v>
+        <v>15.3871388709238</v>
       </c>
       <c r="I24">
-        <v>13.5527375363346</v>
+        <v>12.6316447093779</v>
       </c>
       <c r="J24">
-        <v>54.4968504633153</v>
+        <v>49.3036647222451</v>
       </c>
       <c r="K24">
-        <v>78.7404888577087</v>
+        <v>72.68978456393771</v>
       </c>
       <c r="L24">
-        <v>70.6145129567735</v>
+        <v>63.7880285816246</v>
       </c>
       <c r="M24">
-        <v>18.3998744011317</v>
+        <v>17.1379557600283</v>
       </c>
       <c r="N24">
-        <v>84.7849635220652</v>
+        <v>77.30204728926979</v>
       </c>
       <c r="O24">
-        <v>2478.33644065968</v>
+        <v>2271.43824762104</v>
       </c>
       <c r="P24">
-        <v>93.8048808751375</v>
+        <v>81.6886130163707</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>323.718937234248</v>
+        <v>654.806046153923</v>
       </c>
       <c r="C25">
-        <v>53.9643284453278</v>
+        <v>44.4808400649884</v>
       </c>
       <c r="D25">
-        <v>17.9545324393468</v>
+        <v>13.1078485003994</v>
       </c>
       <c r="E25">
-        <v>49.6787881217608</v>
+        <v>41.5543171225999</v>
       </c>
       <c r="F25">
-        <v>35.3233943640585</v>
+        <v>29.319292236729</v>
       </c>
       <c r="G25">
-        <v>17.0425127329425</v>
+        <v>13.6692500215855</v>
       </c>
       <c r="H25">
-        <v>16.4912189451966</v>
+        <v>12.3924050641844</v>
       </c>
       <c r="I25">
-        <v>4.66742074869874</v>
+        <v>3.86068035401294</v>
       </c>
       <c r="J25">
-        <v>21.2009312566614</v>
+        <v>16.2048989229259</v>
       </c>
       <c r="K25">
-        <v>18.8522130785346</v>
+        <v>15.9018094451921</v>
       </c>
       <c r="L25">
-        <v>37.0779882484933</v>
+        <v>28.4472598974846</v>
       </c>
       <c r="M25">
-        <v>49.7495915387057</v>
+        <v>40.4703343472917</v>
       </c>
       <c r="N25">
-        <v>37.6937384933984</v>
+        <v>32.510785879208</v>
       </c>
       <c r="O25">
-        <v>1371.69165343627</v>
+        <v>1119.24875355136</v>
       </c>
       <c r="P25">
-        <v>61.627396249986</v>
+        <v>51.9456364803377</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>405.966731333411</v>
+        <v>848.456450084161</v>
       </c>
       <c r="C26">
-        <v>64.6767121260915</v>
+        <v>56.8123418512277</v>
       </c>
       <c r="D26">
-        <v>13.3710837789088</v>
+        <v>10.6135969059936</v>
       </c>
       <c r="E26">
-        <v>43.7307048557033</v>
+        <v>37.3771202104514</v>
       </c>
       <c r="F26">
-        <v>8.9361518772544</v>
+        <v>6.82612483492041</v>
       </c>
       <c r="G26">
-        <v>55.685458097506</v>
+        <v>49.0668863784114</v>
       </c>
       <c r="H26">
-        <v>21.8388127080094</v>
+        <v>19.1793274433136</v>
       </c>
       <c r="I26">
-        <v>14.4494059718283</v>
+        <v>12.2560245403489</v>
       </c>
       <c r="J26">
-        <v>58.3619739249311</v>
+        <v>50.0570829839998</v>
       </c>
       <c r="K26">
-        <v>31.6510889968846</v>
+        <v>27.6278475409075</v>
       </c>
       <c r="L26">
-        <v>39.1285014781807</v>
+        <v>33.6945418940815</v>
       </c>
       <c r="M26">
-        <v>89.032008976139</v>
+        <v>78.1250860461179</v>
       </c>
       <c r="N26">
-        <v>37.0840939628542</v>
+        <v>32.6556571586882</v>
       </c>
       <c r="O26">
-        <v>2917.89361519256</v>
+        <v>2545.18632935087</v>
       </c>
       <c r="P26">
-        <v>54.4390860207121</v>
+        <v>49.2747176397049</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>79.4212021116889</v>
+        <v>186.829022099225</v>
       </c>
       <c r="C27">
-        <v>4.71137690127293</v>
+        <v>3.9943751474943</v>
       </c>
       <c r="D27">
-        <v>1.2135863638114</v>
+        <v>1.03942953597838</v>
       </c>
       <c r="E27">
-        <v>17.7196788189702</v>
+        <v>15.089616069023</v>
       </c>
       <c r="F27">
-        <v>10.7824856328322</v>
+        <v>8.69020714773113</v>
       </c>
       <c r="G27">
-        <v>0.762483979646953</v>
+        <v>1.07581288210274</v>
       </c>
       <c r="H27">
-        <v>0.197842249880317</v>
+        <v>0.168749345542896</v>
       </c>
       <c r="I27">
-        <v>3.83992749881718</v>
+        <v>3.47413964138357</v>
       </c>
       <c r="J27">
-        <v>4.85456230835917</v>
+        <v>3.70404725403553</v>
       </c>
       <c r="K27">
-        <v>2.71015836929212</v>
+        <v>2.89494243095046</v>
       </c>
       <c r="L27">
-        <v>3.22155068534563</v>
+        <v>2.7542471876884</v>
       </c>
       <c r="M27">
-        <v>1.20972681935602</v>
+        <v>0.999694286876992</v>
       </c>
       <c r="N27">
-        <v>6.84396146243095</v>
+        <v>5.82678708616068</v>
       </c>
       <c r="O27">
-        <v>588.161524984174</v>
+        <v>496.377453001513</v>
       </c>
       <c r="P27">
-        <v>55.7359357918597</v>
+        <v>49.2883465870906</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>95.6996914724899</v>
+        <v>198.953718456067</v>
       </c>
       <c r="C28">
-        <v>38.7080837614529</v>
+        <v>35.0440394944638</v>
       </c>
       <c r="D28">
-        <v>2.16004856151685</v>
+        <v>1.97703878586297</v>
       </c>
       <c r="E28">
-        <v>9.012707855150181</v>
+        <v>7.94979038687259</v>
       </c>
       <c r="F28">
-        <v>3.17007634880891</v>
+        <v>3.284124700652</v>
       </c>
       <c r="G28">
-        <v>9.145254318715161</v>
+        <v>8.02500881292133</v>
       </c>
       <c r="H28">
-        <v>9.01621883374062</v>
+        <v>7.98037755154936</v>
       </c>
       <c r="I28">
-        <v>5.38117002553284</v>
+        <v>4.22401182794329</v>
       </c>
       <c r="J28">
-        <v>20.1641671743617</v>
+        <v>18.0462056166218</v>
       </c>
       <c r="K28">
-        <v>20.081605050844</v>
+        <v>18.3558097928873</v>
       </c>
       <c r="L28">
-        <v>13.5780029823011</v>
+        <v>11.8442101002949</v>
       </c>
       <c r="M28">
-        <v>9.02349012400215</v>
+        <v>8.292589252988449</v>
       </c>
       <c r="N28">
-        <v>11.2817191383667</v>
+        <v>10.3351434224516</v>
       </c>
       <c r="O28">
-        <v>956.612522287095</v>
+        <v>878.190339588875</v>
       </c>
       <c r="P28">
-        <v>95.47493256077451</v>
+        <v>84.38907897235561</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>204.072656990109</v>
+        <v>393.99895504303</v>
       </c>
       <c r="C29">
-        <v>2.56614933492986</v>
+        <v>2.25083294500363</v>
       </c>
       <c r="D29">
-        <v>5.79898582193846</v>
+        <v>5.05022025280492</v>
       </c>
       <c r="E29">
-        <v>4.82731616239232</v>
+        <v>4.22187412592652</v>
       </c>
       <c r="F29">
-        <v>21.5271699569259</v>
+        <v>18.0392497136814</v>
       </c>
       <c r="G29">
-        <v>3.18898372101306</v>
+        <v>2.7850878593554</v>
       </c>
       <c r="H29">
-        <v>3.2996888378794</v>
+        <v>2.87778293119988</v>
       </c>
       <c r="I29">
-        <v>7.33480588045494</v>
+        <v>6.37779481845634</v>
       </c>
       <c r="J29">
-        <v>5.04334868015618</v>
+        <v>4.40517340926273</v>
       </c>
       <c r="K29">
-        <v>2.96417226969996</v>
+        <v>2.64987614658097</v>
       </c>
       <c r="L29">
-        <v>3.41357751637936</v>
+        <v>2.87866931039355</v>
       </c>
       <c r="M29">
-        <v>3.20916145306092</v>
+        <v>2.81726639228711</v>
       </c>
       <c r="N29">
-        <v>12.2617319058579</v>
+        <v>11.0737778491696</v>
       </c>
       <c r="O29">
-        <v>1360.59256433201</v>
+        <v>1181.99517280222</v>
       </c>
       <c r="P29">
-        <v>5.35235039276365</v>
+        <v>5.11664196691649</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>88.6877008078357</v>
+        <v>173.895092298042</v>
       </c>
       <c r="C30">
-        <v>4.68969423711669</v>
+        <v>4.14724612643626</v>
       </c>
       <c r="D30">
-        <v>6.13256069597078</v>
+        <v>5.80682197746817</v>
       </c>
       <c r="E30">
-        <v>10.143783068633</v>
+        <v>9.36303969739841</v>
       </c>
       <c r="F30">
-        <v>0.254287966269566</v>
+        <v>0.22850892245411</v>
       </c>
       <c r="G30">
-        <v>7.35868193465267</v>
+        <v>6.74532565112141</v>
       </c>
       <c r="H30">
-        <v>9.653369706901531</v>
+        <v>8.445614480732781</v>
       </c>
       <c r="I30">
-        <v>2.63058516458841</v>
+        <v>2.34897003913041</v>
       </c>
       <c r="J30">
-        <v>22.1955733729808</v>
+        <v>19.5963159506845</v>
       </c>
       <c r="K30">
-        <v>16.9190757337905</v>
+        <v>15.2639814877481</v>
       </c>
       <c r="L30">
-        <v>55.8014900525874</v>
+        <v>50.5053952347297</v>
       </c>
       <c r="M30">
-        <v>12.5756716884222</v>
+        <v>11.3247676067956</v>
       </c>
       <c r="N30">
-        <v>14.0030501808088</v>
+        <v>12.4165251775464</v>
       </c>
       <c r="O30">
-        <v>725.712460857263</v>
+        <v>655.45053440547</v>
       </c>
       <c r="P30">
-        <v>5.52665524386573</v>
+        <v>5.45752641855894</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>816.016563346366</v>
+        <v>1381.93574665325</v>
       </c>
       <c r="C31">
-        <v>48.0794563751396</v>
+        <v>43.0994813080501</v>
       </c>
       <c r="D31">
-        <v>27.4111502203478</v>
+        <v>25.1440891026025</v>
       </c>
       <c r="E31">
-        <v>29.3036096350158</v>
+        <v>27.0571563247579</v>
       </c>
       <c r="F31">
-        <v>12.0727664527636</v>
+        <v>10.6552789289373</v>
       </c>
       <c r="G31">
-        <v>165.155927930137</v>
+        <v>139.882431138104</v>
       </c>
       <c r="H31">
-        <v>21.2265413313194</v>
+        <v>16.0699166503434</v>
       </c>
       <c r="I31">
-        <v>35.3193184698544</v>
+        <v>28.517168340105</v>
       </c>
       <c r="J31">
-        <v>41.2040853037308</v>
+        <v>33.4495778747152</v>
       </c>
       <c r="K31">
-        <v>27.3075537522535</v>
+        <v>24.2687628654545</v>
       </c>
       <c r="L31">
-        <v>92.5560655602724</v>
+        <v>82.4657115553792</v>
       </c>
       <c r="M31">
-        <v>21.5476375961507</v>
+        <v>19.109132517011</v>
       </c>
       <c r="N31">
-        <v>66.3260892652237</v>
+        <v>59.9059853033457</v>
       </c>
       <c r="O31">
-        <v>4346.25625050153</v>
+        <v>3855.60221263077</v>
       </c>
       <c r="P31">
-        <v>10.8634635717847</v>
+        <v>10.957787982641</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>206.98208779797</v>
+        <v>378.354225327712</v>
       </c>
       <c r="C32">
-        <v>6.95689497585913</v>
+        <v>6.82572793393925</v>
       </c>
       <c r="D32">
-        <v>3.6049355665184</v>
+        <v>3.24987486358164</v>
       </c>
       <c r="E32">
-        <v>4.41717527030672</v>
+        <v>4.44548213174979</v>
       </c>
       <c r="F32">
-        <v>39.4131332605479</v>
+        <v>31.955792183831</v>
       </c>
       <c r="G32">
-        <v>1.16957297342229</v>
+        <v>0.981064984138324</v>
       </c>
       <c r="H32">
-        <v>0.308738269679407</v>
+        <v>0.257039862994962</v>
       </c>
       <c r="I32">
-        <v>5.34393065145125</v>
+        <v>4.53253447029519</v>
       </c>
       <c r="J32">
-        <v>8.262962704490519</v>
+        <v>6.06019477455268</v>
       </c>
       <c r="K32">
-        <v>6.14824465963271</v>
+        <v>5.20353008167401</v>
       </c>
       <c r="L32">
-        <v>14.1604754398681</v>
+        <v>12.3694504948044</v>
       </c>
       <c r="M32">
-        <v>4.94908388900519</v>
+        <v>4.195363594323</v>
       </c>
       <c r="N32">
-        <v>7.93600929106861</v>
+        <v>7.70761034185685</v>
       </c>
       <c r="O32">
-        <v>999.489892931745</v>
+        <v>850.527587504315</v>
       </c>
       <c r="P32">
-        <v>31.8543554199941</v>
+        <v>25.9424982385189</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>1979.54049193633</v>
+        <v>3559.81091919056</v>
       </c>
       <c r="C33">
-        <v>87.48550994988101</v>
+        <v>72.3271011714635</v>
       </c>
       <c r="D33">
-        <v>79.9113628521182</v>
+        <v>69.8090208071913</v>
       </c>
       <c r="E33">
-        <v>65.5894947112437</v>
+        <v>54.9081610013162</v>
       </c>
       <c r="F33">
-        <v>6.90447759041484</v>
+        <v>5.93473343054569</v>
       </c>
       <c r="G33">
-        <v>66.42128878816079</v>
+        <v>56.5735407971362</v>
       </c>
       <c r="H33">
-        <v>55.5133191858673</v>
+        <v>46.8111415011595</v>
       </c>
       <c r="I33">
-        <v>27.8091502383025</v>
+        <v>21.7196126800738</v>
       </c>
       <c r="J33">
-        <v>116.773140770746</v>
+        <v>95.6977342948645</v>
       </c>
       <c r="K33">
-        <v>111.08138559754</v>
+        <v>93.1632259232594</v>
       </c>
       <c r="L33">
-        <v>166.664180936953</v>
+        <v>137.875576417099</v>
       </c>
       <c r="M33">
-        <v>100.716733751427</v>
+        <v>84.51976082926061</v>
       </c>
       <c r="N33">
-        <v>199.168143155994</v>
+        <v>167.692365826772</v>
       </c>
       <c r="O33">
-        <v>9568.29342217492</v>
+        <v>8178.71499489407</v>
       </c>
       <c r="P33">
-        <v>57.0071268803272</v>
+        <v>48.5041467603967</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>717.177663350687</v>
+        <v>1476.3620618282</v>
       </c>
       <c r="C34">
-        <v>105.256857786183</v>
+        <v>87.27277858760409</v>
       </c>
       <c r="D34">
-        <v>226.263540920965</v>
+        <v>191.215344412087</v>
       </c>
       <c r="E34">
-        <v>67.1143333995275</v>
+        <v>57.4067783893214</v>
       </c>
       <c r="F34">
-        <v>3.30573584706208</v>
+        <v>2.81235883689745</v>
       </c>
       <c r="G34">
-        <v>89.1565833207958</v>
+        <v>74.583037408981</v>
       </c>
       <c r="H34">
-        <v>65.6781363362939</v>
+        <v>55.7358205031396</v>
       </c>
       <c r="I34">
-        <v>29.6437720294999</v>
+        <v>25.3222643463867</v>
       </c>
       <c r="J34">
-        <v>52.0453008303019</v>
+        <v>42.7650486053863</v>
       </c>
       <c r="K34">
-        <v>80.35881392084529</v>
+        <v>67.66833117558851</v>
       </c>
       <c r="L34">
-        <v>132.954044609065</v>
+        <v>111.70873119931</v>
       </c>
       <c r="M34">
-        <v>54.2775097006604</v>
+        <v>47.427361116765</v>
       </c>
       <c r="N34">
-        <v>167.356076463716</v>
+        <v>138.504637579466</v>
       </c>
       <c r="O34">
-        <v>3915.03670456684</v>
+        <v>3343.24609397605</v>
       </c>
       <c r="P34">
-        <v>87.1428770720417</v>
+        <v>68.5104631934103</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>41.69951795369</v>
+        <v>89.6470203940041</v>
       </c>
       <c r="C35">
-        <v>9.571814449604069</v>
+        <v>8.74270620176825</v>
       </c>
       <c r="D35">
-        <v>0.763592875503231</v>
+        <v>0.704432726932243</v>
       </c>
       <c r="E35">
-        <v>4.32256814079012</v>
+        <v>3.90245207436072</v>
       </c>
       <c r="F35">
-        <v>6.9436005130732</v>
+        <v>6.31632487448836</v>
       </c>
       <c r="G35">
-        <v>0.355506813939191</v>
+        <v>0.322424285326147</v>
       </c>
       <c r="H35">
-        <v>0.675362754454632</v>
+        <v>0.610251154599562</v>
       </c>
       <c r="I35">
-        <v>0.9492165116171381</v>
+        <v>0.874124875577168</v>
       </c>
       <c r="J35">
-        <v>2.62763875096249</v>
+        <v>2.3335740364323</v>
       </c>
       <c r="K35">
-        <v>8.10789252570572</v>
+        <v>7.32323693927885</v>
       </c>
       <c r="L35">
-        <v>3.2131860753288</v>
+        <v>2.94158393513709</v>
       </c>
       <c r="M35">
-        <v>2.86620662171682</v>
+        <v>2.59265259196028</v>
       </c>
       <c r="N35">
-        <v>3.52439609677732</v>
+        <v>3.23447983069368</v>
       </c>
       <c r="O35">
-        <v>401.705708325547</v>
+        <v>363.430399344092</v>
       </c>
       <c r="P35">
-        <v>54.2817330249497</v>
+        <v>48.018020879801</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>978.546736529624</v>
+        <v>1906.53338914686</v>
       </c>
       <c r="C36">
-        <v>82.6741963168564</v>
+        <v>68.61693126570211</v>
       </c>
       <c r="D36">
-        <v>19.1747669501565</v>
+        <v>15.9319519505479</v>
       </c>
       <c r="E36">
-        <v>90.99043398250851</v>
+        <v>77.1309132018236</v>
       </c>
       <c r="F36">
-        <v>43.7607148501066</v>
+        <v>39.7448098151141</v>
       </c>
       <c r="G36">
-        <v>120.949168314293</v>
+        <v>99.99978702061409</v>
       </c>
       <c r="H36">
-        <v>133.049720989794</v>
+        <v>107.741879254902</v>
       </c>
       <c r="I36">
-        <v>55.489829812166</v>
+        <v>46.8434585268973</v>
       </c>
       <c r="J36">
-        <v>252.371357768261</v>
+        <v>213.704926033396</v>
       </c>
       <c r="K36">
-        <v>139.076075181198</v>
+        <v>116.602212851376</v>
       </c>
       <c r="L36">
-        <v>118.472389913303</v>
+        <v>100.660561165642</v>
       </c>
       <c r="M36">
-        <v>266.052506718401</v>
+        <v>221.578044200169</v>
       </c>
       <c r="N36">
-        <v>106.432086722667</v>
+        <v>93.22536709705361</v>
       </c>
       <c r="O36">
-        <v>5459.8083454814</v>
+        <v>4755.69437602126</v>
       </c>
       <c r="P36">
-        <v>40.7374672540682</v>
+        <v>40.9612589379689</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>287.934885282691</v>
+        <v>626.016426214193</v>
       </c>
       <c r="C37">
-        <v>27.1301006032344</v>
+        <v>23.7140679315415</v>
       </c>
       <c r="D37">
-        <v>6.589464161369</v>
+        <v>5.05444178354521</v>
       </c>
       <c r="E37">
-        <v>15.372627546018</v>
+        <v>13.444919158534</v>
       </c>
       <c r="F37">
-        <v>49.9304553101322</v>
+        <v>42.0205121219937</v>
       </c>
       <c r="G37">
-        <v>8.434894538055531</v>
+        <v>7.07435178765485</v>
       </c>
       <c r="H37">
-        <v>25.188531088614</v>
+        <v>22.0922062550462</v>
       </c>
       <c r="I37">
-        <v>13.8568365595326</v>
+        <v>11.6771454451464</v>
       </c>
       <c r="J37">
-        <v>39.5865853840122</v>
+        <v>31.0736755244738</v>
       </c>
       <c r="K37">
-        <v>51.8405659162057</v>
+        <v>39.7266780722386</v>
       </c>
       <c r="L37">
-        <v>30.2007546838042</v>
+        <v>25.9422240699368</v>
       </c>
       <c r="M37">
-        <v>34.626794566143</v>
+        <v>26.4975449504577</v>
       </c>
       <c r="N37">
-        <v>22.9053285285921</v>
+        <v>17.2390002473757</v>
       </c>
       <c r="O37">
-        <v>1692.39859283461</v>
+        <v>1418.49316831051</v>
       </c>
       <c r="P37">
-        <v>53.1770046980342</v>
+        <v>50.5835750125091</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>348.329903805498</v>
+        <v>627.391265395863</v>
       </c>
       <c r="C38">
-        <v>31.1463530939597</v>
+        <v>26.6277385858455</v>
       </c>
       <c r="D38">
-        <v>18.9898638437078</v>
+        <v>15.6319499789397</v>
       </c>
       <c r="E38">
-        <v>50.8674655981439</v>
+        <v>44.1199463203</v>
       </c>
       <c r="F38">
-        <v>1.90527941823672</v>
+        <v>1.6875669722889</v>
       </c>
       <c r="G38">
-        <v>8.18199133446587</v>
+        <v>6.94409599169814</v>
       </c>
       <c r="H38">
-        <v>8.28490724198576</v>
+        <v>7.20424662428832</v>
       </c>
       <c r="I38">
-        <v>2.96934766528513</v>
+        <v>2.59378338107871</v>
       </c>
       <c r="J38">
-        <v>47.072656378302</v>
+        <v>39.6738708949235</v>
       </c>
       <c r="K38">
-        <v>21.0419345828521</v>
+        <v>18.062366893351</v>
       </c>
       <c r="L38">
-        <v>97.6087615561096</v>
+        <v>84.7631203759823</v>
       </c>
       <c r="M38">
-        <v>26.8938590343296</v>
+        <v>22.1384336852862</v>
       </c>
       <c r="N38">
-        <v>28.1786716596611</v>
+        <v>24.1368266108536</v>
       </c>
       <c r="O38">
-        <v>1752.81915710339</v>
+        <v>1536.04821437538</v>
       </c>
       <c r="P38">
-        <v>73.99990837180211</v>
+        <v>61.9680632238175</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1048.22334814039</v>
+        <v>2044.9486015934</v>
       </c>
       <c r="C39">
-        <v>134.018670389639</v>
+        <v>118.376065024384</v>
       </c>
       <c r="D39">
-        <v>70.37241661058739</v>
+        <v>52.9566429912552</v>
       </c>
       <c r="E39">
-        <v>92.2163459116284</v>
+        <v>80.0628496408204</v>
       </c>
       <c r="F39">
-        <v>24.7840644254565</v>
+        <v>22.3308065855293</v>
       </c>
       <c r="G39">
-        <v>149.96149473428</v>
+        <v>129.063019514626</v>
       </c>
       <c r="H39">
-        <v>52.6682994892343</v>
+        <v>47.3926745191043</v>
       </c>
       <c r="I39">
-        <v>59.8153994760163</v>
+        <v>53.9849325866625</v>
       </c>
       <c r="J39">
-        <v>187.387813244715</v>
+        <v>163.559332394603</v>
       </c>
       <c r="K39">
-        <v>139.563786579264</v>
+        <v>122.300191630999</v>
       </c>
       <c r="L39">
-        <v>137.17525328941</v>
+        <v>112.142507530816</v>
       </c>
       <c r="M39">
-        <v>88.74554731682891</v>
+        <v>75.7812696523922</v>
       </c>
       <c r="N39">
-        <v>136.571892005045</v>
+        <v>118.718870334565</v>
       </c>
       <c r="O39">
-        <v>6268.05788065533</v>
+        <v>5457.70078835002</v>
       </c>
       <c r="P39">
-        <v>60.0340266780056</v>
+        <v>49.045225951874</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>89.1341896366704</v>
+        <v>190.293715806217</v>
       </c>
       <c r="C40">
-        <v>4.09710817485704</v>
+        <v>3.16055051153278</v>
       </c>
       <c r="D40">
-        <v>12.1952695000454</v>
+        <v>10.6021297681006</v>
       </c>
       <c r="E40">
-        <v>6.63707746000279</v>
+        <v>5.61493632703689</v>
       </c>
       <c r="F40">
-        <v>0.383508118891181</v>
+        <v>0.331973525091156</v>
       </c>
       <c r="G40">
-        <v>7.73177440851193</v>
+        <v>6.62340615090237</v>
       </c>
       <c r="H40">
-        <v>9.644776644071889</v>
+        <v>7.97783042247086</v>
       </c>
       <c r="I40">
-        <v>2.37977767016637</v>
+        <v>2.05910272543818</v>
       </c>
       <c r="J40">
-        <v>17.8896760238666</v>
+        <v>15.1735148611146</v>
       </c>
       <c r="K40">
-        <v>10.1317782016174</v>
+        <v>9.028558302324401</v>
       </c>
       <c r="L40">
-        <v>16.6908557422407</v>
+        <v>14.4535060735575</v>
       </c>
       <c r="M40">
-        <v>9.256139387002399</v>
+        <v>7.89177159237765</v>
       </c>
       <c r="N40">
-        <v>39.7640351643583</v>
+        <v>35.026107998283</v>
       </c>
       <c r="O40">
-        <v>631.131283769934</v>
+        <v>549.032128965089</v>
       </c>
       <c r="P40">
-        <v>1.85083769721439</v>
+        <v>1.61926763983202</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>369.545194221529</v>
+        <v>803.97059697169</v>
       </c>
       <c r="C41">
-        <v>12.6206262073752</v>
+        <v>11.2099857717493</v>
       </c>
       <c r="D41">
-        <v>111.268967520228</v>
+        <v>92.4050551581328</v>
       </c>
       <c r="E41">
-        <v>56.7237670099515</v>
+        <v>45.5892849757411</v>
       </c>
       <c r="F41">
-        <v>3.38608174282555</v>
+        <v>2.75330987334577</v>
       </c>
       <c r="G41">
-        <v>65.4298670045555</v>
+        <v>50.7346318229995</v>
       </c>
       <c r="H41">
-        <v>57.3840066191762</v>
+        <v>47.5416580931885</v>
       </c>
       <c r="I41">
-        <v>9.728580656123089</v>
+        <v>7.87141723236681</v>
       </c>
       <c r="J41">
-        <v>76.1631892619977</v>
+        <v>62.7415062723483</v>
       </c>
       <c r="K41">
-        <v>42.2593504568254</v>
+        <v>34.7057366663118</v>
       </c>
       <c r="L41">
-        <v>35.0298672962767</v>
+        <v>29.023661138262</v>
       </c>
       <c r="M41">
-        <v>57.3268768859541</v>
+        <v>46.8643657474786</v>
       </c>
       <c r="N41">
-        <v>27.9617705050112</v>
+        <v>21.8626617435941</v>
       </c>
       <c r="O41">
-        <v>1939.48431399905</v>
+        <v>1610.61818095116</v>
       </c>
       <c r="P41">
-        <v>19.0166505065096</v>
+        <v>15.8199722777835</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>49.0872245879759</v>
+        <v>103.060734327827</v>
       </c>
       <c r="C42">
-        <v>11.6598678061782</v>
+        <v>10.9488904182683</v>
       </c>
       <c r="D42">
-        <v>0.566123274811093</v>
+        <v>0.509623728809413</v>
       </c>
       <c r="E42">
-        <v>11.2535121216198</v>
+        <v>10.5105931488389</v>
       </c>
       <c r="F42">
-        <v>3.48890017252168</v>
+        <v>3.19489744479111</v>
       </c>
       <c r="G42">
-        <v>0.987614245213008</v>
+        <v>0.829955306339042</v>
       </c>
       <c r="H42">
-        <v>2.05689223746161</v>
+        <v>1.8726329107305</v>
       </c>
       <c r="I42">
-        <v>2.33494734629571</v>
+        <v>2.21509760892066</v>
       </c>
       <c r="J42">
-        <v>6.70849987427948</v>
+        <v>5.88117735693715</v>
       </c>
       <c r="K42">
-        <v>8.58204765391802</v>
+        <v>7.21578599282568</v>
       </c>
       <c r="L42">
-        <v>10.6691278855658</v>
+        <v>9.462998514656711</v>
       </c>
       <c r="M42">
-        <v>4.69651029852436</v>
+        <v>4.27038074818458</v>
       </c>
       <c r="N42">
-        <v>10.4595119671425</v>
+        <v>9.499860492922</v>
       </c>
       <c r="O42">
-        <v>519.990976402539</v>
+        <v>475.967052248547</v>
       </c>
       <c r="P42">
-        <v>58.5013939687465</v>
+        <v>54.5963547752267</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>598.320939205811</v>
+        <v>1206.12229293385</v>
       </c>
       <c r="C43">
-        <v>50.7986405498867</v>
+        <v>41.0153239705749</v>
       </c>
       <c r="D43">
-        <v>38.9409422693116</v>
+        <v>31.5953950073627</v>
       </c>
       <c r="E43">
-        <v>55.4101683518182</v>
+        <v>45.2228417334747</v>
       </c>
       <c r="F43">
-        <v>10.1359125093052</v>
+        <v>7.55986136095404</v>
       </c>
       <c r="G43">
-        <v>47.9488965214131</v>
+        <v>37.9022001233389</v>
       </c>
       <c r="H43">
-        <v>29.1563460102154</v>
+        <v>24.3229075843965</v>
       </c>
       <c r="I43">
-        <v>34.4086641718086</v>
+        <v>28.7249209886069</v>
       </c>
       <c r="J43">
-        <v>56.9159577684415</v>
+        <v>46.9492580154779</v>
       </c>
       <c r="K43">
-        <v>70.61805119749469</v>
+        <v>58.8958198000044</v>
       </c>
       <c r="L43">
-        <v>50.9773466513777</v>
+        <v>40.9175066588802</v>
       </c>
       <c r="M43">
-        <v>101.357449707898</v>
+        <v>85.5452723166074</v>
       </c>
       <c r="N43">
-        <v>77.5871668607478</v>
+        <v>66.45496631900539</v>
       </c>
       <c r="O43">
-        <v>2834.46328238675</v>
+        <v>2356.74900633947</v>
       </c>
       <c r="P43">
-        <v>62.1488887425518</v>
+        <v>44.8859454597991</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2139.90641079332</v>
+        <v>3504.38224554571</v>
       </c>
       <c r="C44">
-        <v>176.71116300424</v>
+        <v>156.090566901245</v>
       </c>
       <c r="D44">
-        <v>60.2755932179246</v>
+        <v>52.6375954555551</v>
       </c>
       <c r="E44">
-        <v>85.9162460130966</v>
+        <v>76.1735528047994</v>
       </c>
       <c r="F44">
-        <v>304.316158844864</v>
+        <v>269.830805354722</v>
       </c>
       <c r="G44">
-        <v>160.578153985526</v>
+        <v>138.557631300441</v>
       </c>
       <c r="H44">
-        <v>50.054975346569</v>
+        <v>43.4741003142126</v>
       </c>
       <c r="I44">
-        <v>58.9033874240635</v>
+        <v>51.0117987680177</v>
       </c>
       <c r="J44">
-        <v>133.813406088548</v>
+        <v>117.720752956528</v>
       </c>
       <c r="K44">
-        <v>115.070234676333</v>
+        <v>101.59524029186</v>
       </c>
       <c r="L44">
-        <v>240.251950007915</v>
+        <v>211.840367366428</v>
       </c>
       <c r="M44">
-        <v>131.000905823747</v>
+        <v>115.260293307714</v>
       </c>
       <c r="N44">
-        <v>102.107321208875</v>
+        <v>93.87315997459029</v>
       </c>
       <c r="O44">
-        <v>9920.51669130178</v>
+        <v>8777.45127755465</v>
       </c>
       <c r="P44">
-        <v>256.543236621509</v>
+        <v>223.323319000036</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>243.719528045533</v>
+        <v>364.631087984424</v>
       </c>
       <c r="C45">
-        <v>21.1553993310561</v>
+        <v>19.5455615855874</v>
       </c>
       <c r="D45">
-        <v>4.73520228214344</v>
+        <v>4.29099236423121</v>
       </c>
       <c r="E45">
-        <v>9.772410875076661</v>
+        <v>9.946196820543801</v>
       </c>
       <c r="F45">
-        <v>26.8802451464447</v>
+        <v>23.6486493216003</v>
       </c>
       <c r="G45">
-        <v>14.6617300703497</v>
+        <v>13.2694428007708</v>
       </c>
       <c r="H45">
-        <v>3.78272990121601</v>
+        <v>3.42921458977414</v>
       </c>
       <c r="I45">
-        <v>5.22190314167941</v>
+        <v>4.70454335114122</v>
       </c>
       <c r="J45">
-        <v>16.4213941037093</v>
+        <v>14.8769464318595</v>
       </c>
       <c r="K45">
-        <v>9.422894430881691</v>
+        <v>8.55056330799394</v>
       </c>
       <c r="L45">
-        <v>20.3191263503888</v>
+        <v>18.6622847573802</v>
       </c>
       <c r="M45">
-        <v>25.3352835354485</v>
+        <v>22.1251800744844</v>
       </c>
       <c r="N45">
-        <v>26.8743054923511</v>
+        <v>23.9312602590697</v>
       </c>
       <c r="O45">
-        <v>1049.80701440827</v>
+        <v>947.787344715048</v>
       </c>
       <c r="P45">
-        <v>15.1875489280534</v>
+        <v>12.7869774224363</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>45.6574885003715</v>
+        <v>100.232442608659</v>
       </c>
       <c r="C46">
-        <v>7.10849379769224</v>
+        <v>6.43905495891093</v>
       </c>
       <c r="D46">
-        <v>1.77075574989081</v>
+        <v>1.72184484432943</v>
       </c>
       <c r="E46">
-        <v>7.28732739224183</v>
+        <v>6.64472434919428</v>
       </c>
       <c r="F46">
-        <v>1.75889106838565</v>
+        <v>1.60890653704304</v>
       </c>
       <c r="G46">
-        <v>3.21169182237509</v>
+        <v>2.91106625487569</v>
       </c>
       <c r="H46">
-        <v>4.6782887848821</v>
+        <v>4.1701986106455</v>
       </c>
       <c r="I46">
-        <v>2.04578736972476</v>
+        <v>1.7446571914576</v>
       </c>
       <c r="J46">
-        <v>6.88953185130292</v>
+        <v>6.26392766449714</v>
       </c>
       <c r="K46">
-        <v>4.95354118989803</v>
+        <v>3.87728665411225</v>
       </c>
       <c r="L46">
-        <v>20.7255667871735</v>
+        <v>17.7890604535882</v>
       </c>
       <c r="M46">
-        <v>7.03432828790782</v>
+        <v>5.78419369083298</v>
       </c>
       <c r="N46">
-        <v>8.952343146458739</v>
+        <v>8.01399228371173</v>
       </c>
       <c r="O46">
-        <v>427.486008206635</v>
+        <v>382.830242945684</v>
       </c>
       <c r="P46">
-        <v>12.8860842061405</v>
+        <v>11.7330158736744</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>564.523584250657</v>
+        <v>1107.58355452961</v>
       </c>
       <c r="C47">
-        <v>67.4917811163004</v>
+        <v>57.4917562040909</v>
       </c>
       <c r="D47">
-        <v>39.386893167033</v>
+        <v>34.0755360087069</v>
       </c>
       <c r="E47">
-        <v>41.3923510403097</v>
+        <v>36.4619905775825</v>
       </c>
       <c r="F47">
-        <v>11.5104652317203</v>
+        <v>9.35542150359783</v>
       </c>
       <c r="G47">
-        <v>25.6978293192188</v>
+        <v>19.5803933975971</v>
       </c>
       <c r="H47">
-        <v>21.6964220431095</v>
+        <v>18.3203159176247</v>
       </c>
       <c r="I47">
-        <v>13.0429311375578</v>
+        <v>11.3196785243667</v>
       </c>
       <c r="J47">
-        <v>59.0219375821575</v>
+        <v>49.885438076956</v>
       </c>
       <c r="K47">
-        <v>17.6500683407222</v>
+        <v>13.2814410049754</v>
       </c>
       <c r="L47">
-        <v>59.5964652869692</v>
+        <v>49.8729373768686</v>
       </c>
       <c r="M47">
-        <v>77.3084098970288</v>
+        <v>70.3342153032193</v>
       </c>
       <c r="N47">
-        <v>34.1735595080322</v>
+        <v>29.6106008690411</v>
       </c>
       <c r="O47">
-        <v>3771.15948801193</v>
+        <v>3301.40804782184</v>
       </c>
       <c r="P47">
-        <v>47.2343631143088</v>
+        <v>42.2743735005159</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>591.4113107358201</v>
+        <v>1054.71424265513</v>
       </c>
       <c r="C48">
-        <v>20.143121404807</v>
+        <v>18.0321926179559</v>
       </c>
       <c r="D48">
-        <v>10.8062562068797</v>
+        <v>7.85321219980998</v>
       </c>
       <c r="E48">
-        <v>70.2815107536572</v>
+        <v>63.2361088708816</v>
       </c>
       <c r="F48">
-        <v>14.3220266966227</v>
+        <v>12.6112878495321</v>
       </c>
       <c r="G48">
-        <v>5.00626711526784</v>
+        <v>4.38672517871395</v>
       </c>
       <c r="H48">
-        <v>4.6842845622981</v>
+        <v>4.10449032012883</v>
       </c>
       <c r="I48">
-        <v>17.6040720286915</v>
+        <v>16.7188124174214</v>
       </c>
       <c r="J48">
-        <v>34.6014497319972</v>
+        <v>30.4089628988217</v>
       </c>
       <c r="K48">
-        <v>21.1280351452504</v>
+        <v>18.1254688448218</v>
       </c>
       <c r="L48">
-        <v>46.1336027175167</v>
+        <v>39.5569673978453</v>
       </c>
       <c r="M48">
-        <v>175.843736485576</v>
+        <v>156.036041224588</v>
       </c>
       <c r="N48">
-        <v>32.7826463083521</v>
+        <v>29.70776878983</v>
       </c>
       <c r="O48">
-        <v>3023.82673595596</v>
+        <v>2628.99158048605</v>
       </c>
       <c r="P48">
-        <v>91.7383633124393</v>
+        <v>76.7644705314771</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>283.653976987007</v>
+        <v>553.960064965187</v>
       </c>
       <c r="C49">
-        <v>7.27235418807037</v>
+        <v>5.65317832892316</v>
       </c>
       <c r="D49">
-        <v>3.54685254281713</v>
+        <v>1.78123868379649</v>
       </c>
       <c r="E49">
-        <v>22.026723563961</v>
+        <v>16.934919763546</v>
       </c>
       <c r="F49">
-        <v>53.4255262742964</v>
+        <v>40.090839530456</v>
       </c>
       <c r="G49">
-        <v>27.8483859640491</v>
+        <v>20.5116646171758</v>
       </c>
       <c r="H49">
-        <v>11.8229345145327</v>
+        <v>9.768834410896019</v>
       </c>
       <c r="I49">
-        <v>8.632374838920191</v>
+        <v>7.2462525513516</v>
       </c>
       <c r="J49">
-        <v>34.7740556294957</v>
+        <v>27.798625218294</v>
       </c>
       <c r="K49">
-        <v>12.2450897341763</v>
+        <v>8.924473257932281</v>
       </c>
       <c r="L49">
-        <v>3.97096060314338</v>
+        <v>3.10140423355266</v>
       </c>
       <c r="M49">
-        <v>7.10430131822889</v>
+        <v>6.19484412785528</v>
       </c>
       <c r="N49">
-        <v>4.39932259122342</v>
+        <v>3.31952025056593</v>
       </c>
       <c r="O49">
-        <v>984.266359018083</v>
+        <v>767.122498596431</v>
       </c>
       <c r="P49">
-        <v>17.2007334085681</v>
+        <v>13.1038671386672</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>366.225326429795</v>
+        <v>753.6751466003281</v>
       </c>
       <c r="C50">
-        <v>91.6198353192443</v>
+        <v>80.7474285768558</v>
       </c>
       <c r="D50">
-        <v>12.4943820636175</v>
+        <v>11.0581901762817</v>
       </c>
       <c r="E50">
-        <v>129.829802276494</v>
+        <v>113.332082476578</v>
       </c>
       <c r="F50">
-        <v>7.2079862995556</v>
+        <v>6.48108395577414</v>
       </c>
       <c r="G50">
-        <v>40.7403219352862</v>
+        <v>35.0266294438007</v>
       </c>
       <c r="H50">
-        <v>46.0961951631222</v>
+        <v>42.1379716514137</v>
       </c>
       <c r="I50">
-        <v>18.3445483116277</v>
+        <v>15.1351885620704</v>
       </c>
       <c r="J50">
-        <v>122.948240789398</v>
+        <v>107.012868177258</v>
       </c>
       <c r="K50">
-        <v>88.9049366646465</v>
+        <v>75.7621414832493</v>
       </c>
       <c r="L50">
-        <v>94.2191492283178</v>
+        <v>83.40942115962361</v>
       </c>
       <c r="M50">
-        <v>30.5912764623589</v>
+        <v>25.337701001711</v>
       </c>
       <c r="N50">
-        <v>89.2325749935177</v>
+        <v>77.3060889044244</v>
       </c>
       <c r="O50">
-        <v>2604.34467523992</v>
+        <v>2319.42877176891</v>
       </c>
       <c r="P50">
-        <v>68.5588206370067</v>
+        <v>63.2401656377867</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>58.4091847742574</v>
+        <v>116.366979688478</v>
       </c>
       <c r="C51">
-        <v>2.65356065433515</v>
+        <v>2.43731664424202</v>
       </c>
       <c r="D51">
-        <v>0.115783120704101</v>
+        <v>0.144304934361935</v>
       </c>
       <c r="E51">
-        <v>2.96821998021641</v>
+        <v>2.84578598796112</v>
       </c>
       <c r="F51">
-        <v>52.8655510670188</v>
+        <v>46.6985348328529</v>
       </c>
       <c r="G51">
-        <v>3.21672722429112</v>
+        <v>2.83975194838402</v>
       </c>
       <c r="H51">
-        <v>0.156333083997816</v>
+        <v>0.139233053310391</v>
       </c>
       <c r="I51">
-        <v>1.12674175436944</v>
+        <v>1.02553846489018</v>
       </c>
       <c r="J51">
-        <v>2.87491275071174</v>
+        <v>2.54674161610866</v>
       </c>
       <c r="K51">
-        <v>1.29559235616469</v>
+        <v>1.15207911855099</v>
       </c>
       <c r="L51">
-        <v>0.314968963288772</v>
+        <v>0.27609434285169</v>
       </c>
       <c r="M51">
-        <v>0.622367915339185</v>
+        <v>0.795975796921374</v>
       </c>
       <c r="N51">
-        <v>1.40918079106704</v>
+        <v>1.30176478841191</v>
       </c>
       <c r="O51">
-        <v>407.957169100945</v>
+        <v>360.15674886457</v>
       </c>
       <c r="P51">
-        <v>25.358187380491</v>
+        <v>21.6744219196995</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>925.83247900991</v>
+        <v>1249.74548094733</v>
       </c>
       <c r="C2">
-        <v>37.6646382082726</v>
+        <v>24.1094181781313</v>
       </c>
       <c r="D2">
-        <v>59.0293840570478</v>
+        <v>23.6208908220618</v>
       </c>
       <c r="E2">
-        <v>70.66522523780461</v>
+        <v>59.1331232363447</v>
       </c>
       <c r="F2">
-        <v>22.5755039432948</v>
+        <v>22.8412450396741</v>
       </c>
       <c r="G2">
-        <v>17.8711175754911</v>
+        <v>18.4681430708935</v>
       </c>
       <c r="H2">
-        <v>30.6736847502924</v>
+        <v>20.7758858223675</v>
       </c>
       <c r="I2">
-        <v>21.4042982181681</v>
+        <v>10.9680611884254</v>
       </c>
       <c r="J2">
-        <v>73.558132548863</v>
+        <v>86.5720717558564</v>
       </c>
       <c r="K2">
-        <v>22.2701955598882</v>
+        <v>16.2158444816874</v>
       </c>
       <c r="L2">
-        <v>32.4617424361503</v>
+        <v>57.9363482567762</v>
       </c>
       <c r="M2">
-        <v>49.2429508792649</v>
+        <v>39.0991292312881</v>
       </c>
       <c r="N2">
-        <v>22.7214480749705</v>
+        <v>26.5719681567716</v>
       </c>
       <c r="O2">
-        <v>1753.10558122306</v>
+        <v>1498.53237132698</v>
       </c>
       <c r="P2">
-        <v>30.4179828852129</v>
+        <v>18.8192024949631</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>151.980965527715</v>
+        <v>163.80078367606</v>
       </c>
       <c r="C3">
-        <v>4.76950879617486</v>
+        <v>4.25294595788269</v>
       </c>
       <c r="D3">
-        <v>0.211002910271463</v>
+        <v>0.548400253633429</v>
       </c>
       <c r="E3">
-        <v>0.937271123687735</v>
+        <v>1.11199671549637</v>
       </c>
       <c r="F3">
-        <v>14.3815499675473</v>
+        <v>11.0072449784705</v>
       </c>
       <c r="G3">
-        <v>0.190305536176526</v>
+        <v>0.490828209529996</v>
       </c>
       <c r="H3">
-        <v>0.334932165906904</v>
+        <v>0.0393022199615627</v>
       </c>
       <c r="I3">
-        <v>0.21546247191202</v>
+        <v>1.33830278515021</v>
       </c>
       <c r="J3">
-        <v>0.362799994917581</v>
+        <v>0.207519379733281</v>
       </c>
       <c r="K3">
-        <v>0.124837708438262</v>
+        <v>0.126041375145027</v>
       </c>
       <c r="L3">
-        <v>0.175345829345018</v>
+        <v>8.15180584432666e-005</v>
       </c>
       <c r="M3">
-        <v>0.881840404080815</v>
+        <v>0.664436872174618</v>
       </c>
       <c r="N3">
-        <v>0.879935445075488</v>
+        <v>0.942580583638426</v>
       </c>
       <c r="O3">
-        <v>400.548408660193</v>
+        <v>388.37951144601</v>
       </c>
       <c r="P3">
-        <v>10.4903701058563</v>
+        <v>15.8115327685985</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>969.9500847143059</v>
+        <v>1256.67309372237</v>
       </c>
       <c r="C4">
-        <v>13.1609534893854</v>
+        <v>8.962091019851391</v>
       </c>
       <c r="D4">
-        <v>4.81964529896121</v>
+        <v>4.98006817064434</v>
       </c>
       <c r="E4">
-        <v>12.7654345401819</v>
+        <v>18.0897655641268</v>
       </c>
       <c r="F4">
-        <v>5.44947900534847</v>
+        <v>7.69769327004131</v>
       </c>
       <c r="G4">
-        <v>10.6094237623913</v>
+        <v>8.301591147477581</v>
       </c>
       <c r="H4">
-        <v>9.972000190442699</v>
+        <v>11.5635907776304</v>
       </c>
       <c r="I4">
-        <v>14.5379288817685</v>
+        <v>7.04160481146297</v>
       </c>
       <c r="J4">
-        <v>34.1649235120527</v>
+        <v>34.2052715288055</v>
       </c>
       <c r="K4">
-        <v>10.9406297861967</v>
+        <v>3.63861001818006</v>
       </c>
       <c r="L4">
-        <v>82.2636040252536</v>
+        <v>63.2480642096919</v>
       </c>
       <c r="M4">
-        <v>61.4816978638849</v>
+        <v>40.9510130532757</v>
       </c>
       <c r="N4">
-        <v>37.2066100758041</v>
+        <v>29.6415659363124</v>
       </c>
       <c r="O4">
-        <v>2444.42114680914</v>
+        <v>2259.62394235332</v>
       </c>
       <c r="P4">
-        <v>36.1913956779781</v>
+        <v>12.5090734322741</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>594.7296130207971</v>
+        <v>658.353972988753</v>
       </c>
       <c r="C5">
-        <v>67.4909485152947</v>
+        <v>43.985355847133</v>
       </c>
       <c r="D5">
-        <v>15.2366164707586</v>
+        <v>11.6780221885655</v>
       </c>
       <c r="E5">
-        <v>38.8514620296753</v>
+        <v>33.0388758696917</v>
       </c>
       <c r="F5">
-        <v>2.77141809480366</v>
+        <v>7.16264545486617</v>
       </c>
       <c r="G5">
-        <v>8.57942963346272</v>
+        <v>5.0550805730583</v>
       </c>
       <c r="H5">
-        <v>13.9486518662862</v>
+        <v>9.38731819410874</v>
       </c>
       <c r="I5">
-        <v>8.820754642556461</v>
+        <v>5.5628111241579</v>
       </c>
       <c r="J5">
-        <v>33.5604075504408</v>
+        <v>35.0352656593993</v>
       </c>
       <c r="K5">
-        <v>22.4776188596987</v>
+        <v>4.46362470262027</v>
       </c>
       <c r="L5">
-        <v>21.3881553983973</v>
+        <v>14.3273982647878</v>
       </c>
       <c r="M5">
-        <v>17.1472420741379</v>
+        <v>17.9467701197835</v>
       </c>
       <c r="N5">
-        <v>17.9601275456013</v>
+        <v>20.4031639210413</v>
       </c>
       <c r="O5">
-        <v>1010.81358351105</v>
+        <v>1004.80221686696</v>
       </c>
       <c r="P5">
-        <v>49.2903234335467</v>
+        <v>53.2120605714357</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>5842.09632326584</v>
+        <v>6985.52935567969</v>
       </c>
       <c r="C6">
-        <v>149.428398185847</v>
+        <v>207.099954456902</v>
       </c>
       <c r="D6">
-        <v>179.889680652052</v>
+        <v>39.8536788814543</v>
       </c>
       <c r="E6">
-        <v>128.918837002281</v>
+        <v>174.406457804444</v>
       </c>
       <c r="F6">
-        <v>29.7339088403752</v>
+        <v>46.7360125760267</v>
       </c>
       <c r="G6">
-        <v>122.202799494074</v>
+        <v>121.697418994096</v>
       </c>
       <c r="H6">
-        <v>72.53454108006351</v>
+        <v>46.4703965082071</v>
       </c>
       <c r="I6">
-        <v>52.9142636394966</v>
+        <v>45.8824887303773</v>
       </c>
       <c r="J6">
-        <v>189.109142747289</v>
+        <v>181.220613204824</v>
       </c>
       <c r="K6">
-        <v>122.588446180727</v>
+        <v>39.3908360270244</v>
       </c>
       <c r="L6">
-        <v>520.082624426027</v>
+        <v>438.899036408694</v>
       </c>
       <c r="M6">
-        <v>332.632168673768</v>
+        <v>267.44293194097</v>
       </c>
       <c r="N6">
-        <v>308.860861724576</v>
+        <v>298.353199669146</v>
       </c>
       <c r="O6">
-        <v>14085.1081412228</v>
+        <v>13202.3612847505</v>
       </c>
       <c r="P6">
-        <v>209.075631138222</v>
+        <v>270.084828483131</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>625.169410062626</v>
+        <v>731.900703015413</v>
       </c>
       <c r="C7">
-        <v>36.8780571339137</v>
+        <v>37.5732102417238</v>
       </c>
       <c r="D7">
-        <v>2.57951204236617</v>
+        <v>4.40348605424945</v>
       </c>
       <c r="E7">
-        <v>17.0477269587222</v>
+        <v>20.3439038230341</v>
       </c>
       <c r="F7">
-        <v>12.8020045971085</v>
+        <v>13.0019197680409</v>
       </c>
       <c r="G7">
-        <v>10.5737099197257</v>
+        <v>6.98212112152644</v>
       </c>
       <c r="H7">
-        <v>7.97911167967686</v>
+        <v>1.68369295941011</v>
       </c>
       <c r="I7">
-        <v>8.476541847906789</v>
+        <v>8.635370089215799</v>
       </c>
       <c r="J7">
-        <v>19.6764606524824</v>
+        <v>17.7362165903635</v>
       </c>
       <c r="K7">
-        <v>14.276480553704</v>
+        <v>3.99406153018221</v>
       </c>
       <c r="L7">
-        <v>55.9432829975475</v>
+        <v>59.7447163736815</v>
       </c>
       <c r="M7">
-        <v>21.2849679107934</v>
+        <v>16.5322662370466</v>
       </c>
       <c r="N7">
-        <v>25.4559698718982</v>
+        <v>23.69835884786</v>
       </c>
       <c r="O7">
-        <v>2038.30647472705</v>
+        <v>1951.69982758422</v>
       </c>
       <c r="P7">
-        <v>23.4025205020098</v>
+        <v>25.8991148950132</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>479.703907956652</v>
+        <v>603.743292063988</v>
       </c>
       <c r="C8">
-        <v>12.1683821301674</v>
+        <v>13.3100853464828</v>
       </c>
       <c r="D8">
-        <v>7.34799737355999</v>
+        <v>2.23349294228563</v>
       </c>
       <c r="E8">
-        <v>14.7240643166844</v>
+        <v>23.4307547709496</v>
       </c>
       <c r="F8">
-        <v>1.65848200860613</v>
+        <v>1.73792982107583</v>
       </c>
       <c r="G8">
-        <v>37.5981134972571</v>
+        <v>23.9997291535786</v>
       </c>
       <c r="H8">
-        <v>13.0837447735447</v>
+        <v>8.186016239366611</v>
       </c>
       <c r="I8">
-        <v>1.23334943031351</v>
+        <v>8.21942658487462</v>
       </c>
       <c r="J8">
-        <v>55.7433985919526</v>
+        <v>42.3150335360414</v>
       </c>
       <c r="K8">
-        <v>28.7296134904342</v>
+        <v>10.4697049340681</v>
       </c>
       <c r="L8">
-        <v>47.7494016672009</v>
+        <v>45.0247717358151</v>
       </c>
       <c r="M8">
-        <v>73.07131454215759</v>
+        <v>53.5232831030548</v>
       </c>
       <c r="N8">
-        <v>24.9804253347692</v>
+        <v>28.9522197776326</v>
       </c>
       <c r="O8">
-        <v>1537.18786738464</v>
+        <v>1457.00930118496</v>
       </c>
       <c r="P8">
-        <v>6.03334496345286</v>
+        <v>7.1514807032144</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>170.361995712877</v>
+        <v>215.925746025198</v>
       </c>
       <c r="C9">
-        <v>11.6480225640755</v>
+        <v>10.0905370820084</v>
       </c>
       <c r="D9">
-        <v>1.59392377289428</v>
+        <v>2.13338003374881</v>
       </c>
       <c r="E9">
-        <v>5.98878249670845</v>
+        <v>5.15832273936218</v>
       </c>
       <c r="F9">
-        <v>2.52642563612067</v>
+        <v>0.574095533716359</v>
       </c>
       <c r="G9">
-        <v>29.9265235556366</v>
+        <v>25.9030489451397</v>
       </c>
       <c r="H9">
-        <v>2.61428480411331</v>
+        <v>3.04970196627093</v>
       </c>
       <c r="I9">
-        <v>2.06034941022197</v>
+        <v>1.69971744962111</v>
       </c>
       <c r="J9">
-        <v>4.7500133919135</v>
+        <v>5.728334707004</v>
       </c>
       <c r="K9">
-        <v>4.8519949840299</v>
+        <v>0.675392700042351</v>
       </c>
       <c r="L9">
-        <v>5.35857827505178</v>
+        <v>3.7242823573369</v>
       </c>
       <c r="M9">
-        <v>9.651997195754831</v>
+        <v>7.40339683855595</v>
       </c>
       <c r="N9">
-        <v>7.16689621251374</v>
+        <v>4.31120881087278</v>
       </c>
       <c r="O9">
-        <v>482.14826790319</v>
+        <v>454.729116718247</v>
       </c>
       <c r="P9">
-        <v>8.59796672398728</v>
+        <v>7.07853870254513</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3120.71924506574</v>
+        <v>3787.00184660872</v>
       </c>
       <c r="C10">
-        <v>51.6958320772291</v>
+        <v>72.3553650094655</v>
       </c>
       <c r="D10">
-        <v>19.5175222612414</v>
+        <v>9.739726449333841</v>
       </c>
       <c r="E10">
-        <v>47.2192872326065</v>
+        <v>55.2497365342278</v>
       </c>
       <c r="F10">
-        <v>11.4650648892891</v>
+        <v>9.22484364294921</v>
       </c>
       <c r="G10">
-        <v>26.6976537541433</v>
+        <v>42.3589076183674</v>
       </c>
       <c r="H10">
-        <v>16.992675177576</v>
+        <v>19.1393525424034</v>
       </c>
       <c r="I10">
-        <v>34.8069510134771</v>
+        <v>27.3527978091976</v>
       </c>
       <c r="J10">
-        <v>53.8854012562809</v>
+        <v>61.4946256710786</v>
       </c>
       <c r="K10">
-        <v>38.0358527407189</v>
+        <v>6.42116825378917</v>
       </c>
       <c r="L10">
-        <v>107.243505345583</v>
+        <v>67.9314606982234</v>
       </c>
       <c r="M10">
-        <v>108.158845588354</v>
+        <v>79.2505302813174</v>
       </c>
       <c r="N10">
-        <v>98.6837135070875</v>
+        <v>95.3493310661633</v>
       </c>
       <c r="O10">
-        <v>8363.17695240739</v>
+        <v>7812.07975254705</v>
       </c>
       <c r="P10">
-        <v>63.6591127835852</v>
+        <v>67.7961004991862</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1471.43849076484</v>
+        <v>1816.51220788566</v>
       </c>
       <c r="C11">
-        <v>58.1700559843716</v>
+        <v>67.5450126459406</v>
       </c>
       <c r="D11">
-        <v>152.44287370825</v>
+        <v>155.68770288727</v>
       </c>
       <c r="E11">
-        <v>98.2695626525508</v>
+        <v>83.27071659943179</v>
       </c>
       <c r="F11">
-        <v>4.46547847224848</v>
+        <v>11.1936295326864</v>
       </c>
       <c r="G11">
-        <v>30.8147611817696</v>
+        <v>23.0698952826102</v>
       </c>
       <c r="H11">
-        <v>15.7152496306619</v>
+        <v>22.4816995473677</v>
       </c>
       <c r="I11">
-        <v>21.6320473359542</v>
+        <v>10.2106750267177</v>
       </c>
       <c r="J11">
-        <v>60.4352520662724</v>
+        <v>39.7484800666879</v>
       </c>
       <c r="K11">
-        <v>30.7535549421174</v>
+        <v>6.20442404329452</v>
       </c>
       <c r="L11">
-        <v>59.6955185408867</v>
+        <v>50.2946402921051</v>
       </c>
       <c r="M11">
-        <v>45.6423228588771</v>
+        <v>48.8350157968949</v>
       </c>
       <c r="N11">
-        <v>45.5142271328852</v>
+        <v>66.8381079247205</v>
       </c>
       <c r="O11">
-        <v>3652.50681017408</v>
+        <v>3310.05684237063</v>
       </c>
       <c r="P11">
-        <v>17.8790092158937</v>
+        <v>52.7373831118058</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>231.765668468874</v>
+        <v>278.636566479815</v>
       </c>
       <c r="C12">
-        <v>8.78591581589928</v>
+        <v>7.24786208453128</v>
       </c>
       <c r="D12">
-        <v>1.86470413103306</v>
+        <v>0.2633748121187</v>
       </c>
       <c r="E12">
-        <v>1.34249676942467</v>
+        <v>4.2969453048713</v>
       </c>
       <c r="F12">
-        <v>0.514229468523755</v>
+        <v>1.16166295243428</v>
       </c>
       <c r="G12">
-        <v>0.66834822941777</v>
+        <v>0.88247546916257</v>
       </c>
       <c r="H12">
-        <v>0.585833862837458</v>
+        <v>0.106923529696303</v>
       </c>
       <c r="I12">
-        <v>1.54427079796142</v>
+        <v>0.880286412072319</v>
       </c>
       <c r="J12">
-        <v>0.942751269353726</v>
+        <v>1.38316384418773</v>
       </c>
       <c r="K12">
-        <v>0.234711860529269</v>
+        <v>0.00159048250090244</v>
       </c>
       <c r="L12">
-        <v>0.49176067421449</v>
+        <v>0.0282434311150548</v>
       </c>
       <c r="M12">
-        <v>3.54941141421595</v>
+        <v>3.40775396359007</v>
       </c>
       <c r="N12">
-        <v>5.22923196844377</v>
+        <v>3.31704622675086</v>
       </c>
       <c r="O12">
-        <v>744.140054270955</v>
+        <v>698.261217067224</v>
       </c>
       <c r="P12">
-        <v>20.4573102901061</v>
+        <v>24.8482799252274</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>227.790800862373</v>
+        <v>255.534279479947</v>
       </c>
       <c r="C13">
-        <v>28.7058863724392</v>
+        <v>18.3211476548137</v>
       </c>
       <c r="D13">
-        <v>1.91247724488104</v>
+        <v>0.53654803781382</v>
       </c>
       <c r="E13">
-        <v>15.4724876494158</v>
+        <v>13.5180549919053</v>
       </c>
       <c r="F13">
-        <v>3.37608551992259</v>
+        <v>3.03405138271339</v>
       </c>
       <c r="G13">
-        <v>5.88268033404224</v>
+        <v>6.42584352023285</v>
       </c>
       <c r="H13">
-        <v>2.28960737676939</v>
+        <v>2.55353719455927</v>
       </c>
       <c r="I13">
-        <v>1.01469638439839</v>
+        <v>2.12431343611492</v>
       </c>
       <c r="J13">
-        <v>7.183261936408</v>
+        <v>6.14643091048442</v>
       </c>
       <c r="K13">
-        <v>3.97825092050116</v>
+        <v>4.49849332231709</v>
       </c>
       <c r="L13">
-        <v>27.5706064830875</v>
+        <v>16.6956189347201</v>
       </c>
       <c r="M13">
-        <v>3.01205091087865</v>
+        <v>1.03420179702545</v>
       </c>
       <c r="N13">
-        <v>7.71509775338577</v>
+        <v>4.83466083499952</v>
       </c>
       <c r="O13">
-        <v>625.827385176864</v>
+        <v>627.999815314961</v>
       </c>
       <c r="P13">
-        <v>52.0422141546647</v>
+        <v>50.423081979224</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1911.83479519309</v>
+        <v>2363.51283594057</v>
       </c>
       <c r="C14">
-        <v>101.493435625725</v>
+        <v>110.471383974148</v>
       </c>
       <c r="D14">
-        <v>11.8177798027976</v>
+        <v>6.85025710360676</v>
       </c>
       <c r="E14">
-        <v>59.672708622946</v>
+        <v>95.49733933465291</v>
       </c>
       <c r="F14">
-        <v>15.1515451735658</v>
+        <v>22.7903711621544</v>
       </c>
       <c r="G14">
-        <v>90.2784006299659</v>
+        <v>78.10762593561761</v>
       </c>
       <c r="H14">
-        <v>58.8974555310446</v>
+        <v>39.3203541632397</v>
       </c>
       <c r="I14">
-        <v>24.248779886391</v>
+        <v>21.3583494628058</v>
       </c>
       <c r="J14">
-        <v>130.669014398425</v>
+        <v>132.398766548616</v>
       </c>
       <c r="K14">
-        <v>177.524484320527</v>
+        <v>94.41801146772281</v>
       </c>
       <c r="L14">
-        <v>130.534802708319</v>
+        <v>107.915359073726</v>
       </c>
       <c r="M14">
-        <v>74.95391335853751</v>
+        <v>85.355788233507</v>
       </c>
       <c r="N14">
-        <v>78.6796260091855</v>
+        <v>70.48092257410239</v>
       </c>
       <c r="O14">
-        <v>5473.77441089048</v>
+        <v>5088.47059835442</v>
       </c>
       <c r="P14">
-        <v>42.2311723897704</v>
+        <v>49.3202371196619</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>921.848915121691</v>
+        <v>1212.87252998595</v>
       </c>
       <c r="C15">
-        <v>46.4950237410221</v>
+        <v>52.370467617467</v>
       </c>
       <c r="D15">
-        <v>8.47285840212704</v>
+        <v>5.89827974797571</v>
       </c>
       <c r="E15">
-        <v>65.37620200529319</v>
+        <v>81.395566330549</v>
       </c>
       <c r="F15">
-        <v>14.3521934051786</v>
+        <v>21.5962239342653</v>
       </c>
       <c r="G15">
-        <v>47.0852562957853</v>
+        <v>55.2191211821467</v>
       </c>
       <c r="H15">
-        <v>42.5423866764884</v>
+        <v>35.8528176862978</v>
       </c>
       <c r="I15">
-        <v>50.9824040218695</v>
+        <v>24.0085764160315</v>
       </c>
       <c r="J15">
-        <v>206.384723356898</v>
+        <v>167.862381699156</v>
       </c>
       <c r="K15">
-        <v>58.9096711983219</v>
+        <v>26.178172280608</v>
       </c>
       <c r="L15">
-        <v>48.5253271670167</v>
+        <v>40.7567053090673</v>
       </c>
       <c r="M15">
-        <v>149.58651959058</v>
+        <v>169.563039675466</v>
       </c>
       <c r="N15">
-        <v>93.0301991945296</v>
+        <v>88.527648513616</v>
       </c>
       <c r="O15">
-        <v>2481.30875997131</v>
+        <v>2243.90770799162</v>
       </c>
       <c r="P15">
-        <v>48.2455927967961</v>
+        <v>42.9613671979411</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>361.557681276079</v>
+        <v>456.357647748088</v>
       </c>
       <c r="C16">
-        <v>72.2579211550915</v>
+        <v>66.24111069665941</v>
       </c>
       <c r="D16">
-        <v>13.429561491164</v>
+        <v>6.76248523561065</v>
       </c>
       <c r="E16">
-        <v>26.2222331075535</v>
+        <v>25.523174692358</v>
       </c>
       <c r="F16">
-        <v>5.26198956225765</v>
+        <v>2.93267814869347</v>
       </c>
       <c r="G16">
-        <v>16.4106889072995</v>
+        <v>19.5915844639385</v>
       </c>
       <c r="H16">
-        <v>21.3619371596267</v>
+        <v>17.6631730606984</v>
       </c>
       <c r="I16">
-        <v>7.38793663505119</v>
+        <v>7.21410979854253</v>
       </c>
       <c r="J16">
-        <v>52.6581060751822</v>
+        <v>52.6504566805648</v>
       </c>
       <c r="K16">
-        <v>58.1778425865235</v>
+        <v>43.8009987845008</v>
       </c>
       <c r="L16">
-        <v>33.5569074569484</v>
+        <v>23.2407604497631</v>
       </c>
       <c r="M16">
-        <v>17.9603683009725</v>
+        <v>21.915938813529</v>
       </c>
       <c r="N16">
-        <v>30.0084048016654</v>
+        <v>31.7045935407092</v>
       </c>
       <c r="O16">
-        <v>1390.64216476012</v>
+        <v>1315.97033080631</v>
       </c>
       <c r="P16">
-        <v>85.04818410427291</v>
+        <v>86.64710457505829</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>377.661091554831</v>
+        <v>489.714560076034</v>
       </c>
       <c r="C17">
-        <v>22.922163532</v>
+        <v>21.8614302755463</v>
       </c>
       <c r="D17">
-        <v>7.73102635061556</v>
+        <v>4.69512684938498</v>
       </c>
       <c r="E17">
-        <v>15.3125198487529</v>
+        <v>30.4577385371942</v>
       </c>
       <c r="F17">
-        <v>13.2933413274293</v>
+        <v>10.7672351863437</v>
       </c>
       <c r="G17">
-        <v>14.4983527395522</v>
+        <v>7.77224643816579</v>
       </c>
       <c r="H17">
-        <v>9.40933516562535</v>
+        <v>10.7536628329103</v>
       </c>
       <c r="I17">
-        <v>8.46675536095889</v>
+        <v>9.57559785299382</v>
       </c>
       <c r="J17">
-        <v>17.1035257095766</v>
+        <v>22.9248764517132</v>
       </c>
       <c r="K17">
-        <v>20.0739266456101</v>
+        <v>8.912316863493061</v>
       </c>
       <c r="L17">
-        <v>12.3536753338601</v>
+        <v>12.6259335144137</v>
       </c>
       <c r="M17">
-        <v>86.24513239378911</v>
+        <v>64.5940519724189</v>
       </c>
       <c r="N17">
-        <v>12.4685551279517</v>
+        <v>13.0726276367213</v>
       </c>
       <c r="O17">
-        <v>1270.71305429609</v>
+        <v>1173.02931168115</v>
       </c>
       <c r="P17">
-        <v>48.7610018638168</v>
+        <v>48.8007689946941</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>948.949319694193</v>
+        <v>1115.43708061992</v>
       </c>
       <c r="C18">
-        <v>32.6844924698365</v>
+        <v>30.7354782648741</v>
       </c>
       <c r="D18">
-        <v>9.98223922167492</v>
+        <v>4.1680092900385</v>
       </c>
       <c r="E18">
-        <v>30.1440425278061</v>
+        <v>32.3304376216121</v>
       </c>
       <c r="F18">
-        <v>35.0197512556931</v>
+        <v>36.9163930320299</v>
       </c>
       <c r="G18">
-        <v>24.3541126209086</v>
+        <v>19.4888041751715</v>
       </c>
       <c r="H18">
-        <v>24.9031317165854</v>
+        <v>15.5548826943201</v>
       </c>
       <c r="I18">
-        <v>8.473869731596549</v>
+        <v>2.71750849986854</v>
       </c>
       <c r="J18">
-        <v>38.5933822183002</v>
+        <v>33.5940226873839</v>
       </c>
       <c r="K18">
-        <v>21.7369776580268</v>
+        <v>8.44157210533225</v>
       </c>
       <c r="L18">
-        <v>37.8301762656849</v>
+        <v>31.5605114069667</v>
       </c>
       <c r="M18">
-        <v>64.4758282029414</v>
+        <v>69.15810470512029</v>
       </c>
       <c r="N18">
-        <v>22.7872792495575</v>
+        <v>24.5709265026719</v>
       </c>
       <c r="O18">
-        <v>1739.35789060115</v>
+        <v>1614.1781124359</v>
       </c>
       <c r="P18">
-        <v>54.6037117442279</v>
+        <v>64.3194508267276</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>944.290173162735</v>
+        <v>1077.57454104445</v>
       </c>
       <c r="C19">
-        <v>22.7507782178741</v>
+        <v>34.1130055578412</v>
       </c>
       <c r="D19">
-        <v>7.01200560533509</v>
+        <v>4.29769990531749</v>
       </c>
       <c r="E19">
-        <v>24.4491952841235</v>
+        <v>44.7053421416299</v>
       </c>
       <c r="F19">
-        <v>75.11874582549341</v>
+        <v>82.9258737290638</v>
       </c>
       <c r="G19">
-        <v>37.8867594800088</v>
+        <v>50.2521418772258</v>
       </c>
       <c r="H19">
-        <v>7.19236066679852</v>
+        <v>12.2560962458856</v>
       </c>
       <c r="I19">
-        <v>9.819698096016561</v>
+        <v>4.44719127034922</v>
       </c>
       <c r="J19">
-        <v>11.7637947616904</v>
+        <v>20.4432845080728</v>
       </c>
       <c r="K19">
-        <v>12.5244043173584</v>
+        <v>6.69730575519232</v>
       </c>
       <c r="L19">
-        <v>3.21296875803453</v>
+        <v>1.69803739688037</v>
       </c>
       <c r="M19">
-        <v>36.4106792380615</v>
+        <v>36.2597058065361</v>
       </c>
       <c r="N19">
-        <v>3.33472315328767</v>
+        <v>11.0782364132714</v>
       </c>
       <c r="O19">
-        <v>1814.38222500518</v>
+        <v>1640.91186913847</v>
       </c>
       <c r="P19">
-        <v>47.3207958987831</v>
+        <v>43.3339292352186</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>248.794394343625</v>
+        <v>273.011398064817</v>
       </c>
       <c r="C20">
-        <v>9.07055672000422</v>
+        <v>11.4440434355168</v>
       </c>
       <c r="D20">
-        <v>11.5125527961162</v>
+        <v>6.42708858317589</v>
       </c>
       <c r="E20">
-        <v>31.8090497717275</v>
+        <v>34.1296657020679</v>
       </c>
       <c r="F20">
-        <v>0.435156544512033</v>
+        <v>1.38602712912849</v>
       </c>
       <c r="G20">
-        <v>0.780132592401055</v>
+        <v>3.47116943537279</v>
       </c>
       <c r="H20">
-        <v>3.11780932401101</v>
+        <v>0.592706698612547</v>
       </c>
       <c r="I20">
-        <v>0.395972638147528</v>
+        <v>2.09103014080564</v>
       </c>
       <c r="J20">
-        <v>6.59647891646956</v>
+        <v>5.3572596799136</v>
       </c>
       <c r="K20">
-        <v>4.66856603658752</v>
+        <v>0.615887133808647</v>
       </c>
       <c r="L20">
-        <v>7.60917869707238</v>
+        <v>7.68011982880689</v>
       </c>
       <c r="M20">
-        <v>24.3806485093481</v>
+        <v>20.7328327370884</v>
       </c>
       <c r="N20">
-        <v>5.57486969481006</v>
+        <v>6.76233157187164</v>
       </c>
       <c r="O20">
-        <v>633.500886633766</v>
+        <v>612.065670664869</v>
       </c>
       <c r="P20">
-        <v>18.0792794059244</v>
+        <v>21.4829898536785</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>755.439482515182</v>
+        <v>1001.4929074274</v>
       </c>
       <c r="C21">
-        <v>15.3236429647663</v>
+        <v>18.3222743012004</v>
       </c>
       <c r="D21">
-        <v>6.80063423550112</v>
+        <v>1.81831694239157</v>
       </c>
       <c r="E21">
-        <v>19.9852099876714</v>
+        <v>22.0028615584798</v>
       </c>
       <c r="F21">
-        <v>1.23801135485222</v>
+        <v>1.96852229992268</v>
       </c>
       <c r="G21">
-        <v>19.6907521602519</v>
+        <v>13.4358947267344</v>
       </c>
       <c r="H21">
-        <v>11.5920047935906</v>
+        <v>6.98778231437523</v>
       </c>
       <c r="I21">
-        <v>5.48592554305006</v>
+        <v>18.0815477747958</v>
       </c>
       <c r="J21">
-        <v>14.302050510305</v>
+        <v>15.8946534968177</v>
       </c>
       <c r="K21">
-        <v>6.06119953126937</v>
+        <v>1.32724263357742</v>
       </c>
       <c r="L21">
-        <v>29.6471587350493</v>
+        <v>28.2173204162148</v>
       </c>
       <c r="M21">
-        <v>25.1996806210748</v>
+        <v>17.9055192932125</v>
       </c>
       <c r="N21">
-        <v>14.9464791971897</v>
+        <v>14.5133537626717</v>
       </c>
       <c r="O21">
-        <v>2668.34367433611</v>
+        <v>2424.32738269194</v>
       </c>
       <c r="P21">
-        <v>20.1135371475489</v>
+        <v>18.6482765557394</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>909.593570903933</v>
+        <v>1124.83330763439</v>
       </c>
       <c r="C22">
-        <v>13.8470417242319</v>
+        <v>21.376532068618</v>
       </c>
       <c r="D22">
-        <v>20.3767226207097</v>
+        <v>13.401701894791</v>
       </c>
       <c r="E22">
-        <v>32.623290902371</v>
+        <v>46.8015681739696</v>
       </c>
       <c r="F22">
-        <v>0.891209209638155</v>
+        <v>3.48945569937495</v>
       </c>
       <c r="G22">
-        <v>29.383089931789</v>
+        <v>30.6274931607965</v>
       </c>
       <c r="H22">
-        <v>28.438624495164</v>
+        <v>17.3020811123295</v>
       </c>
       <c r="I22">
-        <v>5.96010607840504</v>
+        <v>13.1524231022732</v>
       </c>
       <c r="J22">
-        <v>50.2374335541482</v>
+        <v>41.3035708694234</v>
       </c>
       <c r="K22">
-        <v>31.386966778211</v>
+        <v>3.42091299662</v>
       </c>
       <c r="L22">
-        <v>109.115762432396</v>
+        <v>108.540005544578</v>
       </c>
       <c r="M22">
-        <v>27.6143846184091</v>
+        <v>17.6866024178746</v>
       </c>
       <c r="N22">
-        <v>77.9618117580557</v>
+        <v>64.6549248959183</v>
       </c>
       <c r="O22">
-        <v>2911.29255150605</v>
+        <v>2736.17873704498</v>
       </c>
       <c r="P22">
-        <v>13.1656420563339</v>
+        <v>11.6160827215615</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1744.07727880396</v>
+        <v>2230.03476455903</v>
       </c>
       <c r="C23">
-        <v>52.1289064797881</v>
+        <v>26.272388222107</v>
       </c>
       <c r="D23">
-        <v>11.5458753235267</v>
+        <v>6.61003855487072</v>
       </c>
       <c r="E23">
-        <v>44.5567702024119</v>
+        <v>55.3775828371181</v>
       </c>
       <c r="F23">
-        <v>0.600065149350808</v>
+        <v>5.37190972880231</v>
       </c>
       <c r="G23">
-        <v>73.89567049567791</v>
+        <v>56.5310213799845</v>
       </c>
       <c r="H23">
-        <v>78.5514492186573</v>
+        <v>54.7346313645786</v>
       </c>
       <c r="I23">
-        <v>32.3191712891408</v>
+        <v>18.9373590530875</v>
       </c>
       <c r="J23">
-        <v>147.798923333867</v>
+        <v>126.685451034861</v>
       </c>
       <c r="K23">
-        <v>117.523650681691</v>
+        <v>59.9943681438746</v>
       </c>
       <c r="L23">
-        <v>46.3254137058885</v>
+        <v>31.0766269877386</v>
       </c>
       <c r="M23">
-        <v>638.2955818633531</v>
+        <v>559.377275168152</v>
       </c>
       <c r="N23">
-        <v>99.8087192903899</v>
+        <v>92.4504284318147</v>
       </c>
       <c r="O23">
-        <v>3790.21976499139</v>
+        <v>3531.01782573998</v>
       </c>
       <c r="P23">
-        <v>39.942728526404</v>
+        <v>48.8347149662777</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>556.699819499879</v>
+        <v>742.03954333764</v>
       </c>
       <c r="C24">
-        <v>50.1227520422859</v>
+        <v>44.3514087347275</v>
       </c>
       <c r="D24">
-        <v>12.3627437090645</v>
+        <v>5.64536730220504</v>
       </c>
       <c r="E24">
-        <v>47.2979969329621</v>
+        <v>52.3392315176461</v>
       </c>
       <c r="F24">
-        <v>17.0391088611807</v>
+        <v>12.170581904181</v>
       </c>
       <c r="G24">
-        <v>22.5515770710333</v>
+        <v>27.3706558542097</v>
       </c>
       <c r="H24">
-        <v>15.3871388709238</v>
+        <v>16.0078899533249</v>
       </c>
       <c r="I24">
-        <v>12.6316447093779</v>
+        <v>17.6850301151659</v>
       </c>
       <c r="J24">
-        <v>49.3036647222451</v>
+        <v>61.2356696782014</v>
       </c>
       <c r="K24">
-        <v>72.68978456393771</v>
+        <v>18.9364506594267</v>
       </c>
       <c r="L24">
-        <v>63.7880285816246</v>
+        <v>64.45634600264491</v>
       </c>
       <c r="M24">
-        <v>17.1379557600283</v>
+        <v>25.9483206365947</v>
       </c>
       <c r="N24">
-        <v>77.30204728926979</v>
+        <v>77.3841361775729</v>
       </c>
       <c r="O24">
-        <v>2271.43824762104</v>
+        <v>2091.88350462395</v>
       </c>
       <c r="P24">
-        <v>81.6886130163707</v>
+        <v>94.17887580866641</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>654.806046153923</v>
+        <v>783.824851455999</v>
       </c>
       <c r="C25">
-        <v>44.4808400649884</v>
+        <v>50.3479685583292</v>
       </c>
       <c r="D25">
-        <v>13.1078485003994</v>
+        <v>11.7577850259019</v>
       </c>
       <c r="E25">
-        <v>41.5543171225999</v>
+        <v>49.7352040002733</v>
       </c>
       <c r="F25">
-        <v>29.319292236729</v>
+        <v>16.8418108323566</v>
       </c>
       <c r="G25">
-        <v>13.6692500215855</v>
+        <v>15.1860105985303</v>
       </c>
       <c r="H25">
-        <v>12.3924050641844</v>
+        <v>6.60933813577797</v>
       </c>
       <c r="I25">
-        <v>3.86068035401294</v>
+        <v>5.01960863380306</v>
       </c>
       <c r="J25">
-        <v>16.2048989229259</v>
+        <v>9.272333546008969</v>
       </c>
       <c r="K25">
-        <v>15.9018094451921</v>
+        <v>6.86008120477301</v>
       </c>
       <c r="L25">
-        <v>28.4472598974846</v>
+        <v>10.8769831239432</v>
       </c>
       <c r="M25">
-        <v>40.4703343472917</v>
+        <v>40.233009220257</v>
       </c>
       <c r="N25">
-        <v>32.510785879208</v>
+        <v>38.9895202254784</v>
       </c>
       <c r="O25">
-        <v>1119.24875355136</v>
+        <v>1033.16888259921</v>
       </c>
       <c r="P25">
-        <v>51.9456364803377</v>
+        <v>43.5864099512724</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>848.456450084161</v>
+        <v>1046.59841338762</v>
       </c>
       <c r="C26">
-        <v>56.8123418512277</v>
+        <v>53.9948921428167</v>
       </c>
       <c r="D26">
-        <v>10.6135969059936</v>
+        <v>3.81376166057771</v>
       </c>
       <c r="E26">
-        <v>37.3771202104514</v>
+        <v>48.0759875223086</v>
       </c>
       <c r="F26">
-        <v>6.82612483492041</v>
+        <v>7.44491650962924</v>
       </c>
       <c r="G26">
-        <v>49.0668863784114</v>
+        <v>43.9411505417982</v>
       </c>
       <c r="H26">
-        <v>19.1793274433136</v>
+        <v>10.1133165177077</v>
       </c>
       <c r="I26">
-        <v>12.2560245403489</v>
+        <v>11.6276448434427</v>
       </c>
       <c r="J26">
-        <v>50.0570829839998</v>
+        <v>28.2000023249666</v>
       </c>
       <c r="K26">
-        <v>27.6278475409075</v>
+        <v>7.78318123811017</v>
       </c>
       <c r="L26">
-        <v>33.6945418940815</v>
+        <v>25.4767850481098</v>
       </c>
       <c r="M26">
-        <v>78.1250860461179</v>
+        <v>72.118734513283</v>
       </c>
       <c r="N26">
-        <v>32.6556571586882</v>
+        <v>26.5295058680363</v>
       </c>
       <c r="O26">
-        <v>2545.18632935087</v>
+        <v>2408.80922269512</v>
       </c>
       <c r="P26">
-        <v>49.2747176397049</v>
+        <v>57.440261120019</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>186.829022099225</v>
+        <v>218.515607473354</v>
       </c>
       <c r="C27">
-        <v>3.9943751474943</v>
+        <v>1.64207587337303</v>
       </c>
       <c r="D27">
-        <v>1.03942953597838</v>
+        <v>2.74082276491636</v>
       </c>
       <c r="E27">
-        <v>15.089616069023</v>
+        <v>14.5629364499422</v>
       </c>
       <c r="F27">
-        <v>8.69020714773113</v>
+        <v>7.90466231763595</v>
       </c>
       <c r="G27">
-        <v>1.07581288210274</v>
+        <v>0.478605513740374</v>
       </c>
       <c r="H27">
-        <v>0.168749345542896</v>
+        <v>0.34833871221452</v>
       </c>
       <c r="I27">
-        <v>3.47413964138357</v>
+        <v>3.16477696384115</v>
       </c>
       <c r="J27">
-        <v>3.70404725403553</v>
+        <v>3.27996053939804</v>
       </c>
       <c r="K27">
-        <v>2.89494243095046</v>
+        <v>1.23371772009753</v>
       </c>
       <c r="L27">
-        <v>2.7542471876884</v>
+        <v>3.71271488848446</v>
       </c>
       <c r="M27">
-        <v>0.999694286876992</v>
+        <v>0.993750720952867</v>
       </c>
       <c r="N27">
-        <v>5.82678708616068</v>
+        <v>4.15049627503863</v>
       </c>
       <c r="O27">
-        <v>496.377453001513</v>
+        <v>468.520829612793</v>
       </c>
       <c r="P27">
-        <v>49.2883465870906</v>
+        <v>53.99256950082</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>198.953718456067</v>
+        <v>249.897838601278</v>
       </c>
       <c r="C28">
-        <v>35.0440394944638</v>
+        <v>39.5757005814822</v>
       </c>
       <c r="D28">
-        <v>1.97703878586297</v>
+        <v>2.05177858382702</v>
       </c>
       <c r="E28">
-        <v>7.94979038687259</v>
+        <v>9.982877381829301</v>
       </c>
       <c r="F28">
-        <v>3.284124700652</v>
+        <v>0.655267739994384</v>
       </c>
       <c r="G28">
-        <v>8.02500881292133</v>
+        <v>5.12105540126771</v>
       </c>
       <c r="H28">
-        <v>7.98037755154936</v>
+        <v>7.41931880142879</v>
       </c>
       <c r="I28">
-        <v>4.22401182794329</v>
+        <v>3.72719900375045</v>
       </c>
       <c r="J28">
-        <v>18.0462056166218</v>
+        <v>20.6413460139856</v>
       </c>
       <c r="K28">
-        <v>18.3558097928873</v>
+        <v>11.6323123914942</v>
       </c>
       <c r="L28">
-        <v>11.8442101002949</v>
+        <v>11.5788533480343</v>
       </c>
       <c r="M28">
-        <v>8.292589252988449</v>
+        <v>10.9444310491338</v>
       </c>
       <c r="N28">
-        <v>10.3351434224516</v>
+        <v>11.541593454446</v>
       </c>
       <c r="O28">
-        <v>878.190339588875</v>
+        <v>826.96542421968</v>
       </c>
       <c r="P28">
-        <v>84.38907897235561</v>
+        <v>78.0933790841525</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>393.99895504303</v>
+        <v>434.367043185477</v>
       </c>
       <c r="C29">
-        <v>2.25083294500363</v>
+        <v>3.3404401463889</v>
       </c>
       <c r="D29">
-        <v>5.05022025280492</v>
+        <v>1.32041229922442</v>
       </c>
       <c r="E29">
-        <v>4.22187412592652</v>
+        <v>5.20116964394293</v>
       </c>
       <c r="F29">
-        <v>18.0392497136814</v>
+        <v>26.9646748622883</v>
       </c>
       <c r="G29">
-        <v>2.7850878593554</v>
+        <v>6.45630159610477</v>
       </c>
       <c r="H29">
-        <v>2.87778293119988</v>
+        <v>1.3821221128382</v>
       </c>
       <c r="I29">
-        <v>6.37779481845634</v>
+        <v>1.7574281679882</v>
       </c>
       <c r="J29">
-        <v>4.40517340926273</v>
+        <v>5.61374792378559</v>
       </c>
       <c r="K29">
-        <v>2.64987614658097</v>
+        <v>1.00650916404702</v>
       </c>
       <c r="L29">
-        <v>2.87866931039355</v>
+        <v>4.73277371151128</v>
       </c>
       <c r="M29">
-        <v>2.81726639228711</v>
+        <v>3.94681635108012</v>
       </c>
       <c r="N29">
-        <v>11.0737778491696</v>
+        <v>11.8382722870276</v>
       </c>
       <c r="O29">
-        <v>1181.99517280222</v>
+        <v>1139.93828256091</v>
       </c>
       <c r="P29">
-        <v>5.11664196691649</v>
+        <v>4.05498199360091</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>173.895092298042</v>
+        <v>218.350945578684</v>
       </c>
       <c r="C30">
-        <v>4.14724612643626</v>
+        <v>3.70917187381122</v>
       </c>
       <c r="D30">
-        <v>5.80682197746817</v>
+        <v>4.45663335823272</v>
       </c>
       <c r="E30">
-        <v>9.36303969739841</v>
+        <v>14.0788948365533</v>
       </c>
       <c r="F30">
-        <v>0.22850892245411</v>
+        <v>0.0954325761560527</v>
       </c>
       <c r="G30">
-        <v>6.74532565112141</v>
+        <v>4.74793597407263</v>
       </c>
       <c r="H30">
-        <v>8.445614480732781</v>
+        <v>5.81647718538209</v>
       </c>
       <c r="I30">
-        <v>2.34897003913041</v>
+        <v>2.75262387066739</v>
       </c>
       <c r="J30">
-        <v>19.5963159506845</v>
+        <v>19.4246409652391</v>
       </c>
       <c r="K30">
-        <v>15.2639814877481</v>
+        <v>5.44383190192195</v>
       </c>
       <c r="L30">
-        <v>50.5053952347297</v>
+        <v>50.033218438121</v>
       </c>
       <c r="M30">
-        <v>11.3247676067956</v>
+        <v>10.1053940587799</v>
       </c>
       <c r="N30">
-        <v>12.4165251775464</v>
+        <v>15.4728787229913</v>
       </c>
       <c r="O30">
-        <v>655.45053440547</v>
+        <v>611.9313117622691</v>
       </c>
       <c r="P30">
-        <v>5.45752641855894</v>
+        <v>7.74794834525676</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1381.93574665325</v>
+        <v>1528.93269473104</v>
       </c>
       <c r="C31">
-        <v>43.0994813080501</v>
+        <v>63.2666697388187</v>
       </c>
       <c r="D31">
-        <v>25.1440891026025</v>
+        <v>10.9389045924373</v>
       </c>
       <c r="E31">
-        <v>27.0571563247579</v>
+        <v>39.4369932699888</v>
       </c>
       <c r="F31">
-        <v>10.6552789289373</v>
+        <v>4.00992887184193</v>
       </c>
       <c r="G31">
-        <v>139.882431138104</v>
+        <v>98.0371667130261</v>
       </c>
       <c r="H31">
-        <v>16.0699166503434</v>
+        <v>8.396199510581839</v>
       </c>
       <c r="I31">
-        <v>28.517168340105</v>
+        <v>15.9880695671851</v>
       </c>
       <c r="J31">
-        <v>33.4495778747152</v>
+        <v>31.261331290097</v>
       </c>
       <c r="K31">
-        <v>24.2687628654545</v>
+        <v>4.79886500656951</v>
       </c>
       <c r="L31">
-        <v>82.4657115553792</v>
+        <v>61.5716279272391</v>
       </c>
       <c r="M31">
-        <v>19.109132517011</v>
+        <v>19.7532369808333</v>
       </c>
       <c r="N31">
-        <v>59.9059853033457</v>
+        <v>73.3443585842379</v>
       </c>
       <c r="O31">
-        <v>3855.60221263077</v>
+        <v>3778.07172316068</v>
       </c>
       <c r="P31">
-        <v>10.957787982641</v>
+        <v>17.4356373716606</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>378.354225327712</v>
+        <v>447.31718797401</v>
       </c>
       <c r="C32">
-        <v>6.82572793393925</v>
+        <v>3.15795951059127</v>
       </c>
       <c r="D32">
-        <v>3.24987486358164</v>
+        <v>0.542030588741913</v>
       </c>
       <c r="E32">
-        <v>4.44548213174979</v>
+        <v>2.83414551868973</v>
       </c>
       <c r="F32">
-        <v>31.955792183831</v>
+        <v>23.5495975863971</v>
       </c>
       <c r="G32">
-        <v>0.981064984138324</v>
+        <v>1.99231506702239</v>
       </c>
       <c r="H32">
-        <v>0.257039862994962</v>
+        <v>0.745621537625228</v>
       </c>
       <c r="I32">
-        <v>4.53253447029519</v>
+        <v>0.923513042974999</v>
       </c>
       <c r="J32">
-        <v>6.06019477455268</v>
+        <v>3.41458886022811</v>
       </c>
       <c r="K32">
-        <v>5.20353008167401</v>
+        <v>3.34767375858904</v>
       </c>
       <c r="L32">
-        <v>12.3694504948044</v>
+        <v>9.57091358090169</v>
       </c>
       <c r="M32">
-        <v>4.195363594323</v>
+        <v>7.64022207051868</v>
       </c>
       <c r="N32">
-        <v>7.70761034185685</v>
+        <v>16.3414808372938</v>
       </c>
       <c r="O32">
-        <v>850.527587504315</v>
+        <v>806.2289683238261</v>
       </c>
       <c r="P32">
-        <v>25.9424982385189</v>
+        <v>20.9072021296796</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3559.81091919056</v>
+        <v>4124.87408920693</v>
       </c>
       <c r="C33">
-        <v>72.3271011714635</v>
+        <v>91.6352499205918</v>
       </c>
       <c r="D33">
-        <v>69.8090208071913</v>
+        <v>22.1041322474409</v>
       </c>
       <c r="E33">
-        <v>54.9081610013162</v>
+        <v>74.5785090820831</v>
       </c>
       <c r="F33">
-        <v>5.93473343054569</v>
+        <v>9.432125657487941</v>
       </c>
       <c r="G33">
-        <v>56.5735407971362</v>
+        <v>71.0030608451445</v>
       </c>
       <c r="H33">
-        <v>46.8111415011595</v>
+        <v>44.5900750001077</v>
       </c>
       <c r="I33">
-        <v>21.7196126800738</v>
+        <v>19.5548810280977</v>
       </c>
       <c r="J33">
-        <v>95.6977342948645</v>
+        <v>89.4111819144043</v>
       </c>
       <c r="K33">
-        <v>93.1632259232594</v>
+        <v>61.8159996383379</v>
       </c>
       <c r="L33">
-        <v>137.875576417099</v>
+        <v>105.085804203497</v>
       </c>
       <c r="M33">
-        <v>84.51976082926061</v>
+        <v>62.5715742861498</v>
       </c>
       <c r="N33">
-        <v>167.692365826772</v>
+        <v>157.837764759531</v>
       </c>
       <c r="O33">
-        <v>8178.71499489407</v>
+        <v>7724.38246986706</v>
       </c>
       <c r="P33">
-        <v>48.5041467603967</v>
+        <v>57.9097245511316</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1476.3620618282</v>
+        <v>1781.71444365465</v>
       </c>
       <c r="C34">
-        <v>87.27277858760409</v>
+        <v>69.8085225452146</v>
       </c>
       <c r="D34">
-        <v>191.215344412087</v>
+        <v>100.245036901775</v>
       </c>
       <c r="E34">
-        <v>57.4067783893214</v>
+        <v>56.0736160765378</v>
       </c>
       <c r="F34">
-        <v>2.81235883689745</v>
+        <v>1.60543341963008</v>
       </c>
       <c r="G34">
-        <v>74.583037408981</v>
+        <v>48.7507260199451</v>
       </c>
       <c r="H34">
-        <v>55.7358205031396</v>
+        <v>48.8481327907608</v>
       </c>
       <c r="I34">
-        <v>25.3222643463867</v>
+        <v>14.4991871653879</v>
       </c>
       <c r="J34">
-        <v>42.7650486053863</v>
+        <v>45.3011185775299</v>
       </c>
       <c r="K34">
-        <v>67.66833117558851</v>
+        <v>7.77514256982312</v>
       </c>
       <c r="L34">
-        <v>111.70873119931</v>
+        <v>126.59305948827</v>
       </c>
       <c r="M34">
-        <v>47.427361116765</v>
+        <v>31.0995661007196</v>
       </c>
       <c r="N34">
-        <v>138.504637579466</v>
+        <v>130.591542393725</v>
       </c>
       <c r="O34">
-        <v>3343.24609397605</v>
+        <v>3236.66234363942</v>
       </c>
       <c r="P34">
-        <v>68.5104631934103</v>
+        <v>74.54257325516549</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>89.6470203940041</v>
+        <v>107.100601001071</v>
       </c>
       <c r="C35">
-        <v>8.74270620176825</v>
+        <v>8.24221881943471</v>
       </c>
       <c r="D35">
-        <v>0.704432726932243</v>
+        <v>0.277094591056817</v>
       </c>
       <c r="E35">
-        <v>3.90245207436072</v>
+        <v>3.02688083761968</v>
       </c>
       <c r="F35">
-        <v>6.31632487448836</v>
+        <v>4.67711851504369</v>
       </c>
       <c r="G35">
-        <v>0.322424285326147</v>
+        <v>0.617773247632011</v>
       </c>
       <c r="H35">
-        <v>0.610251154599562</v>
+        <v>0.7423373625040151</v>
       </c>
       <c r="I35">
-        <v>0.874124875577168</v>
+        <v>1.1220203403157</v>
       </c>
       <c r="J35">
-        <v>2.3335740364323</v>
+        <v>3.99039097008064</v>
       </c>
       <c r="K35">
-        <v>7.32323693927885</v>
+        <v>6.0826691378798</v>
       </c>
       <c r="L35">
-        <v>2.94158393513709</v>
+        <v>3.31602916186899</v>
       </c>
       <c r="M35">
-        <v>2.59265259196028</v>
+        <v>2.55016946230355</v>
       </c>
       <c r="N35">
-        <v>3.23447983069368</v>
+        <v>5.40647140052297</v>
       </c>
       <c r="O35">
-        <v>363.430399344092</v>
+        <v>337.271355212799</v>
       </c>
       <c r="P35">
-        <v>48.018020879801</v>
+        <v>53.0858870384686</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1906.53338914686</v>
+        <v>2421.72571408759</v>
       </c>
       <c r="C36">
-        <v>68.61693126570211</v>
+        <v>65.493665553363</v>
       </c>
       <c r="D36">
-        <v>15.9319519505479</v>
+        <v>11.7016480432102</v>
       </c>
       <c r="E36">
-        <v>77.1309132018236</v>
+        <v>146.021349432836</v>
       </c>
       <c r="F36">
-        <v>39.7448098151141</v>
+        <v>31.7574494517841</v>
       </c>
       <c r="G36">
-        <v>99.99978702061409</v>
+        <v>85.3127082387755</v>
       </c>
       <c r="H36">
-        <v>107.741879254902</v>
+        <v>68.3696376819143</v>
       </c>
       <c r="I36">
-        <v>46.8434585268973</v>
+        <v>36.6260355905682</v>
       </c>
       <c r="J36">
-        <v>213.704926033396</v>
+        <v>191.941149476861</v>
       </c>
       <c r="K36">
-        <v>116.602212851376</v>
+        <v>51.7361644056729</v>
       </c>
       <c r="L36">
-        <v>100.660561165642</v>
+        <v>63.8084417082021</v>
       </c>
       <c r="M36">
-        <v>221.578044200169</v>
+        <v>194.706121935852</v>
       </c>
       <c r="N36">
-        <v>93.22536709705361</v>
+        <v>99.64803952841</v>
       </c>
       <c r="O36">
-        <v>4755.69437602126</v>
+        <v>4382.93351902455</v>
       </c>
       <c r="P36">
-        <v>40.9612589379689</v>
+        <v>43.5201736473785</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>626.016426214193</v>
+        <v>743.705333865729</v>
       </c>
       <c r="C37">
-        <v>23.7140679315415</v>
+        <v>19.3908644792842</v>
       </c>
       <c r="D37">
-        <v>5.05444178354521</v>
+        <v>3.21241735391675</v>
       </c>
       <c r="E37">
-        <v>13.444919158534</v>
+        <v>15.9331036347711</v>
       </c>
       <c r="F37">
-        <v>42.0205121219937</v>
+        <v>30.3850831786472</v>
       </c>
       <c r="G37">
-        <v>7.07435178765485</v>
+        <v>8.496994378933911</v>
       </c>
       <c r="H37">
-        <v>22.0922062550462</v>
+        <v>24.9766628784178</v>
       </c>
       <c r="I37">
-        <v>11.6771454451464</v>
+        <v>11.2578798749699</v>
       </c>
       <c r="J37">
-        <v>31.0736755244738</v>
+        <v>35.1366337438614</v>
       </c>
       <c r="K37">
-        <v>39.7266780722386</v>
+        <v>5.06418039630125</v>
       </c>
       <c r="L37">
-        <v>25.9422240699368</v>
+        <v>17.4045470489257</v>
       </c>
       <c r="M37">
-        <v>26.4975449504577</v>
+        <v>43.8206631556195</v>
       </c>
       <c r="N37">
-        <v>17.2390002473757</v>
+        <v>21.0152758123355</v>
       </c>
       <c r="O37">
-        <v>1418.49316831051</v>
+        <v>1327.40360319288</v>
       </c>
       <c r="P37">
-        <v>50.5835750125091</v>
+        <v>54.1966257116196</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>627.391265395863</v>
+        <v>759.11915671934</v>
       </c>
       <c r="C38">
-        <v>26.6277385858455</v>
+        <v>25.3253654400908</v>
       </c>
       <c r="D38">
-        <v>15.6319499789397</v>
+        <v>4.74017742051352</v>
       </c>
       <c r="E38">
-        <v>44.1199463203</v>
+        <v>43.3318141348675</v>
       </c>
       <c r="F38">
-        <v>1.6875669722889</v>
+        <v>1.51434630212222</v>
       </c>
       <c r="G38">
-        <v>6.94409599169814</v>
+        <v>12.0460341939563</v>
       </c>
       <c r="H38">
-        <v>7.20424662428832</v>
+        <v>2.62374442099247</v>
       </c>
       <c r="I38">
-        <v>2.59378338107871</v>
+        <v>1.29384248759308</v>
       </c>
       <c r="J38">
-        <v>39.6738708949235</v>
+        <v>36.7939204751117</v>
       </c>
       <c r="K38">
-        <v>18.062366893351</v>
+        <v>3.0099678825313</v>
       </c>
       <c r="L38">
-        <v>84.7631203759823</v>
+        <v>79.3289869452987</v>
       </c>
       <c r="M38">
-        <v>22.1384336852862</v>
+        <v>22.0124222213319</v>
       </c>
       <c r="N38">
-        <v>24.1368266108536</v>
+        <v>37.4091302383613</v>
       </c>
       <c r="O38">
-        <v>1536.04821437538</v>
+        <v>1429.80454050263</v>
       </c>
       <c r="P38">
-        <v>61.9680632238175</v>
+        <v>64.8998044922634</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2044.9486015934</v>
+        <v>2533.91708905628</v>
       </c>
       <c r="C39">
-        <v>118.376065024384</v>
+        <v>101.978162343385</v>
       </c>
       <c r="D39">
-        <v>52.9566429912552</v>
+        <v>34.0407745598477</v>
       </c>
       <c r="E39">
-        <v>80.0628496408204</v>
+        <v>124.509819764904</v>
       </c>
       <c r="F39">
-        <v>22.3308065855293</v>
+        <v>24.2749518163376</v>
       </c>
       <c r="G39">
-        <v>129.063019514626</v>
+        <v>130.259270554009</v>
       </c>
       <c r="H39">
-        <v>47.3926745191043</v>
+        <v>50.5197447735836</v>
       </c>
       <c r="I39">
-        <v>53.9849325866625</v>
+        <v>28.7086084725933</v>
       </c>
       <c r="J39">
-        <v>163.559332394603</v>
+        <v>178.561156184644</v>
       </c>
       <c r="K39">
-        <v>122.300191630999</v>
+        <v>55.4342168043475</v>
       </c>
       <c r="L39">
-        <v>112.142507530816</v>
+        <v>111.090446266358</v>
       </c>
       <c r="M39">
-        <v>75.7812696523922</v>
+        <v>82.8171353485281</v>
       </c>
       <c r="N39">
-        <v>118.718870334565</v>
+        <v>126.296096649647</v>
       </c>
       <c r="O39">
-        <v>5457.70078835002</v>
+        <v>5005.12942702189</v>
       </c>
       <c r="P39">
-        <v>49.045225951874</v>
+        <v>51.4927554216796</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>190.293715806217</v>
+        <v>235.353979876618</v>
       </c>
       <c r="C40">
-        <v>3.16055051153278</v>
+        <v>4.51844075192273</v>
       </c>
       <c r="D40">
-        <v>10.6021297681006</v>
+        <v>8.045458106908351</v>
       </c>
       <c r="E40">
-        <v>5.61493632703689</v>
+        <v>4.469078109899</v>
       </c>
       <c r="F40">
-        <v>0.331973525091156</v>
+        <v>0.55954949375404</v>
       </c>
       <c r="G40">
-        <v>6.62340615090237</v>
+        <v>4.73963906770441</v>
       </c>
       <c r="H40">
-        <v>7.97783042247086</v>
+        <v>4.02261695308191</v>
       </c>
       <c r="I40">
-        <v>2.05910272543818</v>
+        <v>1.31132689318002</v>
       </c>
       <c r="J40">
-        <v>15.1735148611146</v>
+        <v>12.8613309881032</v>
       </c>
       <c r="K40">
-        <v>9.028558302324401</v>
+        <v>0.917896716273244</v>
       </c>
       <c r="L40">
-        <v>14.4535060735575</v>
+        <v>13.3010804180819</v>
       </c>
       <c r="M40">
-        <v>7.89177159237765</v>
+        <v>4.93135287480253</v>
       </c>
       <c r="N40">
-        <v>35.026107998283</v>
+        <v>24.2905484097449</v>
       </c>
       <c r="O40">
-        <v>549.032128965089</v>
+        <v>533.125540871737</v>
       </c>
       <c r="P40">
-        <v>1.61926763983202</v>
+        <v>3.92560371622891</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>803.97059697169</v>
+        <v>939.788768509768</v>
       </c>
       <c r="C41">
-        <v>11.2099857717493</v>
+        <v>13.5614220589662</v>
       </c>
       <c r="D41">
-        <v>92.4050551581328</v>
+        <v>69.2661197923179</v>
       </c>
       <c r="E41">
-        <v>45.5892849757411</v>
+        <v>38.123709872962</v>
       </c>
       <c r="F41">
-        <v>2.75330987334577</v>
+        <v>1.83660839793027</v>
       </c>
       <c r="G41">
-        <v>50.7346318229995</v>
+        <v>32.07889399527</v>
       </c>
       <c r="H41">
-        <v>47.5416580931885</v>
+        <v>36.8255955831595</v>
       </c>
       <c r="I41">
-        <v>7.87141723236681</v>
+        <v>13.4109996050697</v>
       </c>
       <c r="J41">
-        <v>62.7415062723483</v>
+        <v>37.6151366393544</v>
       </c>
       <c r="K41">
-        <v>34.7057366663118</v>
+        <v>7.78405654663287</v>
       </c>
       <c r="L41">
-        <v>29.023661138262</v>
+        <v>26.4360041572545</v>
       </c>
       <c r="M41">
-        <v>46.8643657474786</v>
+        <v>30.8735133369569</v>
       </c>
       <c r="N41">
-        <v>21.8626617435941</v>
+        <v>16.1308479728659</v>
       </c>
       <c r="O41">
-        <v>1610.61818095116</v>
+        <v>1582.07700777747</v>
       </c>
       <c r="P41">
-        <v>15.8199722777835</v>
+        <v>32.3626140622506</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>103.060734327827</v>
+        <v>136.048185264096</v>
       </c>
       <c r="C42">
-        <v>10.9488904182683</v>
+        <v>8.36384905135893</v>
       </c>
       <c r="D42">
-        <v>0.509623728809413</v>
+        <v>1.60998816522107</v>
       </c>
       <c r="E42">
-        <v>10.5105931488389</v>
+        <v>9.856639445403101</v>
       </c>
       <c r="F42">
-        <v>3.19489744479111</v>
+        <v>2.74447924337718</v>
       </c>
       <c r="G42">
-        <v>0.829955306339042</v>
+        <v>1.69256275653225</v>
       </c>
       <c r="H42">
-        <v>1.8726329107305</v>
+        <v>0.7780569103352411</v>
       </c>
       <c r="I42">
-        <v>2.21509760892066</v>
+        <v>2.41512450605967</v>
       </c>
       <c r="J42">
-        <v>5.88117735693715</v>
+        <v>6.97700272307108</v>
       </c>
       <c r="K42">
-        <v>7.21578599282568</v>
+        <v>4.76766425135123</v>
       </c>
       <c r="L42">
-        <v>9.462998514656711</v>
+        <v>7.57040898364422</v>
       </c>
       <c r="M42">
-        <v>4.27038074818458</v>
+        <v>5.91113738607853</v>
       </c>
       <c r="N42">
-        <v>9.499860492922</v>
+        <v>13.90584274329</v>
       </c>
       <c r="O42">
-        <v>475.967052248547</v>
+        <v>433.954390129942</v>
       </c>
       <c r="P42">
-        <v>54.5963547752267</v>
+        <v>60.1260908995745</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1206.12229293385</v>
+        <v>1431.26240215881</v>
       </c>
       <c r="C43">
-        <v>41.0153239705749</v>
+        <v>35.0372817357674</v>
       </c>
       <c r="D43">
-        <v>31.5953950073627</v>
+        <v>21.7283304459791</v>
       </c>
       <c r="E43">
-        <v>45.2228417334747</v>
+        <v>78.4065253108399</v>
       </c>
       <c r="F43">
-        <v>7.55986136095404</v>
+        <v>4.97983547809491</v>
       </c>
       <c r="G43">
-        <v>37.9022001233389</v>
+        <v>38.7181326211891</v>
       </c>
       <c r="H43">
-        <v>24.3229075843965</v>
+        <v>49.2190304653099</v>
       </c>
       <c r="I43">
-        <v>28.7249209886069</v>
+        <v>20.1743852281308</v>
       </c>
       <c r="J43">
-        <v>46.9492580154779</v>
+        <v>54.7654044694447</v>
       </c>
       <c r="K43">
-        <v>58.8958198000044</v>
+        <v>9.899624052687161</v>
       </c>
       <c r="L43">
-        <v>40.9175066588802</v>
+        <v>38.4191684362697</v>
       </c>
       <c r="M43">
-        <v>85.5452723166074</v>
+        <v>88.3671958478681</v>
       </c>
       <c r="N43">
-        <v>66.45496631900539</v>
+        <v>70.409980845392</v>
       </c>
       <c r="O43">
-        <v>2356.74900633947</v>
+        <v>2150.51984160322</v>
       </c>
       <c r="P43">
-        <v>44.8859454597991</v>
+        <v>38.1160928595662</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3504.38224554571</v>
+        <v>4171.69920230241</v>
       </c>
       <c r="C44">
-        <v>156.090566901245</v>
+        <v>158.747099890633</v>
       </c>
       <c r="D44">
-        <v>52.6375954555551</v>
+        <v>17.058413299745</v>
       </c>
       <c r="E44">
-        <v>76.1735528047994</v>
+        <v>91.1906039655764</v>
       </c>
       <c r="F44">
-        <v>269.830805354722</v>
+        <v>239.975884914741</v>
       </c>
       <c r="G44">
-        <v>138.557631300441</v>
+        <v>114.69540976545</v>
       </c>
       <c r="H44">
-        <v>43.4741003142126</v>
+        <v>36.1904215392357</v>
       </c>
       <c r="I44">
-        <v>51.0117987680177</v>
+        <v>41.0924752702339</v>
       </c>
       <c r="J44">
-        <v>117.720752956528</v>
+        <v>112.100981818105</v>
       </c>
       <c r="K44">
-        <v>101.59524029186</v>
+        <v>31.5855007494592</v>
       </c>
       <c r="L44">
-        <v>211.840367366428</v>
+        <v>159.650831627737</v>
       </c>
       <c r="M44">
-        <v>115.260293307714</v>
+        <v>78.070342269897</v>
       </c>
       <c r="N44">
-        <v>93.87315997459029</v>
+        <v>87.1939874313386</v>
       </c>
       <c r="O44">
-        <v>8777.45127755465</v>
+        <v>8378.747225233479</v>
       </c>
       <c r="P44">
-        <v>223.323319000036</v>
+        <v>218.062232755938</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>364.631087984424</v>
+        <v>402.41062907971</v>
       </c>
       <c r="C45">
-        <v>19.5455615855874</v>
+        <v>18.2673598757545</v>
       </c>
       <c r="D45">
-        <v>4.29099236423121</v>
+        <v>2.24334528811499</v>
       </c>
       <c r="E45">
-        <v>9.946196820543801</v>
+        <v>21.5098575035087</v>
       </c>
       <c r="F45">
-        <v>23.6486493216003</v>
+        <v>25.9551841009629</v>
       </c>
       <c r="G45">
-        <v>13.2694428007708</v>
+        <v>7.79691444835357</v>
       </c>
       <c r="H45">
-        <v>3.42921458977414</v>
+        <v>3.13383426839282</v>
       </c>
       <c r="I45">
-        <v>4.70454335114122</v>
+        <v>4.89753042279621</v>
       </c>
       <c r="J45">
-        <v>14.8769464318595</v>
+        <v>21.5613000223786</v>
       </c>
       <c r="K45">
-        <v>8.55056330799394</v>
+        <v>1.63320617677551</v>
       </c>
       <c r="L45">
-        <v>18.6622847573802</v>
+        <v>15.3874867248346</v>
       </c>
       <c r="M45">
-        <v>22.1251800744844</v>
+        <v>12.7927846116959</v>
       </c>
       <c r="N45">
-        <v>23.9312602590697</v>
+        <v>29.5526669330062</v>
       </c>
       <c r="O45">
-        <v>947.787344715048</v>
+        <v>903.676714782447</v>
       </c>
       <c r="P45">
-        <v>12.7869774224363</v>
+        <v>20.1183286909237</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>100.232442608659</v>
+        <v>119.854191346525</v>
       </c>
       <c r="C46">
-        <v>6.43905495891093</v>
+        <v>6.55665771731947</v>
       </c>
       <c r="D46">
-        <v>1.72184484432943</v>
+        <v>1.00870236744746</v>
       </c>
       <c r="E46">
-        <v>6.64472434919428</v>
+        <v>6.07181764122162</v>
       </c>
       <c r="F46">
-        <v>1.60890653704304</v>
+        <v>0.827860400809547</v>
       </c>
       <c r="G46">
-        <v>2.91106625487569</v>
+        <v>2.11137768229472</v>
       </c>
       <c r="H46">
-        <v>4.1701986106455</v>
+        <v>0.861752542701359</v>
       </c>
       <c r="I46">
-        <v>1.7446571914576</v>
+        <v>1.74860845828919</v>
       </c>
       <c r="J46">
-        <v>6.26392766449714</v>
+        <v>5.57950185087461</v>
       </c>
       <c r="K46">
-        <v>3.87728665411225</v>
+        <v>1.5529455504769</v>
       </c>
       <c r="L46">
-        <v>17.7890604535882</v>
+        <v>16.0024909055906</v>
       </c>
       <c r="M46">
-        <v>5.78419369083298</v>
+        <v>3.4894705204471</v>
       </c>
       <c r="N46">
-        <v>8.01399228371173</v>
+        <v>13.2556739643017</v>
       </c>
       <c r="O46">
-        <v>382.830242945684</v>
+        <v>369.450334235557</v>
       </c>
       <c r="P46">
-        <v>11.7330158736744</v>
+        <v>10.0452458292179</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1107.58355452961</v>
+        <v>1444.03361162428</v>
       </c>
       <c r="C47">
-        <v>57.4917562040909</v>
+        <v>45.4563138810706</v>
       </c>
       <c r="D47">
-        <v>34.0755360087069</v>
+        <v>11.8799424043509</v>
       </c>
       <c r="E47">
-        <v>36.4619905775825</v>
+        <v>44.7141439297896</v>
       </c>
       <c r="F47">
-        <v>9.35542150359783</v>
+        <v>10.3602102501263</v>
       </c>
       <c r="G47">
-        <v>19.5803933975971</v>
+        <v>22.3950318166334</v>
       </c>
       <c r="H47">
-        <v>18.3203159176247</v>
+        <v>12.7586662661955</v>
       </c>
       <c r="I47">
-        <v>11.3196785243667</v>
+        <v>4.68165063218511</v>
       </c>
       <c r="J47">
-        <v>49.885438076956</v>
+        <v>37.5454658097917</v>
       </c>
       <c r="K47">
-        <v>13.2814410049754</v>
+        <v>5.17792850307065</v>
       </c>
       <c r="L47">
-        <v>49.8729373768686</v>
+        <v>23.0656819045162</v>
       </c>
       <c r="M47">
-        <v>70.3342153032193</v>
+        <v>63.3728682496443</v>
       </c>
       <c r="N47">
-        <v>29.6106008690411</v>
+        <v>32.8057560856037</v>
       </c>
       <c r="O47">
-        <v>3301.40804782184</v>
+        <v>3053.05164510301</v>
       </c>
       <c r="P47">
-        <v>42.2743735005159</v>
+        <v>36.8849781847735</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1054.71424265513</v>
+        <v>1203.40473684242</v>
       </c>
       <c r="C48">
-        <v>18.0321926179559</v>
+        <v>36.5556730016016</v>
       </c>
       <c r="D48">
-        <v>7.85321219980998</v>
+        <v>4.26128230137782</v>
       </c>
       <c r="E48">
-        <v>63.2361088708816</v>
+        <v>71.0348914377618</v>
       </c>
       <c r="F48">
-        <v>12.6112878495321</v>
+        <v>11.0624082126413</v>
       </c>
       <c r="G48">
-        <v>4.38672517871395</v>
+        <v>8.33588102536423</v>
       </c>
       <c r="H48">
-        <v>4.10449032012883</v>
+        <v>4.27787720943778</v>
       </c>
       <c r="I48">
-        <v>16.7188124174214</v>
+        <v>9.68763426166559</v>
       </c>
       <c r="J48">
-        <v>30.4089628988217</v>
+        <v>34.9467858240578</v>
       </c>
       <c r="K48">
-        <v>18.1254688448218</v>
+        <v>7.20473939127043</v>
       </c>
       <c r="L48">
-        <v>39.5569673978453</v>
+        <v>53.04926161798</v>
       </c>
       <c r="M48">
-        <v>156.036041224588</v>
+        <v>146.057463242942</v>
       </c>
       <c r="N48">
-        <v>29.70776878983</v>
+        <v>38.4602926033191</v>
       </c>
       <c r="O48">
-        <v>2628.99158048605</v>
+        <v>2451.58585374485</v>
       </c>
       <c r="P48">
-        <v>76.7644705314771</v>
+        <v>85.3316209447319</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>553.960064965187</v>
+        <v>683.197400426592</v>
       </c>
       <c r="C49">
-        <v>5.65317832892316</v>
+        <v>5.11445663856997</v>
       </c>
       <c r="D49">
-        <v>1.78123868379649</v>
+        <v>1.3825387535652</v>
       </c>
       <c r="E49">
-        <v>16.934919763546</v>
+        <v>26.1333630218619</v>
       </c>
       <c r="F49">
-        <v>40.090839530456</v>
+        <v>31.3147738831226</v>
       </c>
       <c r="G49">
-        <v>20.5116646171758</v>
+        <v>13.4049246454681</v>
       </c>
       <c r="H49">
-        <v>9.768834410896019</v>
+        <v>8.139960523232469</v>
       </c>
       <c r="I49">
-        <v>7.2462525513516</v>
+        <v>3.42594505713453</v>
       </c>
       <c r="J49">
-        <v>27.798625218294</v>
+        <v>23.3619122391464</v>
       </c>
       <c r="K49">
-        <v>8.924473257932281</v>
+        <v>1.86053344533551</v>
       </c>
       <c r="L49">
-        <v>3.10140423355266</v>
+        <v>1.93345327998861</v>
       </c>
       <c r="M49">
-        <v>6.19484412785528</v>
+        <v>3.9126385955736</v>
       </c>
       <c r="N49">
-        <v>3.31952025056593</v>
+        <v>5.6740007049074</v>
       </c>
       <c r="O49">
-        <v>767.122498596431</v>
+        <v>681.897739093013</v>
       </c>
       <c r="P49">
-        <v>13.1038671386672</v>
+        <v>8.326798538984161</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>753.6751466003281</v>
+        <v>879.002123419901</v>
       </c>
       <c r="C50">
-        <v>80.7474285768558</v>
+        <v>73.9791365041647</v>
       </c>
       <c r="D50">
-        <v>11.0581901762817</v>
+        <v>7.538926167031</v>
       </c>
       <c r="E50">
-        <v>113.332082476578</v>
+        <v>134.305668898434</v>
       </c>
       <c r="F50">
-        <v>6.48108395577414</v>
+        <v>4.47025151639158</v>
       </c>
       <c r="G50">
-        <v>35.0266294438007</v>
+        <v>35.3522623923333</v>
       </c>
       <c r="H50">
-        <v>42.1379716514137</v>
+        <v>38.3857218682007</v>
       </c>
       <c r="I50">
-        <v>15.1351885620704</v>
+        <v>13.3027251931097</v>
       </c>
       <c r="J50">
-        <v>107.012868177258</v>
+        <v>91.1716773833125</v>
       </c>
       <c r="K50">
-        <v>75.7621414832493</v>
+        <v>47.1518059444386</v>
       </c>
       <c r="L50">
-        <v>83.40942115962361</v>
+        <v>57.4065233488937</v>
       </c>
       <c r="M50">
-        <v>25.337701001711</v>
+        <v>50.6740126287539</v>
       </c>
       <c r="N50">
-        <v>77.3060889044244</v>
+        <v>55.515985280835</v>
       </c>
       <c r="O50">
-        <v>2319.42877176891</v>
+        <v>2227.96402976435</v>
       </c>
       <c r="P50">
-        <v>63.2401656377867</v>
+        <v>82.3524158488589</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>116.366979688478</v>
+        <v>125.962654618622</v>
       </c>
       <c r="C51">
-        <v>2.43731664424202</v>
+        <v>4.95895573719894</v>
       </c>
       <c r="D51">
-        <v>0.144304934361935</v>
+        <v>0.0486126564418019</v>
       </c>
       <c r="E51">
-        <v>2.84578598796112</v>
+        <v>2.51727374701168</v>
       </c>
       <c r="F51">
-        <v>46.6985348328529</v>
+        <v>40.4854892041304</v>
       </c>
       <c r="G51">
-        <v>2.83975194838402</v>
+        <v>2.71475028711291</v>
       </c>
       <c r="H51">
-        <v>0.139233053310391</v>
+        <v>0.00386850565632344</v>
       </c>
       <c r="I51">
-        <v>1.02553846489018</v>
+        <v>1.39525708031912</v>
       </c>
       <c r="J51">
-        <v>2.54674161610866</v>
+        <v>1.31771681609947</v>
       </c>
       <c r="K51">
-        <v>1.15207911855099</v>
+        <v>0.958068226068362</v>
       </c>
       <c r="L51">
-        <v>0.27609434285169</v>
+        <v>0.909693096294466</v>
       </c>
       <c r="M51">
-        <v>0.795975796921374</v>
+        <v>0.567012006503292</v>
       </c>
       <c r="N51">
-        <v>1.30176478841191</v>
+        <v>0.825828803392436</v>
       </c>
       <c r="O51">
-        <v>360.15674886457</v>
+        <v>341.441526896729</v>
       </c>
       <c r="P51">
-        <v>21.6744219196995</v>
+        <v>35.536841607157</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1249.74548094733</v>
+        <v>1311.15639769596</v>
       </c>
       <c r="C2">
-        <v>24.1094181781313</v>
+        <v>24.1962844156257</v>
       </c>
       <c r="D2">
-        <v>23.6208908220618</v>
+        <v>24.1592252480451</v>
       </c>
       <c r="E2">
-        <v>59.1331232363447</v>
+        <v>57.8613278403364</v>
       </c>
       <c r="F2">
-        <v>22.8412450396741</v>
+        <v>22.2598299226895</v>
       </c>
       <c r="G2">
-        <v>18.4681430708935</v>
+        <v>17.5564607591955</v>
       </c>
       <c r="H2">
-        <v>20.7758858223675</v>
+        <v>19.2954456436702</v>
       </c>
       <c r="I2">
-        <v>10.9680611884254</v>
+        <v>10.6888035352573</v>
       </c>
       <c r="J2">
-        <v>86.5720717558564</v>
+        <v>85.6558123898361</v>
       </c>
       <c r="K2">
-        <v>16.2158444816874</v>
+        <v>15.8048451505013</v>
       </c>
       <c r="L2">
-        <v>57.9363482567762</v>
+        <v>57.3092014439028</v>
       </c>
       <c r="M2">
-        <v>39.0991292312881</v>
+        <v>38.3595242139061</v>
       </c>
       <c r="N2">
-        <v>26.5719681567716</v>
+        <v>26.3517347122637</v>
       </c>
       <c r="O2">
-        <v>1498.53237132698</v>
+        <v>1456.30846567178</v>
       </c>
       <c r="P2">
-        <v>18.8192024949631</v>
+        <v>19.1390298978113</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>163.80078367606</v>
+        <v>154.946300907966</v>
       </c>
       <c r="C3">
-        <v>4.25294595788269</v>
+        <v>4.17226793153632</v>
       </c>
       <c r="D3">
-        <v>0.548400253633429</v>
+        <v>0.504852331292184</v>
       </c>
       <c r="E3">
-        <v>1.11199671549637</v>
+        <v>1.02593877423701</v>
       </c>
       <c r="F3">
-        <v>11.0072449784705</v>
+        <v>9.7295404855552</v>
       </c>
       <c r="G3">
-        <v>0.490828209529996</v>
+        <v>0.379007282310306</v>
       </c>
       <c r="H3">
-        <v>0.0393022199615627</v>
+        <v>0.0345823830023958</v>
       </c>
       <c r="I3">
-        <v>1.33830278515021</v>
+        <v>1.15130478928614</v>
       </c>
       <c r="J3">
-        <v>0.207519379733281</v>
+        <v>0.197450418950106</v>
       </c>
       <c r="K3">
-        <v>0.126041375145027</v>
+        <v>0.110095204880493</v>
       </c>
       <c r="L3">
-        <v>8.15180584432666e-005</v>
+        <v>6.78256675343669e-005</v>
       </c>
       <c r="M3">
-        <v>0.664436872174618</v>
+        <v>0.609990263962566</v>
       </c>
       <c r="N3">
-        <v>0.942580583638426</v>
+        <v>0.855248180952971</v>
       </c>
       <c r="O3">
-        <v>388.37951144601</v>
+        <v>350.664401617136</v>
       </c>
       <c r="P3">
-        <v>15.8115327685985</v>
+        <v>14.6851398372036</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1256.67309372237</v>
+        <v>1330.37456160574</v>
       </c>
       <c r="C4">
-        <v>8.962091019851391</v>
+        <v>9.194249269845219</v>
       </c>
       <c r="D4">
-        <v>4.98006817064434</v>
+        <v>4.90930253738462</v>
       </c>
       <c r="E4">
-        <v>18.0897655641268</v>
+        <v>18.3817534071376</v>
       </c>
       <c r="F4">
-        <v>7.69769327004131</v>
+        <v>8.10884453715161</v>
       </c>
       <c r="G4">
-        <v>8.301591147477581</v>
+        <v>8.041705395630521</v>
       </c>
       <c r="H4">
-        <v>11.5635907776304</v>
+        <v>11.6386129418335</v>
       </c>
       <c r="I4">
-        <v>7.04160481146297</v>
+        <v>6.8414010188356</v>
       </c>
       <c r="J4">
-        <v>34.2052715288055</v>
+        <v>34.1272129208166</v>
       </c>
       <c r="K4">
-        <v>3.63861001818006</v>
+        <v>3.57588049598182</v>
       </c>
       <c r="L4">
-        <v>63.2480642096919</v>
+        <v>61.2544981612721</v>
       </c>
       <c r="M4">
-        <v>40.9510130532757</v>
+        <v>40.2271093826872</v>
       </c>
       <c r="N4">
-        <v>29.6415659363124</v>
+        <v>29.7007673600657</v>
       </c>
       <c r="O4">
-        <v>2259.62394235332</v>
+        <v>2229.44103357719</v>
       </c>
       <c r="P4">
-        <v>12.5090734322741</v>
+        <v>12.5629229536214</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>658.353972988753</v>
+        <v>688.455385539603</v>
       </c>
       <c r="C5">
-        <v>43.985355847133</v>
+        <v>43.5527846015344</v>
       </c>
       <c r="D5">
-        <v>11.6780221885655</v>
+        <v>11.3046691135262</v>
       </c>
       <c r="E5">
-        <v>33.0388758696917</v>
+        <v>33.5934145286677</v>
       </c>
       <c r="F5">
-        <v>7.16264545486617</v>
+        <v>7.48591724095564</v>
       </c>
       <c r="G5">
-        <v>5.0550805730583</v>
+        <v>4.99629063584648</v>
       </c>
       <c r="H5">
-        <v>9.38731819410874</v>
+        <v>9.45744893380494</v>
       </c>
       <c r="I5">
-        <v>5.5628111241579</v>
+        <v>5.43199102157002</v>
       </c>
       <c r="J5">
-        <v>35.0352656593993</v>
+        <v>34.7229948728185</v>
       </c>
       <c r="K5">
-        <v>4.46362470262027</v>
+        <v>4.43293979765706</v>
       </c>
       <c r="L5">
-        <v>14.3273982647878</v>
+        <v>13.4374776435477</v>
       </c>
       <c r="M5">
-        <v>17.9467701197835</v>
+        <v>18.105333317288</v>
       </c>
       <c r="N5">
-        <v>20.4031639210413</v>
+        <v>20.463778858729</v>
       </c>
       <c r="O5">
-        <v>1004.80221686696</v>
+        <v>981.563869057382</v>
       </c>
       <c r="P5">
-        <v>53.2120605714357</v>
+        <v>53.8158247558269</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6985.52935567969</v>
+        <v>7349.3454867789</v>
       </c>
       <c r="C6">
-        <v>207.099954456902</v>
+        <v>209.006652018678</v>
       </c>
       <c r="D6">
-        <v>39.8536788814543</v>
+        <v>38.8460034287569</v>
       </c>
       <c r="E6">
-        <v>174.406457804444</v>
+        <v>174.25359758458</v>
       </c>
       <c r="F6">
-        <v>46.7360125760267</v>
+        <v>45.9143642796175</v>
       </c>
       <c r="G6">
-        <v>121.697418994096</v>
+        <v>120.20971255829</v>
       </c>
       <c r="H6">
-        <v>46.4703965082071</v>
+        <v>45.6993531877434</v>
       </c>
       <c r="I6">
-        <v>45.8824887303773</v>
+        <v>44.7563279756644</v>
       </c>
       <c r="J6">
-        <v>181.220613204824</v>
+        <v>178.213169618416</v>
       </c>
       <c r="K6">
-        <v>39.3908360270244</v>
+        <v>38.9136620081163</v>
       </c>
       <c r="L6">
-        <v>438.899036408694</v>
+        <v>431.671351916696</v>
       </c>
       <c r="M6">
-        <v>267.44293194097</v>
+        <v>259.853936972033</v>
       </c>
       <c r="N6">
-        <v>298.353199669146</v>
+        <v>292.307115302513</v>
       </c>
       <c r="O6">
-        <v>13202.3612847505</v>
+        <v>12993.2344870901</v>
       </c>
       <c r="P6">
-        <v>270.084828483131</v>
+        <v>280.66711029627</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>731.900703015413</v>
+        <v>763.535313153627</v>
       </c>
       <c r="C7">
-        <v>37.5732102417238</v>
+        <v>37.0422422494811</v>
       </c>
       <c r="D7">
-        <v>4.40348605424945</v>
+        <v>4.34458209047601</v>
       </c>
       <c r="E7">
-        <v>20.3439038230341</v>
+        <v>20.3952685410433</v>
       </c>
       <c r="F7">
-        <v>13.0019197680409</v>
+        <v>13.4978030535239</v>
       </c>
       <c r="G7">
-        <v>6.98212112152644</v>
+        <v>6.84659910608534</v>
       </c>
       <c r="H7">
-        <v>1.68369295941011</v>
+        <v>1.62037331229982</v>
       </c>
       <c r="I7">
-        <v>8.635370089215799</v>
+        <v>8.64232858961328</v>
       </c>
       <c r="J7">
-        <v>17.7362165903635</v>
+        <v>17.392141242342</v>
       </c>
       <c r="K7">
-        <v>3.99406153018221</v>
+        <v>3.99826722793737</v>
       </c>
       <c r="L7">
-        <v>59.7447163736815</v>
+        <v>58.7110313637827</v>
       </c>
       <c r="M7">
-        <v>16.5322662370466</v>
+        <v>16.2455086363399</v>
       </c>
       <c r="N7">
-        <v>23.69835884786</v>
+        <v>23.4118379101395</v>
       </c>
       <c r="O7">
-        <v>1951.69982758422</v>
+        <v>1935.16303931138</v>
       </c>
       <c r="P7">
-        <v>25.8991148950132</v>
+        <v>28.7713567640198</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>603.743292063988</v>
+        <v>638.948938990723</v>
       </c>
       <c r="C8">
-        <v>13.3100853464828</v>
+        <v>13.2400685040157</v>
       </c>
       <c r="D8">
-        <v>2.23349294228563</v>
+        <v>2.21462530585533</v>
       </c>
       <c r="E8">
-        <v>23.4307547709496</v>
+        <v>23.2614093508334</v>
       </c>
       <c r="F8">
-        <v>1.73792982107583</v>
+        <v>1.67576129098294</v>
       </c>
       <c r="G8">
-        <v>23.9997291535786</v>
+        <v>22.767786893832</v>
       </c>
       <c r="H8">
-        <v>8.186016239366611</v>
+        <v>7.92389012305157</v>
       </c>
       <c r="I8">
-        <v>8.21942658487462</v>
+        <v>7.94071816282465</v>
       </c>
       <c r="J8">
-        <v>42.3150335360414</v>
+        <v>41.4424802077866</v>
       </c>
       <c r="K8">
-        <v>10.4697049340681</v>
+        <v>10.1130849980132</v>
       </c>
       <c r="L8">
-        <v>45.0247717358151</v>
+        <v>43.5327726128378</v>
       </c>
       <c r="M8">
-        <v>53.5232831030548</v>
+        <v>51.104767397462</v>
       </c>
       <c r="N8">
-        <v>28.9522197776326</v>
+        <v>28.0409347629399</v>
       </c>
       <c r="O8">
-        <v>1457.00930118496</v>
+        <v>1430.96276497214</v>
       </c>
       <c r="P8">
-        <v>7.1514807032144</v>
+        <v>7.24586239550829</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>215.925746025198</v>
+        <v>213.639511120887</v>
       </c>
       <c r="C9">
-        <v>10.0905370820084</v>
+        <v>9.636873445402861</v>
       </c>
       <c r="D9">
-        <v>2.13338003374881</v>
+        <v>1.97781264394827</v>
       </c>
       <c r="E9">
-        <v>5.15832273936218</v>
+        <v>4.84156135582</v>
       </c>
       <c r="F9">
-        <v>0.574095533716359</v>
+        <v>0.524328200787865</v>
       </c>
       <c r="G9">
-        <v>25.9030489451397</v>
+        <v>23.6306399350078</v>
       </c>
       <c r="H9">
-        <v>3.04970196627093</v>
+        <v>2.78705355246789</v>
       </c>
       <c r="I9">
-        <v>1.69971744962111</v>
+        <v>1.56946631141211</v>
       </c>
       <c r="J9">
-        <v>5.728334707004</v>
+        <v>5.28395858492412</v>
       </c>
       <c r="K9">
-        <v>0.675392700042351</v>
+        <v>0.62043183611665</v>
       </c>
       <c r="L9">
-        <v>3.7242823573369</v>
+        <v>3.49284113516253</v>
       </c>
       <c r="M9">
-        <v>7.40339683855595</v>
+        <v>7.03381379544452</v>
       </c>
       <c r="N9">
-        <v>4.31120881087278</v>
+        <v>3.94814736345725</v>
       </c>
       <c r="O9">
-        <v>454.729116718247</v>
+        <v>422.362882032586</v>
       </c>
       <c r="P9">
-        <v>7.07853870254513</v>
+        <v>6.70735299271962</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3787.00184660872</v>
+        <v>4032.21237134214</v>
       </c>
       <c r="C10">
-        <v>72.3553650094655</v>
+        <v>71.68769017155191</v>
       </c>
       <c r="D10">
-        <v>9.739726449333841</v>
+        <v>9.67647049770871</v>
       </c>
       <c r="E10">
-        <v>55.2497365342278</v>
+        <v>54.8078654325442</v>
       </c>
       <c r="F10">
-        <v>9.22484364294921</v>
+        <v>8.934521808715671</v>
       </c>
       <c r="G10">
-        <v>42.3589076183674</v>
+        <v>41.4673363951802</v>
       </c>
       <c r="H10">
-        <v>19.1393525424034</v>
+        <v>18.6579020207827</v>
       </c>
       <c r="I10">
-        <v>27.3527978091976</v>
+        <v>26.2358543487211</v>
       </c>
       <c r="J10">
-        <v>61.4946256710786</v>
+        <v>60.4091805050583</v>
       </c>
       <c r="K10">
-        <v>6.42116825378917</v>
+        <v>6.15655323333324</v>
       </c>
       <c r="L10">
-        <v>67.9314606982234</v>
+        <v>65.58634649558761</v>
       </c>
       <c r="M10">
-        <v>79.2505302813174</v>
+        <v>77.1186838108741</v>
       </c>
       <c r="N10">
-        <v>95.3493310661633</v>
+        <v>93.7865556655656</v>
       </c>
       <c r="O10">
-        <v>7812.07975254705</v>
+        <v>7662.9004394244</v>
       </c>
       <c r="P10">
-        <v>67.7961004991862</v>
+        <v>67.5292401961147</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1816.51220788566</v>
+        <v>1888.25755340113</v>
       </c>
       <c r="C11">
-        <v>67.5450126459406</v>
+        <v>67.656759084364</v>
       </c>
       <c r="D11">
-        <v>155.68770288727</v>
+        <v>152.807797016954</v>
       </c>
       <c r="E11">
-        <v>83.27071659943179</v>
+        <v>83.2800706531778</v>
       </c>
       <c r="F11">
-        <v>11.1936295326864</v>
+        <v>11.0492687658521</v>
       </c>
       <c r="G11">
-        <v>23.0698952826102</v>
+        <v>23.1513780353386</v>
       </c>
       <c r="H11">
-        <v>22.4816995473677</v>
+        <v>22.4116916297041</v>
       </c>
       <c r="I11">
-        <v>10.2106750267177</v>
+        <v>10.0212540068996</v>
       </c>
       <c r="J11">
-        <v>39.7484800666879</v>
+        <v>39.6565404582801</v>
       </c>
       <c r="K11">
-        <v>6.20442404329452</v>
+        <v>6.04734185803202</v>
       </c>
       <c r="L11">
-        <v>50.2946402921051</v>
+        <v>49.4366228360492</v>
       </c>
       <c r="M11">
-        <v>48.8350157968949</v>
+        <v>48.5423649714867</v>
       </c>
       <c r="N11">
-        <v>66.8381079247205</v>
+        <v>66.1254544040803</v>
       </c>
       <c r="O11">
-        <v>3310.05684237063</v>
+        <v>3258.44762202016</v>
       </c>
       <c r="P11">
-        <v>52.7373831118058</v>
+        <v>54.4314931535757</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>278.636566479815</v>
+        <v>282.677918650907</v>
       </c>
       <c r="C12">
-        <v>7.24786208453128</v>
+        <v>6.56947839937082</v>
       </c>
       <c r="D12">
-        <v>0.2633748121187</v>
+        <v>0.240078647237149</v>
       </c>
       <c r="E12">
-        <v>4.2969453048713</v>
+        <v>3.94186389722099</v>
       </c>
       <c r="F12">
-        <v>1.16166295243428</v>
+        <v>1.04621670878651</v>
       </c>
       <c r="G12">
-        <v>0.88247546916257</v>
+        <v>0.828229382360183</v>
       </c>
       <c r="H12">
-        <v>0.106923529696303</v>
+        <v>0.09908182892208441</v>
       </c>
       <c r="I12">
-        <v>0.880286412072319</v>
+        <v>0.811980579723953</v>
       </c>
       <c r="J12">
-        <v>1.38316384418773</v>
+        <v>1.21202696480014</v>
       </c>
       <c r="K12">
-        <v>0.00159048250090244</v>
+        <v>0.00130333076453873</v>
       </c>
       <c r="L12">
-        <v>0.0282434311150548</v>
+        <v>0.0257698169236091</v>
       </c>
       <c r="M12">
-        <v>3.40775396359007</v>
+        <v>3.13733216903686</v>
       </c>
       <c r="N12">
-        <v>3.31704622675086</v>
+        <v>3.08594811838976</v>
       </c>
       <c r="O12">
-        <v>698.261217067224</v>
+        <v>650.88728602288</v>
       </c>
       <c r="P12">
-        <v>24.8482799252274</v>
+        <v>23.6404310577556</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>255.534279479947</v>
+        <v>263.284378442937</v>
       </c>
       <c r="C13">
-        <v>18.3211476548137</v>
+        <v>17.9426650079529</v>
       </c>
       <c r="D13">
-        <v>0.53654803781382</v>
+        <v>0.515827502079534</v>
       </c>
       <c r="E13">
-        <v>13.5180549919053</v>
+        <v>13.1873806022924</v>
       </c>
       <c r="F13">
-        <v>3.03405138271339</v>
+        <v>2.89715463176843</v>
       </c>
       <c r="G13">
-        <v>6.42584352023285</v>
+        <v>6.11909972469009</v>
       </c>
       <c r="H13">
-        <v>2.55353719455927</v>
+        <v>2.33177160304266</v>
       </c>
       <c r="I13">
-        <v>2.12431343611492</v>
+        <v>2.01366862791967</v>
       </c>
       <c r="J13">
-        <v>6.14643091048442</v>
+        <v>5.97681473450201</v>
       </c>
       <c r="K13">
-        <v>4.49849332231709</v>
+        <v>4.05744094762484</v>
       </c>
       <c r="L13">
-        <v>16.6956189347201</v>
+        <v>15.7075218503538</v>
       </c>
       <c r="M13">
-        <v>1.03420179702545</v>
+        <v>1.01447700673383</v>
       </c>
       <c r="N13">
-        <v>4.83466083499952</v>
+        <v>4.61033970887962</v>
       </c>
       <c r="O13">
-        <v>627.999815314961</v>
+        <v>604.727087749875</v>
       </c>
       <c r="P13">
-        <v>50.423081979224</v>
+        <v>48.9369987478124</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2363.51283594057</v>
+        <v>2485.98692604872</v>
       </c>
       <c r="C14">
-        <v>110.471383974148</v>
+        <v>109.419286200688</v>
       </c>
       <c r="D14">
-        <v>6.85025710360676</v>
+        <v>6.9488471580025</v>
       </c>
       <c r="E14">
-        <v>95.49733933465291</v>
+        <v>96.64833249983511</v>
       </c>
       <c r="F14">
-        <v>22.7903711621544</v>
+        <v>22.5568063363225</v>
       </c>
       <c r="G14">
-        <v>78.10762593561761</v>
+        <v>75.2076815261495</v>
       </c>
       <c r="H14">
-        <v>39.3203541632397</v>
+        <v>38.5335875043468</v>
       </c>
       <c r="I14">
-        <v>21.3583494628058</v>
+        <v>20.8577440501795</v>
       </c>
       <c r="J14">
-        <v>132.398766548616</v>
+        <v>131.670794523846</v>
       </c>
       <c r="K14">
-        <v>94.41801146772281</v>
+        <v>93.38956097848551</v>
       </c>
       <c r="L14">
-        <v>107.915359073726</v>
+        <v>106.634842202333</v>
       </c>
       <c r="M14">
-        <v>85.355788233507</v>
+        <v>84.9719357205155</v>
       </c>
       <c r="N14">
-        <v>70.48092257410239</v>
+        <v>70.05080952384731</v>
       </c>
       <c r="O14">
-        <v>5088.47059835442</v>
+        <v>4993.83515562293</v>
       </c>
       <c r="P14">
-        <v>49.3202371196619</v>
+        <v>54.9621246769276</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1212.87252998595</v>
+        <v>1260.9961280581</v>
       </c>
       <c r="C15">
-        <v>52.370467617467</v>
+        <v>52.2607427577869</v>
       </c>
       <c r="D15">
-        <v>5.89827974797571</v>
+        <v>5.88499413830023</v>
       </c>
       <c r="E15">
-        <v>81.395566330549</v>
+        <v>80.130857066369</v>
       </c>
       <c r="F15">
-        <v>21.5962239342653</v>
+        <v>21.5867805034509</v>
       </c>
       <c r="G15">
-        <v>55.2191211821467</v>
+        <v>54.6476917855697</v>
       </c>
       <c r="H15">
-        <v>35.8528176862978</v>
+        <v>35.0735871844594</v>
       </c>
       <c r="I15">
-        <v>24.0085764160315</v>
+        <v>23.6481586786598</v>
       </c>
       <c r="J15">
-        <v>167.862381699156</v>
+        <v>164.45081736123</v>
       </c>
       <c r="K15">
-        <v>26.178172280608</v>
+        <v>25.902060599835</v>
       </c>
       <c r="L15">
-        <v>40.7567053090673</v>
+        <v>40.3664890727486</v>
       </c>
       <c r="M15">
-        <v>169.563039675466</v>
+        <v>171.708784412733</v>
       </c>
       <c r="N15">
-        <v>88.527648513616</v>
+        <v>85.4317835451394</v>
       </c>
       <c r="O15">
-        <v>2243.90770799162</v>
+        <v>2202.66805648981</v>
       </c>
       <c r="P15">
-        <v>42.9613671979411</v>
+        <v>42.3515121507176</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>456.357647748088</v>
+        <v>481.829186489405</v>
       </c>
       <c r="C16">
-        <v>66.24111069665941</v>
+        <v>63.9418624530762</v>
       </c>
       <c r="D16">
-        <v>6.76248523561065</v>
+        <v>6.20656234665097</v>
       </c>
       <c r="E16">
-        <v>25.523174692358</v>
+        <v>25.142336395031</v>
       </c>
       <c r="F16">
-        <v>2.93267814869347</v>
+        <v>2.68309962767442</v>
       </c>
       <c r="G16">
-        <v>19.5915844639385</v>
+        <v>19.4681208817955</v>
       </c>
       <c r="H16">
-        <v>17.6631730606984</v>
+        <v>17.8495009175797</v>
       </c>
       <c r="I16">
-        <v>7.21410979854253</v>
+        <v>7.25841520625798</v>
       </c>
       <c r="J16">
-        <v>52.6504566805648</v>
+        <v>51.6023932206702</v>
       </c>
       <c r="K16">
-        <v>43.8009987845008</v>
+        <v>42.3740102784737</v>
       </c>
       <c r="L16">
-        <v>23.2407604497631</v>
+        <v>23.989674443412</v>
       </c>
       <c r="M16">
-        <v>21.915938813529</v>
+        <v>22.5099350661913</v>
       </c>
       <c r="N16">
-        <v>31.7045935407092</v>
+        <v>30.1128777183478</v>
       </c>
       <c r="O16">
-        <v>1315.97033080631</v>
+        <v>1265.20150344559</v>
       </c>
       <c r="P16">
-        <v>86.64710457505829</v>
+        <v>82.5172426484546</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>489.714560076034</v>
+        <v>510.416491388503</v>
       </c>
       <c r="C17">
-        <v>21.8614302755463</v>
+        <v>21.9033166751316</v>
       </c>
       <c r="D17">
-        <v>4.69512684938498</v>
+        <v>4.54743978777532</v>
       </c>
       <c r="E17">
-        <v>30.4577385371942</v>
+        <v>29.6637307046526</v>
       </c>
       <c r="F17">
-        <v>10.7672351863437</v>
+        <v>11.9646437393175</v>
       </c>
       <c r="G17">
-        <v>7.77224643816579</v>
+        <v>7.90593028426026</v>
       </c>
       <c r="H17">
-        <v>10.7536628329103</v>
+        <v>11.0776706207025</v>
       </c>
       <c r="I17">
-        <v>9.57559785299382</v>
+        <v>8.94187521986459</v>
       </c>
       <c r="J17">
-        <v>22.9248764517132</v>
+        <v>22.5834309291208</v>
       </c>
       <c r="K17">
-        <v>8.912316863493061</v>
+        <v>8.67863860233375</v>
       </c>
       <c r="L17">
-        <v>12.6259335144137</v>
+        <v>12.0033662765084</v>
       </c>
       <c r="M17">
-        <v>64.5940519724189</v>
+        <v>62.4539949733448</v>
       </c>
       <c r="N17">
-        <v>13.0726276367213</v>
+        <v>12.7694407051705</v>
       </c>
       <c r="O17">
-        <v>1173.02931168115</v>
+        <v>1124.30709145135</v>
       </c>
       <c r="P17">
-        <v>48.8007689946941</v>
+        <v>50.0669056750836</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1115.43708061992</v>
+        <v>1146.24349084341</v>
       </c>
       <c r="C18">
-        <v>30.7354782648741</v>
+        <v>29.742632674612</v>
       </c>
       <c r="D18">
-        <v>4.1680092900385</v>
+        <v>4.20834159919018</v>
       </c>
       <c r="E18">
-        <v>32.3304376216121</v>
+        <v>32.3525670313815</v>
       </c>
       <c r="F18">
-        <v>36.9163930320299</v>
+        <v>35.2315606822733</v>
       </c>
       <c r="G18">
-        <v>19.4888041751715</v>
+        <v>18.2375137666216</v>
       </c>
       <c r="H18">
-        <v>15.5548826943201</v>
+        <v>15.567069493533</v>
       </c>
       <c r="I18">
-        <v>2.71750849986854</v>
+        <v>2.65643255352068</v>
       </c>
       <c r="J18">
-        <v>33.5940226873839</v>
+        <v>33.1013288683716</v>
       </c>
       <c r="K18">
-        <v>8.44157210533225</v>
+        <v>8.243800026728311</v>
       </c>
       <c r="L18">
-        <v>31.5605114069667</v>
+        <v>30.9971604258766</v>
       </c>
       <c r="M18">
-        <v>69.15810470512029</v>
+        <v>69.50159757306901</v>
       </c>
       <c r="N18">
-        <v>24.5709265026719</v>
+        <v>24.2728011098728</v>
       </c>
       <c r="O18">
-        <v>1614.1781124359</v>
+        <v>1551.06571805785</v>
       </c>
       <c r="P18">
-        <v>64.3194508267276</v>
+        <v>63.6077189499865</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1077.57454104445</v>
+        <v>1109.97037947783</v>
       </c>
       <c r="C19">
-        <v>34.1130055578412</v>
+        <v>33.6237168987241</v>
       </c>
       <c r="D19">
-        <v>4.29769990531749</v>
+        <v>4.26351467202835</v>
       </c>
       <c r="E19">
-        <v>44.7053421416299</v>
+        <v>45.3851607273068</v>
       </c>
       <c r="F19">
-        <v>82.9258737290638</v>
+        <v>80.2953679885715</v>
       </c>
       <c r="G19">
-        <v>50.2521418772258</v>
+        <v>49.5777717385489</v>
       </c>
       <c r="H19">
-        <v>12.2560962458856</v>
+        <v>12.1928883317178</v>
       </c>
       <c r="I19">
-        <v>4.44719127034922</v>
+        <v>4.44118265990125</v>
       </c>
       <c r="J19">
-        <v>20.4432845080728</v>
+        <v>19.9145832409524</v>
       </c>
       <c r="K19">
-        <v>6.69730575519232</v>
+        <v>6.50584925300031</v>
       </c>
       <c r="L19">
-        <v>1.69803739688037</v>
+        <v>1.65016958687708</v>
       </c>
       <c r="M19">
-        <v>36.2597058065361</v>
+        <v>36.2026021580698</v>
       </c>
       <c r="N19">
-        <v>11.0782364132714</v>
+        <v>11.003833441512</v>
       </c>
       <c r="O19">
-        <v>1640.91186913847</v>
+        <v>1595.97147617816</v>
       </c>
       <c r="P19">
-        <v>43.3339292352186</v>
+        <v>43.4787146923165</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>273.011398064817</v>
+        <v>284.19606151358</v>
       </c>
       <c r="C20">
-        <v>11.4440434355168</v>
+        <v>11.0611219613983</v>
       </c>
       <c r="D20">
-        <v>6.42708858317589</v>
+        <v>6.42932655167144</v>
       </c>
       <c r="E20">
-        <v>34.1296657020679</v>
+        <v>33.8769042805407</v>
       </c>
       <c r="F20">
-        <v>1.38602712912849</v>
+        <v>1.36175500929865</v>
       </c>
       <c r="G20">
-        <v>3.47116943537279</v>
+        <v>3.30741836716809</v>
       </c>
       <c r="H20">
-        <v>0.592706698612547</v>
+        <v>0.567234380310274</v>
       </c>
       <c r="I20">
-        <v>2.09103014080564</v>
+        <v>2.05222259309689</v>
       </c>
       <c r="J20">
-        <v>5.3572596799136</v>
+        <v>5.26429562929944</v>
       </c>
       <c r="K20">
-        <v>0.615887133808647</v>
+        <v>0.581625713299055</v>
       </c>
       <c r="L20">
-        <v>7.68011982880689</v>
+        <v>7.63735984564111</v>
       </c>
       <c r="M20">
-        <v>20.7328327370884</v>
+        <v>19.6512755961218</v>
       </c>
       <c r="N20">
-        <v>6.76233157187164</v>
+        <v>6.59017511671463</v>
       </c>
       <c r="O20">
-        <v>612.065670664869</v>
+        <v>585.398082395663</v>
       </c>
       <c r="P20">
-        <v>21.4829898536785</v>
+        <v>21.3688080162185</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1001.4929074274</v>
+        <v>1044.92244205559</v>
       </c>
       <c r="C21">
-        <v>18.3222743012004</v>
+        <v>18.3384746626322</v>
       </c>
       <c r="D21">
-        <v>1.81831694239157</v>
+        <v>1.80316601928618</v>
       </c>
       <c r="E21">
-        <v>22.0028615584798</v>
+        <v>21.6844152500023</v>
       </c>
       <c r="F21">
-        <v>1.96852229992268</v>
+        <v>1.90718184567814</v>
       </c>
       <c r="G21">
-        <v>13.4358947267344</v>
+        <v>13.1359245415465</v>
       </c>
       <c r="H21">
-        <v>6.98778231437523</v>
+        <v>6.72774688316531</v>
       </c>
       <c r="I21">
-        <v>18.0815477747958</v>
+        <v>18.173993698527</v>
       </c>
       <c r="J21">
-        <v>15.8946534968177</v>
+        <v>15.7249398629737</v>
       </c>
       <c r="K21">
-        <v>1.32724263357742</v>
+        <v>1.29660401088665</v>
       </c>
       <c r="L21">
-        <v>28.2173204162148</v>
+        <v>27.7645713612737</v>
       </c>
       <c r="M21">
-        <v>17.9055192932125</v>
+        <v>17.2931621433592</v>
       </c>
       <c r="N21">
-        <v>14.5133537626717</v>
+        <v>14.4589397486784</v>
       </c>
       <c r="O21">
-        <v>2424.32738269194</v>
+        <v>2391.33095627974</v>
       </c>
       <c r="P21">
-        <v>18.6482765557394</v>
+        <v>18.646379143307</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1124.83330763439</v>
+        <v>1180.87462325201</v>
       </c>
       <c r="C22">
-        <v>21.376532068618</v>
+        <v>21.3856992893865</v>
       </c>
       <c r="D22">
-        <v>13.401701894791</v>
+        <v>13.5175088065558</v>
       </c>
       <c r="E22">
-        <v>46.8015681739696</v>
+        <v>47.4154114425503</v>
       </c>
       <c r="F22">
-        <v>3.48945569937495</v>
+        <v>3.5346698267618</v>
       </c>
       <c r="G22">
-        <v>30.6274931607965</v>
+        <v>29.7703764210553</v>
       </c>
       <c r="H22">
-        <v>17.3020811123295</v>
+        <v>16.7002014319352</v>
       </c>
       <c r="I22">
-        <v>13.1524231022732</v>
+        <v>13.1189066657118</v>
       </c>
       <c r="J22">
-        <v>41.3035708694234</v>
+        <v>40.0546469981395</v>
       </c>
       <c r="K22">
-        <v>3.42091299662</v>
+        <v>3.3781390386195</v>
       </c>
       <c r="L22">
-        <v>108.540005544578</v>
+        <v>105.664821540962</v>
       </c>
       <c r="M22">
-        <v>17.6866024178746</v>
+        <v>16.9141393822515</v>
       </c>
       <c r="N22">
-        <v>64.6549248959183</v>
+        <v>63.1478278090225</v>
       </c>
       <c r="O22">
-        <v>2736.17873704498</v>
+        <v>2699.36133321596</v>
       </c>
       <c r="P22">
-        <v>11.6160827215615</v>
+        <v>11.5955995726073</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2230.03476455903</v>
+        <v>2334.91863584897</v>
       </c>
       <c r="C23">
-        <v>26.272388222107</v>
+        <v>26.0435482064802</v>
       </c>
       <c r="D23">
-        <v>6.61003855487072</v>
+        <v>6.4298091701129</v>
       </c>
       <c r="E23">
-        <v>55.3775828371181</v>
+        <v>55.1058387953556</v>
       </c>
       <c r="F23">
-        <v>5.37190972880231</v>
+        <v>5.25775479986173</v>
       </c>
       <c r="G23">
-        <v>56.5310213799845</v>
+        <v>54.6007405790338</v>
       </c>
       <c r="H23">
-        <v>54.7346313645786</v>
+        <v>53.2574731087798</v>
       </c>
       <c r="I23">
-        <v>18.9373590530875</v>
+        <v>18.4121462927252</v>
       </c>
       <c r="J23">
-        <v>126.685451034861</v>
+        <v>123.613443203367</v>
       </c>
       <c r="K23">
-        <v>59.9943681438746</v>
+        <v>57.1902574468381</v>
       </c>
       <c r="L23">
-        <v>31.0766269877386</v>
+        <v>29.7204322497556</v>
       </c>
       <c r="M23">
-        <v>559.377275168152</v>
+        <v>539.502252917633</v>
       </c>
       <c r="N23">
-        <v>92.4504284318147</v>
+        <v>89.6048677620639</v>
       </c>
       <c r="O23">
-        <v>3531.01782573998</v>
+        <v>3447.66221256381</v>
       </c>
       <c r="P23">
-        <v>48.8347149662777</v>
+        <v>51.2687868095926</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>742.03954333764</v>
+        <v>784.295438054468</v>
       </c>
       <c r="C24">
-        <v>44.3514087347275</v>
+        <v>45.9287393910182</v>
       </c>
       <c r="D24">
-        <v>5.64536730220504</v>
+        <v>5.48833303243049</v>
       </c>
       <c r="E24">
-        <v>52.3392315176461</v>
+        <v>52.4410743554328</v>
       </c>
       <c r="F24">
-        <v>12.170581904181</v>
+        <v>12.3347117955401</v>
       </c>
       <c r="G24">
-        <v>27.3706558542097</v>
+        <v>27.13130208221</v>
       </c>
       <c r="H24">
-        <v>16.0078899533249</v>
+        <v>16.0707858071916</v>
       </c>
       <c r="I24">
-        <v>17.6850301151659</v>
+        <v>17.7018559610637</v>
       </c>
       <c r="J24">
-        <v>61.2356696782014</v>
+        <v>61.3996715603675</v>
       </c>
       <c r="K24">
-        <v>18.9364506594267</v>
+        <v>18.5558512758727</v>
       </c>
       <c r="L24">
-        <v>64.45634600264491</v>
+        <v>64.64615152784761</v>
       </c>
       <c r="M24">
-        <v>25.9483206365947</v>
+        <v>26.3342573246325</v>
       </c>
       <c r="N24">
-        <v>77.3841361775729</v>
+        <v>76.3277188720448</v>
       </c>
       <c r="O24">
-        <v>2091.88350462395</v>
+        <v>2056.24719231906</v>
       </c>
       <c r="P24">
-        <v>94.17887580866641</v>
+        <v>96.7567896873599</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>783.824851455999</v>
+        <v>812.696844928216</v>
       </c>
       <c r="C25">
-        <v>50.3479685583292</v>
+        <v>46.5712334599273</v>
       </c>
       <c r="D25">
-        <v>11.7577850259019</v>
+        <v>11.5053982805694</v>
       </c>
       <c r="E25">
-        <v>49.7352040002733</v>
+        <v>46.7706785472089</v>
       </c>
       <c r="F25">
-        <v>16.8418108323566</v>
+        <v>15.2834821092138</v>
       </c>
       <c r="G25">
-        <v>15.1860105985303</v>
+        <v>14.4055889893317</v>
       </c>
       <c r="H25">
-        <v>6.60933813577797</v>
+        <v>6.38716131860651</v>
       </c>
       <c r="I25">
-        <v>5.01960863380306</v>
+        <v>4.83991619880033</v>
       </c>
       <c r="J25">
-        <v>9.272333546008969</v>
+        <v>8.96661729020618</v>
       </c>
       <c r="K25">
-        <v>6.86008120477301</v>
+        <v>6.51475184100862</v>
       </c>
       <c r="L25">
-        <v>10.8769831239432</v>
+        <v>10.7636352042357</v>
       </c>
       <c r="M25">
-        <v>40.233009220257</v>
+        <v>39.2767614673677</v>
       </c>
       <c r="N25">
-        <v>38.9895202254784</v>
+        <v>39.7097260966481</v>
       </c>
       <c r="O25">
-        <v>1033.16888259921</v>
+        <v>982.73092215215</v>
       </c>
       <c r="P25">
-        <v>43.5864099512724</v>
+        <v>42.6564786368046</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1046.59841338762</v>
+        <v>1121.18829250573</v>
       </c>
       <c r="C26">
-        <v>53.9948921428167</v>
+        <v>53.3508763642534</v>
       </c>
       <c r="D26">
-        <v>3.81376166057771</v>
+        <v>3.79572260669482</v>
       </c>
       <c r="E26">
-        <v>48.0759875223086</v>
+        <v>49.9900723448403</v>
       </c>
       <c r="F26">
-        <v>7.44491650962924</v>
+        <v>7.83874001084895</v>
       </c>
       <c r="G26">
-        <v>43.9411505417982</v>
+        <v>42.1143211658077</v>
       </c>
       <c r="H26">
-        <v>10.1133165177077</v>
+        <v>10.158110617354</v>
       </c>
       <c r="I26">
-        <v>11.6276448434427</v>
+        <v>11.0977914038938</v>
       </c>
       <c r="J26">
-        <v>28.2000023249666</v>
+        <v>27.6327693022325</v>
       </c>
       <c r="K26">
-        <v>7.78318123811017</v>
+        <v>7.60874569930112</v>
       </c>
       <c r="L26">
-        <v>25.4767850481098</v>
+        <v>26.2065674168263</v>
       </c>
       <c r="M26">
-        <v>72.118734513283</v>
+        <v>72.895805575561</v>
       </c>
       <c r="N26">
-        <v>26.5295058680363</v>
+        <v>26.4880587513099</v>
       </c>
       <c r="O26">
-        <v>2408.80922269512</v>
+        <v>2341.94474658973</v>
       </c>
       <c r="P26">
-        <v>57.440261120019</v>
+        <v>60.8061364918578</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>218.515607473354</v>
+        <v>222.069910060527</v>
       </c>
       <c r="C27">
-        <v>1.64207587337303</v>
+        <v>1.54891517090009</v>
       </c>
       <c r="D27">
-        <v>2.74082276491636</v>
+        <v>2.62908543321727</v>
       </c>
       <c r="E27">
-        <v>14.5629364499422</v>
+        <v>13.6408487719718</v>
       </c>
       <c r="F27">
-        <v>7.90466231763595</v>
+        <v>7.50386487846839</v>
       </c>
       <c r="G27">
-        <v>0.478605513740374</v>
+        <v>0.440212132005599</v>
       </c>
       <c r="H27">
-        <v>0.34833871221452</v>
+        <v>0.3232317556056</v>
       </c>
       <c r="I27">
-        <v>3.16477696384115</v>
+        <v>2.82055983034367</v>
       </c>
       <c r="J27">
-        <v>3.27996053939804</v>
+        <v>3.10590599242979</v>
       </c>
       <c r="K27">
-        <v>1.23371772009753</v>
+        <v>1.17751686579832</v>
       </c>
       <c r="L27">
-        <v>3.71271488848446</v>
+        <v>3.5389295626672</v>
       </c>
       <c r="M27">
-        <v>0.993750720952867</v>
+        <v>0.943256193508316</v>
       </c>
       <c r="N27">
-        <v>4.15049627503863</v>
+        <v>3.89098268775632</v>
       </c>
       <c r="O27">
-        <v>468.520829612793</v>
+        <v>439.504062489593</v>
       </c>
       <c r="P27">
-        <v>53.99256950082</v>
+        <v>52.5964827503888</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>249.897838601278</v>
+        <v>262.777972657175</v>
       </c>
       <c r="C28">
-        <v>39.5757005814822</v>
+        <v>38.6608674688657</v>
       </c>
       <c r="D28">
-        <v>2.05177858382702</v>
+        <v>1.81504149911434</v>
       </c>
       <c r="E28">
-        <v>9.982877381829301</v>
+        <v>9.81977881270563</v>
       </c>
       <c r="F28">
-        <v>0.655267739994384</v>
+        <v>0.639144754643346</v>
       </c>
       <c r="G28">
-        <v>5.12105540126771</v>
+        <v>4.80396662385899</v>
       </c>
       <c r="H28">
-        <v>7.41931880142879</v>
+        <v>7.22060153265194</v>
       </c>
       <c r="I28">
-        <v>3.72719900375045</v>
+        <v>3.54399764205585</v>
       </c>
       <c r="J28">
-        <v>20.6413460139856</v>
+        <v>20.0843102966641</v>
       </c>
       <c r="K28">
-        <v>11.6323123914942</v>
+        <v>11.2971424817934</v>
       </c>
       <c r="L28">
-        <v>11.5788533480343</v>
+        <v>10.7453420517256</v>
       </c>
       <c r="M28">
-        <v>10.9444310491338</v>
+        <v>11.1910847298962</v>
       </c>
       <c r="N28">
-        <v>11.541593454446</v>
+        <v>10.9712500671248</v>
       </c>
       <c r="O28">
-        <v>826.96542421968</v>
+        <v>788.383753287198</v>
       </c>
       <c r="P28">
-        <v>78.0933790841525</v>
+        <v>76.3226770300212</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>434.367043185477</v>
+        <v>451.675309854195</v>
       </c>
       <c r="C29">
-        <v>3.3404401463889</v>
+        <v>3.31973704093707</v>
       </c>
       <c r="D29">
-        <v>1.32041229922442</v>
+        <v>1.34423491753328</v>
       </c>
       <c r="E29">
-        <v>5.20116964394293</v>
+        <v>5.10620098689134</v>
       </c>
       <c r="F29">
-        <v>26.9646748622883</v>
+        <v>26.576436296894</v>
       </c>
       <c r="G29">
-        <v>6.45630159610477</v>
+        <v>6.22169210413653</v>
       </c>
       <c r="H29">
-        <v>1.3821221128382</v>
+        <v>1.34239730710474</v>
       </c>
       <c r="I29">
-        <v>1.7574281679882</v>
+        <v>1.68846716749299</v>
       </c>
       <c r="J29">
-        <v>5.61374792378559</v>
+        <v>5.58361283334312</v>
       </c>
       <c r="K29">
-        <v>1.00650916404702</v>
+        <v>0.991713135855694</v>
       </c>
       <c r="L29">
-        <v>4.73277371151128</v>
+        <v>4.64226985027472</v>
       </c>
       <c r="M29">
-        <v>3.94681635108012</v>
+        <v>3.83788838706506</v>
       </c>
       <c r="N29">
-        <v>11.8382722870276</v>
+        <v>11.4252030575251</v>
       </c>
       <c r="O29">
-        <v>1139.93828256091</v>
+        <v>1100.1322084886</v>
       </c>
       <c r="P29">
-        <v>4.05498199360091</v>
+        <v>4.1753634707702</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>218.350945578684</v>
+        <v>223.306842274434</v>
       </c>
       <c r="C30">
-        <v>3.70917187381122</v>
+        <v>3.56747230246656</v>
       </c>
       <c r="D30">
-        <v>4.45663335823272</v>
+        <v>4.27019777252057</v>
       </c>
       <c r="E30">
-        <v>14.0788948365533</v>
+        <v>13.6682069254937</v>
       </c>
       <c r="F30">
-        <v>0.0954325761560527</v>
+        <v>0.0912874233141108</v>
       </c>
       <c r="G30">
-        <v>4.74793597407263</v>
+        <v>4.5356458410997</v>
       </c>
       <c r="H30">
-        <v>5.81647718538209</v>
+        <v>5.5640293785726</v>
       </c>
       <c r="I30">
-        <v>2.75262387066739</v>
+        <v>2.60520521359678</v>
       </c>
       <c r="J30">
-        <v>19.4246409652391</v>
+        <v>18.6522917610797</v>
       </c>
       <c r="K30">
-        <v>5.44383190192195</v>
+        <v>5.11314319252146</v>
       </c>
       <c r="L30">
-        <v>50.033218438121</v>
+        <v>47.9553525420364</v>
       </c>
       <c r="M30">
-        <v>10.1053940587799</v>
+        <v>9.595937712814971</v>
       </c>
       <c r="N30">
-        <v>15.4728787229913</v>
+        <v>14.844564989957</v>
       </c>
       <c r="O30">
-        <v>611.9313117622691</v>
+        <v>586.23463000431</v>
       </c>
       <c r="P30">
-        <v>7.74794834525676</v>
+        <v>7.71202897221194</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1528.93269473104</v>
+        <v>1600.69301048692</v>
       </c>
       <c r="C31">
-        <v>63.2666697388187</v>
+        <v>62.4215707056725</v>
       </c>
       <c r="D31">
-        <v>10.9389045924373</v>
+        <v>10.9449317096253</v>
       </c>
       <c r="E31">
-        <v>39.4369932699888</v>
+        <v>40.1319929825853</v>
       </c>
       <c r="F31">
-        <v>4.00992887184193</v>
+        <v>4.29065330903811</v>
       </c>
       <c r="G31">
-        <v>98.0371667130261</v>
+        <v>97.52443451485981</v>
       </c>
       <c r="H31">
-        <v>8.396199510581839</v>
+        <v>8.33835360687452</v>
       </c>
       <c r="I31">
-        <v>15.9880695671851</v>
+        <v>16.0312526512063</v>
       </c>
       <c r="J31">
-        <v>31.261331290097</v>
+        <v>31.3990400737766</v>
       </c>
       <c r="K31">
-        <v>4.79886500656951</v>
+        <v>4.69883743262492</v>
       </c>
       <c r="L31">
-        <v>61.5716279272391</v>
+        <v>60.500978119817</v>
       </c>
       <c r="M31">
-        <v>19.7532369808333</v>
+        <v>19.6837454398837</v>
       </c>
       <c r="N31">
-        <v>73.3443585842379</v>
+        <v>72.635176167339</v>
       </c>
       <c r="O31">
-        <v>3778.07172316068</v>
+        <v>3724.67794922686</v>
       </c>
       <c r="P31">
-        <v>17.4356373716606</v>
+        <v>17.9527405704459</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>447.31718797401</v>
+        <v>464.282514948502</v>
       </c>
       <c r="C32">
-        <v>3.15795951059127</v>
+        <v>3.09882359302196</v>
       </c>
       <c r="D32">
-        <v>0.542030588741913</v>
+        <v>0.513599255070422</v>
       </c>
       <c r="E32">
-        <v>2.83414551868973</v>
+        <v>3.48498896183695</v>
       </c>
       <c r="F32">
-        <v>23.5495975863971</v>
+        <v>22.1192105997734</v>
       </c>
       <c r="G32">
-        <v>1.99231506702239</v>
+        <v>1.98079116545887</v>
       </c>
       <c r="H32">
-        <v>0.745621537625228</v>
+        <v>0.753510501482624</v>
       </c>
       <c r="I32">
-        <v>0.923513042974999</v>
+        <v>0.8956531234483081</v>
       </c>
       <c r="J32">
-        <v>3.41458886022811</v>
+        <v>3.25715218921728</v>
       </c>
       <c r="K32">
-        <v>3.34767375858904</v>
+        <v>3.16927637426526</v>
       </c>
       <c r="L32">
-        <v>9.57091358090169</v>
+        <v>8.928793212667911</v>
       </c>
       <c r="M32">
-        <v>7.64022207051868</v>
+        <v>7.38614050066416</v>
       </c>
       <c r="N32">
-        <v>16.3414808372938</v>
+        <v>16.0559208853092</v>
       </c>
       <c r="O32">
-        <v>806.2289683238261</v>
+        <v>781.087003823424</v>
       </c>
       <c r="P32">
-        <v>20.9072021296796</v>
+        <v>20.5353437420777</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4124.87408920693</v>
+        <v>4315.46896243463</v>
       </c>
       <c r="C33">
-        <v>91.6352499205918</v>
+        <v>91.11005981116671</v>
       </c>
       <c r="D33">
-        <v>22.1041322474409</v>
+        <v>21.5157068809111</v>
       </c>
       <c r="E33">
-        <v>74.5785090820831</v>
+        <v>76.4598485888222</v>
       </c>
       <c r="F33">
-        <v>9.432125657487941</v>
+        <v>9.358952417189039</v>
       </c>
       <c r="G33">
-        <v>71.0030608451445</v>
+        <v>70.20093650127539</v>
       </c>
       <c r="H33">
-        <v>44.5900750001077</v>
+        <v>43.8551678625064</v>
       </c>
       <c r="I33">
-        <v>19.5548810280977</v>
+        <v>19.4892286605739</v>
       </c>
       <c r="J33">
-        <v>89.4111819144043</v>
+        <v>88.8846073328419</v>
       </c>
       <c r="K33">
-        <v>61.8159996383379</v>
+        <v>61.2561757591647</v>
       </c>
       <c r="L33">
-        <v>105.085804203497</v>
+        <v>103.318687655564</v>
       </c>
       <c r="M33">
-        <v>62.5715742861498</v>
+        <v>61.649032311601</v>
       </c>
       <c r="N33">
-        <v>157.837764759531</v>
+        <v>155.731784571619</v>
       </c>
       <c r="O33">
-        <v>7724.38246986706</v>
+        <v>7590.0572025099</v>
       </c>
       <c r="P33">
-        <v>57.9097245511316</v>
+        <v>60.8523731952277</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1781.71444365465</v>
+        <v>1861.26590590857</v>
       </c>
       <c r="C34">
-        <v>69.8085225452146</v>
+        <v>68.07524124294611</v>
       </c>
       <c r="D34">
-        <v>100.245036901775</v>
+        <v>99.69497652670501</v>
       </c>
       <c r="E34">
-        <v>56.0736160765378</v>
+        <v>56.4355194013294</v>
       </c>
       <c r="F34">
-        <v>1.60543341963008</v>
+        <v>1.57177779147209</v>
       </c>
       <c r="G34">
-        <v>48.7507260199451</v>
+        <v>47.2741275173775</v>
       </c>
       <c r="H34">
-        <v>48.8481327907608</v>
+        <v>47.5708525469996</v>
       </c>
       <c r="I34">
-        <v>14.4991871653879</v>
+        <v>14.5117674080249</v>
       </c>
       <c r="J34">
-        <v>45.3011185775299</v>
+        <v>44.4814255046913</v>
       </c>
       <c r="K34">
-        <v>7.77514256982312</v>
+        <v>7.66314265782261</v>
       </c>
       <c r="L34">
-        <v>126.59305948827</v>
+        <v>123.452870690849</v>
       </c>
       <c r="M34">
-        <v>31.0995661007196</v>
+        <v>31.5573889347048</v>
       </c>
       <c r="N34">
-        <v>130.591542393725</v>
+        <v>129.110074674479</v>
       </c>
       <c r="O34">
-        <v>3236.66234363942</v>
+        <v>3173.1983348487</v>
       </c>
       <c r="P34">
-        <v>74.54257325516549</v>
+        <v>74.1988762307768</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>107.100601001071</v>
+        <v>112.576557612665</v>
       </c>
       <c r="C35">
-        <v>8.24221881943471</v>
+        <v>7.91898180462199</v>
       </c>
       <c r="D35">
-        <v>0.277094591056817</v>
+        <v>0.266557863288415</v>
       </c>
       <c r="E35">
-        <v>3.02688083761968</v>
+        <v>2.76919687649777</v>
       </c>
       <c r="F35">
-        <v>4.67711851504369</v>
+        <v>4.47173528342599</v>
       </c>
       <c r="G35">
-        <v>0.617773247632011</v>
+        <v>0.57454914779393</v>
       </c>
       <c r="H35">
-        <v>0.7423373625040151</v>
+        <v>0.685936130611558</v>
       </c>
       <c r="I35">
-        <v>1.1220203403157</v>
+        <v>1.04824176396855</v>
       </c>
       <c r="J35">
-        <v>3.99039097008064</v>
+        <v>3.6862584151674</v>
       </c>
       <c r="K35">
-        <v>6.0826691378798</v>
+        <v>5.72763284544753</v>
       </c>
       <c r="L35">
-        <v>3.31602916186899</v>
+        <v>3.06687297653305</v>
       </c>
       <c r="M35">
-        <v>2.55016946230355</v>
+        <v>2.38551871582696</v>
       </c>
       <c r="N35">
-        <v>5.40647140052297</v>
+        <v>5.06325777802899</v>
       </c>
       <c r="O35">
-        <v>337.271355212799</v>
+        <v>317.455207466122</v>
       </c>
       <c r="P35">
-        <v>53.0858870384686</v>
+        <v>50.3810518120249</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2421.72571408759</v>
+        <v>2533.09861037965</v>
       </c>
       <c r="C36">
-        <v>65.493665553363</v>
+        <v>65.4537078638715</v>
       </c>
       <c r="D36">
-        <v>11.7016480432102</v>
+        <v>11.6839615224041</v>
       </c>
       <c r="E36">
-        <v>146.021349432836</v>
+        <v>147.612107860391</v>
       </c>
       <c r="F36">
-        <v>31.7574494517841</v>
+        <v>29.7948474732974</v>
       </c>
       <c r="G36">
-        <v>85.3127082387755</v>
+        <v>83.3132308084305</v>
       </c>
       <c r="H36">
-        <v>68.3696376819143</v>
+        <v>67.984340534856</v>
       </c>
       <c r="I36">
-        <v>36.6260355905682</v>
+        <v>36.2217884249685</v>
       </c>
       <c r="J36">
-        <v>191.941149476861</v>
+        <v>192.809172569452</v>
       </c>
       <c r="K36">
-        <v>51.7361644056729</v>
+        <v>50.6525629731469</v>
       </c>
       <c r="L36">
-        <v>63.8084417082021</v>
+        <v>62.4239741338598</v>
       </c>
       <c r="M36">
-        <v>194.706121935852</v>
+        <v>194.410339971425</v>
       </c>
       <c r="N36">
-        <v>99.64803952841</v>
+        <v>98.0310012697398</v>
       </c>
       <c r="O36">
-        <v>4382.93351902455</v>
+        <v>4278.66277381261</v>
       </c>
       <c r="P36">
-        <v>43.5201736473785</v>
+        <v>44.6990672085224</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>743.705333865729</v>
+        <v>780.609899532909</v>
       </c>
       <c r="C37">
-        <v>19.3908644792842</v>
+        <v>19.3356248530817</v>
       </c>
       <c r="D37">
-        <v>3.21241735391675</v>
+        <v>3.14620732885052</v>
       </c>
       <c r="E37">
-        <v>15.9331036347711</v>
+        <v>15.8344727580265</v>
       </c>
       <c r="F37">
-        <v>30.3850831786472</v>
+        <v>30.0608328810251</v>
       </c>
       <c r="G37">
-        <v>8.496994378933911</v>
+        <v>8.38227607734026</v>
       </c>
       <c r="H37">
-        <v>24.9766628784178</v>
+        <v>24.3117367889495</v>
       </c>
       <c r="I37">
-        <v>11.2578798749699</v>
+        <v>11.05757509687</v>
       </c>
       <c r="J37">
-        <v>35.1366337438614</v>
+        <v>35.5957828003678</v>
       </c>
       <c r="K37">
-        <v>5.06418039630125</v>
+        <v>4.88895479299056</v>
       </c>
       <c r="L37">
-        <v>17.4045470489257</v>
+        <v>16.965959258956</v>
       </c>
       <c r="M37">
-        <v>43.8206631556195</v>
+        <v>43.8921085430599</v>
       </c>
       <c r="N37">
-        <v>21.0152758123355</v>
+        <v>20.5815960008613</v>
       </c>
       <c r="O37">
-        <v>1327.40360319288</v>
+        <v>1312.36764033425</v>
       </c>
       <c r="P37">
-        <v>54.1966257116196</v>
+        <v>54.2084568454019</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>759.11915671934</v>
+        <v>794.340143553586</v>
       </c>
       <c r="C38">
-        <v>25.3253654400908</v>
+        <v>24.9255882427635</v>
       </c>
       <c r="D38">
-        <v>4.74017742051352</v>
+        <v>4.6644973823699</v>
       </c>
       <c r="E38">
-        <v>43.3318141348675</v>
+        <v>45.5444361697263</v>
       </c>
       <c r="F38">
-        <v>1.51434630212222</v>
+        <v>1.46548425886451</v>
       </c>
       <c r="G38">
-        <v>12.0460341939563</v>
+        <v>11.6904727559395</v>
       </c>
       <c r="H38">
-        <v>2.62374442099247</v>
+        <v>2.48774603445738</v>
       </c>
       <c r="I38">
-        <v>1.29384248759308</v>
+        <v>1.32625069331977</v>
       </c>
       <c r="J38">
-        <v>36.7939204751117</v>
+        <v>35.2688204508834</v>
       </c>
       <c r="K38">
-        <v>3.0099678825313</v>
+        <v>3.03774695751576</v>
       </c>
       <c r="L38">
-        <v>79.3289869452987</v>
+        <v>76.7703798567057</v>
       </c>
       <c r="M38">
-        <v>22.0124222213319</v>
+        <v>21.3122143395699</v>
       </c>
       <c r="N38">
-        <v>37.4091302383613</v>
+        <v>36.8016905511709</v>
       </c>
       <c r="O38">
-        <v>1429.80454050263</v>
+        <v>1405.53779274108</v>
       </c>
       <c r="P38">
-        <v>64.8998044922634</v>
+        <v>65.4924422905233</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2533.91708905628</v>
+        <v>2670.90872172288</v>
       </c>
       <c r="C39">
-        <v>101.978162343385</v>
+        <v>98.8987135707163</v>
       </c>
       <c r="D39">
-        <v>34.0407745598477</v>
+        <v>33.3832134819466</v>
       </c>
       <c r="E39">
-        <v>124.509819764904</v>
+        <v>127.881317921101</v>
       </c>
       <c r="F39">
-        <v>24.2749518163376</v>
+        <v>24.5990928837048</v>
       </c>
       <c r="G39">
-        <v>130.259270554009</v>
+        <v>126.157466116368</v>
       </c>
       <c r="H39">
-        <v>50.5197447735836</v>
+        <v>51.0977566869792</v>
       </c>
       <c r="I39">
-        <v>28.7086084725933</v>
+        <v>28.6369083132938</v>
       </c>
       <c r="J39">
-        <v>178.561156184644</v>
+        <v>179.701484699473</v>
       </c>
       <c r="K39">
-        <v>55.4342168043475</v>
+        <v>54.1259221956439</v>
       </c>
       <c r="L39">
-        <v>111.090446266358</v>
+        <v>109.611072231242</v>
       </c>
       <c r="M39">
-        <v>82.8171353485281</v>
+        <v>82.6091302548452</v>
       </c>
       <c r="N39">
-        <v>126.296096649647</v>
+        <v>125.439207715475</v>
       </c>
       <c r="O39">
-        <v>5005.12942702189</v>
+        <v>4881.2674025712</v>
       </c>
       <c r="P39">
-        <v>51.4927554216796</v>
+        <v>53.3742759737314</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>235.353979876618</v>
+        <v>240.081129842232</v>
       </c>
       <c r="C40">
-        <v>4.51844075192273</v>
+        <v>4.35244766401288</v>
       </c>
       <c r="D40">
-        <v>8.045458106908351</v>
+        <v>7.70526510997259</v>
       </c>
       <c r="E40">
-        <v>4.469078109899</v>
+        <v>4.25744768786798</v>
       </c>
       <c r="F40">
-        <v>0.55954949375404</v>
+        <v>0.532925956214972</v>
       </c>
       <c r="G40">
-        <v>4.73963906770441</v>
+        <v>4.43155054275222</v>
       </c>
       <c r="H40">
-        <v>4.02261695308191</v>
+        <v>3.74357861811111</v>
       </c>
       <c r="I40">
-        <v>1.31132689318002</v>
+        <v>1.2666732002288</v>
       </c>
       <c r="J40">
-        <v>12.8613309881032</v>
+        <v>12.2291042919705</v>
       </c>
       <c r="K40">
-        <v>0.917896716273244</v>
+        <v>0.8603897969929371</v>
       </c>
       <c r="L40">
-        <v>13.3010804180819</v>
+        <v>12.6414086360093</v>
       </c>
       <c r="M40">
-        <v>4.93135287480253</v>
+        <v>4.6308782849939</v>
       </c>
       <c r="N40">
-        <v>24.2905484097449</v>
+        <v>23.0793519738243</v>
       </c>
       <c r="O40">
-        <v>533.125540871737</v>
+        <v>501.907594359673</v>
       </c>
       <c r="P40">
-        <v>3.92560371622891</v>
+        <v>3.9030742624437</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>939.788768509768</v>
+        <v>984.4136110511</v>
       </c>
       <c r="C41">
-        <v>13.5614220589662</v>
+        <v>14.1019362722479</v>
       </c>
       <c r="D41">
-        <v>69.2661197923179</v>
+        <v>68.87806117623489</v>
       </c>
       <c r="E41">
-        <v>38.123709872962</v>
+        <v>38.2852622973461</v>
       </c>
       <c r="F41">
-        <v>1.83660839793027</v>
+        <v>1.8049566402835</v>
       </c>
       <c r="G41">
-        <v>32.07889399527</v>
+        <v>31.4899642688728</v>
       </c>
       <c r="H41">
-        <v>36.8255955831595</v>
+        <v>35.9605947136704</v>
       </c>
       <c r="I41">
-        <v>13.4109996050697</v>
+        <v>13.0983270774603</v>
       </c>
       <c r="J41">
-        <v>37.6151366393544</v>
+        <v>36.8737589418396</v>
       </c>
       <c r="K41">
-        <v>7.78405654663287</v>
+        <v>7.64970454151473</v>
       </c>
       <c r="L41">
-        <v>26.4360041572545</v>
+        <v>25.4923342283145</v>
       </c>
       <c r="M41">
-        <v>30.8735133369569</v>
+        <v>30.3288956742955</v>
       </c>
       <c r="N41">
-        <v>16.1308479728659</v>
+        <v>15.6992603965432</v>
       </c>
       <c r="O41">
-        <v>1582.07700777747</v>
+        <v>1556.56215621419</v>
       </c>
       <c r="P41">
-        <v>32.3626140622506</v>
+        <v>32.034059764274</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>136.048185264096</v>
+        <v>137.72786632678</v>
       </c>
       <c r="C42">
-        <v>8.36384905135893</v>
+        <v>7.96043990324418</v>
       </c>
       <c r="D42">
-        <v>1.60998816522107</v>
+        <v>1.50987390906</v>
       </c>
       <c r="E42">
-        <v>9.856639445403101</v>
+        <v>9.378552891263229</v>
       </c>
       <c r="F42">
-        <v>2.74447924337718</v>
+        <v>2.55405572660453</v>
       </c>
       <c r="G42">
-        <v>1.69256275653225</v>
+        <v>1.53881393596429</v>
       </c>
       <c r="H42">
-        <v>0.7780569103352411</v>
+        <v>0.7200655469367751</v>
       </c>
       <c r="I42">
-        <v>2.41512450605967</v>
+        <v>2.25901442461722</v>
       </c>
       <c r="J42">
-        <v>6.97700272307108</v>
+        <v>6.41332824865042</v>
       </c>
       <c r="K42">
-        <v>4.76766425135123</v>
+        <v>4.37763722367583</v>
       </c>
       <c r="L42">
-        <v>7.57040898364422</v>
+        <v>6.86935168122713</v>
       </c>
       <c r="M42">
-        <v>5.91113738607853</v>
+        <v>5.44947321726439</v>
       </c>
       <c r="N42">
-        <v>13.90584274329</v>
+        <v>13.2438187762704</v>
       </c>
       <c r="O42">
-        <v>433.954390129942</v>
+        <v>393.744927388318</v>
       </c>
       <c r="P42">
-        <v>60.1260908995745</v>
+        <v>57.6052351695983</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1431.26240215881</v>
+        <v>1504.71606154267</v>
       </c>
       <c r="C43">
-        <v>35.0372817357674</v>
+        <v>36.1610803827461</v>
       </c>
       <c r="D43">
-        <v>21.7283304459791</v>
+        <v>21.5166344991307</v>
       </c>
       <c r="E43">
-        <v>78.4065253108399</v>
+        <v>79.5116243369705</v>
       </c>
       <c r="F43">
-        <v>4.97983547809491</v>
+        <v>4.69050320739761</v>
       </c>
       <c r="G43">
-        <v>38.7181326211891</v>
+        <v>38.038662106632</v>
       </c>
       <c r="H43">
-        <v>49.2190304653099</v>
+        <v>49.9043967502021</v>
       </c>
       <c r="I43">
-        <v>20.1743852281308</v>
+        <v>18.6400757387248</v>
       </c>
       <c r="J43">
-        <v>54.7654044694447</v>
+        <v>55.8263397200799</v>
       </c>
       <c r="K43">
-        <v>9.899624052687161</v>
+        <v>9.900028282572229</v>
       </c>
       <c r="L43">
-        <v>38.4191684362697</v>
+        <v>38.7431182645508</v>
       </c>
       <c r="M43">
-        <v>88.3671958478681</v>
+        <v>91.09324513601911</v>
       </c>
       <c r="N43">
-        <v>70.409980845392</v>
+        <v>69.8124682640824</v>
       </c>
       <c r="O43">
-        <v>2150.51984160322</v>
+        <v>2090.51941031616</v>
       </c>
       <c r="P43">
-        <v>38.1160928595662</v>
+        <v>36.1869055188191</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4171.69920230241</v>
+        <v>4393.79073343713</v>
       </c>
       <c r="C44">
-        <v>158.747099890633</v>
+        <v>152.905998276698</v>
       </c>
       <c r="D44">
-        <v>17.058413299745</v>
+        <v>16.78092893016</v>
       </c>
       <c r="E44">
-        <v>91.1906039655764</v>
+        <v>92.35056208344059</v>
       </c>
       <c r="F44">
-        <v>239.975884914741</v>
+        <v>233.863669532066</v>
       </c>
       <c r="G44">
-        <v>114.69540976545</v>
+        <v>111.787722947531</v>
       </c>
       <c r="H44">
-        <v>36.1904215392357</v>
+        <v>36.1879807070341</v>
       </c>
       <c r="I44">
-        <v>41.0924752702339</v>
+        <v>40.693025820648</v>
       </c>
       <c r="J44">
-        <v>112.100981818105</v>
+        <v>111.80557693713</v>
       </c>
       <c r="K44">
-        <v>31.5855007494592</v>
+        <v>31.236714249254</v>
       </c>
       <c r="L44">
-        <v>159.650831627737</v>
+        <v>157.070406073942</v>
       </c>
       <c r="M44">
-        <v>78.070342269897</v>
+        <v>78.51358074313011</v>
       </c>
       <c r="N44">
-        <v>87.1939874313386</v>
+        <v>87.8192307617702</v>
       </c>
       <c r="O44">
-        <v>8378.747225233479</v>
+        <v>8290.623161133821</v>
       </c>
       <c r="P44">
-        <v>218.062232755938</v>
+        <v>213.546948618538</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>402.41062907971</v>
+        <v>416.626570468849</v>
       </c>
       <c r="C45">
-        <v>18.2673598757545</v>
+        <v>18.5903189204409</v>
       </c>
       <c r="D45">
-        <v>2.24334528811499</v>
+        <v>2.18924692500924</v>
       </c>
       <c r="E45">
-        <v>21.5098575035087</v>
+        <v>22.0445772765577</v>
       </c>
       <c r="F45">
-        <v>25.9551841009629</v>
+        <v>25.2174186249323</v>
       </c>
       <c r="G45">
-        <v>7.79691444835357</v>
+        <v>7.63980920674154</v>
       </c>
       <c r="H45">
-        <v>3.13383426839282</v>
+        <v>3.04329470895096</v>
       </c>
       <c r="I45">
-        <v>4.89753042279621</v>
+        <v>4.80969803464184</v>
       </c>
       <c r="J45">
-        <v>21.5613000223786</v>
+        <v>20.8768248241964</v>
       </c>
       <c r="K45">
-        <v>1.63320617677551</v>
+        <v>1.64873752612076</v>
       </c>
       <c r="L45">
-        <v>15.3874867248346</v>
+        <v>15.2440090235917</v>
       </c>
       <c r="M45">
-        <v>12.7927846116959</v>
+        <v>12.8896017738484</v>
       </c>
       <c r="N45">
-        <v>29.5526669330062</v>
+        <v>29.5298509254504</v>
       </c>
       <c r="O45">
-        <v>903.676714782447</v>
+        <v>887.1270029022201</v>
       </c>
       <c r="P45">
-        <v>20.1183286909237</v>
+        <v>20.5691248124472</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>119.854191346525</v>
+        <v>120.717574671517</v>
       </c>
       <c r="C46">
-        <v>6.55665771731947</v>
+        <v>6.23997323252051</v>
       </c>
       <c r="D46">
-        <v>1.00870236744746</v>
+        <v>0.91606214049181</v>
       </c>
       <c r="E46">
-        <v>6.07181764122162</v>
+        <v>5.75501828096947</v>
       </c>
       <c r="F46">
-        <v>0.827860400809547</v>
+        <v>0.750058490368047</v>
       </c>
       <c r="G46">
-        <v>2.11137768229472</v>
+        <v>1.92578224449091</v>
       </c>
       <c r="H46">
-        <v>0.861752542701359</v>
+        <v>0.767192424852416</v>
       </c>
       <c r="I46">
-        <v>1.74860845828919</v>
+        <v>1.56929026832726</v>
       </c>
       <c r="J46">
-        <v>5.57950185087461</v>
+        <v>5.28391903832056</v>
       </c>
       <c r="K46">
-        <v>1.5529455504769</v>
+        <v>1.43772319234843</v>
       </c>
       <c r="L46">
-        <v>16.0024909055906</v>
+        <v>14.6774304116088</v>
       </c>
       <c r="M46">
-        <v>3.4894705204471</v>
+        <v>3.32712536247908</v>
       </c>
       <c r="N46">
-        <v>13.2556739643017</v>
+        <v>12.3594154401189</v>
       </c>
       <c r="O46">
-        <v>369.450334235557</v>
+        <v>343.362325481926</v>
       </c>
       <c r="P46">
-        <v>10.0452458292179</v>
+        <v>9.82939533318144</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1444.03361162428</v>
+        <v>1512.08068205382</v>
       </c>
       <c r="C47">
-        <v>45.4563138810706</v>
+        <v>43.9856856325045</v>
       </c>
       <c r="D47">
-        <v>11.8799424043509</v>
+        <v>12.1541967691219</v>
       </c>
       <c r="E47">
-        <v>44.7141439297896</v>
+        <v>45.4237210359729</v>
       </c>
       <c r="F47">
-        <v>10.3602102501263</v>
+        <v>10.4889786267253</v>
       </c>
       <c r="G47">
-        <v>22.3950318166334</v>
+        <v>22.0503771594473</v>
       </c>
       <c r="H47">
-        <v>12.7586662661955</v>
+        <v>12.7102364930311</v>
       </c>
       <c r="I47">
-        <v>4.68165063218511</v>
+        <v>4.73799194013071</v>
       </c>
       <c r="J47">
-        <v>37.5454658097917</v>
+        <v>36.8417709025443</v>
       </c>
       <c r="K47">
-        <v>5.17792850307065</v>
+        <v>5.19830301856863</v>
       </c>
       <c r="L47">
-        <v>23.0656819045162</v>
+        <v>22.6000437808525</v>
       </c>
       <c r="M47">
-        <v>63.3728682496443</v>
+        <v>62.4832110709579</v>
       </c>
       <c r="N47">
-        <v>32.8057560856037</v>
+        <v>33.0670955132241</v>
       </c>
       <c r="O47">
-        <v>3053.05164510301</v>
+        <v>2998.12529135274</v>
       </c>
       <c r="P47">
-        <v>36.8849781847735</v>
+        <v>37.7659623144495</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1203.40473684242</v>
+        <v>1255.62136432315</v>
       </c>
       <c r="C48">
-        <v>36.5556730016016</v>
+        <v>37.3056375584221</v>
       </c>
       <c r="D48">
-        <v>4.26128230137782</v>
+        <v>4.08187778224746</v>
       </c>
       <c r="E48">
-        <v>71.0348914377618</v>
+        <v>70.04195890330421</v>
       </c>
       <c r="F48">
-        <v>11.0624082126413</v>
+        <v>10.873161931535</v>
       </c>
       <c r="G48">
-        <v>8.33588102536423</v>
+        <v>8.23371320566428</v>
       </c>
       <c r="H48">
-        <v>4.27787720943778</v>
+        <v>4.32708468584174</v>
       </c>
       <c r="I48">
-        <v>9.68763426166559</v>
+        <v>9.47388548244151</v>
       </c>
       <c r="J48">
-        <v>34.9467858240578</v>
+        <v>34.9969242422533</v>
       </c>
       <c r="K48">
-        <v>7.20473939127043</v>
+        <v>7.26200885447872</v>
       </c>
       <c r="L48">
-        <v>53.04926161798</v>
+        <v>52.3321399360913</v>
       </c>
       <c r="M48">
-        <v>146.057463242942</v>
+        <v>140.61982976105</v>
       </c>
       <c r="N48">
-        <v>38.4602926033191</v>
+        <v>38.5170940535718</v>
       </c>
       <c r="O48">
-        <v>2451.58585374485</v>
+        <v>2420.07072971114</v>
       </c>
       <c r="P48">
-        <v>85.3316209447319</v>
+        <v>85.8914728272312</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>683.197400426592</v>
+        <v>697.842729974141</v>
       </c>
       <c r="C49">
-        <v>5.11445663856997</v>
+        <v>4.97317754416245</v>
       </c>
       <c r="D49">
-        <v>1.3825387535652</v>
+        <v>1.24731747077136</v>
       </c>
       <c r="E49">
-        <v>26.1333630218619</v>
+        <v>25.317864491188</v>
       </c>
       <c r="F49">
-        <v>31.3147738831226</v>
+        <v>29.7459701991122</v>
       </c>
       <c r="G49">
-        <v>13.4049246454681</v>
+        <v>12.890635243586</v>
       </c>
       <c r="H49">
-        <v>8.139960523232469</v>
+        <v>8.02421785800068</v>
       </c>
       <c r="I49">
-        <v>3.42594505713453</v>
+        <v>3.22348883736577</v>
       </c>
       <c r="J49">
-        <v>23.3619122391464</v>
+        <v>22.004914112285</v>
       </c>
       <c r="K49">
-        <v>1.86053344533551</v>
+        <v>1.76040158077421</v>
       </c>
       <c r="L49">
-        <v>1.93345327998861</v>
+        <v>1.8381802097801</v>
       </c>
       <c r="M49">
-        <v>3.9126385955736</v>
+        <v>3.80594866002832</v>
       </c>
       <c r="N49">
-        <v>5.6740007049074</v>
+        <v>5.51577101351676</v>
       </c>
       <c r="O49">
-        <v>681.897739093013</v>
+        <v>651.921656307639</v>
       </c>
       <c r="P49">
-        <v>8.326798538984161</v>
+        <v>8.241837159713111</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>879.002123419901</v>
+        <v>930.783438470761</v>
       </c>
       <c r="C50">
-        <v>73.9791365041647</v>
+        <v>74.9054881305515</v>
       </c>
       <c r="D50">
-        <v>7.538926167031</v>
+        <v>7.24073826878125</v>
       </c>
       <c r="E50">
-        <v>134.305668898434</v>
+        <v>134.472080515806</v>
       </c>
       <c r="F50">
-        <v>4.47025151639158</v>
+        <v>4.37121569481861</v>
       </c>
       <c r="G50">
-        <v>35.3522623923333</v>
+        <v>33.4465683794837</v>
       </c>
       <c r="H50">
-        <v>38.3857218682007</v>
+        <v>37.5324399112374</v>
       </c>
       <c r="I50">
-        <v>13.3027251931097</v>
+        <v>13.0156592366745</v>
       </c>
       <c r="J50">
-        <v>91.1716773833125</v>
+        <v>90.55732908604941</v>
       </c>
       <c r="K50">
-        <v>47.1518059444386</v>
+        <v>45.7330991254455</v>
       </c>
       <c r="L50">
-        <v>57.4065233488937</v>
+        <v>56.5541838653656</v>
       </c>
       <c r="M50">
-        <v>50.6740126287539</v>
+        <v>50.0587722061867</v>
       </c>
       <c r="N50">
-        <v>55.515985280835</v>
+        <v>54.602816597888</v>
       </c>
       <c r="O50">
-        <v>2227.96402976435</v>
+        <v>2174.41045168247</v>
       </c>
       <c r="P50">
-        <v>82.3524158488589</v>
+        <v>87.1564626553136</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>125.962654618622</v>
+        <v>121.064846190257</v>
       </c>
       <c r="C51">
-        <v>4.95895573719894</v>
+        <v>4.38179005272096</v>
       </c>
       <c r="D51">
-        <v>0.0486126564418019</v>
+        <v>0.043966879308233</v>
       </c>
       <c r="E51">
-        <v>2.51727374701168</v>
+        <v>2.34690290556689</v>
       </c>
       <c r="F51">
-        <v>40.4854892041304</v>
+        <v>37.0030710126251</v>
       </c>
       <c r="G51">
-        <v>2.71475028711291</v>
+        <v>2.62311581885752</v>
       </c>
       <c r="H51">
-        <v>0.00386850565632344</v>
+        <v>0.0045730485451337</v>
       </c>
       <c r="I51">
-        <v>1.39525708031912</v>
+        <v>1.28555248212349</v>
       </c>
       <c r="J51">
-        <v>1.31771681609947</v>
+        <v>1.17183091829707</v>
       </c>
       <c r="K51">
-        <v>0.958068226068362</v>
+        <v>0.84369501835534</v>
       </c>
       <c r="L51">
-        <v>0.909693096294466</v>
+        <v>0.839602842401194</v>
       </c>
       <c r="M51">
-        <v>0.567012006503292</v>
+        <v>0.512139999145044</v>
       </c>
       <c r="N51">
-        <v>0.825828803392436</v>
+        <v>0.777855360632589</v>
       </c>
       <c r="O51">
-        <v>341.441526896729</v>
+        <v>306.248529377854</v>
       </c>
       <c r="P51">
-        <v>35.536841607157</v>
+        <v>32.3042015617836</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1311.15639769596</v>
+        <v>1311.15706271013</v>
       </c>
       <c r="C2">
-        <v>24.1962844156257</v>
+        <v>24.1962921648592</v>
       </c>
       <c r="D2">
-        <v>24.1592252480451</v>
+        <v>24.1591681581293</v>
       </c>
       <c r="E2">
-        <v>57.8613278403364</v>
+        <v>57.8613645510869</v>
       </c>
       <c r="F2">
-        <v>22.2598299226895</v>
+        <v>22.2596010521622</v>
       </c>
       <c r="G2">
-        <v>17.5564607591955</v>
+        <v>17.55644095647</v>
       </c>
       <c r="H2">
-        <v>19.2954456436702</v>
+        <v>19.2955664672057</v>
       </c>
       <c r="I2">
-        <v>10.6888035352573</v>
+        <v>10.6888108144817</v>
       </c>
       <c r="J2">
-        <v>85.6558123898361</v>
+        <v>85.65577520836951</v>
       </c>
       <c r="K2">
-        <v>15.8048451505013</v>
+        <v>15.8046977434045</v>
       </c>
       <c r="L2">
-        <v>57.3092014439028</v>
+        <v>57.3088942488959</v>
       </c>
       <c r="M2">
-        <v>38.3595242139061</v>
+        <v>38.3595085570731</v>
       </c>
       <c r="N2">
-        <v>26.3517347122637</v>
+        <v>26.3517361061996</v>
       </c>
       <c r="O2">
-        <v>1456.30846567178</v>
+        <v>1456.30926242509</v>
       </c>
       <c r="P2">
-        <v>19.1390298978113</v>
+        <v>19.1390421170268</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>154.946300907966</v>
+        <v>154.930817295143</v>
       </c>
       <c r="C3">
-        <v>4.17226793153632</v>
+        <v>4.1717011296427</v>
       </c>
       <c r="D3">
-        <v>0.504852331292184</v>
+        <v>0.506556687300192</v>
       </c>
       <c r="E3">
-        <v>1.02593877423701</v>
+        <v>1.02582672709239</v>
       </c>
       <c r="F3">
-        <v>9.7295404855552</v>
+        <v>9.72830003739948</v>
       </c>
       <c r="G3">
-        <v>0.379007282310306</v>
+        <v>0.378910676173531</v>
       </c>
       <c r="H3">
-        <v>0.0345823830023958</v>
+        <v>0.0371036518622515</v>
       </c>
       <c r="I3">
-        <v>1.15130478928614</v>
+        <v>1.15313929598293</v>
       </c>
       <c r="J3">
-        <v>0.197450418950106</v>
+        <v>0.198853000306886</v>
       </c>
       <c r="K3">
-        <v>0.110095204880493</v>
+        <v>0.112897663248727</v>
       </c>
       <c r="L3">
-        <v>6.78256675343669e-005</v>
+        <v>0.00136321550933149</v>
       </c>
       <c r="M3">
-        <v>0.609990263962566</v>
+        <v>0.60997787076529</v>
       </c>
       <c r="N3">
-        <v>0.855248180952971</v>
+        <v>0.855227450986063</v>
       </c>
       <c r="O3">
-        <v>350.664401617136</v>
+        <v>350.638846254554</v>
       </c>
       <c r="P3">
-        <v>14.6851398372036</v>
+        <v>14.6831385847301</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1330.37456160574</v>
+        <v>1330.37677070448</v>
       </c>
       <c r="C4">
-        <v>9.194249269845219</v>
+        <v>9.1942575803049</v>
       </c>
       <c r="D4">
-        <v>4.90930253738462</v>
+        <v>4.90893938176608</v>
       </c>
       <c r="E4">
-        <v>18.3817534071376</v>
+        <v>18.381793903865</v>
       </c>
       <c r="F4">
-        <v>8.10884453715161</v>
+        <v>8.10871374645332</v>
       </c>
       <c r="G4">
-        <v>8.041705395630521</v>
+        <v>8.041534012035511</v>
       </c>
       <c r="H4">
-        <v>11.6386129418335</v>
+        <v>11.6330696908209</v>
       </c>
       <c r="I4">
-        <v>6.8414010188356</v>
+        <v>6.84144972473568</v>
       </c>
       <c r="J4">
-        <v>34.1272129208166</v>
+        <v>34.1272448319332</v>
       </c>
       <c r="K4">
-        <v>3.57588049598182</v>
+        <v>3.57580876813334</v>
       </c>
       <c r="L4">
-        <v>61.2544981612721</v>
+        <v>61.2543319351449</v>
       </c>
       <c r="M4">
-        <v>40.2271093826872</v>
+        <v>40.2270902943453</v>
       </c>
       <c r="N4">
-        <v>29.7007673600657</v>
+        <v>29.7006772437882</v>
       </c>
       <c r="O4">
-        <v>2229.44103357719</v>
+        <v>2229.44365720411</v>
       </c>
       <c r="P4">
-        <v>12.5629229536214</v>
+        <v>12.563000086616</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>688.455385539603</v>
+        <v>688.455675847979</v>
       </c>
       <c r="C5">
-        <v>43.5527846015344</v>
+        <v>43.5527963904733</v>
       </c>
       <c r="D5">
-        <v>11.3046691135262</v>
+        <v>11.3046204740116</v>
       </c>
       <c r="E5">
-        <v>33.5934145286677</v>
+        <v>33.5933569839331</v>
       </c>
       <c r="F5">
-        <v>7.48591724095564</v>
+        <v>7.48588422728811</v>
       </c>
       <c r="G5">
-        <v>4.99629063584648</v>
+        <v>4.99629672560385</v>
       </c>
       <c r="H5">
-        <v>9.45744893380494</v>
+        <v>9.45755975729827</v>
       </c>
       <c r="I5">
-        <v>5.43199102157002</v>
+        <v>5.43200120758606</v>
       </c>
       <c r="J5">
-        <v>34.7229948728185</v>
+        <v>34.7230275320734</v>
       </c>
       <c r="K5">
-        <v>4.43293979765706</v>
+        <v>4.4329447294448</v>
       </c>
       <c r="L5">
-        <v>13.4374776435477</v>
+        <v>13.4374126288501</v>
       </c>
       <c r="M5">
-        <v>18.105333317288</v>
+        <v>18.1053450941411</v>
       </c>
       <c r="N5">
-        <v>20.463778858729</v>
+        <v>20.463740344912</v>
       </c>
       <c r="O5">
-        <v>981.563869057382</v>
+        <v>981.564316040686</v>
       </c>
       <c r="P5">
-        <v>53.8158247558269</v>
+        <v>53.8158440485762</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7349.3454867789</v>
+        <v>7349.35200374204</v>
       </c>
       <c r="C6">
-        <v>209.006652018678</v>
+        <v>209.006846884183</v>
       </c>
       <c r="D6">
-        <v>38.8460034287569</v>
+        <v>38.8455860298682</v>
       </c>
       <c r="E6">
-        <v>174.25359758458</v>
+        <v>174.253198477467</v>
       </c>
       <c r="F6">
-        <v>45.9143642796175</v>
+        <v>45.9136903963032</v>
       </c>
       <c r="G6">
-        <v>120.20971255829</v>
+        <v>120.209058367382</v>
       </c>
       <c r="H6">
-        <v>45.6993531877434</v>
+        <v>45.6983993188197</v>
       </c>
       <c r="I6">
-        <v>44.7563279756644</v>
+        <v>44.7562406145239</v>
       </c>
       <c r="J6">
-        <v>178.213169618416</v>
+        <v>178.212575914911</v>
       </c>
       <c r="K6">
-        <v>38.9136620081163</v>
+        <v>38.9118086173585</v>
       </c>
       <c r="L6">
-        <v>431.671351916696</v>
+        <v>431.66938337015</v>
       </c>
       <c r="M6">
-        <v>259.853936972033</v>
+        <v>259.853453632618</v>
       </c>
       <c r="N6">
-        <v>292.307115302513</v>
+        <v>292.306044450217</v>
       </c>
       <c r="O6">
-        <v>12993.2344870901</v>
+        <v>12993.2426000716</v>
       </c>
       <c r="P6">
-        <v>280.66711029627</v>
+        <v>280.667706673148</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>763.535313153627</v>
+        <v>763.53748615987</v>
       </c>
       <c r="C7">
-        <v>37.0422422494811</v>
+        <v>37.0423162928434</v>
       </c>
       <c r="D7">
-        <v>4.34458209047601</v>
+        <v>4.34445414325842</v>
       </c>
       <c r="E7">
-        <v>20.3952685410433</v>
+        <v>20.3952674740459</v>
       </c>
       <c r="F7">
-        <v>13.4978030535239</v>
+        <v>13.4977640197364</v>
       </c>
       <c r="G7">
-        <v>6.84659910608534</v>
+        <v>6.84603437258103</v>
       </c>
       <c r="H7">
-        <v>1.62037331229982</v>
+        <v>1.62007838593121</v>
       </c>
       <c r="I7">
-        <v>8.64232858961328</v>
+        <v>8.642428676096079</v>
       </c>
       <c r="J7">
-        <v>17.392141242342</v>
+        <v>17.3920137300755</v>
       </c>
       <c r="K7">
-        <v>3.99826722793737</v>
+        <v>3.99819957275234</v>
       </c>
       <c r="L7">
-        <v>58.7110313637827</v>
+        <v>58.7108639826404</v>
       </c>
       <c r="M7">
-        <v>16.2455086363399</v>
+        <v>16.245505427317</v>
       </c>
       <c r="N7">
-        <v>23.4118379101395</v>
+        <v>23.4116048372321</v>
       </c>
       <c r="O7">
-        <v>1935.16303931138</v>
+        <v>1935.16566784822</v>
       </c>
       <c r="P7">
-        <v>28.7713567640198</v>
+        <v>28.7715307316141</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>638.948938990723</v>
+        <v>638.946859346345</v>
       </c>
       <c r="C8">
-        <v>13.2400685040157</v>
+        <v>13.240032351381</v>
       </c>
       <c r="D8">
-        <v>2.21462530585533</v>
+        <v>2.21461597522671</v>
       </c>
       <c r="E8">
-        <v>23.2614093508334</v>
+        <v>23.2613202108508</v>
       </c>
       <c r="F8">
-        <v>1.67576129098294</v>
+        <v>1.67620411657609</v>
       </c>
       <c r="G8">
-        <v>22.767786893832</v>
+        <v>22.7676421304524</v>
       </c>
       <c r="H8">
-        <v>7.92389012305157</v>
+        <v>7.92380449649884</v>
       </c>
       <c r="I8">
-        <v>7.94071816282465</v>
+        <v>7.94262978195123</v>
       </c>
       <c r="J8">
-        <v>41.4424802077866</v>
+        <v>41.4423183932843</v>
       </c>
       <c r="K8">
-        <v>10.1130849980132</v>
+        <v>10.1130244264189</v>
       </c>
       <c r="L8">
-        <v>43.5327726128378</v>
+        <v>43.5325320685007</v>
       </c>
       <c r="M8">
-        <v>51.104767397462</v>
+        <v>51.1045057408049</v>
       </c>
       <c r="N8">
-        <v>28.0409347629399</v>
+        <v>28.0409692251879</v>
       </c>
       <c r="O8">
-        <v>1430.96276497214</v>
+        <v>1430.9612740504</v>
       </c>
       <c r="P8">
-        <v>7.24586239550829</v>
+        <v>7.24584421333901</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>213.639511120887</v>
+        <v>213.639581418789</v>
       </c>
       <c r="C9">
-        <v>9.636873445402861</v>
+        <v>9.636877463972059</v>
       </c>
       <c r="D9">
-        <v>1.97781264394827</v>
+        <v>1.97781763302123</v>
       </c>
       <c r="E9">
-        <v>4.84156135582</v>
+        <v>4.84156733376371</v>
       </c>
       <c r="F9">
-        <v>0.524328200787865</v>
+        <v>0.524272200983258</v>
       </c>
       <c r="G9">
-        <v>23.6306399350078</v>
+        <v>23.6306599954944</v>
       </c>
       <c r="H9">
-        <v>2.78705355246789</v>
+        <v>2.78706192271312</v>
       </c>
       <c r="I9">
-        <v>1.56946631141211</v>
+        <v>1.56942861710454</v>
       </c>
       <c r="J9">
-        <v>5.28395858492412</v>
+        <v>5.28396676610535</v>
       </c>
       <c r="K9">
-        <v>0.62043183611665</v>
+        <v>0.620428551413354</v>
       </c>
       <c r="L9">
-        <v>3.49284113516253</v>
+        <v>3.49284463887372</v>
       </c>
       <c r="M9">
-        <v>7.03381379544452</v>
+        <v>7.03380347936692</v>
       </c>
       <c r="N9">
-        <v>3.94814736345725</v>
+        <v>3.94815331040923</v>
       </c>
       <c r="O9">
-        <v>422.362882032586</v>
+        <v>422.363129159269</v>
       </c>
       <c r="P9">
-        <v>6.70735299271962</v>
+        <v>6.70735718608266</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4032.21237134214</v>
+        <v>4032.21481565721</v>
       </c>
       <c r="C10">
-        <v>71.68769017155191</v>
+        <v>71.68772411918791</v>
       </c>
       <c r="D10">
-        <v>9.67647049770871</v>
+        <v>9.676434757109419</v>
       </c>
       <c r="E10">
-        <v>54.8078654325442</v>
+        <v>54.8079027982852</v>
       </c>
       <c r="F10">
-        <v>8.934521808715671</v>
+        <v>8.933884939557119</v>
       </c>
       <c r="G10">
-        <v>41.4673363951802</v>
+        <v>41.4669028965698</v>
       </c>
       <c r="H10">
-        <v>18.6579020207827</v>
+        <v>18.6577027851809</v>
       </c>
       <c r="I10">
-        <v>26.2358543487211</v>
+        <v>26.2358003567304</v>
       </c>
       <c r="J10">
-        <v>60.4091805050583</v>
+        <v>60.4090371913607</v>
       </c>
       <c r="K10">
-        <v>6.15655323333324</v>
+        <v>6.15648068109225</v>
       </c>
       <c r="L10">
-        <v>65.58634649558761</v>
+        <v>65.5862884780243</v>
       </c>
       <c r="M10">
-        <v>77.1186838108741</v>
+        <v>77.1186734606444</v>
       </c>
       <c r="N10">
-        <v>93.7865556655656</v>
+        <v>93.786429793239</v>
       </c>
       <c r="O10">
-        <v>7662.9004394244</v>
+        <v>7662.90241419097</v>
       </c>
       <c r="P10">
-        <v>67.5292401961147</v>
+        <v>67.52933771005959</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1888.25755340113</v>
+        <v>1888.25876092041</v>
       </c>
       <c r="C11">
-        <v>67.656759084364</v>
+        <v>67.656786590013</v>
       </c>
       <c r="D11">
-        <v>152.807797016954</v>
+        <v>152.807728634857</v>
       </c>
       <c r="E11">
-        <v>83.2800706531778</v>
+        <v>83.2801365315311</v>
       </c>
       <c r="F11">
-        <v>11.0492687658521</v>
+        <v>11.0491786561345</v>
       </c>
       <c r="G11">
-        <v>23.1513780353386</v>
+        <v>23.151378913308</v>
       </c>
       <c r="H11">
-        <v>22.4116916297041</v>
+        <v>22.4117941363743</v>
       </c>
       <c r="I11">
-        <v>10.0212540068996</v>
+        <v>10.0212502723013</v>
       </c>
       <c r="J11">
-        <v>39.6565404582801</v>
+        <v>39.6565092466638</v>
       </c>
       <c r="K11">
-        <v>6.04734185803202</v>
+        <v>6.04731335683771</v>
       </c>
       <c r="L11">
-        <v>49.4366228360492</v>
+        <v>49.4365654963713</v>
       </c>
       <c r="M11">
-        <v>48.5423649714867</v>
+        <v>48.542372301182</v>
       </c>
       <c r="N11">
-        <v>66.1254544040803</v>
+        <v>66.125495617501</v>
       </c>
       <c r="O11">
-        <v>3258.44762202016</v>
+        <v>3258.44935311609</v>
       </c>
       <c r="P11">
-        <v>54.4314931535757</v>
+        <v>54.4315256509429</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>282.677918650907</v>
+        <v>282.659992306416</v>
       </c>
       <c r="C12">
-        <v>6.56947839937082</v>
+        <v>6.56900887977565</v>
       </c>
       <c r="D12">
-        <v>0.240078647237149</v>
+        <v>0.240032864623206</v>
       </c>
       <c r="E12">
-        <v>3.94186389722099</v>
+        <v>3.9466158538493</v>
       </c>
       <c r="F12">
-        <v>1.04621670878651</v>
+        <v>1.04718879072079</v>
       </c>
       <c r="G12">
-        <v>0.828229382360183</v>
+        <v>0.828158324455333</v>
       </c>
       <c r="H12">
-        <v>0.09908182892208441</v>
+        <v>0.104656038226415</v>
       </c>
       <c r="I12">
-        <v>0.811980579723953</v>
+        <v>0.811943088447496</v>
       </c>
       <c r="J12">
-        <v>1.21202696480014</v>
+        <v>1.21189462793833</v>
       </c>
       <c r="K12">
-        <v>0.00130333076453873</v>
+        <v>0.00505455734555654</v>
       </c>
       <c r="L12">
-        <v>0.0257698169236091</v>
+        <v>0.0281987752880141</v>
       </c>
       <c r="M12">
-        <v>3.13733216903686</v>
+        <v>3.1370884313209</v>
       </c>
       <c r="N12">
-        <v>3.08594811838976</v>
+        <v>3.08970747527517</v>
       </c>
       <c r="O12">
-        <v>650.88728602288</v>
+        <v>650.8679170508329</v>
       </c>
       <c r="P12">
-        <v>23.6404310577556</v>
+        <v>23.6384639072334</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>263.284378442937</v>
+        <v>263.268928962206</v>
       </c>
       <c r="C13">
-        <v>17.9426650079529</v>
+        <v>17.9437732627565</v>
       </c>
       <c r="D13">
-        <v>0.515827502079534</v>
+        <v>0.51976469794384</v>
       </c>
       <c r="E13">
-        <v>13.1873806022924</v>
+        <v>13.1869083453402</v>
       </c>
       <c r="F13">
-        <v>2.89715463176843</v>
+        <v>2.89699975792316</v>
       </c>
       <c r="G13">
-        <v>6.11909972469009</v>
+        <v>6.11868594125359</v>
       </c>
       <c r="H13">
-        <v>2.33177160304266</v>
+        <v>2.33646407798442</v>
       </c>
       <c r="I13">
-        <v>2.01366862791967</v>
+        <v>2.02256303562346</v>
       </c>
       <c r="J13">
-        <v>5.97681473450201</v>
+        <v>5.97652950422195</v>
       </c>
       <c r="K13">
-        <v>4.05744094762484</v>
+        <v>4.07568918544323</v>
       </c>
       <c r="L13">
-        <v>15.7075218503538</v>
+        <v>15.7069765144151</v>
       </c>
       <c r="M13">
-        <v>1.01447700673383</v>
+        <v>1.0144352869812</v>
       </c>
       <c r="N13">
-        <v>4.61033970887962</v>
+        <v>4.61011120576973</v>
       </c>
       <c r="O13">
-        <v>604.727087749875</v>
+        <v>604.705757379265</v>
       </c>
       <c r="P13">
-        <v>48.9369987478124</v>
+        <v>48.9359632287172</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2485.98692604872</v>
+        <v>2485.98783314144</v>
       </c>
       <c r="C14">
-        <v>109.419286200688</v>
+        <v>109.419289039078</v>
       </c>
       <c r="D14">
-        <v>6.9488471580025</v>
+        <v>6.94877611450897</v>
       </c>
       <c r="E14">
-        <v>96.64833249983511</v>
+        <v>96.6482849702213</v>
       </c>
       <c r="F14">
-        <v>22.5568063363225</v>
+        <v>22.5564651528502</v>
       </c>
       <c r="G14">
-        <v>75.2076815261495</v>
+        <v>75.20753945876911</v>
       </c>
       <c r="H14">
-        <v>38.5335875043468</v>
+        <v>38.5335734363915</v>
       </c>
       <c r="I14">
-        <v>20.8577440501795</v>
+        <v>20.8577408071604</v>
       </c>
       <c r="J14">
-        <v>131.670794523846</v>
+        <v>131.670664055691</v>
       </c>
       <c r="K14">
-        <v>93.38956097848551</v>
+        <v>93.3892849781939</v>
       </c>
       <c r="L14">
-        <v>106.634842202333</v>
+        <v>106.634704144379</v>
       </c>
       <c r="M14">
-        <v>84.9719357205155</v>
+        <v>84.97184172625801</v>
       </c>
       <c r="N14">
-        <v>70.05080952384731</v>
+        <v>70.050737984225</v>
       </c>
       <c r="O14">
-        <v>4993.83515562293</v>
+        <v>4993.83650501986</v>
       </c>
       <c r="P14">
-        <v>54.9621246769276</v>
+        <v>54.962182877472</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1260.9961280581</v>
+        <v>1260.9964102769</v>
       </c>
       <c r="C15">
-        <v>52.2607427577869</v>
+        <v>52.2607373421978</v>
       </c>
       <c r="D15">
-        <v>5.88499413830023</v>
+        <v>5.88498904704813</v>
       </c>
       <c r="E15">
-        <v>80.130857066369</v>
+        <v>80.1307745804762</v>
       </c>
       <c r="F15">
-        <v>21.5867805034509</v>
+        <v>21.5864609177324</v>
       </c>
       <c r="G15">
-        <v>54.6476917855697</v>
+        <v>54.6476479283082</v>
       </c>
       <c r="H15">
-        <v>35.0735871844594</v>
+        <v>35.0735998849091</v>
       </c>
       <c r="I15">
-        <v>23.6481586786598</v>
+        <v>23.6481370271133</v>
       </c>
       <c r="J15">
-        <v>164.45081736123</v>
+        <v>164.450825317086</v>
       </c>
       <c r="K15">
-        <v>25.902060599835</v>
+        <v>25.9020296972191</v>
       </c>
       <c r="L15">
-        <v>40.3664890727486</v>
+        <v>40.3664720879386</v>
       </c>
       <c r="M15">
-        <v>171.708784412733</v>
+        <v>171.708755317759</v>
       </c>
       <c r="N15">
-        <v>85.4317835451394</v>
+        <v>85.4317183712178</v>
       </c>
       <c r="O15">
-        <v>2202.66805648981</v>
+        <v>2202.66861036189</v>
       </c>
       <c r="P15">
-        <v>42.3515121507176</v>
+        <v>42.3515296303225</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>481.829186489405</v>
+        <v>481.829520674807</v>
       </c>
       <c r="C16">
-        <v>63.9418624530762</v>
+        <v>63.9418601926374</v>
       </c>
       <c r="D16">
-        <v>6.20656234665097</v>
+        <v>6.20648102199506</v>
       </c>
       <c r="E16">
-        <v>25.142336395031</v>
+        <v>25.1424119886991</v>
       </c>
       <c r="F16">
-        <v>2.68309962767442</v>
+        <v>2.68308009411411</v>
       </c>
       <c r="G16">
-        <v>19.4681208817955</v>
+        <v>19.4681032928929</v>
       </c>
       <c r="H16">
-        <v>17.8495009175797</v>
+        <v>17.8495641314351</v>
       </c>
       <c r="I16">
-        <v>7.25841520625798</v>
+        <v>7.25840248602736</v>
       </c>
       <c r="J16">
-        <v>51.6023932206702</v>
+        <v>51.6023967561611</v>
       </c>
       <c r="K16">
-        <v>42.3740102784737</v>
+        <v>42.3739382802421</v>
       </c>
       <c r="L16">
-        <v>23.989674443412</v>
+        <v>23.9896338908608</v>
       </c>
       <c r="M16">
-        <v>22.5099350661913</v>
+        <v>22.5099482716687</v>
       </c>
       <c r="N16">
-        <v>30.1128777183478</v>
+        <v>30.1128668097338</v>
       </c>
       <c r="O16">
-        <v>1265.20150344559</v>
+        <v>1265.2021601419</v>
       </c>
       <c r="P16">
-        <v>82.5172426484546</v>
+        <v>82.5172970199706</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>510.416491388503</v>
+        <v>510.417224556735</v>
       </c>
       <c r="C17">
-        <v>21.9033166751316</v>
+        <v>21.9033381424597</v>
       </c>
       <c r="D17">
-        <v>4.54743978777532</v>
+        <v>4.5469860387744</v>
       </c>
       <c r="E17">
-        <v>29.6637307046526</v>
+        <v>29.6638301326102</v>
       </c>
       <c r="F17">
-        <v>11.9646437393175</v>
+        <v>11.9645626352965</v>
       </c>
       <c r="G17">
-        <v>7.90593028426026</v>
+        <v>7.90586914731542</v>
       </c>
       <c r="H17">
-        <v>11.0776706207025</v>
+        <v>11.0778182955673</v>
       </c>
       <c r="I17">
-        <v>8.94187521986459</v>
+        <v>8.94190839880401</v>
       </c>
       <c r="J17">
-        <v>22.5834309291208</v>
+        <v>22.5834351818613</v>
       </c>
       <c r="K17">
-        <v>8.67863860233375</v>
+        <v>8.678601432182351</v>
       </c>
       <c r="L17">
-        <v>12.0033662765084</v>
+        <v>12.0033406157362</v>
       </c>
       <c r="M17">
-        <v>62.4539949733448</v>
+        <v>62.4539753679971</v>
       </c>
       <c r="N17">
-        <v>12.7694407051705</v>
+        <v>12.7692551731009</v>
       </c>
       <c r="O17">
-        <v>1124.30709145135</v>
+        <v>1124.30839610466</v>
       </c>
       <c r="P17">
-        <v>50.0669056750836</v>
+        <v>50.0669703936256</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1146.24349084341</v>
+        <v>1146.24412809428</v>
       </c>
       <c r="C18">
-        <v>29.742632674612</v>
+        <v>29.742638629969</v>
       </c>
       <c r="D18">
-        <v>4.20834159919018</v>
+        <v>4.20834091717429</v>
       </c>
       <c r="E18">
-        <v>32.3525670313815</v>
+        <v>32.3526846684731</v>
       </c>
       <c r="F18">
-        <v>35.2315606822733</v>
+        <v>35.2313597200505</v>
       </c>
       <c r="G18">
-        <v>18.2375137666216</v>
+        <v>18.2375106888812</v>
       </c>
       <c r="H18">
-        <v>15.567069493533</v>
+        <v>15.5672238233635</v>
       </c>
       <c r="I18">
-        <v>2.65643255352068</v>
+        <v>2.65642783767639</v>
       </c>
       <c r="J18">
-        <v>33.1013288683716</v>
+        <v>33.1013428679434</v>
       </c>
       <c r="K18">
-        <v>8.243800026728311</v>
+        <v>8.243781911686851</v>
       </c>
       <c r="L18">
-        <v>30.9971604258766</v>
+        <v>30.9971949816242</v>
       </c>
       <c r="M18">
-        <v>69.50159757306901</v>
+        <v>69.501734771443</v>
       </c>
       <c r="N18">
-        <v>24.2728011098728</v>
+        <v>24.2728275703483</v>
       </c>
       <c r="O18">
-        <v>1551.06571805785</v>
+        <v>1551.06650107648</v>
       </c>
       <c r="P18">
-        <v>63.6077189499865</v>
+        <v>63.607766622088</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1109.97037947783</v>
+        <v>1109.97098372915</v>
       </c>
       <c r="C19">
-        <v>33.6237168987241</v>
+        <v>33.623792019115</v>
       </c>
       <c r="D19">
-        <v>4.26351467202835</v>
+        <v>4.26349038044842</v>
       </c>
       <c r="E19">
-        <v>45.3851607273068</v>
+        <v>45.3858787757266</v>
       </c>
       <c r="F19">
-        <v>80.2953679885715</v>
+        <v>80.29530924484951</v>
       </c>
       <c r="G19">
-        <v>49.5777717385489</v>
+        <v>49.5776879669447</v>
       </c>
       <c r="H19">
-        <v>12.1928883317178</v>
+        <v>12.1928699490383</v>
       </c>
       <c r="I19">
-        <v>4.44118265990125</v>
+        <v>4.44118921182498</v>
       </c>
       <c r="J19">
-        <v>19.9145832409524</v>
+        <v>19.9144470162481</v>
       </c>
       <c r="K19">
-        <v>6.50584925300031</v>
+        <v>6.50575883485865</v>
       </c>
       <c r="L19">
-        <v>1.65016958687708</v>
+        <v>1.65016552277467</v>
       </c>
       <c r="M19">
-        <v>36.2026021580698</v>
+        <v>36.2025885121551</v>
       </c>
       <c r="N19">
-        <v>11.003833441512</v>
+        <v>11.0038450168823</v>
       </c>
       <c r="O19">
-        <v>1595.97147617816</v>
+        <v>1595.97226400883</v>
       </c>
       <c r="P19">
-        <v>43.4787146923165</v>
+        <v>43.4788098633323</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>284.19606151358</v>
+        <v>284.195576009098</v>
       </c>
       <c r="C20">
-        <v>11.0611219613983</v>
+        <v>11.0611009807982</v>
       </c>
       <c r="D20">
-        <v>6.42932655167144</v>
+        <v>6.42927672475385</v>
       </c>
       <c r="E20">
-        <v>33.8769042805407</v>
+        <v>33.8767900560572</v>
       </c>
       <c r="F20">
-        <v>1.36175500929865</v>
+        <v>1.36201317462249</v>
       </c>
       <c r="G20">
-        <v>3.30741836716809</v>
+        <v>3.30827108076928</v>
       </c>
       <c r="H20">
-        <v>0.567234380310274</v>
+        <v>0.5672741653751841</v>
       </c>
       <c r="I20">
-        <v>2.05222259309689</v>
+        <v>2.05222045323688</v>
       </c>
       <c r="J20">
-        <v>5.26429562929944</v>
+        <v>5.26426099991279</v>
       </c>
       <c r="K20">
-        <v>0.581625713299055</v>
+        <v>0.581603517092797</v>
       </c>
       <c r="L20">
-        <v>7.63735984564111</v>
+        <v>7.63729151892102</v>
       </c>
       <c r="M20">
-        <v>19.6512755961218</v>
+        <v>19.6512185193756</v>
       </c>
       <c r="N20">
-        <v>6.59017511671463</v>
+        <v>6.59014443568455</v>
       </c>
       <c r="O20">
-        <v>585.398082395663</v>
+        <v>585.397948023837</v>
       </c>
       <c r="P20">
-        <v>21.3688080162185</v>
+        <v>21.3687563496528</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1044.92244205559</v>
+        <v>1044.92178461782</v>
       </c>
       <c r="C21">
-        <v>18.3384746626322</v>
+        <v>18.3384694975889</v>
       </c>
       <c r="D21">
-        <v>1.80316601928618</v>
+        <v>1.80314863473237</v>
       </c>
       <c r="E21">
-        <v>21.6844152500023</v>
+        <v>21.6840353186942</v>
       </c>
       <c r="F21">
-        <v>1.90718184567814</v>
+        <v>1.91257043952213</v>
       </c>
       <c r="G21">
-        <v>13.1359245415465</v>
+        <v>13.1358749313395</v>
       </c>
       <c r="H21">
-        <v>6.72774688316531</v>
+        <v>6.72766423063978</v>
       </c>
       <c r="I21">
-        <v>18.173993698527</v>
+        <v>18.1739342327156</v>
       </c>
       <c r="J21">
-        <v>15.7249398629737</v>
+        <v>15.7249021652073</v>
       </c>
       <c r="K21">
-        <v>1.29660401088665</v>
+        <v>1.2965880148041</v>
       </c>
       <c r="L21">
-        <v>27.7645713612737</v>
+        <v>27.7645062729862</v>
       </c>
       <c r="M21">
-        <v>17.2931621433592</v>
+        <v>17.2931309608534</v>
       </c>
       <c r="N21">
-        <v>14.4589397486784</v>
+        <v>14.4589136249706</v>
       </c>
       <c r="O21">
-        <v>2391.33095627974</v>
+        <v>2391.32897105468</v>
       </c>
       <c r="P21">
-        <v>18.646379143307</v>
+        <v>18.6463846879584</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1180.87462325201</v>
+        <v>1180.87557233313</v>
       </c>
       <c r="C22">
-        <v>21.3856992893865</v>
+        <v>21.3857265599468</v>
       </c>
       <c r="D22">
-        <v>13.5175088065558</v>
+        <v>13.5174983501544</v>
       </c>
       <c r="E22">
-        <v>47.4154114425503</v>
+        <v>47.4154232751596</v>
       </c>
       <c r="F22">
-        <v>3.5346698267618</v>
+        <v>3.53434274319711</v>
       </c>
       <c r="G22">
-        <v>29.7703764210553</v>
+        <v>29.7703337332801</v>
       </c>
       <c r="H22">
-        <v>16.7002014319352</v>
+        <v>16.7001294662757</v>
       </c>
       <c r="I22">
-        <v>13.1189066657118</v>
+        <v>13.1188020446142</v>
       </c>
       <c r="J22">
-        <v>40.0546469981395</v>
+        <v>40.0545617814908</v>
       </c>
       <c r="K22">
-        <v>3.3781390386195</v>
+        <v>3.37812642237792</v>
       </c>
       <c r="L22">
-        <v>105.664821540962</v>
+        <v>105.664450031239</v>
       </c>
       <c r="M22">
-        <v>16.9141393822515</v>
+        <v>16.9141036011378</v>
       </c>
       <c r="N22">
-        <v>63.1478278090225</v>
+        <v>63.1477971680556</v>
       </c>
       <c r="O22">
-        <v>2699.36133321596</v>
+        <v>2699.36257372236</v>
       </c>
       <c r="P22">
-        <v>11.5955995726073</v>
+        <v>11.5956164215119</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2334.91863584897</v>
+        <v>2334.91845791164</v>
       </c>
       <c r="C23">
-        <v>26.0435482064802</v>
+        <v>26.0435538672055</v>
       </c>
       <c r="D23">
-        <v>6.4298091701129</v>
+        <v>6.42980349863012</v>
       </c>
       <c r="E23">
-        <v>55.1058387953556</v>
+        <v>55.1058833977337</v>
       </c>
       <c r="F23">
-        <v>5.25775479986173</v>
+        <v>5.2589731532532</v>
       </c>
       <c r="G23">
-        <v>54.6007405790338</v>
+        <v>54.6011504481205</v>
       </c>
       <c r="H23">
-        <v>53.2574731087798</v>
+        <v>53.2574824521629</v>
       </c>
       <c r="I23">
-        <v>18.4121462927252</v>
+        <v>18.4121474909576</v>
       </c>
       <c r="J23">
-        <v>123.613443203367</v>
+        <v>123.613410451458</v>
       </c>
       <c r="K23">
-        <v>57.1902574468381</v>
+        <v>57.1901762999882</v>
       </c>
       <c r="L23">
-        <v>29.7204322497556</v>
+        <v>29.7203872157829</v>
       </c>
       <c r="M23">
-        <v>539.502252917633</v>
+        <v>539.5021184165501</v>
       </c>
       <c r="N23">
-        <v>89.6048677620639</v>
+        <v>89.60486319184651</v>
       </c>
       <c r="O23">
-        <v>3447.66221256381</v>
+        <v>3447.66226682546</v>
       </c>
       <c r="P23">
-        <v>51.2687868095926</v>
+        <v>51.2688208786674</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>784.295438054468</v>
+        <v>784.296226670456</v>
       </c>
       <c r="C24">
-        <v>45.9287393910182</v>
+        <v>45.9287621362484</v>
       </c>
       <c r="D24">
-        <v>5.48833303243049</v>
+        <v>5.48830692449013</v>
       </c>
       <c r="E24">
-        <v>52.4410743554328</v>
+        <v>52.4410423914437</v>
       </c>
       <c r="F24">
-        <v>12.3347117955401</v>
+        <v>12.3346566651136</v>
       </c>
       <c r="G24">
-        <v>27.13130208221</v>
+        <v>27.1309451341994</v>
       </c>
       <c r="H24">
-        <v>16.0707858071916</v>
+        <v>16.0707413796696</v>
       </c>
       <c r="I24">
-        <v>17.7018559610637</v>
+        <v>17.7017197688938</v>
       </c>
       <c r="J24">
-        <v>61.3996715603675</v>
+        <v>61.3995272046206</v>
       </c>
       <c r="K24">
-        <v>18.5558512758727</v>
+        <v>18.555655810335</v>
       </c>
       <c r="L24">
-        <v>64.64615152784761</v>
+        <v>64.6459019673304</v>
       </c>
       <c r="M24">
-        <v>26.3342573246325</v>
+        <v>26.3342288762751</v>
       </c>
       <c r="N24">
-        <v>76.3277188720448</v>
+        <v>76.3275951165767</v>
       </c>
       <c r="O24">
-        <v>2056.24719231906</v>
+        <v>2056.24862160732</v>
       </c>
       <c r="P24">
-        <v>96.7567896873599</v>
+        <v>96.75692956780971</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>812.696844928216</v>
+        <v>812.697175334337</v>
       </c>
       <c r="C25">
-        <v>46.5712334599273</v>
+        <v>46.5712438036174</v>
       </c>
       <c r="D25">
-        <v>11.5053982805694</v>
+        <v>11.5052971457897</v>
       </c>
       <c r="E25">
-        <v>46.7706785472089</v>
+        <v>46.7706384275226</v>
       </c>
       <c r="F25">
-        <v>15.2834821092138</v>
+        <v>15.283418772254</v>
       </c>
       <c r="G25">
-        <v>14.4055889893317</v>
+        <v>14.4055301104175</v>
       </c>
       <c r="H25">
-        <v>6.38716131860651</v>
+        <v>6.38717944992129</v>
       </c>
       <c r="I25">
-        <v>4.83991619880033</v>
+        <v>4.83991490693212</v>
       </c>
       <c r="J25">
-        <v>8.96661729020618</v>
+        <v>8.96660432001611</v>
       </c>
       <c r="K25">
-        <v>6.51475184100862</v>
+        <v>6.51472797948866</v>
       </c>
       <c r="L25">
-        <v>10.7636352042357</v>
+        <v>10.7636083426255</v>
       </c>
       <c r="M25">
-        <v>39.2767614673677</v>
+        <v>39.276761514803</v>
       </c>
       <c r="N25">
-        <v>39.7097260966481</v>
+        <v>39.7096975344181</v>
       </c>
       <c r="O25">
-        <v>982.73092215215</v>
+        <v>982.7313507322031</v>
       </c>
       <c r="P25">
-        <v>42.6564786368046</v>
+        <v>42.6564995970818</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1121.18829250573</v>
+        <v>1121.18882795781</v>
       </c>
       <c r="C26">
-        <v>53.3508763642534</v>
+        <v>53.3508835240645</v>
       </c>
       <c r="D26">
-        <v>3.79572260669482</v>
+        <v>3.79568168949484</v>
       </c>
       <c r="E26">
-        <v>49.9900723448403</v>
+        <v>49.9899673548699</v>
       </c>
       <c r="F26">
-        <v>7.83874001084895</v>
+        <v>7.83857423093093</v>
       </c>
       <c r="G26">
-        <v>42.1143211658077</v>
+        <v>42.1141930002644</v>
       </c>
       <c r="H26">
-        <v>10.158110617354</v>
+        <v>10.1580693453149</v>
       </c>
       <c r="I26">
-        <v>11.0977914038938</v>
+        <v>11.0977648716147</v>
       </c>
       <c r="J26">
-        <v>27.6327693022325</v>
+        <v>27.6327237629884</v>
       </c>
       <c r="K26">
-        <v>7.60874569930112</v>
+        <v>7.60859379340967</v>
       </c>
       <c r="L26">
-        <v>26.2065674168263</v>
+        <v>26.2064293576737</v>
       </c>
       <c r="M26">
-        <v>72.895805575561</v>
+        <v>72.8956944479676</v>
       </c>
       <c r="N26">
-        <v>26.4880587513099</v>
+        <v>26.4880184261478</v>
       </c>
       <c r="O26">
-        <v>2341.94474658973</v>
+        <v>2341.94572826347</v>
       </c>
       <c r="P26">
-        <v>60.8061364918578</v>
+        <v>60.8062196648584</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>222.069910060527</v>
+        <v>222.076178662702</v>
       </c>
       <c r="C27">
-        <v>1.54891517090009</v>
+        <v>1.54887602759383</v>
       </c>
       <c r="D27">
-        <v>2.62908543321727</v>
+        <v>2.62868622319847</v>
       </c>
       <c r="E27">
-        <v>13.6408487719718</v>
+        <v>13.6403049811367</v>
       </c>
       <c r="F27">
-        <v>7.50386487846839</v>
+        <v>7.50360829929867</v>
       </c>
       <c r="G27">
-        <v>0.440212132005599</v>
+        <v>0.440167490134858</v>
       </c>
       <c r="H27">
-        <v>0.3232317556056</v>
+        <v>0.32537481638068</v>
       </c>
       <c r="I27">
-        <v>2.82055983034367</v>
+        <v>2.82052342160706</v>
       </c>
       <c r="J27">
-        <v>3.10590599242979</v>
+        <v>3.10577696568167</v>
       </c>
       <c r="K27">
-        <v>1.17751686579832</v>
+        <v>1.1774600890593</v>
       </c>
       <c r="L27">
-        <v>3.5389295626672</v>
+        <v>3.53875714410202</v>
       </c>
       <c r="M27">
-        <v>0.943256193508316</v>
+        <v>0.943159848588545</v>
       </c>
       <c r="N27">
-        <v>3.89098268775632</v>
+        <v>3.89089117510381</v>
       </c>
       <c r="O27">
-        <v>439.504062489593</v>
+        <v>439.500038897077</v>
       </c>
       <c r="P27">
-        <v>52.5964827503888</v>
+        <v>52.5953369575669</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>262.777972657175</v>
+        <v>262.778146002168</v>
       </c>
       <c r="C28">
-        <v>38.6608674688657</v>
+        <v>38.6608763265955</v>
       </c>
       <c r="D28">
-        <v>1.81504149911434</v>
+        <v>1.81488754061606</v>
       </c>
       <c r="E28">
-        <v>9.81977881270563</v>
+        <v>9.8197771023287</v>
       </c>
       <c r="F28">
-        <v>0.639144754643346</v>
+        <v>0.639143088152884</v>
       </c>
       <c r="G28">
-        <v>4.80396662385899</v>
+        <v>4.80393435946052</v>
       </c>
       <c r="H28">
-        <v>7.22060153265194</v>
+        <v>7.22051805309565</v>
       </c>
       <c r="I28">
-        <v>3.54399764205585</v>
+        <v>3.54401019367189</v>
       </c>
       <c r="J28">
-        <v>20.0843102966641</v>
+        <v>20.0842941952975</v>
       </c>
       <c r="K28">
-        <v>11.2971424817934</v>
+        <v>11.2970771763227</v>
       </c>
       <c r="L28">
-        <v>10.7453420517256</v>
+        <v>10.7452998542939</v>
       </c>
       <c r="M28">
-        <v>11.1910847298962</v>
+        <v>11.1910818070859</v>
       </c>
       <c r="N28">
-        <v>10.9712500671248</v>
+        <v>10.9712354946384</v>
       </c>
       <c r="O28">
-        <v>788.383753287198</v>
+        <v>788.383894426093</v>
       </c>
       <c r="P28">
-        <v>76.3226770300212</v>
+        <v>76.32272271135091</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>451.675309854195</v>
+        <v>451.676235500277</v>
       </c>
       <c r="C29">
-        <v>3.31973704093707</v>
+        <v>3.31975127809631</v>
       </c>
       <c r="D29">
-        <v>1.34423491753328</v>
+        <v>1.34417218623888</v>
       </c>
       <c r="E29">
-        <v>5.10620098689134</v>
+        <v>5.10621996223577</v>
       </c>
       <c r="F29">
-        <v>26.576436296894</v>
+        <v>26.576331290108</v>
       </c>
       <c r="G29">
-        <v>6.22169210413653</v>
+        <v>6.22145889014222</v>
       </c>
       <c r="H29">
-        <v>1.34239730710474</v>
+        <v>1.34225444707257</v>
       </c>
       <c r="I29">
-        <v>1.68846716749299</v>
+        <v>1.68850193037235</v>
       </c>
       <c r="J29">
-        <v>5.58361283334312</v>
+        <v>5.58359311475</v>
       </c>
       <c r="K29">
-        <v>0.991713135855694</v>
+        <v>0.991564078741543</v>
       </c>
       <c r="L29">
-        <v>4.64226985027472</v>
+        <v>4.64219454275689</v>
       </c>
       <c r="M29">
-        <v>3.83788838706506</v>
+        <v>3.83788437109735</v>
       </c>
       <c r="N29">
-        <v>11.4252030575251</v>
+        <v>11.4252129335585</v>
       </c>
       <c r="O29">
-        <v>1100.1322084886</v>
+        <v>1100.13368712651</v>
       </c>
       <c r="P29">
-        <v>4.1753634707702</v>
+        <v>4.17541496229605</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>223.306842274434</v>
+        <v>223.307016550679</v>
       </c>
       <c r="C30">
-        <v>3.56747230246656</v>
+        <v>3.56747229632969</v>
       </c>
       <c r="D30">
-        <v>4.27019777252057</v>
+        <v>4.27017415014526</v>
       </c>
       <c r="E30">
-        <v>13.6682069254937</v>
+        <v>13.6682171156563</v>
       </c>
       <c r="F30">
-        <v>0.0912874233141108</v>
+        <v>0.0912840234791044</v>
       </c>
       <c r="G30">
-        <v>4.5356458410997</v>
+        <v>4.53564739580435</v>
       </c>
       <c r="H30">
-        <v>5.5640293785726</v>
+        <v>5.56407711117862</v>
       </c>
       <c r="I30">
-        <v>2.60520521359678</v>
+        <v>2.60520354671126</v>
       </c>
       <c r="J30">
-        <v>18.6522917610797</v>
+        <v>18.6523015675857</v>
       </c>
       <c r="K30">
-        <v>5.11314319252146</v>
+        <v>5.11314178188769</v>
       </c>
       <c r="L30">
-        <v>47.9553525420364</v>
+        <v>47.9554437501378</v>
       </c>
       <c r="M30">
-        <v>9.595937712814971</v>
+        <v>9.59594803618147</v>
       </c>
       <c r="N30">
-        <v>14.844564989957</v>
+        <v>14.8445755276178</v>
       </c>
       <c r="O30">
-        <v>586.23463000431</v>
+        <v>586.234891255639</v>
       </c>
       <c r="P30">
-        <v>7.71202897221194</v>
+        <v>7.71203822634734</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1600.69301048692</v>
+        <v>1600.69362711633</v>
       </c>
       <c r="C31">
-        <v>62.4215707056725</v>
+        <v>62.421563412593</v>
       </c>
       <c r="D31">
-        <v>10.9449317096253</v>
+        <v>10.9449027285504</v>
       </c>
       <c r="E31">
-        <v>40.1319929825853</v>
+        <v>40.1319646416435</v>
       </c>
       <c r="F31">
-        <v>4.29065330903811</v>
+        <v>4.28979393961329</v>
       </c>
       <c r="G31">
-        <v>97.52443451485981</v>
+        <v>97.5236350212916</v>
       </c>
       <c r="H31">
-        <v>8.33835360687452</v>
+        <v>8.33834703378364</v>
       </c>
       <c r="I31">
-        <v>16.0312526512063</v>
+        <v>16.0312368657066</v>
       </c>
       <c r="J31">
-        <v>31.3990400737766</v>
+        <v>31.399026539975</v>
       </c>
       <c r="K31">
-        <v>4.69883743262492</v>
+        <v>4.69879399438898</v>
       </c>
       <c r="L31">
-        <v>60.500978119817</v>
+        <v>60.5008603046342</v>
       </c>
       <c r="M31">
-        <v>19.6837454398837</v>
+        <v>19.6837467241468</v>
       </c>
       <c r="N31">
-        <v>72.635176167339</v>
+        <v>72.6350972123286</v>
       </c>
       <c r="O31">
-        <v>3724.67794922686</v>
+        <v>3724.67876490664</v>
       </c>
       <c r="P31">
-        <v>17.9527405704459</v>
+        <v>17.9527719783796</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>464.282514948502</v>
+        <v>464.277660209839</v>
       </c>
       <c r="C32">
-        <v>3.09882359302196</v>
+        <v>3.09874754940104</v>
       </c>
       <c r="D32">
-        <v>0.513599255070422</v>
+        <v>0.513533877993213</v>
       </c>
       <c r="E32">
-        <v>3.48498896183695</v>
+        <v>3.48484341537484</v>
       </c>
       <c r="F32">
-        <v>22.1192105997734</v>
+        <v>22.1191135570142</v>
       </c>
       <c r="G32">
-        <v>1.98079116545887</v>
+        <v>1.98555082287741</v>
       </c>
       <c r="H32">
-        <v>0.753510501482624</v>
+        <v>0.76328255561725</v>
       </c>
       <c r="I32">
-        <v>0.8956531234483081</v>
+        <v>0.895639992282389</v>
       </c>
       <c r="J32">
-        <v>3.25715218921728</v>
+        <v>3.25696933455591</v>
       </c>
       <c r="K32">
-        <v>3.16927637426526</v>
+        <v>3.16911336956856</v>
       </c>
       <c r="L32">
-        <v>8.928793212667911</v>
+        <v>8.928427080479331</v>
       </c>
       <c r="M32">
-        <v>7.38614050066416</v>
+        <v>7.38594308842029</v>
       </c>
       <c r="N32">
-        <v>16.0559208853092</v>
+        <v>16.0555965123368</v>
       </c>
       <c r="O32">
-        <v>781.087003823424</v>
+        <v>781.073712750881</v>
       </c>
       <c r="P32">
-        <v>20.5353437420777</v>
+        <v>20.5349163177572</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4315.46896243463</v>
+        <v>4315.47040730316</v>
       </c>
       <c r="C33">
-        <v>91.11005981116671</v>
+        <v>91.11009006179801</v>
       </c>
       <c r="D33">
-        <v>21.5157068809111</v>
+        <v>21.515651865633</v>
       </c>
       <c r="E33">
-        <v>76.4598485888222</v>
+        <v>76.45982442380421</v>
       </c>
       <c r="F33">
-        <v>9.358952417189039</v>
+        <v>9.358812786405711</v>
       </c>
       <c r="G33">
-        <v>70.20093650127539</v>
+        <v>70.2008013849529</v>
       </c>
       <c r="H33">
-        <v>43.8551678625064</v>
+        <v>43.8549731458291</v>
       </c>
       <c r="I33">
-        <v>19.4892286605739</v>
+        <v>19.4892040416849</v>
       </c>
       <c r="J33">
-        <v>88.8846073328419</v>
+        <v>88.8845390969999</v>
       </c>
       <c r="K33">
-        <v>61.2561757591647</v>
+        <v>61.255922762628</v>
       </c>
       <c r="L33">
-        <v>103.318687655564</v>
+        <v>103.318539845197</v>
       </c>
       <c r="M33">
-        <v>61.649032311601</v>
+        <v>61.6490055198549</v>
       </c>
       <c r="N33">
-        <v>155.731784571619</v>
+        <v>155.731683395135</v>
       </c>
       <c r="O33">
-        <v>7590.0572025099</v>
+        <v>7590.05935687294</v>
       </c>
       <c r="P33">
-        <v>60.8523731952277</v>
+        <v>60.8523022286694</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1861.26590590857</v>
+        <v>1861.2677557552</v>
       </c>
       <c r="C34">
-        <v>68.07524124294611</v>
+        <v>68.0753006697027</v>
       </c>
       <c r="D34">
-        <v>99.69497652670501</v>
+        <v>99.69491978154331</v>
       </c>
       <c r="E34">
-        <v>56.4355194013294</v>
+        <v>56.4355292627592</v>
       </c>
       <c r="F34">
-        <v>1.57177779147209</v>
+        <v>1.5712745045132</v>
       </c>
       <c r="G34">
-        <v>47.2741275173775</v>
+        <v>47.2741185705443</v>
       </c>
       <c r="H34">
-        <v>47.5708525469996</v>
+        <v>47.5709778762678</v>
       </c>
       <c r="I34">
-        <v>14.5117674080249</v>
+        <v>14.5117721057569</v>
       </c>
       <c r="J34">
-        <v>44.4814255046913</v>
+        <v>44.4811825538046</v>
       </c>
       <c r="K34">
-        <v>7.66314265782261</v>
+        <v>7.66274375672365</v>
       </c>
       <c r="L34">
-        <v>123.452870690849</v>
+        <v>123.452502277367</v>
       </c>
       <c r="M34">
-        <v>31.5573889347048</v>
+        <v>31.5573373791221</v>
       </c>
       <c r="N34">
-        <v>129.110074674479</v>
+        <v>129.109829892374</v>
       </c>
       <c r="O34">
-        <v>3173.1983348487</v>
+        <v>3173.20031943791</v>
       </c>
       <c r="P34">
-        <v>74.1988762307768</v>
+        <v>74.19895675600461</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>112.576557612665</v>
+        <v>112.576324594716</v>
       </c>
       <c r="C35">
-        <v>7.91898180462199</v>
+        <v>7.91893586715154</v>
       </c>
       <c r="D35">
-        <v>0.266557863288415</v>
+        <v>0.266537703920165</v>
       </c>
       <c r="E35">
-        <v>2.76919687649777</v>
+        <v>2.76917066266737</v>
       </c>
       <c r="F35">
-        <v>4.47173528342599</v>
+        <v>4.47171235961942</v>
       </c>
       <c r="G35">
-        <v>0.57454914779393</v>
+        <v>0.575386666810818</v>
       </c>
       <c r="H35">
-        <v>0.685936130611558</v>
+        <v>0.685927174711515</v>
       </c>
       <c r="I35">
-        <v>1.04824176396855</v>
+        <v>1.0482372234736</v>
       </c>
       <c r="J35">
-        <v>3.6862584151674</v>
+        <v>3.68621057196556</v>
       </c>
       <c r="K35">
-        <v>5.72763284544753</v>
+        <v>5.72751905230069</v>
       </c>
       <c r="L35">
-        <v>3.06687297653305</v>
+        <v>3.06684342353006</v>
       </c>
       <c r="M35">
-        <v>2.38551871582696</v>
+        <v>2.38548128429972</v>
       </c>
       <c r="N35">
-        <v>5.06325777802899</v>
+        <v>5.06321689186347</v>
       </c>
       <c r="O35">
-        <v>317.455207466122</v>
+        <v>317.454616124199</v>
       </c>
       <c r="P35">
-        <v>50.3810518120249</v>
+        <v>50.3809271277781</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2533.09861037965</v>
+        <v>2533.09952716586</v>
       </c>
       <c r="C36">
-        <v>65.4537078638715</v>
+        <v>65.45372695480469</v>
       </c>
       <c r="D36">
-        <v>11.6839615224041</v>
+        <v>11.683897807381</v>
       </c>
       <c r="E36">
-        <v>147.612107860391</v>
+        <v>147.612129651301</v>
       </c>
       <c r="F36">
-        <v>29.7948474732974</v>
+        <v>29.7940550026951</v>
       </c>
       <c r="G36">
-        <v>83.3132308084305</v>
+        <v>83.3131284469622</v>
       </c>
       <c r="H36">
-        <v>67.984340534856</v>
+        <v>67.9842325978553</v>
       </c>
       <c r="I36">
-        <v>36.2217884249685</v>
+        <v>36.2217803425091</v>
       </c>
       <c r="J36">
-        <v>192.809172569452</v>
+        <v>192.808987599293</v>
       </c>
       <c r="K36">
-        <v>50.6525629731469</v>
+        <v>50.6523793751891</v>
       </c>
       <c r="L36">
-        <v>62.4239741338598</v>
+        <v>62.4239111246407</v>
       </c>
       <c r="M36">
-        <v>194.410339971425</v>
+        <v>194.410217210568</v>
       </c>
       <c r="N36">
-        <v>98.0310012697398</v>
+        <v>98.0309613012262</v>
       </c>
       <c r="O36">
-        <v>4278.66277381261</v>
+        <v>4278.66407683355</v>
       </c>
       <c r="P36">
-        <v>44.6990672085224</v>
+        <v>44.6991079498655</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>780.609899532909</v>
+        <v>780.608785003836</v>
       </c>
       <c r="C37">
-        <v>19.3356248530817</v>
+        <v>19.3355964190132</v>
       </c>
       <c r="D37">
-        <v>3.14620732885052</v>
+        <v>3.14928209432118</v>
       </c>
       <c r="E37">
-        <v>15.8344727580265</v>
+        <v>15.8375192132021</v>
       </c>
       <c r="F37">
-        <v>30.0608328810251</v>
+        <v>30.0607081498022</v>
       </c>
       <c r="G37">
-        <v>8.38227607734026</v>
+        <v>8.38205402770784</v>
       </c>
       <c r="H37">
-        <v>24.3117367889495</v>
+        <v>24.311699542675</v>
       </c>
       <c r="I37">
-        <v>11.05757509687</v>
+        <v>11.0575691406489</v>
       </c>
       <c r="J37">
-        <v>35.5957828003678</v>
+        <v>35.5956922615077</v>
       </c>
       <c r="K37">
-        <v>4.88895479299056</v>
+        <v>4.88892244025766</v>
       </c>
       <c r="L37">
-        <v>16.965959258956</v>
+        <v>16.9658658240711</v>
       </c>
       <c r="M37">
-        <v>43.8921085430599</v>
+        <v>43.8920152913834</v>
       </c>
       <c r="N37">
-        <v>20.5815960008613</v>
+        <v>20.581478275764</v>
       </c>
       <c r="O37">
-        <v>1312.36764033425</v>
+        <v>1312.36567248361</v>
       </c>
       <c r="P37">
-        <v>54.2084568454019</v>
+        <v>54.2084042385819</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>794.340143553586</v>
+        <v>794.341714033341</v>
       </c>
       <c r="C38">
-        <v>24.9255882427635</v>
+        <v>24.9256181788253</v>
       </c>
       <c r="D38">
-        <v>4.6644973823699</v>
+        <v>4.66438302840854</v>
       </c>
       <c r="E38">
-        <v>45.5444361697263</v>
+        <v>45.544676559128</v>
       </c>
       <c r="F38">
-        <v>1.46548425886451</v>
+        <v>1.4654276136256</v>
       </c>
       <c r="G38">
-        <v>11.6904727559395</v>
+        <v>11.6898932025399</v>
       </c>
       <c r="H38">
-        <v>2.48774603445738</v>
+        <v>2.48735627923572</v>
       </c>
       <c r="I38">
-        <v>1.32625069331977</v>
+        <v>1.32647000752332</v>
       </c>
       <c r="J38">
-        <v>35.2688204508834</v>
+        <v>35.2685412433897</v>
       </c>
       <c r="K38">
-        <v>3.03774695751576</v>
+        <v>3.03773395836089</v>
       </c>
       <c r="L38">
-        <v>76.7703798567057</v>
+        <v>76.7700722569647</v>
       </c>
       <c r="M38">
-        <v>21.3122143395699</v>
+        <v>21.3120310332204</v>
       </c>
       <c r="N38">
-        <v>36.8016905511709</v>
+        <v>36.8012850705779</v>
       </c>
       <c r="O38">
-        <v>1405.53779274108</v>
+        <v>1405.54129309171</v>
       </c>
       <c r="P38">
-        <v>65.4924422905233</v>
+        <v>65.4926685577623</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2670.90872172288</v>
+        <v>2670.90965532595</v>
       </c>
       <c r="C39">
-        <v>98.8987135707163</v>
+        <v>98.89874752823749</v>
       </c>
       <c r="D39">
-        <v>33.3832134819466</v>
+        <v>33.3831626165351</v>
       </c>
       <c r="E39">
-        <v>127.881317921101</v>
+        <v>127.881334399654</v>
       </c>
       <c r="F39">
-        <v>24.5990928837048</v>
+        <v>24.598565926507</v>
       </c>
       <c r="G39">
-        <v>126.157466116368</v>
+        <v>126.15733368155</v>
       </c>
       <c r="H39">
-        <v>51.0977566869792</v>
+        <v>51.0976252188233</v>
       </c>
       <c r="I39">
-        <v>28.6369083132938</v>
+        <v>28.6368882410013</v>
       </c>
       <c r="J39">
-        <v>179.701484699473</v>
+        <v>179.701316107022</v>
       </c>
       <c r="K39">
-        <v>54.1259221956439</v>
+        <v>54.1256907816062</v>
       </c>
       <c r="L39">
-        <v>109.611072231242</v>
+        <v>109.610936822455</v>
       </c>
       <c r="M39">
-        <v>82.6091302548452</v>
+        <v>82.609092461766</v>
       </c>
       <c r="N39">
-        <v>125.439207715475</v>
+        <v>125.43912607822</v>
       </c>
       <c r="O39">
-        <v>4881.2674025712</v>
+        <v>4881.26898558457</v>
       </c>
       <c r="P39">
-        <v>53.3742759737314</v>
+        <v>53.374327924088</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>240.081129842232</v>
+        <v>240.081327742407</v>
       </c>
       <c r="C40">
-        <v>4.35244766401288</v>
+        <v>4.35245100783012</v>
       </c>
       <c r="D40">
-        <v>7.70526510997259</v>
+        <v>7.70524446473656</v>
       </c>
       <c r="E40">
-        <v>4.25744768786798</v>
+        <v>4.25745861632635</v>
       </c>
       <c r="F40">
-        <v>0.532925956214972</v>
+        <v>0.532624080404893</v>
       </c>
       <c r="G40">
-        <v>4.43155054275222</v>
+        <v>4.43157610817788</v>
       </c>
       <c r="H40">
-        <v>3.74357861811111</v>
+        <v>3.74362505971383</v>
       </c>
       <c r="I40">
-        <v>1.2666732002288</v>
+        <v>1.26667523379438</v>
       </c>
       <c r="J40">
-        <v>12.2291042919705</v>
+        <v>12.2291290601902</v>
       </c>
       <c r="K40">
-        <v>0.8603897969929371</v>
+        <v>0.860391494477593</v>
       </c>
       <c r="L40">
-        <v>12.6414086360093</v>
+        <v>12.6414119894143</v>
       </c>
       <c r="M40">
-        <v>4.6308782849939</v>
+        <v>4.63088456775375</v>
       </c>
       <c r="N40">
-        <v>23.0793519738243</v>
+        <v>23.0794211640933</v>
       </c>
       <c r="O40">
-        <v>501.907594359673</v>
+        <v>501.908002281043</v>
       </c>
       <c r="P40">
-        <v>3.9030742624437</v>
+        <v>3.90307439897939</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>984.4136110511</v>
+        <v>984.413251459846</v>
       </c>
       <c r="C41">
-        <v>14.1019362722479</v>
+        <v>14.1018761748345</v>
       </c>
       <c r="D41">
-        <v>68.87806117623489</v>
+        <v>68.8776518401024</v>
       </c>
       <c r="E41">
-        <v>38.2852622973461</v>
+        <v>38.2850717560055</v>
       </c>
       <c r="F41">
-        <v>1.8049566402835</v>
+        <v>1.80579596517309</v>
       </c>
       <c r="G41">
-        <v>31.4899642688728</v>
+        <v>31.4898792413346</v>
       </c>
       <c r="H41">
-        <v>35.9605947136704</v>
+        <v>35.9607000205521</v>
       </c>
       <c r="I41">
-        <v>13.0983270774603</v>
+        <v>13.0983686997215</v>
       </c>
       <c r="J41">
-        <v>36.8737589418396</v>
+        <v>36.8782149251961</v>
       </c>
       <c r="K41">
-        <v>7.64970454151473</v>
+        <v>7.6497108444159</v>
       </c>
       <c r="L41">
-        <v>25.4923342283145</v>
+        <v>25.4921464261895</v>
       </c>
       <c r="M41">
-        <v>30.3288956742955</v>
+        <v>30.3288381958719</v>
       </c>
       <c r="N41">
-        <v>15.6992603965432</v>
+        <v>15.6992009901043</v>
       </c>
       <c r="O41">
-        <v>1556.56215621419</v>
+        <v>1556.56080073935</v>
       </c>
       <c r="P41">
-        <v>32.034059764274</v>
+        <v>32.033981791317</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>137.72786632678</v>
+        <v>137.728029283972</v>
       </c>
       <c r="C42">
-        <v>7.96043990324418</v>
+        <v>7.96044594180492</v>
       </c>
       <c r="D42">
-        <v>1.50987390906</v>
+        <v>1.5097399623496</v>
       </c>
       <c r="E42">
-        <v>9.378552891263229</v>
+        <v>9.378643827719911</v>
       </c>
       <c r="F42">
-        <v>2.55405572660453</v>
+        <v>2.55407912275499</v>
       </c>
       <c r="G42">
-        <v>1.53881393596429</v>
+        <v>1.53884167464697</v>
       </c>
       <c r="H42">
-        <v>0.7200655469367751</v>
+        <v>0.720111584817987</v>
       </c>
       <c r="I42">
-        <v>2.25901442461722</v>
+        <v>2.25902741504283</v>
       </c>
       <c r="J42">
-        <v>6.41332824865042</v>
+        <v>6.4133692961018</v>
       </c>
       <c r="K42">
-        <v>4.37763722367583</v>
+        <v>4.37762628796794</v>
       </c>
       <c r="L42">
-        <v>6.86935168122713</v>
+        <v>6.8693373470669</v>
       </c>
       <c r="M42">
-        <v>5.44947321726439</v>
+        <v>5.44947987094593</v>
       </c>
       <c r="N42">
-        <v>13.2438187762704</v>
+        <v>13.2439060293405</v>
       </c>
       <c r="O42">
-        <v>393.744927388318</v>
+        <v>393.745404752772</v>
       </c>
       <c r="P42">
-        <v>57.6052351695983</v>
+        <v>57.6053019389432</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1504.71606154267</v>
+        <v>1504.71672498449</v>
       </c>
       <c r="C43">
-        <v>36.1610803827461</v>
+        <v>36.1611026797332</v>
       </c>
       <c r="D43">
-        <v>21.5166344991307</v>
+        <v>21.5163939599098</v>
       </c>
       <c r="E43">
-        <v>79.5116243369705</v>
+        <v>79.5116597812583</v>
       </c>
       <c r="F43">
-        <v>4.69050320739761</v>
+        <v>4.69016732043704</v>
       </c>
       <c r="G43">
-        <v>38.038662106632</v>
+        <v>38.0382534205095</v>
       </c>
       <c r="H43">
-        <v>49.9043967502021</v>
+        <v>49.9040614235412</v>
       </c>
       <c r="I43">
-        <v>18.6400757387248</v>
+        <v>18.6400071731081</v>
       </c>
       <c r="J43">
-        <v>55.8263397200799</v>
+        <v>55.8262764854863</v>
       </c>
       <c r="K43">
-        <v>9.900028282572229</v>
+        <v>9.89996201981063</v>
       </c>
       <c r="L43">
-        <v>38.7431182645508</v>
+        <v>38.7430275168585</v>
       </c>
       <c r="M43">
-        <v>91.09324513601911</v>
+        <v>91.0931548879267</v>
       </c>
       <c r="N43">
-        <v>69.8124682640824</v>
+        <v>69.8123761884364</v>
       </c>
       <c r="O43">
-        <v>2090.51941031616</v>
+        <v>2090.52042593937</v>
       </c>
       <c r="P43">
-        <v>36.1869055188191</v>
+        <v>36.1869453625951</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4393.79073343713</v>
+        <v>4393.79454988145</v>
       </c>
       <c r="C44">
-        <v>152.905998276698</v>
+        <v>152.906107112343</v>
       </c>
       <c r="D44">
-        <v>16.78092893016</v>
+        <v>16.7805615844631</v>
       </c>
       <c r="E44">
-        <v>92.35056208344059</v>
+        <v>92.3501991009929</v>
       </c>
       <c r="F44">
-        <v>233.863669532066</v>
+        <v>233.862746560769</v>
       </c>
       <c r="G44">
-        <v>111.787722947531</v>
+        <v>111.786451896981</v>
       </c>
       <c r="H44">
-        <v>36.1879807070341</v>
+        <v>36.187321915214</v>
       </c>
       <c r="I44">
-        <v>40.693025820648</v>
+        <v>40.6928948953868</v>
       </c>
       <c r="J44">
-        <v>111.80557693713</v>
+        <v>111.805319228627</v>
       </c>
       <c r="K44">
-        <v>31.236714249254</v>
+        <v>31.236546912786</v>
       </c>
       <c r="L44">
-        <v>157.070406073942</v>
+        <v>157.069904406033</v>
       </c>
       <c r="M44">
-        <v>78.51358074313011</v>
+        <v>78.5132764738467</v>
       </c>
       <c r="N44">
-        <v>87.8192307617702</v>
+        <v>87.81890495170271</v>
       </c>
       <c r="O44">
-        <v>8290.623161133821</v>
+        <v>8290.628063552471</v>
       </c>
       <c r="P44">
-        <v>213.546948618538</v>
+        <v>213.547288774689</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>416.626570468849</v>
+        <v>416.626309998089</v>
       </c>
       <c r="C45">
-        <v>18.5903189204409</v>
+        <v>18.590322375527</v>
       </c>
       <c r="D45">
-        <v>2.18924692500924</v>
+        <v>2.1888220358054</v>
       </c>
       <c r="E45">
-        <v>22.0445772765577</v>
+        <v>22.0440959722022</v>
       </c>
       <c r="F45">
-        <v>25.2174186249323</v>
+        <v>25.2171836849357</v>
       </c>
       <c r="G45">
-        <v>7.63980920674154</v>
+        <v>7.63975963512747</v>
       </c>
       <c r="H45">
-        <v>3.04329470895096</v>
+        <v>3.04321239185397</v>
       </c>
       <c r="I45">
-        <v>4.80969803464184</v>
+        <v>4.80987106288032</v>
       </c>
       <c r="J45">
-        <v>20.8768248241964</v>
+        <v>20.8766059833215</v>
       </c>
       <c r="K45">
-        <v>1.64873752612076</v>
+        <v>1.65288986722836</v>
       </c>
       <c r="L45">
-        <v>15.2440090235917</v>
+        <v>15.2438450733683</v>
       </c>
       <c r="M45">
-        <v>12.8896017738484</v>
+        <v>12.8894086353069</v>
       </c>
       <c r="N45">
-        <v>29.5298509254504</v>
+        <v>29.5296371551406</v>
       </c>
       <c r="O45">
-        <v>887.1270029022201</v>
+        <v>887.125514192838</v>
       </c>
       <c r="P45">
-        <v>20.5691248124472</v>
+        <v>20.5692064948112</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>120.717574671517</v>
+        <v>120.717649084201</v>
       </c>
       <c r="C46">
-        <v>6.23997323252051</v>
+        <v>6.23997708637335</v>
       </c>
       <c r="D46">
-        <v>0.91606214049181</v>
+        <v>0.916070647661445</v>
       </c>
       <c r="E46">
-        <v>5.75501828096947</v>
+        <v>5.75501533212391</v>
       </c>
       <c r="F46">
-        <v>0.750058490368047</v>
+        <v>0.750067973648041</v>
       </c>
       <c r="G46">
-        <v>1.92578224449091</v>
+        <v>1.92577583819547</v>
       </c>
       <c r="H46">
-        <v>0.767192424852416</v>
+        <v>0.76723832553209</v>
       </c>
       <c r="I46">
-        <v>1.56929026832726</v>
+        <v>1.56930402616669</v>
       </c>
       <c r="J46">
-        <v>5.28391903832056</v>
+        <v>5.28392396977173</v>
       </c>
       <c r="K46">
-        <v>1.43772319234843</v>
+        <v>1.43771295688031</v>
       </c>
       <c r="L46">
-        <v>14.6774304116088</v>
+        <v>14.6774628409684</v>
       </c>
       <c r="M46">
-        <v>3.32712536247908</v>
+        <v>3.3271290355025</v>
       </c>
       <c r="N46">
-        <v>12.3594154401189</v>
+        <v>12.3594327933022</v>
       </c>
       <c r="O46">
-        <v>343.362325481926</v>
+        <v>343.362428097559</v>
       </c>
       <c r="P46">
-        <v>9.82939533318144</v>
+        <v>9.829385769291241</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1512.08068205382</v>
+        <v>1512.08162722161</v>
       </c>
       <c r="C47">
-        <v>43.9856856325045</v>
+        <v>43.9857048560269</v>
       </c>
       <c r="D47">
-        <v>12.1541967691219</v>
+        <v>12.1541103145213</v>
       </c>
       <c r="E47">
-        <v>45.4237210359729</v>
+        <v>45.4238242247042</v>
       </c>
       <c r="F47">
-        <v>10.4889786267253</v>
+        <v>10.4877984643881</v>
       </c>
       <c r="G47">
-        <v>22.0503771594473</v>
+        <v>22.0503028339045</v>
       </c>
       <c r="H47">
-        <v>12.7102364930311</v>
+        <v>12.7102065185934</v>
       </c>
       <c r="I47">
-        <v>4.73799194013071</v>
+        <v>4.73801881206766</v>
       </c>
       <c r="J47">
-        <v>36.8417709025443</v>
+        <v>36.8416922490272</v>
       </c>
       <c r="K47">
-        <v>5.19830301856863</v>
+        <v>5.19819795251524</v>
       </c>
       <c r="L47">
-        <v>22.6000437808525</v>
+        <v>22.5999816403483</v>
       </c>
       <c r="M47">
-        <v>62.4832110709579</v>
+        <v>62.4831961076012</v>
       </c>
       <c r="N47">
-        <v>33.0670955132241</v>
+        <v>33.0671068131794</v>
       </c>
       <c r="O47">
-        <v>2998.12529135274</v>
+        <v>2998.12738805045</v>
       </c>
       <c r="P47">
-        <v>37.7659623144495</v>
+        <v>37.7660374434466</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1255.62136432315</v>
+        <v>1255.62282354898</v>
       </c>
       <c r="C48">
-        <v>37.3056375584221</v>
+        <v>37.3056260546321</v>
       </c>
       <c r="D48">
-        <v>4.08187778224746</v>
+        <v>4.08161854889441</v>
       </c>
       <c r="E48">
-        <v>70.04195890330421</v>
+        <v>70.0421364084475</v>
       </c>
       <c r="F48">
-        <v>10.873161931535</v>
+        <v>10.8731331965791</v>
       </c>
       <c r="G48">
-        <v>8.23371320566428</v>
+        <v>8.23344927936464</v>
       </c>
       <c r="H48">
-        <v>4.32708468584174</v>
+        <v>4.32716922369136</v>
       </c>
       <c r="I48">
-        <v>9.47388548244151</v>
+        <v>9.474274152575889</v>
       </c>
       <c r="J48">
-        <v>34.9969242422533</v>
+        <v>34.9965721116909</v>
       </c>
       <c r="K48">
-        <v>7.26200885447872</v>
+        <v>7.2695751337416</v>
       </c>
       <c r="L48">
-        <v>52.3321399360913</v>
+        <v>52.3311327681081</v>
       </c>
       <c r="M48">
-        <v>140.61982976105</v>
+        <v>140.619246355601</v>
       </c>
       <c r="N48">
-        <v>38.5170940535718</v>
+        <v>38.5170209754733</v>
       </c>
       <c r="O48">
-        <v>2420.07072971114</v>
+        <v>2420.07184482902</v>
       </c>
       <c r="P48">
-        <v>85.8914728272312</v>
+        <v>85.89160158507509</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>697.842729974141</v>
+        <v>697.842738628572</v>
       </c>
       <c r="C49">
-        <v>4.97317754416245</v>
+        <v>4.97317821494129</v>
       </c>
       <c r="D49">
-        <v>1.24731747077136</v>
+        <v>1.24729163372926</v>
       </c>
       <c r="E49">
-        <v>25.317864491188</v>
+        <v>25.3178534118262</v>
       </c>
       <c r="F49">
-        <v>29.7459701991122</v>
+        <v>29.7455672404692</v>
       </c>
       <c r="G49">
-        <v>12.890635243586</v>
+        <v>12.8906112584815</v>
       </c>
       <c r="H49">
-        <v>8.02421785800068</v>
+        <v>8.02418793002032</v>
       </c>
       <c r="I49">
-        <v>3.22348883736577</v>
+        <v>3.22348788856575</v>
       </c>
       <c r="J49">
-        <v>22.004914112285</v>
+        <v>22.0048839441919</v>
       </c>
       <c r="K49">
-        <v>1.76040158077421</v>
+        <v>1.76040202270547</v>
       </c>
       <c r="L49">
-        <v>1.8381802097801</v>
+        <v>1.83817369281237</v>
       </c>
       <c r="M49">
-        <v>3.80594866002832</v>
+        <v>3.80594911876566</v>
       </c>
       <c r="N49">
-        <v>5.51577101351676</v>
+        <v>5.51576837316523</v>
       </c>
       <c r="O49">
-        <v>651.921656307639</v>
+        <v>651.921625394235</v>
       </c>
       <c r="P49">
-        <v>8.241837159713111</v>
+        <v>8.2418391446627</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>930.783438470761</v>
+        <v>930.783973781819</v>
       </c>
       <c r="C50">
-        <v>74.9054881305515</v>
+        <v>74.9055083283093</v>
       </c>
       <c r="D50">
-        <v>7.24073826878125</v>
+        <v>7.24060960646341</v>
       </c>
       <c r="E50">
-        <v>134.472080515806</v>
+        <v>134.472041848024</v>
       </c>
       <c r="F50">
-        <v>4.37121569481861</v>
+        <v>4.37115886252194</v>
       </c>
       <c r="G50">
-        <v>33.4465683794837</v>
+        <v>33.4464352279838</v>
       </c>
       <c r="H50">
-        <v>37.5324399112374</v>
+        <v>37.5322357214743</v>
       </c>
       <c r="I50">
-        <v>13.0156592366745</v>
+        <v>13.015687138695</v>
       </c>
       <c r="J50">
-        <v>90.55732908604941</v>
+        <v>90.5572366892759</v>
       </c>
       <c r="K50">
-        <v>45.7330991254455</v>
+        <v>45.7329765180614</v>
       </c>
       <c r="L50">
-        <v>56.5541838653656</v>
+        <v>56.5541399455014</v>
       </c>
       <c r="M50">
-        <v>50.0587722061867</v>
+        <v>50.0587388710586</v>
       </c>
       <c r="N50">
-        <v>54.602816597888</v>
+        <v>54.6027901733216</v>
       </c>
       <c r="O50">
-        <v>2174.41045168247</v>
+        <v>2174.41147711666</v>
       </c>
       <c r="P50">
-        <v>87.1564626553136</v>
+        <v>87.1565207644112</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>121.064846190257</v>
+        <v>121.063598102876</v>
       </c>
       <c r="C51">
-        <v>4.38179005272096</v>
+        <v>4.38177332003259</v>
       </c>
       <c r="D51">
-        <v>0.043966879308233</v>
+        <v>0.0454465854371552</v>
       </c>
       <c r="E51">
-        <v>2.34690290556689</v>
+        <v>2.34690104454283</v>
       </c>
       <c r="F51">
-        <v>37.0030710126251</v>
+        <v>37.0031155312463</v>
       </c>
       <c r="G51">
-        <v>2.62311581885752</v>
+        <v>2.62309694191065</v>
       </c>
       <c r="H51">
-        <v>0.0045730485451337</v>
+        <v>0.00679268744266324</v>
       </c>
       <c r="I51">
-        <v>1.28555248212349</v>
+        <v>1.28555025562065</v>
       </c>
       <c r="J51">
-        <v>1.17183091829707</v>
+        <v>1.17179671204702</v>
       </c>
       <c r="K51">
-        <v>0.84369501835534</v>
+        <v>0.843577033311389</v>
       </c>
       <c r="L51">
-        <v>0.839602842401194</v>
+        <v>0.840805066693836</v>
       </c>
       <c r="M51">
-        <v>0.512139999145044</v>
+        <v>0.512643699834432</v>
       </c>
       <c r="N51">
-        <v>0.777855360632589</v>
+        <v>0.777842071352029</v>
       </c>
       <c r="O51">
-        <v>306.248529377854</v>
+        <v>306.24520583793</v>
       </c>
       <c r="P51">
-        <v>32.3042015617836</v>
+        <v>32.3038290547153</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1311.15706271013</v>
+        <v>1318.65915792764</v>
       </c>
       <c r="C2">
-        <v>24.1962921648592</v>
+        <v>22.8790773999821</v>
       </c>
       <c r="D2">
-        <v>24.1591681581293</v>
+        <v>29.2389214544386</v>
       </c>
       <c r="E2">
-        <v>57.8613645510869</v>
+        <v>55.7448204428331</v>
       </c>
       <c r="F2">
-        <v>22.2596010521622</v>
+        <v>22.832683893115</v>
       </c>
       <c r="G2">
-        <v>17.55644095647</v>
+        <v>16.0448233927361</v>
       </c>
       <c r="H2">
-        <v>19.2955664672057</v>
+        <v>17.9166024801214</v>
       </c>
       <c r="I2">
-        <v>10.6888108144817</v>
+        <v>15.6286346328251</v>
       </c>
       <c r="J2">
-        <v>85.65577520836951</v>
+        <v>80.77265793773211</v>
       </c>
       <c r="K2">
-        <v>15.8046977434045</v>
+        <v>14.2662777103298</v>
       </c>
       <c r="L2">
-        <v>57.3088942488959</v>
+        <v>50.6752248139401</v>
       </c>
       <c r="M2">
-        <v>38.3595085570731</v>
+        <v>46.890424886105</v>
       </c>
       <c r="N2">
-        <v>26.3517361061996</v>
+        <v>25.103850733596</v>
       </c>
       <c r="O2">
-        <v>1456.30926242509</v>
+        <v>1461.67684668178</v>
       </c>
       <c r="P2">
-        <v>19.1390421170268</v>
+        <v>21.4513758749986</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>154.930817295143</v>
+        <v>144.006715684301</v>
       </c>
       <c r="C3">
-        <v>4.1717011296427</v>
+        <v>3.4107000536374</v>
       </c>
       <c r="D3">
-        <v>0.506556687300192</v>
+        <v>0.539241182357782</v>
       </c>
       <c r="E3">
-        <v>1.02582672709239</v>
+        <v>1.2359696497432</v>
       </c>
       <c r="F3">
-        <v>9.72830003739948</v>
+        <v>9.76883294135447</v>
       </c>
       <c r="G3">
-        <v>0.378910676173531</v>
+        <v>0.381695012269403</v>
       </c>
       <c r="H3">
-        <v>0.0371036518622515</v>
+        <v>0.07484770778496221</v>
       </c>
       <c r="I3">
-        <v>1.15313929598293</v>
+        <v>0.94262617953009</v>
       </c>
       <c r="J3">
-        <v>0.198853000306886</v>
+        <v>0.258097321624736</v>
       </c>
       <c r="K3">
-        <v>0.112897663248727</v>
+        <v>0.103145163203513</v>
       </c>
       <c r="L3">
-        <v>0.00136321550933149</v>
+        <v>0.104506816677614</v>
       </c>
       <c r="M3">
-        <v>0.60997787076529</v>
+        <v>0.597631913298195</v>
       </c>
       <c r="N3">
-        <v>0.855227450986063</v>
+        <v>1.18173216404249</v>
       </c>
       <c r="O3">
-        <v>350.638846254554</v>
+        <v>325.250338390723</v>
       </c>
       <c r="P3">
-        <v>14.6831385847301</v>
+        <v>13.4034863179187</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1330.37677070448</v>
+        <v>1333.19528999847</v>
       </c>
       <c r="C4">
-        <v>9.1942575803049</v>
+        <v>10.175492465424</v>
       </c>
       <c r="D4">
-        <v>4.90893938176608</v>
+        <v>3.02490778007253</v>
       </c>
       <c r="E4">
-        <v>18.381793903865</v>
+        <v>20.7638557802409</v>
       </c>
       <c r="F4">
-        <v>8.10871374645332</v>
+        <v>8.544755545362079</v>
       </c>
       <c r="G4">
-        <v>8.041534012035511</v>
+        <v>7.09625888747631</v>
       </c>
       <c r="H4">
-        <v>11.6330696908209</v>
+        <v>10.834287947501</v>
       </c>
       <c r="I4">
-        <v>6.84144972473568</v>
+        <v>7.65535507867612</v>
       </c>
       <c r="J4">
-        <v>34.1272448319332</v>
+        <v>29.5849387452263</v>
       </c>
       <c r="K4">
-        <v>3.57580876813334</v>
+        <v>3.28478522088836</v>
       </c>
       <c r="L4">
-        <v>61.2543319351449</v>
+        <v>64.1222195345085</v>
       </c>
       <c r="M4">
-        <v>40.2270902943453</v>
+        <v>42.1628377806301</v>
       </c>
       <c r="N4">
-        <v>29.7006772437882</v>
+        <v>30.5305694366243</v>
       </c>
       <c r="O4">
-        <v>2229.44365720411</v>
+        <v>2256.82646977088</v>
       </c>
       <c r="P4">
-        <v>12.563000086616</v>
+        <v>15.4924843798811</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>688.455675847979</v>
+        <v>690.654174653478</v>
       </c>
       <c r="C5">
-        <v>43.5527963904733</v>
+        <v>46.7991466042492</v>
       </c>
       <c r="D5">
-        <v>11.3046204740116</v>
+        <v>10.1985941681569</v>
       </c>
       <c r="E5">
-        <v>33.5933569839331</v>
+        <v>33.2935808619629</v>
       </c>
       <c r="F5">
-        <v>7.48588422728811</v>
+        <v>7.47555113833413</v>
       </c>
       <c r="G5">
-        <v>4.99629672560385</v>
+        <v>5.09857561006924</v>
       </c>
       <c r="H5">
-        <v>9.45755975729827</v>
+        <v>9.26647763604084</v>
       </c>
       <c r="I5">
-        <v>5.43200120758606</v>
+        <v>6.68697439486904</v>
       </c>
       <c r="J5">
-        <v>34.7230275320734</v>
+        <v>30.4953168285646</v>
       </c>
       <c r="K5">
-        <v>4.4329447294448</v>
+        <v>5.14254597173756</v>
       </c>
       <c r="L5">
-        <v>13.4374126288501</v>
+        <v>14.5410227921847</v>
       </c>
       <c r="M5">
-        <v>18.1053450941411</v>
+        <v>18.6354133392488</v>
       </c>
       <c r="N5">
-        <v>20.463740344912</v>
+        <v>24.0487863612914</v>
       </c>
       <c r="O5">
-        <v>981.564316040686</v>
+        <v>973.443375418397</v>
       </c>
       <c r="P5">
-        <v>53.8158440485762</v>
+        <v>57.4345479554577</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7349.35200374204</v>
+        <v>7358.56887346679</v>
       </c>
       <c r="C6">
-        <v>209.006846884183</v>
+        <v>201.886237468382</v>
       </c>
       <c r="D6">
-        <v>38.8455860298682</v>
+        <v>45.7466863363751</v>
       </c>
       <c r="E6">
-        <v>174.253198477467</v>
+        <v>175.241579848577</v>
       </c>
       <c r="F6">
-        <v>45.9136903963032</v>
+        <v>44.1991077247046</v>
       </c>
       <c r="G6">
-        <v>120.209058367382</v>
+        <v>117.25617952433</v>
       </c>
       <c r="H6">
-        <v>45.6983993188197</v>
+        <v>53.109586863992</v>
       </c>
       <c r="I6">
-        <v>44.7562406145239</v>
+        <v>42.9203157769831</v>
       </c>
       <c r="J6">
-        <v>178.212575914911</v>
+        <v>180.873594907121</v>
       </c>
       <c r="K6">
-        <v>38.9118086173585</v>
+        <v>45.9634448895048</v>
       </c>
       <c r="L6">
-        <v>431.66938337015</v>
+        <v>438.100491143274</v>
       </c>
       <c r="M6">
-        <v>259.853453632618</v>
+        <v>258.215476620905</v>
       </c>
       <c r="N6">
-        <v>292.306044450217</v>
+        <v>279.245361703417</v>
       </c>
       <c r="O6">
-        <v>12993.2426000716</v>
+        <v>13025.0972748069</v>
       </c>
       <c r="P6">
-        <v>280.667706673148</v>
+        <v>282.452466460461</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>763.53748615987</v>
+        <v>765.409733280065</v>
       </c>
       <c r="C7">
-        <v>37.0423162928434</v>
+        <v>40.6364291913293</v>
       </c>
       <c r="D7">
-        <v>4.34445414325842</v>
+        <v>3.94042427886489</v>
       </c>
       <c r="E7">
-        <v>20.3952674740459</v>
+        <v>20.6917629584469</v>
       </c>
       <c r="F7">
-        <v>13.4977640197364</v>
+        <v>15.419822782028</v>
       </c>
       <c r="G7">
-        <v>6.84603437258103</v>
+        <v>8.74642505261092</v>
       </c>
       <c r="H7">
-        <v>1.62007838593121</v>
+        <v>2.54871139674561</v>
       </c>
       <c r="I7">
-        <v>8.642428676096079</v>
+        <v>9.530625117013219</v>
       </c>
       <c r="J7">
-        <v>17.3920137300755</v>
+        <v>16.2819740549993</v>
       </c>
       <c r="K7">
-        <v>3.99819957275234</v>
+        <v>4.72179714339749</v>
       </c>
       <c r="L7">
-        <v>58.7108639826404</v>
+        <v>52.8288024133871</v>
       </c>
       <c r="M7">
-        <v>16.245505427317</v>
+        <v>17.0072586392749</v>
       </c>
       <c r="N7">
-        <v>23.4116048372321</v>
+        <v>24.662543107533</v>
       </c>
       <c r="O7">
-        <v>1935.16566784822</v>
+        <v>1955.28711844693</v>
       </c>
       <c r="P7">
-        <v>28.7715307316141</v>
+        <v>30.9903691375776</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>638.946859346345</v>
+        <v>631.608359545332</v>
       </c>
       <c r="C8">
-        <v>13.240032351381</v>
+        <v>13.9632462299047</v>
       </c>
       <c r="D8">
-        <v>2.21461597522671</v>
+        <v>2.75528833466707</v>
       </c>
       <c r="E8">
-        <v>23.2613202108508</v>
+        <v>22.8312023568142</v>
       </c>
       <c r="F8">
-        <v>1.67620411657609</v>
+        <v>2.21995883306809</v>
       </c>
       <c r="G8">
-        <v>22.7676421304524</v>
+        <v>23.7064755665573</v>
       </c>
       <c r="H8">
-        <v>7.92380449649884</v>
+        <v>8.479799868726371</v>
       </c>
       <c r="I8">
-        <v>7.94262978195123</v>
+        <v>8.179682840330489</v>
       </c>
       <c r="J8">
-        <v>41.4423183932843</v>
+        <v>39.1616967849972</v>
       </c>
       <c r="K8">
-        <v>10.1130244264189</v>
+        <v>9.92449937377444</v>
       </c>
       <c r="L8">
-        <v>43.5325320685007</v>
+        <v>44.1072939803873</v>
       </c>
       <c r="M8">
-        <v>51.1045057408049</v>
+        <v>50.6806664332439</v>
       </c>
       <c r="N8">
-        <v>28.0409692251879</v>
+        <v>28.611755726005</v>
       </c>
       <c r="O8">
-        <v>1430.9612740504</v>
+        <v>1434.18947355082</v>
       </c>
       <c r="P8">
-        <v>7.24584421333901</v>
+        <v>7.80248682840528</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>213.639581418789</v>
+        <v>204.469015287867</v>
       </c>
       <c r="C9">
-        <v>9.636877463972059</v>
+        <v>9.07138304904176</v>
       </c>
       <c r="D9">
-        <v>1.97781763302123</v>
+        <v>2.11854729462842</v>
       </c>
       <c r="E9">
-        <v>4.84156733376371</v>
+        <v>4.7634155152948</v>
       </c>
       <c r="F9">
-        <v>0.524272200983258</v>
+        <v>0.76250485998062</v>
       </c>
       <c r="G9">
-        <v>23.6306599954944</v>
+        <v>22.6374825304115</v>
       </c>
       <c r="H9">
-        <v>2.78706192271312</v>
+        <v>3.20314548718843</v>
       </c>
       <c r="I9">
-        <v>1.56942861710454</v>
+        <v>1.57113530438326</v>
       </c>
       <c r="J9">
-        <v>5.28396676610535</v>
+        <v>4.95923188828934</v>
       </c>
       <c r="K9">
-        <v>0.620428551413354</v>
+        <v>0.653484250046575</v>
       </c>
       <c r="L9">
-        <v>3.49284463887372</v>
+        <v>2.9585645971579</v>
       </c>
       <c r="M9">
-        <v>7.03380347936692</v>
+        <v>6.90708562674797</v>
       </c>
       <c r="N9">
-        <v>3.94815331040923</v>
+        <v>3.39848404503958</v>
       </c>
       <c r="O9">
-        <v>422.363129159269</v>
+        <v>407.357020583109</v>
       </c>
       <c r="P9">
-        <v>6.70735718608266</v>
+        <v>6.30337492935752</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4032.21481565721</v>
+        <v>4042.97915240127</v>
       </c>
       <c r="C10">
-        <v>71.68772411918791</v>
+        <v>65.8953636157479</v>
       </c>
       <c r="D10">
-        <v>9.676434757109419</v>
+        <v>12.3133457417198</v>
       </c>
       <c r="E10">
-        <v>54.8079027982852</v>
+        <v>58.5815755583676</v>
       </c>
       <c r="F10">
-        <v>8.933884939557119</v>
+        <v>9.959923806822459</v>
       </c>
       <c r="G10">
-        <v>41.4669028965698</v>
+        <v>39.8196584301969</v>
       </c>
       <c r="H10">
-        <v>18.6577027851809</v>
+        <v>16.0975318924469</v>
       </c>
       <c r="I10">
-        <v>26.2358003567304</v>
+        <v>30.7957144120336</v>
       </c>
       <c r="J10">
-        <v>60.4090371913607</v>
+        <v>60.1438817253805</v>
       </c>
       <c r="K10">
-        <v>6.15648068109225</v>
+        <v>8.655838966419641</v>
       </c>
       <c r="L10">
-        <v>65.5862884780243</v>
+        <v>71.6312706312491</v>
       </c>
       <c r="M10">
-        <v>77.1186734606444</v>
+        <v>72.4759909007889</v>
       </c>
       <c r="N10">
-        <v>93.786429793239</v>
+        <v>92.74671447726691</v>
       </c>
       <c r="O10">
-        <v>7662.90241419097</v>
+        <v>7639.82721915855</v>
       </c>
       <c r="P10">
-        <v>67.52933771005959</v>
+        <v>74.3523313958968</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1888.25876092041</v>
+        <v>1905.19684284374</v>
       </c>
       <c r="C11">
-        <v>67.656786590013</v>
+        <v>67.51490501804381</v>
       </c>
       <c r="D11">
-        <v>152.807728634857</v>
+        <v>144.176758550739</v>
       </c>
       <c r="E11">
-        <v>83.2801365315311</v>
+        <v>82.6896639301809</v>
       </c>
       <c r="F11">
-        <v>11.0491786561345</v>
+        <v>9.185238902959661</v>
       </c>
       <c r="G11">
-        <v>23.151378913308</v>
+        <v>24.9860760363232</v>
       </c>
       <c r="H11">
-        <v>22.4117941363743</v>
+        <v>21.6665461316198</v>
       </c>
       <c r="I11">
-        <v>10.0212502723013</v>
+        <v>11.9406045051954</v>
       </c>
       <c r="J11">
-        <v>39.6565092466638</v>
+        <v>41.6266293647471</v>
       </c>
       <c r="K11">
-        <v>6.04731335683771</v>
+        <v>7.46801241078782</v>
       </c>
       <c r="L11">
-        <v>49.4365654963713</v>
+        <v>48.6410545298123</v>
       </c>
       <c r="M11">
-        <v>48.542372301182</v>
+        <v>48.4342023395794</v>
       </c>
       <c r="N11">
-        <v>66.125495617501</v>
+        <v>64.1582843912139</v>
       </c>
       <c r="O11">
-        <v>3258.44935311609</v>
+        <v>3294.15185879765</v>
       </c>
       <c r="P11">
-        <v>54.4315256509429</v>
+        <v>52.7067007195192</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>282.659992306416</v>
+        <v>272.748468915729</v>
       </c>
       <c r="C12">
-        <v>6.56900887977565</v>
+        <v>6.51986491619357</v>
       </c>
       <c r="D12">
-        <v>0.240032864623206</v>
+        <v>0.477219934612747</v>
       </c>
       <c r="E12">
-        <v>3.9466158538493</v>
+        <v>3.87423083723335</v>
       </c>
       <c r="F12">
-        <v>1.04718879072079</v>
+        <v>0.864237044014451</v>
       </c>
       <c r="G12">
-        <v>0.828158324455333</v>
+        <v>0.499940332652105</v>
       </c>
       <c r="H12">
-        <v>0.104656038226415</v>
+        <v>0.2361020451738</v>
       </c>
       <c r="I12">
-        <v>0.811943088447496</v>
+        <v>1.10881494013161</v>
       </c>
       <c r="J12">
-        <v>1.21189462793833</v>
+        <v>1.87858530143004</v>
       </c>
       <c r="K12">
-        <v>0.00505455734555654</v>
+        <v>0.152738015430331</v>
       </c>
       <c r="L12">
-        <v>0.0281987752880141</v>
+        <v>0.331334337417099</v>
       </c>
       <c r="M12">
-        <v>3.1370884313209</v>
+        <v>2.96286671932174</v>
       </c>
       <c r="N12">
-        <v>3.08970747527517</v>
+        <v>3.86654035232596</v>
       </c>
       <c r="O12">
-        <v>650.8679170508329</v>
+        <v>629.377807085453</v>
       </c>
       <c r="P12">
-        <v>23.6384639072334</v>
+        <v>21.3368393249201</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>263.268928962206</v>
+        <v>259.698508614704</v>
       </c>
       <c r="C13">
-        <v>17.9437732627565</v>
+        <v>19.9050147691765</v>
       </c>
       <c r="D13">
-        <v>0.51976469794384</v>
+        <v>0.46980133553184</v>
       </c>
       <c r="E13">
-        <v>13.1869083453402</v>
+        <v>12.3740592354616</v>
       </c>
       <c r="F13">
-        <v>2.89699975792316</v>
+        <v>3.21563179142503</v>
       </c>
       <c r="G13">
-        <v>6.11868594125359</v>
+        <v>5.92004517109699</v>
       </c>
       <c r="H13">
-        <v>2.33646407798442</v>
+        <v>2.6502600362167</v>
       </c>
       <c r="I13">
-        <v>2.02256303562346</v>
+        <v>2.29488671199454</v>
       </c>
       <c r="J13">
-        <v>5.97652950422195</v>
+        <v>5.95303307112776</v>
       </c>
       <c r="K13">
-        <v>4.07568918544323</v>
+        <v>4.61288835866333</v>
       </c>
       <c r="L13">
-        <v>15.7069765144151</v>
+        <v>16.366196144654</v>
       </c>
       <c r="M13">
-        <v>1.0144352869812</v>
+        <v>1.92009836861283</v>
       </c>
       <c r="N13">
-        <v>4.61011120576973</v>
+        <v>4.64558015934597</v>
       </c>
       <c r="O13">
-        <v>604.705757379265</v>
+        <v>594.111038951974</v>
       </c>
       <c r="P13">
-        <v>48.9359632287172</v>
+        <v>49.6114041461107</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2485.98783314144</v>
+        <v>2475.52184743954</v>
       </c>
       <c r="C14">
-        <v>109.419289039078</v>
+        <v>116.394673407862</v>
       </c>
       <c r="D14">
-        <v>6.94877611450897</v>
+        <v>10.0909357459282</v>
       </c>
       <c r="E14">
-        <v>96.6482849702213</v>
+        <v>94.9358552007144</v>
       </c>
       <c r="F14">
-        <v>22.5564651528502</v>
+        <v>19.1472775622184</v>
       </c>
       <c r="G14">
-        <v>75.20753945876911</v>
+        <v>81.9202710018866</v>
       </c>
       <c r="H14">
-        <v>38.5335734363915</v>
+        <v>40.7461865417586</v>
       </c>
       <c r="I14">
-        <v>20.8577408071604</v>
+        <v>20.6036958966908</v>
       </c>
       <c r="J14">
-        <v>131.670664055691</v>
+        <v>135.932590502186</v>
       </c>
       <c r="K14">
-        <v>93.3892849781939</v>
+        <v>90.4240894820709</v>
       </c>
       <c r="L14">
-        <v>106.634704144379</v>
+        <v>106.18776313403</v>
       </c>
       <c r="M14">
-        <v>84.97184172625801</v>
+        <v>77.257620924381</v>
       </c>
       <c r="N14">
-        <v>70.050737984225</v>
+        <v>78.229044726581</v>
       </c>
       <c r="O14">
-        <v>4993.83650501986</v>
+        <v>5008.27604174511</v>
       </c>
       <c r="P14">
-        <v>54.962182877472</v>
+        <v>54.6477313712918</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1260.9964102769</v>
+        <v>1255.94841623016</v>
       </c>
       <c r="C15">
-        <v>52.2607373421978</v>
+        <v>51.8708787613989</v>
       </c>
       <c r="D15">
-        <v>5.88498904704813</v>
+        <v>8.739770540852099</v>
       </c>
       <c r="E15">
-        <v>80.1307745804762</v>
+        <v>79.3569871722073</v>
       </c>
       <c r="F15">
-        <v>21.5864609177324</v>
+        <v>23.1390542223293</v>
       </c>
       <c r="G15">
-        <v>54.6476479283082</v>
+        <v>53.3746512354016</v>
       </c>
       <c r="H15">
-        <v>35.0735998849091</v>
+        <v>38.6396010575962</v>
       </c>
       <c r="I15">
-        <v>23.6481370271133</v>
+        <v>24.5484666898609</v>
       </c>
       <c r="J15">
-        <v>164.450825317086</v>
+        <v>157.867884815095</v>
       </c>
       <c r="K15">
-        <v>25.9020296972191</v>
+        <v>23.4071993379333</v>
       </c>
       <c r="L15">
-        <v>40.3664720879386</v>
+        <v>40.0084000451535</v>
       </c>
       <c r="M15">
-        <v>171.708755317759</v>
+        <v>169.996060836658</v>
       </c>
       <c r="N15">
-        <v>85.4317183712178</v>
+        <v>85.01440449934709</v>
       </c>
       <c r="O15">
-        <v>2202.66861036189</v>
+        <v>2210.55396572025</v>
       </c>
       <c r="P15">
-        <v>42.3515296303225</v>
+        <v>45.0341264333068</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>481.829520674807</v>
+        <v>480.42095597035</v>
       </c>
       <c r="C16">
-        <v>63.9418601926374</v>
+        <v>64.6028720196465</v>
       </c>
       <c r="D16">
-        <v>6.20648102199506</v>
+        <v>5.01466445240662</v>
       </c>
       <c r="E16">
-        <v>25.1424119886991</v>
+        <v>29.1035528504028</v>
       </c>
       <c r="F16">
-        <v>2.68308009411411</v>
+        <v>2.65388162071735</v>
       </c>
       <c r="G16">
-        <v>19.4681032928929</v>
+        <v>19.830492998381</v>
       </c>
       <c r="H16">
-        <v>17.8495641314351</v>
+        <v>16.4451379197068</v>
       </c>
       <c r="I16">
-        <v>7.25840248602736</v>
+        <v>6.55665910434102</v>
       </c>
       <c r="J16">
-        <v>51.6023967561611</v>
+        <v>49.215287245876</v>
       </c>
       <c r="K16">
-        <v>42.3739382802421</v>
+        <v>39.0222247594961</v>
       </c>
       <c r="L16">
-        <v>23.9896338908608</v>
+        <v>22.1747822235945</v>
       </c>
       <c r="M16">
-        <v>22.5099482716687</v>
+        <v>25.3142319932197</v>
       </c>
       <c r="N16">
-        <v>30.1128668097338</v>
+        <v>29.5320411837951</v>
       </c>
       <c r="O16">
-        <v>1265.2021601419</v>
+        <v>1246.073074862</v>
       </c>
       <c r="P16">
-        <v>82.5172970199706</v>
+        <v>85.27803003752361</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>510.417224556735</v>
+        <v>500.658262943232</v>
       </c>
       <c r="C17">
-        <v>21.9033381424597</v>
+        <v>21.6429479837277</v>
       </c>
       <c r="D17">
-        <v>4.5469860387744</v>
+        <v>3.56647470678855</v>
       </c>
       <c r="E17">
-        <v>29.6638301326102</v>
+        <v>26.0990973593636</v>
       </c>
       <c r="F17">
-        <v>11.9645626352965</v>
+        <v>12.1197348854158</v>
       </c>
       <c r="G17">
-        <v>7.90586914731542</v>
+        <v>8.824664528806901</v>
       </c>
       <c r="H17">
-        <v>11.0778182955673</v>
+        <v>10.2099329009351</v>
       </c>
       <c r="I17">
-        <v>8.94190839880401</v>
+        <v>8.469190154535189</v>
       </c>
       <c r="J17">
-        <v>22.5834351818613</v>
+        <v>20.8430598377562</v>
       </c>
       <c r="K17">
-        <v>8.678601432182351</v>
+        <v>8.90518248871933</v>
       </c>
       <c r="L17">
-        <v>12.0033406157362</v>
+        <v>11.899852869324</v>
       </c>
       <c r="M17">
-        <v>62.4539753679971</v>
+        <v>62.2917432223708</v>
       </c>
       <c r="N17">
-        <v>12.7692551731009</v>
+        <v>12.7000264632849</v>
       </c>
       <c r="O17">
-        <v>1124.30839610466</v>
+        <v>1119.38667415051</v>
       </c>
       <c r="P17">
-        <v>50.0669703936256</v>
+        <v>51.181749478591</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1146.24412809428</v>
+        <v>1140.87768750854</v>
       </c>
       <c r="C18">
-        <v>29.742638629969</v>
+        <v>33.8312031244811</v>
       </c>
       <c r="D18">
-        <v>4.20834091717429</v>
+        <v>3.90124228311856</v>
       </c>
       <c r="E18">
-        <v>32.3526846684731</v>
+        <v>34.1163080552749</v>
       </c>
       <c r="F18">
-        <v>35.2313597200505</v>
+        <v>34.4047370729128</v>
       </c>
       <c r="G18">
-        <v>18.2375106888812</v>
+        <v>17.0093518703549</v>
       </c>
       <c r="H18">
-        <v>15.5672238233635</v>
+        <v>15.3012398808145</v>
       </c>
       <c r="I18">
-        <v>2.65642783767639</v>
+        <v>3.56250980081316</v>
       </c>
       <c r="J18">
-        <v>33.1013428679434</v>
+        <v>32.0685674288174</v>
       </c>
       <c r="K18">
-        <v>8.243781911686851</v>
+        <v>7.82905663458568</v>
       </c>
       <c r="L18">
-        <v>30.9971949816242</v>
+        <v>33.1900354294552</v>
       </c>
       <c r="M18">
-        <v>69.501734771443</v>
+        <v>65.4765930084323</v>
       </c>
       <c r="N18">
-        <v>24.2728275703483</v>
+        <v>24.5263365342584</v>
       </c>
       <c r="O18">
-        <v>1551.06650107648</v>
+        <v>1537.14210080137</v>
       </c>
       <c r="P18">
-        <v>63.607766622088</v>
+        <v>58.060970775771</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1109.97098372915</v>
+        <v>1104.25230792972</v>
       </c>
       <c r="C19">
-        <v>33.623792019115</v>
+        <v>34.2011998128273</v>
       </c>
       <c r="D19">
-        <v>4.26349038044842</v>
+        <v>4.40436891108335</v>
       </c>
       <c r="E19">
-        <v>45.3858787757266</v>
+        <v>42.7388595717132</v>
       </c>
       <c r="F19">
-        <v>80.29530924484951</v>
+        <v>81.2809660715607</v>
       </c>
       <c r="G19">
-        <v>49.5776879669447</v>
+        <v>46.1514631125452</v>
       </c>
       <c r="H19">
-        <v>12.1928699490383</v>
+        <v>9.99787681691306</v>
       </c>
       <c r="I19">
-        <v>4.44118921182498</v>
+        <v>4.10754565047038</v>
       </c>
       <c r="J19">
-        <v>19.9144470162481</v>
+        <v>19.02316698586</v>
       </c>
       <c r="K19">
-        <v>6.50575883485865</v>
+        <v>7.59363105466883</v>
       </c>
       <c r="L19">
-        <v>1.65016552277467</v>
+        <v>2.39610152706849</v>
       </c>
       <c r="M19">
-        <v>36.2025885121551</v>
+        <v>30.2144049916424</v>
       </c>
       <c r="N19">
-        <v>11.0038450168823</v>
+        <v>12.0429006891767</v>
       </c>
       <c r="O19">
-        <v>1595.97226400883</v>
+        <v>1576.23271932979</v>
       </c>
       <c r="P19">
-        <v>43.4788098633323</v>
+        <v>42.6619575999296</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>284.195576009098</v>
+        <v>282.030208745381</v>
       </c>
       <c r="C20">
-        <v>11.0611009807982</v>
+        <v>10.1841285955543</v>
       </c>
       <c r="D20">
-        <v>6.42927672475385</v>
+        <v>7.02453287571802</v>
       </c>
       <c r="E20">
-        <v>33.8767900560572</v>
+        <v>33.4032038326684</v>
       </c>
       <c r="F20">
-        <v>1.36201317462249</v>
+        <v>1.08793963375292</v>
       </c>
       <c r="G20">
-        <v>3.30827108076928</v>
+        <v>3.23979480813855</v>
       </c>
       <c r="H20">
-        <v>0.5672741653751841</v>
+        <v>1.05223875811144</v>
       </c>
       <c r="I20">
-        <v>2.05222045323688</v>
+        <v>2.13158576372574</v>
       </c>
       <c r="J20">
-        <v>5.26426099991279</v>
+        <v>4.73093501119681</v>
       </c>
       <c r="K20">
-        <v>0.581603517092797</v>
+        <v>1.02933191229158</v>
       </c>
       <c r="L20">
-        <v>7.63729151892102</v>
+        <v>7.25903337848553</v>
       </c>
       <c r="M20">
-        <v>19.6512185193756</v>
+        <v>18.8867142660209</v>
       </c>
       <c r="N20">
-        <v>6.59014443568455</v>
+        <v>6.80806249056426</v>
       </c>
       <c r="O20">
-        <v>585.397948023837</v>
+        <v>573.178151769323</v>
       </c>
       <c r="P20">
-        <v>21.3687563496528</v>
+        <v>22.0901225616854</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1044.92178461782</v>
+        <v>1042.51303207508</v>
       </c>
       <c r="C21">
-        <v>18.3384694975889</v>
+        <v>19.8596349168542</v>
       </c>
       <c r="D21">
-        <v>1.80314863473237</v>
+        <v>1.44777704198254</v>
       </c>
       <c r="E21">
-        <v>21.6840353186942</v>
+        <v>21.7581850776715</v>
       </c>
       <c r="F21">
-        <v>1.91257043952213</v>
+        <v>2.95012100093629</v>
       </c>
       <c r="G21">
-        <v>13.1358749313395</v>
+        <v>14.4436830628235</v>
       </c>
       <c r="H21">
-        <v>6.72766423063978</v>
+        <v>5.53755229543635</v>
       </c>
       <c r="I21">
-        <v>18.1739342327156</v>
+        <v>15.46449882596</v>
       </c>
       <c r="J21">
-        <v>15.7249021652073</v>
+        <v>16.6961296605063</v>
       </c>
       <c r="K21">
-        <v>1.2965880148041</v>
+        <v>0.954829970781151</v>
       </c>
       <c r="L21">
-        <v>27.7645062729862</v>
+        <v>27.608890147815</v>
       </c>
       <c r="M21">
-        <v>17.2931309608534</v>
+        <v>18.6157045624529</v>
       </c>
       <c r="N21">
-        <v>14.4589136249706</v>
+        <v>16.539032905751</v>
       </c>
       <c r="O21">
-        <v>2391.32897105468</v>
+        <v>2372.76941958387</v>
       </c>
       <c r="P21">
-        <v>18.6463846879584</v>
+        <v>21.4997801107674</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1180.87557233313</v>
+        <v>1198.3948288317</v>
       </c>
       <c r="C22">
-        <v>21.3857265599468</v>
+        <v>21.6090922939874</v>
       </c>
       <c r="D22">
-        <v>13.5174983501544</v>
+        <v>13.654743165865</v>
       </c>
       <c r="E22">
-        <v>47.4154232751596</v>
+        <v>47.5056653297208</v>
       </c>
       <c r="F22">
-        <v>3.53434274319711</v>
+        <v>3.37101780467322</v>
       </c>
       <c r="G22">
-        <v>29.7703337332801</v>
+        <v>32.1825994689336</v>
       </c>
       <c r="H22">
-        <v>16.7001294662757</v>
+        <v>14.0221611624519</v>
       </c>
       <c r="I22">
-        <v>13.1188020446142</v>
+        <v>11.2690198546168</v>
       </c>
       <c r="J22">
-        <v>40.0545617814908</v>
+        <v>38.566050849362</v>
       </c>
       <c r="K22">
-        <v>3.37812642237792</v>
+        <v>6.07163546353955</v>
       </c>
       <c r="L22">
-        <v>105.664450031239</v>
+        <v>109.942791951213</v>
       </c>
       <c r="M22">
-        <v>16.9141036011378</v>
+        <v>17.3431375581144</v>
       </c>
       <c r="N22">
-        <v>63.1477971680556</v>
+        <v>62.8716797512607</v>
       </c>
       <c r="O22">
-        <v>2699.36257372236</v>
+        <v>2702.83460595996</v>
       </c>
       <c r="P22">
-        <v>11.5956164215119</v>
+        <v>11.6198171548542</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2334.91845791164</v>
+        <v>2342.84112809425</v>
       </c>
       <c r="C23">
-        <v>26.0435538672055</v>
+        <v>32.4199582177484</v>
       </c>
       <c r="D23">
-        <v>6.42980349863012</v>
+        <v>6.71643368562467</v>
       </c>
       <c r="E23">
-        <v>55.1058833977337</v>
+        <v>53.0020544646206</v>
       </c>
       <c r="F23">
-        <v>5.2589731532532</v>
+        <v>5.69655132584363</v>
       </c>
       <c r="G23">
-        <v>54.6011504481205</v>
+        <v>55.8898325209798</v>
       </c>
       <c r="H23">
-        <v>53.2574824521629</v>
+        <v>50.7978210284596</v>
       </c>
       <c r="I23">
-        <v>18.4121474909576</v>
+        <v>17.0681393252389</v>
       </c>
       <c r="J23">
-        <v>123.613410451458</v>
+        <v>116.397764821011</v>
       </c>
       <c r="K23">
-        <v>57.1901762999882</v>
+        <v>60.8199039559136</v>
       </c>
       <c r="L23">
-        <v>29.7203872157829</v>
+        <v>34.73368594113</v>
       </c>
       <c r="M23">
-        <v>539.5021184165501</v>
+        <v>538.7757049276011</v>
       </c>
       <c r="N23">
-        <v>89.60486319184651</v>
+        <v>90.8994755113013</v>
       </c>
       <c r="O23">
-        <v>3447.66226682546</v>
+        <v>3412.88464827764</v>
       </c>
       <c r="P23">
-        <v>51.2688208786674</v>
+        <v>52.0603577206113</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>784.296226670456</v>
+        <v>786.853820441735</v>
       </c>
       <c r="C24">
-        <v>45.9287621362484</v>
+        <v>47.595928603423</v>
       </c>
       <c r="D24">
-        <v>5.48830692449013</v>
+        <v>6.07023078969095</v>
       </c>
       <c r="E24">
-        <v>52.4410423914437</v>
+        <v>59.1546811666215</v>
       </c>
       <c r="F24">
-        <v>12.3346566651136</v>
+        <v>11.9317601780226</v>
       </c>
       <c r="G24">
-        <v>27.1309451341994</v>
+        <v>25.3981156184752</v>
       </c>
       <c r="H24">
-        <v>16.0707413796696</v>
+        <v>18.4529887666223</v>
       </c>
       <c r="I24">
-        <v>17.7017197688938</v>
+        <v>16.8184212024866</v>
       </c>
       <c r="J24">
-        <v>61.3995272046206</v>
+        <v>56.7065713131957</v>
       </c>
       <c r="K24">
-        <v>18.555655810335</v>
+        <v>20.5397956203045</v>
       </c>
       <c r="L24">
-        <v>64.6459019673304</v>
+        <v>64.9447453738721</v>
       </c>
       <c r="M24">
-        <v>26.3342288762751</v>
+        <v>25.5202199929713</v>
       </c>
       <c r="N24">
-        <v>76.3275951165767</v>
+        <v>71.1630095112906</v>
       </c>
       <c r="O24">
-        <v>2056.24862160732</v>
+        <v>2059.53565794159</v>
       </c>
       <c r="P24">
-        <v>96.75692956780971</v>
+        <v>92.3845348380565</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>812.697175334337</v>
+        <v>797.745373753572</v>
       </c>
       <c r="C25">
-        <v>46.5712438036174</v>
+        <v>41.9683801969829</v>
       </c>
       <c r="D25">
-        <v>11.5052971457897</v>
+        <v>10.883299542934</v>
       </c>
       <c r="E25">
-        <v>46.7706384275226</v>
+        <v>45.3308088623301</v>
       </c>
       <c r="F25">
-        <v>15.283418772254</v>
+        <v>16.0700924053174</v>
       </c>
       <c r="G25">
-        <v>14.4055301104175</v>
+        <v>12.990682173563</v>
       </c>
       <c r="H25">
-        <v>6.38717944992129</v>
+        <v>9.394427441578269</v>
       </c>
       <c r="I25">
-        <v>4.83991490693212</v>
+        <v>4.19946685185353</v>
       </c>
       <c r="J25">
-        <v>8.96660432001611</v>
+        <v>11.1869903148387</v>
       </c>
       <c r="K25">
-        <v>6.51472797948866</v>
+        <v>6.46425034526498</v>
       </c>
       <c r="L25">
-        <v>10.7636083426255</v>
+        <v>10.6817540594728</v>
       </c>
       <c r="M25">
-        <v>39.276761514803</v>
+        <v>38.5216357713296</v>
       </c>
       <c r="N25">
-        <v>39.7096975344181</v>
+        <v>38.6370921008934</v>
       </c>
       <c r="O25">
-        <v>982.7313507322031</v>
+        <v>963.508231492788</v>
       </c>
       <c r="P25">
-        <v>42.6564995970818</v>
+        <v>45.6118341750523</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1121.18882795781</v>
+        <v>1119.05382277019</v>
       </c>
       <c r="C26">
-        <v>53.3508835240645</v>
+        <v>59.1192886380417</v>
       </c>
       <c r="D26">
-        <v>3.79568168949484</v>
+        <v>3.73106488324536</v>
       </c>
       <c r="E26">
-        <v>49.9899673548699</v>
+        <v>49.7994685135105</v>
       </c>
       <c r="F26">
-        <v>7.83857423093093</v>
+        <v>8.93852171704105</v>
       </c>
       <c r="G26">
-        <v>42.1141930002644</v>
+        <v>37.0383123420323</v>
       </c>
       <c r="H26">
-        <v>10.1580693453149</v>
+        <v>13.0839409812157</v>
       </c>
       <c r="I26">
-        <v>11.0977648716147</v>
+        <v>14.500307677813</v>
       </c>
       <c r="J26">
-        <v>27.6327237629884</v>
+        <v>37.5125169478174</v>
       </c>
       <c r="K26">
-        <v>7.60859379340967</v>
+        <v>10.0833992018634</v>
       </c>
       <c r="L26">
-        <v>26.2064293576737</v>
+        <v>27.6476324025224</v>
       </c>
       <c r="M26">
-        <v>72.8956944479676</v>
+        <v>68.2485331948734</v>
       </c>
       <c r="N26">
-        <v>26.4880184261478</v>
+        <v>24.7003438105027</v>
       </c>
       <c r="O26">
-        <v>2341.94572826347</v>
+        <v>2344.57636117725</v>
       </c>
       <c r="P26">
-        <v>60.8062196648584</v>
+        <v>61.8030023624981</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>222.076178662702</v>
+        <v>215.403296351577</v>
       </c>
       <c r="C27">
-        <v>1.54887602759383</v>
+        <v>2.11007300758917</v>
       </c>
       <c r="D27">
-        <v>2.62868622319847</v>
+        <v>1.85045632447918</v>
       </c>
       <c r="E27">
-        <v>13.6403049811367</v>
+        <v>12.4861478651837</v>
       </c>
       <c r="F27">
-        <v>7.50360829929867</v>
+        <v>6.6419573245293</v>
       </c>
       <c r="G27">
-        <v>0.440167490134858</v>
+        <v>0.836925846143061</v>
       </c>
       <c r="H27">
-        <v>0.32537481638068</v>
+        <v>0.265965045055199</v>
       </c>
       <c r="I27">
-        <v>2.82052342160706</v>
+        <v>2.64388413353499</v>
       </c>
       <c r="J27">
-        <v>3.10577696568167</v>
+        <v>3.87291505362003</v>
       </c>
       <c r="K27">
-        <v>1.1774600890593</v>
+        <v>0.733189343536758</v>
       </c>
       <c r="L27">
-        <v>3.53875714410202</v>
+        <v>2.61483327031669</v>
       </c>
       <c r="M27">
-        <v>0.943159848588545</v>
+        <v>0.6373677873486821</v>
       </c>
       <c r="N27">
-        <v>3.89089117510381</v>
+        <v>3.61216041054495</v>
       </c>
       <c r="O27">
-        <v>439.500038897077</v>
+        <v>426.470414141751</v>
       </c>
       <c r="P27">
-        <v>52.5953369575669</v>
+        <v>50.5536045009086</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>262.778146002168</v>
+        <v>260.49399701566</v>
       </c>
       <c r="C28">
-        <v>38.6608763265955</v>
+        <v>37.3062892799115</v>
       </c>
       <c r="D28">
-        <v>1.81488754061606</v>
+        <v>2.63253680566821</v>
       </c>
       <c r="E28">
-        <v>9.8197771023287</v>
+        <v>7.72341659095314</v>
       </c>
       <c r="F28">
-        <v>0.639143088152884</v>
+        <v>1.44857875991436</v>
       </c>
       <c r="G28">
-        <v>4.80393435946052</v>
+        <v>4.95446198657026</v>
       </c>
       <c r="H28">
-        <v>7.22051805309565</v>
+        <v>7.08449676064226</v>
       </c>
       <c r="I28">
-        <v>3.54401019367189</v>
+        <v>3.07408749385306</v>
       </c>
       <c r="J28">
-        <v>20.0842941952975</v>
+        <v>19.9758048156339</v>
       </c>
       <c r="K28">
-        <v>11.2970771763227</v>
+        <v>10.7663924952808</v>
       </c>
       <c r="L28">
-        <v>10.7452998542939</v>
+        <v>12.1054072943563</v>
       </c>
       <c r="M28">
-        <v>11.1910818070859</v>
+        <v>11.2917365617644</v>
       </c>
       <c r="N28">
-        <v>10.9712354946384</v>
+        <v>10.2636599740741</v>
       </c>
       <c r="O28">
-        <v>788.383894426093</v>
+        <v>774.1567489006241</v>
       </c>
       <c r="P28">
-        <v>76.32272271135091</v>
+        <v>76.3335226774005</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>451.676235500277</v>
+        <v>454.605674189953</v>
       </c>
       <c r="C29">
-        <v>3.31975127809631</v>
+        <v>4.28664107259658</v>
       </c>
       <c r="D29">
-        <v>1.34417218623888</v>
+        <v>1.88617329620414</v>
       </c>
       <c r="E29">
-        <v>5.10621996223577</v>
+        <v>5.92178680723621</v>
       </c>
       <c r="F29">
-        <v>26.576331290108</v>
+        <v>25.2476374266081</v>
       </c>
       <c r="G29">
-        <v>6.22145889014222</v>
+        <v>5.04931560270554</v>
       </c>
       <c r="H29">
-        <v>1.34225444707257</v>
+        <v>1.52111040305658</v>
       </c>
       <c r="I29">
-        <v>1.68850193037235</v>
+        <v>2.04114499457358</v>
       </c>
       <c r="J29">
-        <v>5.58359311475</v>
+        <v>4.554782556181</v>
       </c>
       <c r="K29">
-        <v>0.991564078741543</v>
+        <v>0.932267366905353</v>
       </c>
       <c r="L29">
-        <v>4.64219454275689</v>
+        <v>3.91792128558266</v>
       </c>
       <c r="M29">
-        <v>3.83788437109735</v>
+        <v>3.38411236577912</v>
       </c>
       <c r="N29">
-        <v>11.4252129335585</v>
+        <v>12.5173308755661</v>
       </c>
       <c r="O29">
-        <v>1100.13368712651</v>
+        <v>1091.94545014121</v>
       </c>
       <c r="P29">
-        <v>4.17541496229605</v>
+        <v>5.08022594083522</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>223.307016550679</v>
+        <v>219.008054179264</v>
       </c>
       <c r="C30">
-        <v>3.56747229632969</v>
+        <v>3.95475480922159</v>
       </c>
       <c r="D30">
-        <v>4.27017415014526</v>
+        <v>4.91542279666811</v>
       </c>
       <c r="E30">
-        <v>13.6682171156563</v>
+        <v>14.2191913502423</v>
       </c>
       <c r="F30">
-        <v>0.0912840234791044</v>
+        <v>0.177572419680849</v>
       </c>
       <c r="G30">
-        <v>4.53564739580435</v>
+        <v>4.82801839333693</v>
       </c>
       <c r="H30">
-        <v>5.56407711117862</v>
+        <v>4.40749701788725</v>
       </c>
       <c r="I30">
-        <v>2.60520354671126</v>
+        <v>2.48412999872534</v>
       </c>
       <c r="J30">
-        <v>18.6523015675857</v>
+        <v>18.1717046030679</v>
       </c>
       <c r="K30">
-        <v>5.11314178188769</v>
+        <v>4.79931900514133</v>
       </c>
       <c r="L30">
-        <v>47.9554437501378</v>
+        <v>43.6859480106301</v>
       </c>
       <c r="M30">
-        <v>9.59594803618147</v>
+        <v>9.901150846891561</v>
       </c>
       <c r="N30">
-        <v>14.8445755276178</v>
+        <v>14.5258930209341</v>
       </c>
       <c r="O30">
-        <v>586.234891255639</v>
+        <v>576.083478937567</v>
       </c>
       <c r="P30">
-        <v>7.71203822634734</v>
+        <v>7.5138093229573</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1600.69362711633</v>
+        <v>1623.11311992483</v>
       </c>
       <c r="C31">
-        <v>62.421563412593</v>
+        <v>60.1648866175186</v>
       </c>
       <c r="D31">
-        <v>10.9449027285504</v>
+        <v>11.709281938871</v>
       </c>
       <c r="E31">
-        <v>40.1319646416435</v>
+        <v>41.4110304238129</v>
       </c>
       <c r="F31">
-        <v>4.28979393961329</v>
+        <v>3.48945655111251</v>
       </c>
       <c r="G31">
-        <v>97.5236350212916</v>
+        <v>105.327008197453</v>
       </c>
       <c r="H31">
-        <v>8.33834703378364</v>
+        <v>9.940958663888161</v>
       </c>
       <c r="I31">
-        <v>16.0312368657066</v>
+        <v>18.1669378108785</v>
       </c>
       <c r="J31">
-        <v>31.399026539975</v>
+        <v>31.8569265921086</v>
       </c>
       <c r="K31">
-        <v>4.69879399438898</v>
+        <v>6.24684451244952</v>
       </c>
       <c r="L31">
-        <v>60.5008603046342</v>
+        <v>64.5684604654238</v>
       </c>
       <c r="M31">
-        <v>19.6837467241468</v>
+        <v>21.0389727459124</v>
       </c>
       <c r="N31">
-        <v>72.6350972123286</v>
+        <v>65.801017500344</v>
       </c>
       <c r="O31">
-        <v>3724.67876490664</v>
+        <v>3684.76475670669</v>
       </c>
       <c r="P31">
-        <v>17.9527719783796</v>
+        <v>16.3559771264218</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>464.277660209839</v>
+        <v>458.630549055757</v>
       </c>
       <c r="C32">
-        <v>3.09874754940104</v>
+        <v>3.47767192037933</v>
       </c>
       <c r="D32">
-        <v>0.513533877993213</v>
+        <v>0.42853590354385</v>
       </c>
       <c r="E32">
-        <v>3.48484341537484</v>
+        <v>2.90588187179</v>
       </c>
       <c r="F32">
-        <v>22.1191135570142</v>
+        <v>23.9193097491872</v>
       </c>
       <c r="G32">
-        <v>1.98555082287741</v>
+        <v>2.1509737847012</v>
       </c>
       <c r="H32">
-        <v>0.76328255561725</v>
+        <v>0.992893407228901</v>
       </c>
       <c r="I32">
-        <v>0.895639992282389</v>
+        <v>1.54808620240942</v>
       </c>
       <c r="J32">
-        <v>3.25696933455591</v>
+        <v>4.58994935192136</v>
       </c>
       <c r="K32">
-        <v>3.16911336956856</v>
+        <v>2.35875320317887</v>
       </c>
       <c r="L32">
-        <v>8.928427080479331</v>
+        <v>9.9232978394084</v>
       </c>
       <c r="M32">
-        <v>7.38594308842029</v>
+        <v>6.26574655064672</v>
       </c>
       <c r="N32">
-        <v>16.0555965123368</v>
+        <v>13.0967981974241</v>
       </c>
       <c r="O32">
-        <v>781.073712750881</v>
+        <v>771.723477472705</v>
       </c>
       <c r="P32">
-        <v>20.5349163177572</v>
+        <v>20.9895260712165</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4315.47040730316</v>
+        <v>4305.04983346467</v>
       </c>
       <c r="C33">
-        <v>91.11009006179801</v>
+        <v>89.0118341451837</v>
       </c>
       <c r="D33">
-        <v>21.515651865633</v>
+        <v>25.7618198990156</v>
       </c>
       <c r="E33">
-        <v>76.45982442380421</v>
+        <v>79.4075242155065</v>
       </c>
       <c r="F33">
-        <v>9.358812786405711</v>
+        <v>9.86929875195943</v>
       </c>
       <c r="G33">
-        <v>70.2008013849529</v>
+        <v>74.8592176553373</v>
       </c>
       <c r="H33">
-        <v>43.8549731458291</v>
+        <v>41.462191809235</v>
       </c>
       <c r="I33">
-        <v>19.4892040416849</v>
+        <v>23.6896982292055</v>
       </c>
       <c r="J33">
-        <v>88.8845390969999</v>
+        <v>93.6672012248381</v>
       </c>
       <c r="K33">
-        <v>61.255922762628</v>
+        <v>60.7833966177931</v>
       </c>
       <c r="L33">
-        <v>103.318539845197</v>
+        <v>107.426855564217</v>
       </c>
       <c r="M33">
-        <v>61.6490055198549</v>
+        <v>61.2792108214155</v>
       </c>
       <c r="N33">
-        <v>155.731683395135</v>
+        <v>137.858548835625</v>
       </c>
       <c r="O33">
-        <v>7590.05935687294</v>
+        <v>7609.98687097807</v>
       </c>
       <c r="P33">
-        <v>60.8523022286694</v>
+        <v>62.8458855913516</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1861.2677557552</v>
+        <v>1881.12082595981</v>
       </c>
       <c r="C34">
-        <v>68.0753006697027</v>
+        <v>68.7832891557442</v>
       </c>
       <c r="D34">
-        <v>99.69491978154331</v>
+        <v>106.484448160981</v>
       </c>
       <c r="E34">
-        <v>56.4355292627592</v>
+        <v>53.3188612614295</v>
       </c>
       <c r="F34">
-        <v>1.5712745045132</v>
+        <v>2.22579350482947</v>
       </c>
       <c r="G34">
-        <v>47.2741185705443</v>
+        <v>45.8458587733475</v>
       </c>
       <c r="H34">
-        <v>47.5709778762678</v>
+        <v>46.4538557122471</v>
       </c>
       <c r="I34">
-        <v>14.5117721057569</v>
+        <v>15.7774986857623</v>
       </c>
       <c r="J34">
-        <v>44.4811825538046</v>
+        <v>48.7451267744741</v>
       </c>
       <c r="K34">
-        <v>7.66274375672365</v>
+        <v>11.5318665934067</v>
       </c>
       <c r="L34">
-        <v>123.452502277367</v>
+        <v>114.661626170604</v>
       </c>
       <c r="M34">
-        <v>31.5573373791221</v>
+        <v>32.2343303261317</v>
       </c>
       <c r="N34">
-        <v>129.109829892374</v>
+        <v>124.739637109446</v>
       </c>
       <c r="O34">
-        <v>3173.20031943791</v>
+        <v>3193.02225881904</v>
       </c>
       <c r="P34">
-        <v>74.19895675600461</v>
+        <v>75.4307648798461</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>112.576324594716</v>
+        <v>110.136243685711</v>
       </c>
       <c r="C35">
-        <v>7.91893586715154</v>
+        <v>7.96052428167925</v>
       </c>
       <c r="D35">
-        <v>0.266537703920165</v>
+        <v>0.347832687198952</v>
       </c>
       <c r="E35">
-        <v>2.76917066266737</v>
+        <v>2.72743584582344</v>
       </c>
       <c r="F35">
-        <v>4.47171235961942</v>
+        <v>4.13478562551057</v>
       </c>
       <c r="G35">
-        <v>0.575386666810818</v>
+        <v>1.21491108199307</v>
       </c>
       <c r="H35">
-        <v>0.685927174711515</v>
+        <v>0.707828255326563</v>
       </c>
       <c r="I35">
-        <v>1.0482372234736</v>
+        <v>1.40761373526168</v>
       </c>
       <c r="J35">
-        <v>3.68621057196556</v>
+        <v>2.88600311232704</v>
       </c>
       <c r="K35">
-        <v>5.72751905230069</v>
+        <v>5.21646509739805</v>
       </c>
       <c r="L35">
-        <v>3.06684342353006</v>
+        <v>3.11736870746173</v>
       </c>
       <c r="M35">
-        <v>2.38548128429972</v>
+        <v>2.5597280806339</v>
       </c>
       <c r="N35">
-        <v>5.06321689186347</v>
+        <v>3.98321519798369</v>
       </c>
       <c r="O35">
-        <v>317.454616124199</v>
+        <v>305.728722547201</v>
       </c>
       <c r="P35">
-        <v>50.3809271277781</v>
+        <v>49.2443809982696</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2533.09952716586</v>
+        <v>2533.97301702281</v>
       </c>
       <c r="C36">
-        <v>65.45372695480469</v>
+        <v>63.6975532041264</v>
       </c>
       <c r="D36">
-        <v>11.683897807381</v>
+        <v>11.3276678865059</v>
       </c>
       <c r="E36">
-        <v>147.612129651301</v>
+        <v>145.280084836388</v>
       </c>
       <c r="F36">
-        <v>29.7940550026951</v>
+        <v>28.134234414117</v>
       </c>
       <c r="G36">
-        <v>83.3131284469622</v>
+        <v>87.97382807308991</v>
       </c>
       <c r="H36">
-        <v>67.9842325978553</v>
+        <v>76.52207612491</v>
       </c>
       <c r="I36">
-        <v>36.2217803425091</v>
+        <v>37.4486881789454</v>
       </c>
       <c r="J36">
-        <v>192.808987599293</v>
+        <v>203.348811065829</v>
       </c>
       <c r="K36">
-        <v>50.6523793751891</v>
+        <v>52.1976389635077</v>
       </c>
       <c r="L36">
-        <v>62.4239111246407</v>
+        <v>66.6604467742266</v>
       </c>
       <c r="M36">
-        <v>194.410217210568</v>
+        <v>193.758457369541</v>
       </c>
       <c r="N36">
-        <v>98.0309613012262</v>
+        <v>105.261811187085</v>
       </c>
       <c r="O36">
-        <v>4278.66407683355</v>
+        <v>4252.94005637786</v>
       </c>
       <c r="P36">
-        <v>44.6991079498655</v>
+        <v>50.8119438685763</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>780.608785003836</v>
+        <v>797.978822608854</v>
       </c>
       <c r="C37">
-        <v>19.3355964190132</v>
+        <v>19.7148008673669</v>
       </c>
       <c r="D37">
-        <v>3.14928209432118</v>
+        <v>3.21812874146034</v>
       </c>
       <c r="E37">
-        <v>15.8375192132021</v>
+        <v>21.1633435289484</v>
       </c>
       <c r="F37">
-        <v>30.0607081498022</v>
+        <v>34.7182692460192</v>
       </c>
       <c r="G37">
-        <v>8.38205402770784</v>
+        <v>6.23232024994799</v>
       </c>
       <c r="H37">
-        <v>24.311699542675</v>
+        <v>22.8741530970324</v>
       </c>
       <c r="I37">
-        <v>11.0575691406489</v>
+        <v>7.44384409087772</v>
       </c>
       <c r="J37">
-        <v>35.5956922615077</v>
+        <v>34.5421463277459</v>
       </c>
       <c r="K37">
-        <v>4.88892244025766</v>
+        <v>10.8809172263092</v>
       </c>
       <c r="L37">
-        <v>16.9658658240711</v>
+        <v>21.0692546746068</v>
       </c>
       <c r="M37">
-        <v>43.8920152913834</v>
+        <v>39.5772690166923</v>
       </c>
       <c r="N37">
-        <v>20.581478275764</v>
+        <v>23.0436002219305</v>
       </c>
       <c r="O37">
-        <v>1312.36567248361</v>
+        <v>1292.20244524692</v>
       </c>
       <c r="P37">
-        <v>54.2084042385819</v>
+        <v>56.8618230733559</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>794.341714033341</v>
+        <v>803.436003576709</v>
       </c>
       <c r="C38">
-        <v>24.9256181788253</v>
+        <v>23.4710380463948</v>
       </c>
       <c r="D38">
-        <v>4.66438302840854</v>
+        <v>5.17441445860049</v>
       </c>
       <c r="E38">
-        <v>45.544676559128</v>
+        <v>45.6017653393794</v>
       </c>
       <c r="F38">
-        <v>1.4654276136256</v>
+        <v>1.28233298815786</v>
       </c>
       <c r="G38">
-        <v>11.6898932025399</v>
+        <v>10.1441614417177</v>
       </c>
       <c r="H38">
-        <v>2.48735627923572</v>
+        <v>2.58990557807679</v>
       </c>
       <c r="I38">
-        <v>1.32647000752332</v>
+        <v>2.74487602126864</v>
       </c>
       <c r="J38">
-        <v>35.2685412433897</v>
+        <v>39.3204738894765</v>
       </c>
       <c r="K38">
-        <v>3.03773395836089</v>
+        <v>2.36147456930081</v>
       </c>
       <c r="L38">
-        <v>76.7700722569647</v>
+        <v>73.88272652976291</v>
       </c>
       <c r="M38">
-        <v>21.3120310332204</v>
+        <v>21.7094500330706</v>
       </c>
       <c r="N38">
-        <v>36.8012850705779</v>
+        <v>35.1961764090617</v>
       </c>
       <c r="O38">
-        <v>1405.54129309171</v>
+        <v>1407.58512347639</v>
       </c>
       <c r="P38">
-        <v>65.4926685577623</v>
+        <v>66.805213018125</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2670.90965532595</v>
+        <v>2725.86958872202</v>
       </c>
       <c r="C39">
-        <v>98.89874752823749</v>
+        <v>96.64418371355291</v>
       </c>
       <c r="D39">
-        <v>33.3831626165351</v>
+        <v>31.9925335324571</v>
       </c>
       <c r="E39">
-        <v>127.881334399654</v>
+        <v>128.53916192792</v>
       </c>
       <c r="F39">
-        <v>24.598565926507</v>
+        <v>24.2007658247305</v>
       </c>
       <c r="G39">
-        <v>126.15733368155</v>
+        <v>116.434817681112</v>
       </c>
       <c r="H39">
-        <v>51.0976252188233</v>
+        <v>54.1164362829642</v>
       </c>
       <c r="I39">
-        <v>28.6368882410013</v>
+        <v>29.4683472017322</v>
       </c>
       <c r="J39">
-        <v>179.701316107022</v>
+        <v>176.490491143268</v>
       </c>
       <c r="K39">
-        <v>54.1256907816062</v>
+        <v>53.6099622605557</v>
       </c>
       <c r="L39">
-        <v>109.610936822455</v>
+        <v>109.147579043085</v>
       </c>
       <c r="M39">
-        <v>82.609092461766</v>
+        <v>74.3342320854585</v>
       </c>
       <c r="N39">
-        <v>125.43912607822</v>
+        <v>124.529264702546</v>
       </c>
       <c r="O39">
-        <v>4881.26898558457</v>
+        <v>4857.77345615365</v>
       </c>
       <c r="P39">
-        <v>53.374327924088</v>
+        <v>56.7869937745674</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>240.081327742407</v>
+        <v>231.722458048014</v>
       </c>
       <c r="C40">
-        <v>4.35245100783012</v>
+        <v>3.61882423662997</v>
       </c>
       <c r="D40">
-        <v>7.70524446473656</v>
+        <v>7.54881033520505</v>
       </c>
       <c r="E40">
-        <v>4.25745861632635</v>
+        <v>4.7315028859383</v>
       </c>
       <c r="F40">
-        <v>0.532624080404893</v>
+        <v>0.333265621515123</v>
       </c>
       <c r="G40">
-        <v>4.43157610817788</v>
+        <v>4.75262388483218</v>
       </c>
       <c r="H40">
-        <v>3.74362505971383</v>
+        <v>4.16110665998803</v>
       </c>
       <c r="I40">
-        <v>1.26667523379438</v>
+        <v>1.56315078505373</v>
       </c>
       <c r="J40">
-        <v>12.2291290601902</v>
+        <v>11.2778422707682</v>
       </c>
       <c r="K40">
-        <v>0.860391494477593</v>
+        <v>1.599994633322</v>
       </c>
       <c r="L40">
-        <v>12.6414119894143</v>
+        <v>13.1051627618056</v>
       </c>
       <c r="M40">
-        <v>4.63088456775375</v>
+        <v>4.51012421085627</v>
       </c>
       <c r="N40">
-        <v>23.0794211640933</v>
+        <v>23.1030893481112</v>
       </c>
       <c r="O40">
-        <v>501.908002281043</v>
+        <v>485.873599473308</v>
       </c>
       <c r="P40">
-        <v>3.90307439897939</v>
+        <v>3.5760907390716</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>984.413251459846</v>
+        <v>1016.61817807329</v>
       </c>
       <c r="C41">
-        <v>14.1018761748345</v>
+        <v>13.9917827006276</v>
       </c>
       <c r="D41">
-        <v>68.8776518401024</v>
+        <v>67.2728447852154</v>
       </c>
       <c r="E41">
-        <v>38.2850717560055</v>
+        <v>32.312146550841</v>
       </c>
       <c r="F41">
-        <v>1.80579596517309</v>
+        <v>1.06874782212973</v>
       </c>
       <c r="G41">
-        <v>31.4898792413346</v>
+        <v>30.7896304417825</v>
       </c>
       <c r="H41">
-        <v>35.9607000205521</v>
+        <v>36.0400640557884</v>
       </c>
       <c r="I41">
-        <v>13.0983686997215</v>
+        <v>13.4031346765848</v>
       </c>
       <c r="J41">
-        <v>36.8782149251961</v>
+        <v>38.5441148622842</v>
       </c>
       <c r="K41">
-        <v>7.6497108444159</v>
+        <v>7.45764463596642</v>
       </c>
       <c r="L41">
-        <v>25.4921464261895</v>
+        <v>29.3907136398073</v>
       </c>
       <c r="M41">
-        <v>30.3288381958719</v>
+        <v>30.6164737159603</v>
       </c>
       <c r="N41">
-        <v>15.6992009901043</v>
+        <v>17.8885766571246</v>
       </c>
       <c r="O41">
-        <v>1556.56080073935</v>
+        <v>1543.41740885669</v>
       </c>
       <c r="P41">
-        <v>32.033981791317</v>
+        <v>31.5944224282077</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>137.728029283972</v>
+        <v>129.925290908754</v>
       </c>
       <c r="C42">
-        <v>7.96044594180492</v>
+        <v>7.72183064408666</v>
       </c>
       <c r="D42">
-        <v>1.5097399623496</v>
+        <v>1.35400947152312</v>
       </c>
       <c r="E42">
-        <v>9.378643827719911</v>
+        <v>7.98318580376561</v>
       </c>
       <c r="F42">
-        <v>2.55407912275499</v>
+        <v>2.49369977418315</v>
       </c>
       <c r="G42">
-        <v>1.53884167464697</v>
+        <v>1.70581171729792</v>
       </c>
       <c r="H42">
-        <v>0.720111584817987</v>
+        <v>1.0949607504696</v>
       </c>
       <c r="I42">
-        <v>2.25902741504283</v>
+        <v>1.80400031864752</v>
       </c>
       <c r="J42">
-        <v>6.4133692961018</v>
+        <v>5.4645244306871</v>
       </c>
       <c r="K42">
-        <v>4.37762628796794</v>
+        <v>4.35936760956745</v>
       </c>
       <c r="L42">
-        <v>6.8693373470669</v>
+        <v>7.77109960637489</v>
       </c>
       <c r="M42">
-        <v>5.44947987094593</v>
+        <v>4.74119337445337</v>
       </c>
       <c r="N42">
-        <v>13.2439060293405</v>
+        <v>12.0268839935051</v>
       </c>
       <c r="O42">
-        <v>393.745404752772</v>
+        <v>382.045978454619</v>
       </c>
       <c r="P42">
-        <v>57.6053019389432</v>
+        <v>56.1107903450322</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1504.71672498449</v>
+        <v>1485.05118395939</v>
       </c>
       <c r="C43">
-        <v>36.1611026797332</v>
+        <v>38.1117843444408</v>
       </c>
       <c r="D43">
-        <v>21.5163939599098</v>
+        <v>24.8943243375683</v>
       </c>
       <c r="E43">
-        <v>79.5116597812583</v>
+        <v>76.9462644967099</v>
       </c>
       <c r="F43">
-        <v>4.69016732043704</v>
+        <v>6.4608951816286</v>
       </c>
       <c r="G43">
-        <v>38.0382534205095</v>
+        <v>28.3202424477423</v>
       </c>
       <c r="H43">
-        <v>49.9040614235412</v>
+        <v>43.8477454007446</v>
       </c>
       <c r="I43">
-        <v>18.6400071731081</v>
+        <v>16.8658476951773</v>
       </c>
       <c r="J43">
-        <v>55.8262764854863</v>
+        <v>56.3252397317934</v>
       </c>
       <c r="K43">
-        <v>9.89996201981063</v>
+        <v>10.9416454811822</v>
       </c>
       <c r="L43">
-        <v>38.7430275168585</v>
+        <v>40.0605485809572</v>
       </c>
       <c r="M43">
-        <v>91.0931548879267</v>
+        <v>98.2439738566387</v>
       </c>
       <c r="N43">
-        <v>69.8123761884364</v>
+        <v>67.2642225901719</v>
       </c>
       <c r="O43">
-        <v>2090.52042593937</v>
+        <v>2130.75615676627</v>
       </c>
       <c r="P43">
-        <v>36.1869453625951</v>
+        <v>41.7045853362925</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4393.79454988145</v>
+        <v>4419.24771917877</v>
       </c>
       <c r="C44">
-        <v>152.906107112343</v>
+        <v>149.75230482041</v>
       </c>
       <c r="D44">
-        <v>16.7805615844631</v>
+        <v>21.0285904585728</v>
       </c>
       <c r="E44">
-        <v>92.3501991009929</v>
+        <v>98.0833165554366</v>
       </c>
       <c r="F44">
-        <v>233.862746560769</v>
+        <v>245.767993599783</v>
       </c>
       <c r="G44">
-        <v>111.786451896981</v>
+        <v>119.692011575788</v>
       </c>
       <c r="H44">
-        <v>36.187321915214</v>
+        <v>35.7492157381916</v>
       </c>
       <c r="I44">
-        <v>40.6928948953868</v>
+        <v>40.5995682591436</v>
       </c>
       <c r="J44">
-        <v>111.805319228627</v>
+        <v>108.595819256087</v>
       </c>
       <c r="K44">
-        <v>31.236546912786</v>
+        <v>33.6363205371961</v>
       </c>
       <c r="L44">
-        <v>157.069904406033</v>
+        <v>170.72381883207</v>
       </c>
       <c r="M44">
-        <v>78.5132764738467</v>
+        <v>83.0858209983225</v>
       </c>
       <c r="N44">
-        <v>87.81890495170271</v>
+        <v>89.9060075211674</v>
       </c>
       <c r="O44">
-        <v>8290.628063552471</v>
+        <v>8366.51833948825</v>
       </c>
       <c r="P44">
-        <v>213.547288774689</v>
+        <v>209.896107682815</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>416.626309998089</v>
+        <v>412.481012843784</v>
       </c>
       <c r="C45">
-        <v>18.590322375527</v>
+        <v>18.7904480643156</v>
       </c>
       <c r="D45">
-        <v>2.1888220358054</v>
+        <v>2.03053587012239</v>
       </c>
       <c r="E45">
-        <v>22.0440959722022</v>
+        <v>21.7514204763252</v>
       </c>
       <c r="F45">
-        <v>25.2171836849357</v>
+        <v>25.4769740933897</v>
       </c>
       <c r="G45">
-        <v>7.63975963512747</v>
+        <v>7.18389125380718</v>
       </c>
       <c r="H45">
-        <v>3.04321239185397</v>
+        <v>2.55879010683392</v>
       </c>
       <c r="I45">
-        <v>4.80987106288032</v>
+        <v>3.37818883799813</v>
       </c>
       <c r="J45">
-        <v>20.8766059833215</v>
+        <v>22.5602235254274</v>
       </c>
       <c r="K45">
-        <v>1.65288986722836</v>
+        <v>2.43039523123497</v>
       </c>
       <c r="L45">
-        <v>15.2438450733683</v>
+        <v>15.3879773162234</v>
       </c>
       <c r="M45">
-        <v>12.8894086353069</v>
+        <v>13.232922421369</v>
       </c>
       <c r="N45">
-        <v>29.5296371551406</v>
+        <v>29.6298309559211</v>
       </c>
       <c r="O45">
-        <v>887.125514192838</v>
+        <v>891.109561011664</v>
       </c>
       <c r="P45">
-        <v>20.5692064948112</v>
+        <v>22.058237316526</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>120.717649084201</v>
+        <v>116.498477724867</v>
       </c>
       <c r="C46">
-        <v>6.23997708637335</v>
+        <v>5.5382872712721</v>
       </c>
       <c r="D46">
-        <v>0.916070647661445</v>
+        <v>0.722710633514026</v>
       </c>
       <c r="E46">
-        <v>5.75501533212391</v>
+        <v>6.11297247581812</v>
       </c>
       <c r="F46">
-        <v>0.750067973648041</v>
+        <v>0.774613584645104</v>
       </c>
       <c r="G46">
-        <v>1.92577583819547</v>
+        <v>2.11325405412409</v>
       </c>
       <c r="H46">
-        <v>0.76723832553209</v>
+        <v>1.14094107978488</v>
       </c>
       <c r="I46">
-        <v>1.56930402616669</v>
+        <v>1.75690362021454</v>
       </c>
       <c r="J46">
-        <v>5.28392396977173</v>
+        <v>5.31855662862324</v>
       </c>
       <c r="K46">
-        <v>1.43771295688031</v>
+        <v>1.32596482068366</v>
       </c>
       <c r="L46">
-        <v>14.6774628409684</v>
+        <v>13.9914218861099</v>
       </c>
       <c r="M46">
-        <v>3.3271290355025</v>
+        <v>3.52752472099128</v>
       </c>
       <c r="N46">
-        <v>12.3594327933022</v>
+        <v>11.1089725601428</v>
       </c>
       <c r="O46">
-        <v>343.362428097559</v>
+        <v>328.061274371178</v>
       </c>
       <c r="P46">
-        <v>9.829385769291241</v>
+        <v>9.758272882932349</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1512.08162722161</v>
+        <v>1499.3433405941</v>
       </c>
       <c r="C47">
-        <v>43.9857048560269</v>
+        <v>46.900362218886</v>
       </c>
       <c r="D47">
-        <v>12.1541103145213</v>
+        <v>13.6310451644592</v>
       </c>
       <c r="E47">
-        <v>45.4238242247042</v>
+        <v>48.1786648991465</v>
       </c>
       <c r="F47">
-        <v>10.4877984643881</v>
+        <v>10.6438007782047</v>
       </c>
       <c r="G47">
-        <v>22.0503028339045</v>
+        <v>23.6169864617838</v>
       </c>
       <c r="H47">
-        <v>12.7102065185934</v>
+        <v>12.642081479006</v>
       </c>
       <c r="I47">
-        <v>4.73801881206766</v>
+        <v>6.55576004441192</v>
       </c>
       <c r="J47">
-        <v>36.8416922490272</v>
+        <v>34.1476878010886</v>
       </c>
       <c r="K47">
-        <v>5.19819795251524</v>
+        <v>5.14874482650217</v>
       </c>
       <c r="L47">
-        <v>22.5999816403483</v>
+        <v>24.5401020850585</v>
       </c>
       <c r="M47">
-        <v>62.4831961076012</v>
+        <v>67.1258044365667</v>
       </c>
       <c r="N47">
-        <v>33.0671068131794</v>
+        <v>30.0445482109797</v>
       </c>
       <c r="O47">
-        <v>2998.12738805045</v>
+        <v>3000.6871610538</v>
       </c>
       <c r="P47">
-        <v>37.7660374434466</v>
+        <v>41.8028914088243</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1255.62282354898</v>
+        <v>1271.62303207009</v>
       </c>
       <c r="C48">
-        <v>37.3056260546321</v>
+        <v>33.3764849703155</v>
       </c>
       <c r="D48">
-        <v>4.08161854889441</v>
+        <v>5.71280426360204</v>
       </c>
       <c r="E48">
-        <v>70.0421364084475</v>
+        <v>68.4901294684672</v>
       </c>
       <c r="F48">
-        <v>10.8731331965791</v>
+        <v>10.7540308640865</v>
       </c>
       <c r="G48">
-        <v>8.23344927936464</v>
+        <v>6.98498959929934</v>
       </c>
       <c r="H48">
-        <v>4.32716922369136</v>
+        <v>6.21174812937307</v>
       </c>
       <c r="I48">
-        <v>9.474274152575889</v>
+        <v>9.039505317325739</v>
       </c>
       <c r="J48">
-        <v>34.9965721116909</v>
+        <v>35.6524457904539</v>
       </c>
       <c r="K48">
-        <v>7.2695751337416</v>
+        <v>8.012260384049689</v>
       </c>
       <c r="L48">
-        <v>52.3311327681081</v>
+        <v>52.1502463952831</v>
       </c>
       <c r="M48">
-        <v>140.619246355601</v>
+        <v>139.584798587997</v>
       </c>
       <c r="N48">
-        <v>38.5170209754733</v>
+        <v>42.0638728148983</v>
       </c>
       <c r="O48">
-        <v>2420.07184482902</v>
+        <v>2422.31572270357</v>
       </c>
       <c r="P48">
-        <v>85.89160158507509</v>
+        <v>91.96425465082871</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>697.842738628572</v>
+        <v>687.054043659747</v>
       </c>
       <c r="C49">
-        <v>4.97317821494129</v>
+        <v>4.68481628560075</v>
       </c>
       <c r="D49">
-        <v>1.24729163372926</v>
+        <v>1.54719993932674</v>
       </c>
       <c r="E49">
-        <v>25.3178534118262</v>
+        <v>24.6591818171698</v>
       </c>
       <c r="F49">
-        <v>29.7455672404692</v>
+        <v>28.4867599778194</v>
       </c>
       <c r="G49">
-        <v>12.8906112584815</v>
+        <v>13.3372200608927</v>
       </c>
       <c r="H49">
-        <v>8.02418793002032</v>
+        <v>7.10432831787079</v>
       </c>
       <c r="I49">
-        <v>3.22348788856575</v>
+        <v>3.18082965971848</v>
       </c>
       <c r="J49">
-        <v>22.0048839441919</v>
+        <v>20.9684306829121</v>
       </c>
       <c r="K49">
-        <v>1.76040202270547</v>
+        <v>2.19910621116976</v>
       </c>
       <c r="L49">
-        <v>1.83817369281237</v>
+        <v>1.36998551893478</v>
       </c>
       <c r="M49">
-        <v>3.80594911876566</v>
+        <v>4.33124229224006</v>
       </c>
       <c r="N49">
-        <v>5.51576837316523</v>
+        <v>5.9784001820467</v>
       </c>
       <c r="O49">
-        <v>651.921625394235</v>
+        <v>639.289980985877</v>
       </c>
       <c r="P49">
-        <v>8.2418391446627</v>
+        <v>8.22523135523689</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>930.783973781819</v>
+        <v>933.03239266558</v>
       </c>
       <c r="C50">
-        <v>74.9055083283093</v>
+        <v>72.851801665501</v>
       </c>
       <c r="D50">
-        <v>7.24060960646341</v>
+        <v>9.45144892911296</v>
       </c>
       <c r="E50">
-        <v>134.472041848024</v>
+        <v>137.775299380441</v>
       </c>
       <c r="F50">
-        <v>4.37115886252194</v>
+        <v>4.14348313442444</v>
       </c>
       <c r="G50">
-        <v>33.4464352279838</v>
+        <v>31.3990132214649</v>
       </c>
       <c r="H50">
-        <v>37.5322357214743</v>
+        <v>40.2256528461999</v>
       </c>
       <c r="I50">
-        <v>13.015687138695</v>
+        <v>13.6427538356548</v>
       </c>
       <c r="J50">
-        <v>90.5572366892759</v>
+        <v>90.4362472898236</v>
       </c>
       <c r="K50">
-        <v>45.7329765180614</v>
+        <v>44.5453932171247</v>
       </c>
       <c r="L50">
-        <v>56.5541399455014</v>
+        <v>59.5070996835553</v>
       </c>
       <c r="M50">
-        <v>50.0587388710586</v>
+        <v>48.4003687217712</v>
       </c>
       <c r="N50">
-        <v>54.6027901733216</v>
+        <v>56.0221082938603</v>
       </c>
       <c r="O50">
-        <v>2174.41147711666</v>
+        <v>2158.34788392894</v>
       </c>
       <c r="P50">
-        <v>87.1565207644112</v>
+        <v>87.1936628214725</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>121.063598102876</v>
+        <v>116.723062804353</v>
       </c>
       <c r="C51">
-        <v>4.38177332003259</v>
+        <v>3.7818359847101</v>
       </c>
       <c r="D51">
-        <v>0.0454465854371552</v>
+        <v>0.0345567458587224</v>
       </c>
       <c r="E51">
-        <v>2.34690104454283</v>
+        <v>2.4665000788635</v>
       </c>
       <c r="F51">
-        <v>37.0031155312463</v>
+        <v>34.6150356257925</v>
       </c>
       <c r="G51">
-        <v>2.62309694191065</v>
+        <v>2.39033302110997</v>
       </c>
       <c r="H51">
-        <v>0.00679268744266324</v>
+        <v>0.074781692963548</v>
       </c>
       <c r="I51">
-        <v>1.28555025562065</v>
+        <v>1.10316518714984</v>
       </c>
       <c r="J51">
-        <v>1.17179671204702</v>
+        <v>1.36397121082334</v>
       </c>
       <c r="K51">
-        <v>0.843577033311389</v>
+        <v>0.844449439817644</v>
       </c>
       <c r="L51">
-        <v>0.840805066693836</v>
+        <v>0.60798113919076</v>
       </c>
       <c r="M51">
-        <v>0.512643699834432</v>
+        <v>0.453386139734736</v>
       </c>
       <c r="N51">
-        <v>0.777842071352029</v>
+        <v>0.79892295569605</v>
       </c>
       <c r="O51">
-        <v>306.24520583793</v>
+        <v>283.610165248552</v>
       </c>
       <c r="P51">
-        <v>32.3038290547153</v>
+        <v>28.8254823547484</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1318.65915792764</v>
+        <v>1273.8387261168</v>
       </c>
       <c r="C2">
-        <v>22.8790773999821</v>
+        <v>22.5915753542879</v>
       </c>
       <c r="D2">
-        <v>29.2389214544386</v>
+        <v>28.3989915969912</v>
       </c>
       <c r="E2">
-        <v>55.7448204428331</v>
+        <v>59.7107206505704</v>
       </c>
       <c r="F2">
-        <v>22.832683893115</v>
+        <v>23.6441643931601</v>
       </c>
       <c r="G2">
-        <v>16.0448233927361</v>
+        <v>15.2693441232545</v>
       </c>
       <c r="H2">
-        <v>17.9166024801214</v>
+        <v>19.5116079328531</v>
       </c>
       <c r="I2">
-        <v>15.6286346328251</v>
+        <v>10.2991977185403</v>
       </c>
       <c r="J2">
-        <v>80.77265793773211</v>
+        <v>87.32139500866791</v>
       </c>
       <c r="K2">
-        <v>14.2662777103298</v>
+        <v>13.4586041288399</v>
       </c>
       <c r="L2">
-        <v>50.6752248139401</v>
+        <v>63.4063802126878</v>
       </c>
       <c r="M2">
-        <v>46.890424886105</v>
+        <v>38.7311054043354</v>
       </c>
       <c r="N2">
-        <v>25.103850733596</v>
+        <v>26.1879169808045</v>
       </c>
       <c r="O2">
-        <v>1461.67684668178</v>
+        <v>1487.32288276403</v>
       </c>
       <c r="P2">
-        <v>21.4513758749986</v>
+        <v>20.5212486392254</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>144.006715684301</v>
+        <v>97.7118946605446</v>
       </c>
       <c r="C3">
-        <v>3.4107000536374</v>
+        <v>2.57507426285856</v>
       </c>
       <c r="D3">
-        <v>0.539241182357782</v>
+        <v>0.465561276736076</v>
       </c>
       <c r="E3">
-        <v>1.2359696497432</v>
+        <v>0.8003719736330091</v>
       </c>
       <c r="F3">
-        <v>9.76883294135447</v>
+        <v>6.56202402060013</v>
       </c>
       <c r="G3">
-        <v>0.381695012269403</v>
+        <v>0.16299421765216</v>
       </c>
       <c r="H3">
-        <v>0.07484770778496221</v>
+        <v>0.0242654364659684</v>
       </c>
       <c r="I3">
-        <v>0.94262617953009</v>
+        <v>0.559418321137503</v>
       </c>
       <c r="J3">
-        <v>0.258097321624736</v>
+        <v>0.294074762068273</v>
       </c>
       <c r="K3">
-        <v>0.103145163203513</v>
+        <v>0.0855780947553756</v>
       </c>
       <c r="L3">
-        <v>0.104506816677614</v>
+        <v>0.0136987010511921</v>
       </c>
       <c r="M3">
-        <v>0.597631913298195</v>
+        <v>0.387669716119283</v>
       </c>
       <c r="N3">
-        <v>1.18173216404249</v>
+        <v>0.61914412916922</v>
       </c>
       <c r="O3">
-        <v>325.250338390723</v>
+        <v>229.594136062087</v>
       </c>
       <c r="P3">
-        <v>13.4034863179187</v>
+        <v>10.5715416114018</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1333.19528999847</v>
+        <v>1361.3476259063</v>
       </c>
       <c r="C4">
-        <v>10.175492465424</v>
+        <v>11.7735809617494</v>
       </c>
       <c r="D4">
-        <v>3.02490778007253</v>
+        <v>4.92729608532253</v>
       </c>
       <c r="E4">
-        <v>20.7638557802409</v>
+        <v>18.544988285075</v>
       </c>
       <c r="F4">
-        <v>8.544755545362079</v>
+        <v>7.31128091316537</v>
       </c>
       <c r="G4">
-        <v>7.09625888747631</v>
+        <v>10.4690560902107</v>
       </c>
       <c r="H4">
-        <v>10.834287947501</v>
+        <v>14.3297176775877</v>
       </c>
       <c r="I4">
-        <v>7.65535507867612</v>
+        <v>6.3827116388614</v>
       </c>
       <c r="J4">
-        <v>29.5849387452263</v>
+        <v>36.9797650480228</v>
       </c>
       <c r="K4">
-        <v>3.28478522088836</v>
+        <v>3.33658303862839</v>
       </c>
       <c r="L4">
-        <v>64.1222195345085</v>
+        <v>68.12133868591189</v>
       </c>
       <c r="M4">
-        <v>42.1628377806301</v>
+        <v>37.0221786170151</v>
       </c>
       <c r="N4">
-        <v>30.5305694366243</v>
+        <v>27.287139632162</v>
       </c>
       <c r="O4">
-        <v>2256.82646977088</v>
+        <v>2285.72678526934</v>
       </c>
       <c r="P4">
-        <v>15.4924843798811</v>
+        <v>12.3942551698681</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>690.654174653478</v>
+        <v>681.830697607032</v>
       </c>
       <c r="C5">
-        <v>46.7991466042492</v>
+        <v>48.5168297814248</v>
       </c>
       <c r="D5">
-        <v>10.1985941681569</v>
+        <v>11.3897197313171</v>
       </c>
       <c r="E5">
-        <v>33.2935808619629</v>
+        <v>36.628797501341</v>
       </c>
       <c r="F5">
-        <v>7.47555113833413</v>
+        <v>7.87503235185636</v>
       </c>
       <c r="G5">
-        <v>5.09857561006924</v>
+        <v>4.59415458079335</v>
       </c>
       <c r="H5">
-        <v>9.26647763604084</v>
+        <v>10.6020891186847</v>
       </c>
       <c r="I5">
-        <v>6.68697439486904</v>
+        <v>5.03554688022721</v>
       </c>
       <c r="J5">
-        <v>30.4953168285646</v>
+        <v>37.2769104047249</v>
       </c>
       <c r="K5">
-        <v>5.14254597173756</v>
+        <v>5.34450277631987</v>
       </c>
       <c r="L5">
-        <v>14.5410227921847</v>
+        <v>14.2466782666265</v>
       </c>
       <c r="M5">
-        <v>18.6354133392488</v>
+        <v>21.7397226709327</v>
       </c>
       <c r="N5">
-        <v>24.0487863612914</v>
+        <v>22.1878544990724</v>
       </c>
       <c r="O5">
-        <v>973.443375418397</v>
+        <v>1029.44863403317</v>
       </c>
       <c r="P5">
-        <v>57.4345479554577</v>
+        <v>51.8049810933438</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7358.56887346679</v>
+        <v>7408.31951433881</v>
       </c>
       <c r="C6">
-        <v>201.886237468382</v>
+        <v>215.943894810709</v>
       </c>
       <c r="D6">
-        <v>45.7466863363751</v>
+        <v>36.9721461103251</v>
       </c>
       <c r="E6">
-        <v>175.241579848577</v>
+        <v>165.044031285634</v>
       </c>
       <c r="F6">
-        <v>44.1991077247046</v>
+        <v>49.7742272987703</v>
       </c>
       <c r="G6">
-        <v>117.25617952433</v>
+        <v>137.159635880227</v>
       </c>
       <c r="H6">
-        <v>53.109586863992</v>
+        <v>42.740394337684</v>
       </c>
       <c r="I6">
-        <v>42.9203157769831</v>
+        <v>46.4040206608684</v>
       </c>
       <c r="J6">
-        <v>180.873594907121</v>
+        <v>175.709084338918</v>
       </c>
       <c r="K6">
-        <v>45.9634448895048</v>
+        <v>43.3308067591278</v>
       </c>
       <c r="L6">
-        <v>438.100491143274</v>
+        <v>491.848827470389</v>
       </c>
       <c r="M6">
-        <v>258.215476620905</v>
+        <v>241.961461481545</v>
       </c>
       <c r="N6">
-        <v>279.245361703417</v>
+        <v>305.466757098584</v>
       </c>
       <c r="O6">
-        <v>13025.0972748069</v>
+        <v>13276.4163116852</v>
       </c>
       <c r="P6">
-        <v>282.452466460461</v>
+        <v>312.709292144597</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>765.409733280065</v>
+        <v>782.945053742665</v>
       </c>
       <c r="C7">
-        <v>40.6364291913293</v>
+        <v>41.6533358977655</v>
       </c>
       <c r="D7">
-        <v>3.94042427886489</v>
+        <v>4.46700594932784</v>
       </c>
       <c r="E7">
-        <v>20.6917629584469</v>
+        <v>22.6107296485334</v>
       </c>
       <c r="F7">
-        <v>15.419822782028</v>
+        <v>12.5371840371157</v>
       </c>
       <c r="G7">
-        <v>8.74642505261092</v>
+        <v>6.52464359776754</v>
       </c>
       <c r="H7">
-        <v>2.54871139674561</v>
+        <v>1.35140440630429</v>
       </c>
       <c r="I7">
-        <v>9.530625117013219</v>
+        <v>8.375722160370501</v>
       </c>
       <c r="J7">
-        <v>16.2819740549993</v>
+        <v>20.7501685136458</v>
       </c>
       <c r="K7">
-        <v>4.72179714339749</v>
+        <v>4.25903563201233</v>
       </c>
       <c r="L7">
-        <v>52.8288024133871</v>
+        <v>62.0842707854704</v>
       </c>
       <c r="M7">
-        <v>17.0072586392749</v>
+        <v>18.4559812080099</v>
       </c>
       <c r="N7">
-        <v>24.662543107533</v>
+        <v>24.0194308272919</v>
       </c>
       <c r="O7">
-        <v>1955.28711844693</v>
+        <v>2009.68654623539</v>
       </c>
       <c r="P7">
-        <v>30.9903691375776</v>
+        <v>30.4108839249874</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>631.608359545332</v>
+        <v>638.331765820334</v>
       </c>
       <c r="C8">
-        <v>13.9632462299047</v>
+        <v>13.1171375541573</v>
       </c>
       <c r="D8">
-        <v>2.75528833466707</v>
+        <v>2.56659863339286</v>
       </c>
       <c r="E8">
-        <v>22.8312023568142</v>
+        <v>23.3283953915636</v>
       </c>
       <c r="F8">
-        <v>2.21995883306809</v>
+        <v>2.22320093764415</v>
       </c>
       <c r="G8">
-        <v>23.7064755665573</v>
+        <v>24.4504766221512</v>
       </c>
       <c r="H8">
-        <v>8.479799868726371</v>
+        <v>8.49660361219054</v>
       </c>
       <c r="I8">
-        <v>8.179682840330489</v>
+        <v>8.76918289947389</v>
       </c>
       <c r="J8">
-        <v>39.1616967849972</v>
+        <v>42.0349012797462</v>
       </c>
       <c r="K8">
-        <v>9.92449937377444</v>
+        <v>10.9588213857607</v>
       </c>
       <c r="L8">
-        <v>44.1072939803873</v>
+        <v>46.4452984476217</v>
       </c>
       <c r="M8">
-        <v>50.6806664332439</v>
+        <v>54.645285770448</v>
       </c>
       <c r="N8">
-        <v>28.611755726005</v>
+        <v>26.000173063678</v>
       </c>
       <c r="O8">
-        <v>1434.18947355082</v>
+        <v>1452.08235404866</v>
       </c>
       <c r="P8">
-        <v>7.80248682840528</v>
+        <v>7.40106415102757</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>204.469015287867</v>
+        <v>170.817668416274</v>
       </c>
       <c r="C9">
-        <v>9.07138304904176</v>
+        <v>7.77464904447471</v>
       </c>
       <c r="D9">
-        <v>2.11854729462842</v>
+        <v>1.28170500378036</v>
       </c>
       <c r="E9">
-        <v>4.7634155152948</v>
+        <v>3.80115337549363</v>
       </c>
       <c r="F9">
-        <v>0.76250485998062</v>
+        <v>0.33403684865</v>
       </c>
       <c r="G9">
-        <v>22.6374825304115</v>
+        <v>20.5348081411539</v>
       </c>
       <c r="H9">
-        <v>3.20314548718843</v>
+        <v>2.22781472252697</v>
       </c>
       <c r="I9">
-        <v>1.57113530438326</v>
+        <v>1.40907975781405</v>
       </c>
       <c r="J9">
-        <v>4.95923188828934</v>
+        <v>4.22148026166625</v>
       </c>
       <c r="K9">
-        <v>0.653484250046575</v>
+        <v>0.568466762360798</v>
       </c>
       <c r="L9">
-        <v>2.9585645971579</v>
+        <v>2.75166041867012</v>
       </c>
       <c r="M9">
-        <v>6.90708562674797</v>
+        <v>6.90510206860639</v>
       </c>
       <c r="N9">
-        <v>3.39848404503958</v>
+        <v>3.37965865090137</v>
       </c>
       <c r="O9">
-        <v>407.357020583109</v>
+        <v>342.681731964929</v>
       </c>
       <c r="P9">
-        <v>6.30337492935752</v>
+        <v>5.73074445884907</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4042.97915240127</v>
+        <v>4040.59925789057</v>
       </c>
       <c r="C10">
-        <v>65.8953636157479</v>
+        <v>76.53018866853429</v>
       </c>
       <c r="D10">
-        <v>12.3133457417198</v>
+        <v>9.322160044883169</v>
       </c>
       <c r="E10">
-        <v>58.5815755583676</v>
+        <v>56.2418740019497</v>
       </c>
       <c r="F10">
-        <v>9.959923806822459</v>
+        <v>10.8917279662909</v>
       </c>
       <c r="G10">
-        <v>39.8196584301969</v>
+        <v>44.1986613006198</v>
       </c>
       <c r="H10">
-        <v>16.0975318924469</v>
+        <v>20.2018304485754</v>
       </c>
       <c r="I10">
-        <v>30.7957144120336</v>
+        <v>29.8743916578362</v>
       </c>
       <c r="J10">
-        <v>60.1438817253805</v>
+        <v>63.350057581899</v>
       </c>
       <c r="K10">
-        <v>8.655838966419641</v>
+        <v>5.85735820883579</v>
       </c>
       <c r="L10">
-        <v>71.6312706312491</v>
+        <v>65.2819620852062</v>
       </c>
       <c r="M10">
-        <v>72.4759909007889</v>
+        <v>79.1488179542522</v>
       </c>
       <c r="N10">
-        <v>92.74671447726691</v>
+        <v>93.59799384559351</v>
       </c>
       <c r="O10">
-        <v>7639.82721915855</v>
+        <v>7769.11363892958</v>
       </c>
       <c r="P10">
-        <v>74.3523313958968</v>
+        <v>72.6364072361643</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1905.19684284374</v>
+        <v>1876.91348349272</v>
       </c>
       <c r="C11">
-        <v>67.51490501804381</v>
+        <v>69.0719450321991</v>
       </c>
       <c r="D11">
-        <v>144.176758550739</v>
+        <v>159.967557831262</v>
       </c>
       <c r="E11">
-        <v>82.6896639301809</v>
+        <v>81.31672487607931</v>
       </c>
       <c r="F11">
-        <v>9.185238902959661</v>
+        <v>9.35972299674099</v>
       </c>
       <c r="G11">
-        <v>24.9860760363232</v>
+        <v>26.1975488492099</v>
       </c>
       <c r="H11">
-        <v>21.6665461316198</v>
+        <v>22.0549730764082</v>
       </c>
       <c r="I11">
-        <v>11.9406045051954</v>
+        <v>11.6968545708726</v>
       </c>
       <c r="J11">
-        <v>41.6266293647471</v>
+        <v>39.3558178122418</v>
       </c>
       <c r="K11">
-        <v>7.46801241078782</v>
+        <v>6.07232048702538</v>
       </c>
       <c r="L11">
-        <v>48.6410545298123</v>
+        <v>55.2206556218563</v>
       </c>
       <c r="M11">
-        <v>48.4342023395794</v>
+        <v>55.6866770279446</v>
       </c>
       <c r="N11">
-        <v>64.1582843912139</v>
+        <v>63.5267835574018</v>
       </c>
       <c r="O11">
-        <v>3294.15185879765</v>
+        <v>3334.5827649344</v>
       </c>
       <c r="P11">
-        <v>52.7067007195192</v>
+        <v>56.7098141735155</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>272.748468915729</v>
+        <v>235.588614732077</v>
       </c>
       <c r="C12">
-        <v>6.51986491619357</v>
+        <v>5.8093715707084</v>
       </c>
       <c r="D12">
-        <v>0.477219934612747</v>
+        <v>0.252921945325134</v>
       </c>
       <c r="E12">
-        <v>3.87423083723335</v>
+        <v>3.78815518806992</v>
       </c>
       <c r="F12">
-        <v>0.864237044014451</v>
+        <v>1.21293201224242</v>
       </c>
       <c r="G12">
-        <v>0.499940332652105</v>
+        <v>0.844020609235863</v>
       </c>
       <c r="H12">
-        <v>0.2361020451738</v>
+        <v>0.120431512670388</v>
       </c>
       <c r="I12">
-        <v>1.10881494013161</v>
+        <v>0.600614720568499</v>
       </c>
       <c r="J12">
-        <v>1.87858530143004</v>
+        <v>0.932247723026971</v>
       </c>
       <c r="K12">
-        <v>0.152738015430331</v>
+        <v>0.0219350016601539</v>
       </c>
       <c r="L12">
-        <v>0.331334337417099</v>
+        <v>0.135367860708389</v>
       </c>
       <c r="M12">
-        <v>2.96286671932174</v>
+        <v>2.20574197257599</v>
       </c>
       <c r="N12">
-        <v>3.86654035232596</v>
+        <v>2.29767505894763</v>
       </c>
       <c r="O12">
-        <v>629.377807085453</v>
+        <v>543.549988048018</v>
       </c>
       <c r="P12">
-        <v>21.3368393249201</v>
+        <v>20.230371623476</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>259.698508614704</v>
+        <v>226.893674534654</v>
       </c>
       <c r="C13">
-        <v>19.9050147691765</v>
+        <v>17.2954259671627</v>
       </c>
       <c r="D13">
-        <v>0.46980133553184</v>
+        <v>0.8248326007949161</v>
       </c>
       <c r="E13">
-        <v>12.3740592354616</v>
+        <v>12.1056553312209</v>
       </c>
       <c r="F13">
-        <v>3.21563179142503</v>
+        <v>2.09475751994174</v>
       </c>
       <c r="G13">
-        <v>5.92004517109699</v>
+        <v>6.04387425649611</v>
       </c>
       <c r="H13">
-        <v>2.6502600362167</v>
+        <v>1.7147449684893</v>
       </c>
       <c r="I13">
-        <v>2.29488671199454</v>
+        <v>1.68937102637229</v>
       </c>
       <c r="J13">
-        <v>5.95303307112776</v>
+        <v>5.2426688908185</v>
       </c>
       <c r="K13">
-        <v>4.61288835866333</v>
+        <v>3.38454776577727</v>
       </c>
       <c r="L13">
-        <v>16.366196144654</v>
+        <v>14.8388180035865</v>
       </c>
       <c r="M13">
-        <v>1.92009836861283</v>
+        <v>1.14540500851391</v>
       </c>
       <c r="N13">
-        <v>4.64558015934597</v>
+        <v>4.07436621011891</v>
       </c>
       <c r="O13">
-        <v>594.111038951974</v>
+        <v>564.4737212312</v>
       </c>
       <c r="P13">
-        <v>49.6114041461107</v>
+        <v>44.904560882845</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2475.52184743954</v>
+        <v>2462.54945622917</v>
       </c>
       <c r="C14">
-        <v>116.394673407862</v>
+        <v>121.322946420004</v>
       </c>
       <c r="D14">
-        <v>10.0909357459282</v>
+        <v>7.76748193510002</v>
       </c>
       <c r="E14">
-        <v>94.9358552007144</v>
+        <v>106.639006597261</v>
       </c>
       <c r="F14">
-        <v>19.1472775622184</v>
+        <v>22.8915967996478</v>
       </c>
       <c r="G14">
-        <v>81.9202710018866</v>
+        <v>77.7376605586344</v>
       </c>
       <c r="H14">
-        <v>40.7461865417586</v>
+        <v>38.989087765951</v>
       </c>
       <c r="I14">
-        <v>20.6036958966908</v>
+        <v>24.5857022747566</v>
       </c>
       <c r="J14">
-        <v>135.932590502186</v>
+        <v>128.963234522673</v>
       </c>
       <c r="K14">
-        <v>90.4240894820709</v>
+        <v>102.014471383179</v>
       </c>
       <c r="L14">
-        <v>106.18776313403</v>
+        <v>112.238050106517</v>
       </c>
       <c r="M14">
-        <v>77.257620924381</v>
+        <v>99.0156452102236</v>
       </c>
       <c r="N14">
-        <v>78.229044726581</v>
+        <v>70.8484663871901</v>
       </c>
       <c r="O14">
-        <v>5008.27604174511</v>
+        <v>5019.45843691395</v>
       </c>
       <c r="P14">
-        <v>54.6477313712918</v>
+        <v>66.8901516875931</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1255.94841623016</v>
+        <v>1218.43124008425</v>
       </c>
       <c r="C15">
-        <v>51.8708787613989</v>
+        <v>57.1058957825789</v>
       </c>
       <c r="D15">
-        <v>8.739770540852099</v>
+        <v>8.26627921519294</v>
       </c>
       <c r="E15">
-        <v>79.3569871722073</v>
+        <v>75.6548279496425</v>
       </c>
       <c r="F15">
-        <v>23.1390542223293</v>
+        <v>23.900514415231</v>
       </c>
       <c r="G15">
-        <v>53.3746512354016</v>
+        <v>52.9867086596741</v>
       </c>
       <c r="H15">
-        <v>38.6396010575962</v>
+        <v>35.6616677583279</v>
       </c>
       <c r="I15">
-        <v>24.5484666898609</v>
+        <v>26.3688528408492</v>
       </c>
       <c r="J15">
-        <v>157.867884815095</v>
+        <v>172.304223105555</v>
       </c>
       <c r="K15">
-        <v>23.4071993379333</v>
+        <v>23.515788339846</v>
       </c>
       <c r="L15">
-        <v>40.0084000451535</v>
+        <v>40.7844447635125</v>
       </c>
       <c r="M15">
-        <v>169.996060836658</v>
+        <v>171.635071223873</v>
       </c>
       <c r="N15">
-        <v>85.01440449934709</v>
+        <v>92.5962961364843</v>
       </c>
       <c r="O15">
-        <v>2210.55396572025</v>
+        <v>2232.00498042991</v>
       </c>
       <c r="P15">
-        <v>45.0341264333068</v>
+        <v>44.2527445374836</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>480.42095597035</v>
+        <v>458.773743228632</v>
       </c>
       <c r="C16">
-        <v>64.6028720196465</v>
+        <v>60.9310717875209</v>
       </c>
       <c r="D16">
-        <v>5.01466445240662</v>
+        <v>6.97751247173138</v>
       </c>
       <c r="E16">
-        <v>29.1035528504028</v>
+        <v>23.2796841616542</v>
       </c>
       <c r="F16">
-        <v>2.65388162071735</v>
+        <v>2.49211752700319</v>
       </c>
       <c r="G16">
-        <v>19.830492998381</v>
+        <v>19.6049287841563</v>
       </c>
       <c r="H16">
-        <v>16.4451379197068</v>
+        <v>17.4247141039342</v>
       </c>
       <c r="I16">
-        <v>6.55665910434102</v>
+        <v>7.03849182889689</v>
       </c>
       <c r="J16">
-        <v>49.215287245876</v>
+        <v>48.8544417112742</v>
       </c>
       <c r="K16">
-        <v>39.0222247594961</v>
+        <v>42.1771314789551</v>
       </c>
       <c r="L16">
-        <v>22.1747822235945</v>
+        <v>23.9664385021916</v>
       </c>
       <c r="M16">
-        <v>25.3142319932197</v>
+        <v>20.4740963024124</v>
       </c>
       <c r="N16">
-        <v>29.5320411837951</v>
+        <v>29.408044965541</v>
       </c>
       <c r="O16">
-        <v>1246.073074862</v>
+        <v>1205.78193642822</v>
       </c>
       <c r="P16">
-        <v>85.27803003752361</v>
+        <v>77.6122880457081</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>500.658262943232</v>
+        <v>478.487437348909</v>
       </c>
       <c r="C17">
-        <v>21.6429479837277</v>
+        <v>21.7883987791602</v>
       </c>
       <c r="D17">
-        <v>3.56647470678855</v>
+        <v>3.12670055799922</v>
       </c>
       <c r="E17">
-        <v>26.0990973593636</v>
+        <v>28.8683203888744</v>
       </c>
       <c r="F17">
-        <v>12.1197348854158</v>
+        <v>10.2690401137449</v>
       </c>
       <c r="G17">
-        <v>8.824664528806901</v>
+        <v>7.29169966109471</v>
       </c>
       <c r="H17">
-        <v>10.2099329009351</v>
+        <v>10.2736591538017</v>
       </c>
       <c r="I17">
-        <v>8.469190154535189</v>
+        <v>8.244322375605851</v>
       </c>
       <c r="J17">
-        <v>20.8430598377562</v>
+        <v>22.5365198396784</v>
       </c>
       <c r="K17">
-        <v>8.90518248871933</v>
+        <v>9.39837802873887</v>
       </c>
       <c r="L17">
-        <v>11.899852869324</v>
+        <v>10.7849002701002</v>
       </c>
       <c r="M17">
-        <v>62.2917432223708</v>
+        <v>60.7298958213623</v>
       </c>
       <c r="N17">
-        <v>12.7000264632849</v>
+        <v>11.9283885349875</v>
       </c>
       <c r="O17">
-        <v>1119.38667415051</v>
+        <v>1079.96625763075</v>
       </c>
       <c r="P17">
-        <v>51.181749478591</v>
+        <v>48.8055550430016</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1140.87768750854</v>
+        <v>1086.09586435897</v>
       </c>
       <c r="C18">
-        <v>33.8312031244811</v>
+        <v>29.6852462285242</v>
       </c>
       <c r="D18">
-        <v>3.90124228311856</v>
+        <v>3.92116828733705</v>
       </c>
       <c r="E18">
-        <v>34.1163080552749</v>
+        <v>30.0874244860605</v>
       </c>
       <c r="F18">
-        <v>34.4047370729128</v>
+        <v>33.1288383099608</v>
       </c>
       <c r="G18">
-        <v>17.0093518703549</v>
+        <v>17.6086874390274</v>
       </c>
       <c r="H18">
-        <v>15.3012398808145</v>
+        <v>15.3609206840514</v>
       </c>
       <c r="I18">
-        <v>3.56250980081316</v>
+        <v>2.02615275547269</v>
       </c>
       <c r="J18">
-        <v>32.0685674288174</v>
+        <v>32.1343616123896</v>
       </c>
       <c r="K18">
-        <v>7.82905663458568</v>
+        <v>7.82357411279974</v>
       </c>
       <c r="L18">
-        <v>33.1900354294552</v>
+        <v>31.3950284908825</v>
       </c>
       <c r="M18">
-        <v>65.4765930084323</v>
+        <v>70.154522364599</v>
       </c>
       <c r="N18">
-        <v>24.5263365342584</v>
+        <v>21.5647893281553</v>
       </c>
       <c r="O18">
-        <v>1537.14210080137</v>
+        <v>1480.96134707316</v>
       </c>
       <c r="P18">
-        <v>58.060970775771</v>
+        <v>64.0482814893401</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1104.25230792972</v>
+        <v>1052.985584088</v>
       </c>
       <c r="C19">
-        <v>34.2011998128273</v>
+        <v>33.352813347355</v>
       </c>
       <c r="D19">
-        <v>4.40436891108335</v>
+        <v>12.6509860199441</v>
       </c>
       <c r="E19">
-        <v>42.7388595717132</v>
+        <v>45.2243391825596</v>
       </c>
       <c r="F19">
-        <v>81.2809660715607</v>
+        <v>80.2655145224019</v>
       </c>
       <c r="G19">
-        <v>46.1514631125452</v>
+        <v>47.9348193308713</v>
       </c>
       <c r="H19">
-        <v>9.99787681691306</v>
+        <v>13.3294949816835</v>
       </c>
       <c r="I19">
-        <v>4.10754565047038</v>
+        <v>3.7759905502631</v>
       </c>
       <c r="J19">
-        <v>19.02316698586</v>
+        <v>16.690662336481</v>
       </c>
       <c r="K19">
-        <v>7.59363105466883</v>
+        <v>7.6489633738817</v>
       </c>
       <c r="L19">
-        <v>2.39610152706849</v>
+        <v>1.87424816526465</v>
       </c>
       <c r="M19">
-        <v>30.2144049916424</v>
+        <v>36.6857891329966</v>
       </c>
       <c r="N19">
-        <v>12.0429006891767</v>
+        <v>11.7375770624136</v>
       </c>
       <c r="O19">
-        <v>1576.23271932979</v>
+        <v>1558.20074380058</v>
       </c>
       <c r="P19">
-        <v>42.6619575999296</v>
+        <v>40.8080875880324</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>282.030208745381</v>
+        <v>267.458277602076</v>
       </c>
       <c r="C20">
-        <v>10.1841285955543</v>
+        <v>10.5756871295225</v>
       </c>
       <c r="D20">
-        <v>7.02453287571802</v>
+        <v>5.75077916667791</v>
       </c>
       <c r="E20">
-        <v>33.4032038326684</v>
+        <v>34.6955939853984</v>
       </c>
       <c r="F20">
-        <v>1.08793963375292</v>
+        <v>1.23523343534249</v>
       </c>
       <c r="G20">
-        <v>3.23979480813855</v>
+        <v>3.29361337238647</v>
       </c>
       <c r="H20">
-        <v>1.05223875811144</v>
+        <v>0.508956835822861</v>
       </c>
       <c r="I20">
-        <v>2.13158576372574</v>
+        <v>1.9067255141011</v>
       </c>
       <c r="J20">
-        <v>4.73093501119681</v>
+        <v>5.21387496041992</v>
       </c>
       <c r="K20">
-        <v>1.02933191229158</v>
+        <v>0.608414592777465</v>
       </c>
       <c r="L20">
-        <v>7.25903337848553</v>
+        <v>7.97182826114573</v>
       </c>
       <c r="M20">
-        <v>18.8867142660209</v>
+        <v>18.9519891187214</v>
       </c>
       <c r="N20">
-        <v>6.80806249056426</v>
+        <v>6.31027893874058</v>
       </c>
       <c r="O20">
-        <v>573.178151769323</v>
+        <v>562.673834033648</v>
       </c>
       <c r="P20">
-        <v>22.0901225616854</v>
+        <v>24.2580299704598</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1042.51303207508</v>
+        <v>1031.93590932852</v>
       </c>
       <c r="C21">
-        <v>19.8596349168542</v>
+        <v>18.2943483552339</v>
       </c>
       <c r="D21">
-        <v>1.44777704198254</v>
+        <v>2.01015887339157</v>
       </c>
       <c r="E21">
-        <v>21.7581850776715</v>
+        <v>19.7274468890484</v>
       </c>
       <c r="F21">
-        <v>2.95012100093629</v>
+        <v>3.64874505080528</v>
       </c>
       <c r="G21">
-        <v>14.4436830628235</v>
+        <v>11.5176982534753</v>
       </c>
       <c r="H21">
-        <v>5.53755229543635</v>
+        <v>7.92027748097512</v>
       </c>
       <c r="I21">
-        <v>15.46449882596</v>
+        <v>19.8124578150321</v>
       </c>
       <c r="J21">
-        <v>16.6961296605063</v>
+        <v>15.0473033272078</v>
       </c>
       <c r="K21">
-        <v>0.954829970781151</v>
+        <v>1.66368168119836</v>
       </c>
       <c r="L21">
-        <v>27.608890147815</v>
+        <v>25.1248516629338</v>
       </c>
       <c r="M21">
-        <v>18.6157045624529</v>
+        <v>14.1119643478648</v>
       </c>
       <c r="N21">
-        <v>16.539032905751</v>
+        <v>15.3762157395022</v>
       </c>
       <c r="O21">
-        <v>2372.76941958387</v>
+        <v>2404.43476921877</v>
       </c>
       <c r="P21">
-        <v>21.4997801107674</v>
+        <v>14.2281042813077</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1198.3948288317</v>
+        <v>1178.12900728234</v>
       </c>
       <c r="C22">
-        <v>21.6090922939874</v>
+        <v>20.8804622662387</v>
       </c>
       <c r="D22">
-        <v>13.654743165865</v>
+        <v>14.6132566973252</v>
       </c>
       <c r="E22">
-        <v>47.5056653297208</v>
+        <v>47.3362806520541</v>
       </c>
       <c r="F22">
-        <v>3.37101780467322</v>
+        <v>3.64915670232221</v>
       </c>
       <c r="G22">
-        <v>32.1825994689336</v>
+        <v>28.5917171744376</v>
       </c>
       <c r="H22">
-        <v>14.0221611624519</v>
+        <v>14.6047878743882</v>
       </c>
       <c r="I22">
-        <v>11.2690198546168</v>
+        <v>13.5308020078789</v>
       </c>
       <c r="J22">
-        <v>38.566050849362</v>
+        <v>42.590931503253</v>
       </c>
       <c r="K22">
-        <v>6.07163546353955</v>
+        <v>3.50642730178424</v>
       </c>
       <c r="L22">
-        <v>109.942791951213</v>
+        <v>105.317521406388</v>
       </c>
       <c r="M22">
-        <v>17.3431375581144</v>
+        <v>15.9120466622972</v>
       </c>
       <c r="N22">
-        <v>62.8716797512607</v>
+        <v>67.44054157485221</v>
       </c>
       <c r="O22">
-        <v>2702.83460595996</v>
+        <v>2765.49574063217</v>
       </c>
       <c r="P22">
-        <v>11.6198171548542</v>
+        <v>12.7773171704302</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2342.84112809425</v>
+        <v>2296.84283404537</v>
       </c>
       <c r="C23">
-        <v>32.4199582177484</v>
+        <v>27.9874115493305</v>
       </c>
       <c r="D23">
-        <v>6.71643368562467</v>
+        <v>8.659187801621791</v>
       </c>
       <c r="E23">
-        <v>53.0020544646206</v>
+        <v>58.3780152536596</v>
       </c>
       <c r="F23">
-        <v>5.69655132584363</v>
+        <v>7.1694261632742</v>
       </c>
       <c r="G23">
-        <v>55.8898325209798</v>
+        <v>56.8117912407663</v>
       </c>
       <c r="H23">
-        <v>50.7978210284596</v>
+        <v>59.4693408321116</v>
       </c>
       <c r="I23">
-        <v>17.0681393252389</v>
+        <v>20.5115747891925</v>
       </c>
       <c r="J23">
-        <v>116.397764821011</v>
+        <v>127.892151116414</v>
       </c>
       <c r="K23">
-        <v>60.8199039559136</v>
+        <v>60.1727923413191</v>
       </c>
       <c r="L23">
-        <v>34.73368594113</v>
+        <v>29.9175213406426</v>
       </c>
       <c r="M23">
-        <v>538.7757049276011</v>
+        <v>556.726400933206</v>
       </c>
       <c r="N23">
-        <v>90.8994755113013</v>
+        <v>89.573625810474</v>
       </c>
       <c r="O23">
-        <v>3412.88464827764</v>
+        <v>3461.33181870123</v>
       </c>
       <c r="P23">
-        <v>52.0603577206113</v>
+        <v>61.927247724319</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>786.853820441735</v>
+        <v>783.908412789427</v>
       </c>
       <c r="C24">
-        <v>47.595928603423</v>
+        <v>46.4561712399797</v>
       </c>
       <c r="D24">
-        <v>6.07023078969095</v>
+        <v>6.25733173286983</v>
       </c>
       <c r="E24">
-        <v>59.1546811666215</v>
+        <v>55.1228055288684</v>
       </c>
       <c r="F24">
-        <v>11.9317601780226</v>
+        <v>12.7435040540543</v>
       </c>
       <c r="G24">
-        <v>25.3981156184752</v>
+        <v>27.5659538839585</v>
       </c>
       <c r="H24">
-        <v>18.4529887666223</v>
+        <v>15.26121466251</v>
       </c>
       <c r="I24">
-        <v>16.8184212024866</v>
+        <v>16.9162739190773</v>
       </c>
       <c r="J24">
-        <v>56.7065713131957</v>
+        <v>62.4240170347398</v>
       </c>
       <c r="K24">
-        <v>20.5397956203045</v>
+        <v>17.7272845603197</v>
       </c>
       <c r="L24">
-        <v>64.9447453738721</v>
+        <v>65.17388985605309</v>
       </c>
       <c r="M24">
-        <v>25.5202199929713</v>
+        <v>27.9152714808864</v>
       </c>
       <c r="N24">
-        <v>71.1630095112906</v>
+        <v>76.88541684782351</v>
       </c>
       <c r="O24">
-        <v>2059.53565794159</v>
+        <v>2133.96921063622</v>
       </c>
       <c r="P24">
-        <v>92.3845348380565</v>
+        <v>96.6814113265801</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>797.745373753572</v>
+        <v>739.396324888696</v>
       </c>
       <c r="C25">
-        <v>41.9683801969829</v>
+        <v>44.9608563090538</v>
       </c>
       <c r="D25">
-        <v>10.883299542934</v>
+        <v>10.455659902548</v>
       </c>
       <c r="E25">
-        <v>45.3308088623301</v>
+        <v>44.5485045389403</v>
       </c>
       <c r="F25">
-        <v>16.0700924053174</v>
+        <v>12.9834960308257</v>
       </c>
       <c r="G25">
-        <v>12.990682173563</v>
+        <v>10.7941553205728</v>
       </c>
       <c r="H25">
-        <v>9.394427441578269</v>
+        <v>7.12165293461006</v>
       </c>
       <c r="I25">
-        <v>4.19946685185353</v>
+        <v>3.59657107688315</v>
       </c>
       <c r="J25">
-        <v>11.1869903148387</v>
+        <v>9.157702822383531</v>
       </c>
       <c r="K25">
-        <v>6.46425034526498</v>
+        <v>4.66622900752695</v>
       </c>
       <c r="L25">
-        <v>10.6817540594728</v>
+        <v>11.4593799332628</v>
       </c>
       <c r="M25">
-        <v>38.5216357713296</v>
+        <v>39.0979517007003</v>
       </c>
       <c r="N25">
-        <v>38.6370921008934</v>
+        <v>38.5424278347187</v>
       </c>
       <c r="O25">
-        <v>963.508231492788</v>
+        <v>920.725462719814</v>
       </c>
       <c r="P25">
-        <v>45.6118341750523</v>
+        <v>37.6993292720354</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1119.05382277019</v>
+        <v>1104.38165613011</v>
       </c>
       <c r="C26">
-        <v>59.1192886380417</v>
+        <v>57.6241174881615</v>
       </c>
       <c r="D26">
-        <v>3.73106488324536</v>
+        <v>5.13764821474753</v>
       </c>
       <c r="E26">
-        <v>49.7994685135105</v>
+        <v>49.9830287033504</v>
       </c>
       <c r="F26">
-        <v>8.93852171704105</v>
+        <v>6.65597880350659</v>
       </c>
       <c r="G26">
-        <v>37.0383123420323</v>
+        <v>47.3547018859546</v>
       </c>
       <c r="H26">
-        <v>13.0839409812157</v>
+        <v>9.45767904055826</v>
       </c>
       <c r="I26">
-        <v>14.500307677813</v>
+        <v>12.1400902218453</v>
       </c>
       <c r="J26">
-        <v>37.5125169478174</v>
+        <v>30.157183488264</v>
       </c>
       <c r="K26">
-        <v>10.0833992018634</v>
+        <v>8.060518750317</v>
       </c>
       <c r="L26">
-        <v>27.6476324025224</v>
+        <v>24.4000361117069</v>
       </c>
       <c r="M26">
-        <v>68.2485331948734</v>
+        <v>73.744805751203</v>
       </c>
       <c r="N26">
-        <v>24.7003438105027</v>
+        <v>28.6868853648894</v>
       </c>
       <c r="O26">
-        <v>2344.57636117725</v>
+        <v>2384.95656411981</v>
       </c>
       <c r="P26">
-        <v>61.8030023624981</v>
+        <v>64.7859956713026</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>215.403296351577</v>
+        <v>184.636587949571</v>
       </c>
       <c r="C27">
-        <v>2.11007300758917</v>
+        <v>1.35277050646229</v>
       </c>
       <c r="D27">
-        <v>1.85045632447918</v>
+        <v>2.288058464187</v>
       </c>
       <c r="E27">
-        <v>12.4861478651837</v>
+        <v>11.55970909778</v>
       </c>
       <c r="F27">
-        <v>6.6419573245293</v>
+        <v>7.0229461572952</v>
       </c>
       <c r="G27">
-        <v>0.836925846143061</v>
+        <v>0.465158008358966</v>
       </c>
       <c r="H27">
-        <v>0.265965045055199</v>
+        <v>0.347493036158478</v>
       </c>
       <c r="I27">
-        <v>2.64388413353499</v>
+        <v>2.7176465196533</v>
       </c>
       <c r="J27">
-        <v>3.87291505362003</v>
+        <v>2.4524173927284</v>
       </c>
       <c r="K27">
-        <v>0.733189343536758</v>
+        <v>1.14730700629273</v>
       </c>
       <c r="L27">
-        <v>2.61483327031669</v>
+        <v>2.60838157654053</v>
       </c>
       <c r="M27">
-        <v>0.6373677873486821</v>
+        <v>0.89087506588657</v>
       </c>
       <c r="N27">
-        <v>3.61216041054495</v>
+        <v>3.58043525412308</v>
       </c>
       <c r="O27">
-        <v>426.470414141751</v>
+        <v>381.003164222201</v>
       </c>
       <c r="P27">
-        <v>50.5536045009086</v>
+        <v>48.0423927692468</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>260.49399701566</v>
+        <v>244.540652155248</v>
       </c>
       <c r="C28">
-        <v>37.3062892799115</v>
+        <v>36.2504999744964</v>
       </c>
       <c r="D28">
-        <v>2.63253680566821</v>
+        <v>1.70917160914682</v>
       </c>
       <c r="E28">
-        <v>7.72341659095314</v>
+        <v>9.033172619427299</v>
       </c>
       <c r="F28">
-        <v>1.44857875991436</v>
+        <v>0.6982996090628491</v>
       </c>
       <c r="G28">
-        <v>4.95446198657026</v>
+        <v>4.15605428393592</v>
       </c>
       <c r="H28">
-        <v>7.08449676064226</v>
+        <v>7.31722215596045</v>
       </c>
       <c r="I28">
-        <v>3.07408749385306</v>
+        <v>2.9530767008519</v>
       </c>
       <c r="J28">
-        <v>19.9758048156339</v>
+        <v>16.7750288877987</v>
       </c>
       <c r="K28">
-        <v>10.7663924952808</v>
+        <v>11.2358857578212</v>
       </c>
       <c r="L28">
-        <v>12.1054072943563</v>
+        <v>9.63197959966833</v>
       </c>
       <c r="M28">
-        <v>11.2917365617644</v>
+        <v>9.67857427122987</v>
       </c>
       <c r="N28">
-        <v>10.2636599740741</v>
+        <v>9.956246102215189</v>
       </c>
       <c r="O28">
-        <v>774.1567489006241</v>
+        <v>748.7465645714621</v>
       </c>
       <c r="P28">
-        <v>76.3335226774005</v>
+        <v>69.2710723598976</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>454.605674189953</v>
+        <v>430.553732500603</v>
       </c>
       <c r="C29">
-        <v>4.28664107259658</v>
+        <v>2.3720826529485</v>
       </c>
       <c r="D29">
-        <v>1.88617329620414</v>
+        <v>1.07193866812803</v>
       </c>
       <c r="E29">
-        <v>5.92178680723621</v>
+        <v>4.52326814305575</v>
       </c>
       <c r="F29">
-        <v>25.2476374266081</v>
+        <v>27.5990544148515</v>
       </c>
       <c r="G29">
-        <v>5.04931560270554</v>
+        <v>4.88717160782428</v>
       </c>
       <c r="H29">
-        <v>1.52111040305658</v>
+        <v>1.02774458353869</v>
       </c>
       <c r="I29">
-        <v>2.04114499457358</v>
+        <v>1.91902315146302</v>
       </c>
       <c r="J29">
-        <v>4.554782556181</v>
+        <v>5.57862027385015</v>
       </c>
       <c r="K29">
-        <v>0.932267366905353</v>
+        <v>0.600777137171529</v>
       </c>
       <c r="L29">
-        <v>3.91792128558266</v>
+        <v>4.50560233612121</v>
       </c>
       <c r="M29">
-        <v>3.38411236577912</v>
+        <v>4.46461265384942</v>
       </c>
       <c r="N29">
-        <v>12.5173308755661</v>
+        <v>11.2854831606847</v>
       </c>
       <c r="O29">
-        <v>1091.94545014121</v>
+        <v>1066.81274901326</v>
       </c>
       <c r="P29">
-        <v>5.08022594083522</v>
+        <v>4.06915174674264</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>219.008054179264</v>
+        <v>195.281001935462</v>
       </c>
       <c r="C30">
-        <v>3.95475480922159</v>
+        <v>3.37907661536533</v>
       </c>
       <c r="D30">
-        <v>4.91542279666811</v>
+        <v>4.39626258237986</v>
       </c>
       <c r="E30">
-        <v>14.2191913502423</v>
+        <v>12.7539220032942</v>
       </c>
       <c r="F30">
-        <v>0.177572419680849</v>
+        <v>0.0752231922503027</v>
       </c>
       <c r="G30">
-        <v>4.82801839333693</v>
+        <v>3.72228572357712</v>
       </c>
       <c r="H30">
-        <v>4.40749701788725</v>
+        <v>4.74060958992785</v>
       </c>
       <c r="I30">
-        <v>2.48412999872534</v>
+        <v>2.20823188621604</v>
       </c>
       <c r="J30">
-        <v>18.1717046030679</v>
+        <v>17.3861491762645</v>
       </c>
       <c r="K30">
-        <v>4.79931900514133</v>
+        <v>4.86364555462448</v>
       </c>
       <c r="L30">
-        <v>43.6859480106301</v>
+        <v>45.5244710828992</v>
       </c>
       <c r="M30">
-        <v>9.901150846891561</v>
+        <v>8.462246393515439</v>
       </c>
       <c r="N30">
-        <v>14.5258930209341</v>
+        <v>13.8564577271915</v>
       </c>
       <c r="O30">
-        <v>576.083478937567</v>
+        <v>526.187368492108</v>
       </c>
       <c r="P30">
-        <v>7.5138093229573</v>
+        <v>7.54172442890787</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1623.11311992483</v>
+        <v>1582.05058135549</v>
       </c>
       <c r="C31">
-        <v>60.1648866175186</v>
+        <v>67.1056905781101</v>
       </c>
       <c r="D31">
-        <v>11.709281938871</v>
+        <v>10.3123212584817</v>
       </c>
       <c r="E31">
-        <v>41.4110304238129</v>
+        <v>40.0589226493732</v>
       </c>
       <c r="F31">
-        <v>3.48945655111251</v>
+        <v>4.13484841614402</v>
       </c>
       <c r="G31">
-        <v>105.327008197453</v>
+        <v>103.361944377563</v>
       </c>
       <c r="H31">
-        <v>9.940958663888161</v>
+        <v>8.629255900234639</v>
       </c>
       <c r="I31">
-        <v>18.1669378108785</v>
+        <v>15.9907430586415</v>
       </c>
       <c r="J31">
-        <v>31.8569265921086</v>
+        <v>30.2247739145321</v>
       </c>
       <c r="K31">
-        <v>6.24684451244952</v>
+        <v>4.7187567597071</v>
       </c>
       <c r="L31">
-        <v>64.5684604654238</v>
+        <v>61.1132220939703</v>
       </c>
       <c r="M31">
-        <v>21.0389727459124</v>
+        <v>21.9933447101199</v>
       </c>
       <c r="N31">
-        <v>65.801017500344</v>
+        <v>74.7619926794611</v>
       </c>
       <c r="O31">
-        <v>3684.76475670669</v>
+        <v>3758.33282688308</v>
       </c>
       <c r="P31">
-        <v>16.3559771264218</v>
+        <v>16.4772504719426</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>458.630549055757</v>
+        <v>437.906531891216</v>
       </c>
       <c r="C32">
-        <v>3.47767192037933</v>
+        <v>2.82550795298489</v>
       </c>
       <c r="D32">
-        <v>0.42853590354385</v>
+        <v>0.335941021497574</v>
       </c>
       <c r="E32">
-        <v>2.90588187179</v>
+        <v>3.44847281535387</v>
       </c>
       <c r="F32">
-        <v>23.9193097491872</v>
+        <v>20.3624481586944</v>
       </c>
       <c r="G32">
-        <v>2.1509737847012</v>
+        <v>2.73024557679953</v>
       </c>
       <c r="H32">
-        <v>0.992893407228901</v>
+        <v>1.16069452553998</v>
       </c>
       <c r="I32">
-        <v>1.54808620240942</v>
+        <v>1.90070386961503</v>
       </c>
       <c r="J32">
-        <v>4.58994935192136</v>
+        <v>2.91952001719834</v>
       </c>
       <c r="K32">
-        <v>2.35875320317887</v>
+        <v>2.93945560872431</v>
       </c>
       <c r="L32">
-        <v>9.9232978394084</v>
+        <v>8.35333404648264</v>
       </c>
       <c r="M32">
-        <v>6.26574655064672</v>
+        <v>8.759393611636479</v>
       </c>
       <c r="N32">
-        <v>13.0967981974241</v>
+        <v>15.8928896434528</v>
       </c>
       <c r="O32">
-        <v>771.723477472705</v>
+        <v>750.135867390331</v>
       </c>
       <c r="P32">
-        <v>20.9895260712165</v>
+        <v>19.6357889469933</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4305.04983346467</v>
+        <v>4226.63750111485</v>
       </c>
       <c r="C33">
-        <v>89.0118341451837</v>
+        <v>83.83536541641141</v>
       </c>
       <c r="D33">
-        <v>25.7618198990156</v>
+        <v>22.7119904082864</v>
       </c>
       <c r="E33">
-        <v>79.4075242155065</v>
+        <v>78.70882860681471</v>
       </c>
       <c r="F33">
-        <v>9.86929875195943</v>
+        <v>10.4550982633608</v>
       </c>
       <c r="G33">
-        <v>74.8592176553373</v>
+        <v>76.93792763969761</v>
       </c>
       <c r="H33">
-        <v>41.462191809235</v>
+        <v>44.6562440750304</v>
       </c>
       <c r="I33">
-        <v>23.6896982292055</v>
+        <v>17.5849920527156</v>
       </c>
       <c r="J33">
-        <v>93.6672012248381</v>
+        <v>92.1332556986508</v>
       </c>
       <c r="K33">
-        <v>60.7833966177931</v>
+        <v>66.2147734306203</v>
       </c>
       <c r="L33">
-        <v>107.426855564217</v>
+        <v>106.02930694411</v>
       </c>
       <c r="M33">
-        <v>61.2792108214155</v>
+        <v>59.6302059272529</v>
       </c>
       <c r="N33">
-        <v>137.858548835625</v>
+        <v>160.205908964306</v>
       </c>
       <c r="O33">
-        <v>7609.98687097807</v>
+        <v>7722.8675571582</v>
       </c>
       <c r="P33">
-        <v>62.8458855913516</v>
+        <v>56.9843488658621</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1881.12082595981</v>
+        <v>1856.95599352164</v>
       </c>
       <c r="C34">
-        <v>68.7832891557442</v>
+        <v>68.3629088009763</v>
       </c>
       <c r="D34">
-        <v>106.484448160981</v>
+        <v>104.104353144647</v>
       </c>
       <c r="E34">
-        <v>53.3188612614295</v>
+        <v>60.692181670727</v>
       </c>
       <c r="F34">
-        <v>2.22579350482947</v>
+        <v>1.81330066025849</v>
       </c>
       <c r="G34">
-        <v>45.8458587733475</v>
+        <v>54.864542804644</v>
       </c>
       <c r="H34">
-        <v>46.4538557122471</v>
+        <v>50.0096987994413</v>
       </c>
       <c r="I34">
-        <v>15.7774986857623</v>
+        <v>15.2061391979208</v>
       </c>
       <c r="J34">
-        <v>48.7451267744741</v>
+        <v>43.985232624136</v>
       </c>
       <c r="K34">
-        <v>11.5318665934067</v>
+        <v>7.98441093875095</v>
       </c>
       <c r="L34">
-        <v>114.661626170604</v>
+        <v>130.784633910172</v>
       </c>
       <c r="M34">
-        <v>32.2343303261317</v>
+        <v>32.6087859952593</v>
       </c>
       <c r="N34">
-        <v>124.739637109446</v>
+        <v>134.577399785587</v>
       </c>
       <c r="O34">
-        <v>3193.02225881904</v>
+        <v>3204.18430735182</v>
       </c>
       <c r="P34">
-        <v>75.4307648798461</v>
+        <v>88.22062744469</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>110.136243685711</v>
+        <v>93.46306163853561</v>
       </c>
       <c r="C35">
-        <v>7.96052428167925</v>
+        <v>6.66768131268406</v>
       </c>
       <c r="D35">
-        <v>0.347832687198952</v>
+        <v>0.258706778128668</v>
       </c>
       <c r="E35">
-        <v>2.72743584582344</v>
+        <v>2.50262941368137</v>
       </c>
       <c r="F35">
-        <v>4.13478562551057</v>
+        <v>3.89835359122433</v>
       </c>
       <c r="G35">
-        <v>1.21491108199307</v>
+        <v>1.21401225832265</v>
       </c>
       <c r="H35">
-        <v>0.707828255326563</v>
+        <v>0.707086951029731</v>
       </c>
       <c r="I35">
-        <v>1.40761373526168</v>
+        <v>0.833807074186054</v>
       </c>
       <c r="J35">
-        <v>2.88600311232704</v>
+        <v>3.2201604520116</v>
       </c>
       <c r="K35">
-        <v>5.21646509739805</v>
+        <v>4.98058286433933</v>
       </c>
       <c r="L35">
-        <v>3.11736870746173</v>
+        <v>2.50230265025603</v>
       </c>
       <c r="M35">
-        <v>2.5597280806339</v>
+        <v>1.89357180249947</v>
       </c>
       <c r="N35">
-        <v>3.98321519798369</v>
+        <v>4.58620449431002</v>
       </c>
       <c r="O35">
-        <v>305.728722547201</v>
+        <v>274.156822766467</v>
       </c>
       <c r="P35">
-        <v>49.2443809982696</v>
+        <v>45.0982469530598</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2533.97301702281</v>
+        <v>2520.62716821141</v>
       </c>
       <c r="C36">
-        <v>63.6975532041264</v>
+        <v>67.6033323439006</v>
       </c>
       <c r="D36">
-        <v>11.3276678865059</v>
+        <v>13.6475763122498</v>
       </c>
       <c r="E36">
-        <v>145.280084836388</v>
+        <v>145.009001594474</v>
       </c>
       <c r="F36">
-        <v>28.134234414117</v>
+        <v>44.4232104135652</v>
       </c>
       <c r="G36">
-        <v>87.97382807308991</v>
+        <v>86.80730677320081</v>
       </c>
       <c r="H36">
-        <v>76.52207612491</v>
+        <v>74.8218029765254</v>
       </c>
       <c r="I36">
-        <v>37.4486881789454</v>
+        <v>36.2121381977647</v>
       </c>
       <c r="J36">
-        <v>203.348811065829</v>
+        <v>206.424694071448</v>
       </c>
       <c r="K36">
-        <v>52.1976389635077</v>
+        <v>51.361595162753</v>
       </c>
       <c r="L36">
-        <v>66.6604467742266</v>
+        <v>66.8342709329967</v>
       </c>
       <c r="M36">
-        <v>193.758457369541</v>
+        <v>193.795855829191</v>
       </c>
       <c r="N36">
-        <v>105.261811187085</v>
+        <v>106.807581662531</v>
       </c>
       <c r="O36">
-        <v>4252.94005637786</v>
+        <v>4277.32215457641</v>
       </c>
       <c r="P36">
-        <v>50.8119438685763</v>
+        <v>48.6531006291367</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>797.978822608854</v>
+        <v>772.122163223156</v>
       </c>
       <c r="C37">
-        <v>19.7148008673669</v>
+        <v>20.5409204257957</v>
       </c>
       <c r="D37">
-        <v>3.21812874146034</v>
+        <v>5.46790873797374</v>
       </c>
       <c r="E37">
-        <v>21.1633435289484</v>
+        <v>17.4848773803876</v>
       </c>
       <c r="F37">
-        <v>34.7182692460192</v>
+        <v>30.5800906114554</v>
       </c>
       <c r="G37">
-        <v>6.23232024994799</v>
+        <v>9.604623072480379</v>
       </c>
       <c r="H37">
-        <v>22.8741530970324</v>
+        <v>27.8739628839482</v>
       </c>
       <c r="I37">
-        <v>7.44384409087772</v>
+        <v>13.0749397129363</v>
       </c>
       <c r="J37">
-        <v>34.5421463277459</v>
+        <v>38.219872691449</v>
       </c>
       <c r="K37">
-        <v>10.8809172263092</v>
+        <v>5.13214315224691</v>
       </c>
       <c r="L37">
-        <v>21.0692546746068</v>
+        <v>15.4320209521042</v>
       </c>
       <c r="M37">
-        <v>39.5772690166923</v>
+        <v>46.095473492651</v>
       </c>
       <c r="N37">
-        <v>23.0436002219305</v>
+        <v>21.7853334771892</v>
       </c>
       <c r="O37">
-        <v>1292.20244524692</v>
+        <v>1350.11274600861</v>
       </c>
       <c r="P37">
-        <v>56.8618230733559</v>
+        <v>53.3635856431818</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>803.436003576709</v>
+        <v>803.066807522459</v>
       </c>
       <c r="C38">
-        <v>23.4710380463948</v>
+        <v>27.6983358795714</v>
       </c>
       <c r="D38">
-        <v>5.17441445860049</v>
+        <v>5.45611597092097</v>
       </c>
       <c r="E38">
-        <v>45.6017653393794</v>
+        <v>45.5278344652686</v>
       </c>
       <c r="F38">
-        <v>1.28233298815786</v>
+        <v>1.46468789822743</v>
       </c>
       <c r="G38">
-        <v>10.1441614417177</v>
+        <v>13.8542714461452</v>
       </c>
       <c r="H38">
-        <v>2.58990557807679</v>
+        <v>2.67132651010379</v>
       </c>
       <c r="I38">
-        <v>2.74487602126864</v>
+        <v>1.54601137600261</v>
       </c>
       <c r="J38">
-        <v>39.3204738894765</v>
+        <v>39.0048695956888</v>
       </c>
       <c r="K38">
-        <v>2.36147456930081</v>
+        <v>3.94796577757736</v>
       </c>
       <c r="L38">
-        <v>73.88272652976291</v>
+        <v>79.8166270757454</v>
       </c>
       <c r="M38">
-        <v>21.7094500330706</v>
+        <v>22.766867748094</v>
       </c>
       <c r="N38">
-        <v>35.1961764090617</v>
+        <v>33.3541245059246</v>
       </c>
       <c r="O38">
-        <v>1407.58512347639</v>
+        <v>1431.16845377635</v>
       </c>
       <c r="P38">
-        <v>66.805213018125</v>
+        <v>72.1015090407852</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2725.86958872202</v>
+        <v>2678.48760497203</v>
       </c>
       <c r="C39">
-        <v>96.64418371355291</v>
+        <v>99.6432508373571</v>
       </c>
       <c r="D39">
-        <v>31.9925335324571</v>
+        <v>31.4088425941555</v>
       </c>
       <c r="E39">
-        <v>128.53916192792</v>
+        <v>132.335782554724</v>
       </c>
       <c r="F39">
-        <v>24.2007658247305</v>
+        <v>30.4700250068829</v>
       </c>
       <c r="G39">
-        <v>116.434817681112</v>
+        <v>119.97940140386</v>
       </c>
       <c r="H39">
-        <v>54.1164362829642</v>
+        <v>53.3594302249895</v>
       </c>
       <c r="I39">
-        <v>29.4683472017322</v>
+        <v>35.6495166953681</v>
       </c>
       <c r="J39">
-        <v>176.490491143268</v>
+        <v>188.034212090451</v>
       </c>
       <c r="K39">
-        <v>53.6099622605557</v>
+        <v>59.5272837192556</v>
       </c>
       <c r="L39">
-        <v>109.147579043085</v>
+        <v>113.869337088014</v>
       </c>
       <c r="M39">
-        <v>74.3342320854585</v>
+        <v>82.26653699268201</v>
       </c>
       <c r="N39">
-        <v>124.529264702546</v>
+        <v>122.839151059721</v>
       </c>
       <c r="O39">
-        <v>4857.77345615365</v>
+        <v>4932.75568085661</v>
       </c>
       <c r="P39">
-        <v>56.7869937745674</v>
+        <v>54.7488225750772</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>231.722458048014</v>
+        <v>206.899952193489</v>
       </c>
       <c r="C40">
-        <v>3.61882423662997</v>
+        <v>4.46921739258779</v>
       </c>
       <c r="D40">
-        <v>7.54881033520505</v>
+        <v>6.27871244652482</v>
       </c>
       <c r="E40">
-        <v>4.7315028859383</v>
+        <v>3.59785143701886</v>
       </c>
       <c r="F40">
-        <v>0.333265621515123</v>
+        <v>0.520478787922729</v>
       </c>
       <c r="G40">
-        <v>4.75262388483218</v>
+        <v>3.930889038615</v>
       </c>
       <c r="H40">
-        <v>4.16110665998803</v>
+        <v>3.18139880982046</v>
       </c>
       <c r="I40">
-        <v>1.56315078505373</v>
+        <v>0.9859528673732581</v>
       </c>
       <c r="J40">
-        <v>11.2778422707682</v>
+        <v>10.2707326789606</v>
       </c>
       <c r="K40">
-        <v>1.599994633322</v>
+        <v>0.746475798088751</v>
       </c>
       <c r="L40">
-        <v>13.1051627618056</v>
+        <v>10.5587387932792</v>
       </c>
       <c r="M40">
-        <v>4.51012421085627</v>
+        <v>3.90080025290415</v>
       </c>
       <c r="N40">
-        <v>23.1030893481112</v>
+        <v>20.2934046107577</v>
       </c>
       <c r="O40">
-        <v>485.873599473308</v>
+        <v>441.399436206627</v>
       </c>
       <c r="P40">
-        <v>3.5760907390716</v>
+        <v>2.88505443038849</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1016.61817807329</v>
+        <v>963.372166705158</v>
       </c>
       <c r="C41">
-        <v>13.9917827006276</v>
+        <v>15.1216569470062</v>
       </c>
       <c r="D41">
-        <v>67.2728447852154</v>
+        <v>63.4898953259408</v>
       </c>
       <c r="E41">
-        <v>32.312146550841</v>
+        <v>41.5504456639899</v>
       </c>
       <c r="F41">
-        <v>1.06874782212973</v>
+        <v>3.31897342654447</v>
       </c>
       <c r="G41">
-        <v>30.7896304417825</v>
+        <v>28.6722072689386</v>
       </c>
       <c r="H41">
-        <v>36.0400640557884</v>
+        <v>37.5623162059482</v>
       </c>
       <c r="I41">
-        <v>13.4031346765848</v>
+        <v>17.2562877984464</v>
       </c>
       <c r="J41">
-        <v>38.5441148622842</v>
+        <v>36.6014134827113</v>
       </c>
       <c r="K41">
-        <v>7.45764463596642</v>
+        <v>8.527955083310459</v>
       </c>
       <c r="L41">
-        <v>29.3907136398073</v>
+        <v>24.1875434669835</v>
       </c>
       <c r="M41">
-        <v>30.6164737159603</v>
+        <v>32.7736641395458</v>
       </c>
       <c r="N41">
-        <v>17.8885766571246</v>
+        <v>13.9871984835282</v>
       </c>
       <c r="O41">
-        <v>1543.41740885669</v>
+        <v>1583.73118220873</v>
       </c>
       <c r="P41">
-        <v>31.5944224282077</v>
+        <v>38.7401029829958</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>129.925290908754</v>
+        <v>101.811578515972</v>
       </c>
       <c r="C42">
-        <v>7.72183064408666</v>
+        <v>5.94288274995001</v>
       </c>
       <c r="D42">
-        <v>1.35400947152312</v>
+        <v>1.36585396739055</v>
       </c>
       <c r="E42">
-        <v>7.98318580376561</v>
+        <v>7.27908806823929</v>
       </c>
       <c r="F42">
-        <v>2.49369977418315</v>
+        <v>1.89163630571918</v>
       </c>
       <c r="G42">
-        <v>1.70581171729792</v>
+        <v>1.09374935903077</v>
       </c>
       <c r="H42">
-        <v>1.0949607504696</v>
+        <v>0.51063115781734</v>
       </c>
       <c r="I42">
-        <v>1.80400031864752</v>
+        <v>1.6038315572796</v>
       </c>
       <c r="J42">
-        <v>5.4645244306871</v>
+        <v>5.16533274811717</v>
       </c>
       <c r="K42">
-        <v>4.35936760956745</v>
+        <v>3.10493321097702</v>
       </c>
       <c r="L42">
-        <v>7.77109960637489</v>
+        <v>5.13639133555386</v>
       </c>
       <c r="M42">
-        <v>4.74119337445337</v>
+        <v>3.71265672801241</v>
       </c>
       <c r="N42">
-        <v>12.0268839935051</v>
+        <v>10.3919719583212</v>
       </c>
       <c r="O42">
-        <v>382.045978454619</v>
+        <v>307.815930651357</v>
       </c>
       <c r="P42">
-        <v>56.1107903450322</v>
+        <v>45.1675761815972</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1485.05118395939</v>
+        <v>1518.97866265836</v>
       </c>
       <c r="C43">
-        <v>38.1117843444408</v>
+        <v>39.2170116225765</v>
       </c>
       <c r="D43">
-        <v>24.8943243375683</v>
+        <v>23.7893151894226</v>
       </c>
       <c r="E43">
-        <v>76.9462644967099</v>
+        <v>86.76975592855339</v>
       </c>
       <c r="F43">
-        <v>6.4608951816286</v>
+        <v>3.42463035049197</v>
       </c>
       <c r="G43">
-        <v>28.3202424477423</v>
+        <v>37.5027288213178</v>
       </c>
       <c r="H43">
-        <v>43.8477454007446</v>
+        <v>47.9041497359943</v>
       </c>
       <c r="I43">
-        <v>16.8658476951773</v>
+        <v>20.8950549950436</v>
       </c>
       <c r="J43">
-        <v>56.3252397317934</v>
+        <v>56.6213601269807</v>
       </c>
       <c r="K43">
-        <v>10.9416454811822</v>
+        <v>8.30859454136343</v>
       </c>
       <c r="L43">
-        <v>40.0605485809572</v>
+        <v>40.656391346558</v>
       </c>
       <c r="M43">
-        <v>98.2439738566387</v>
+        <v>93.14328914138091</v>
       </c>
       <c r="N43">
-        <v>67.2642225901719</v>
+        <v>73.2324021298835</v>
       </c>
       <c r="O43">
-        <v>2130.75615676627</v>
+        <v>2140.54980366253</v>
       </c>
       <c r="P43">
-        <v>41.7045853362925</v>
+        <v>31.7700345505109</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4419.24771917877</v>
+        <v>4450.74033954075</v>
       </c>
       <c r="C44">
-        <v>149.75230482041</v>
+        <v>154.428637241968</v>
       </c>
       <c r="D44">
-        <v>21.0285904585728</v>
+        <v>18.0862662329161</v>
       </c>
       <c r="E44">
-        <v>98.0833165554366</v>
+        <v>95.7557155259732</v>
       </c>
       <c r="F44">
-        <v>245.767993599783</v>
+        <v>251.938702535451</v>
       </c>
       <c r="G44">
-        <v>119.692011575788</v>
+        <v>108.526295368871</v>
       </c>
       <c r="H44">
-        <v>35.7492157381916</v>
+        <v>37.6038893960293</v>
       </c>
       <c r="I44">
-        <v>40.5995682591436</v>
+        <v>39.5085479127321</v>
       </c>
       <c r="J44">
-        <v>108.595819256087</v>
+        <v>117.749106383381</v>
       </c>
       <c r="K44">
-        <v>33.6363205371961</v>
+        <v>30.5203170357686</v>
       </c>
       <c r="L44">
-        <v>170.72381883207</v>
+        <v>161.464140387193</v>
       </c>
       <c r="M44">
-        <v>83.0858209983225</v>
+        <v>81.3909969506464</v>
       </c>
       <c r="N44">
-        <v>89.9060075211674</v>
+        <v>88.3950187322494</v>
       </c>
       <c r="O44">
-        <v>8366.51833948825</v>
+        <v>8601.40799875232</v>
       </c>
       <c r="P44">
-        <v>209.896107682815</v>
+        <v>244.480254807898</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>412.481012843784</v>
+        <v>392.86873120505</v>
       </c>
       <c r="C45">
-        <v>18.7904480643156</v>
+        <v>19.1575490014194</v>
       </c>
       <c r="D45">
-        <v>2.03053587012239</v>
+        <v>2.24664807118355</v>
       </c>
       <c r="E45">
-        <v>21.7514204763252</v>
+        <v>19.109881116373</v>
       </c>
       <c r="F45">
-        <v>25.4769740933897</v>
+        <v>23.9463992927954</v>
       </c>
       <c r="G45">
-        <v>7.18389125380718</v>
+        <v>6.70577084562856</v>
       </c>
       <c r="H45">
-        <v>2.55879010683392</v>
+        <v>3.06352203557903</v>
       </c>
       <c r="I45">
-        <v>3.37818883799813</v>
+        <v>5.08776637318793</v>
       </c>
       <c r="J45">
-        <v>22.5602235254274</v>
+        <v>22.1973893366751</v>
       </c>
       <c r="K45">
-        <v>2.43039523123497</v>
+        <v>4.64295442475577</v>
       </c>
       <c r="L45">
-        <v>15.3879773162234</v>
+        <v>14.9570675783387</v>
       </c>
       <c r="M45">
-        <v>13.232922421369</v>
+        <v>13.9474778088063</v>
       </c>
       <c r="N45">
-        <v>29.6298309559211</v>
+        <v>27.9286168734718</v>
       </c>
       <c r="O45">
-        <v>891.109561011664</v>
+        <v>862.9399636922971</v>
       </c>
       <c r="P45">
-        <v>22.058237316526</v>
+        <v>20.8095839771797</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>116.498477724867</v>
+        <v>96.2890643247535</v>
       </c>
       <c r="C46">
-        <v>5.5382872712721</v>
+        <v>4.92871509246928</v>
       </c>
       <c r="D46">
-        <v>0.722710633514026</v>
+        <v>0.695839126442143</v>
       </c>
       <c r="E46">
-        <v>6.11297247581812</v>
+        <v>4.42568981093271</v>
       </c>
       <c r="F46">
-        <v>0.774613584645104</v>
+        <v>0.802677197233955</v>
       </c>
       <c r="G46">
-        <v>2.11325405412409</v>
+        <v>1.54327014118019</v>
       </c>
       <c r="H46">
-        <v>1.14094107978488</v>
+        <v>0.6513667851062091</v>
       </c>
       <c r="I46">
-        <v>1.75690362021454</v>
+        <v>1.34790646820741</v>
       </c>
       <c r="J46">
-        <v>5.31855662862324</v>
+        <v>4.11361833497061</v>
       </c>
       <c r="K46">
-        <v>1.32596482068366</v>
+        <v>1.08711531056034</v>
       </c>
       <c r="L46">
-        <v>13.9914218861099</v>
+        <v>11.9673131703618</v>
       </c>
       <c r="M46">
-        <v>3.52752472099128</v>
+        <v>2.49417724749811</v>
       </c>
       <c r="N46">
-        <v>11.1089725601428</v>
+        <v>9.927806045954529</v>
       </c>
       <c r="O46">
-        <v>328.061274371178</v>
+        <v>274.458309342567</v>
       </c>
       <c r="P46">
-        <v>9.758272882932349</v>
+        <v>8.057990590819861</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1499.3433405941</v>
+        <v>1517.58902586123</v>
       </c>
       <c r="C47">
-        <v>46.900362218886</v>
+        <v>44.0303881826832</v>
       </c>
       <c r="D47">
-        <v>13.6310451644592</v>
+        <v>14.4384265227279</v>
       </c>
       <c r="E47">
-        <v>48.1786648991465</v>
+        <v>52.9650720081795</v>
       </c>
       <c r="F47">
-        <v>10.6438007782047</v>
+        <v>13.1435860359529</v>
       </c>
       <c r="G47">
-        <v>23.6169864617838</v>
+        <v>22.4420779763176</v>
       </c>
       <c r="H47">
-        <v>12.642081479006</v>
+        <v>10.6328750974628</v>
       </c>
       <c r="I47">
-        <v>6.55576004441192</v>
+        <v>3.53472715712689</v>
       </c>
       <c r="J47">
-        <v>34.1476878010886</v>
+        <v>42.4142486822834</v>
       </c>
       <c r="K47">
-        <v>5.14874482650217</v>
+        <v>3.95470101580487</v>
       </c>
       <c r="L47">
-        <v>24.5401020850585</v>
+        <v>21.5506133788693</v>
       </c>
       <c r="M47">
-        <v>67.1258044365667</v>
+        <v>67.09423493921361</v>
       </c>
       <c r="N47">
-        <v>30.0445482109797</v>
+        <v>35.5205456491617</v>
       </c>
       <c r="O47">
-        <v>3000.6871610538</v>
+        <v>3034.98418384821</v>
       </c>
       <c r="P47">
-        <v>41.8028914088243</v>
+        <v>36.6171635407629</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1271.62303207009</v>
+        <v>1237.95826754231</v>
       </c>
       <c r="C48">
-        <v>33.3764849703155</v>
+        <v>37.577435407781</v>
       </c>
       <c r="D48">
-        <v>5.71280426360204</v>
+        <v>4.61219488661559</v>
       </c>
       <c r="E48">
-        <v>68.4901294684672</v>
+        <v>69.49251509255841</v>
       </c>
       <c r="F48">
-        <v>10.7540308640865</v>
+        <v>9.209403705040881</v>
       </c>
       <c r="G48">
-        <v>6.98498959929934</v>
+        <v>7.11684536760166</v>
       </c>
       <c r="H48">
-        <v>6.21174812937307</v>
+        <v>4.19230805079543</v>
       </c>
       <c r="I48">
-        <v>9.039505317325739</v>
+        <v>10.4962583718549</v>
       </c>
       <c r="J48">
-        <v>35.6524457904539</v>
+        <v>35.9241539712823</v>
       </c>
       <c r="K48">
-        <v>8.012260384049689</v>
+        <v>15.6865397079845</v>
       </c>
       <c r="L48">
-        <v>52.1502463952831</v>
+        <v>48.2394415429007</v>
       </c>
       <c r="M48">
-        <v>139.584798587997</v>
+        <v>145.247077369239</v>
       </c>
       <c r="N48">
-        <v>42.0638728148983</v>
+        <v>42.3306169803661</v>
       </c>
       <c r="O48">
-        <v>2422.31572270357</v>
+        <v>2480.40705928523</v>
       </c>
       <c r="P48">
-        <v>91.96425465082871</v>
+        <v>100.459560041833</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>687.054043659747</v>
+        <v>618.571635196716</v>
       </c>
       <c r="C49">
-        <v>4.68481628560075</v>
+        <v>4.72243159290746</v>
       </c>
       <c r="D49">
-        <v>1.54719993932674</v>
+        <v>2.10191981778021</v>
       </c>
       <c r="E49">
-        <v>24.6591818171698</v>
+        <v>23.016589738543</v>
       </c>
       <c r="F49">
-        <v>28.4867599778194</v>
+        <v>29.443750706144</v>
       </c>
       <c r="G49">
-        <v>13.3372200608927</v>
+        <v>10.7349646386174</v>
       </c>
       <c r="H49">
-        <v>7.10432831787079</v>
+        <v>9.45567072218436</v>
       </c>
       <c r="I49">
-        <v>3.18082965971848</v>
+        <v>3.20015218336159</v>
       </c>
       <c r="J49">
-        <v>20.9684306829121</v>
+        <v>20.4585238396639</v>
       </c>
       <c r="K49">
-        <v>2.19910621116976</v>
+        <v>1.75716638860326</v>
       </c>
       <c r="L49">
-        <v>1.36998551893478</v>
+        <v>1.28790297237934</v>
       </c>
       <c r="M49">
-        <v>4.33124229224006</v>
+        <v>3.29286596365873</v>
       </c>
       <c r="N49">
-        <v>5.9784001820467</v>
+        <v>4.92380291151069</v>
       </c>
       <c r="O49">
-        <v>639.289980985877</v>
+        <v>598.589932031684</v>
       </c>
       <c r="P49">
-        <v>8.22523135523689</v>
+        <v>6.97343698180447</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>933.03239266558</v>
+        <v>919.5317137964699</v>
       </c>
       <c r="C50">
-        <v>72.851801665501</v>
+        <v>77.57287362344999</v>
       </c>
       <c r="D50">
-        <v>9.45144892911296</v>
+        <v>7.03332153121563</v>
       </c>
       <c r="E50">
-        <v>137.775299380441</v>
+        <v>141.48488129814</v>
       </c>
       <c r="F50">
-        <v>4.14348313442444</v>
+        <v>4.35600954488762</v>
       </c>
       <c r="G50">
-        <v>31.3990132214649</v>
+        <v>31.4513646909895</v>
       </c>
       <c r="H50">
-        <v>40.2256528461999</v>
+        <v>41.3424544981319</v>
       </c>
       <c r="I50">
-        <v>13.6427538356548</v>
+        <v>15.5624475390049</v>
       </c>
       <c r="J50">
-        <v>90.4362472898236</v>
+        <v>90.91121479952091</v>
       </c>
       <c r="K50">
-        <v>44.5453932171247</v>
+        <v>49.2645813588398</v>
       </c>
       <c r="L50">
-        <v>59.5070996835553</v>
+        <v>53.5461423126157</v>
       </c>
       <c r="M50">
-        <v>48.4003687217712</v>
+        <v>51.8699152448983</v>
       </c>
       <c r="N50">
-        <v>56.0221082938603</v>
+        <v>56.2898638438209</v>
       </c>
       <c r="O50">
-        <v>2158.34788392894</v>
+        <v>2210.02532622759</v>
       </c>
       <c r="P50">
-        <v>87.1936628214725</v>
+        <v>82.22507724429791</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>116.723062804353</v>
+        <v>80.0826256275362</v>
       </c>
       <c r="C51">
-        <v>3.7818359847101</v>
+        <v>2.29559245186912</v>
       </c>
       <c r="D51">
-        <v>0.0345567458587224</v>
+        <v>0.0557184540618723</v>
       </c>
       <c r="E51">
-        <v>2.4665000788635</v>
+        <v>1.42521487962613</v>
       </c>
       <c r="F51">
-        <v>34.6150356257925</v>
+        <v>26.841474094326</v>
       </c>
       <c r="G51">
-        <v>2.39033302110997</v>
+        <v>1.96239388079211</v>
       </c>
       <c r="H51">
-        <v>0.074781692963548</v>
+        <v>0.00732064584771635</v>
       </c>
       <c r="I51">
-        <v>1.10316518714984</v>
+        <v>0.862212096552166</v>
       </c>
       <c r="J51">
-        <v>1.36397121082334</v>
+        <v>0.702326784019077</v>
       </c>
       <c r="K51">
-        <v>0.844449439817644</v>
+        <v>0.627636760631612</v>
       </c>
       <c r="L51">
-        <v>0.60798113919076</v>
+        <v>0.609651320955507</v>
       </c>
       <c r="M51">
-        <v>0.453386139734736</v>
+        <v>0.284157660678748</v>
       </c>
       <c r="N51">
-        <v>0.79892295569605</v>
+        <v>0.332324100798514</v>
       </c>
       <c r="O51">
-        <v>283.610165248552</v>
+        <v>211.358949580917</v>
       </c>
       <c r="P51">
-        <v>28.8254823547484</v>
+        <v>23.6094281296442</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1273.8387261168</v>
+        <v>1418.81482786665</v>
       </c>
       <c r="C2">
-        <v>22.5915753542879</v>
+        <v>31.1739611452963</v>
       </c>
       <c r="D2">
-        <v>28.3989915969912</v>
+        <v>23.5060960759452</v>
       </c>
       <c r="E2">
-        <v>59.7107206505704</v>
+        <v>67.1249796028269</v>
       </c>
       <c r="F2">
-        <v>23.6441643931601</v>
+        <v>24.8348985702398</v>
       </c>
       <c r="G2">
-        <v>15.2693441232545</v>
+        <v>8.39654710755284</v>
       </c>
       <c r="H2">
-        <v>19.5116079328531</v>
+        <v>20.3981607264198</v>
       </c>
       <c r="I2">
-        <v>10.2991977185403</v>
+        <v>4.99729810684551</v>
       </c>
       <c r="J2">
-        <v>87.32139500866791</v>
+        <v>81.0348972519067</v>
       </c>
       <c r="K2">
-        <v>13.4586041288399</v>
+        <v>10.6523463598225</v>
       </c>
       <c r="L2">
-        <v>63.4063802126878</v>
+        <v>50.3151067324768</v>
       </c>
       <c r="M2">
-        <v>38.7311054043354</v>
+        <v>30.9601249739137</v>
       </c>
       <c r="N2">
-        <v>26.1879169808045</v>
+        <v>20.2487148788155</v>
       </c>
       <c r="O2">
-        <v>1487.32288276403</v>
+        <v>1358.28910566677</v>
       </c>
       <c r="P2">
-        <v>20.5212486392254</v>
+        <v>19.3770225126011</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>97.7118946605446</v>
+        <v>114.916853789547</v>
       </c>
       <c r="C3">
-        <v>2.57507426285856</v>
+        <v>2.75582567168505</v>
       </c>
       <c r="D3">
-        <v>0.465561276736076</v>
+        <v>0.339000620634809</v>
       </c>
       <c r="E3">
-        <v>0.8003719736330091</v>
+        <v>1.20388254782767</v>
       </c>
       <c r="F3">
-        <v>6.56202402060013</v>
+        <v>6.31546675615901</v>
       </c>
       <c r="G3">
-        <v>0.16299421765216</v>
+        <v>0.113575150624134</v>
       </c>
       <c r="H3">
-        <v>0.0242654364659684</v>
+        <v>0.0139602117258645</v>
       </c>
       <c r="I3">
-        <v>0.559418321137503</v>
+        <v>1.25284090166438</v>
       </c>
       <c r="J3">
-        <v>0.294074762068273</v>
+        <v>0.343362244965481</v>
       </c>
       <c r="K3">
-        <v>0.0855780947553756</v>
+        <v>0.0181295851883123</v>
       </c>
       <c r="L3">
-        <v>0.0136987010511921</v>
+        <v>0.31656340330316</v>
       </c>
       <c r="M3">
-        <v>0.387669716119283</v>
+        <v>0.529792825302422</v>
       </c>
       <c r="N3">
-        <v>0.61914412916922</v>
+        <v>1.10165360807312</v>
       </c>
       <c r="O3">
-        <v>229.594136062087</v>
+        <v>213.22753221463</v>
       </c>
       <c r="P3">
-        <v>10.5715416114018</v>
+        <v>8.62780230552711</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1361.3476259063</v>
+        <v>1604.35640865014</v>
       </c>
       <c r="C4">
-        <v>11.7735809617494</v>
+        <v>7.63175398763516</v>
       </c>
       <c r="D4">
-        <v>4.92729608532253</v>
+        <v>8.417740189423951</v>
       </c>
       <c r="E4">
-        <v>18.544988285075</v>
+        <v>13.8534558325064</v>
       </c>
       <c r="F4">
-        <v>7.31128091316537</v>
+        <v>9.78742980632618</v>
       </c>
       <c r="G4">
-        <v>10.4690560902107</v>
+        <v>11.0996323382011</v>
       </c>
       <c r="H4">
-        <v>14.3297176775877</v>
+        <v>13.3778615429228</v>
       </c>
       <c r="I4">
-        <v>6.3827116388614</v>
+        <v>12.2356184410773</v>
       </c>
       <c r="J4">
-        <v>36.9797650480228</v>
+        <v>29.6071487282269</v>
       </c>
       <c r="K4">
-        <v>3.33658303862839</v>
+        <v>2.39061963772394</v>
       </c>
       <c r="L4">
-        <v>68.12133868591189</v>
+        <v>54.1162959459491</v>
       </c>
       <c r="M4">
-        <v>37.0221786170151</v>
+        <v>37.1785107552423</v>
       </c>
       <c r="N4">
-        <v>27.287139632162</v>
+        <v>15.2344215055705</v>
       </c>
       <c r="O4">
-        <v>2285.72678526934</v>
+        <v>2073.10245881384</v>
       </c>
       <c r="P4">
-        <v>12.3942551698681</v>
+        <v>21.1424344460701</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>681.830697607032</v>
+        <v>823.016534289063</v>
       </c>
       <c r="C5">
-        <v>48.5168297814248</v>
+        <v>37.7096575896231</v>
       </c>
       <c r="D5">
-        <v>11.3897197313171</v>
+        <v>8.67292503905851</v>
       </c>
       <c r="E5">
-        <v>36.628797501341</v>
+        <v>28.677590525366</v>
       </c>
       <c r="F5">
-        <v>7.87503235185636</v>
+        <v>9.4421126543731</v>
       </c>
       <c r="G5">
-        <v>4.59415458079335</v>
+        <v>3.3034416089493</v>
       </c>
       <c r="H5">
-        <v>10.6020891186847</v>
+        <v>7.79903759375127</v>
       </c>
       <c r="I5">
-        <v>5.03554688022721</v>
+        <v>0.8800626621895991</v>
       </c>
       <c r="J5">
-        <v>37.2769104047249</v>
+        <v>33.5983983760725</v>
       </c>
       <c r="K5">
-        <v>5.34450277631987</v>
+        <v>6.01420384945066</v>
       </c>
       <c r="L5">
-        <v>14.2466782666265</v>
+        <v>13.7399467010671</v>
       </c>
       <c r="M5">
-        <v>21.7397226709327</v>
+        <v>18.3106850376981</v>
       </c>
       <c r="N5">
-        <v>22.1878544990724</v>
+        <v>18.7634308551103</v>
       </c>
       <c r="O5">
-        <v>1029.44863403317</v>
+        <v>915.44156904437</v>
       </c>
       <c r="P5">
-        <v>51.8049810933438</v>
+        <v>40.1632276249021</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7408.31951433881</v>
+        <v>9063.53754420288</v>
       </c>
       <c r="C6">
-        <v>215.943894810709</v>
+        <v>178.237040820616</v>
       </c>
       <c r="D6">
-        <v>36.9721461103251</v>
+        <v>30.8653594613471</v>
       </c>
       <c r="E6">
-        <v>165.044031285634</v>
+        <v>149.780037726811</v>
       </c>
       <c r="F6">
-        <v>49.7742272987703</v>
+        <v>50.5259106439629</v>
       </c>
       <c r="G6">
-        <v>137.159635880227</v>
+        <v>100.070919491006</v>
       </c>
       <c r="H6">
-        <v>42.740394337684</v>
+        <v>33.1472063610102</v>
       </c>
       <c r="I6">
-        <v>46.4040206608684</v>
+        <v>41.3252325069971</v>
       </c>
       <c r="J6">
-        <v>175.709084338918</v>
+        <v>165.242459040967</v>
       </c>
       <c r="K6">
-        <v>43.3308067591278</v>
+        <v>39.8440265397434</v>
       </c>
       <c r="L6">
-        <v>491.848827470389</v>
+        <v>398.025983249976</v>
       </c>
       <c r="M6">
-        <v>241.961461481545</v>
+        <v>212.36214379788</v>
       </c>
       <c r="N6">
-        <v>305.466757098584</v>
+        <v>255.884243178333</v>
       </c>
       <c r="O6">
-        <v>13276.4163116852</v>
+        <v>12034.7850086049</v>
       </c>
       <c r="P6">
-        <v>312.709292144597</v>
+        <v>238.440103876533</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>782.945053742665</v>
+        <v>975.09286953152</v>
       </c>
       <c r="C7">
-        <v>41.6533358977655</v>
+        <v>34.4426241294077</v>
       </c>
       <c r="D7">
-        <v>4.46700594932784</v>
+        <v>4.53732067479982</v>
       </c>
       <c r="E7">
-        <v>22.6107296485334</v>
+        <v>22.8599856020719</v>
       </c>
       <c r="F7">
-        <v>12.5371840371157</v>
+        <v>13.7546835735611</v>
       </c>
       <c r="G7">
-        <v>6.52464359776754</v>
+        <v>4.55177259635939</v>
       </c>
       <c r="H7">
-        <v>1.35140440630429</v>
+        <v>3.21014829459268</v>
       </c>
       <c r="I7">
-        <v>8.375722160370501</v>
+        <v>6.70861393070838</v>
       </c>
       <c r="J7">
-        <v>20.7501685136458</v>
+        <v>26.466151623658</v>
       </c>
       <c r="K7">
-        <v>4.25903563201233</v>
+        <v>3.9431267716813</v>
       </c>
       <c r="L7">
-        <v>62.0842707854704</v>
+        <v>53.0769634963483</v>
       </c>
       <c r="M7">
-        <v>18.4559812080099</v>
+        <v>11.402956748546</v>
       </c>
       <c r="N7">
-        <v>24.0194308272919</v>
+        <v>17.9767739906633</v>
       </c>
       <c r="O7">
-        <v>2009.68654623539</v>
+        <v>1850.537270335</v>
       </c>
       <c r="P7">
-        <v>30.4108839249874</v>
+        <v>23.4864817543155</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>638.331765820334</v>
+        <v>863.504839157093</v>
       </c>
       <c r="C8">
-        <v>13.1171375541573</v>
+        <v>11.4097170395612</v>
       </c>
       <c r="D8">
-        <v>2.56659863339286</v>
+        <v>3.88739451164888</v>
       </c>
       <c r="E8">
-        <v>23.3283953915636</v>
+        <v>20.1002926904301</v>
       </c>
       <c r="F8">
-        <v>2.22320093764415</v>
+        <v>4.52367235680781</v>
       </c>
       <c r="G8">
-        <v>24.4504766221512</v>
+        <v>18.6295755998914</v>
       </c>
       <c r="H8">
-        <v>8.49660361219054</v>
+        <v>7.03540493552927</v>
       </c>
       <c r="I8">
-        <v>8.76918289947389</v>
+        <v>7.37895424438298</v>
       </c>
       <c r="J8">
-        <v>42.0349012797462</v>
+        <v>31.7415050724586</v>
       </c>
       <c r="K8">
-        <v>10.9588213857607</v>
+        <v>10.7802812520714</v>
       </c>
       <c r="L8">
-        <v>46.4452984476217</v>
+        <v>40.9087978734154</v>
       </c>
       <c r="M8">
-        <v>54.645285770448</v>
+        <v>53.0290285969149</v>
       </c>
       <c r="N8">
-        <v>26.000173063678</v>
+        <v>20.1044815085402</v>
       </c>
       <c r="O8">
-        <v>1452.08235404866</v>
+        <v>1264.81932985716</v>
       </c>
       <c r="P8">
-        <v>7.40106415102757</v>
+        <v>9.2981599361388</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>170.817668416274</v>
+        <v>219.658496740136</v>
       </c>
       <c r="C9">
-        <v>7.77464904447471</v>
+        <v>6.12919329323295</v>
       </c>
       <c r="D9">
-        <v>1.28170500378036</v>
+        <v>1.78654541222153</v>
       </c>
       <c r="E9">
-        <v>3.80115337549363</v>
+        <v>3.45569881187235</v>
       </c>
       <c r="F9">
-        <v>0.33403684865</v>
+        <v>0.649220608676945</v>
       </c>
       <c r="G9">
-        <v>20.5348081411539</v>
+        <v>15.4855997569778</v>
       </c>
       <c r="H9">
-        <v>2.22781472252697</v>
+        <v>2.34798541346414</v>
       </c>
       <c r="I9">
-        <v>1.40907975781405</v>
+        <v>0.894698248847137</v>
       </c>
       <c r="J9">
-        <v>4.22148026166625</v>
+        <v>2.85562015052395</v>
       </c>
       <c r="K9">
-        <v>0.568466762360798</v>
+        <v>1.09709476915753</v>
       </c>
       <c r="L9">
-        <v>2.75166041867012</v>
+        <v>1.15296300368892</v>
       </c>
       <c r="M9">
-        <v>6.90510206860639</v>
+        <v>6.22581230131126</v>
       </c>
       <c r="N9">
-        <v>3.37965865090137</v>
+        <v>3.35342501630945</v>
       </c>
       <c r="O9">
-        <v>342.681731964929</v>
+        <v>303.281808207568</v>
       </c>
       <c r="P9">
-        <v>5.73074445884907</v>
+        <v>5.03017521751636</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4040.59925789057</v>
+        <v>5318.98302155863</v>
       </c>
       <c r="C10">
-        <v>76.53018866853429</v>
+        <v>72.3227062528622</v>
       </c>
       <c r="D10">
-        <v>9.322160044883169</v>
+        <v>14.5686263629552</v>
       </c>
       <c r="E10">
-        <v>56.2418740019497</v>
+        <v>48.3825673935913</v>
       </c>
       <c r="F10">
-        <v>10.8917279662909</v>
+        <v>5.79261006989946</v>
       </c>
       <c r="G10">
-        <v>44.1986613006198</v>
+        <v>32.565723309318</v>
       </c>
       <c r="H10">
-        <v>20.2018304485754</v>
+        <v>10.3739413491792</v>
       </c>
       <c r="I10">
-        <v>29.8743916578362</v>
+        <v>27.4059976192481</v>
       </c>
       <c r="J10">
-        <v>63.350057581899</v>
+        <v>51.0395175801464</v>
       </c>
       <c r="K10">
-        <v>5.85735820883579</v>
+        <v>6.78241766618403</v>
       </c>
       <c r="L10">
-        <v>65.2819620852062</v>
+        <v>68.1251320508697</v>
       </c>
       <c r="M10">
-        <v>79.1488179542522</v>
+        <v>65.8629468059133</v>
       </c>
       <c r="N10">
-        <v>93.59799384559351</v>
+        <v>77.3039452184191</v>
       </c>
       <c r="O10">
-        <v>7769.11363892958</v>
+        <v>6676.24964354697</v>
       </c>
       <c r="P10">
-        <v>72.6364072361643</v>
+        <v>65.72394144874581</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1876.91348349272</v>
+        <v>2211.02303986492</v>
       </c>
       <c r="C11">
-        <v>69.0719450321991</v>
+        <v>61.5837895455916</v>
       </c>
       <c r="D11">
-        <v>159.967557831262</v>
+        <v>129.831765248794</v>
       </c>
       <c r="E11">
-        <v>81.31672487607931</v>
+        <v>75.7580851482611</v>
       </c>
       <c r="F11">
-        <v>9.35972299674099</v>
+        <v>15.4444266268054</v>
       </c>
       <c r="G11">
-        <v>26.1975488492099</v>
+        <v>23.7019241906307</v>
       </c>
       <c r="H11">
-        <v>22.0549730764082</v>
+        <v>19.3438590238936</v>
       </c>
       <c r="I11">
-        <v>11.6968545708726</v>
+        <v>7.05829828797908</v>
       </c>
       <c r="J11">
-        <v>39.3558178122418</v>
+        <v>55.4958740417117</v>
       </c>
       <c r="K11">
-        <v>6.07232048702538</v>
+        <v>12.2924205842028</v>
       </c>
       <c r="L11">
-        <v>55.2206556218563</v>
+        <v>28.8585760159782</v>
       </c>
       <c r="M11">
-        <v>55.6866770279446</v>
+        <v>39.3615563990508</v>
       </c>
       <c r="N11">
-        <v>63.5267835574018</v>
+        <v>54.5666520167046</v>
       </c>
       <c r="O11">
-        <v>3334.5827649344</v>
+        <v>3022.00000504913</v>
       </c>
       <c r="P11">
-        <v>56.7098141735155</v>
+        <v>26.9200157310873</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>235.588614732077</v>
+        <v>317.569882940044</v>
       </c>
       <c r="C12">
-        <v>5.8093715707084</v>
+        <v>4.29664165321617</v>
       </c>
       <c r="D12">
-        <v>0.252921945325134</v>
+        <v>0.429611048536274</v>
       </c>
       <c r="E12">
-        <v>3.78815518806992</v>
+        <v>2.89597971183471</v>
       </c>
       <c r="F12">
-        <v>1.21293201224242</v>
+        <v>1.19823579921799</v>
       </c>
       <c r="G12">
-        <v>0.844020609235863</v>
+        <v>0.430294873014878</v>
       </c>
       <c r="H12">
-        <v>0.120431512670388</v>
+        <v>0.125337726584032</v>
       </c>
       <c r="I12">
-        <v>0.600614720568499</v>
+        <v>0.17064420862609</v>
       </c>
       <c r="J12">
-        <v>0.932247723026971</v>
+        <v>0.384911454772763</v>
       </c>
       <c r="K12">
-        <v>0.0219350016601539</v>
+        <v>0.580664367427708</v>
       </c>
       <c r="L12">
-        <v>0.135367860708389</v>
+        <v>0.203672951902915</v>
       </c>
       <c r="M12">
-        <v>2.20574197257599</v>
+        <v>2.67307481298749</v>
       </c>
       <c r="N12">
-        <v>2.29767505894763</v>
+        <v>2.37153573098355</v>
       </c>
       <c r="O12">
-        <v>543.549988048018</v>
+        <v>479.873055142126</v>
       </c>
       <c r="P12">
-        <v>20.230371623476</v>
+        <v>13.7401211882415</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>226.893674534654</v>
+        <v>319.158932115245</v>
       </c>
       <c r="C13">
-        <v>17.2954259671627</v>
+        <v>16.1506776225393</v>
       </c>
       <c r="D13">
-        <v>0.8248326007949161</v>
+        <v>1.47122357339508</v>
       </c>
       <c r="E13">
-        <v>12.1056553312209</v>
+        <v>8.374500206116331</v>
       </c>
       <c r="F13">
-        <v>2.09475751994174</v>
+        <v>2.424676365501</v>
       </c>
       <c r="G13">
-        <v>6.04387425649611</v>
+        <v>5.50372406308467</v>
       </c>
       <c r="H13">
-        <v>1.7147449684893</v>
+        <v>3.22436803918665</v>
       </c>
       <c r="I13">
-        <v>1.68937102637229</v>
+        <v>2.45998072947134</v>
       </c>
       <c r="J13">
-        <v>5.2426688908185</v>
+        <v>4.33542637550542</v>
       </c>
       <c r="K13">
-        <v>3.38454776577727</v>
+        <v>3.61888663201656</v>
       </c>
       <c r="L13">
-        <v>14.8388180035865</v>
+        <v>13.088371876818</v>
       </c>
       <c r="M13">
-        <v>1.14540500851391</v>
+        <v>1.24067845594927</v>
       </c>
       <c r="N13">
-        <v>4.07436621011891</v>
+        <v>3.22001399721656</v>
       </c>
       <c r="O13">
-        <v>564.4737212312</v>
+        <v>495.940457387739</v>
       </c>
       <c r="P13">
-        <v>44.904560882845</v>
+        <v>37.991732270805</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2462.54945622917</v>
+        <v>3275.96506904871</v>
       </c>
       <c r="C14">
-        <v>121.322946420004</v>
+        <v>102.61588708702</v>
       </c>
       <c r="D14">
-        <v>7.76748193510002</v>
+        <v>4.20924253089282</v>
       </c>
       <c r="E14">
-        <v>106.639006597261</v>
+        <v>77.1006849821093</v>
       </c>
       <c r="F14">
-        <v>22.8915967996478</v>
+        <v>30.282279078919</v>
       </c>
       <c r="G14">
-        <v>77.7376605586344</v>
+        <v>54.6983139748471</v>
       </c>
       <c r="H14">
-        <v>38.989087765951</v>
+        <v>35.7236641316372</v>
       </c>
       <c r="I14">
-        <v>24.5857022747566</v>
+        <v>20.2796531135904</v>
       </c>
       <c r="J14">
-        <v>128.963234522673</v>
+        <v>92.3561475676797</v>
       </c>
       <c r="K14">
-        <v>102.014471383179</v>
+        <v>80.3219433619514</v>
       </c>
       <c r="L14">
-        <v>112.238050106517</v>
+        <v>93.4961777039502</v>
       </c>
       <c r="M14">
-        <v>99.0156452102236</v>
+        <v>84.4297828693914</v>
       </c>
       <c r="N14">
-        <v>70.8484663871901</v>
+        <v>66.1577461873008</v>
       </c>
       <c r="O14">
-        <v>5019.45843691395</v>
+        <v>4420.4286924218</v>
       </c>
       <c r="P14">
-        <v>66.8901516875931</v>
+        <v>44.4011916111773</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1218.43124008425</v>
+        <v>1556.67079686803</v>
       </c>
       <c r="C15">
-        <v>57.1058957825789</v>
+        <v>57.4995400246281</v>
       </c>
       <c r="D15">
-        <v>8.26627921519294</v>
+        <v>5.10974825081254</v>
       </c>
       <c r="E15">
-        <v>75.6548279496425</v>
+        <v>64.3803141151006</v>
       </c>
       <c r="F15">
-        <v>23.900514415231</v>
+        <v>18.4433686677174</v>
       </c>
       <c r="G15">
-        <v>52.9867086596741</v>
+        <v>45.7073772330296</v>
       </c>
       <c r="H15">
-        <v>35.6616677583279</v>
+        <v>35.1460176119538</v>
       </c>
       <c r="I15">
-        <v>26.3688528408492</v>
+        <v>20.0734750835738</v>
       </c>
       <c r="J15">
-        <v>172.304223105555</v>
+        <v>148.168641684077</v>
       </c>
       <c r="K15">
-        <v>23.515788339846</v>
+        <v>22.7451444039529</v>
       </c>
       <c r="L15">
-        <v>40.7844447635125</v>
+        <v>30.4450831806826</v>
       </c>
       <c r="M15">
-        <v>171.635071223873</v>
+        <v>155.806866492561</v>
       </c>
       <c r="N15">
-        <v>92.5962961364843</v>
+        <v>78.50531250128159</v>
       </c>
       <c r="O15">
-        <v>2232.00498042991</v>
+        <v>1971.82291709602</v>
       </c>
       <c r="P15">
-        <v>44.2527445374836</v>
+        <v>48.8715615848863</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>458.773743228632</v>
+        <v>643.674936080564</v>
       </c>
       <c r="C16">
-        <v>60.9310717875209</v>
+        <v>51.8395070950455</v>
       </c>
       <c r="D16">
-        <v>6.97751247173138</v>
+        <v>9.243746142672631</v>
       </c>
       <c r="E16">
-        <v>23.2796841616542</v>
+        <v>16.03357445378</v>
       </c>
       <c r="F16">
-        <v>2.49211752700319</v>
+        <v>4.2386972742478</v>
       </c>
       <c r="G16">
-        <v>19.6049287841563</v>
+        <v>14.6864436789796</v>
       </c>
       <c r="H16">
-        <v>17.4247141039342</v>
+        <v>15.3875340224588</v>
       </c>
       <c r="I16">
-        <v>7.03849182889689</v>
+        <v>5.04788177850732</v>
       </c>
       <c r="J16">
-        <v>48.8544417112742</v>
+        <v>43.5161594286152</v>
       </c>
       <c r="K16">
-        <v>42.1771314789551</v>
+        <v>37.6248032506729</v>
       </c>
       <c r="L16">
-        <v>23.9664385021916</v>
+        <v>21.337062789063</v>
       </c>
       <c r="M16">
-        <v>20.4740963024124</v>
+        <v>17.5541355524923</v>
       </c>
       <c r="N16">
-        <v>29.408044965541</v>
+        <v>23.9391369543486</v>
       </c>
       <c r="O16">
-        <v>1205.78193642822</v>
+        <v>1059.79936550815</v>
       </c>
       <c r="P16">
-        <v>77.6122880457081</v>
+        <v>65.5306495594557</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>478.487437348909</v>
+        <v>621.2034013956001</v>
       </c>
       <c r="C17">
-        <v>21.7883987791602</v>
+        <v>20.2467320640287</v>
       </c>
       <c r="D17">
-        <v>3.12670055799922</v>
+        <v>7.748950849041</v>
       </c>
       <c r="E17">
-        <v>28.8683203888744</v>
+        <v>28.1476852888261</v>
       </c>
       <c r="F17">
-        <v>10.2690401137449</v>
+        <v>8.491980980322779</v>
       </c>
       <c r="G17">
-        <v>7.29169966109471</v>
+        <v>2.78330373385702</v>
       </c>
       <c r="H17">
-        <v>10.2736591538017</v>
+        <v>6.94595682752981</v>
       </c>
       <c r="I17">
-        <v>8.244322375605851</v>
+        <v>4.73485240330639</v>
       </c>
       <c r="J17">
-        <v>22.5365198396784</v>
+        <v>23.9194850431612</v>
       </c>
       <c r="K17">
-        <v>9.39837802873887</v>
+        <v>6.42727795521259</v>
       </c>
       <c r="L17">
-        <v>10.7849002701002</v>
+        <v>9.867126229822761</v>
       </c>
       <c r="M17">
-        <v>60.7298958213623</v>
+        <v>55.8557746207544</v>
       </c>
       <c r="N17">
-        <v>11.9283885349875</v>
+        <v>14.3068117637363</v>
       </c>
       <c r="O17">
-        <v>1079.96625763075</v>
+        <v>982.003327358825</v>
       </c>
       <c r="P17">
-        <v>48.8055550430016</v>
+        <v>38.6854649550084</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1086.09586435897</v>
+        <v>1254.73181477981</v>
       </c>
       <c r="C18">
-        <v>29.6852462285242</v>
+        <v>24.1443493017671</v>
       </c>
       <c r="D18">
-        <v>3.92116828733705</v>
+        <v>5.31683395864376</v>
       </c>
       <c r="E18">
-        <v>30.0874244860605</v>
+        <v>20.2413362932221</v>
       </c>
       <c r="F18">
-        <v>33.1288383099608</v>
+        <v>30.9782791819528</v>
       </c>
       <c r="G18">
-        <v>17.6086874390274</v>
+        <v>10.4985526316047</v>
       </c>
       <c r="H18">
-        <v>15.3609206840514</v>
+        <v>16.8915953991954</v>
       </c>
       <c r="I18">
-        <v>2.02615275547269</v>
+        <v>2.76156929374535</v>
       </c>
       <c r="J18">
-        <v>32.1343616123896</v>
+        <v>21.982179134146</v>
       </c>
       <c r="K18">
-        <v>7.82357411279974</v>
+        <v>8.05969877160917</v>
       </c>
       <c r="L18">
-        <v>31.3950284908825</v>
+        <v>19.0364470249789</v>
       </c>
       <c r="M18">
-        <v>70.154522364599</v>
+        <v>58.9185591533165</v>
       </c>
       <c r="N18">
-        <v>21.5647893281553</v>
+        <v>24.9331841550327</v>
       </c>
       <c r="O18">
-        <v>1480.96134707316</v>
+        <v>1345.29985706751</v>
       </c>
       <c r="P18">
-        <v>64.0482814893401</v>
+        <v>54.2635240714433</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1052.985584088</v>
+        <v>1261.89293462056</v>
       </c>
       <c r="C19">
-        <v>33.352813347355</v>
+        <v>29.2498507038314</v>
       </c>
       <c r="D19">
-        <v>12.6509860199441</v>
+        <v>13.116415318045</v>
       </c>
       <c r="E19">
-        <v>45.2243391825596</v>
+        <v>39.3259110483481</v>
       </c>
       <c r="F19">
-        <v>80.2655145224019</v>
+        <v>61.0320603721785</v>
       </c>
       <c r="G19">
-        <v>47.9348193308713</v>
+        <v>38.3379803344365</v>
       </c>
       <c r="H19">
-        <v>13.3294949816835</v>
+        <v>8.89577067087323</v>
       </c>
       <c r="I19">
-        <v>3.7759905502631</v>
+        <v>2.4244154752207</v>
       </c>
       <c r="J19">
-        <v>16.690662336481</v>
+        <v>10.1699690635392</v>
       </c>
       <c r="K19">
-        <v>7.6489633738817</v>
+        <v>5.72084213759202</v>
       </c>
       <c r="L19">
-        <v>1.87424816526465</v>
+        <v>4.38154568562988</v>
       </c>
       <c r="M19">
-        <v>36.6857891329966</v>
+        <v>24.8149898346044</v>
       </c>
       <c r="N19">
-        <v>11.7375770624136</v>
+        <v>7.77763881465068</v>
       </c>
       <c r="O19">
-        <v>1558.20074380058</v>
+        <v>1483.07172285447</v>
       </c>
       <c r="P19">
-        <v>40.8080875880324</v>
+        <v>26.5648161433932</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>267.458277602076</v>
+        <v>349.941892444536</v>
       </c>
       <c r="C20">
-        <v>10.5756871295225</v>
+        <v>8.95944553310173</v>
       </c>
       <c r="D20">
-        <v>5.75077916667791</v>
+        <v>4.24601121619698</v>
       </c>
       <c r="E20">
-        <v>34.6955939853984</v>
+        <v>31.0416765371225</v>
       </c>
       <c r="F20">
-        <v>1.23523343534249</v>
+        <v>1.83539053907586</v>
       </c>
       <c r="G20">
-        <v>3.29361337238647</v>
+        <v>1.39510924636843</v>
       </c>
       <c r="H20">
-        <v>0.508956835822861</v>
+        <v>0.408005400621765</v>
       </c>
       <c r="I20">
-        <v>1.9067255141011</v>
+        <v>0.86976624852385</v>
       </c>
       <c r="J20">
-        <v>5.21387496041992</v>
+        <v>6.11003778870369</v>
       </c>
       <c r="K20">
-        <v>0.608414592777465</v>
+        <v>0.346276823843581</v>
       </c>
       <c r="L20">
-        <v>7.97182826114573</v>
+        <v>6.14239566975096</v>
       </c>
       <c r="M20">
-        <v>18.9519891187214</v>
+        <v>13.2280648334563</v>
       </c>
       <c r="N20">
-        <v>6.31027893874058</v>
+        <v>3.70041542620517</v>
       </c>
       <c r="O20">
-        <v>562.673834033648</v>
+        <v>499.193843405449</v>
       </c>
       <c r="P20">
-        <v>24.2580299704598</v>
+        <v>18.1418383039317</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1031.93590932852</v>
+        <v>1373.81473056957</v>
       </c>
       <c r="C21">
-        <v>18.2943483552339</v>
+        <v>11.1974724835599</v>
       </c>
       <c r="D21">
-        <v>2.01015887339157</v>
+        <v>0.469935851600461</v>
       </c>
       <c r="E21">
-        <v>19.7274468890484</v>
+        <v>20.8542974616477</v>
       </c>
       <c r="F21">
-        <v>3.64874505080528</v>
+        <v>6.08706863640884</v>
       </c>
       <c r="G21">
-        <v>11.5176982534753</v>
+        <v>11.1163615769078</v>
       </c>
       <c r="H21">
-        <v>7.92027748097512</v>
+        <v>6.08806354289353</v>
       </c>
       <c r="I21">
-        <v>19.8124578150321</v>
+        <v>24.4601985428405</v>
       </c>
       <c r="J21">
-        <v>15.0473033272078</v>
+        <v>13.6873903986704</v>
       </c>
       <c r="K21">
-        <v>1.66368168119836</v>
+        <v>2.76141851357544</v>
       </c>
       <c r="L21">
-        <v>25.1248516629338</v>
+        <v>25.010481859833</v>
       </c>
       <c r="M21">
-        <v>14.1119643478648</v>
+        <v>12.6135593425157</v>
       </c>
       <c r="N21">
-        <v>15.3762157395022</v>
+        <v>14.9291851182097</v>
       </c>
       <c r="O21">
-        <v>2404.43476921877</v>
+        <v>2140.72382247596</v>
       </c>
       <c r="P21">
-        <v>14.2281042813077</v>
+        <v>11.4761434015721</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1178.12900728234</v>
+        <v>1589.02911075484</v>
       </c>
       <c r="C22">
-        <v>20.8804622662387</v>
+        <v>15.6056881945228</v>
       </c>
       <c r="D22">
-        <v>14.6132566973252</v>
+        <v>6.49586280592346</v>
       </c>
       <c r="E22">
-        <v>47.3362806520541</v>
+        <v>21.2441135794354</v>
       </c>
       <c r="F22">
-        <v>3.64915670232221</v>
+        <v>3.79090858592454</v>
       </c>
       <c r="G22">
-        <v>28.5917171744376</v>
+        <v>25.9526035120795</v>
       </c>
       <c r="H22">
-        <v>14.6047878743882</v>
+        <v>14.4385370467098</v>
       </c>
       <c r="I22">
-        <v>13.5308020078789</v>
+        <v>16.4103233246871</v>
       </c>
       <c r="J22">
-        <v>42.590931503253</v>
+        <v>38.7733858086578</v>
       </c>
       <c r="K22">
-        <v>3.50642730178424</v>
+        <v>2.00886529115697</v>
       </c>
       <c r="L22">
-        <v>105.317521406388</v>
+        <v>83.7874189238877</v>
       </c>
       <c r="M22">
-        <v>15.9120466622972</v>
+        <v>7.90075385259575</v>
       </c>
       <c r="N22">
-        <v>67.44054157485221</v>
+        <v>55.2168603399185</v>
       </c>
       <c r="O22">
-        <v>2765.49574063217</v>
+        <v>2444.57231700545</v>
       </c>
       <c r="P22">
-        <v>12.7773171704302</v>
+        <v>15.6065114538447</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2296.84283404537</v>
+        <v>2651.28029376527</v>
       </c>
       <c r="C23">
-        <v>27.9874115493305</v>
+        <v>22.9917363238207</v>
       </c>
       <c r="D23">
-        <v>8.659187801621791</v>
+        <v>7.81175949323487</v>
       </c>
       <c r="E23">
-        <v>58.3780152536596</v>
+        <v>45.3924530314728</v>
       </c>
       <c r="F23">
-        <v>7.1694261632742</v>
+        <v>17.0883920771994</v>
       </c>
       <c r="G23">
-        <v>56.8117912407663</v>
+        <v>50.9138877330521</v>
       </c>
       <c r="H23">
-        <v>59.4693408321116</v>
+        <v>35.3099810913735</v>
       </c>
       <c r="I23">
-        <v>20.5115747891925</v>
+        <v>20.8808803239151</v>
       </c>
       <c r="J23">
-        <v>127.892151116414</v>
+        <v>116.068122504461</v>
       </c>
       <c r="K23">
-        <v>60.1727923413191</v>
+        <v>52.7022021704949</v>
       </c>
       <c r="L23">
-        <v>29.9175213406426</v>
+        <v>22.72106442973</v>
       </c>
       <c r="M23">
-        <v>556.726400933206</v>
+        <v>489.076642586227</v>
       </c>
       <c r="N23">
-        <v>89.573625810474</v>
+        <v>91.9927114729124</v>
       </c>
       <c r="O23">
-        <v>3461.33181870123</v>
+        <v>3245.21432142922</v>
       </c>
       <c r="P23">
-        <v>61.927247724319</v>
+        <v>56.3167915932713</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>783.908412789427</v>
+        <v>1014.73649943241</v>
       </c>
       <c r="C24">
-        <v>46.4561712399797</v>
+        <v>35.9898995508049</v>
       </c>
       <c r="D24">
-        <v>6.25733173286983</v>
+        <v>4.79868619435724</v>
       </c>
       <c r="E24">
-        <v>55.1228055288684</v>
+        <v>43.5153630764077</v>
       </c>
       <c r="F24">
-        <v>12.7435040540543</v>
+        <v>10.3783051549994</v>
       </c>
       <c r="G24">
-        <v>27.5659538839585</v>
+        <v>18.6729345460802</v>
       </c>
       <c r="H24">
-        <v>15.26121466251</v>
+        <v>10.6902672682468</v>
       </c>
       <c r="I24">
-        <v>16.9162739190773</v>
+        <v>15.8739221629365</v>
       </c>
       <c r="J24">
-        <v>62.4240170347398</v>
+        <v>61.7596505426874</v>
       </c>
       <c r="K24">
-        <v>17.7272845603197</v>
+        <v>15.2619285812565</v>
       </c>
       <c r="L24">
-        <v>65.17388985605309</v>
+        <v>46.5329172209556</v>
       </c>
       <c r="M24">
-        <v>27.9152714808864</v>
+        <v>22.9300579412562</v>
       </c>
       <c r="N24">
-        <v>76.88541684782351</v>
+        <v>67.0213821710656</v>
       </c>
       <c r="O24">
-        <v>2133.96921063622</v>
+        <v>2006.01149776387</v>
       </c>
       <c r="P24">
-        <v>96.6814113265801</v>
+        <v>88.8522464386929</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>739.396324888696</v>
+        <v>860.549181691404</v>
       </c>
       <c r="C25">
-        <v>44.9608563090538</v>
+        <v>39.2697711966117</v>
       </c>
       <c r="D25">
-        <v>10.455659902548</v>
+        <v>10.7204851141493</v>
       </c>
       <c r="E25">
-        <v>44.5485045389403</v>
+        <v>33.3204135065856</v>
       </c>
       <c r="F25">
-        <v>12.9834960308257</v>
+        <v>13.1887495091631</v>
       </c>
       <c r="G25">
-        <v>10.7941553205728</v>
+        <v>14.9311363117064</v>
       </c>
       <c r="H25">
-        <v>7.12165293461006</v>
+        <v>4.06746686113255</v>
       </c>
       <c r="I25">
-        <v>3.59657107688315</v>
+        <v>5.36993418888999</v>
       </c>
       <c r="J25">
-        <v>9.157702822383531</v>
+        <v>5.93714373764986</v>
       </c>
       <c r="K25">
-        <v>4.66622900752695</v>
+        <v>5.1763832944126</v>
       </c>
       <c r="L25">
-        <v>11.4593799332628</v>
+        <v>9.380661419492441</v>
       </c>
       <c r="M25">
-        <v>39.0979517007003</v>
+        <v>27.3375387042225</v>
       </c>
       <c r="N25">
-        <v>38.5424278347187</v>
+        <v>39.1776234704567</v>
       </c>
       <c r="O25">
-        <v>920.725462719814</v>
+        <v>841.772644010711</v>
       </c>
       <c r="P25">
-        <v>37.6993292720354</v>
+        <v>20.9981566342334</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1104.38165613011</v>
+        <v>1383.90332644503</v>
       </c>
       <c r="C26">
-        <v>57.6241174881615</v>
+        <v>44.9745706310907</v>
       </c>
       <c r="D26">
-        <v>5.13764821474753</v>
+        <v>13.3331383118463</v>
       </c>
       <c r="E26">
-        <v>49.9830287033504</v>
+        <v>33.9285774830883</v>
       </c>
       <c r="F26">
-        <v>6.65597880350659</v>
+        <v>3.63068036828017</v>
       </c>
       <c r="G26">
-        <v>47.3547018859546</v>
+        <v>32.9823499304291</v>
       </c>
       <c r="H26">
-        <v>9.45767904055826</v>
+        <v>9.02063136671481</v>
       </c>
       <c r="I26">
-        <v>12.1400902218453</v>
+        <v>19.4331037103086</v>
       </c>
       <c r="J26">
-        <v>30.157183488264</v>
+        <v>23.9204003866217</v>
       </c>
       <c r="K26">
-        <v>8.060518750317</v>
+        <v>15.5457764276436</v>
       </c>
       <c r="L26">
-        <v>24.4000361117069</v>
+        <v>20.469269848384</v>
       </c>
       <c r="M26">
-        <v>73.744805751203</v>
+        <v>65.8412845164615</v>
       </c>
       <c r="N26">
-        <v>28.6868853648894</v>
+        <v>24.2973834874769</v>
       </c>
       <c r="O26">
-        <v>2384.95656411981</v>
+        <v>2195.79058356469</v>
       </c>
       <c r="P26">
-        <v>64.7859956713026</v>
+        <v>54.4834215590796</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>184.636587949571</v>
+        <v>243.38939003896</v>
       </c>
       <c r="C27">
-        <v>1.35277050646229</v>
+        <v>0.939938125220405</v>
       </c>
       <c r="D27">
-        <v>2.288058464187</v>
+        <v>2.38112005620787</v>
       </c>
       <c r="E27">
-        <v>11.55970909778</v>
+        <v>8.56973830758753</v>
       </c>
       <c r="F27">
-        <v>7.0229461572952</v>
+        <v>5.59838866661813</v>
       </c>
       <c r="G27">
-        <v>0.465158008358966</v>
+        <v>0.430716902804278</v>
       </c>
       <c r="H27">
-        <v>0.347493036158478</v>
+        <v>0.530138940540466</v>
       </c>
       <c r="I27">
-        <v>2.7176465196533</v>
+        <v>2.51414400710388</v>
       </c>
       <c r="J27">
-        <v>2.4524173927284</v>
+        <v>1.58133604547535</v>
       </c>
       <c r="K27">
-        <v>1.14730700629273</v>
+        <v>0.916082550560359</v>
       </c>
       <c r="L27">
-        <v>2.60838157654053</v>
+        <v>2.29360793048595</v>
       </c>
       <c r="M27">
-        <v>0.89087506588657</v>
+        <v>0.730117553404509</v>
       </c>
       <c r="N27">
-        <v>3.58043525412308</v>
+        <v>3.41652167860164</v>
       </c>
       <c r="O27">
-        <v>381.003164222201</v>
+        <v>336.282273470151</v>
       </c>
       <c r="P27">
-        <v>48.0423927692468</v>
+        <v>38.7304049004098</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>244.540652155248</v>
+        <v>349.211668083166</v>
       </c>
       <c r="C28">
-        <v>36.2504999744964</v>
+        <v>37.7277303075621</v>
       </c>
       <c r="D28">
-        <v>1.70917160914682</v>
+        <v>3.18461502161618</v>
       </c>
       <c r="E28">
-        <v>9.033172619427299</v>
+        <v>10.6832810612877</v>
       </c>
       <c r="F28">
-        <v>0.6982996090628491</v>
+        <v>1.0572659158596</v>
       </c>
       <c r="G28">
-        <v>4.15605428393592</v>
+        <v>3.91834940764063</v>
       </c>
       <c r="H28">
-        <v>7.31722215596045</v>
+        <v>5.47741288825449</v>
       </c>
       <c r="I28">
-        <v>2.9530767008519</v>
+        <v>1.87113286022306</v>
       </c>
       <c r="J28">
-        <v>16.7750288877987</v>
+        <v>16.9597020969238</v>
       </c>
       <c r="K28">
-        <v>11.2358857578212</v>
+        <v>9.95949961105868</v>
       </c>
       <c r="L28">
-        <v>9.63197959966833</v>
+        <v>6.71793867135406</v>
       </c>
       <c r="M28">
-        <v>9.67857427122987</v>
+        <v>7.74477460162428</v>
       </c>
       <c r="N28">
-        <v>9.956246102215189</v>
+        <v>8.932727775570291</v>
       </c>
       <c r="O28">
-        <v>748.7465645714621</v>
+        <v>666.915434209813</v>
       </c>
       <c r="P28">
-        <v>69.2710723598976</v>
+        <v>62.6880751101391</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>430.553732500603</v>
+        <v>549.689287838391</v>
       </c>
       <c r="C29">
-        <v>2.3720826529485</v>
+        <v>3.2367760112913</v>
       </c>
       <c r="D29">
-        <v>1.07193866812803</v>
+        <v>1.70203227020942</v>
       </c>
       <c r="E29">
-        <v>4.52326814305575</v>
+        <v>2.81239678082696</v>
       </c>
       <c r="F29">
-        <v>27.5990544148515</v>
+        <v>21.675598734015</v>
       </c>
       <c r="G29">
-        <v>4.88717160782428</v>
+        <v>4.94692529834697</v>
       </c>
       <c r="H29">
-        <v>1.02774458353869</v>
+        <v>1.01774508937902</v>
       </c>
       <c r="I29">
-        <v>1.91902315146302</v>
+        <v>1.85258831972494</v>
       </c>
       <c r="J29">
-        <v>5.57862027385015</v>
+        <v>1.86993929938303</v>
       </c>
       <c r="K29">
-        <v>0.600777137171529</v>
+        <v>2.09046174585466</v>
       </c>
       <c r="L29">
-        <v>4.50560233612121</v>
+        <v>2.72710287245761</v>
       </c>
       <c r="M29">
-        <v>4.46461265384942</v>
+        <v>3.89225866027854</v>
       </c>
       <c r="N29">
-        <v>11.2854831606847</v>
+        <v>11.833115617785</v>
       </c>
       <c r="O29">
-        <v>1066.81274901326</v>
+        <v>928.978753061812</v>
       </c>
       <c r="P29">
-        <v>4.06915174674264</v>
+        <v>2.06556078656126</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>195.281001935462</v>
+        <v>271.993104633641</v>
       </c>
       <c r="C30">
-        <v>3.37907661536533</v>
+        <v>2.83870337678704</v>
       </c>
       <c r="D30">
-        <v>4.39626258237986</v>
+        <v>3.21049031640876</v>
       </c>
       <c r="E30">
-        <v>12.7539220032942</v>
+        <v>10.747697625789</v>
       </c>
       <c r="F30">
-        <v>0.0752231922503027</v>
+        <v>0.0559272092397517</v>
       </c>
       <c r="G30">
-        <v>3.72228572357712</v>
+        <v>3.32432829628094</v>
       </c>
       <c r="H30">
-        <v>4.74060958992785</v>
+        <v>4.77495147999862</v>
       </c>
       <c r="I30">
-        <v>2.20823188621604</v>
+        <v>2.13842498106076</v>
       </c>
       <c r="J30">
-        <v>17.3861491762645</v>
+        <v>13.9710696719178</v>
       </c>
       <c r="K30">
-        <v>4.86364555462448</v>
+        <v>5.79095887001274</v>
       </c>
       <c r="L30">
-        <v>45.5244710828992</v>
+        <v>37.7494367402315</v>
       </c>
       <c r="M30">
-        <v>8.462246393515439</v>
+        <v>7.17840581736788</v>
       </c>
       <c r="N30">
-        <v>13.8564577271915</v>
+        <v>9.02279767178805</v>
       </c>
       <c r="O30">
-        <v>526.187368492108</v>
+        <v>480.59250459669</v>
       </c>
       <c r="P30">
-        <v>7.54172442890787</v>
+        <v>5.89467843264687</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1582.05058135549</v>
+        <v>2196.09282144263</v>
       </c>
       <c r="C31">
-        <v>67.1056905781101</v>
+        <v>56.5175187342637</v>
       </c>
       <c r="D31">
-        <v>10.3123212584817</v>
+        <v>4.76127284755282</v>
       </c>
       <c r="E31">
-        <v>40.0589226493732</v>
+        <v>38.3099217784787</v>
       </c>
       <c r="F31">
-        <v>4.13484841614402</v>
+        <v>4.62847980056877</v>
       </c>
       <c r="G31">
-        <v>103.361944377563</v>
+        <v>94.8190298172988</v>
       </c>
       <c r="H31">
-        <v>8.629255900234639</v>
+        <v>6.42760657721484</v>
       </c>
       <c r="I31">
-        <v>15.9907430586415</v>
+        <v>13.706442348654</v>
       </c>
       <c r="J31">
-        <v>30.2247739145321</v>
+        <v>27.1063919355969</v>
       </c>
       <c r="K31">
-        <v>4.7187567597071</v>
+        <v>5.34222727540189</v>
       </c>
       <c r="L31">
-        <v>61.1132220939703</v>
+        <v>43.4597753982706</v>
       </c>
       <c r="M31">
-        <v>21.9933447101199</v>
+        <v>17.1620318872148</v>
       </c>
       <c r="N31">
-        <v>74.7619926794611</v>
+        <v>51.5042302769706</v>
       </c>
       <c r="O31">
-        <v>3758.33282688308</v>
+        <v>3252.52622957445</v>
       </c>
       <c r="P31">
-        <v>16.4772504719426</v>
+        <v>17.1666715488856</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>437.906531891216</v>
+        <v>505.751386221</v>
       </c>
       <c r="C32">
-        <v>2.82550795298489</v>
+        <v>3.49047915926615</v>
       </c>
       <c r="D32">
-        <v>0.335941021497574</v>
+        <v>0.830451216426733</v>
       </c>
       <c r="E32">
-        <v>3.44847281535387</v>
+        <v>5.62403980915541</v>
       </c>
       <c r="F32">
-        <v>20.3624481586944</v>
+        <v>19.1978416262134</v>
       </c>
       <c r="G32">
-        <v>2.73024557679953</v>
+        <v>1.52411541756137</v>
       </c>
       <c r="H32">
-        <v>1.16069452553998</v>
+        <v>1.15914973425204</v>
       </c>
       <c r="I32">
-        <v>1.90070386961503</v>
+        <v>2.62819244126747</v>
       </c>
       <c r="J32">
-        <v>2.91952001719834</v>
+        <v>2.82348039573564</v>
       </c>
       <c r="K32">
-        <v>2.93945560872431</v>
+        <v>3.14573633642339</v>
       </c>
       <c r="L32">
-        <v>8.35333404648264</v>
+        <v>7.77939242164281</v>
       </c>
       <c r="M32">
-        <v>8.759393611636479</v>
+        <v>4.43509948978995</v>
       </c>
       <c r="N32">
-        <v>15.8928896434528</v>
+        <v>11.3460741139183</v>
       </c>
       <c r="O32">
-        <v>750.135867390331</v>
+        <v>681.269025761777</v>
       </c>
       <c r="P32">
-        <v>19.6357889469933</v>
+        <v>17.5500980923265</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4226.63750111485</v>
+        <v>5446.55414157334</v>
       </c>
       <c r="C33">
-        <v>83.83536541641141</v>
+        <v>59.4724275571988</v>
       </c>
       <c r="D33">
-        <v>22.7119904082864</v>
+        <v>17.5084351043287</v>
       </c>
       <c r="E33">
-        <v>78.70882860681471</v>
+        <v>56.7379702785164</v>
       </c>
       <c r="F33">
-        <v>10.4550982633608</v>
+        <v>12.0400113413452</v>
       </c>
       <c r="G33">
-        <v>76.93792763969761</v>
+        <v>55.9262266461846</v>
       </c>
       <c r="H33">
-        <v>44.6562440750304</v>
+        <v>31.9641303853143</v>
       </c>
       <c r="I33">
-        <v>17.5849920527156</v>
+        <v>7.41313929527062</v>
       </c>
       <c r="J33">
-        <v>92.1332556986508</v>
+        <v>86.96727934271161</v>
       </c>
       <c r="K33">
-        <v>66.2147734306203</v>
+        <v>52.485309713637</v>
       </c>
       <c r="L33">
-        <v>106.02930694411</v>
+        <v>93.2946344761191</v>
       </c>
       <c r="M33">
-        <v>59.6302059272529</v>
+        <v>44.7559244707436</v>
       </c>
       <c r="N33">
-        <v>160.205908964306</v>
+        <v>133.761998342541</v>
       </c>
       <c r="O33">
-        <v>7722.8675571582</v>
+        <v>6701.87327748262</v>
       </c>
       <c r="P33">
-        <v>56.9843488658621</v>
+        <v>37.2273978094413</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1856.95599352164</v>
+        <v>2254.79567143679</v>
       </c>
       <c r="C34">
-        <v>68.3629088009763</v>
+        <v>57.529076898551</v>
       </c>
       <c r="D34">
-        <v>104.104353144647</v>
+        <v>91.8244869771253</v>
       </c>
       <c r="E34">
-        <v>60.692181670727</v>
+        <v>55.4260164569443</v>
       </c>
       <c r="F34">
-        <v>1.81330066025849</v>
+        <v>4.94576013139943</v>
       </c>
       <c r="G34">
-        <v>54.864542804644</v>
+        <v>38.707871067436</v>
       </c>
       <c r="H34">
-        <v>50.0096987994413</v>
+        <v>38.1749814299324</v>
       </c>
       <c r="I34">
-        <v>15.2061391979208</v>
+        <v>9.738934967274179</v>
       </c>
       <c r="J34">
-        <v>43.985232624136</v>
+        <v>32.4813070478803</v>
       </c>
       <c r="K34">
-        <v>7.98441093875095</v>
+        <v>5.32939358518515</v>
       </c>
       <c r="L34">
-        <v>130.784633910172</v>
+        <v>95.1588382333011</v>
       </c>
       <c r="M34">
-        <v>32.6087859952593</v>
+        <v>21.035285827513</v>
       </c>
       <c r="N34">
-        <v>134.577399785587</v>
+        <v>115.306273910076</v>
       </c>
       <c r="O34">
-        <v>3204.18430735182</v>
+        <v>2916.07050422367</v>
       </c>
       <c r="P34">
-        <v>88.22062744469</v>
+        <v>72.1596185624656</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>93.46306163853561</v>
+        <v>137.578817500034</v>
       </c>
       <c r="C35">
-        <v>6.66768131268406</v>
+        <v>5.20315199902115</v>
       </c>
       <c r="D35">
-        <v>0.258706778128668</v>
+        <v>0.419252177402166</v>
       </c>
       <c r="E35">
-        <v>2.50262941368137</v>
+        <v>1.8708584634763</v>
       </c>
       <c r="F35">
-        <v>3.89835359122433</v>
+        <v>4.24545331896276</v>
       </c>
       <c r="G35">
-        <v>1.21401225832265</v>
+        <v>1.75609842164739</v>
       </c>
       <c r="H35">
-        <v>0.707086951029731</v>
+        <v>0.1601251437694</v>
       </c>
       <c r="I35">
-        <v>0.833807074186054</v>
+        <v>0.312512631689314</v>
       </c>
       <c r="J35">
-        <v>3.2201604520116</v>
+        <v>3.21017287117242</v>
       </c>
       <c r="K35">
-        <v>4.98058286433933</v>
+        <v>3.63739281400979</v>
       </c>
       <c r="L35">
-        <v>2.50230265025603</v>
+        <v>1.87150963162412</v>
       </c>
       <c r="M35">
-        <v>1.89357180249947</v>
+        <v>1.84102308291889</v>
       </c>
       <c r="N35">
-        <v>4.58620449431002</v>
+        <v>4.19986804354755</v>
       </c>
       <c r="O35">
-        <v>274.156822766467</v>
+        <v>243.245710215904</v>
       </c>
       <c r="P35">
-        <v>45.0982469530598</v>
+        <v>38.2598771243524</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2520.62716821141</v>
+        <v>3086.40933498491</v>
       </c>
       <c r="C36">
-        <v>67.6033323439006</v>
+        <v>69.0910228833218</v>
       </c>
       <c r="D36">
-        <v>13.6475763122498</v>
+        <v>12.1279628834439</v>
       </c>
       <c r="E36">
-        <v>145.009001594474</v>
+        <v>115.175403706404</v>
       </c>
       <c r="F36">
-        <v>44.4232104135652</v>
+        <v>29.7952968032902</v>
       </c>
       <c r="G36">
-        <v>86.80730677320081</v>
+        <v>79.99912803769639</v>
       </c>
       <c r="H36">
-        <v>74.8218029765254</v>
+        <v>65.8130249363865</v>
       </c>
       <c r="I36">
-        <v>36.2121381977647</v>
+        <v>35.5033012162603</v>
       </c>
       <c r="J36">
-        <v>206.424694071448</v>
+        <v>171.285160696061</v>
       </c>
       <c r="K36">
-        <v>51.361595162753</v>
+        <v>45.2335979829876</v>
       </c>
       <c r="L36">
-        <v>66.8342709329967</v>
+        <v>38.9865382862842</v>
       </c>
       <c r="M36">
-        <v>193.795855829191</v>
+        <v>175.408723745306</v>
       </c>
       <c r="N36">
-        <v>106.807581662531</v>
+        <v>94.8121333455026</v>
       </c>
       <c r="O36">
-        <v>4277.32215457641</v>
+        <v>3881.67119844007</v>
       </c>
       <c r="P36">
-        <v>48.6531006291367</v>
+        <v>35.3145788421295</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>772.122163223156</v>
+        <v>969.407473085458</v>
       </c>
       <c r="C37">
-        <v>20.5409204257957</v>
+        <v>13.934957971864</v>
       </c>
       <c r="D37">
-        <v>5.46790873797374</v>
+        <v>9.52950921842598</v>
       </c>
       <c r="E37">
-        <v>17.4848773803876</v>
+        <v>10.5507654357717</v>
       </c>
       <c r="F37">
-        <v>30.5800906114554</v>
+        <v>31.8686663715215</v>
       </c>
       <c r="G37">
-        <v>9.604623072480379</v>
+        <v>11.7218621150452</v>
       </c>
       <c r="H37">
-        <v>27.8739628839482</v>
+        <v>17.6568030609696</v>
       </c>
       <c r="I37">
-        <v>13.0749397129363</v>
+        <v>6.74766450600105</v>
       </c>
       <c r="J37">
-        <v>38.219872691449</v>
+        <v>30.6247851581756</v>
       </c>
       <c r="K37">
-        <v>5.13214315224691</v>
+        <v>5.69086558717622</v>
       </c>
       <c r="L37">
-        <v>15.4320209521042</v>
+        <v>10.7024566859748</v>
       </c>
       <c r="M37">
-        <v>46.095473492651</v>
+        <v>33.5755909992707</v>
       </c>
       <c r="N37">
-        <v>21.7853334771892</v>
+        <v>22.1028968247918</v>
       </c>
       <c r="O37">
-        <v>1350.11274600861</v>
+        <v>1197.73622885535</v>
       </c>
       <c r="P37">
-        <v>53.3635856431818</v>
+        <v>43.7535384984404</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>803.066807522459</v>
+        <v>1009.17637034702</v>
       </c>
       <c r="C38">
-        <v>27.6983358795714</v>
+        <v>28.2234526751872</v>
       </c>
       <c r="D38">
-        <v>5.45611597092097</v>
+        <v>6.72249640584009</v>
       </c>
       <c r="E38">
-        <v>45.5278344652686</v>
+        <v>37.892886288262</v>
       </c>
       <c r="F38">
-        <v>1.46468789822743</v>
+        <v>2.92557017098301</v>
       </c>
       <c r="G38">
-        <v>13.8542714461452</v>
+        <v>10.1629070683892</v>
       </c>
       <c r="H38">
-        <v>2.67132651010379</v>
+        <v>1.90927021898499</v>
       </c>
       <c r="I38">
-        <v>1.54601137600261</v>
+        <v>0.5782585269642721</v>
       </c>
       <c r="J38">
-        <v>39.0048695956888</v>
+        <v>29.0901447559565</v>
       </c>
       <c r="K38">
-        <v>3.94796577757736</v>
+        <v>6.6125786430011</v>
       </c>
       <c r="L38">
-        <v>79.8166270757454</v>
+        <v>74.7055641538922</v>
       </c>
       <c r="M38">
-        <v>22.766867748094</v>
+        <v>22.4989598867433</v>
       </c>
       <c r="N38">
-        <v>33.3541245059246</v>
+        <v>29.8755309449164</v>
       </c>
       <c r="O38">
-        <v>1431.16845377635</v>
+        <v>1266.58549605433</v>
       </c>
       <c r="P38">
-        <v>72.1015090407852</v>
+        <v>47.9498305682518</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2678.48760497203</v>
+        <v>3448.13020700807</v>
       </c>
       <c r="C39">
-        <v>99.6432508373571</v>
+        <v>75.1889169810628</v>
       </c>
       <c r="D39">
-        <v>31.4088425941555</v>
+        <v>21.6653594182833</v>
       </c>
       <c r="E39">
-        <v>132.335782554724</v>
+        <v>136.287002095891</v>
       </c>
       <c r="F39">
-        <v>30.4700250068829</v>
+        <v>17.6715511762258</v>
       </c>
       <c r="G39">
-        <v>119.97940140386</v>
+        <v>113.327943774156</v>
       </c>
       <c r="H39">
-        <v>53.3594302249895</v>
+        <v>40.6279481368417</v>
       </c>
       <c r="I39">
-        <v>35.6495166953681</v>
+        <v>29.2607707451163</v>
       </c>
       <c r="J39">
-        <v>188.034212090451</v>
+        <v>170.231381927166</v>
       </c>
       <c r="K39">
-        <v>59.5272837192556</v>
+        <v>37.6764458672895</v>
       </c>
       <c r="L39">
-        <v>113.869337088014</v>
+        <v>75.50502182763709</v>
       </c>
       <c r="M39">
-        <v>82.26653699268201</v>
+        <v>64.09363260639449</v>
       </c>
       <c r="N39">
-        <v>122.839151059721</v>
+        <v>105.476863826693</v>
       </c>
       <c r="O39">
-        <v>4932.75568085661</v>
+        <v>4346.18067465831</v>
       </c>
       <c r="P39">
-        <v>54.7488225750772</v>
+        <v>52.6614665747626</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>206.899952193489</v>
+        <v>261.711239114587</v>
       </c>
       <c r="C40">
-        <v>4.46921739258779</v>
+        <v>2.54994707502948</v>
       </c>
       <c r="D40">
-        <v>6.27871244652482</v>
+        <v>4.67552637867389</v>
       </c>
       <c r="E40">
-        <v>3.59785143701886</v>
+        <v>3.49855948348517</v>
       </c>
       <c r="F40">
-        <v>0.520478787922729</v>
+        <v>0.473457228382608</v>
       </c>
       <c r="G40">
-        <v>3.930889038615</v>
+        <v>2.9084381466816</v>
       </c>
       <c r="H40">
-        <v>3.18139880982046</v>
+        <v>2.66509414514651</v>
       </c>
       <c r="I40">
-        <v>0.9859528673732581</v>
+        <v>2.34295373116804</v>
       </c>
       <c r="J40">
-        <v>10.2707326789606</v>
+        <v>10.178083384155</v>
       </c>
       <c r="K40">
-        <v>0.746475798088751</v>
+        <v>0.849353194747031</v>
       </c>
       <c r="L40">
-        <v>10.5587387932792</v>
+        <v>9.44947453900487</v>
       </c>
       <c r="M40">
-        <v>3.90080025290415</v>
+        <v>5.32298163719667</v>
       </c>
       <c r="N40">
-        <v>20.2934046107577</v>
+        <v>16.6920916961201</v>
       </c>
       <c r="O40">
-        <v>441.399436206627</v>
+        <v>400.006639614509</v>
       </c>
       <c r="P40">
-        <v>2.88505443038849</v>
+        <v>4.15503036403771</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>963.372166705158</v>
+        <v>1162.70698313861</v>
       </c>
       <c r="C41">
-        <v>15.1216569470062</v>
+        <v>12.3546106825776</v>
       </c>
       <c r="D41">
-        <v>63.4898953259408</v>
+        <v>52.828017236266</v>
       </c>
       <c r="E41">
-        <v>41.5504456639899</v>
+        <v>36.6358731314512</v>
       </c>
       <c r="F41">
-        <v>3.31897342654447</v>
+        <v>1.03290385907245</v>
       </c>
       <c r="G41">
-        <v>28.6722072689386</v>
+        <v>27.5233402569416</v>
       </c>
       <c r="H41">
-        <v>37.5623162059482</v>
+        <v>29.6411043276771</v>
       </c>
       <c r="I41">
-        <v>17.2562877984464</v>
+        <v>12.1614215790747</v>
       </c>
       <c r="J41">
-        <v>36.6014134827113</v>
+        <v>31.471574842068</v>
       </c>
       <c r="K41">
-        <v>8.527955083310459</v>
+        <v>7.10655792345013</v>
       </c>
       <c r="L41">
-        <v>24.1875434669835</v>
+        <v>11.8792641994972</v>
       </c>
       <c r="M41">
-        <v>32.7736641395458</v>
+        <v>29.5530030068879</v>
       </c>
       <c r="N41">
-        <v>13.9871984835282</v>
+        <v>17.2448551891123</v>
       </c>
       <c r="O41">
-        <v>1583.73118220873</v>
+        <v>1444.43328940371</v>
       </c>
       <c r="P41">
-        <v>38.7401029829958</v>
+        <v>21.3309150607377</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>101.811578515972</v>
+        <v>148.637996458604</v>
       </c>
       <c r="C42">
-        <v>5.94288274995001</v>
+        <v>5.50010339458304</v>
       </c>
       <c r="D42">
-        <v>1.36585396739055</v>
+        <v>1.50544126138242</v>
       </c>
       <c r="E42">
-        <v>7.27908806823929</v>
+        <v>5.45240853285168</v>
       </c>
       <c r="F42">
-        <v>1.89163630571918</v>
+        <v>0.96306117417302</v>
       </c>
       <c r="G42">
-        <v>1.09374935903077</v>
+        <v>0.780808189473875</v>
       </c>
       <c r="H42">
-        <v>0.51063115781734</v>
+        <v>0.417052669432447</v>
       </c>
       <c r="I42">
-        <v>1.6038315572796</v>
+        <v>1.56246828797498</v>
       </c>
       <c r="J42">
-        <v>5.16533274811717</v>
+        <v>3.06129727891359</v>
       </c>
       <c r="K42">
-        <v>3.10493321097702</v>
+        <v>2.27840299980582</v>
       </c>
       <c r="L42">
-        <v>5.13639133555386</v>
+        <v>4.73884994291799</v>
       </c>
       <c r="M42">
-        <v>3.71265672801241</v>
+        <v>3.93018755784411</v>
       </c>
       <c r="N42">
-        <v>10.3919719583212</v>
+        <v>8.04710332951437</v>
       </c>
       <c r="O42">
-        <v>307.815930651357</v>
+        <v>273.594193679229</v>
       </c>
       <c r="P42">
-        <v>45.1675761815972</v>
+        <v>36.4601534351771</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1518.97866265836</v>
+        <v>1757.27734644885</v>
       </c>
       <c r="C43">
-        <v>39.2170116225765</v>
+        <v>41.1210240500396</v>
       </c>
       <c r="D43">
-        <v>23.7893151894226</v>
+        <v>17.5148381931556</v>
       </c>
       <c r="E43">
-        <v>86.76975592855339</v>
+        <v>63.6471289405767</v>
       </c>
       <c r="F43">
-        <v>3.42463035049197</v>
+        <v>7.36903198234317</v>
       </c>
       <c r="G43">
-        <v>37.5027288213178</v>
+        <v>40.7658253899308</v>
       </c>
       <c r="H43">
-        <v>47.9041497359943</v>
+        <v>40.4313605745189</v>
       </c>
       <c r="I43">
-        <v>20.8950549950436</v>
+        <v>15.7968008133784</v>
       </c>
       <c r="J43">
-        <v>56.6213601269807</v>
+        <v>44.2824878415853</v>
       </c>
       <c r="K43">
-        <v>8.30859454136343</v>
+        <v>4.74661807850713</v>
       </c>
       <c r="L43">
-        <v>40.656391346558</v>
+        <v>36.4375589439394</v>
       </c>
       <c r="M43">
-        <v>93.14328914138091</v>
+        <v>72.2945382143172</v>
       </c>
       <c r="N43">
-        <v>73.2324021298835</v>
+        <v>80.5683065298484</v>
       </c>
       <c r="O43">
-        <v>2140.54980366253</v>
+        <v>1940.69809327463</v>
       </c>
       <c r="P43">
-        <v>31.7700345505109</v>
+        <v>22.2333930042159</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4450.74033954075</v>
+        <v>5415.26941141139</v>
       </c>
       <c r="C44">
-        <v>154.428637241968</v>
+        <v>143.359834837906</v>
       </c>
       <c r="D44">
-        <v>18.0862662329161</v>
+        <v>18.1613673527678</v>
       </c>
       <c r="E44">
-        <v>95.7557155259732</v>
+        <v>86.8278702221819</v>
       </c>
       <c r="F44">
-        <v>251.938702535451</v>
+        <v>215.276378179786</v>
       </c>
       <c r="G44">
-        <v>108.526295368871</v>
+        <v>104.735545857232</v>
       </c>
       <c r="H44">
-        <v>37.6038893960293</v>
+        <v>31.7685627583174</v>
       </c>
       <c r="I44">
-        <v>39.5085479127321</v>
+        <v>37.0970361498818</v>
       </c>
       <c r="J44">
-        <v>117.749106383381</v>
+        <v>104.104945916479</v>
       </c>
       <c r="K44">
-        <v>30.5203170357686</v>
+        <v>18.6018694323766</v>
       </c>
       <c r="L44">
-        <v>161.464140387193</v>
+        <v>124.974854134213</v>
       </c>
       <c r="M44">
-        <v>81.3909969506464</v>
+        <v>64.8037896649443</v>
       </c>
       <c r="N44">
-        <v>88.3950187322494</v>
+        <v>72.5737906951113</v>
       </c>
       <c r="O44">
-        <v>8601.40799875232</v>
+        <v>7736.5647981566</v>
       </c>
       <c r="P44">
-        <v>244.480254807898</v>
+        <v>212.403954472674</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>392.86873120505</v>
+        <v>479.380023108589</v>
       </c>
       <c r="C45">
-        <v>19.1575490014194</v>
+        <v>15.6105706761447</v>
       </c>
       <c r="D45">
-        <v>2.24664807118355</v>
+        <v>2.78309778953295</v>
       </c>
       <c r="E45">
-        <v>19.109881116373</v>
+        <v>15.4733911307609</v>
       </c>
       <c r="F45">
-        <v>23.9463992927954</v>
+        <v>21.9344299745241</v>
       </c>
       <c r="G45">
-        <v>6.70577084562856</v>
+        <v>7.53856749037126</v>
       </c>
       <c r="H45">
-        <v>3.06352203557903</v>
+        <v>1.40592905366657</v>
       </c>
       <c r="I45">
-        <v>5.08776637318793</v>
+        <v>3.3454971259823</v>
       </c>
       <c r="J45">
-        <v>22.1973893366751</v>
+        <v>18.7552654322378</v>
       </c>
       <c r="K45">
-        <v>4.64295442475577</v>
+        <v>5.88542293840841</v>
       </c>
       <c r="L45">
-        <v>14.9570675783387</v>
+        <v>15.7744763608223</v>
       </c>
       <c r="M45">
-        <v>13.9474778088063</v>
+        <v>11.5759508438345</v>
       </c>
       <c r="N45">
-        <v>27.9286168734718</v>
+        <v>24.1918036366252</v>
       </c>
       <c r="O45">
-        <v>862.9399636922971</v>
+        <v>822.01644605705</v>
       </c>
       <c r="P45">
-        <v>20.8095839771797</v>
+        <v>13.2779622558436</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>96.2890643247535</v>
+        <v>129.450304205041</v>
       </c>
       <c r="C46">
-        <v>4.92871509246928</v>
+        <v>3.72484254473453</v>
       </c>
       <c r="D46">
-        <v>0.695839126442143</v>
+        <v>0.6985567646732031</v>
       </c>
       <c r="E46">
-        <v>4.42568981093271</v>
+        <v>3.91006411023752</v>
       </c>
       <c r="F46">
-        <v>0.802677197233955</v>
+        <v>0.605188471196296</v>
       </c>
       <c r="G46">
-        <v>1.54327014118019</v>
+        <v>1.00443372438483</v>
       </c>
       <c r="H46">
-        <v>0.6513667851062091</v>
+        <v>0.443844832644627</v>
       </c>
       <c r="I46">
-        <v>1.34790646820741</v>
+        <v>1.74263905974268</v>
       </c>
       <c r="J46">
-        <v>4.11361833497061</v>
+        <v>2.62277950369541</v>
       </c>
       <c r="K46">
-        <v>1.08711531056034</v>
+        <v>1.20574828817879</v>
       </c>
       <c r="L46">
-        <v>11.9673131703618</v>
+        <v>10.3428145939247</v>
       </c>
       <c r="M46">
-        <v>2.49417724749811</v>
+        <v>2.45678410666086</v>
       </c>
       <c r="N46">
-        <v>9.927806045954529</v>
+        <v>10.4225309295578</v>
       </c>
       <c r="O46">
-        <v>274.458309342567</v>
+        <v>241.207579736814</v>
       </c>
       <c r="P46">
-        <v>8.057990590819861</v>
+        <v>7.84411677934427</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1517.58902586123</v>
+        <v>1804.24252793242</v>
       </c>
       <c r="C47">
-        <v>44.0303881826832</v>
+        <v>48.6293092600222</v>
       </c>
       <c r="D47">
-        <v>14.4384265227279</v>
+        <v>12.4071815567298</v>
       </c>
       <c r="E47">
-        <v>52.9650720081795</v>
+        <v>42.4757809655147</v>
       </c>
       <c r="F47">
-        <v>13.1435860359529</v>
+        <v>7.85138865171304</v>
       </c>
       <c r="G47">
-        <v>22.4420779763176</v>
+        <v>20.7886038879648</v>
       </c>
       <c r="H47">
-        <v>10.6328750974628</v>
+        <v>17.8131291711663</v>
       </c>
       <c r="I47">
-        <v>3.53472715712689</v>
+        <v>5.59514743914228</v>
       </c>
       <c r="J47">
-        <v>42.4142486822834</v>
+        <v>34.8908514528803</v>
       </c>
       <c r="K47">
-        <v>3.95470101580487</v>
+        <v>5.249253735446</v>
       </c>
       <c r="L47">
-        <v>21.5506133788693</v>
+        <v>27.6228479450695</v>
       </c>
       <c r="M47">
-        <v>67.09423493921361</v>
+        <v>58.0111378575398</v>
       </c>
       <c r="N47">
-        <v>35.5205456491617</v>
+        <v>24.0080054504118</v>
       </c>
       <c r="O47">
-        <v>3034.98418384821</v>
+        <v>2777.58000037711</v>
       </c>
       <c r="P47">
-        <v>36.6171635407629</v>
+        <v>36.4635311392575</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1237.95826754231</v>
+        <v>1561.13830016443</v>
       </c>
       <c r="C48">
-        <v>37.577435407781</v>
+        <v>34.7797269010089</v>
       </c>
       <c r="D48">
-        <v>4.61219488661559</v>
+        <v>7.20612653546941</v>
       </c>
       <c r="E48">
-        <v>69.49251509255841</v>
+        <v>66.04000385180881</v>
       </c>
       <c r="F48">
-        <v>9.209403705040881</v>
+        <v>6.04953952677431</v>
       </c>
       <c r="G48">
-        <v>7.11684536760166</v>
+        <v>6.70427741255952</v>
       </c>
       <c r="H48">
-        <v>4.19230805079543</v>
+        <v>7.50668241969553</v>
       </c>
       <c r="I48">
-        <v>10.4962583718549</v>
+        <v>4.86073258350454</v>
       </c>
       <c r="J48">
-        <v>35.9241539712823</v>
+        <v>30.0745796640137</v>
       </c>
       <c r="K48">
-        <v>15.6865397079845</v>
+        <v>18.2859670207576</v>
       </c>
       <c r="L48">
-        <v>48.2394415429007</v>
+        <v>39.7500774216765</v>
       </c>
       <c r="M48">
-        <v>145.247077369239</v>
+        <v>126.917542797281</v>
       </c>
       <c r="N48">
-        <v>42.3306169803661</v>
+        <v>13.7157032656115</v>
       </c>
       <c r="O48">
-        <v>2480.40705928523</v>
+        <v>2253.56587259294</v>
       </c>
       <c r="P48">
-        <v>100.459560041833</v>
+        <v>48.1595742698535</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>618.571635196716</v>
+        <v>695.258843757046</v>
       </c>
       <c r="C49">
-        <v>4.72243159290746</v>
+        <v>5.14388350139956</v>
       </c>
       <c r="D49">
-        <v>2.10191981778021</v>
+        <v>1.57840674320198</v>
       </c>
       <c r="E49">
-        <v>23.016589738543</v>
+        <v>17.9391551471684</v>
       </c>
       <c r="F49">
-        <v>29.443750706144</v>
+        <v>28.058379556102</v>
       </c>
       <c r="G49">
-        <v>10.7349646386174</v>
+        <v>7.9563241306099</v>
       </c>
       <c r="H49">
-        <v>9.45567072218436</v>
+        <v>8.68461302401543</v>
       </c>
       <c r="I49">
-        <v>3.20015218336159</v>
+        <v>2.51338281377433</v>
       </c>
       <c r="J49">
-        <v>20.4585238396639</v>
+        <v>19.2487834078986</v>
       </c>
       <c r="K49">
-        <v>1.75716638860326</v>
+        <v>0.853317637343709</v>
       </c>
       <c r="L49">
-        <v>1.28790297237934</v>
+        <v>2.72555627283393</v>
       </c>
       <c r="M49">
-        <v>3.29286596365873</v>
+        <v>1.3391147898691</v>
       </c>
       <c r="N49">
-        <v>4.92380291151069</v>
+        <v>5.41726770669077</v>
       </c>
       <c r="O49">
-        <v>598.589932031684</v>
+        <v>520.161698481942</v>
       </c>
       <c r="P49">
-        <v>6.97343698180447</v>
+        <v>4.86363904766967</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>919.5317137964699</v>
+        <v>1212.3244181784</v>
       </c>
       <c r="C50">
-        <v>77.57287362344999</v>
+        <v>78.6318982274537</v>
       </c>
       <c r="D50">
-        <v>7.03332153121563</v>
+        <v>8.39832581746782</v>
       </c>
       <c r="E50">
-        <v>141.48488129814</v>
+        <v>116.458994553579</v>
       </c>
       <c r="F50">
-        <v>4.35600954488762</v>
+        <v>2.91370834023635</v>
       </c>
       <c r="G50">
-        <v>31.4513646909895</v>
+        <v>21.4931386358192</v>
       </c>
       <c r="H50">
-        <v>41.3424544981319</v>
+        <v>37.8970060515152</v>
       </c>
       <c r="I50">
-        <v>15.5624475390049</v>
+        <v>11.9504173556417</v>
       </c>
       <c r="J50">
-        <v>90.91121479952091</v>
+        <v>74.60717699773841</v>
       </c>
       <c r="K50">
-        <v>49.2645813588398</v>
+        <v>45.7416068152191</v>
       </c>
       <c r="L50">
-        <v>53.5461423126157</v>
+        <v>59.566812280448</v>
       </c>
       <c r="M50">
-        <v>51.8699152448983</v>
+        <v>50.0282435041788</v>
       </c>
       <c r="N50">
-        <v>56.2898638438209</v>
+        <v>42.9292049092183</v>
       </c>
       <c r="O50">
-        <v>2210.02532622759</v>
+        <v>1993.35666449913</v>
       </c>
       <c r="P50">
-        <v>82.22507724429791</v>
+        <v>80.2094515799066</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>80.0826256275362</v>
+        <v>107.804994234784</v>
       </c>
       <c r="C51">
-        <v>2.29559245186912</v>
+        <v>0.578612441431689</v>
       </c>
       <c r="D51">
-        <v>0.0557184540618723</v>
+        <v>0.140272983926987</v>
       </c>
       <c r="E51">
-        <v>1.42521487962613</v>
+        <v>2.4589302441143</v>
       </c>
       <c r="F51">
-        <v>26.841474094326</v>
+        <v>23.1254539952855</v>
       </c>
       <c r="G51">
-        <v>1.96239388079211</v>
+        <v>1.37754516333788</v>
       </c>
       <c r="H51">
-        <v>0.00732064584771635</v>
+        <v>0.009463345215570729</v>
       </c>
       <c r="I51">
-        <v>0.862212096552166</v>
+        <v>0.744540521414347</v>
       </c>
       <c r="J51">
-        <v>0.702326784019077</v>
+        <v>0.45932504887276</v>
       </c>
       <c r="K51">
-        <v>0.627636760631612</v>
+        <v>0.428018429043914</v>
       </c>
       <c r="L51">
-        <v>0.609651320955507</v>
+        <v>0.953972307051421</v>
       </c>
       <c r="M51">
-        <v>0.284157660678748</v>
+        <v>0.395704276010346</v>
       </c>
       <c r="N51">
-        <v>0.332324100798514</v>
+        <v>0.505684308412919</v>
       </c>
       <c r="O51">
-        <v>211.358949580917</v>
+        <v>190.112088148517</v>
       </c>
       <c r="P51">
-        <v>23.6094281296442</v>
+        <v>22.3303532434787</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1418.81482786665</v>
+        <v>1451.87875103126</v>
       </c>
       <c r="C2">
-        <v>31.1739611452963</v>
+        <v>36.6037622000273</v>
       </c>
       <c r="D2">
-        <v>23.5060960759452</v>
+        <v>60.6975749150879</v>
       </c>
       <c r="E2">
-        <v>67.1249796028269</v>
+        <v>51.1584682689672</v>
       </c>
       <c r="F2">
-        <v>24.8348985702398</v>
+        <v>14.7871142640103</v>
       </c>
       <c r="G2">
-        <v>8.39654710755284</v>
+        <v>14.3324034077514</v>
       </c>
       <c r="H2">
-        <v>20.3981607264198</v>
+        <v>15.121626555929</v>
       </c>
       <c r="I2">
-        <v>4.99729810684551</v>
+        <v>14.5729744244081</v>
       </c>
       <c r="J2">
-        <v>81.0348972519067</v>
+        <v>56.2673676125781</v>
       </c>
       <c r="K2">
-        <v>10.6523463598225</v>
+        <v>18.1786003602927</v>
       </c>
       <c r="L2">
-        <v>50.3151067324768</v>
+        <v>31.015136660878</v>
       </c>
       <c r="M2">
-        <v>30.9601249739137</v>
+        <v>44.966452808579</v>
       </c>
       <c r="N2">
-        <v>20.2487148788155</v>
+        <v>36.0186249054117</v>
       </c>
       <c r="O2">
-        <v>1358.28910566677</v>
+        <v>1313.62215680911</v>
       </c>
       <c r="P2">
-        <v>19.3770225126011</v>
+        <v>30.3472973830097</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>114.916853789547</v>
+        <v>129.387676329035</v>
       </c>
       <c r="C3">
-        <v>2.75582567168505</v>
+        <v>4.00211415371249</v>
       </c>
       <c r="D3">
-        <v>0.339000620634809</v>
+        <v>0.424118875207953</v>
       </c>
       <c r="E3">
-        <v>1.20388254782767</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>6.31546675615901</v>
+        <v>6.65261609209372</v>
       </c>
       <c r="G3">
-        <v>0.113575150624134</v>
+        <v>0.244667363683344</v>
       </c>
       <c r="H3">
-        <v>0.0139602117258645</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>1.25284090166438</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.343362244965481</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.0181295851883123</v>
+        <v>0.106162219846568</v>
       </c>
       <c r="L3">
-        <v>0.31656340330316</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.529792825302422</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>1.10165360807312</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>213.22753221463</v>
+        <v>192.544643017327</v>
       </c>
       <c r="P3">
-        <v>8.62780230552711</v>
+        <v>5.63309372026756</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1604.35640865014</v>
+        <v>1747.71265426874</v>
       </c>
       <c r="C4">
-        <v>7.63175398763516</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>8.417740189423951</v>
+        <v>4.14340150055778</v>
       </c>
       <c r="E4">
-        <v>13.8534558325064</v>
+        <v>21.2249783049502</v>
       </c>
       <c r="F4">
-        <v>9.78742980632618</v>
+        <v>20.0304476782957</v>
       </c>
       <c r="G4">
-        <v>11.0996323382011</v>
+        <v>9.05920771670967</v>
       </c>
       <c r="H4">
-        <v>13.3778615429228</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>12.2356184410773</v>
+        <v>9.80823374865154</v>
       </c>
       <c r="J4">
-        <v>29.6071487282269</v>
+        <v>24.1113773777058</v>
       </c>
       <c r="K4">
-        <v>2.39061963772394</v>
+        <v>10.5521721684732</v>
       </c>
       <c r="L4">
-        <v>54.1162959459491</v>
+        <v>64.30782522168801</v>
       </c>
       <c r="M4">
-        <v>37.1785107552423</v>
+        <v>49.3974276604501</v>
       </c>
       <c r="N4">
-        <v>15.2344215055705</v>
+        <v>25.212156022371</v>
       </c>
       <c r="O4">
-        <v>2073.10245881384</v>
+        <v>1882.72451453783</v>
       </c>
       <c r="P4">
-        <v>21.1424344460701</v>
+        <v>20.6713650740682</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>823.016534289063</v>
+        <v>880.170055759999</v>
       </c>
       <c r="C5">
-        <v>37.7096575896231</v>
+        <v>59.6291412061937</v>
       </c>
       <c r="D5">
-        <v>8.67292503905851</v>
+        <v>10.9218827995532</v>
       </c>
       <c r="E5">
-        <v>28.677590525366</v>
+        <v>45.5328594274101</v>
       </c>
       <c r="F5">
-        <v>9.4421126543731</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>3.3034416089493</v>
+        <v>9.04801018669321</v>
       </c>
       <c r="H5">
-        <v>7.79903759375127</v>
+        <v>15.0872955004606</v>
       </c>
       <c r="I5">
-        <v>0.8800626621895991</v>
+        <v>6.67994143536038</v>
       </c>
       <c r="J5">
-        <v>33.5983983760725</v>
+        <v>28.6116729316292</v>
       </c>
       <c r="K5">
-        <v>6.01420384945066</v>
+        <v>19.1462191380062</v>
       </c>
       <c r="L5">
-        <v>13.7399467010671</v>
+        <v>17.4415871422557</v>
       </c>
       <c r="M5">
-        <v>18.3106850376981</v>
+        <v>25.9164271728815</v>
       </c>
       <c r="N5">
-        <v>18.7634308551103</v>
+        <v>17.9524451027953</v>
       </c>
       <c r="O5">
-        <v>915.44156904437</v>
+        <v>774.611498968786</v>
       </c>
       <c r="P5">
-        <v>40.1632276249021</v>
+        <v>43.9974490759417</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9063.53754420288</v>
+        <v>9763.809551625711</v>
       </c>
       <c r="C6">
-        <v>178.237040820616</v>
+        <v>179.971019063894</v>
       </c>
       <c r="D6">
-        <v>30.8653594613471</v>
+        <v>153.656203894727</v>
       </c>
       <c r="E6">
-        <v>149.780037726811</v>
+        <v>187.422354805725</v>
       </c>
       <c r="F6">
-        <v>50.5259106439629</v>
+        <v>44.7497957462644</v>
       </c>
       <c r="G6">
-        <v>100.070919491006</v>
+        <v>87.8529021844071</v>
       </c>
       <c r="H6">
-        <v>33.1472063610102</v>
+        <v>51.0247588970995</v>
       </c>
       <c r="I6">
-        <v>41.3252325069971</v>
+        <v>49.0125896938179</v>
       </c>
       <c r="J6">
-        <v>165.242459040967</v>
+        <v>151.258379792976</v>
       </c>
       <c r="K6">
-        <v>39.8440265397434</v>
+        <v>91.9609794898232</v>
       </c>
       <c r="L6">
-        <v>398.025983249976</v>
+        <v>482.94544240399</v>
       </c>
       <c r="M6">
-        <v>212.36214379788</v>
+        <v>244.263089457553</v>
       </c>
       <c r="N6">
-        <v>255.884243178333</v>
+        <v>232.102417196184</v>
       </c>
       <c r="O6">
-        <v>12034.7850086049</v>
+        <v>10959.6249211068</v>
       </c>
       <c r="P6">
-        <v>238.440103876533</v>
+        <v>269.132453106166</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>975.09286953152</v>
+        <v>1084.78853340779</v>
       </c>
       <c r="C7">
-        <v>34.4426241294077</v>
+        <v>21.984902863874</v>
       </c>
       <c r="D7">
-        <v>4.53732067479982</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>22.8599856020719</v>
+        <v>21.3902748269832</v>
       </c>
       <c r="F7">
-        <v>13.7546835735611</v>
+        <v>23.8929993388597</v>
       </c>
       <c r="G7">
-        <v>4.55177259635939</v>
+        <v>9.75665788430152</v>
       </c>
       <c r="H7">
-        <v>3.21014829459268</v>
+        <v>6.59014767067625</v>
       </c>
       <c r="I7">
-        <v>6.70861393070838</v>
+        <v>10.6870664734349</v>
       </c>
       <c r="J7">
-        <v>26.466151623658</v>
+        <v>19.0610201458012</v>
       </c>
       <c r="K7">
-        <v>3.9431267716813</v>
+        <v>11.5939204351135</v>
       </c>
       <c r="L7">
-        <v>53.0769634963483</v>
+        <v>56.3224000329104</v>
       </c>
       <c r="M7">
-        <v>11.402956748546</v>
+        <v>15.8902956764126</v>
       </c>
       <c r="N7">
-        <v>17.9767739906633</v>
+        <v>22.4127652980774</v>
       </c>
       <c r="O7">
-        <v>1850.537270335</v>
+        <v>1706.24277243763</v>
       </c>
       <c r="P7">
-        <v>23.4864817543155</v>
+        <v>47.3852795148945</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>863.504839157093</v>
+        <v>906.981986979372</v>
       </c>
       <c r="C8">
-        <v>11.4097170395612</v>
+        <v>13.7994542799275</v>
       </c>
       <c r="D8">
-        <v>3.88739451164888</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>20.1002926904301</v>
+        <v>19.9067790365008</v>
       </c>
       <c r="F8">
-        <v>4.52367235680781</v>
+        <v>1.65300834284282</v>
       </c>
       <c r="G8">
-        <v>18.6295755998914</v>
+        <v>23.8286768618857</v>
       </c>
       <c r="H8">
-        <v>7.03540493552927</v>
+        <v>7.41440699937644</v>
       </c>
       <c r="I8">
-        <v>7.37895424438298</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>31.7415050724586</v>
+        <v>40.7980567886928</v>
       </c>
       <c r="K8">
-        <v>10.7802812520714</v>
+        <v>22.2087113051003</v>
       </c>
       <c r="L8">
-        <v>40.9087978734154</v>
+        <v>38.5723494850339</v>
       </c>
       <c r="M8">
-        <v>53.0290285969149</v>
+        <v>51.5558968229796</v>
       </c>
       <c r="N8">
-        <v>20.1044815085402</v>
+        <v>24.3388143914501</v>
       </c>
       <c r="O8">
-        <v>1264.81932985716</v>
+        <v>1186.75043073173</v>
       </c>
       <c r="P8">
-        <v>9.2981599361388</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>219.658496740136</v>
+        <v>240.621289848063</v>
       </c>
       <c r="C9">
-        <v>6.12919329323295</v>
+        <v>8.845849264712619</v>
       </c>
       <c r="D9">
-        <v>1.78654541222153</v>
+        <v>1.89397375812455</v>
       </c>
       <c r="E9">
-        <v>3.45569881187235</v>
+        <v>5.0572200984804</v>
       </c>
       <c r="F9">
-        <v>0.649220608676945</v>
+        <v>1.77396395297452</v>
       </c>
       <c r="G9">
-        <v>15.4855997569778</v>
+        <v>14.7987445673846</v>
       </c>
       <c r="H9">
-        <v>2.34798541346414</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>0.894698248847137</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>2.85562015052395</v>
+        <v>3.64459477004185</v>
       </c>
       <c r="K9">
-        <v>1.09709476915753</v>
+        <v>1.94966169178166</v>
       </c>
       <c r="L9">
-        <v>1.15296300368892</v>
+        <v>2.3887658411723</v>
       </c>
       <c r="M9">
-        <v>6.22581230131126</v>
+        <v>5.98871341315054</v>
       </c>
       <c r="N9">
-        <v>3.35342501630945</v>
+        <v>4.59729098306268</v>
       </c>
       <c r="O9">
-        <v>303.281808207568</v>
+        <v>275.530709315453</v>
       </c>
       <c r="P9">
-        <v>5.03017521751636</v>
+        <v>3.00705288503774</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5318.98302155863</v>
+        <v>5687.21209432332</v>
       </c>
       <c r="C10">
-        <v>72.3227062528622</v>
+        <v>55.641248117347</v>
       </c>
       <c r="D10">
-        <v>14.5686263629552</v>
+        <v>21.9511429309435</v>
       </c>
       <c r="E10">
-        <v>48.3825673935913</v>
+        <v>74.3275081529403</v>
       </c>
       <c r="F10">
-        <v>5.79261006989946</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>32.565723309318</v>
+        <v>31.0559848683748</v>
       </c>
       <c r="H10">
-        <v>10.3739413491792</v>
+        <v>19.8926658939604</v>
       </c>
       <c r="I10">
-        <v>27.4059976192481</v>
+        <v>23.4623370150504</v>
       </c>
       <c r="J10">
-        <v>51.0395175801464</v>
+        <v>42.2000136641381</v>
       </c>
       <c r="K10">
-        <v>6.78241766618403</v>
+        <v>36.084268557254</v>
       </c>
       <c r="L10">
-        <v>68.1251320508697</v>
+        <v>78.6737325855612</v>
       </c>
       <c r="M10">
-        <v>65.8629468059133</v>
+        <v>75.10287526655409</v>
       </c>
       <c r="N10">
-        <v>77.3039452184191</v>
+        <v>77.859721314661</v>
       </c>
       <c r="O10">
-        <v>6676.24964354697</v>
+        <v>6052.73956293153</v>
       </c>
       <c r="P10">
-        <v>65.72394144874581</v>
+        <v>93.3630830070263</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2211.02303986492</v>
+        <v>2389.97009565087</v>
       </c>
       <c r="C11">
-        <v>61.5837895455916</v>
+        <v>77.9540510085574</v>
       </c>
       <c r="D11">
-        <v>129.831765248794</v>
+        <v>105.587388287085</v>
       </c>
       <c r="E11">
-        <v>75.7580851482611</v>
+        <v>79.6906353371006</v>
       </c>
       <c r="F11">
-        <v>15.4444266268054</v>
+        <v>12.2585757868648</v>
       </c>
       <c r="G11">
-        <v>23.7019241906307</v>
+        <v>29.0054676056919</v>
       </c>
       <c r="H11">
-        <v>19.3438590238936</v>
+        <v>30.6059217749715</v>
       </c>
       <c r="I11">
-        <v>7.05829828797908</v>
+        <v>18.5805897948114</v>
       </c>
       <c r="J11">
-        <v>55.4958740417117</v>
+        <v>32.4746026001279</v>
       </c>
       <c r="K11">
-        <v>12.2924205842028</v>
+        <v>35.4137190969999</v>
       </c>
       <c r="L11">
-        <v>28.8585760159782</v>
+        <v>53.5904661002713</v>
       </c>
       <c r="M11">
-        <v>39.3615563990508</v>
+        <v>73.0911543055938</v>
       </c>
       <c r="N11">
-        <v>54.5666520167046</v>
+        <v>53.6907603069879</v>
       </c>
       <c r="O11">
-        <v>3022.00000504913</v>
+        <v>2794.07974410309</v>
       </c>
       <c r="P11">
-        <v>26.9200157310873</v>
+        <v>59.4754759087391</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>317.569882940044</v>
+        <v>346.248804382827</v>
       </c>
       <c r="C12">
-        <v>4.29664165321617</v>
+        <v>4.72456569659821</v>
       </c>
       <c r="D12">
-        <v>0.429611048536274</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>2.89597971183471</v>
+        <v>2.92341890635848</v>
       </c>
       <c r="F12">
-        <v>1.19823579921799</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.430294873014878</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.125337726584032</v>
+        <v>0.100694206535946</v>
       </c>
       <c r="I12">
-        <v>0.17064420862609</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>0.384911454772763</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.580664367427708</v>
+        <v>0.43943295948617</v>
       </c>
       <c r="L12">
-        <v>0.203672951902915</v>
+        <v>0.224064079723353</v>
       </c>
       <c r="M12">
-        <v>2.67307481298749</v>
+        <v>3.43196040473218</v>
       </c>
       <c r="N12">
-        <v>2.37153573098355</v>
+        <v>2.25327605565252</v>
       </c>
       <c r="O12">
-        <v>479.873055142126</v>
+        <v>443.139641532626</v>
       </c>
       <c r="P12">
-        <v>13.7401211882415</v>
+        <v>12.6237799614137</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>319.158932115245</v>
+        <v>388.154377772081</v>
       </c>
       <c r="C13">
-        <v>16.1506776225393</v>
+        <v>19.1022997695284</v>
       </c>
       <c r="D13">
-        <v>1.47122357339508</v>
+        <v>0.977587942107128</v>
       </c>
       <c r="E13">
-        <v>8.374500206116331</v>
+        <v>17.1690114439738</v>
       </c>
       <c r="F13">
-        <v>2.424676365501</v>
+        <v>1.79556341149092</v>
       </c>
       <c r="G13">
-        <v>5.50372406308467</v>
+        <v>5.07303553956053</v>
       </c>
       <c r="H13">
-        <v>3.22436803918665</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>2.45998072947134</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>4.33542637550542</v>
+        <v>5.31881075245975</v>
       </c>
       <c r="K13">
-        <v>3.61888663201656</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>13.088371876818</v>
+        <v>21.6987061224174</v>
       </c>
       <c r="M13">
-        <v>1.24067845594927</v>
+        <v>2.36376060995375</v>
       </c>
       <c r="N13">
-        <v>3.22001399721656</v>
+        <v>5.62316492424817</v>
       </c>
       <c r="O13">
-        <v>495.940457387739</v>
+        <v>421.947736132266</v>
       </c>
       <c r="P13">
-        <v>37.991732270805</v>
+        <v>35.1285191179431</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3275.96506904871</v>
+        <v>3456.33707327494</v>
       </c>
       <c r="C14">
-        <v>102.61588708702</v>
+        <v>107.866324309623</v>
       </c>
       <c r="D14">
-        <v>4.20924253089282</v>
+        <v>17.8574139128877</v>
       </c>
       <c r="E14">
-        <v>77.1006849821093</v>
+        <v>127.482603453073</v>
       </c>
       <c r="F14">
-        <v>30.282279078919</v>
+        <v>28.482813599467</v>
       </c>
       <c r="G14">
-        <v>54.6983139748471</v>
+        <v>70.2514120215302</v>
       </c>
       <c r="H14">
-        <v>35.7236641316372</v>
+        <v>55.9945884308851</v>
       </c>
       <c r="I14">
-        <v>20.2796531135904</v>
+        <v>17.1537053189594</v>
       </c>
       <c r="J14">
-        <v>92.3561475676797</v>
+        <v>160.912648125457</v>
       </c>
       <c r="K14">
-        <v>80.3219433619514</v>
+        <v>128.770647235006</v>
       </c>
       <c r="L14">
-        <v>93.4961777039502</v>
+        <v>104.677090445166</v>
       </c>
       <c r="M14">
-        <v>84.4297828693914</v>
+        <v>80.1517247119144</v>
       </c>
       <c r="N14">
-        <v>66.1577461873008</v>
+        <v>72.44911888207091</v>
       </c>
       <c r="O14">
-        <v>4420.4286924218</v>
+        <v>3978.37095307759</v>
       </c>
       <c r="P14">
-        <v>44.4011916111773</v>
+        <v>64.587540249185</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1556.67079686803</v>
+        <v>1687.43824102441</v>
       </c>
       <c r="C15">
-        <v>57.4995400246281</v>
+        <v>37.2687839403866</v>
       </c>
       <c r="D15">
-        <v>5.10974825081254</v>
+        <v>11.7711575342164</v>
       </c>
       <c r="E15">
-        <v>64.3803141151006</v>
+        <v>67.40665580225949</v>
       </c>
       <c r="F15">
-        <v>18.4433686677174</v>
+        <v>10.6252095876268</v>
       </c>
       <c r="G15">
-        <v>45.7073772330296</v>
+        <v>40.1421677481587</v>
       </c>
       <c r="H15">
-        <v>35.1460176119538</v>
+        <v>55.7186745836836</v>
       </c>
       <c r="I15">
-        <v>20.0734750835738</v>
+        <v>16.2092750748545</v>
       </c>
       <c r="J15">
-        <v>148.168641684077</v>
+        <v>134.539243033352</v>
       </c>
       <c r="K15">
-        <v>22.7451444039529</v>
+        <v>45.6473006119775</v>
       </c>
       <c r="L15">
-        <v>30.4450831806826</v>
+        <v>55.9903183143224</v>
       </c>
       <c r="M15">
-        <v>155.806866492561</v>
+        <v>202.570418767476</v>
       </c>
       <c r="N15">
-        <v>78.50531250128159</v>
+        <v>78.12643502635591</v>
       </c>
       <c r="O15">
-        <v>1971.82291709602</v>
+        <v>1785.65334695215</v>
       </c>
       <c r="P15">
-        <v>48.8715615848863</v>
+        <v>39.8186429480327</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>643.674936080564</v>
+        <v>766.697413289319</v>
       </c>
       <c r="C16">
-        <v>51.8395070950455</v>
+        <v>54.0213708817161</v>
       </c>
       <c r="D16">
-        <v>9.243746142672631</v>
+        <v>6.16154324486948</v>
       </c>
       <c r="E16">
-        <v>16.03357445378</v>
+        <v>27.0186751136536</v>
       </c>
       <c r="F16">
-        <v>4.2386972742478</v>
+        <v>3.33510680241323</v>
       </c>
       <c r="G16">
-        <v>14.6864436789796</v>
+        <v>10.4568181232232</v>
       </c>
       <c r="H16">
-        <v>15.3875340224588</v>
+        <v>16.8095834639772</v>
       </c>
       <c r="I16">
-        <v>5.04788177850732</v>
+        <v>9.19153238670517</v>
       </c>
       <c r="J16">
-        <v>43.5161594286152</v>
+        <v>45.1108539025325</v>
       </c>
       <c r="K16">
-        <v>37.6248032506729</v>
+        <v>44.9413345039455</v>
       </c>
       <c r="L16">
-        <v>21.337062789063</v>
+        <v>32.6326423519933</v>
       </c>
       <c r="M16">
-        <v>17.5541355524923</v>
+        <v>28.6026066764106</v>
       </c>
       <c r="N16">
-        <v>23.9391369543486</v>
+        <v>15.9791322233361</v>
       </c>
       <c r="O16">
-        <v>1059.79936550815</v>
+        <v>927.408067323604</v>
       </c>
       <c r="P16">
-        <v>65.5306495594557</v>
+        <v>63.0747536493815</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>621.2034013956001</v>
+        <v>693.857815903592</v>
       </c>
       <c r="C17">
-        <v>20.2467320640287</v>
+        <v>33.9110657445056</v>
       </c>
       <c r="D17">
-        <v>7.748950849041</v>
+        <v>4.95967760448892</v>
       </c>
       <c r="E17">
-        <v>28.1476852888261</v>
+        <v>22.282593986681</v>
       </c>
       <c r="F17">
-        <v>8.491980980322779</v>
+        <v>16.6553638536268</v>
       </c>
       <c r="G17">
-        <v>2.78330373385702</v>
+        <v>8.459089891400939</v>
       </c>
       <c r="H17">
-        <v>6.94595682752981</v>
+        <v>11.9825481994795</v>
       </c>
       <c r="I17">
-        <v>4.73485240330639</v>
+        <v>8.585580280891181</v>
       </c>
       <c r="J17">
-        <v>23.9194850431612</v>
+        <v>17.4017774553072</v>
       </c>
       <c r="K17">
-        <v>6.42727795521259</v>
+        <v>17.152695320961</v>
       </c>
       <c r="L17">
-        <v>9.867126229822761</v>
+        <v>10.0306581185552</v>
       </c>
       <c r="M17">
-        <v>55.8557746207544</v>
+        <v>61.3194543731425</v>
       </c>
       <c r="N17">
-        <v>14.3068117637363</v>
+        <v>14.5860108681015</v>
       </c>
       <c r="O17">
-        <v>982.003327358825</v>
+        <v>859.273693109649</v>
       </c>
       <c r="P17">
-        <v>38.6854649550084</v>
+        <v>56.1422999063093</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1254.73181477981</v>
+        <v>1352.22897358286</v>
       </c>
       <c r="C18">
-        <v>24.1443493017671</v>
+        <v>34.6179055203473</v>
       </c>
       <c r="D18">
-        <v>5.31683395864376</v>
+        <v>21.1032208862493</v>
       </c>
       <c r="E18">
-        <v>20.2413362932221</v>
+        <v>48.6594942947812</v>
       </c>
       <c r="F18">
-        <v>30.9782791819528</v>
+        <v>25.2540418224867</v>
       </c>
       <c r="G18">
-        <v>10.4985526316047</v>
+        <v>15.6571946728391</v>
       </c>
       <c r="H18">
-        <v>16.8915953991954</v>
+        <v>16.9160541591668</v>
       </c>
       <c r="I18">
-        <v>2.76156929374535</v>
+        <v>10.7050440344467</v>
       </c>
       <c r="J18">
-        <v>21.982179134146</v>
+        <v>49.589993852223</v>
       </c>
       <c r="K18">
-        <v>8.05969877160917</v>
+        <v>33.5572132607107</v>
       </c>
       <c r="L18">
-        <v>19.0364470249789</v>
+        <v>24.9497531786895</v>
       </c>
       <c r="M18">
-        <v>58.9185591533165</v>
+        <v>77.455364986935</v>
       </c>
       <c r="N18">
-        <v>24.9331841550327</v>
+        <v>19.0295373695328</v>
       </c>
       <c r="O18">
-        <v>1345.29985706751</v>
+        <v>1143.04356690425</v>
       </c>
       <c r="P18">
-        <v>54.2635240714433</v>
+        <v>34.4566409960408</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1261.89293462056</v>
+        <v>1319.82126380173</v>
       </c>
       <c r="C19">
-        <v>29.2498507038314</v>
+        <v>15.7404305690439</v>
       </c>
       <c r="D19">
-        <v>13.116415318045</v>
+        <v>9.29981657605312</v>
       </c>
       <c r="E19">
-        <v>39.3259110483481</v>
+        <v>28.1063876517857</v>
       </c>
       <c r="F19">
-        <v>61.0320603721785</v>
+        <v>74.114044856291</v>
       </c>
       <c r="G19">
-        <v>38.3379803344365</v>
+        <v>36.781608161538</v>
       </c>
       <c r="H19">
-        <v>8.89577067087323</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>2.4244154752207</v>
+        <v>7.14466385587859</v>
       </c>
       <c r="J19">
-        <v>10.1699690635392</v>
+        <v>26.6454710847724</v>
       </c>
       <c r="K19">
-        <v>5.72084213759202</v>
+        <v>11.6470062478473</v>
       </c>
       <c r="L19">
-        <v>4.38154568562988</v>
+        <v>5.30647105694234</v>
       </c>
       <c r="M19">
-        <v>24.8149898346044</v>
+        <v>22.3506918647413</v>
       </c>
       <c r="N19">
-        <v>7.77763881465068</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1483.07172285447</v>
+        <v>1336.36811121305</v>
       </c>
       <c r="P19">
-        <v>26.5648161433932</v>
+        <v>26.4152908258053</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>349.941892444536</v>
+        <v>376.34004553239</v>
       </c>
       <c r="C20">
-        <v>8.95944553310173</v>
+        <v>7.74300742016856</v>
       </c>
       <c r="D20">
-        <v>4.24601121619698</v>
+        <v>9.149567825445439</v>
       </c>
       <c r="E20">
-        <v>31.0416765371225</v>
+        <v>34.4117272656144</v>
       </c>
       <c r="F20">
-        <v>1.83539053907586</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>1.39510924636843</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>0.408005400621765</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>0.86976624852385</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>6.11003778870369</v>
+        <v>5.7336579580982</v>
       </c>
       <c r="K20">
-        <v>0.346276823843581</v>
+        <v>4.06615130334625</v>
       </c>
       <c r="L20">
-        <v>6.14239566975096</v>
+        <v>7.20571316428976</v>
       </c>
       <c r="M20">
-        <v>13.2280648334563</v>
+        <v>15.0756664395925</v>
       </c>
       <c r="N20">
-        <v>3.70041542620517</v>
+        <v>6.47442358782617</v>
       </c>
       <c r="O20">
-        <v>499.193843405449</v>
+        <v>447.399125861826</v>
       </c>
       <c r="P20">
-        <v>18.1418383039317</v>
+        <v>18.6137233956588</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1373.81473056957</v>
+        <v>1443.9084198852</v>
       </c>
       <c r="C21">
-        <v>11.1974724835599</v>
+        <v>20.6711419296186</v>
       </c>
       <c r="D21">
-        <v>0.469935851600461</v>
+        <v>10.2172461716859</v>
       </c>
       <c r="E21">
-        <v>20.8542974616477</v>
+        <v>38.9223571384652</v>
       </c>
       <c r="F21">
-        <v>6.08706863640884</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>11.1163615769078</v>
+        <v>20.9076635707244</v>
       </c>
       <c r="H21">
-        <v>6.08806354289353</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>24.4601985428405</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>13.6873903986704</v>
+        <v>24.6716016695314</v>
       </c>
       <c r="K21">
-        <v>2.76141851357544</v>
+        <v>10.264108926757</v>
       </c>
       <c r="L21">
-        <v>25.010481859833</v>
+        <v>35.8677877268041</v>
       </c>
       <c r="M21">
-        <v>12.6135593425157</v>
+        <v>24.0656537529673</v>
       </c>
       <c r="N21">
-        <v>14.9291851182097</v>
+        <v>18.5084764311605</v>
       </c>
       <c r="O21">
-        <v>2140.72382247596</v>
+        <v>1954.34034166049</v>
       </c>
       <c r="P21">
-        <v>11.4761434015721</v>
+        <v>16.3976224252503</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1589.02911075484</v>
+        <v>1669.18206977196</v>
       </c>
       <c r="C22">
-        <v>15.6056881945228</v>
+        <v>29.1541269744966</v>
       </c>
       <c r="D22">
-        <v>6.49586280592346</v>
+        <v>24.5380037282459</v>
       </c>
       <c r="E22">
-        <v>21.2441135794354</v>
+        <v>50.7936825618024</v>
       </c>
       <c r="F22">
-        <v>3.79090858592454</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>25.9526035120795</v>
+        <v>29.5940509452005</v>
       </c>
       <c r="H22">
-        <v>14.4385370467098</v>
+        <v>18.7994690538117</v>
       </c>
       <c r="I22">
-        <v>16.4103233246871</v>
+        <v>9.667494719684081</v>
       </c>
       <c r="J22">
-        <v>38.7733858086578</v>
+        <v>45.1834672053552</v>
       </c>
       <c r="K22">
-        <v>2.00886529115697</v>
+        <v>24.2069734372534</v>
       </c>
       <c r="L22">
-        <v>83.7874189238877</v>
+        <v>118.088999658929</v>
       </c>
       <c r="M22">
-        <v>7.90075385259575</v>
+        <v>17.6309078004357</v>
       </c>
       <c r="N22">
-        <v>55.2168603399185</v>
+        <v>42.1562366999517</v>
       </c>
       <c r="O22">
-        <v>2444.57231700545</v>
+        <v>2270.06498992859</v>
       </c>
       <c r="P22">
-        <v>15.6065114538447</v>
+        <v>10.6637775739212</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2651.28029376527</v>
+        <v>2921.85464425927</v>
       </c>
       <c r="C23">
-        <v>22.9917363238207</v>
+        <v>37.9066657437113</v>
       </c>
       <c r="D23">
-        <v>7.81175949323487</v>
+        <v>9.323749033258011</v>
       </c>
       <c r="E23">
-        <v>45.3924530314728</v>
+        <v>66.13024303614741</v>
       </c>
       <c r="F23">
-        <v>17.0883920771994</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>50.9138877330521</v>
+        <v>42.4555801440412</v>
       </c>
       <c r="H23">
-        <v>35.3099810913735</v>
+        <v>61.7698525749998</v>
       </c>
       <c r="I23">
-        <v>20.8808803239151</v>
+        <v>13.4247310627626</v>
       </c>
       <c r="J23">
-        <v>116.068122504461</v>
+        <v>133.70836129044</v>
       </c>
       <c r="K23">
-        <v>52.7022021704949</v>
+        <v>88.911864905607</v>
       </c>
       <c r="L23">
-        <v>22.72106442973</v>
+        <v>38.5567239749575</v>
       </c>
       <c r="M23">
-        <v>489.076642586227</v>
+        <v>452.259474671932</v>
       </c>
       <c r="N23">
-        <v>91.9927114729124</v>
+        <v>71.90265376187131</v>
       </c>
       <c r="O23">
-        <v>3245.21432142922</v>
+        <v>2897.91214976372</v>
       </c>
       <c r="P23">
-        <v>56.3167915932713</v>
+        <v>41.4813760238275</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1014.73649943241</v>
+        <v>1193.69285628989</v>
       </c>
       <c r="C24">
-        <v>35.9898995508049</v>
+        <v>64.71280984924729</v>
       </c>
       <c r="D24">
-        <v>4.79868619435724</v>
+        <v>4.83442624578547</v>
       </c>
       <c r="E24">
-        <v>43.5153630764077</v>
+        <v>77.114181022018</v>
       </c>
       <c r="F24">
-        <v>10.3783051549994</v>
+        <v>9.35578294907276</v>
       </c>
       <c r="G24">
-        <v>18.6729345460802</v>
+        <v>15.7117526882645</v>
       </c>
       <c r="H24">
-        <v>10.6902672682468</v>
+        <v>18.7939963960654</v>
       </c>
       <c r="I24">
-        <v>15.8739221629365</v>
+        <v>12.8121824564799</v>
       </c>
       <c r="J24">
-        <v>61.7596505426874</v>
+        <v>63.2284458149341</v>
       </c>
       <c r="K24">
-        <v>15.2619285812565</v>
+        <v>50.6312895497221</v>
       </c>
       <c r="L24">
-        <v>46.5329172209556</v>
+        <v>68.8998663875346</v>
       </c>
       <c r="M24">
-        <v>22.9300579412562</v>
+        <v>27.1977472834858</v>
       </c>
       <c r="N24">
-        <v>67.0213821710656</v>
+        <v>52.8828322633208</v>
       </c>
       <c r="O24">
-        <v>2006.01149776387</v>
+        <v>1718.84427535163</v>
       </c>
       <c r="P24">
-        <v>88.8522464386929</v>
+        <v>86.87792761424331</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>860.549181691404</v>
+        <v>913.594993377725</v>
       </c>
       <c r="C25">
-        <v>39.2697711966117</v>
+        <v>26.7072566729591</v>
       </c>
       <c r="D25">
-        <v>10.7204851141493</v>
+        <v>18.3091587522339</v>
       </c>
       <c r="E25">
-        <v>33.3204135065856</v>
+        <v>33.1561040699501</v>
       </c>
       <c r="F25">
-        <v>13.1887495091631</v>
+        <v>6.48806248808409</v>
       </c>
       <c r="G25">
-        <v>14.9311363117064</v>
+        <v>9.89353717701222</v>
       </c>
       <c r="H25">
-        <v>4.06746686113255</v>
+        <v>11.1895527045165</v>
       </c>
       <c r="I25">
-        <v>5.36993418888999</v>
+        <v>5.97238834420366</v>
       </c>
       <c r="J25">
-        <v>5.93714373764986</v>
+        <v>15.2858707939512</v>
       </c>
       <c r="K25">
-        <v>5.1763832944126</v>
+        <v>14.967929727889</v>
       </c>
       <c r="L25">
-        <v>9.380661419492441</v>
+        <v>19.2818339274724</v>
       </c>
       <c r="M25">
-        <v>27.3375387042225</v>
+        <v>24.2518894088029</v>
       </c>
       <c r="N25">
-        <v>39.1776234704567</v>
+        <v>49.6601687166586</v>
       </c>
       <c r="O25">
-        <v>841.772644010711</v>
+        <v>746.793411809932</v>
       </c>
       <c r="P25">
-        <v>20.9981566342334</v>
+        <v>27.6454326951208</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1383.90332644503</v>
+        <v>1626.50443514666</v>
       </c>
       <c r="C26">
-        <v>44.9745706310907</v>
+        <v>55.4577249947356</v>
       </c>
       <c r="D26">
-        <v>13.3331383118463</v>
+        <v>21.1377009568722</v>
       </c>
       <c r="E26">
-        <v>33.9285774830883</v>
+        <v>58.7424114619989</v>
       </c>
       <c r="F26">
-        <v>3.63068036828017</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>32.9823499304291</v>
+        <v>22.1494957623144</v>
       </c>
       <c r="H26">
-        <v>9.02063136671481</v>
+        <v>19.7844180866689</v>
       </c>
       <c r="I26">
-        <v>19.4331037103086</v>
+        <v>14.5494623280894</v>
       </c>
       <c r="J26">
-        <v>23.9204003866217</v>
+        <v>64.23176692194831</v>
       </c>
       <c r="K26">
-        <v>15.5457764276436</v>
+        <v>35.9017550860545</v>
       </c>
       <c r="L26">
-        <v>20.469269848384</v>
+        <v>39.1566308841347</v>
       </c>
       <c r="M26">
-        <v>65.8412845164615</v>
+        <v>67.7799686784963</v>
       </c>
       <c r="N26">
-        <v>24.2973834874769</v>
+        <v>40.8283265377967</v>
       </c>
       <c r="O26">
-        <v>2195.79058356469</v>
+        <v>1809.9068165363</v>
       </c>
       <c r="P26">
-        <v>54.4834215590796</v>
+        <v>61.7386484446226</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>243.38939003896</v>
+        <v>262.34667917776</v>
       </c>
       <c r="C27">
-        <v>0.939938125220405</v>
+        <v>3.01444849709317</v>
       </c>
       <c r="D27">
-        <v>2.38112005620787</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>8.56973830758753</v>
+        <v>8.27496800215266</v>
       </c>
       <c r="F27">
-        <v>5.59838866661813</v>
+        <v>5.51561400976783</v>
       </c>
       <c r="G27">
-        <v>0.430716902804278</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.530138940540466</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>2.51414400710388</v>
+        <v>1.36810288599881</v>
       </c>
       <c r="J27">
-        <v>1.58133604547535</v>
+        <v>2.74439796888487</v>
       </c>
       <c r="K27">
-        <v>0.916082550560359</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>2.29360793048595</v>
+        <v>1.22639141396086</v>
       </c>
       <c r="M27">
-        <v>0.730117553404509</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>3.41652167860164</v>
+        <v>3.94307060842408</v>
       </c>
       <c r="O27">
-        <v>336.282273470151</v>
+        <v>317.237639728773</v>
       </c>
       <c r="P27">
-        <v>38.7304049004098</v>
+        <v>33.0799445735731</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>349.211668083166</v>
+        <v>422.059283135806</v>
       </c>
       <c r="C28">
-        <v>37.7277303075621</v>
+        <v>32.9663428014393</v>
       </c>
       <c r="D28">
-        <v>3.18461502161618</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>10.6832810612877</v>
+        <v>9.70938150085197</v>
       </c>
       <c r="F28">
-        <v>1.0572659158596</v>
+        <v>1.55289119596549</v>
       </c>
       <c r="G28">
-        <v>3.91834940764063</v>
+        <v>4.61369261942387</v>
       </c>
       <c r="H28">
-        <v>5.47741288825449</v>
+        <v>6.37034571105268</v>
       </c>
       <c r="I28">
-        <v>1.87113286022306</v>
+        <v>3.77059457374088</v>
       </c>
       <c r="J28">
-        <v>16.9597020969238</v>
+        <v>12.233104935751</v>
       </c>
       <c r="K28">
-        <v>9.95949961105868</v>
+        <v>14.514366687705</v>
       </c>
       <c r="L28">
-        <v>6.71793867135406</v>
+        <v>10.489136383741</v>
       </c>
       <c r="M28">
-        <v>7.74477460162428</v>
+        <v>11.2302552829872</v>
       </c>
       <c r="N28">
-        <v>8.932727775570291</v>
+        <v>9.94026034724072</v>
       </c>
       <c r="O28">
-        <v>666.915434209813</v>
+        <v>586.023888178661</v>
       </c>
       <c r="P28">
-        <v>62.6880751101391</v>
+        <v>71.83847009330781</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>549.689287838391</v>
+        <v>599.764605830045</v>
       </c>
       <c r="C29">
-        <v>3.2367760112913</v>
+        <v>4.6492792776289</v>
       </c>
       <c r="D29">
-        <v>1.70203227020942</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>2.81239678082696</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>21.675598734015</v>
+        <v>17.2393734623001</v>
       </c>
       <c r="G29">
-        <v>4.94692529834697</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>1.01774508937902</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>1.85258831972494</v>
+        <v>2.86120730156892</v>
       </c>
       <c r="J29">
-        <v>1.86993929938303</v>
+        <v>7.83975749439742</v>
       </c>
       <c r="K29">
-        <v>2.09046174585466</v>
+        <v>2.22728047683361</v>
       </c>
       <c r="L29">
-        <v>2.72710287245761</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>3.89225866027854</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
-        <v>11.833115617785</v>
+        <v>10.0764318740249</v>
       </c>
       <c r="O29">
-        <v>928.978753061812</v>
+        <v>864.639191507531</v>
       </c>
       <c r="P29">
-        <v>2.06556078656126</v>
+        <v>5.32659943672961</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>271.993104633641</v>
+        <v>308.026602994046</v>
       </c>
       <c r="C30">
-        <v>2.83870337678704</v>
+        <v>3.48150429512318</v>
       </c>
       <c r="D30">
-        <v>3.21049031640876</v>
+        <v>5.04154022223061</v>
       </c>
       <c r="E30">
-        <v>10.747697625789</v>
+        <v>14.0166606788891</v>
       </c>
       <c r="F30">
-        <v>0.0559272092397517</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>3.32432829628094</v>
+        <v>2.88452931759052</v>
       </c>
       <c r="H30">
-        <v>4.77495147999862</v>
+        <v>4.51899413397843</v>
       </c>
       <c r="I30">
-        <v>2.13842498106076</v>
+        <v>2.74130952183063</v>
       </c>
       <c r="J30">
-        <v>13.9710696719178</v>
+        <v>20.0714169318651</v>
       </c>
       <c r="K30">
-        <v>5.79095887001274</v>
+        <v>8.383471757261431</v>
       </c>
       <c r="L30">
-        <v>37.7494367402315</v>
+        <v>24.7034820871861</v>
       </c>
       <c r="M30">
-        <v>7.17840581736788</v>
+        <v>6.45430780550574</v>
       </c>
       <c r="N30">
-        <v>9.02279767178805</v>
+        <v>11.9212326644169</v>
       </c>
       <c r="O30">
-        <v>480.59250459669</v>
+        <v>447.123828219749</v>
       </c>
       <c r="P30">
-        <v>5.89467843264687</v>
+        <v>4.14067412032031</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2196.09282144263</v>
+        <v>2497.91973419205</v>
       </c>
       <c r="C31">
-        <v>56.5175187342637</v>
+        <v>39.876089256577</v>
       </c>
       <c r="D31">
-        <v>4.76127284755282</v>
+        <v>25.7370069923305</v>
       </c>
       <c r="E31">
-        <v>38.3099217784787</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>4.62847980056877</v>
+        <v>9.56080210884697</v>
       </c>
       <c r="G31">
-        <v>94.8190298172988</v>
+        <v>107.884242147249</v>
       </c>
       <c r="H31">
-        <v>6.42760657721484</v>
+        <v>22.1686523322217</v>
       </c>
       <c r="I31">
-        <v>13.706442348654</v>
+        <v>17.2756158968801</v>
       </c>
       <c r="J31">
-        <v>27.1063919355969</v>
+        <v>35.1752827498687</v>
       </c>
       <c r="K31">
-        <v>5.34222727540189</v>
+        <v>20.247173775569</v>
       </c>
       <c r="L31">
-        <v>43.4597753982706</v>
+        <v>64.14246698807639</v>
       </c>
       <c r="M31">
-        <v>17.1620318872148</v>
+        <v>19.6936939322725</v>
       </c>
       <c r="N31">
-        <v>51.5042302769706</v>
+        <v>47.8180857527905</v>
       </c>
       <c r="O31">
-        <v>3252.52622957445</v>
+        <v>2806.70951683855</v>
       </c>
       <c r="P31">
-        <v>17.1666715488856</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>505.751386221</v>
+        <v>585.06578079748</v>
       </c>
       <c r="C32">
-        <v>3.49047915926615</v>
+        <v>6.217262030872</v>
       </c>
       <c r="D32">
-        <v>0.830451216426733</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>5.62403980915541</v>
+        <v>5.22707807749639</v>
       </c>
       <c r="F32">
-        <v>19.1978416262134</v>
+        <v>21.331777982516</v>
       </c>
       <c r="G32">
-        <v>1.52411541756137</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>1.15914973425204</v>
+        <v>0.283340141372177</v>
       </c>
       <c r="I32">
-        <v>2.62819244126747</v>
+        <v>3.35607895550181</v>
       </c>
       <c r="J32">
-        <v>2.82348039573564</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>3.14573633642339</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>7.77939242164281</v>
+        <v>12.9268901903518</v>
       </c>
       <c r="M32">
-        <v>4.43509948978995</v>
+        <v>5.02905627751131</v>
       </c>
       <c r="N32">
-        <v>11.3460741139183</v>
+        <v>8.554671045012</v>
       </c>
       <c r="O32">
-        <v>681.269025761777</v>
+        <v>595.015933506853</v>
       </c>
       <c r="P32">
-        <v>17.5500980923265</v>
+        <v>17.9643560604989</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5446.55414157334</v>
+        <v>5678.27718784263</v>
       </c>
       <c r="C33">
-        <v>59.4724275571988</v>
+        <v>75.1493374991019</v>
       </c>
       <c r="D33">
-        <v>17.5084351043287</v>
+        <v>85.4506095359116</v>
       </c>
       <c r="E33">
-        <v>56.7379702785164</v>
+        <v>99.08977002927109</v>
       </c>
       <c r="F33">
-        <v>12.0400113413452</v>
+        <v>8.391866045906991</v>
       </c>
       <c r="G33">
-        <v>55.9262266461846</v>
+        <v>64.88705827004129</v>
       </c>
       <c r="H33">
-        <v>31.9641303853143</v>
+        <v>27.8915872543687</v>
       </c>
       <c r="I33">
-        <v>7.41313929527062</v>
+        <v>26.7564066896168</v>
       </c>
       <c r="J33">
-        <v>86.96727934271161</v>
+        <v>87.6980136199426</v>
       </c>
       <c r="K33">
-        <v>52.485309713637</v>
+        <v>93.1094749665197</v>
       </c>
       <c r="L33">
-        <v>93.2946344761191</v>
+        <v>103.030139071128</v>
       </c>
       <c r="M33">
-        <v>44.7559244707436</v>
+        <v>68.58110368123251</v>
       </c>
       <c r="N33">
-        <v>133.761998342541</v>
+        <v>88.5856794421301</v>
       </c>
       <c r="O33">
-        <v>6701.87327748262</v>
+        <v>6259.7238623529</v>
       </c>
       <c r="P33">
-        <v>37.2273978094413</v>
+        <v>68.81829598518721</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2254.79567143679</v>
+        <v>2383.26746771888</v>
       </c>
       <c r="C34">
-        <v>57.529076898551</v>
+        <v>55.2555267970038</v>
       </c>
       <c r="D34">
-        <v>91.8244869771253</v>
+        <v>155.320784312246</v>
       </c>
       <c r="E34">
-        <v>55.4260164569443</v>
+        <v>80.67715875010831</v>
       </c>
       <c r="F34">
-        <v>4.94576013139943</v>
+        <v>6.67895516984937</v>
       </c>
       <c r="G34">
-        <v>38.707871067436</v>
+        <v>50.955638517866</v>
       </c>
       <c r="H34">
-        <v>38.1749814299324</v>
+        <v>34.2072097182984</v>
       </c>
       <c r="I34">
-        <v>9.738934967274179</v>
+        <v>18.9167100302844</v>
       </c>
       <c r="J34">
-        <v>32.4813070478803</v>
+        <v>54.4350428199422</v>
       </c>
       <c r="K34">
-        <v>5.32939358518515</v>
+        <v>31.986958363202</v>
       </c>
       <c r="L34">
-        <v>95.1588382333011</v>
+        <v>77.8105250970832</v>
       </c>
       <c r="M34">
-        <v>21.035285827513</v>
+        <v>47.264840316924</v>
       </c>
       <c r="N34">
-        <v>115.306273910076</v>
+        <v>120.433938558706</v>
       </c>
       <c r="O34">
-        <v>2916.07050422367</v>
+        <v>2676.22795994768</v>
       </c>
       <c r="P34">
-        <v>72.1596185624656</v>
+        <v>44.7795161767753</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>137.578817500034</v>
+        <v>168.383783290401</v>
       </c>
       <c r="C35">
-        <v>5.20315199902115</v>
+        <v>6.15298453013405</v>
       </c>
       <c r="D35">
-        <v>0.419252177402166</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>1.8708584634763</v>
+        <v>2.08855886688422</v>
       </c>
       <c r="F35">
-        <v>4.24545331896276</v>
+        <v>6.13362338013296</v>
       </c>
       <c r="G35">
-        <v>1.75609842164739</v>
+        <v>0.506498984337308</v>
       </c>
       <c r="H35">
-        <v>0.1601251437694</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>0.312512631689314</v>
+        <v>0.940012088861142</v>
       </c>
       <c r="J35">
-        <v>3.21017287117242</v>
+        <v>2.49375364553928</v>
       </c>
       <c r="K35">
-        <v>3.63739281400979</v>
+        <v>5.68912616518436</v>
       </c>
       <c r="L35">
-        <v>1.87150963162412</v>
+        <v>1.8955986283795</v>
       </c>
       <c r="M35">
-        <v>1.84102308291889</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>4.19986804354755</v>
+        <v>2.14352192449022</v>
       </c>
       <c r="O35">
-        <v>243.245710215904</v>
+        <v>215.942989033774</v>
       </c>
       <c r="P35">
-        <v>38.2598771243524</v>
+        <v>34.3644178567223</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3086.40933498491</v>
+        <v>3257.61439853913</v>
       </c>
       <c r="C36">
-        <v>69.0910228833218</v>
+        <v>73.0123642194681</v>
       </c>
       <c r="D36">
-        <v>12.1279628834439</v>
+        <v>23.302223345857</v>
       </c>
       <c r="E36">
-        <v>115.175403706404</v>
+        <v>110.027269055587</v>
       </c>
       <c r="F36">
-        <v>29.7952968032902</v>
+        <v>18.0820425758513</v>
       </c>
       <c r="G36">
-        <v>79.99912803769639</v>
+        <v>70.3186847872289</v>
       </c>
       <c r="H36">
-        <v>65.8130249363865</v>
+        <v>97.9881605637131</v>
       </c>
       <c r="I36">
-        <v>35.5033012162603</v>
+        <v>41.7593288464579</v>
       </c>
       <c r="J36">
-        <v>171.285160696061</v>
+        <v>231.431149130755</v>
       </c>
       <c r="K36">
-        <v>45.2335979829876</v>
+        <v>123.720460067233</v>
       </c>
       <c r="L36">
-        <v>38.9865382862842</v>
+        <v>79.479880532338</v>
       </c>
       <c r="M36">
-        <v>175.408723745306</v>
+        <v>220.126393204049</v>
       </c>
       <c r="N36">
-        <v>94.8121333455026</v>
+        <v>86.9190970122324</v>
       </c>
       <c r="O36">
-        <v>3881.67119844007</v>
+        <v>3479.43057590168</v>
       </c>
       <c r="P36">
-        <v>35.3145788421295</v>
+        <v>45.1426081693009</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>969.407473085458</v>
+        <v>1060.40399825908</v>
       </c>
       <c r="C37">
-        <v>13.934957971864</v>
+        <v>23.9447317303583</v>
       </c>
       <c r="D37">
-        <v>9.52950921842598</v>
+        <v>8.25304535995118</v>
       </c>
       <c r="E37">
-        <v>10.5507654357717</v>
+        <v>16.5237292178289</v>
       </c>
       <c r="F37">
-        <v>31.8686663715215</v>
+        <v>41.0761901740706</v>
       </c>
       <c r="G37">
-        <v>11.7218621150452</v>
+        <v>7.08053010914616</v>
       </c>
       <c r="H37">
-        <v>17.6568030609696</v>
+        <v>14.4124639997508</v>
       </c>
       <c r="I37">
-        <v>6.74766450600105</v>
+        <v>10.0862854908322</v>
       </c>
       <c r="J37">
-        <v>30.6247851581756</v>
+        <v>32.0188048210081</v>
       </c>
       <c r="K37">
-        <v>5.69086558717622</v>
+        <v>27.8779081356558</v>
       </c>
       <c r="L37">
-        <v>10.7024566859748</v>
+        <v>18.9499493037571</v>
       </c>
       <c r="M37">
-        <v>33.5755909992707</v>
+        <v>30.0676190562774</v>
       </c>
       <c r="N37">
-        <v>22.1028968247918</v>
+        <v>14.1412039692392</v>
       </c>
       <c r="O37">
-        <v>1197.73622885535</v>
+        <v>1086.23623303262</v>
       </c>
       <c r="P37">
-        <v>43.7535384984404</v>
+        <v>32.6234690975109</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1009.17637034702</v>
+        <v>1054.09556257215</v>
       </c>
       <c r="C38">
-        <v>28.2234526751872</v>
+        <v>18.9695542367762</v>
       </c>
       <c r="D38">
-        <v>6.72249640584009</v>
+        <v>8.89855111005369</v>
       </c>
       <c r="E38">
-        <v>37.892886288262</v>
+        <v>73.8479927912813</v>
       </c>
       <c r="F38">
-        <v>2.92557017098301</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>10.1629070683892</v>
+        <v>5.40272113600374</v>
       </c>
       <c r="H38">
-        <v>1.90927021898499</v>
+        <v>5.13104843452247</v>
       </c>
       <c r="I38">
-        <v>0.5782585269642721</v>
+        <v>5.52311329415062</v>
       </c>
       <c r="J38">
-        <v>29.0901447559565</v>
+        <v>29.0091218109894</v>
       </c>
       <c r="K38">
-        <v>6.6125786430011</v>
+        <v>13.7085948715668</v>
       </c>
       <c r="L38">
-        <v>74.7055641538922</v>
+        <v>65.7109286082928</v>
       </c>
       <c r="M38">
-        <v>22.4989598867433</v>
+        <v>17.9334260780061</v>
       </c>
       <c r="N38">
-        <v>29.8755309449164</v>
+        <v>25.5649493510693</v>
       </c>
       <c r="O38">
-        <v>1266.58549605433</v>
+        <v>1178.07770561876</v>
       </c>
       <c r="P38">
-        <v>47.9498305682518</v>
+        <v>58.6532119793302</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3448.13020700807</v>
+        <v>3871.79136317597</v>
       </c>
       <c r="C39">
-        <v>75.1889169810628</v>
+        <v>86.25171727687341</v>
       </c>
       <c r="D39">
-        <v>21.6653594182833</v>
+        <v>50.1381964046808</v>
       </c>
       <c r="E39">
-        <v>136.287002095891</v>
+        <v>132.285865077308</v>
       </c>
       <c r="F39">
-        <v>17.6715511762258</v>
+        <v>36.3825890048602</v>
       </c>
       <c r="G39">
-        <v>113.327943774156</v>
+        <v>90.3391742447289</v>
       </c>
       <c r="H39">
-        <v>40.6279481368417</v>
+        <v>50.8401598301446</v>
       </c>
       <c r="I39">
-        <v>29.2607707451163</v>
+        <v>46.8153846504048</v>
       </c>
       <c r="J39">
-        <v>170.231381927166</v>
+        <v>215.487668983235</v>
       </c>
       <c r="K39">
-        <v>37.6764458672895</v>
+        <v>66.2743684993258</v>
       </c>
       <c r="L39">
-        <v>75.50502182763709</v>
+        <v>88.32981571804019</v>
       </c>
       <c r="M39">
-        <v>64.09363260639449</v>
+        <v>62.1155070267561</v>
       </c>
       <c r="N39">
-        <v>105.476863826693</v>
+        <v>89.1132564470357</v>
       </c>
       <c r="O39">
-        <v>4346.18067465831</v>
+        <v>3823.56670470912</v>
       </c>
       <c r="P39">
-        <v>52.6614665747626</v>
+        <v>64.059542153219</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>261.711239114587</v>
+        <v>305.941133418908</v>
       </c>
       <c r="C40">
-        <v>2.54994707502948</v>
+        <v>3.10128019127438</v>
       </c>
       <c r="D40">
-        <v>4.67552637867389</v>
+        <v>6.72536441757014</v>
       </c>
       <c r="E40">
-        <v>3.49855948348517</v>
+        <v>7.01586654642486</v>
       </c>
       <c r="F40">
-        <v>0.473457228382608</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>2.9084381466816</v>
+        <v>3.47568492648227</v>
       </c>
       <c r="H40">
-        <v>2.66509414514651</v>
+        <v>3.83013369125745</v>
       </c>
       <c r="I40">
-        <v>2.34295373116804</v>
+        <v>0.7327401700081651</v>
       </c>
       <c r="J40">
-        <v>10.178083384155</v>
+        <v>11.3291876576619</v>
       </c>
       <c r="K40">
-        <v>0.849353194747031</v>
+        <v>3.47883448704542</v>
       </c>
       <c r="L40">
-        <v>9.44947453900487</v>
+        <v>9.30050716995779</v>
       </c>
       <c r="M40">
-        <v>5.32298163719667</v>
+        <v>4.45915292898147</v>
       </c>
       <c r="N40">
-        <v>16.6920916961201</v>
+        <v>18.1219579388973</v>
       </c>
       <c r="O40">
-        <v>400.006639614509</v>
+        <v>341.3126164092</v>
       </c>
       <c r="P40">
-        <v>4.15503036403771</v>
+        <v>2.20459856741331</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1162.70698313861</v>
+        <v>1270.77568418356</v>
       </c>
       <c r="C41">
-        <v>12.3546106825776</v>
+        <v>20.6128890663664</v>
       </c>
       <c r="D41">
-        <v>52.828017236266</v>
+        <v>78.06691048908731</v>
       </c>
       <c r="E41">
-        <v>36.6358731314512</v>
+        <v>41.9284535062042</v>
       </c>
       <c r="F41">
-        <v>1.03290385907245</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>27.5233402569416</v>
+        <v>23.7596136125346</v>
       </c>
       <c r="H41">
-        <v>29.6411043276771</v>
+        <v>30.343888786098</v>
       </c>
       <c r="I41">
-        <v>12.1614215790747</v>
+        <v>11.8926284305886</v>
       </c>
       <c r="J41">
-        <v>31.471574842068</v>
+        <v>34.1851155980071</v>
       </c>
       <c r="K41">
-        <v>7.10655792345013</v>
+        <v>23.5925784857274</v>
       </c>
       <c r="L41">
-        <v>11.8792641994972</v>
+        <v>25.8113061446327</v>
       </c>
       <c r="M41">
-        <v>29.5530030068879</v>
+        <v>37.2765515353459</v>
       </c>
       <c r="N41">
-        <v>17.2448551891123</v>
+        <v>21.0756658068744</v>
       </c>
       <c r="O41">
-        <v>1444.43328940371</v>
+        <v>1269.39453286157</v>
       </c>
       <c r="P41">
-        <v>21.3309150607377</v>
+        <v>20.1948941641031</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>148.637996458604</v>
+        <v>187.938960595853</v>
       </c>
       <c r="C42">
-        <v>5.50010339458304</v>
+        <v>6.00101395990437</v>
       </c>
       <c r="D42">
-        <v>1.50544126138242</v>
+        <v>0.967983933028659</v>
       </c>
       <c r="E42">
-        <v>5.45240853285168</v>
+        <v>5.00343104987475</v>
       </c>
       <c r="F42">
-        <v>0.96306117417302</v>
+        <v>1.54274409701271</v>
       </c>
       <c r="G42">
-        <v>0.780808189473875</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
-        <v>0.417052669432447</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>1.56246828797498</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>3.06129727891359</v>
+        <v>3.77499266383319</v>
       </c>
       <c r="K42">
-        <v>2.27840299980582</v>
+        <v>6.19653373585671</v>
       </c>
       <c r="L42">
-        <v>4.73884994291799</v>
+        <v>6.28918124065671</v>
       </c>
       <c r="M42">
-        <v>3.93018755784411</v>
+        <v>2.68053998829498</v>
       </c>
       <c r="N42">
-        <v>8.04710332951437</v>
+        <v>6.5374505923549</v>
       </c>
       <c r="O42">
-        <v>273.594193679229</v>
+        <v>238.416397713558</v>
       </c>
       <c r="P42">
-        <v>36.4601534351771</v>
+        <v>36.5762697992104</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1757.27734644885</v>
+        <v>1730.45610728209</v>
       </c>
       <c r="C43">
-        <v>41.1210240500396</v>
+        <v>43.2371389576884</v>
       </c>
       <c r="D43">
-        <v>17.5148381931556</v>
+        <v>41.0810164122255</v>
       </c>
       <c r="E43">
-        <v>63.6471289405767</v>
+        <v>66.3378098972201</v>
       </c>
       <c r="F43">
-        <v>7.36903198234317</v>
+        <v>7.16475931394262</v>
       </c>
       <c r="G43">
-        <v>40.7658253899308</v>
+        <v>27.8308958835791</v>
       </c>
       <c r="H43">
-        <v>40.4313605745189</v>
+        <v>34.2966023921779</v>
       </c>
       <c r="I43">
-        <v>15.7968008133784</v>
+        <v>13.9722059471117</v>
       </c>
       <c r="J43">
-        <v>44.2824878415853</v>
+        <v>66.1743587236171</v>
       </c>
       <c r="K43">
-        <v>4.74661807850713</v>
+        <v>47.9853884290991</v>
       </c>
       <c r="L43">
-        <v>36.4375589439394</v>
+        <v>47.214593325791</v>
       </c>
       <c r="M43">
-        <v>72.2945382143172</v>
+        <v>109.460455089332</v>
       </c>
       <c r="N43">
-        <v>80.5683065298484</v>
+        <v>62.3926863766197</v>
       </c>
       <c r="O43">
-        <v>1940.69809327463</v>
+        <v>1863.34154264502</v>
       </c>
       <c r="P43">
-        <v>22.2333930042159</v>
+        <v>24.9961497425958</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5415.26941141139</v>
+        <v>6033.04488048442</v>
       </c>
       <c r="C44">
-        <v>143.359834837906</v>
+        <v>102.049241788362</v>
       </c>
       <c r="D44">
-        <v>18.1613673527678</v>
+        <v>32.6944785049017</v>
       </c>
       <c r="E44">
-        <v>86.8278702221819</v>
+        <v>96.2359934115272</v>
       </c>
       <c r="F44">
-        <v>215.276378179786</v>
+        <v>233.012722054697</v>
       </c>
       <c r="G44">
-        <v>104.735545857232</v>
+        <v>102.481253074556</v>
       </c>
       <c r="H44">
-        <v>31.7685627583174</v>
+        <v>53.3156799930778</v>
       </c>
       <c r="I44">
-        <v>37.0970361498818</v>
+        <v>40.8520079747452</v>
       </c>
       <c r="J44">
-        <v>104.104945916479</v>
+        <v>153.632618415825</v>
       </c>
       <c r="K44">
-        <v>18.6018694323766</v>
+        <v>97.5996785215301</v>
       </c>
       <c r="L44">
-        <v>124.974854134213</v>
+        <v>191.147044626616</v>
       </c>
       <c r="M44">
-        <v>64.8037896649443</v>
+        <v>109.771519548737</v>
       </c>
       <c r="N44">
-        <v>72.5737906951113</v>
+        <v>91.9396366829115</v>
       </c>
       <c r="O44">
-        <v>7736.5647981566</v>
+        <v>7047.17968760026</v>
       </c>
       <c r="P44">
-        <v>212.403954472674</v>
+        <v>113.597801047776</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>479.380023108589</v>
+        <v>553.078225626476</v>
       </c>
       <c r="C45">
-        <v>15.6105706761447</v>
+        <v>13.2259875277138</v>
       </c>
       <c r="D45">
-        <v>2.78309778953295</v>
+        <v>3.13188918275531</v>
       </c>
       <c r="E45">
-        <v>15.4733911307609</v>
+        <v>16.0469778987087</v>
       </c>
       <c r="F45">
-        <v>21.9344299745241</v>
+        <v>13.3290103345452</v>
       </c>
       <c r="G45">
-        <v>7.53856749037126</v>
+        <v>9.1467674163681</v>
       </c>
       <c r="H45">
-        <v>1.40592905366657</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>3.3454971259823</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>18.7552654322378</v>
+        <v>18.0698492424478</v>
       </c>
       <c r="K45">
-        <v>5.88542293840841</v>
+        <v>6.06151545286957</v>
       </c>
       <c r="L45">
-        <v>15.7744763608223</v>
+        <v>14.3616921194026</v>
       </c>
       <c r="M45">
-        <v>11.5759508438345</v>
+        <v>22.0377948167387</v>
       </c>
       <c r="N45">
-        <v>24.1918036366252</v>
+        <v>29.5319120522948</v>
       </c>
       <c r="O45">
-        <v>822.01644605705</v>
+        <v>776.040963287479</v>
       </c>
       <c r="P45">
-        <v>13.2779622558436</v>
+        <v>7.67048177691084</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>129.450304205041</v>
+        <v>153.836431808557</v>
       </c>
       <c r="C46">
-        <v>3.72484254473453</v>
+        <v>4.07921209615066</v>
       </c>
       <c r="D46">
-        <v>0.6985567646732031</v>
+        <v>2.05945982938654</v>
       </c>
       <c r="E46">
-        <v>3.91006411023752</v>
+        <v>8.796678516965679</v>
       </c>
       <c r="F46">
-        <v>0.605188471196296</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>1.00443372438483</v>
+        <v>1.60195059894128</v>
       </c>
       <c r="H46">
-        <v>0.443844832644627</v>
+        <v>1.77293701276038</v>
       </c>
       <c r="I46">
-        <v>1.74263905974268</v>
+        <v>2.20740226897569</v>
       </c>
       <c r="J46">
-        <v>2.62277950369541</v>
+        <v>4.07710799209352</v>
       </c>
       <c r="K46">
-        <v>1.20574828817879</v>
+        <v>2.90615119104169</v>
       </c>
       <c r="L46">
-        <v>10.3428145939247</v>
+        <v>10.4010972433762</v>
       </c>
       <c r="M46">
-        <v>2.45678410666086</v>
+        <v>3.5880766562544</v>
       </c>
       <c r="N46">
-        <v>10.4225309295578</v>
+        <v>6.24692888234316</v>
       </c>
       <c r="O46">
-        <v>241.207579736814</v>
+        <v>213.053139729797</v>
       </c>
       <c r="P46">
-        <v>7.84411677934427</v>
+        <v>9.17181957948613</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1804.24252793242</v>
+        <v>1913.13159144122</v>
       </c>
       <c r="C47">
-        <v>48.6293092600222</v>
+        <v>44.0405180230975</v>
       </c>
       <c r="D47">
-        <v>12.4071815567298</v>
+        <v>38.0875854786128</v>
       </c>
       <c r="E47">
-        <v>42.4757809655147</v>
+        <v>65.15309763194701</v>
       </c>
       <c r="F47">
-        <v>7.85138865171304</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>20.7886038879648</v>
+        <v>25.8398409341898</v>
       </c>
       <c r="H47">
-        <v>17.8131291711663</v>
+        <v>20.6878826824745</v>
       </c>
       <c r="I47">
-        <v>5.59514743914228</v>
+        <v>13.738579072002</v>
       </c>
       <c r="J47">
-        <v>34.8908514528803</v>
+        <v>32.8787401861491</v>
       </c>
       <c r="K47">
-        <v>5.249253735446</v>
+        <v>25.1447082544203</v>
       </c>
       <c r="L47">
-        <v>27.6228479450695</v>
+        <v>34.8722128904908</v>
       </c>
       <c r="M47">
-        <v>58.0111378575398</v>
+        <v>68.8639918861398</v>
       </c>
       <c r="N47">
-        <v>24.0080054504118</v>
+        <v>47.2428176647149</v>
       </c>
       <c r="O47">
-        <v>2777.58000037711</v>
+        <v>2562.50612110253</v>
       </c>
       <c r="P47">
-        <v>36.4635311392575</v>
+        <v>32.2228884262271</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1561.13830016443</v>
+        <v>1758.90584151497</v>
       </c>
       <c r="C48">
-        <v>34.7797269010089</v>
+        <v>37.8092079819862</v>
       </c>
       <c r="D48">
-        <v>7.20612653546941</v>
+        <v>8.027423161558421</v>
       </c>
       <c r="E48">
-        <v>66.04000385180881</v>
+        <v>47.934722228652</v>
       </c>
       <c r="F48">
-        <v>6.04953952677431</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>6.70427741255952</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>7.50668241969553</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>4.86073258350454</v>
+        <v>8.741114117169969</v>
       </c>
       <c r="J48">
-        <v>30.0745796640137</v>
+        <v>26.6165385261887</v>
       </c>
       <c r="K48">
-        <v>18.2859670207576</v>
+        <v>12.8646758870934</v>
       </c>
       <c r="L48">
-        <v>39.7500774216765</v>
+        <v>39.1880596224581</v>
       </c>
       <c r="M48">
-        <v>126.917542797281</v>
+        <v>126.142093235638</v>
       </c>
       <c r="N48">
-        <v>13.7157032656115</v>
+        <v>32.6139925274151</v>
       </c>
       <c r="O48">
-        <v>2253.56587259294</v>
+        <v>2043.81126096803</v>
       </c>
       <c r="P48">
-        <v>48.1595742698535</v>
+        <v>62.1448402740247</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>695.258843757046</v>
+        <v>699.477926523362</v>
       </c>
       <c r="C49">
-        <v>5.14388350139956</v>
+        <v>5.36589822488382</v>
       </c>
       <c r="D49">
-        <v>1.57840674320198</v>
+        <v>2.36588034091456</v>
       </c>
       <c r="E49">
-        <v>17.9391551471684</v>
+        <v>14.0410721686066</v>
       </c>
       <c r="F49">
-        <v>28.058379556102</v>
+        <v>22.7345315910869</v>
       </c>
       <c r="G49">
-        <v>7.9563241306099</v>
+        <v>17.1631879255909</v>
       </c>
       <c r="H49">
-        <v>8.68461302401543</v>
+        <v>5.21059598779734</v>
       </c>
       <c r="I49">
-        <v>2.51338281377433</v>
+        <v>4.08740100183186</v>
       </c>
       <c r="J49">
-        <v>19.2487834078986</v>
+        <v>17.8058146686344</v>
       </c>
       <c r="K49">
-        <v>0.853317637343709</v>
+        <v>5.35061317279322</v>
       </c>
       <c r="L49">
-        <v>2.72555627283393</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>1.3391147898691</v>
+        <v>6.46301656992907</v>
       </c>
       <c r="N49">
-        <v>5.41726770669077</v>
+        <v>5.26881860853985</v>
       </c>
       <c r="O49">
-        <v>520.161698481942</v>
+        <v>507.127157778773</v>
       </c>
       <c r="P49">
-        <v>4.86363904766967</v>
+        <v>7.8736868001706</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1212.3244181784</v>
+        <v>1431.12085720332</v>
       </c>
       <c r="C50">
-        <v>78.6318982274537</v>
+        <v>74.97789162618901</v>
       </c>
       <c r="D50">
-        <v>8.39832581746782</v>
+        <v>15.0092013961436</v>
       </c>
       <c r="E50">
-        <v>116.458994553579</v>
+        <v>136.714088125831</v>
       </c>
       <c r="F50">
-        <v>2.91370834023635</v>
+        <v>3.612932380564</v>
       </c>
       <c r="G50">
-        <v>21.4931386358192</v>
+        <v>14.6728071723556</v>
       </c>
       <c r="H50">
-        <v>37.8970060515152</v>
+        <v>36.5256506760602</v>
       </c>
       <c r="I50">
-        <v>11.9504173556417</v>
+        <v>11.3234378332247</v>
       </c>
       <c r="J50">
-        <v>74.60717699773841</v>
+        <v>95.8749325016431</v>
       </c>
       <c r="K50">
-        <v>45.7416068152191</v>
+        <v>79.0483202383477</v>
       </c>
       <c r="L50">
-        <v>59.566812280448</v>
+        <v>50.0168525664485</v>
       </c>
       <c r="M50">
-        <v>50.0282435041788</v>
+        <v>54.4770567559668</v>
       </c>
       <c r="N50">
-        <v>42.9292049092183</v>
+        <v>60.5508769758277</v>
       </c>
       <c r="O50">
-        <v>1993.35666449913</v>
+        <v>1661.57635128161</v>
       </c>
       <c r="P50">
-        <v>80.2094515799066</v>
+        <v>101.445820823034</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>107.804994234784</v>
+        <v>124.068996501225</v>
       </c>
       <c r="C51">
-        <v>0.578612441431689</v>
+        <v>1.12488235863003</v>
       </c>
       <c r="D51">
-        <v>0.140272983926987</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>2.4589302441143</v>
+        <v>2.13501010019813</v>
       </c>
       <c r="F51">
-        <v>23.1254539952855</v>
+        <v>25.3696031309335</v>
       </c>
       <c r="G51">
-        <v>1.37754516333788</v>
+        <v>2.79972924994076</v>
       </c>
       <c r="H51">
-        <v>0.009463345215570729</v>
+        <v>0.13540489407708</v>
       </c>
       <c r="I51">
-        <v>0.744540521414347</v>
+        <v>0.719549217416861</v>
       </c>
       <c r="J51">
-        <v>0.45932504887276</v>
+        <v>1.5797388458805</v>
       </c>
       <c r="K51">
-        <v>0.428018429043914</v>
+        <v>0.636572090762435</v>
       </c>
       <c r="L51">
-        <v>0.953972307051421</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.395704276010346</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>0.505684308412919</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>190.112088148517</v>
+        <v>175.163935139646</v>
       </c>
       <c r="P51">
-        <v>22.3303532434787</v>
+        <v>11.6759539389575</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4797.77106877597</v>
       </c>
       <c r="C52">
-        <v>165.032404609614</v>
+        <v>168.131478914601</v>
       </c>
       <c r="D52">
-        <v>50.7280235961161</v>
+        <v>51.6806238738701</v>
       </c>
       <c r="E52">
-        <v>161.104155552405</v>
+        <v>164.129462916011</v>
       </c>
       <c r="F52">
-        <v>124.827778030991</v>
+        <v>127.171866516883</v>
       </c>
       <c r="G52">
-        <v>40.3012072722195</v>
+        <v>41.0580067396499</v>
       </c>
       <c r="H52">
-        <v>31.5592431780135</v>
+        <v>32.1518809684474</v>
       </c>
       <c r="I52">
-        <v>34.6634956893233</v>
+        <v>35.3144269356197</v>
       </c>
       <c r="J52">
-        <v>150.459964987439</v>
+        <v>153.285389561024</v>
       </c>
       <c r="K52">
-        <v>51.5530815416075</v>
+        <v>52.5211752364576</v>
       </c>
       <c r="L52">
-        <v>52.1747578425083</v>
+        <v>53.1545257358572</v>
       </c>
       <c r="M52">
-        <v>97.22743932293859</v>
+        <v>99.05323262491591</v>
       </c>
       <c r="N52">
-        <v>110.965046746075</v>
+        <v>113.04881281575</v>
       </c>
       <c r="O52">
-        <v>7187.87292881087</v>
+        <v>7322.85097966026</v>
       </c>
       <c r="P52">
-        <v>320.388445796878</v>
+        <v>326.404886036798</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2603.55195617313</v>
       </c>
       <c r="C53">
-        <v>76.934546038986</v>
+        <v>76.40859076434769</v>
       </c>
       <c r="D53">
-        <v>29.0404547258434</v>
+        <v>28.8419225822572</v>
       </c>
       <c r="E53">
-        <v>86.1809676963873</v>
+        <v>85.591800191449</v>
       </c>
       <c r="F53">
-        <v>7.67974251456652</v>
+        <v>7.62724072842024</v>
       </c>
       <c r="G53">
-        <v>26.6724449723966</v>
+        <v>26.4901014889682</v>
       </c>
       <c r="H53">
-        <v>26.7055095849704</v>
+        <v>26.5229400586486</v>
       </c>
       <c r="I53">
-        <v>35.3275935578901</v>
+        <v>35.0860800229609</v>
       </c>
       <c r="J53">
-        <v>104.14866716443</v>
+        <v>103.436665291904</v>
       </c>
       <c r="K53">
-        <v>81.2358631393947</v>
+        <v>80.6805023436566</v>
       </c>
       <c r="L53">
-        <v>71.7988337153915</v>
+        <v>71.3079882207504</v>
       </c>
       <c r="M53">
-        <v>44.6158322253112</v>
+        <v>44.3108205823051</v>
       </c>
       <c r="N53">
-        <v>46.1397218695212</v>
+        <v>45.8242923084587</v>
       </c>
       <c r="O53">
-        <v>2717.3451651978</v>
+        <v>2698.76830868494</v>
       </c>
       <c r="P53">
-        <v>282.694657597109</v>
+        <v>280.762044045325</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3313.77790251199</v>
       </c>
       <c r="C54">
-        <v>93.9588830970369</v>
+        <v>95.7048576549618</v>
       </c>
       <c r="D54">
-        <v>41.3338143346894</v>
+        <v>42.1018927305962</v>
       </c>
       <c r="E54">
-        <v>58.9881389131422</v>
+        <v>60.0842757164641</v>
       </c>
       <c r="F54">
-        <v>8.781656461915469</v>
+        <v>8.944840061523671</v>
       </c>
       <c r="G54">
-        <v>67.6206911749326</v>
+        <v>68.87724087506891</v>
       </c>
       <c r="H54">
-        <v>24.8955603754391</v>
+        <v>25.3581777841189</v>
       </c>
       <c r="I54">
-        <v>30.211028288991</v>
+        <v>30.7724194531117</v>
       </c>
       <c r="J54">
-        <v>99.91046438385</v>
+        <v>101.767033163031</v>
       </c>
       <c r="K54">
-        <v>39.0827281964366</v>
+        <v>39.8089761767877</v>
       </c>
       <c r="L54">
-        <v>43.3883540273228</v>
+        <v>44.1946105487387</v>
       </c>
       <c r="M54">
-        <v>54.5527730639653</v>
+        <v>55.5664904549603</v>
       </c>
       <c r="N54">
-        <v>27.2967189229088</v>
+        <v>27.8039554415145</v>
       </c>
       <c r="O54">
-        <v>3022.28210757282</v>
+        <v>3078.44313772517</v>
       </c>
       <c r="P54">
-        <v>81.4660811865523</v>
+        <v>82.9799104318262</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2915.42357146447</v>
       </c>
       <c r="C55">
-        <v>116.37197254607</v>
+        <v>117.538491893</v>
       </c>
       <c r="D55">
-        <v>191.503995863106</v>
+        <v>193.423642933626</v>
       </c>
       <c r="E55">
-        <v>48.4041274915382</v>
+        <v>48.8893332498902</v>
       </c>
       <c r="F55">
-        <v>35.6371944339977</v>
+        <v>35.9944237209818</v>
       </c>
       <c r="G55">
-        <v>22.9621098157202</v>
+        <v>23.1922833253749</v>
       </c>
       <c r="H55">
-        <v>20.1148081985709</v>
+        <v>20.3164401930284</v>
       </c>
       <c r="I55">
-        <v>26.6360473862354</v>
+        <v>26.9030486574348</v>
       </c>
       <c r="J55">
-        <v>56.6704870251974</v>
+        <v>57.2385552470252</v>
       </c>
       <c r="K55">
-        <v>63.926513726965</v>
+        <v>64.5673167778436</v>
       </c>
       <c r="L55">
-        <v>30.8610755923279</v>
+        <v>31.1704287893038</v>
       </c>
       <c r="M55">
-        <v>12.0321455434374</v>
+        <v>12.1527564624964</v>
       </c>
       <c r="N55">
-        <v>33.892074088003</v>
+        <v>34.2318101882533</v>
       </c>
       <c r="O55">
-        <v>1584.29372884543</v>
+        <v>1600.17478031756</v>
       </c>
       <c r="P55">
-        <v>687.3937194434</v>
+        <v>694.284193628422</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>39211.3888749299</v>
       </c>
       <c r="C56">
-        <v>1939.99192363736</v>
+        <v>2008.69379688129</v>
       </c>
       <c r="D56">
-        <v>3067.68115531994</v>
+        <v>3176.31843329914</v>
       </c>
       <c r="E56">
-        <v>933.4767873946</v>
+        <v>966.534452811833</v>
       </c>
       <c r="F56">
-        <v>319.185905643566</v>
+        <v>330.489390654813</v>
       </c>
       <c r="G56">
-        <v>430.901190222818</v>
+        <v>446.160902694117</v>
       </c>
       <c r="H56">
-        <v>332.285666704734</v>
+        <v>344.053059896723</v>
       </c>
       <c r="I56">
-        <v>482.743168216385</v>
+        <v>499.838785753799</v>
       </c>
       <c r="J56">
-        <v>839.452708368054</v>
+        <v>869.180653552716</v>
       </c>
       <c r="K56">
-        <v>432.748213011642</v>
+        <v>448.073334995203</v>
       </c>
       <c r="L56">
-        <v>378.618781724471</v>
+        <v>392.026991950953</v>
       </c>
       <c r="M56">
-        <v>426.557814296225</v>
+        <v>441.663712692979</v>
       </c>
       <c r="N56">
-        <v>817.365031511695</v>
+        <v>846.310775102037</v>
       </c>
       <c r="O56">
-        <v>47816.2899866509</v>
+        <v>49509.63141433</v>
       </c>
       <c r="P56">
-        <v>16521.0356672976</v>
+        <v>17106.1031020863</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>6790.95375280012</v>
       </c>
       <c r="C57">
-        <v>234.96693602137</v>
+        <v>240.006833169576</v>
       </c>
       <c r="D57">
-        <v>112.747356436836</v>
+        <v>115.165718312747</v>
       </c>
       <c r="E57">
-        <v>360.786052196463</v>
+        <v>368.524692476524</v>
       </c>
       <c r="F57">
-        <v>189.878970519385</v>
+        <v>193.951758368726</v>
       </c>
       <c r="G57">
-        <v>98.6007670680123</v>
+        <v>100.715693249421</v>
       </c>
       <c r="H57">
-        <v>117.453738754246</v>
+        <v>119.97304965397</v>
       </c>
       <c r="I57">
-        <v>53.9473071647344</v>
+        <v>55.1044439267689</v>
       </c>
       <c r="J57">
-        <v>258.722961087388</v>
+        <v>264.272410451791</v>
       </c>
       <c r="K57">
-        <v>133.749987626685</v>
+        <v>136.618843103232</v>
       </c>
       <c r="L57">
-        <v>109.335343629968</v>
+        <v>111.68051991685</v>
       </c>
       <c r="M57">
-        <v>210.428801044163</v>
+        <v>214.94237019666</v>
       </c>
       <c r="N57">
-        <v>157.039490659253</v>
+        <v>160.407891739554</v>
       </c>
       <c r="O57">
-        <v>10880.4240547799</v>
+        <v>11113.8024998219</v>
       </c>
       <c r="P57">
-        <v>380.613231242853</v>
+        <v>388.777152393597</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>241083.607235166</v>
       </c>
       <c r="C58">
-        <v>13068.047257333</v>
+        <v>12422.8367774536</v>
       </c>
       <c r="D58">
-        <v>23861.4246102602</v>
+        <v>22683.3112379847</v>
       </c>
       <c r="E58">
-        <v>16406.8835803231</v>
+        <v>15596.8242792102</v>
       </c>
       <c r="F58">
-        <v>9491.72013043104</v>
+        <v>9023.08413764338</v>
       </c>
       <c r="G58">
-        <v>6514.52916244108</v>
+        <v>6192.88642544161</v>
       </c>
       <c r="H58">
-        <v>9662.08173583648</v>
+        <v>9185.03445626571</v>
       </c>
       <c r="I58">
-        <v>8303.707768576271</v>
+        <v>7893.72767219002</v>
       </c>
       <c r="J58">
-        <v>8148.82998849786</v>
+        <v>7746.49669387467</v>
       </c>
       <c r="K58">
-        <v>8719.97886555792</v>
+        <v>8289.446159515879</v>
       </c>
       <c r="L58">
-        <v>10777.9919086764</v>
+        <v>10245.8486439181</v>
       </c>
       <c r="M58">
-        <v>4516.746837688</v>
+        <v>4293.74087993076</v>
       </c>
       <c r="N58">
-        <v>7610.96759997036</v>
+        <v>7235.19025842701</v>
       </c>
       <c r="O58">
-        <v>254789.879726714</v>
+        <v>242210.104238479</v>
       </c>
       <c r="P58">
-        <v>323331.048469904</v>
+        <v>307367.18050745</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>171.401873124968</v>
       </c>
       <c r="C59">
-        <v>10.0098027314112</v>
+        <v>10.371880564836</v>
       </c>
       <c r="D59">
-        <v>2.39550834597876</v>
+        <v>2.48215945141375</v>
       </c>
       <c r="E59">
-        <v>5.47544764795144</v>
+        <v>5.67350731751715</v>
       </c>
       <c r="F59">
-        <v>0.513323216995448</v>
+        <v>0.531891311017233</v>
       </c>
       <c r="G59">
-        <v>1.53996965098634</v>
+        <v>1.5956739330517</v>
       </c>
       <c r="H59">
-        <v>1.11220030349014</v>
+        <v>1.15243117387067</v>
       </c>
       <c r="I59">
-        <v>2.9088315629742</v>
+        <v>3.01405076243099</v>
       </c>
       <c r="J59">
-        <v>3.76437025796662</v>
+        <v>3.90053628079304</v>
       </c>
       <c r="K59">
-        <v>0.855538694992413</v>
+        <v>0.886485518362055</v>
       </c>
       <c r="L59">
-        <v>0.513323216995448</v>
+        <v>0.531891311017233</v>
       </c>
       <c r="M59">
-        <v>0.427769347496206</v>
+        <v>0.443242759181027</v>
       </c>
       <c r="N59">
-        <v>2.56661608497724</v>
+        <v>2.65945655508616</v>
       </c>
       <c r="O59">
-        <v>234.075386949924</v>
+        <v>242.542437823858</v>
       </c>
       <c r="P59">
-        <v>15.7419119878604</v>
+        <v>16.3113335378618</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3085.69851485619</v>
       </c>
       <c r="C60">
-        <v>141.811326318599</v>
+        <v>140.325524127861</v>
       </c>
       <c r="D60">
-        <v>103.628343611721</v>
+        <v>102.542596626922</v>
       </c>
       <c r="E60">
-        <v>141.44773547629</v>
+        <v>139.965742741991</v>
       </c>
       <c r="F60">
-        <v>48.3377678122323</v>
+        <v>47.831317705776</v>
       </c>
       <c r="G60">
-        <v>43.1850812431638</v>
+        <v>42.7326174662289</v>
       </c>
       <c r="H60">
-        <v>73.3670839977631</v>
+        <v>72.59839381650799</v>
       </c>
       <c r="I60">
-        <v>78.72583840116469</v>
+        <v>77.90100285240681</v>
       </c>
       <c r="J60">
-        <v>229.857771380366</v>
+        <v>227.449478692181</v>
       </c>
       <c r="K60">
-        <v>153.628524049006</v>
+        <v>152.018909334037</v>
       </c>
       <c r="L60">
-        <v>186.095105774625</v>
+        <v>184.145328397716</v>
       </c>
       <c r="M60">
-        <v>124.826581357993</v>
+        <v>123.518733720864</v>
       </c>
       <c r="N60">
-        <v>78.3711639555337</v>
+        <v>77.5500444433013</v>
       </c>
       <c r="O60">
-        <v>2988.86731181122</v>
+        <v>2957.55200213183</v>
       </c>
       <c r="P60">
-        <v>189.160364810329</v>
+        <v>187.178471743449</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>25755.8463203943</v>
       </c>
       <c r="C61">
-        <v>947.02606271777</v>
+        <v>953.387405777691</v>
       </c>
       <c r="D61">
-        <v>199.637909407665</v>
+        <v>200.978912870509</v>
       </c>
       <c r="E61">
-        <v>784.506759581882</v>
+        <v>789.776431481095</v>
       </c>
       <c r="F61">
-        <v>110.352613240418</v>
+        <v>111.09387143596</v>
       </c>
       <c r="G61">
-        <v>455.455331010453</v>
+        <v>458.514705744779</v>
       </c>
       <c r="H61">
-        <v>399.275818815331</v>
+        <v>401.957825741018</v>
       </c>
       <c r="I61">
-        <v>252.807804878049</v>
+        <v>254.505960016926</v>
       </c>
       <c r="J61">
-        <v>1106.53574912892</v>
+        <v>1113.96854721694</v>
       </c>
       <c r="K61">
-        <v>1067.41073170732</v>
+        <v>1074.58072007146</v>
       </c>
       <c r="L61">
-        <v>1023.26968641115</v>
+        <v>1030.14317149708</v>
       </c>
       <c r="M61">
-        <v>1005.21198606272</v>
+        <v>1011.96417435301</v>
       </c>
       <c r="N61">
-        <v>277.887944250871</v>
+        <v>279.754567161462</v>
       </c>
       <c r="O61">
-        <v>27504.8872473868</v>
+        <v>27689.6424832701</v>
       </c>
       <c r="P61">
-        <v>855.734355400697</v>
+        <v>861.482475771578</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1314.970896047</v>
       </c>
       <c r="C62">
-        <v>68.2990469128144</v>
+        <v>68.3925118008091</v>
       </c>
       <c r="D62">
-        <v>9.223005202092111</v>
+        <v>9.235626566330019</v>
       </c>
       <c r="E62">
-        <v>53.893619512623</v>
+        <v>53.9673710705006</v>
       </c>
       <c r="F62">
-        <v>3.45230268939234</v>
+        <v>3.45702704644815</v>
       </c>
       <c r="G62">
-        <v>28.355507980144</v>
+        <v>28.3943115139734</v>
       </c>
       <c r="H62">
-        <v>19.6731651245228</v>
+        <v>19.7000871718716</v>
       </c>
       <c r="I62">
-        <v>14.7714905301873</v>
+        <v>14.7917048050612</v>
       </c>
       <c r="J62">
-        <v>46.6765212179882</v>
+        <v>46.7403964259862</v>
       </c>
       <c r="K62">
-        <v>58.6772412276374</v>
+        <v>58.7575390066998</v>
       </c>
       <c r="L62">
-        <v>44.7489855497441</v>
+        <v>44.8102229917193</v>
       </c>
       <c r="M62">
-        <v>12.8370105749244</v>
+        <v>12.8545775807584</v>
       </c>
       <c r="N62">
-        <v>24.6611472860931</v>
+        <v>24.6948952148433</v>
       </c>
       <c r="O62">
-        <v>2065.3142908629</v>
+        <v>2068.14060217462</v>
       </c>
       <c r="P62">
-        <v>82.6806653289411</v>
+        <v>82.7938109652801</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>12312.2080422786</v>
       </c>
       <c r="C63">
-        <v>390.728093930393</v>
+        <v>420.454193719874</v>
       </c>
       <c r="D63">
-        <v>243.835291150591</v>
+        <v>262.385972070482</v>
       </c>
       <c r="E63">
-        <v>308.491789497282</v>
+        <v>331.961455132499</v>
       </c>
       <c r="F63">
-        <v>45.9779543798689</v>
+        <v>49.4758990663231</v>
       </c>
       <c r="G63">
-        <v>145.540510003923</v>
+        <v>156.613048147442</v>
       </c>
       <c r="H63">
-        <v>109.535714846158</v>
+        <v>117.869053658005</v>
       </c>
       <c r="I63">
-        <v>191.4339460853</v>
+        <v>205.997998869893</v>
       </c>
       <c r="J63">
-        <v>414.984845597713</v>
+        <v>446.556368411115</v>
       </c>
       <c r="K63">
-        <v>192.701720562686</v>
+        <v>207.362224027972</v>
       </c>
       <c r="L63">
-        <v>151.456790898392</v>
+        <v>162.979432218476</v>
       </c>
       <c r="M63">
-        <v>254.062005268172</v>
+        <v>273.390721678984</v>
       </c>
       <c r="N63">
-        <v>215.437142857143</v>
+        <v>231.827328529518</v>
       </c>
       <c r="O63">
-        <v>11570.0479538194</v>
+        <v>12450.2825860023</v>
       </c>
       <c r="P63">
-        <v>846.366241102953</v>
+        <v>910.756715533381</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>367.300111192525</v>
       </c>
       <c r="C64">
-        <v>19.0521684587814</v>
+        <v>18.9294592316601</v>
       </c>
       <c r="D64">
-        <v>23.8386738351255</v>
+        <v>23.685136181486</v>
       </c>
       <c r="E64">
-        <v>28.9067383512545</v>
+        <v>28.7205588342428</v>
       </c>
       <c r="F64">
-        <v>6.2881541218638</v>
+        <v>6.24765403212426</v>
       </c>
       <c r="G64">
-        <v>3.09715053763441</v>
+        <v>3.07720273224031</v>
       </c>
       <c r="H64">
-        <v>2.72173835125448</v>
+        <v>2.70420846166572</v>
       </c>
       <c r="I64">
-        <v>4.78650537634409</v>
+        <v>4.75567694982593</v>
       </c>
       <c r="J64">
-        <v>14.4533691756272</v>
+        <v>14.3602794171214</v>
       </c>
       <c r="K64">
-        <v>3.19100358422939</v>
+        <v>3.17045129988395</v>
       </c>
       <c r="L64">
-        <v>12.1070430107527</v>
+        <v>12.0290652260303</v>
       </c>
       <c r="M64">
-        <v>5.34962365591398</v>
+        <v>5.3151683556878</v>
       </c>
       <c r="N64">
-        <v>12.7640143369176</v>
+        <v>12.6818051995358</v>
       </c>
       <c r="O64">
-        <v>356.923136200717</v>
+        <v>354.624302748784</v>
       </c>
       <c r="P64">
-        <v>30.2206810035842</v>
+        <v>30.0260387812539</v>
       </c>
     </row>
     <row r="65">
@@ -3722,49 +3722,49 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691964989</v>
+        <v>1362.76363906683</v>
       </c>
       <c r="C65">
-        <v>37.8283726007459</v>
+        <v>37.5618444626125</v>
       </c>
       <c r="D65">
-        <v>14.7857090876012</v>
+        <v>14.6815331148283</v>
       </c>
       <c r="E65">
-        <v>90.9225097789502</v>
+        <v>90.2818951931322</v>
       </c>
       <c r="F65">
-        <v>7.87291003365778</v>
+        <v>7.81743971049297</v>
       </c>
       <c r="G65">
-        <v>17.5700309287729</v>
+        <v>17.4462374026855</v>
       </c>
       <c r="H65">
-        <v>15.9378422632584</v>
+        <v>15.8255486822175</v>
       </c>
       <c r="I65">
-        <v>16.1298644592013</v>
+        <v>16.016217943449</v>
       </c>
       <c r="J65">
-        <v>60.5830028199764</v>
+        <v>60.1561519185495</v>
       </c>
       <c r="K65">
-        <v>60.7750250159192</v>
+        <v>60.3468211797811</v>
       </c>
       <c r="L65">
-        <v>61.831147093605</v>
+        <v>61.3955021165545</v>
       </c>
       <c r="M65">
-        <v>20.0663194760302</v>
+        <v>19.9249377986955</v>
       </c>
       <c r="N65">
-        <v>16.7059310470299</v>
+        <v>16.5882257271436</v>
       </c>
       <c r="O65">
-        <v>1571.60566269444</v>
+        <v>1560.5325685495</v>
       </c>
       <c r="P65">
-        <v>118.28567270081</v>
+        <v>117.452264918626</v>
       </c>
     </row>
     <row r="66">
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17370.8932517549</v>
       </c>
       <c r="C66">
-        <v>541.322212824748</v>
+        <v>546.306424596016</v>
       </c>
       <c r="D66">
-        <v>168.976003967604</v>
+        <v>170.531846621173</v>
       </c>
       <c r="E66">
-        <v>346.743784013568</v>
+        <v>349.936419395877</v>
       </c>
       <c r="F66">
-        <v>54.2964632531694</v>
+        <v>54.7963966844478</v>
       </c>
       <c r="G66">
-        <v>137.86664245956</v>
+        <v>139.1360463856</v>
       </c>
       <c r="H66">
-        <v>203.563430737416</v>
+        <v>205.437736324077</v>
       </c>
       <c r="I66">
-        <v>127.529059598192</v>
+        <v>128.70328046881</v>
       </c>
       <c r="J66">
-        <v>526.926887157982</v>
+        <v>531.778554300673</v>
       </c>
       <c r="K66">
-        <v>301.335709762697</v>
+        <v>304.110251350165</v>
       </c>
       <c r="L66">
-        <v>340.947008577286</v>
+        <v>344.086270283659</v>
       </c>
       <c r="M66">
-        <v>319.885391158797</v>
+        <v>322.830728509264</v>
       </c>
       <c r="N66">
-        <v>170.425197826674</v>
+        <v>171.994383899228</v>
       </c>
       <c r="O66">
-        <v>17710.8879904707</v>
+        <v>17873.9605825616</v>
       </c>
       <c r="P66">
-        <v>867.294218191641</v>
+        <v>875.27980967311</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>17052.9177459287</v>
       </c>
       <c r="C67">
-        <v>434.057037893793</v>
+        <v>436.317749493166</v>
       </c>
       <c r="D67">
-        <v>97.8363584185</v>
+        <v>98.3459223029849</v>
       </c>
       <c r="E67">
-        <v>462.195431233467</v>
+        <v>464.602696826112</v>
       </c>
       <c r="F67">
-        <v>127.722592993242</v>
+        <v>128.387814202148</v>
       </c>
       <c r="G67">
-        <v>307.938282075538</v>
+        <v>309.542125776719</v>
       </c>
       <c r="H67">
-        <v>179.918672664224</v>
+        <v>180.855748197453</v>
       </c>
       <c r="I67">
-        <v>117.622516273522</v>
+        <v>118.235132965967</v>
       </c>
       <c r="J67">
-        <v>373.776938344214</v>
+        <v>375.723691388913</v>
       </c>
       <c r="K67">
-        <v>273.377307656286</v>
+        <v>274.801146452733</v>
       </c>
       <c r="L67">
-        <v>338.06393144432</v>
+        <v>339.824679420794</v>
       </c>
       <c r="M67">
-        <v>398.430433429947</v>
+        <v>400.505589973357</v>
       </c>
       <c r="N67">
-        <v>128.019609411314</v>
+        <v>128.686377579266</v>
       </c>
       <c r="O67">
-        <v>23683.0973028006</v>
+        <v>23806.446651175</v>
       </c>
       <c r="P67">
-        <v>476.771956630112</v>
+        <v>479.25514155401</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3344.63879770247</v>
       </c>
       <c r="C68">
-        <v>110.445559203414</v>
+        <v>111.19055582103</v>
       </c>
       <c r="D68">
-        <v>74.3047372182309</v>
+        <v>74.80595047025921</v>
       </c>
       <c r="E68">
-        <v>61.7940931133697</v>
+        <v>62.210917390327</v>
       </c>
       <c r="F68">
-        <v>17.7488102175153</v>
+        <v>17.8685325827613</v>
       </c>
       <c r="G68">
-        <v>29.1506795571421</v>
+        <v>29.3473117968439</v>
       </c>
       <c r="H68">
-        <v>15.4994745639287</v>
+        <v>15.6040243186516</v>
       </c>
       <c r="I68">
-        <v>28.1755934861983</v>
+        <v>28.3656484055444</v>
       </c>
       <c r="J68">
-        <v>49.7667850570972</v>
+        <v>50.1024806414608</v>
       </c>
       <c r="K68">
-        <v>23.6301778803221</v>
+        <v>23.7895722708388</v>
       </c>
       <c r="L68">
-        <v>19.2979162765315</v>
+        <v>19.4280879417097</v>
       </c>
       <c r="M68">
-        <v>18.8229942017094</v>
+        <v>18.9499623398113</v>
       </c>
       <c r="N68">
-        <v>37.0224194587212</v>
+        <v>37.2721495290983</v>
       </c>
       <c r="O68">
-        <v>2841.91125847213</v>
+        <v>2861.08101314943</v>
       </c>
       <c r="P68">
-        <v>530.293501293692</v>
+        <v>533.870529357627</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>3929.9920093582</v>
       </c>
       <c r="C69">
-        <v>142.188456717969</v>
+        <v>145.555237342758</v>
       </c>
       <c r="D69">
-        <v>103.054140658089</v>
+        <v>105.494287292215</v>
       </c>
       <c r="E69">
-        <v>87.5871515743335</v>
+        <v>89.6610662345494</v>
       </c>
       <c r="F69">
-        <v>20.9345605510853</v>
+        <v>21.4302553105527</v>
       </c>
       <c r="G69">
-        <v>53.7777037742093</v>
+        <v>55.0510682602713</v>
       </c>
       <c r="H69">
-        <v>41.6356994269249</v>
+        <v>42.6215619179155</v>
       </c>
       <c r="I69">
-        <v>32.2641759238243</v>
+        <v>33.0281366902778</v>
       </c>
       <c r="J69">
-        <v>108.930454884255</v>
+        <v>111.509742636714</v>
       </c>
       <c r="K69">
-        <v>62.3449927717686</v>
+        <v>63.821216078228</v>
       </c>
       <c r="L69">
-        <v>188.746397497567</v>
+        <v>193.215590910038</v>
       </c>
       <c r="M69">
-        <v>73.0548685001869</v>
+        <v>74.78468343376301</v>
       </c>
       <c r="N69">
-        <v>47.3621752851388</v>
+        <v>48.4836309769614</v>
       </c>
       <c r="O69">
-        <v>2548.71598237967</v>
+        <v>2609.06523847002</v>
       </c>
       <c r="P69">
-        <v>351.59624005498</v>
+        <v>359.921440539528</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>45453.7781005943</v>
       </c>
       <c r="C70">
-        <v>1781.58794286883</v>
+        <v>1693.35646617031</v>
       </c>
       <c r="D70">
-        <v>2728.47176899706</v>
+        <v>2593.34675635178</v>
       </c>
       <c r="E70">
-        <v>2862.71775303933</v>
+        <v>2720.94433358353</v>
       </c>
       <c r="F70">
-        <v>930.094205915141</v>
+        <v>884.032160207486</v>
       </c>
       <c r="G70">
-        <v>295.200959702181</v>
+        <v>280.581408250007</v>
       </c>
       <c r="H70">
-        <v>1061.03243642689</v>
+        <v>1008.48579730885</v>
       </c>
       <c r="I70">
-        <v>896.451766200455</v>
+        <v>852.055830856675</v>
       </c>
       <c r="J70">
-        <v>467.530834995695</v>
+        <v>444.376807635509</v>
       </c>
       <c r="K70">
-        <v>83.5781634896416</v>
+        <v>79.43903310657051</v>
       </c>
       <c r="L70">
-        <v>288.043375869048</v>
+        <v>273.778297062313</v>
       </c>
       <c r="M70">
-        <v>478.879482617146</v>
+        <v>455.16342409696</v>
       </c>
       <c r="N70">
-        <v>583.32554368564</v>
+        <v>554.436891670812</v>
       </c>
       <c r="O70">
-        <v>31457.3048687973</v>
+        <v>29899.4112645892</v>
       </c>
       <c r="P70">
-        <v>40771.6198973957</v>
+        <v>38752.4435523058</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.7635742</v>
+        <v>285069.343453933</v>
       </c>
       <c r="C71">
-        <v>9076.936978860669</v>
+        <v>9177.896903029179</v>
       </c>
       <c r="D71">
-        <v>14721.1724849727</v>
+        <v>14884.9114710664</v>
       </c>
       <c r="E71">
-        <v>6280.39621707931</v>
+        <v>6350.25109514018</v>
       </c>
       <c r="F71">
-        <v>2210.69920140978</v>
+        <v>2235.28811551743</v>
       </c>
       <c r="G71">
-        <v>1905.23659660731</v>
+        <v>1926.42794593192</v>
       </c>
       <c r="H71">
-        <v>695.2849251234441</v>
+        <v>703.018361356333</v>
       </c>
       <c r="I71">
-        <v>4142.38664135257</v>
+        <v>4188.46110922225</v>
       </c>
       <c r="J71">
-        <v>3420.26071624195</v>
+        <v>3458.3032038512</v>
       </c>
       <c r="K71">
-        <v>1272.63177799644</v>
+        <v>1286.78686226112</v>
       </c>
       <c r="L71">
-        <v>1051.02890174152</v>
+        <v>1062.71916669167</v>
       </c>
       <c r="M71">
-        <v>1087.43007033481</v>
+        <v>1099.52521407055</v>
       </c>
       <c r="N71">
-        <v>4423.44929665715</v>
+        <v>4472.64993632159</v>
       </c>
       <c r="O71">
-        <v>104023.416565724</v>
+        <v>105180.436414235</v>
       </c>
       <c r="P71">
-        <v>237915.647774946</v>
+        <v>240561.908932625</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>895.674789597501</v>
       </c>
       <c r="C72">
-        <v>47.2642796641728</v>
+        <v>49.2144144859601</v>
       </c>
       <c r="D72">
-        <v>6.76056712745278</v>
+        <v>7.03950964945783</v>
       </c>
       <c r="E72">
-        <v>29.8494393771924</v>
+        <v>31.0810339673119</v>
       </c>
       <c r="F72">
-        <v>15.3396673011372</v>
+        <v>15.9725854281272</v>
       </c>
       <c r="G72">
-        <v>24.0594872615121</v>
+        <v>25.0521871235728</v>
       </c>
       <c r="H72">
-        <v>10.0409344399673</v>
+        <v>10.455225655951</v>
       </c>
       <c r="I72">
-        <v>12.0513705249577</v>
+        <v>12.5486127865127</v>
       </c>
       <c r="J72">
-        <v>18.7660886367029</v>
+        <v>19.5403816795507</v>
       </c>
       <c r="K72">
-        <v>11.952751887398</v>
+        <v>12.4459251217606</v>
       </c>
       <c r="L72">
-        <v>54.1606636872123</v>
+        <v>56.3953448666994</v>
       </c>
       <c r="M72">
-        <v>9.22689814221515</v>
+        <v>9.607602037251089</v>
       </c>
       <c r="N72">
-        <v>3.90394315953937</v>
+        <v>4.0650207333814</v>
       </c>
       <c r="O72">
-        <v>1262.15592652068</v>
+        <v>1314.23276425781</v>
       </c>
       <c r="P72">
-        <v>99.6999822698571</v>
+        <v>103.813625988486</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>22811.3898986656</v>
       </c>
       <c r="C73">
-        <v>445.65707453761</v>
+        <v>457.144039807202</v>
       </c>
       <c r="D73">
-        <v>730.892516513156</v>
+        <v>749.731523975793</v>
       </c>
       <c r="E73">
-        <v>413.218534077646</v>
+        <v>423.869384744891</v>
       </c>
       <c r="F73">
-        <v>62.8263685919994</v>
+        <v>64.4457399770035</v>
       </c>
       <c r="G73">
-        <v>195.283742136853</v>
+        <v>200.317248148104</v>
       </c>
       <c r="H73">
-        <v>192.860173022028</v>
+        <v>197.83121070092</v>
       </c>
       <c r="I73">
-        <v>243.289053449731</v>
+        <v>249.559912967328</v>
       </c>
       <c r="J73">
-        <v>806.116373269452</v>
+        <v>826.894301663392</v>
       </c>
       <c r="K73">
-        <v>592.562648574688</v>
+        <v>607.836155836515</v>
       </c>
       <c r="L73">
-        <v>442.581006045717</v>
+        <v>453.988684585775</v>
       </c>
       <c r="M73">
-        <v>257.550825548508</v>
+        <v>264.189287175758</v>
       </c>
       <c r="N73">
-        <v>307.513634992591</v>
+        <v>315.439905317707</v>
       </c>
       <c r="O73">
-        <v>15683.6614556057</v>
+        <v>16087.9132553275</v>
       </c>
       <c r="P73">
-        <v>949.386593634293</v>
+        <v>973.85736152193</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>38773.4999519077</v>
       </c>
       <c r="C74">
-        <v>1458.2561369506</v>
+        <v>1412.12502218076</v>
       </c>
       <c r="D74">
-        <v>673.963554603704</v>
+        <v>652.64309566627</v>
       </c>
       <c r="E74">
-        <v>1238.24995457367</v>
+        <v>1199.07861195368</v>
       </c>
       <c r="F74">
-        <v>79.87624330469551</v>
+        <v>77.3494031605639</v>
       </c>
       <c r="G74">
-        <v>436.862781763629</v>
+        <v>423.042872754808</v>
       </c>
       <c r="H74">
-        <v>701.659725254979</v>
+        <v>679.46311349732</v>
       </c>
       <c r="I74">
-        <v>369.100214027155</v>
+        <v>357.423935831976</v>
       </c>
       <c r="J74">
-        <v>1856.69911803932</v>
+        <v>1797.96348310041</v>
       </c>
       <c r="K74">
-        <v>1145.82473093192</v>
+        <v>1109.57720840869</v>
       </c>
       <c r="L74">
-        <v>1770.44308227662</v>
+        <v>1714.43610863701</v>
       </c>
       <c r="M74">
-        <v>1263.20059465948</v>
+        <v>1223.23995253838</v>
       </c>
       <c r="N74">
-        <v>275.460452086259</v>
+        <v>266.746415225548</v>
       </c>
       <c r="O74">
-        <v>46876.2920958779</v>
+        <v>45393.3868943392</v>
       </c>
       <c r="P74">
-        <v>3464.50495333148</v>
+        <v>3354.90728281727</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>11915.8389780675</v>
       </c>
       <c r="C75">
-        <v>252.705839503161</v>
+        <v>256.797061646384</v>
       </c>
       <c r="D75">
-        <v>411.018057178388</v>
+        <v>417.672300626417</v>
       </c>
       <c r="E75">
-        <v>246.533394031746</v>
+        <v>250.524686368676</v>
       </c>
       <c r="F75">
-        <v>78.9884731719345</v>
+        <v>80.2672698595603</v>
       </c>
       <c r="G75">
-        <v>194.15373454743</v>
+        <v>197.297017898268</v>
       </c>
       <c r="H75">
-        <v>271.253544652815</v>
+        <v>275.645047874478</v>
       </c>
       <c r="I75">
-        <v>134.544126909158</v>
+        <v>136.722350856549</v>
       </c>
       <c r="J75">
-        <v>465.977876080698</v>
+        <v>473.521900423869</v>
       </c>
       <c r="K75">
-        <v>428.396566014883</v>
+        <v>435.332161648156</v>
       </c>
       <c r="L75">
-        <v>832.784921740555</v>
+        <v>846.26742819575</v>
       </c>
       <c r="M75">
-        <v>501.383721785653</v>
+        <v>509.500954805886</v>
       </c>
       <c r="N75">
-        <v>112.071262708186</v>
+        <v>113.885658578547</v>
       </c>
       <c r="O75">
-        <v>13638.3225899419</v>
+        <v>13859.1224237965</v>
       </c>
       <c r="P75">
-        <v>1677.86589173351</v>
+        <v>1705.02997350983</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>938.062884310667</v>
       </c>
       <c r="C76">
-        <v>49.0922448979592</v>
+        <v>45.8749564649392</v>
       </c>
       <c r="D76">
-        <v>60.075918367347</v>
+        <v>56.1388085923089</v>
       </c>
       <c r="E76">
-        <v>39.3502040816327</v>
+        <v>36.7713658824026</v>
       </c>
       <c r="F76">
-        <v>7.44979591836735</v>
+        <v>6.96156926899856</v>
       </c>
       <c r="G76">
-        <v>3.05632653061225</v>
+        <v>2.85602841805069</v>
       </c>
       <c r="H76">
-        <v>10.0285714285714</v>
+        <v>9.371343246728831</v>
       </c>
       <c r="I76">
-        <v>9.6465306122449</v>
+        <v>9.014339694472501</v>
       </c>
       <c r="J76">
-        <v>16.5232653061225</v>
+        <v>15.4404036350866</v>
       </c>
       <c r="K76">
-        <v>8.500408163265311</v>
+        <v>7.94332903770349</v>
       </c>
       <c r="L76">
-        <v>18.9110204081633</v>
+        <v>17.6716758366887</v>
       </c>
       <c r="M76">
-        <v>7.83183673469388</v>
+        <v>7.3185728212549</v>
       </c>
       <c r="N76">
-        <v>24.2595918367347</v>
+        <v>22.6697255682774</v>
       </c>
       <c r="O76">
-        <v>837.528979591837</v>
+        <v>782.641037433954</v>
       </c>
       <c r="P76">
-        <v>194.745306122449</v>
+        <v>181.982560762668</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>23357.0506356404</v>
       </c>
       <c r="C77">
-        <v>1287.91734882874</v>
+        <v>1302.32074018164</v>
       </c>
       <c r="D77">
-        <v>1056.62717639585</v>
+        <v>1068.44393990911</v>
       </c>
       <c r="E77">
-        <v>396.777221459597</v>
+        <v>401.214569559454</v>
       </c>
       <c r="F77">
-        <v>311.606892190831</v>
+        <v>315.091740050491</v>
       </c>
       <c r="G77">
-        <v>276.901632339652</v>
+        <v>279.998354796626</v>
       </c>
       <c r="H77">
-        <v>309.094279081084</v>
+        <v>312.55102719508</v>
       </c>
       <c r="I77">
-        <v>267.795155322425</v>
+        <v>270.790035722186</v>
       </c>
       <c r="J77">
-        <v>386.620704382427</v>
+        <v>390.944467328409</v>
       </c>
       <c r="K77">
-        <v>269.672722574967</v>
+        <v>272.688600700983</v>
       </c>
       <c r="L77">
-        <v>911.7605727389411</v>
+        <v>921.957224225346</v>
       </c>
       <c r="M77">
-        <v>841.624578062633</v>
+        <v>851.036865412499</v>
       </c>
       <c r="N77">
-        <v>406.900330769526</v>
+        <v>411.450890408332</v>
       </c>
       <c r="O77">
-        <v>22794.3692201059</v>
+        <v>23049.2894762995</v>
       </c>
       <c r="P77">
-        <v>5980.07354166128</v>
+        <v>6046.95154405638</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4482.8943212999</v>
       </c>
       <c r="C78">
-        <v>137.689919251948</v>
+        <v>137.865204434759</v>
       </c>
       <c r="D78">
-        <v>22.2176298750813</v>
+        <v>22.2459138724533</v>
       </c>
       <c r="E78">
-        <v>128.437899199529</v>
+        <v>128.601406163316</v>
       </c>
       <c r="F78">
-        <v>14.1090847770685</v>
+        <v>14.1270462481615</v>
       </c>
       <c r="G78">
-        <v>66.9095078222346</v>
+        <v>66.99468650034051</v>
       </c>
       <c r="H78">
-        <v>33.7644655281749</v>
+        <v>33.8074491434226</v>
       </c>
       <c r="I78">
-        <v>29.9151925733161</v>
+        <v>29.9532758987151</v>
       </c>
       <c r="J78">
-        <v>118.95482444867</v>
+        <v>119.106259050876</v>
       </c>
       <c r="K78">
-        <v>87.1754629041117</v>
+        <v>87.2864410137276</v>
       </c>
       <c r="L78">
-        <v>83.26719726028951</v>
+        <v>83.3731999798292</v>
       </c>
       <c r="M78">
-        <v>49.3178879733628</v>
+        <v>49.3806717636084</v>
       </c>
       <c r="N78">
-        <v>148.892630886089</v>
+        <v>149.082177602114</v>
       </c>
       <c r="O78">
-        <v>6415.06950586337</v>
+        <v>6423.23616495641</v>
       </c>
       <c r="P78">
-        <v>261.50279163675</v>
+        <v>261.835695925507</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11377.2588449631</v>
       </c>
       <c r="C79">
-        <v>571.051431085587</v>
+        <v>558.875525071898</v>
       </c>
       <c r="D79">
-        <v>410.408831974805</v>
+        <v>401.658132662462</v>
       </c>
       <c r="E79">
-        <v>357.924914320119</v>
+        <v>350.293272265681</v>
       </c>
       <c r="F79">
-        <v>263.519880048166</v>
+        <v>257.901133438766</v>
       </c>
       <c r="G79">
-        <v>127.743875046313</v>
+        <v>125.020131909147</v>
       </c>
       <c r="H79">
-        <v>155.251169414598</v>
+        <v>151.940918280626</v>
       </c>
       <c r="I79">
-        <v>171.205400148203</v>
+        <v>167.554974376083</v>
       </c>
       <c r="J79">
-        <v>383.891800203779</v>
+        <v>375.706494600357</v>
       </c>
       <c r="K79">
-        <v>197.06225685439</v>
+        <v>192.860513565273</v>
       </c>
       <c r="L79">
-        <v>186.609484994442</v>
+        <v>182.630614744111</v>
       </c>
       <c r="M79">
-        <v>246.46535753983</v>
+        <v>241.210245888449</v>
       </c>
       <c r="N79">
-        <v>282.885015283438</v>
+        <v>276.853367044287</v>
       </c>
       <c r="O79">
-        <v>8209.82707715821</v>
+        <v>8034.77790043153</v>
       </c>
       <c r="P79">
-        <v>2690.65350592812</v>
+        <v>2633.28363971256</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>2919.56049464682</v>
       </c>
       <c r="C80">
-        <v>117.007199643834</v>
+        <v>119.316933586474</v>
       </c>
       <c r="D80">
-        <v>279.946159553944</v>
+        <v>285.472325027538</v>
       </c>
       <c r="E80">
-        <v>106.811140791622</v>
+        <v>108.919603502374</v>
       </c>
       <c r="F80">
-        <v>17.5213826877822</v>
+        <v>17.8672565522893</v>
       </c>
       <c r="G80">
-        <v>21.8769806440671</v>
+        <v>22.3088344522934</v>
       </c>
       <c r="H80">
-        <v>26.2325786003519</v>
+        <v>26.7504123522976</v>
       </c>
       <c r="I80">
-        <v>64.3440607178444</v>
+        <v>65.61421897733361</v>
       </c>
       <c r="J80">
-        <v>97.3080179779092</v>
+        <v>99.228888084183</v>
       </c>
       <c r="K80">
-        <v>43.7539612881342</v>
+        <v>44.6176689045869</v>
       </c>
       <c r="L80">
-        <v>45.7337785409909</v>
+        <v>46.6365679500433</v>
       </c>
       <c r="M80">
-        <v>37.8145095295639</v>
+        <v>38.5609717682176</v>
       </c>
       <c r="N80">
-        <v>69.4915855752719</v>
+        <v>70.86335649552031</v>
       </c>
       <c r="O80">
-        <v>3141.3760351078</v>
+        <v>3203.3871154257</v>
       </c>
       <c r="P80">
-        <v>600.0826093408811</v>
+        <v>611.928300677841</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>7362.87972150677</v>
       </c>
       <c r="C81">
-        <v>256.251224223078</v>
+        <v>212.852549430929</v>
       </c>
       <c r="D81">
-        <v>675.014713808219</v>
+        <v>560.694307600222</v>
       </c>
       <c r="E81">
-        <v>222.571146039346</v>
+        <v>184.876525011239</v>
       </c>
       <c r="F81">
-        <v>201.256131524467</v>
+        <v>167.171418647729</v>
       </c>
       <c r="G81">
-        <v>67.3601563674635</v>
+        <v>55.9520488393802</v>
       </c>
       <c r="H81">
-        <v>33.5623156725998</v>
+        <v>27.8782061524884</v>
       </c>
       <c r="I81">
-        <v>85.37782057064869</v>
+        <v>70.91824372124231</v>
       </c>
       <c r="J81">
-        <v>240.942097775927</v>
+        <v>200.136174694706</v>
       </c>
       <c r="K81">
-        <v>163.218840428854</v>
+        <v>135.576118341575</v>
       </c>
       <c r="L81">
-        <v>162.747790384326</v>
+        <v>135.184845272768</v>
       </c>
       <c r="M81">
-        <v>156.388614783202</v>
+        <v>129.902658843876</v>
       </c>
       <c r="N81">
-        <v>177.468104275817</v>
+        <v>147.412128672982</v>
       </c>
       <c r="O81">
-        <v>4109.91163850433</v>
+        <v>3413.8575253398</v>
       </c>
       <c r="P81">
-        <v>3630.02940564172</v>
+        <v>3015.24808649282</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41730.6605718666</v>
+        <v>69853.43749355291</v>
       </c>
       <c r="C82">
-        <v>3497.00377667698</v>
+        <v>3506.22730257281</v>
       </c>
       <c r="D82">
-        <v>1372.89818179811</v>
+        <v>1376.51927080482</v>
       </c>
       <c r="E82">
-        <v>1617.1558888716</v>
+        <v>1621.42122004398</v>
       </c>
       <c r="F82">
-        <v>1662.95203213126</v>
+        <v>1667.33815296823</v>
       </c>
       <c r="G82">
-        <v>700.274705480595</v>
+        <v>702.121715747861</v>
       </c>
       <c r="H82">
-        <v>865.701148408519</v>
+        <v>867.984479359902</v>
       </c>
       <c r="I82">
-        <v>643.52028423141</v>
+        <v>645.217601816734</v>
       </c>
       <c r="J82">
-        <v>2319.93879525599</v>
+        <v>2326.0577522035</v>
       </c>
       <c r="K82">
-        <v>912.799833828008</v>
+        <v>915.207389965399</v>
       </c>
       <c r="L82">
-        <v>1672.61757654029</v>
+        <v>1677.02919074383</v>
       </c>
       <c r="M82">
-        <v>1025.223097353</v>
+        <v>1027.92717558434</v>
       </c>
       <c r="N82">
-        <v>878.644590336567</v>
+        <v>880.962060276476</v>
       </c>
       <c r="O82">
-        <v>68070.322232309</v>
+        <v>68249.8611804892</v>
       </c>
       <c r="P82">
-        <v>12872.8898433353</v>
+        <v>12906.8427471371</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>41373.2224575333</v>
       </c>
       <c r="C83">
-        <v>1705.16693270935</v>
+        <v>1697.64054140243</v>
       </c>
       <c r="D83">
-        <v>829.465446248431</v>
+        <v>825.804290613592</v>
       </c>
       <c r="E83">
-        <v>982.959559762859</v>
+        <v>978.6209005127111</v>
       </c>
       <c r="F83">
-        <v>1136.5021069543</v>
+        <v>1131.48573030871</v>
       </c>
       <c r="G83">
-        <v>561.121832970952</v>
+        <v>558.645112126335</v>
       </c>
       <c r="H83">
-        <v>252.2349561612</v>
+        <v>251.121622947346</v>
       </c>
       <c r="I83">
-        <v>649.399498092647</v>
+        <v>646.53313079253</v>
       </c>
       <c r="J83">
-        <v>1204.99048889861</v>
+        <v>1199.67181319209</v>
       </c>
       <c r="K83">
-        <v>1722.73152787001</v>
+        <v>1715.12760866023</v>
       </c>
       <c r="L83">
-        <v>854.944533681604</v>
+        <v>851.170916575407</v>
       </c>
       <c r="M83">
-        <v>1165.56259027601</v>
+        <v>1160.41794433031</v>
       </c>
       <c r="N83">
-        <v>444.933131055269</v>
+        <v>442.96925245459</v>
       </c>
       <c r="O83">
-        <v>36303.20765742</v>
+        <v>36142.9698875661</v>
       </c>
       <c r="P83">
-        <v>16913.1234986563</v>
+        <v>16838.4711093616</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1253.91937413335</v>
       </c>
       <c r="C84">
-        <v>47.3724827041449</v>
+        <v>47.2297703765764</v>
       </c>
       <c r="D84">
-        <v>70.6037790486769</v>
+        <v>70.391081105314</v>
       </c>
       <c r="E84">
-        <v>57.519987445894</v>
+        <v>57.3467051769157</v>
       </c>
       <c r="F84">
-        <v>12.3077660035668</v>
+        <v>12.2706881509133</v>
       </c>
       <c r="G84">
-        <v>12.5609443553111</v>
+        <v>12.5231037883178</v>
       </c>
       <c r="H84">
-        <v>21.0506644107349</v>
+        <v>20.9872480740045</v>
       </c>
       <c r="I84">
-        <v>25.646676022092</v>
+        <v>25.5694139361599</v>
       </c>
       <c r="J84">
-        <v>78.2612116489415</v>
+        <v>78.025445249648</v>
       </c>
       <c r="K84">
-        <v>47.3734527361439</v>
+        <v>47.2307374862983</v>
       </c>
       <c r="L84">
-        <v>75.2269515560067</v>
+        <v>75.0003260396814</v>
       </c>
       <c r="M84">
-        <v>30.8974592327878</v>
+        <v>30.8043788605683</v>
       </c>
       <c r="N84">
-        <v>25.7155482940225</v>
+        <v>25.6380787264117</v>
       </c>
       <c r="O84">
-        <v>1259.67191354349</v>
+        <v>1255.87707948599</v>
       </c>
       <c r="P84">
-        <v>88.912162998182</v>
+        <v>88.64430999563071</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>603.665699988319</v>
       </c>
       <c r="C85">
-        <v>20.4066214590704</v>
+        <v>21.0574418836878</v>
       </c>
       <c r="D85">
-        <v>29.277430574007</v>
+        <v>30.2111642562874</v>
       </c>
       <c r="E85">
-        <v>27.0587386914001</v>
+        <v>27.9217124982142</v>
       </c>
       <c r="F85">
-        <v>4.14248181114731</v>
+        <v>4.27459636899845</v>
       </c>
       <c r="G85">
-        <v>13.6743463130515</v>
+        <v>14.1104569103728</v>
       </c>
       <c r="H85">
-        <v>13.6872111633967</v>
+        <v>14.1237320543759</v>
       </c>
       <c r="I85">
-        <v>10.0217184188937</v>
+        <v>10.3413371784155</v>
       </c>
       <c r="J85">
-        <v>41.2239285253138</v>
+        <v>42.5386672105515</v>
       </c>
       <c r="K85">
-        <v>25.6060002062677</v>
+        <v>26.4226423907871</v>
       </c>
       <c r="L85">
-        <v>28.5936142979672</v>
+        <v>29.5055392942765</v>
       </c>
       <c r="M85">
-        <v>11.2527856365399</v>
+        <v>11.6116663430199</v>
       </c>
       <c r="N85">
-        <v>16.3917985475022</v>
+        <v>16.914575789797</v>
       </c>
       <c r="O85">
-        <v>516.809736878109</v>
+        <v>533.292148387334</v>
       </c>
       <c r="P85">
-        <v>91.0405874773338</v>
+        <v>93.94410945025091</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2380.43971181289</v>
       </c>
       <c r="C86">
-        <v>59.7995031362252</v>
+        <v>60.2788963073181</v>
       </c>
       <c r="D86">
-        <v>10.8189890542513</v>
+        <v>10.9057213713898</v>
       </c>
       <c r="E86">
-        <v>120.582550731928</v>
+        <v>121.549221830217</v>
       </c>
       <c r="F86">
-        <v>11.4091157299377</v>
+        <v>11.5005789007383</v>
       </c>
       <c r="G86">
-        <v>37.3746894601407</v>
+        <v>37.6743101920738</v>
       </c>
       <c r="H86">
-        <v>23.0149403517709</v>
+        <v>23.1994436445928</v>
       </c>
       <c r="I86">
-        <v>17.0153191489588</v>
+        <v>17.1517254295494</v>
       </c>
       <c r="J86">
-        <v>110.452042799311</v>
+        <v>111.337500909734</v>
       </c>
       <c r="K86">
-        <v>98.649509285582</v>
+        <v>99.44035032276319</v>
       </c>
       <c r="L86">
-        <v>78.1917845284523</v>
+        <v>78.81862263868069</v>
       </c>
       <c r="M86">
-        <v>98.649509285582</v>
+        <v>99.44035032276319</v>
       </c>
       <c r="N86">
-        <v>46.0298807035417</v>
+        <v>46.3988872891856</v>
       </c>
       <c r="O86">
-        <v>3189.24126430138</v>
+        <v>3214.80837444259</v>
       </c>
       <c r="P86">
-        <v>97.3709014882614</v>
+        <v>98.15149234250811</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>21249.1066684212</v>
       </c>
       <c r="C87">
-        <v>473.952245408471</v>
+        <v>447.049623313276</v>
       </c>
       <c r="D87">
-        <v>1277.28758951539</v>
+        <v>1204.78580128565</v>
       </c>
       <c r="E87">
-        <v>274.80060569772</v>
+        <v>259.202289795145</v>
       </c>
       <c r="F87">
-        <v>127.832992357556</v>
+        <v>120.576897006158</v>
       </c>
       <c r="G87">
-        <v>139.713275199139</v>
+        <v>131.782827604941</v>
       </c>
       <c r="H87">
-        <v>169.896117810876</v>
+        <v>160.252422486746</v>
       </c>
       <c r="I87">
-        <v>229.535477944763</v>
+        <v>216.506515047318</v>
       </c>
       <c r="J87">
-        <v>412.447584992101</v>
+        <v>389.036109214504</v>
       </c>
       <c r="K87">
-        <v>279.056535729998</v>
+        <v>263.216643427202</v>
       </c>
       <c r="L87">
-        <v>155.398547207186</v>
+        <v>146.577767413108</v>
       </c>
       <c r="M87">
-        <v>232.644819313605</v>
+        <v>219.439363031813</v>
       </c>
       <c r="N87">
-        <v>279.895540183588</v>
+        <v>264.008024053773</v>
       </c>
       <c r="O87">
-        <v>8765.23313059347</v>
+        <v>8267.69829080089</v>
       </c>
       <c r="P87">
-        <v>6395.87540703038</v>
+        <v>6032.83077392607</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1451.87875103126</v>
+        <v>1474.46135810735</v>
       </c>
       <c r="C2">
-        <v>36.6037622000273</v>
+        <v>24.7799622458956</v>
       </c>
       <c r="D2">
-        <v>60.6975749150879</v>
+        <v>18.6899258486901</v>
       </c>
       <c r="E2">
-        <v>51.1584682689672</v>
+        <v>46.1007599655337</v>
       </c>
       <c r="F2">
-        <v>14.7871142640103</v>
+        <v>25.0241166932665</v>
       </c>
       <c r="G2">
-        <v>14.3324034077514</v>
+        <v>13.697678618904</v>
       </c>
       <c r="H2">
-        <v>15.121626555929</v>
+        <v>13.4784262868781</v>
       </c>
       <c r="I2">
-        <v>14.5729744244081</v>
+        <v>13.0216425931876</v>
       </c>
       <c r="J2">
-        <v>56.2673676125781</v>
+        <v>77.4577959254718</v>
       </c>
       <c r="K2">
-        <v>18.1786003602927</v>
+        <v>11.3678912870705</v>
       </c>
       <c r="L2">
-        <v>31.015136660878</v>
+        <v>49.994736353296</v>
       </c>
       <c r="M2">
-        <v>44.966452808579</v>
+        <v>27.1939749703404</v>
       </c>
       <c r="N2">
-        <v>36.0186249054117</v>
+        <v>26.9271995225614</v>
       </c>
       <c r="O2">
-        <v>1313.62215680911</v>
+        <v>1341.48817497948</v>
       </c>
       <c r="P2">
-        <v>30.3472973830097</v>
+        <v>20.2760046982066</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>129.387676329035</v>
+        <v>122.865859178138</v>
       </c>
       <c r="C3">
-        <v>4.00211415371249</v>
+        <v>2.54003823606693</v>
       </c>
       <c r="D3">
-        <v>0.424118875207953</v>
+        <v>0.275459576534459</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>0.709005258417409</v>
       </c>
       <c r="F3">
-        <v>6.65261609209372</v>
+        <v>6.25866330633236</v>
       </c>
       <c r="G3">
-        <v>0.244667363683344</v>
+        <v>0.183898628923215</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.010027682870141</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.360956743502609</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.115904242941446</v>
       </c>
       <c r="K3">
-        <v>0.106162219846568</v>
+        <v>0.135680893026346</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.105219205111336</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.286872884758007</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.257824519846891</v>
       </c>
       <c r="O3">
-        <v>192.544643017327</v>
+        <v>207.764723408452</v>
       </c>
       <c r="P3">
-        <v>5.63309372026756</v>
+        <v>7.75173287579734</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1747.71265426874</v>
+        <v>1658.88037728703</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>7.02230649746471</v>
       </c>
       <c r="D4">
-        <v>4.14340150055778</v>
+        <v>5.29584965244915</v>
       </c>
       <c r="E4">
-        <v>21.2249783049502</v>
+        <v>14.6207199119464</v>
       </c>
       <c r="F4">
-        <v>20.0304476782957</v>
+        <v>14.3957229949377</v>
       </c>
       <c r="G4">
-        <v>9.05920771670967</v>
+        <v>5.08945388860381</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>8.048724745520421</v>
       </c>
       <c r="I4">
-        <v>9.80823374865154</v>
+        <v>8.63552561895925</v>
       </c>
       <c r="J4">
-        <v>24.1113773777058</v>
+        <v>25.0014611391244</v>
       </c>
       <c r="K4">
-        <v>10.5521721684732</v>
+        <v>2.32344375775096</v>
       </c>
       <c r="L4">
-        <v>64.30782522168801</v>
+        <v>55.5836167175637</v>
       </c>
       <c r="M4">
-        <v>49.3974276604501</v>
+        <v>40.7555001658867</v>
       </c>
       <c r="N4">
-        <v>25.212156022371</v>
+        <v>29.2315043003357</v>
       </c>
       <c r="O4">
-        <v>1882.72451453783</v>
+        <v>2017.24505840863</v>
       </c>
       <c r="P4">
-        <v>20.6713650740682</v>
+        <v>31.6699669386972</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>880.170055759999</v>
+        <v>874.667337232297</v>
       </c>
       <c r="C5">
-        <v>59.6291412061937</v>
+        <v>34.3519897738687</v>
       </c>
       <c r="D5">
-        <v>10.9218827995532</v>
+        <v>12.4390549521661</v>
       </c>
       <c r="E5">
-        <v>45.5328594274101</v>
+        <v>28.1517958748667</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>7.64826031575866</v>
       </c>
       <c r="G5">
-        <v>9.04801018669321</v>
+        <v>4.24632379267501</v>
       </c>
       <c r="H5">
-        <v>15.0872955004606</v>
+        <v>10.9010159237527</v>
       </c>
       <c r="I5">
-        <v>6.67994143536038</v>
+        <v>7.31314291025283</v>
       </c>
       <c r="J5">
-        <v>28.6116729316292</v>
+        <v>33.888685441002</v>
       </c>
       <c r="K5">
-        <v>19.1462191380062</v>
+        <v>3.0301981839839</v>
       </c>
       <c r="L5">
-        <v>17.4415871422557</v>
+        <v>9.72860475554781</v>
       </c>
       <c r="M5">
-        <v>25.9164271728815</v>
+        <v>12.9728633413123</v>
       </c>
       <c r="N5">
-        <v>17.9524451027953</v>
+        <v>16.173171579234</v>
       </c>
       <c r="O5">
-        <v>774.611498968786</v>
+        <v>872.334520127628</v>
       </c>
       <c r="P5">
-        <v>43.9974490759417</v>
+        <v>39.5212149468574</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9763.809551625711</v>
+        <v>9381.913303350701</v>
       </c>
       <c r="C6">
-        <v>179.971019063894</v>
+        <v>179.798372080688</v>
       </c>
       <c r="D6">
-        <v>153.656203894727</v>
+        <v>20.5355764093091</v>
       </c>
       <c r="E6">
-        <v>187.422354805725</v>
+        <v>138.099629003909</v>
       </c>
       <c r="F6">
-        <v>44.7497957462644</v>
+        <v>35.485183665047</v>
       </c>
       <c r="G6">
-        <v>87.8529021844071</v>
+        <v>97.798618160267</v>
       </c>
       <c r="H6">
-        <v>51.0247588970995</v>
+        <v>23.3482314432741</v>
       </c>
       <c r="I6">
-        <v>49.0125896938179</v>
+        <v>36.9516113828328</v>
       </c>
       <c r="J6">
-        <v>151.258379792976</v>
+        <v>121.678869238095</v>
       </c>
       <c r="K6">
-        <v>91.9609794898232</v>
+        <v>38.6020205372391</v>
       </c>
       <c r="L6">
-        <v>482.94544240399</v>
+        <v>368.406287273658</v>
       </c>
       <c r="M6">
-        <v>244.263089457553</v>
+        <v>213.987729273692</v>
       </c>
       <c r="N6">
-        <v>232.102417196184</v>
+        <v>208.786694556154</v>
       </c>
       <c r="O6">
-        <v>10959.6249211068</v>
+        <v>11839.2548317748</v>
       </c>
       <c r="P6">
-        <v>269.132453106166</v>
+        <v>259.123130599668</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1084.78853340779</v>
+        <v>1026.25531871369</v>
       </c>
       <c r="C7">
-        <v>21.984902863874</v>
+        <v>36.8778435696133</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>3.6124811864367</v>
       </c>
       <c r="E7">
-        <v>21.3902748269832</v>
+        <v>19.1086191971345</v>
       </c>
       <c r="F7">
-        <v>23.8929993388597</v>
+        <v>18.542788861583</v>
       </c>
       <c r="G7">
-        <v>9.75665788430152</v>
+        <v>8.818687942128999</v>
       </c>
       <c r="H7">
-        <v>6.59014767067625</v>
+        <v>3.2579184065613</v>
       </c>
       <c r="I7">
-        <v>10.6870664734349</v>
+        <v>8.045421067216219</v>
       </c>
       <c r="J7">
-        <v>19.0610201458012</v>
+        <v>18.2020972331407</v>
       </c>
       <c r="K7">
-        <v>11.5939204351135</v>
+        <v>4.04582630415207</v>
       </c>
       <c r="L7">
-        <v>56.3224000329104</v>
+        <v>53.0138730128847</v>
       </c>
       <c r="M7">
-        <v>15.8902956764126</v>
+        <v>8.707337121513501</v>
       </c>
       <c r="N7">
-        <v>22.4127652980774</v>
+        <v>18.7894483691478</v>
       </c>
       <c r="O7">
-        <v>1706.24277243763</v>
+        <v>1795.59977717365</v>
       </c>
       <c r="P7">
-        <v>47.3852795148945</v>
+        <v>27.1300806085455</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>906.981986979372</v>
+        <v>830.9738832138401</v>
       </c>
       <c r="C8">
-        <v>13.7994542799275</v>
+        <v>9.595782942080071</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>1.84987135072696</v>
       </c>
       <c r="E8">
-        <v>19.9067790365008</v>
+        <v>19.8414135791036</v>
       </c>
       <c r="F8">
-        <v>1.65300834284282</v>
+        <v>0.7554543681415</v>
       </c>
       <c r="G8">
-        <v>23.8286768618857</v>
+        <v>16.9922043083329</v>
       </c>
       <c r="H8">
-        <v>7.41440699937644</v>
+        <v>6.68422226876598</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>7.18155511892179</v>
       </c>
       <c r="J8">
-        <v>40.7980567886928</v>
+        <v>33.5792162689638</v>
       </c>
       <c r="K8">
-        <v>22.2087113051003</v>
+        <v>10.9002791529915</v>
       </c>
       <c r="L8">
-        <v>38.5723494850339</v>
+        <v>35.3001431216158</v>
       </c>
       <c r="M8">
-        <v>51.5558968229796</v>
+        <v>37.1588598829166</v>
       </c>
       <c r="N8">
-        <v>24.3388143914501</v>
+        <v>26.0668213601406</v>
       </c>
       <c r="O8">
-        <v>1186.75043073173</v>
+        <v>1314.4294124944</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>4.98683804539823</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>240.621289848063</v>
+        <v>224.487071388676</v>
       </c>
       <c r="C9">
-        <v>8.845849264712619</v>
+        <v>6.65854644623576</v>
       </c>
       <c r="D9">
-        <v>1.89397375812455</v>
+        <v>1.49229857274125</v>
       </c>
       <c r="E9">
-        <v>5.0572200984804</v>
+        <v>2.87781907037293</v>
       </c>
       <c r="F9">
-        <v>1.77396395297452</v>
+        <v>0.398517425042165</v>
       </c>
       <c r="G9">
-        <v>14.7987445673846</v>
+        <v>15.4745571270768</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>2.05117640896915</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.603518808396429</v>
       </c>
       <c r="J9">
-        <v>3.64459477004185</v>
+        <v>4.9320582796546</v>
       </c>
       <c r="K9">
-        <v>1.94966169178166</v>
+        <v>0.196946593823805</v>
       </c>
       <c r="L9">
-        <v>2.3887658411723</v>
+        <v>2.92049996134297</v>
       </c>
       <c r="M9">
-        <v>5.98871341315054</v>
+        <v>4.07466947642456</v>
       </c>
       <c r="N9">
-        <v>4.59729098306268</v>
+        <v>2.36781899053895</v>
       </c>
       <c r="O9">
-        <v>275.530709315453</v>
+        <v>300.757525465176</v>
       </c>
       <c r="P9">
-        <v>3.00705288503774</v>
+        <v>3.95806608855648</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5687.21209432332</v>
+        <v>5571.75360111956</v>
       </c>
       <c r="C10">
-        <v>55.641248117347</v>
+        <v>68.5788688653608</v>
       </c>
       <c r="D10">
-        <v>21.9511429309435</v>
+        <v>4.45759290326512</v>
       </c>
       <c r="E10">
-        <v>74.3275081529403</v>
+        <v>34.9992162561141</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>4.40072681080471</v>
       </c>
       <c r="G10">
-        <v>31.0559848683748</v>
+        <v>26.192978618847</v>
       </c>
       <c r="H10">
-        <v>19.8926658939604</v>
+        <v>16.3121356760655</v>
       </c>
       <c r="I10">
-        <v>23.4623370150504</v>
+        <v>20.3002479690674</v>
       </c>
       <c r="J10">
-        <v>42.2000136641381</v>
+        <v>44.6482637713507</v>
       </c>
       <c r="K10">
-        <v>36.084268557254</v>
+        <v>4.49404593011493</v>
       </c>
       <c r="L10">
-        <v>78.6737325855612</v>
+        <v>53.7485901736269</v>
       </c>
       <c r="M10">
-        <v>75.10287526655409</v>
+        <v>67.762761606429</v>
       </c>
       <c r="N10">
-        <v>77.859721314661</v>
+        <v>76.50439179742619</v>
       </c>
       <c r="O10">
-        <v>6052.73956293153</v>
+        <v>6453.02870258727</v>
       </c>
       <c r="P10">
-        <v>93.3630830070263</v>
+        <v>59.2548473034454</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2389.97009565087</v>
+        <v>2338.18363086239</v>
       </c>
       <c r="C11">
-        <v>77.9540510085574</v>
+        <v>69.0866934304327</v>
       </c>
       <c r="D11">
-        <v>105.587388287085</v>
+        <v>106.353382758915</v>
       </c>
       <c r="E11">
-        <v>79.6906353371006</v>
+        <v>66.16521676758489</v>
       </c>
       <c r="F11">
-        <v>12.2585757868648</v>
+        <v>10.8408461135233</v>
       </c>
       <c r="G11">
-        <v>29.0054676056919</v>
+        <v>16.1979230503483</v>
       </c>
       <c r="H11">
-        <v>30.6059217749715</v>
+        <v>17.382196199948</v>
       </c>
       <c r="I11">
-        <v>18.5805897948114</v>
+        <v>6.68697799060607</v>
       </c>
       <c r="J11">
-        <v>32.4746026001279</v>
+        <v>37.3198009692732</v>
       </c>
       <c r="K11">
-        <v>35.4137190969999</v>
+        <v>5.07504856008655</v>
       </c>
       <c r="L11">
-        <v>53.5904661002713</v>
+        <v>33.8080004998914</v>
       </c>
       <c r="M11">
-        <v>73.0911543055938</v>
+        <v>39.6175129697754</v>
       </c>
       <c r="N11">
-        <v>53.6907603069879</v>
+        <v>65.3883639509228</v>
       </c>
       <c r="O11">
-        <v>2794.07974410309</v>
+        <v>2966.4805791773</v>
       </c>
       <c r="P11">
-        <v>59.4754759087391</v>
+        <v>43.2954161359482</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>346.248804382827</v>
+        <v>333.843532054709</v>
       </c>
       <c r="C12">
-        <v>4.72456569659821</v>
+        <v>4.34540614204985</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>0.230560101529198</v>
       </c>
       <c r="E12">
-        <v>2.92341890635848</v>
+        <v>1.84911696112475</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.6727332627742451</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.436711246004651</v>
       </c>
       <c r="H12">
-        <v>0.100694206535946</v>
+        <v>0.0115457074115216</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>0.427986565403434</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>0.811338778251812</v>
       </c>
       <c r="K12">
-        <v>0.43943295948617</v>
+        <v>0.21249652325908</v>
       </c>
       <c r="L12">
-        <v>0.224064079723353</v>
+        <v>0.269411990981758</v>
       </c>
       <c r="M12">
-        <v>3.43196040473218</v>
+        <v>2.72664987408959</v>
       </c>
       <c r="N12">
-        <v>2.25327605565252</v>
+        <v>2.39408006773339</v>
       </c>
       <c r="O12">
-        <v>443.139641532626</v>
+        <v>461.550942205303</v>
       </c>
       <c r="P12">
-        <v>12.6237799614137</v>
+        <v>15.1462060450837</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>388.154377772081</v>
+        <v>340.434332809136</v>
       </c>
       <c r="C13">
-        <v>19.1022997695284</v>
+        <v>13.4332766712327</v>
       </c>
       <c r="D13">
-        <v>0.977587942107128</v>
+        <v>0.470613373077618</v>
       </c>
       <c r="E13">
-        <v>17.1690114439738</v>
+        <v>8.54438908174726</v>
       </c>
       <c r="F13">
-        <v>1.79556341149092</v>
+        <v>2.96004799451376</v>
       </c>
       <c r="G13">
-        <v>5.07303553956053</v>
+        <v>6.57735065409901</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>0.762746746382646</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>1.4907305266627</v>
       </c>
       <c r="J13">
-        <v>5.31881075245975</v>
+        <v>4.24319513185969</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>1.95190034674814</v>
       </c>
       <c r="L13">
-        <v>21.6987061224174</v>
+        <v>16.1105362770176</v>
       </c>
       <c r="M13">
-        <v>2.36376060995375</v>
+        <v>0.9027764786767</v>
       </c>
       <c r="N13">
-        <v>5.62316492424817</v>
+        <v>3.94320956880745</v>
       </c>
       <c r="O13">
-        <v>421.947736132266</v>
+        <v>488.208768000319</v>
       </c>
       <c r="P13">
-        <v>35.1285191179431</v>
+        <v>37.1492147299853</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3456.33707327494</v>
+        <v>3419.69011431481</v>
       </c>
       <c r="C14">
-        <v>107.866324309623</v>
+        <v>108.684613493023</v>
       </c>
       <c r="D14">
-        <v>17.8574139128877</v>
+        <v>7.33678050012362</v>
       </c>
       <c r="E14">
-        <v>127.482603453073</v>
+        <v>74.82467887029161</v>
       </c>
       <c r="F14">
-        <v>28.482813599467</v>
+        <v>18.7717688000046</v>
       </c>
       <c r="G14">
-        <v>70.2514120215302</v>
+        <v>54.8943586595408</v>
       </c>
       <c r="H14">
-        <v>55.9945884308851</v>
+        <v>40.2030329529182</v>
       </c>
       <c r="I14">
-        <v>17.1537053189594</v>
+        <v>23.3380506645263</v>
       </c>
       <c r="J14">
-        <v>160.912648125457</v>
+        <v>101.508492482825</v>
       </c>
       <c r="K14">
-        <v>128.770647235006</v>
+        <v>76.56629515311231</v>
       </c>
       <c r="L14">
-        <v>104.677090445166</v>
+        <v>74.9474738662925</v>
       </c>
       <c r="M14">
-        <v>80.1517247119144</v>
+        <v>68.7562328777634</v>
       </c>
       <c r="N14">
-        <v>72.44911888207091</v>
+        <v>58.786083082527</v>
       </c>
       <c r="O14">
-        <v>3978.37095307759</v>
+        <v>4283.36803883766</v>
       </c>
       <c r="P14">
-        <v>64.587540249185</v>
+        <v>56.7625101993028</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1687.43824102441</v>
+        <v>1630.09351432515</v>
       </c>
       <c r="C15">
-        <v>37.2687839403866</v>
+        <v>45.3923896109315</v>
       </c>
       <c r="D15">
-        <v>11.7711575342164</v>
+        <v>4.73495050968285</v>
       </c>
       <c r="E15">
-        <v>67.40665580225949</v>
+        <v>56.4388555432922</v>
       </c>
       <c r="F15">
-        <v>10.6252095876268</v>
+        <v>19.0337187770568</v>
       </c>
       <c r="G15">
-        <v>40.1421677481587</v>
+        <v>49.6283504455684</v>
       </c>
       <c r="H15">
-        <v>55.7186745836836</v>
+        <v>32.9214414143181</v>
       </c>
       <c r="I15">
-        <v>16.2092750748545</v>
+        <v>15.4246659407523</v>
       </c>
       <c r="J15">
-        <v>134.539243033352</v>
+        <v>121.401723388904</v>
       </c>
       <c r="K15">
-        <v>45.6473006119775</v>
+        <v>23.6128757528984</v>
       </c>
       <c r="L15">
-        <v>55.9903183143224</v>
+        <v>34.2326438656725</v>
       </c>
       <c r="M15">
-        <v>202.570418767476</v>
+        <v>148.005952596911</v>
       </c>
       <c r="N15">
-        <v>78.12643502635591</v>
+        <v>76.74027846537351</v>
       </c>
       <c r="O15">
-        <v>1785.65334695215</v>
+        <v>1973.70974027246</v>
       </c>
       <c r="P15">
-        <v>39.8186429480327</v>
+        <v>32.8395350765923</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>766.697413289319</v>
+        <v>665.964936174467</v>
       </c>
       <c r="C16">
-        <v>54.0213708817161</v>
+        <v>57.5567037723515</v>
       </c>
       <c r="D16">
-        <v>6.16154324486948</v>
+        <v>5.04800252350443</v>
       </c>
       <c r="E16">
-        <v>27.0186751136536</v>
+        <v>21.0402342818705</v>
       </c>
       <c r="F16">
-        <v>3.33510680241323</v>
+        <v>1.4785404782357</v>
       </c>
       <c r="G16">
-        <v>10.4568181232232</v>
+        <v>13.5037434772159</v>
       </c>
       <c r="H16">
-        <v>16.8095834639772</v>
+        <v>13.300516743725</v>
       </c>
       <c r="I16">
-        <v>9.19153238670517</v>
+        <v>5.32596490141887</v>
       </c>
       <c r="J16">
-        <v>45.1108539025325</v>
+        <v>39.7914903724291</v>
       </c>
       <c r="K16">
-        <v>44.9413345039455</v>
+        <v>40.9472960633097</v>
       </c>
       <c r="L16">
-        <v>32.6326423519933</v>
+        <v>16.019334834375</v>
       </c>
       <c r="M16">
-        <v>28.6026066764106</v>
+        <v>19.4272966323933</v>
       </c>
       <c r="N16">
-        <v>15.9791322233361</v>
+        <v>27.5975831458335</v>
       </c>
       <c r="O16">
-        <v>927.408067323604</v>
+        <v>1044.85058237906</v>
       </c>
       <c r="P16">
-        <v>63.0747536493815</v>
+        <v>66.6915180166629</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>693.857815903592</v>
+        <v>630.373605185721</v>
       </c>
       <c r="C17">
-        <v>33.9110657445056</v>
+        <v>19.8738919380178</v>
       </c>
       <c r="D17">
-        <v>4.95967760448892</v>
+        <v>5.2595178127799</v>
       </c>
       <c r="E17">
-        <v>22.282593986681</v>
+        <v>22.223309740522</v>
       </c>
       <c r="F17">
-        <v>16.6553638536268</v>
+        <v>12.0814066593322</v>
       </c>
       <c r="G17">
-        <v>8.459089891400939</v>
+        <v>5.98811180228016</v>
       </c>
       <c r="H17">
-        <v>11.9825481994795</v>
+        <v>9.629081682315981</v>
       </c>
       <c r="I17">
-        <v>8.585580280891181</v>
+        <v>5.68004211252943</v>
       </c>
       <c r="J17">
-        <v>17.4017774553072</v>
+        <v>19.1884801756322</v>
       </c>
       <c r="K17">
-        <v>17.152695320961</v>
+        <v>6.592096781636</v>
       </c>
       <c r="L17">
-        <v>10.0306581185552</v>
+        <v>9.268494034500909</v>
       </c>
       <c r="M17">
-        <v>61.3194543731425</v>
+        <v>57.0955823671513</v>
       </c>
       <c r="N17">
-        <v>14.5860108681015</v>
+        <v>9.33392418754557</v>
       </c>
       <c r="O17">
-        <v>859.273693109649</v>
+        <v>975.711968035149</v>
       </c>
       <c r="P17">
-        <v>56.1422999063093</v>
+        <v>45.6495623129389</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1352.22897358286</v>
+        <v>1268.52632457868</v>
       </c>
       <c r="C18">
-        <v>34.6179055203473</v>
+        <v>19.518940185946</v>
       </c>
       <c r="D18">
-        <v>21.1032208862493</v>
+        <v>4.59976766501488</v>
       </c>
       <c r="E18">
-        <v>48.6594942947812</v>
+        <v>28.0854425892942</v>
       </c>
       <c r="F18">
-        <v>25.2540418224867</v>
+        <v>35.4733426640139</v>
       </c>
       <c r="G18">
-        <v>15.6571946728391</v>
+        <v>19.4804390139469</v>
       </c>
       <c r="H18">
-        <v>16.9160541591668</v>
+        <v>12.0505001544163</v>
       </c>
       <c r="I18">
-        <v>10.7050440344467</v>
+        <v>5.27107089993394</v>
       </c>
       <c r="J18">
-        <v>49.589993852223</v>
+        <v>19.0472521355342</v>
       </c>
       <c r="K18">
-        <v>33.5572132607107</v>
+        <v>10.29650821485</v>
       </c>
       <c r="L18">
-        <v>24.9497531786895</v>
+        <v>20.2904387647706</v>
       </c>
       <c r="M18">
-        <v>77.455364986935</v>
+        <v>60.2591960823034</v>
       </c>
       <c r="N18">
-        <v>19.0295373695328</v>
+        <v>18.8860751403908</v>
       </c>
       <c r="O18">
-        <v>1143.04356690425</v>
+        <v>1335.15105402833</v>
       </c>
       <c r="P18">
-        <v>34.4566409960408</v>
+        <v>48.980374969743</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1319.82126380173</v>
+        <v>1320.73046253156</v>
       </c>
       <c r="C19">
-        <v>15.7404305690439</v>
+        <v>31.4417332388038</v>
       </c>
       <c r="D19">
-        <v>9.29981657605312</v>
+        <v>2.72336068515636</v>
       </c>
       <c r="E19">
-        <v>28.1063876517857</v>
+        <v>32.8587139406511</v>
       </c>
       <c r="F19">
-        <v>74.114044856291</v>
+        <v>70.22901289243239</v>
       </c>
       <c r="G19">
-        <v>36.781608161538</v>
+        <v>34.9201354993676</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>8.85173597724531</v>
       </c>
       <c r="I19">
-        <v>7.14466385587859</v>
+        <v>5.58214421396669</v>
       </c>
       <c r="J19">
-        <v>26.6454710847724</v>
+        <v>25.8251048900184</v>
       </c>
       <c r="K19">
-        <v>11.6470062478473</v>
+        <v>4.81477038083998</v>
       </c>
       <c r="L19">
-        <v>5.30647105694234</v>
+        <v>1.36629940811673</v>
       </c>
       <c r="M19">
-        <v>22.3506918647413</v>
+        <v>21.0705560744024</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>10.9007060939527</v>
       </c>
       <c r="O19">
-        <v>1336.36811121305</v>
+        <v>1345.75300396213</v>
       </c>
       <c r="P19">
-        <v>26.4152908258053</v>
+        <v>38.3423972818205</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>376.34004553239</v>
+        <v>366.54647066085</v>
       </c>
       <c r="C20">
-        <v>7.74300742016856</v>
+        <v>8.728347093165601</v>
       </c>
       <c r="D20">
-        <v>9.149567825445439</v>
+        <v>4.80052762764071</v>
       </c>
       <c r="E20">
-        <v>34.4117272656144</v>
+        <v>26.2286563490831</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>1.1955732965058</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>2.59310609138678</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>0.675516891190729</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>1.44803698415823</v>
       </c>
       <c r="J20">
-        <v>5.7336579580982</v>
+        <v>4.51023797712417</v>
       </c>
       <c r="K20">
-        <v>4.06615130334625</v>
+        <v>0.365346940915853</v>
       </c>
       <c r="L20">
-        <v>7.20571316428976</v>
+        <v>5.67215610640265</v>
       </c>
       <c r="M20">
-        <v>15.0756664395925</v>
+        <v>16.0227717067172</v>
       </c>
       <c r="N20">
-        <v>6.47442358782617</v>
+        <v>4.65045401290553</v>
       </c>
       <c r="O20">
-        <v>447.399125861826</v>
+        <v>486.859403112057</v>
       </c>
       <c r="P20">
-        <v>18.6137233956588</v>
+        <v>13.6508604915108</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1443.9084198852</v>
+        <v>1446.84735074428</v>
       </c>
       <c r="C21">
-        <v>20.6711419296186</v>
+        <v>12.87053625913</v>
       </c>
       <c r="D21">
-        <v>10.2172461716859</v>
+        <v>1.25576958211214</v>
       </c>
       <c r="E21">
-        <v>38.9223571384652</v>
+        <v>19.2804747904437</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>1.48017391734285</v>
       </c>
       <c r="G21">
-        <v>20.9076635707244</v>
+        <v>14.4519640214571</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>5.36456604818769</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>9.54614273390858</v>
       </c>
       <c r="J21">
-        <v>24.6716016695314</v>
+        <v>18.9613679966208</v>
       </c>
       <c r="K21">
-        <v>10.264108926757</v>
+        <v>1.32363371346231</v>
       </c>
       <c r="L21">
-        <v>35.8677877268041</v>
+        <v>19.8550972758871</v>
       </c>
       <c r="M21">
-        <v>24.0656537529673</v>
+        <v>14.6697719600024</v>
       </c>
       <c r="N21">
-        <v>18.5084764311605</v>
+        <v>9.09006130592069</v>
       </c>
       <c r="O21">
-        <v>1954.34034166049</v>
+        <v>2060.29569671247</v>
       </c>
       <c r="P21">
-        <v>16.3976224252503</v>
+        <v>16.0371171227895</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1669.18206977196</v>
+        <v>1661.53748672442</v>
       </c>
       <c r="C22">
-        <v>29.1541269744966</v>
+        <v>19.3174031978259</v>
       </c>
       <c r="D22">
-        <v>24.5380037282459</v>
+        <v>8.37540905040127</v>
       </c>
       <c r="E22">
-        <v>50.7936825618024</v>
+        <v>33.7986665220216</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>2.38013824281568</v>
       </c>
       <c r="G22">
-        <v>29.5940509452005</v>
+        <v>21.0504902793471</v>
       </c>
       <c r="H22">
-        <v>18.7994690538117</v>
+        <v>13.415548008896</v>
       </c>
       <c r="I22">
-        <v>9.667494719684081</v>
+        <v>9.6526815855133</v>
       </c>
       <c r="J22">
-        <v>45.1834672053552</v>
+        <v>34.551532958414</v>
       </c>
       <c r="K22">
-        <v>24.2069734372534</v>
+        <v>2.65630411730754</v>
       </c>
       <c r="L22">
-        <v>118.088999658929</v>
+        <v>76.38477883225779</v>
       </c>
       <c r="M22">
-        <v>17.6309078004357</v>
+        <v>15.7699514080266</v>
       </c>
       <c r="N22">
-        <v>42.1562366999517</v>
+        <v>42.6045971321384</v>
       </c>
       <c r="O22">
-        <v>2270.06498992859</v>
+        <v>2395.28280219311</v>
       </c>
       <c r="P22">
-        <v>10.6637775739212</v>
+        <v>10.00853521394</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2921.85464425927</v>
+        <v>2831.28515339422</v>
       </c>
       <c r="C23">
-        <v>37.9066657437113</v>
+        <v>22.1382588295434</v>
       </c>
       <c r="D23">
-        <v>9.323749033258011</v>
+        <v>6.82429113225229</v>
       </c>
       <c r="E23">
-        <v>66.13024303614741</v>
+        <v>37.7400055938698</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>4.47392694486604</v>
       </c>
       <c r="G23">
-        <v>42.4555801440412</v>
+        <v>46.6222162191549</v>
       </c>
       <c r="H23">
-        <v>61.7698525749998</v>
+        <v>43.73817222583</v>
       </c>
       <c r="I23">
-        <v>13.4247310627626</v>
+        <v>13.77349614284</v>
       </c>
       <c r="J23">
-        <v>133.70836129044</v>
+        <v>111.963978667064</v>
       </c>
       <c r="K23">
-        <v>88.911864905607</v>
+        <v>59.2949956686888</v>
       </c>
       <c r="L23">
-        <v>38.5567239749575</v>
+        <v>25.7748471966345</v>
       </c>
       <c r="M23">
-        <v>452.259474671932</v>
+        <v>458.498872862254</v>
       </c>
       <c r="N23">
-        <v>71.90265376187131</v>
+        <v>69.7327892689905</v>
       </c>
       <c r="O23">
-        <v>2897.91214976372</v>
+        <v>3131.15134721584</v>
       </c>
       <c r="P23">
-        <v>41.4813760238275</v>
+        <v>41.2544510670306</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1193.69285628989</v>
+        <v>1112.7369791584</v>
       </c>
       <c r="C24">
-        <v>64.71280984924729</v>
+        <v>38.6352728935301</v>
       </c>
       <c r="D24">
-        <v>4.83442624578547</v>
+        <v>5.49923031407771</v>
       </c>
       <c r="E24">
-        <v>77.114181022018</v>
+        <v>44.6067416125674</v>
       </c>
       <c r="F24">
-        <v>9.35578294907276</v>
+        <v>8.557800405148671</v>
       </c>
       <c r="G24">
-        <v>15.7117526882645</v>
+        <v>25.7820258869431</v>
       </c>
       <c r="H24">
-        <v>18.7939963960654</v>
+        <v>14.5147271824071</v>
       </c>
       <c r="I24">
-        <v>12.8121824564799</v>
+        <v>11.7875160172081</v>
       </c>
       <c r="J24">
-        <v>63.2284458149341</v>
+        <v>48.8564336481998</v>
       </c>
       <c r="K24">
-        <v>50.6312895497221</v>
+        <v>16.5971348365216</v>
       </c>
       <c r="L24">
-        <v>68.8998663875346</v>
+        <v>64.580409441146</v>
       </c>
       <c r="M24">
-        <v>27.1977472834858</v>
+        <v>15.1032955872426</v>
       </c>
       <c r="N24">
-        <v>52.8828322633208</v>
+        <v>62.4968557509983</v>
       </c>
       <c r="O24">
-        <v>1718.84427535163</v>
+        <v>1904.71787964917</v>
       </c>
       <c r="P24">
-        <v>86.87792761424331</v>
+        <v>82.1287067139444</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>913.594993377725</v>
+        <v>918.042571202292</v>
       </c>
       <c r="C25">
-        <v>26.7072566729591</v>
+        <v>36.7150573878807</v>
       </c>
       <c r="D25">
-        <v>18.3091587522339</v>
+        <v>11.7026512978271</v>
       </c>
       <c r="E25">
-        <v>33.1561040699501</v>
+        <v>42.6039151214254</v>
       </c>
       <c r="F25">
-        <v>6.48806248808409</v>
+        <v>15.2526049059054</v>
       </c>
       <c r="G25">
-        <v>9.89353717701222</v>
+        <v>13.0740904593283</v>
       </c>
       <c r="H25">
-        <v>11.1895527045165</v>
+        <v>4.56096252590672</v>
       </c>
       <c r="I25">
-        <v>5.97238834420366</v>
+        <v>5.64024311311249</v>
       </c>
       <c r="J25">
-        <v>15.2858707939512</v>
+        <v>6.22175413312039</v>
       </c>
       <c r="K25">
-        <v>14.967929727889</v>
+        <v>4.14760619782383</v>
       </c>
       <c r="L25">
-        <v>19.2818339274724</v>
+        <v>9.977065553249879</v>
       </c>
       <c r="M25">
-        <v>24.2518894088029</v>
+        <v>34.7266432388917</v>
       </c>
       <c r="N25">
-        <v>49.6601687166586</v>
+        <v>42.9547983204552</v>
       </c>
       <c r="O25">
-        <v>746.793411809932</v>
+        <v>744.545963381282</v>
       </c>
       <c r="P25">
-        <v>27.6454326951208</v>
+        <v>35.6155650123892</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1626.50443514666</v>
+        <v>1489.2352673357</v>
       </c>
       <c r="C26">
-        <v>55.4577249947356</v>
+        <v>41.1414919707075</v>
       </c>
       <c r="D26">
-        <v>21.1377009568722</v>
+        <v>1.87809677526346</v>
       </c>
       <c r="E26">
-        <v>58.7424114619989</v>
+        <v>40.7657067260946</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>9.550332792116761</v>
       </c>
       <c r="G26">
-        <v>22.1494957623144</v>
+        <v>24.8430893712065</v>
       </c>
       <c r="H26">
-        <v>19.7844180866689</v>
+        <v>11.9385054777862</v>
       </c>
       <c r="I26">
-        <v>14.5494623280894</v>
+        <v>10.6999066262853</v>
       </c>
       <c r="J26">
-        <v>64.23176692194831</v>
+        <v>24.0141522687263</v>
       </c>
       <c r="K26">
-        <v>35.9017550860545</v>
+        <v>11.702968595485</v>
       </c>
       <c r="L26">
-        <v>39.1566308841347</v>
+        <v>27.1769894078859</v>
       </c>
       <c r="M26">
-        <v>67.7799686784963</v>
+        <v>62.7769698633394</v>
       </c>
       <c r="N26">
-        <v>40.8283265377967</v>
+        <v>28.6420656533366</v>
       </c>
       <c r="O26">
-        <v>1809.9068165363</v>
+        <v>2104.86128848289</v>
       </c>
       <c r="P26">
-        <v>61.7386484446226</v>
+        <v>48.7767077975373</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>262.34667917776</v>
+        <v>248.065692821738</v>
       </c>
       <c r="C27">
-        <v>3.01444849709317</v>
+        <v>2.32702379153032</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>1.79710602634705</v>
       </c>
       <c r="E27">
-        <v>8.27496800215266</v>
+        <v>8.91598670427959</v>
       </c>
       <c r="F27">
-        <v>5.51561400976783</v>
+        <v>4.88379600641536</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.156081592364018</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.248748608771881</v>
       </c>
       <c r="I27">
-        <v>1.36810288599881</v>
+        <v>2.19976577433062</v>
       </c>
       <c r="J27">
-        <v>2.74439796888487</v>
+        <v>2.47510240322237</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>0.412886761105947</v>
       </c>
       <c r="L27">
-        <v>1.22639141396086</v>
+        <v>1.90014630138956</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.384953175311291</v>
       </c>
       <c r="N27">
-        <v>3.94307060842408</v>
+        <v>3.06633246565009</v>
       </c>
       <c r="O27">
-        <v>317.237639728773</v>
+        <v>333.426459363429</v>
       </c>
       <c r="P27">
-        <v>33.0799445735731</v>
+        <v>37.7976055675051</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>422.059283135806</v>
+        <v>378.64091054037</v>
       </c>
       <c r="C28">
-        <v>32.9663428014393</v>
+        <v>27.7783958290243</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>1.20720248801747</v>
       </c>
       <c r="E28">
-        <v>9.70938150085197</v>
+        <v>7.35965309800912</v>
       </c>
       <c r="F28">
-        <v>1.55289119596549</v>
+        <v>0.81883078835415</v>
       </c>
       <c r="G28">
-        <v>4.61369261942387</v>
+        <v>3.8673919504813</v>
       </c>
       <c r="H28">
-        <v>6.37034571105268</v>
+        <v>6.88595999824102</v>
       </c>
       <c r="I28">
-        <v>3.77059457374088</v>
+        <v>4.23497521478189</v>
       </c>
       <c r="J28">
-        <v>12.233104935751</v>
+        <v>18.8477902169042</v>
       </c>
       <c r="K28">
-        <v>14.514366687705</v>
+        <v>8.154356406609621</v>
       </c>
       <c r="L28">
-        <v>10.489136383741</v>
+        <v>10.8397327635845</v>
       </c>
       <c r="M28">
-        <v>11.2302552829872</v>
+        <v>8.53694763145389</v>
       </c>
       <c r="N28">
-        <v>9.94026034724072</v>
+        <v>8.87644159689804</v>
       </c>
       <c r="O28">
-        <v>586.023888178661</v>
+        <v>636.618169010119</v>
       </c>
       <c r="P28">
-        <v>71.83847009330781</v>
+        <v>72.6817289400971</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>599.764605830045</v>
+        <v>561.466673934695</v>
       </c>
       <c r="C29">
-        <v>4.6492792776289</v>
+        <v>4.5963368121731</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>1.07471586477789</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>3.71221663077105</v>
       </c>
       <c r="F29">
-        <v>17.2393734623001</v>
+        <v>23.7075024597964</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>4.49582240230131</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>0.566910962430748</v>
       </c>
       <c r="I29">
-        <v>2.86120730156892</v>
+        <v>1.38539513520454</v>
       </c>
       <c r="J29">
-        <v>7.83975749439742</v>
+        <v>3.25338614370172</v>
       </c>
       <c r="K29">
-        <v>2.22728047683361</v>
+        <v>0.6926930320732601</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>2.40359512827628</v>
       </c>
       <c r="M29">
-        <v>3.50989274584061</v>
+        <v>2.82639075919775</v>
       </c>
       <c r="N29">
-        <v>10.0764318740249</v>
+        <v>8.581685329502991</v>
       </c>
       <c r="O29">
-        <v>864.639191507531</v>
+        <v>922.256141841533</v>
       </c>
       <c r="P29">
-        <v>5.32659943672961</v>
+        <v>2.45597819397334</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>308.026602994046</v>
+        <v>274.826175579784</v>
       </c>
       <c r="C30">
-        <v>3.48150429512318</v>
+        <v>3.45239809681566</v>
       </c>
       <c r="D30">
-        <v>5.04154022223061</v>
+        <v>2.08109430416283</v>
       </c>
       <c r="E30">
-        <v>14.0166606788891</v>
+        <v>9.889460776613801</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.0740989621409311</v>
       </c>
       <c r="G30">
-        <v>2.88452931759052</v>
+        <v>4.4622562621485</v>
       </c>
       <c r="H30">
-        <v>4.51899413397843</v>
+        <v>3.73782595882215</v>
       </c>
       <c r="I30">
-        <v>2.74130952183063</v>
+        <v>1.90090258481345</v>
       </c>
       <c r="J30">
-        <v>20.0714169318651</v>
+        <v>14.8275141105417</v>
       </c>
       <c r="K30">
-        <v>8.383471757261431</v>
+        <v>3.78272782107182</v>
       </c>
       <c r="L30">
-        <v>24.7034820871861</v>
+        <v>36.8127902946531</v>
       </c>
       <c r="M30">
-        <v>6.45430780550574</v>
+        <v>7.70604127711706</v>
       </c>
       <c r="N30">
-        <v>11.9212326644169</v>
+        <v>12.4078823271006</v>
       </c>
       <c r="O30">
-        <v>447.123828219749</v>
+        <v>478.44746042546</v>
       </c>
       <c r="P30">
-        <v>4.14067412032031</v>
+        <v>4.69121616288024</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2497.91973419205</v>
+        <v>2336.17076141926</v>
       </c>
       <c r="C31">
-        <v>39.876089256577</v>
+        <v>50.3714297230278</v>
       </c>
       <c r="D31">
-        <v>25.7370069923305</v>
+        <v>8.247952523251311</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>33.3497469829047</v>
       </c>
       <c r="F31">
-        <v>9.56080210884697</v>
+        <v>4.73561726986972</v>
       </c>
       <c r="G31">
-        <v>107.884242147249</v>
+        <v>77.25142556640429</v>
       </c>
       <c r="H31">
-        <v>22.1686523322217</v>
+        <v>3.08105423876686</v>
       </c>
       <c r="I31">
-        <v>17.2756158968801</v>
+        <v>10.6008098949612</v>
       </c>
       <c r="J31">
-        <v>35.1752827498687</v>
+        <v>25.6960000403928</v>
       </c>
       <c r="K31">
-        <v>20.247173775569</v>
+        <v>2.3595022752339</v>
       </c>
       <c r="L31">
-        <v>64.14246698807639</v>
+        <v>41.3701415238317</v>
       </c>
       <c r="M31">
-        <v>19.6936939322725</v>
+        <v>15.2528581079412</v>
       </c>
       <c r="N31">
-        <v>47.8180857527905</v>
+        <v>54.310477956046</v>
       </c>
       <c r="O31">
-        <v>2806.70951683855</v>
+        <v>3119.47037556238</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>17.5921480011813</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>585.06578079748</v>
+        <v>559.561717641304</v>
       </c>
       <c r="C32">
-        <v>6.217262030872</v>
+        <v>2.8743246195721</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>0.76494282753367</v>
       </c>
       <c r="E32">
-        <v>5.22707807749639</v>
+        <v>3.79781170510437</v>
       </c>
       <c r="F32">
-        <v>21.331777982516</v>
+        <v>19.6749989433763</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>1.97484938566654</v>
       </c>
       <c r="H32">
-        <v>0.283340141372177</v>
+        <v>1.28175770613483</v>
       </c>
       <c r="I32">
-        <v>3.35607895550181</v>
+        <v>1.04028032276238</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>2.9526294399505</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>2.32812027938258</v>
       </c>
       <c r="L32">
-        <v>12.9268901903518</v>
+        <v>5.96321475248379</v>
       </c>
       <c r="M32">
-        <v>5.02905627751131</v>
+        <v>4.17073443237138</v>
       </c>
       <c r="N32">
-        <v>8.554671045012</v>
+        <v>9.77080614447852</v>
       </c>
       <c r="O32">
-        <v>595.015933506853</v>
+        <v>642.710910553248</v>
       </c>
       <c r="P32">
-        <v>17.9643560604989</v>
+        <v>15.8053053707085</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5678.27718784263</v>
+        <v>5722.83230829766</v>
       </c>
       <c r="C33">
-        <v>75.1493374991019</v>
+        <v>69.3059478795283</v>
       </c>
       <c r="D33">
-        <v>85.4506095359116</v>
+        <v>10.7840964081555</v>
       </c>
       <c r="E33">
-        <v>99.08977002927109</v>
+        <v>56.2434142724098</v>
       </c>
       <c r="F33">
-        <v>8.391866045906991</v>
+        <v>4.89494291988133</v>
       </c>
       <c r="G33">
-        <v>64.88705827004129</v>
+        <v>51.1644969389994</v>
       </c>
       <c r="H33">
-        <v>27.8915872543687</v>
+        <v>26.2067804045109</v>
       </c>
       <c r="I33">
-        <v>26.7564066896168</v>
+        <v>16.5520500812936</v>
       </c>
       <c r="J33">
-        <v>87.6980136199426</v>
+        <v>73.3504623854089</v>
       </c>
       <c r="K33">
-        <v>93.1094749665197</v>
+        <v>48.8388863342347</v>
       </c>
       <c r="L33">
-        <v>103.030139071128</v>
+        <v>86.80245906603039</v>
       </c>
       <c r="M33">
-        <v>68.58110368123251</v>
+        <v>43.7005088585157</v>
       </c>
       <c r="N33">
-        <v>88.5856794421301</v>
+        <v>125.132072868931</v>
       </c>
       <c r="O33">
-        <v>6259.7238623529</v>
+        <v>6419.81864340559</v>
       </c>
       <c r="P33">
-        <v>68.81829598518721</v>
+        <v>75.3067451184787</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2383.26746771888</v>
+        <v>2349.07592812056</v>
       </c>
       <c r="C34">
-        <v>55.2555267970038</v>
+        <v>56.274354168022</v>
       </c>
       <c r="D34">
-        <v>155.320784312246</v>
+        <v>66.656403931345</v>
       </c>
       <c r="E34">
-        <v>80.67715875010831</v>
+        <v>47.8408231144299</v>
       </c>
       <c r="F34">
-        <v>6.67895516984937</v>
+        <v>1.36629458472321</v>
       </c>
       <c r="G34">
-        <v>50.955638517866</v>
+        <v>37.3601767043831</v>
       </c>
       <c r="H34">
-        <v>34.2072097182984</v>
+        <v>35.4963022076304</v>
       </c>
       <c r="I34">
-        <v>18.9167100302844</v>
+        <v>10.2826880887465</v>
       </c>
       <c r="J34">
-        <v>54.4350428199422</v>
+        <v>37.7246716361343</v>
       </c>
       <c r="K34">
-        <v>31.986958363202</v>
+        <v>3.08632164246102</v>
       </c>
       <c r="L34">
-        <v>77.8105250970832</v>
+        <v>95.1722780310016</v>
       </c>
       <c r="M34">
-        <v>47.264840316924</v>
+        <v>31.4191954195893</v>
       </c>
       <c r="N34">
-        <v>120.433938558706</v>
+        <v>109.906529380706</v>
       </c>
       <c r="O34">
-        <v>2676.22795994768</v>
+        <v>2880.14789663597</v>
       </c>
       <c r="P34">
-        <v>44.7795161767753</v>
+        <v>50.179986107256</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>168.383783290401</v>
+        <v>152.425480435009</v>
       </c>
       <c r="C35">
-        <v>6.15298453013405</v>
+        <v>5.91364514636729</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.411647121742576</v>
       </c>
       <c r="E35">
-        <v>2.08855886688422</v>
+        <v>1.9503939509789</v>
       </c>
       <c r="F35">
-        <v>6.13362338013296</v>
+        <v>2.94834361230635</v>
       </c>
       <c r="G35">
-        <v>0.506498984337308</v>
+        <v>0.657370795783963</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.64485295567985</v>
       </c>
       <c r="I35">
-        <v>0.940012088861142</v>
+        <v>0.452056955404316</v>
       </c>
       <c r="J35">
-        <v>2.49375364553928</v>
+        <v>3.06255086106144</v>
       </c>
       <c r="K35">
-        <v>5.68912616518436</v>
+        <v>3.39055589520476</v>
       </c>
       <c r="L35">
-        <v>1.8955986283795</v>
+        <v>2.96319379421632</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>1.8410803627304</v>
       </c>
       <c r="N35">
-        <v>2.14352192449022</v>
+        <v>3.21143154449018</v>
       </c>
       <c r="O35">
-        <v>215.942989033774</v>
+        <v>234.833053636144</v>
       </c>
       <c r="P35">
-        <v>34.3644178567223</v>
+        <v>35.6975135013816</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3257.61439853913</v>
+        <v>3167.82793326949</v>
       </c>
       <c r="C36">
-        <v>73.0123642194681</v>
+        <v>56.8398595406206</v>
       </c>
       <c r="D36">
-        <v>23.302223345857</v>
+        <v>6.69583309562146</v>
       </c>
       <c r="E36">
-        <v>110.027269055587</v>
+        <v>112.406216958508</v>
       </c>
       <c r="F36">
-        <v>18.0820425758513</v>
+        <v>27.527077770837</v>
       </c>
       <c r="G36">
-        <v>70.3186847872289</v>
+        <v>64.44217903214221</v>
       </c>
       <c r="H36">
-        <v>97.9881605637131</v>
+        <v>62.9298929730068</v>
       </c>
       <c r="I36">
-        <v>41.7593288464579</v>
+        <v>30.4516038515981</v>
       </c>
       <c r="J36">
-        <v>231.431149130755</v>
+        <v>172.206233780002</v>
       </c>
       <c r="K36">
-        <v>123.720460067233</v>
+        <v>41.1206687835609</v>
       </c>
       <c r="L36">
-        <v>79.479880532338</v>
+        <v>48.158060394864</v>
       </c>
       <c r="M36">
-        <v>220.126393204049</v>
+        <v>176.276308470602</v>
       </c>
       <c r="N36">
-        <v>86.9190970122324</v>
+        <v>89.8197484268607</v>
       </c>
       <c r="O36">
-        <v>3479.43057590168</v>
+        <v>3844.21498389731</v>
       </c>
       <c r="P36">
-        <v>45.1426081693009</v>
+        <v>42.53583359298</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1060.40399825908</v>
+        <v>1037.66302962944</v>
       </c>
       <c r="C37">
-        <v>23.9447317303583</v>
+        <v>13.7386956857526</v>
       </c>
       <c r="D37">
-        <v>8.25304535995118</v>
+        <v>1.91967336123524</v>
       </c>
       <c r="E37">
-        <v>16.5237292178289</v>
+        <v>13.8440741886203</v>
       </c>
       <c r="F37">
-        <v>41.0761901740706</v>
+        <v>29.0614233560471</v>
       </c>
       <c r="G37">
-        <v>7.08053010914616</v>
+        <v>7.29248001678176</v>
       </c>
       <c r="H37">
-        <v>14.4124639997508</v>
+        <v>22.080325324155</v>
       </c>
       <c r="I37">
-        <v>10.0862854908322</v>
+        <v>11.3638366231994</v>
       </c>
       <c r="J37">
-        <v>32.0188048210081</v>
+        <v>33.7646217310667</v>
       </c>
       <c r="K37">
-        <v>27.8779081356558</v>
+        <v>4.03523176119525</v>
       </c>
       <c r="L37">
-        <v>18.9499493037571</v>
+        <v>14.3724760409551</v>
       </c>
       <c r="M37">
-        <v>30.0676190562774</v>
+        <v>29.3692169170408</v>
       </c>
       <c r="N37">
-        <v>14.1412039692392</v>
+        <v>21.4130359182215</v>
       </c>
       <c r="O37">
-        <v>1086.23623303262</v>
+        <v>1138.98801923926</v>
       </c>
       <c r="P37">
-        <v>32.6234690975109</v>
+        <v>39.8965889646586</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1054.09556257215</v>
+        <v>1046.41448033565</v>
       </c>
       <c r="C38">
-        <v>18.9695542367762</v>
+        <v>25.1628416030252</v>
       </c>
       <c r="D38">
-        <v>8.89855111005369</v>
+        <v>5.78656568917777</v>
       </c>
       <c r="E38">
-        <v>73.8479927912813</v>
+        <v>42.1838790307683</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>0.602377187633056</v>
       </c>
       <c r="G38">
-        <v>5.40272113600374</v>
+        <v>7.24143763642939</v>
       </c>
       <c r="H38">
-        <v>5.13104843452247</v>
+        <v>1.38767958381627</v>
       </c>
       <c r="I38">
-        <v>5.52311329415062</v>
+        <v>0.731743653016961</v>
       </c>
       <c r="J38">
-        <v>29.0091218109894</v>
+        <v>23.452380981161</v>
       </c>
       <c r="K38">
-        <v>13.7085948715668</v>
+        <v>2.64500317915304</v>
       </c>
       <c r="L38">
-        <v>65.7109286082928</v>
+        <v>79.7955039183362</v>
       </c>
       <c r="M38">
-        <v>17.9334260780061</v>
+        <v>17.671220145752</v>
       </c>
       <c r="N38">
-        <v>25.5649493510693</v>
+        <v>40.598979422138</v>
       </c>
       <c r="O38">
-        <v>1178.07770561876</v>
+        <v>1235.33924584023</v>
       </c>
       <c r="P38">
-        <v>58.6532119793302</v>
+        <v>40.2149995683873</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3871.79136317597</v>
+        <v>3550.44288423228</v>
       </c>
       <c r="C39">
-        <v>86.25171727687341</v>
+        <v>82.1676965128232</v>
       </c>
       <c r="D39">
-        <v>50.1381964046808</v>
+        <v>24.3613406148153</v>
       </c>
       <c r="E39">
-        <v>132.285865077308</v>
+        <v>139.84495066142</v>
       </c>
       <c r="F39">
-        <v>36.3825890048602</v>
+        <v>22.8688768785952</v>
       </c>
       <c r="G39">
-        <v>90.3391742447289</v>
+        <v>113.01863122353</v>
       </c>
       <c r="H39">
-        <v>50.8401598301446</v>
+        <v>42.844479266713</v>
       </c>
       <c r="I39">
-        <v>46.8153846504048</v>
+        <v>21.974932580843</v>
       </c>
       <c r="J39">
-        <v>215.487668983235</v>
+        <v>137.461826320514</v>
       </c>
       <c r="K39">
-        <v>66.2743684993258</v>
+        <v>38.7858083989671</v>
       </c>
       <c r="L39">
-        <v>88.32981571804019</v>
+        <v>85.66673761546321</v>
       </c>
       <c r="M39">
-        <v>62.1155070267561</v>
+        <v>62.566792297441</v>
       </c>
       <c r="N39">
-        <v>89.1132564470357</v>
+        <v>110.242722412715</v>
       </c>
       <c r="O39">
-        <v>3823.56670470912</v>
+        <v>4255.71454657289</v>
       </c>
       <c r="P39">
-        <v>64.059542153219</v>
+        <v>65.8516404397264</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>305.941133418908</v>
+        <v>283.070434935943</v>
       </c>
       <c r="C40">
-        <v>3.10128019127438</v>
+        <v>3.53643032533459</v>
       </c>
       <c r="D40">
-        <v>6.72536441757014</v>
+        <v>5.81048181090101</v>
       </c>
       <c r="E40">
-        <v>7.01586654642486</v>
+        <v>4.12306878269501</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.339533283417395</v>
       </c>
       <c r="G40">
-        <v>3.47568492648227</v>
+        <v>3.47791908384677</v>
       </c>
       <c r="H40">
-        <v>3.83013369125745</v>
+        <v>3.20522021497955</v>
       </c>
       <c r="I40">
-        <v>0.7327401700081651</v>
+        <v>1.37858017860745</v>
       </c>
       <c r="J40">
-        <v>11.3291876576619</v>
+        <v>9.24212288722333</v>
       </c>
       <c r="K40">
-        <v>3.47883448704542</v>
+        <v>0.6611085851559561</v>
       </c>
       <c r="L40">
-        <v>9.30050716995779</v>
+        <v>8.75673904370195</v>
       </c>
       <c r="M40">
-        <v>4.45915292898147</v>
+        <v>3.61328992519523</v>
       </c>
       <c r="N40">
-        <v>18.1219579388973</v>
+        <v>16.9125727069825</v>
       </c>
       <c r="O40">
-        <v>341.3126164092</v>
+        <v>376.762985847408</v>
       </c>
       <c r="P40">
-        <v>2.20459856741331</v>
+        <v>4.25078261723049</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1270.77568418356</v>
+        <v>1273.19278312153</v>
       </c>
       <c r="C41">
-        <v>20.6128890663664</v>
+        <v>10.8021777439807</v>
       </c>
       <c r="D41">
-        <v>78.06691048908731</v>
+        <v>54.0991783297965</v>
       </c>
       <c r="E41">
-        <v>41.9284535062042</v>
+        <v>31.2807485928101</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>1.3685438046765</v>
       </c>
       <c r="G41">
-        <v>23.7596136125346</v>
+        <v>25.917479445369</v>
       </c>
       <c r="H41">
-        <v>30.343888786098</v>
+        <v>24.1867092325476</v>
       </c>
       <c r="I41">
-        <v>11.8926284305886</v>
+        <v>11.5309433680465</v>
       </c>
       <c r="J41">
-        <v>34.1851155980071</v>
+        <v>34.5005081483288</v>
       </c>
       <c r="K41">
-        <v>23.5925784857274</v>
+        <v>6.1413359969607</v>
       </c>
       <c r="L41">
-        <v>25.8113061446327</v>
+        <v>23.6024893305068</v>
       </c>
       <c r="M41">
-        <v>37.2765515353459</v>
+        <v>28.2077103345448</v>
       </c>
       <c r="N41">
-        <v>21.0756658068744</v>
+        <v>16.451944168821</v>
       </c>
       <c r="O41">
-        <v>1269.39453286157</v>
+        <v>1349.60945775573</v>
       </c>
       <c r="P41">
-        <v>20.1948941641031</v>
+        <v>18.337214261788</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>187.938960595853</v>
+        <v>156.154293316235</v>
       </c>
       <c r="C42">
-        <v>6.00101395990437</v>
+        <v>5.05146229169059</v>
       </c>
       <c r="D42">
-        <v>0.967983933028659</v>
+        <v>1.17062325886444</v>
       </c>
       <c r="E42">
-        <v>5.00343104987475</v>
+        <v>5.26665032663394</v>
       </c>
       <c r="F42">
-        <v>1.54274409701271</v>
+        <v>1.81904730977917</v>
       </c>
       <c r="G42">
-        <v>0.937032066932591</v>
+        <v>1.37415141381849</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>0.76837849897082</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>2.28196770356762</v>
       </c>
       <c r="J42">
-        <v>3.77499266383319</v>
+        <v>4.39621043102502</v>
       </c>
       <c r="K42">
-        <v>6.19653373585671</v>
+        <v>2.60784967209383</v>
       </c>
       <c r="L42">
-        <v>6.28918124065671</v>
+        <v>4.30257882531283</v>
       </c>
       <c r="M42">
-        <v>2.68053998829498</v>
+        <v>3.61500205217697</v>
       </c>
       <c r="N42">
-        <v>6.5374505923549</v>
+        <v>7.05614991853147</v>
       </c>
       <c r="O42">
-        <v>238.416397713558</v>
+        <v>262.893829137959</v>
       </c>
       <c r="P42">
-        <v>36.5762697992104</v>
+        <v>42.3850799049045</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1730.45610728209</v>
+        <v>1801.61523388337</v>
       </c>
       <c r="C43">
-        <v>43.2371389576884</v>
+        <v>25.3242184496284</v>
       </c>
       <c r="D43">
-        <v>41.0810164122255</v>
+        <v>15.7887346251742</v>
       </c>
       <c r="E43">
-        <v>66.3378098972201</v>
+        <v>58.4207593196531</v>
       </c>
       <c r="F43">
-        <v>7.16475931394262</v>
+        <v>7.969545451732</v>
       </c>
       <c r="G43">
-        <v>27.8308958835791</v>
+        <v>47.8971874279707</v>
       </c>
       <c r="H43">
-        <v>34.2966023921779</v>
+        <v>50.5311789865693</v>
       </c>
       <c r="I43">
-        <v>13.9722059471117</v>
+        <v>13.8447411578802</v>
       </c>
       <c r="J43">
-        <v>66.1743587236171</v>
+        <v>49.8669986893931</v>
       </c>
       <c r="K43">
-        <v>47.9853884290991</v>
+        <v>11.3360166831114</v>
       </c>
       <c r="L43">
-        <v>47.214593325791</v>
+        <v>30.4404273654723</v>
       </c>
       <c r="M43">
-        <v>109.460455089332</v>
+        <v>86.36374525724951</v>
       </c>
       <c r="N43">
-        <v>62.3926863766197</v>
+        <v>62.8544838495862</v>
       </c>
       <c r="O43">
-        <v>1863.34154264502</v>
+        <v>1888.2661228486</v>
       </c>
       <c r="P43">
-        <v>24.9961497425958</v>
+        <v>38.6548773800834</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6033.04488048442</v>
+        <v>5651.70835230599</v>
       </c>
       <c r="C44">
-        <v>102.049241788362</v>
+        <v>128.494647890005</v>
       </c>
       <c r="D44">
-        <v>32.6944785049017</v>
+        <v>16.3246001024626</v>
       </c>
       <c r="E44">
-        <v>96.2359934115272</v>
+        <v>65.3715059676297</v>
       </c>
       <c r="F44">
-        <v>233.012722054697</v>
+        <v>199.020763096628</v>
       </c>
       <c r="G44">
-        <v>102.481253074556</v>
+        <v>104.822360501489</v>
       </c>
       <c r="H44">
-        <v>53.3156799930778</v>
+        <v>31.578225524356</v>
       </c>
       <c r="I44">
-        <v>40.8520079747452</v>
+        <v>44.7462191688471</v>
       </c>
       <c r="J44">
-        <v>153.632618415825</v>
+        <v>111.762744683879</v>
       </c>
       <c r="K44">
-        <v>97.5996785215301</v>
+        <v>25.9850499849942</v>
       </c>
       <c r="L44">
-        <v>191.147044626616</v>
+        <v>136.012376451783</v>
       </c>
       <c r="M44">
-        <v>109.771519548737</v>
+        <v>63.9306961575697</v>
       </c>
       <c r="N44">
-        <v>91.9396366829115</v>
+        <v>85.51911772558449</v>
       </c>
       <c r="O44">
-        <v>7047.17968760026</v>
+        <v>7607.71660091757</v>
       </c>
       <c r="P44">
-        <v>113.597801047776</v>
+        <v>175.071174320955</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>553.078225626476</v>
+        <v>514.376663317955</v>
       </c>
       <c r="C45">
-        <v>13.2259875277138</v>
+        <v>17.6953573821495</v>
       </c>
       <c r="D45">
-        <v>3.13188918275531</v>
+        <v>1.38071699934366</v>
       </c>
       <c r="E45">
-        <v>16.0469778987087</v>
+        <v>13.2565368040047</v>
       </c>
       <c r="F45">
-        <v>13.3290103345452</v>
+        <v>19.9503237754132</v>
       </c>
       <c r="G45">
-        <v>9.1467674163681</v>
+        <v>5.2993988277453</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>1.86745088844998</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>5.28027712098777</v>
       </c>
       <c r="J45">
-        <v>18.0698492424478</v>
+        <v>19.8500888964971</v>
       </c>
       <c r="K45">
-        <v>6.06151545286957</v>
+        <v>1.30238563179253</v>
       </c>
       <c r="L45">
-        <v>14.3616921194026</v>
+        <v>14.5117357573927</v>
       </c>
       <c r="M45">
-        <v>22.0377948167387</v>
+        <v>13.8025372216392</v>
       </c>
       <c r="N45">
-        <v>29.5319120522948</v>
+        <v>25.9264634663747</v>
       </c>
       <c r="O45">
-        <v>776.040963287479</v>
+        <v>807.133285961516</v>
       </c>
       <c r="P45">
-        <v>7.67048177691084</v>
+        <v>13.6826275682189</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>153.836431808557</v>
+        <v>135.11214639305</v>
       </c>
       <c r="C46">
-        <v>4.07921209615066</v>
+        <v>3.90384679071622</v>
       </c>
       <c r="D46">
-        <v>2.05945982938654</v>
+        <v>0.604922827353588</v>
       </c>
       <c r="E46">
-        <v>8.796678516965679</v>
+        <v>4.29962864367045</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.273130701705142</v>
       </c>
       <c r="G46">
-        <v>1.60195059894128</v>
+        <v>1.14296079094853</v>
       </c>
       <c r="H46">
-        <v>1.77293701276038</v>
+        <v>0.5368107839987309</v>
       </c>
       <c r="I46">
-        <v>2.20740226897569</v>
+        <v>1.61606010903924</v>
       </c>
       <c r="J46">
-        <v>4.07710799209352</v>
+        <v>3.09237200932139</v>
       </c>
       <c r="K46">
-        <v>2.90615119104169</v>
+        <v>1.03179774753729</v>
       </c>
       <c r="L46">
-        <v>10.4010972433762</v>
+        <v>9.60038849399772</v>
       </c>
       <c r="M46">
-        <v>3.5880766562544</v>
+        <v>2.49930410001826</v>
       </c>
       <c r="N46">
-        <v>6.24692888234316</v>
+        <v>7.3069241573439</v>
       </c>
       <c r="O46">
-        <v>213.053139729797</v>
+        <v>242.144366414087</v>
       </c>
       <c r="P46">
-        <v>9.17181957948613</v>
+        <v>8.444869807654071</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1913.13159144122</v>
+        <v>1932.4706927276</v>
       </c>
       <c r="C47">
-        <v>44.0405180230975</v>
+        <v>36.6016873390525</v>
       </c>
       <c r="D47">
-        <v>38.0875854786128</v>
+        <v>14.9641118127377</v>
       </c>
       <c r="E47">
-        <v>65.15309763194701</v>
+        <v>36.6796211689825</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>3.58171148976345</v>
       </c>
       <c r="G47">
-        <v>25.8398409341898</v>
+        <v>21.2443022379995</v>
       </c>
       <c r="H47">
-        <v>20.6878826824745</v>
+        <v>8.131832693171599</v>
       </c>
       <c r="I47">
-        <v>13.738579072002</v>
+        <v>2.29777529160449</v>
       </c>
       <c r="J47">
-        <v>32.8787401861491</v>
+        <v>36.3076021183527</v>
       </c>
       <c r="K47">
-        <v>25.1447082544203</v>
+        <v>5.51460410341859</v>
       </c>
       <c r="L47">
-        <v>34.8722128904908</v>
+        <v>23.5476727957693</v>
       </c>
       <c r="M47">
-        <v>68.8639918861398</v>
+        <v>51.0925859171092</v>
       </c>
       <c r="N47">
-        <v>47.2428176647149</v>
+        <v>28.1528163966448</v>
       </c>
       <c r="O47">
-        <v>2562.50612110253</v>
+        <v>2706.66949560162</v>
       </c>
       <c r="P47">
-        <v>32.2228884262271</v>
+        <v>23.8850371501191</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1758.90584151497</v>
+        <v>1647.84287294504</v>
       </c>
       <c r="C48">
-        <v>37.8092079819862</v>
+        <v>33.4550541793095</v>
       </c>
       <c r="D48">
-        <v>8.027423161558421</v>
+        <v>5.28780271148737</v>
       </c>
       <c r="E48">
-        <v>47.934722228652</v>
+        <v>61.7005486675928</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>12.9985164388615</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>4.04043699289793</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>4.98523038261478</v>
       </c>
       <c r="I48">
-        <v>8.741114117169969</v>
+        <v>8.536862915834201</v>
       </c>
       <c r="J48">
-        <v>26.6165385261887</v>
+        <v>34.4438655524002</v>
       </c>
       <c r="K48">
-        <v>12.8646758870934</v>
+        <v>5.58540853200054</v>
       </c>
       <c r="L48">
-        <v>39.1880596224581</v>
+        <v>43.2844526764293</v>
       </c>
       <c r="M48">
-        <v>126.142093235638</v>
+        <v>120.593437317211</v>
       </c>
       <c r="N48">
-        <v>32.6139925274151</v>
+        <v>28.7200376176432</v>
       </c>
       <c r="O48">
-        <v>2043.81126096803</v>
+        <v>2152.82463876395</v>
       </c>
       <c r="P48">
-        <v>62.1448402740247</v>
+        <v>65.8649743215919</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>699.477926523362</v>
+        <v>717.812822362972</v>
       </c>
       <c r="C49">
-        <v>5.36589822488382</v>
+        <v>4.27996913165998</v>
       </c>
       <c r="D49">
-        <v>2.36588034091456</v>
+        <v>0.9535010804212381</v>
       </c>
       <c r="E49">
-        <v>14.0410721686066</v>
+        <v>20.5063878112644</v>
       </c>
       <c r="F49">
-        <v>22.7345315910869</v>
+        <v>23.7073640157644</v>
       </c>
       <c r="G49">
-        <v>17.1631879255909</v>
+        <v>11.6566507509616</v>
       </c>
       <c r="H49">
-        <v>5.21059598779734</v>
+        <v>5.31594442125971</v>
       </c>
       <c r="I49">
-        <v>4.08740100183186</v>
+        <v>3.44350256720037</v>
       </c>
       <c r="J49">
-        <v>17.8058146686344</v>
+        <v>17.2900458833104</v>
       </c>
       <c r="K49">
-        <v>5.35061317279322</v>
+        <v>2.35780483134588</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>0.677511770572514</v>
       </c>
       <c r="M49">
-        <v>6.46301656992907</v>
+        <v>2.55764661745043</v>
       </c>
       <c r="N49">
-        <v>5.26881860853985</v>
+        <v>6.59688252969821</v>
       </c>
       <c r="O49">
-        <v>507.127157778773</v>
+        <v>506.85149548624</v>
       </c>
       <c r="P49">
-        <v>7.8736868001706</v>
+        <v>6.10578591408644</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1431.12085720332</v>
+        <v>1261.92898514109</v>
       </c>
       <c r="C50">
-        <v>74.97789162618901</v>
+        <v>63.4889803371061</v>
       </c>
       <c r="D50">
-        <v>15.0092013961436</v>
+        <v>8.456968246032909</v>
       </c>
       <c r="E50">
-        <v>136.714088125831</v>
+        <v>124.042409806883</v>
       </c>
       <c r="F50">
-        <v>3.612932380564</v>
+        <v>3.6868306563263</v>
       </c>
       <c r="G50">
-        <v>14.6728071723556</v>
+        <v>26.6826025018059</v>
       </c>
       <c r="H50">
-        <v>36.5256506760602</v>
+        <v>34.6206764169225</v>
       </c>
       <c r="I50">
-        <v>11.3234378332247</v>
+        <v>4.91703022375865</v>
       </c>
       <c r="J50">
-        <v>95.8749325016431</v>
+        <v>77.5092111006299</v>
       </c>
       <c r="K50">
-        <v>79.0483202383477</v>
+        <v>44.5893876725763</v>
       </c>
       <c r="L50">
-        <v>50.0168525664485</v>
+        <v>58.654053996082</v>
       </c>
       <c r="M50">
-        <v>54.4770567559668</v>
+        <v>48.868440868425</v>
       </c>
       <c r="N50">
-        <v>60.5508769758277</v>
+        <v>52.2276009572687</v>
       </c>
       <c r="O50">
-        <v>1661.57635128161</v>
+        <v>1932.97964513542</v>
       </c>
       <c r="P50">
-        <v>101.445820823034</v>
+        <v>87.22670718159741</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>124.068996501225</v>
+        <v>117.014030485941</v>
       </c>
       <c r="C51">
-        <v>1.12488235863003</v>
+        <v>3.17313636765099</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.0107271565591291</v>
       </c>
       <c r="E51">
-        <v>2.13501010019813</v>
+        <v>1.68128322972124</v>
       </c>
       <c r="F51">
-        <v>25.3696031309335</v>
+        <v>23.4378166595554</v>
       </c>
       <c r="G51">
-        <v>2.79972924994076</v>
+        <v>1.34481290999447</v>
       </c>
       <c r="H51">
-        <v>0.13540489407708</v>
+        <v>0.00730329819261932</v>
       </c>
       <c r="I51">
-        <v>0.719549217416861</v>
+        <v>0.7140002478612461</v>
       </c>
       <c r="J51">
-        <v>1.5797388458805</v>
+        <v>0.835910204410303</v>
       </c>
       <c r="K51">
-        <v>0.636572090762435</v>
+        <v>0.59776695602125</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.47540910742613</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.381458463040021</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>0.470662849124719</v>
       </c>
       <c r="O51">
-        <v>175.163935139646</v>
+        <v>177.557200451767</v>
       </c>
       <c r="P51">
-        <v>11.6759539389575</v>
+        <v>19.4730010554809</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1474.46135810735</v>
+        <v>1476.39714614368</v>
       </c>
       <c r="C2">
-        <v>24.7799622458956</v>
+        <v>23.114343248394</v>
       </c>
       <c r="D2">
-        <v>18.6899258486901</v>
+        <v>23.7965847785778</v>
       </c>
       <c r="E2">
-        <v>46.1007599655337</v>
+        <v>44.6683352830912</v>
       </c>
       <c r="F2">
-        <v>25.0241166932665</v>
+        <v>23.6777441931329</v>
       </c>
       <c r="G2">
-        <v>13.697678618904</v>
+        <v>14.0797234571173</v>
       </c>
       <c r="H2">
-        <v>13.4784262868781</v>
+        <v>11.4557344997475</v>
       </c>
       <c r="I2">
-        <v>13.0216425931876</v>
+        <v>16.5606626714835</v>
       </c>
       <c r="J2">
-        <v>77.4577959254718</v>
+        <v>72.5619662557817</v>
       </c>
       <c r="K2">
-        <v>11.3678912870705</v>
+        <v>10.6665781527608</v>
       </c>
       <c r="L2">
-        <v>49.994736353296</v>
+        <v>44.066194354504</v>
       </c>
       <c r="M2">
-        <v>27.1939749703404</v>
+        <v>34.3730091363089</v>
       </c>
       <c r="N2">
-        <v>26.9271995225614</v>
+        <v>28.0291600320182</v>
       </c>
       <c r="O2">
-        <v>1341.48817497948</v>
+        <v>1348.53865353168</v>
       </c>
       <c r="P2">
-        <v>20.2760046982066</v>
+        <v>20.5505838211517</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>122.865859178138</v>
+        <v>120.67919371967</v>
       </c>
       <c r="C3">
-        <v>2.54003823606693</v>
+        <v>2.32805590388268</v>
       </c>
       <c r="D3">
-        <v>0.275459576534459</v>
+        <v>0.2147239209309</v>
       </c>
       <c r="E3">
-        <v>0.709005258417409</v>
+        <v>1.15002411190325</v>
       </c>
       <c r="F3">
-        <v>6.25866330633236</v>
+        <v>6.71878126529665</v>
       </c>
       <c r="G3">
-        <v>0.183898628923215</v>
+        <v>0.188135689705419</v>
       </c>
       <c r="H3">
-        <v>0.010027682870141</v>
+        <v>0.00385214939887185</v>
       </c>
       <c r="I3">
-        <v>0.360956743502609</v>
+        <v>0.441081878901709</v>
       </c>
       <c r="J3">
-        <v>0.115904242941446</v>
+        <v>0.122504588776617</v>
       </c>
       <c r="K3">
-        <v>0.135680893026346</v>
+        <v>0.08782411954566299</v>
       </c>
       <c r="L3">
-        <v>0.105219205111336</v>
+        <v>0.126988770241328</v>
       </c>
       <c r="M3">
-        <v>0.286872884758007</v>
+        <v>0.323017142160972</v>
       </c>
       <c r="N3">
-        <v>0.257824519846891</v>
+        <v>0.432727896824915</v>
       </c>
       <c r="O3">
-        <v>207.764723408452</v>
+        <v>204.088970366163</v>
       </c>
       <c r="P3">
-        <v>7.75173287579734</v>
+        <v>7.62135731122301</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1658.88037728703</v>
+        <v>1659.44641738948</v>
       </c>
       <c r="C4">
-        <v>7.02230649746471</v>
+        <v>9.40779174149379</v>
       </c>
       <c r="D4">
-        <v>5.29584965244915</v>
+        <v>2.88915866453954</v>
       </c>
       <c r="E4">
-        <v>14.6207199119464</v>
+        <v>19.2645604094075</v>
       </c>
       <c r="F4">
-        <v>14.3957229949377</v>
+        <v>10.9049324175722</v>
       </c>
       <c r="G4">
-        <v>5.08945388860381</v>
+        <v>5.25947391150009</v>
       </c>
       <c r="H4">
-        <v>8.048724745520421</v>
+        <v>8.301487126847841</v>
       </c>
       <c r="I4">
-        <v>8.63552561895925</v>
+        <v>8.398422899530861</v>
       </c>
       <c r="J4">
-        <v>25.0014611391244</v>
+        <v>23.6302138417727</v>
       </c>
       <c r="K4">
-        <v>2.32344375775096</v>
+        <v>2.78286071832088</v>
       </c>
       <c r="L4">
-        <v>55.5836167175637</v>
+        <v>54.9288927508443</v>
       </c>
       <c r="M4">
-        <v>40.7555001658867</v>
+        <v>42.2488355706885</v>
       </c>
       <c r="N4">
-        <v>29.2315043003357</v>
+        <v>25.4523520101217</v>
       </c>
       <c r="O4">
-        <v>2017.24505840863</v>
+        <v>2025.09557747171</v>
       </c>
       <c r="P4">
-        <v>31.6699669386972</v>
+        <v>30.7816078313271</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>874.667337232297</v>
+        <v>880.377554248973</v>
       </c>
       <c r="C5">
-        <v>34.3519897738687</v>
+        <v>36.3830794412864</v>
       </c>
       <c r="D5">
-        <v>12.4390549521661</v>
+        <v>10.8353123205124</v>
       </c>
       <c r="E5">
-        <v>28.1517958748667</v>
+        <v>28.2752406443057</v>
       </c>
       <c r="F5">
-        <v>7.64826031575866</v>
+        <v>7.08651255397569</v>
       </c>
       <c r="G5">
-        <v>4.24632379267501</v>
+        <v>3.78391648699482</v>
       </c>
       <c r="H5">
-        <v>10.9010159237527</v>
+        <v>9.75047131271381</v>
       </c>
       <c r="I5">
-        <v>7.31314291025283</v>
+        <v>7.23368662664149</v>
       </c>
       <c r="J5">
-        <v>33.888685441002</v>
+        <v>29.1486253977409</v>
       </c>
       <c r="K5">
-        <v>3.0301981839839</v>
+        <v>4.52558640003394</v>
       </c>
       <c r="L5">
-        <v>9.72860475554781</v>
+        <v>10.0340620324173</v>
       </c>
       <c r="M5">
-        <v>12.9728633413123</v>
+        <v>12.3831318408153</v>
       </c>
       <c r="N5">
-        <v>16.173171579234</v>
+        <v>20.958143317463</v>
       </c>
       <c r="O5">
-        <v>872.334520127628</v>
+        <v>857.899095556963</v>
       </c>
       <c r="P5">
-        <v>39.5212149468574</v>
+        <v>41.991297338263</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9381.913303350701</v>
+        <v>9394.503478267079</v>
       </c>
       <c r="C6">
-        <v>179.798372080688</v>
+        <v>174.333810957615</v>
       </c>
       <c r="D6">
-        <v>20.5355764093091</v>
+        <v>25.9622518266051</v>
       </c>
       <c r="E6">
-        <v>138.099629003909</v>
+        <v>138.61626086987</v>
       </c>
       <c r="F6">
-        <v>35.485183665047</v>
+        <v>38.5527361668874</v>
       </c>
       <c r="G6">
-        <v>97.798618160267</v>
+        <v>96.06267991058689</v>
       </c>
       <c r="H6">
-        <v>23.3482314432741</v>
+        <v>30.7437216537743</v>
       </c>
       <c r="I6">
-        <v>36.9516113828328</v>
+        <v>36.9395848967713</v>
       </c>
       <c r="J6">
-        <v>121.678869238095</v>
+        <v>126.51371126236</v>
       </c>
       <c r="K6">
-        <v>38.6020205372391</v>
+        <v>38.2186479578686</v>
       </c>
       <c r="L6">
-        <v>368.406287273658</v>
+        <v>372.448014079336</v>
       </c>
       <c r="M6">
-        <v>213.987729273692</v>
+        <v>204.16056937383</v>
       </c>
       <c r="N6">
-        <v>208.786694556154</v>
+        <v>201.804325913426</v>
       </c>
       <c r="O6">
-        <v>11839.2548317748</v>
+        <v>11800.6043369119</v>
       </c>
       <c r="P6">
-        <v>259.123130599668</v>
+        <v>261.074736882635</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1026.25531871369</v>
+        <v>1030.36300081459</v>
       </c>
       <c r="C7">
-        <v>36.8778435696133</v>
+        <v>40.0955889792471</v>
       </c>
       <c r="D7">
-        <v>3.6124811864367</v>
+        <v>3.50336531891735</v>
       </c>
       <c r="E7">
-        <v>19.1086191971345</v>
+        <v>17.9526758668976</v>
       </c>
       <c r="F7">
-        <v>18.542788861583</v>
+        <v>20.8675492860394</v>
       </c>
       <c r="G7">
-        <v>8.818687942128999</v>
+        <v>10.8679801505506</v>
       </c>
       <c r="H7">
-        <v>3.2579184065613</v>
+        <v>3.52606751166588</v>
       </c>
       <c r="I7">
-        <v>8.045421067216219</v>
+        <v>7.52978672640669</v>
       </c>
       <c r="J7">
-        <v>18.2020972331407</v>
+        <v>15.8875880436045</v>
       </c>
       <c r="K7">
-        <v>4.04582630415207</v>
+        <v>3.97698672554324</v>
       </c>
       <c r="L7">
-        <v>53.0138730128847</v>
+        <v>45.1091123129602</v>
       </c>
       <c r="M7">
-        <v>8.707337121513501</v>
+        <v>9.929869381238159</v>
       </c>
       <c r="N7">
-        <v>18.7894483691478</v>
+        <v>20.5815547939417</v>
       </c>
       <c r="O7">
-        <v>1795.59977717365</v>
+        <v>1797.51834917492</v>
       </c>
       <c r="P7">
-        <v>27.1300806085455</v>
+        <v>30.4645784342695</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>830.9738832138401</v>
+        <v>832.144425224904</v>
       </c>
       <c r="C8">
-        <v>9.595782942080071</v>
+        <v>10.3733913016944</v>
       </c>
       <c r="D8">
-        <v>1.84987135072696</v>
+        <v>1.82391244689222</v>
       </c>
       <c r="E8">
-        <v>19.8414135791036</v>
+        <v>20.3962544503579</v>
       </c>
       <c r="F8">
-        <v>0.7554543681415</v>
+        <v>0.8006193484372191</v>
       </c>
       <c r="G8">
-        <v>16.9922043083329</v>
+        <v>18.8226446823755</v>
       </c>
       <c r="H8">
-        <v>6.68422226876598</v>
+        <v>6.80992421698998</v>
       </c>
       <c r="I8">
-        <v>7.18155511892179</v>
+        <v>7.43097084005457</v>
       </c>
       <c r="J8">
-        <v>33.5792162689638</v>
+        <v>31.5215086802573</v>
       </c>
       <c r="K8">
-        <v>10.9002791529915</v>
+        <v>10.8102912255961</v>
       </c>
       <c r="L8">
-        <v>35.3001431216158</v>
+        <v>36.7026383343303</v>
       </c>
       <c r="M8">
-        <v>37.1588598829166</v>
+        <v>38.2933750105226</v>
       </c>
       <c r="N8">
-        <v>26.0668213601406</v>
+        <v>23.7993267086776</v>
       </c>
       <c r="O8">
-        <v>1314.4294124944</v>
+        <v>1306.89101800763</v>
       </c>
       <c r="P8">
-        <v>4.98683804539823</v>
+        <v>5.00806420228838</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>224.487071388676</v>
+        <v>224.039211301294</v>
       </c>
       <c r="C9">
-        <v>6.65854644623576</v>
+        <v>6.50001490826458</v>
       </c>
       <c r="D9">
-        <v>1.49229857274125</v>
+        <v>1.69334766490943</v>
       </c>
       <c r="E9">
-        <v>2.87781907037293</v>
+        <v>2.84073486750875</v>
       </c>
       <c r="F9">
-        <v>0.398517425042165</v>
+        <v>0.573800402994433</v>
       </c>
       <c r="G9">
-        <v>15.4745571270768</v>
+        <v>15.1658162304632</v>
       </c>
       <c r="H9">
-        <v>2.05117640896915</v>
+        <v>2.15692551209944</v>
       </c>
       <c r="I9">
-        <v>0.603518808396429</v>
+        <v>0.860286785757222</v>
       </c>
       <c r="J9">
-        <v>4.9320582796546</v>
+        <v>4.37001408947855</v>
       </c>
       <c r="K9">
-        <v>0.196946593823805</v>
+        <v>0.379634181234006</v>
       </c>
       <c r="L9">
-        <v>2.92049996134297</v>
+        <v>2.57471780940238</v>
       </c>
       <c r="M9">
-        <v>4.07466947642456</v>
+        <v>4.06905948572097</v>
       </c>
       <c r="N9">
-        <v>2.36781899053895</v>
+        <v>2.21973786289144</v>
       </c>
       <c r="O9">
-        <v>300.757525465176</v>
+        <v>302.656609666176</v>
       </c>
       <c r="P9">
-        <v>3.95806608855648</v>
+        <v>4.08064788303617</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5571.75360111956</v>
+        <v>5567.33375922693</v>
       </c>
       <c r="C10">
-        <v>68.5788688653608</v>
+        <v>59.018458401186</v>
       </c>
       <c r="D10">
-        <v>4.45759290326512</v>
+        <v>9.40709182485919</v>
       </c>
       <c r="E10">
-        <v>34.9992162561141</v>
+        <v>37.5059804701954</v>
       </c>
       <c r="F10">
-        <v>4.40072681080471</v>
+        <v>5.71267913599933</v>
       </c>
       <c r="G10">
-        <v>26.192978618847</v>
+        <v>25.1303218213558</v>
       </c>
       <c r="H10">
-        <v>16.3121356760655</v>
+        <v>14.2962864767421</v>
       </c>
       <c r="I10">
-        <v>20.3002479690674</v>
+        <v>24.32551867749</v>
       </c>
       <c r="J10">
-        <v>44.6482637713507</v>
+        <v>46.6208568254196</v>
       </c>
       <c r="K10">
-        <v>4.49404593011493</v>
+        <v>6.41659066372911</v>
       </c>
       <c r="L10">
-        <v>53.7485901736269</v>
+        <v>56.3413214079072</v>
       </c>
       <c r="M10">
-        <v>67.762761606429</v>
+        <v>63.6597832133268</v>
       </c>
       <c r="N10">
-        <v>76.50439179742619</v>
+        <v>73.61774309673901</v>
       </c>
       <c r="O10">
-        <v>6453.02870258727</v>
+        <v>6392.83105808147</v>
       </c>
       <c r="P10">
-        <v>59.2548473034454</v>
+        <v>58.2235167452157</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2338.18363086239</v>
+        <v>2363.22368632713</v>
       </c>
       <c r="C11">
-        <v>69.0866934304327</v>
+        <v>69.88552150796259</v>
       </c>
       <c r="D11">
-        <v>106.353382758915</v>
+        <v>104.450879370815</v>
       </c>
       <c r="E11">
-        <v>66.16521676758489</v>
+        <v>64.3196630398983</v>
       </c>
       <c r="F11">
-        <v>10.8408461135233</v>
+        <v>7.31886342276792</v>
       </c>
       <c r="G11">
-        <v>16.1979230503483</v>
+        <v>18.9628441936686</v>
       </c>
       <c r="H11">
-        <v>17.382196199948</v>
+        <v>16.0391090934318</v>
       </c>
       <c r="I11">
-        <v>6.68697799060607</v>
+        <v>12.7950891061509</v>
       </c>
       <c r="J11">
-        <v>37.3198009692732</v>
+        <v>39.0599864884665</v>
       </c>
       <c r="K11">
-        <v>5.07504856008655</v>
+        <v>6.9179150477006</v>
       </c>
       <c r="L11">
-        <v>33.8080004998914</v>
+        <v>36.7785368485458</v>
       </c>
       <c r="M11">
-        <v>39.6175129697754</v>
+        <v>37.5900289091007</v>
       </c>
       <c r="N11">
-        <v>65.3883639509228</v>
+        <v>62.0080936712236</v>
       </c>
       <c r="O11">
-        <v>2966.4805791773</v>
+        <v>2964.27108598806</v>
       </c>
       <c r="P11">
-        <v>43.2954161359482</v>
+        <v>44.7454196358827</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>333.843532054709</v>
+        <v>331.381028482271</v>
       </c>
       <c r="C12">
-        <v>4.34540614204985</v>
+        <v>5.03349477128789</v>
       </c>
       <c r="D12">
-        <v>0.230560101529198</v>
+        <v>0.307635542537037</v>
       </c>
       <c r="E12">
-        <v>1.84911696112475</v>
+        <v>1.67139054786327</v>
       </c>
       <c r="F12">
-        <v>0.6727332627742451</v>
+        <v>0.51037925565369</v>
       </c>
       <c r="G12">
-        <v>0.436711246004651</v>
+        <v>0.408409772313546</v>
       </c>
       <c r="H12">
-        <v>0.0115457074115216</v>
+        <v>0.130970501245116</v>
       </c>
       <c r="I12">
-        <v>0.427986565403434</v>
+        <v>0.777706520657105</v>
       </c>
       <c r="J12">
-        <v>0.811338778251812</v>
+        <v>1.16997384577638</v>
       </c>
       <c r="K12">
-        <v>0.21249652325908</v>
+        <v>0.132534656843513</v>
       </c>
       <c r="L12">
-        <v>0.269411990981758</v>
+        <v>0.32362852045898</v>
       </c>
       <c r="M12">
-        <v>2.72664987408959</v>
+        <v>2.7472687075364</v>
       </c>
       <c r="N12">
-        <v>2.39408006773339</v>
+        <v>3.0599867977074</v>
       </c>
       <c r="O12">
-        <v>461.550942205303</v>
+        <v>462.144348306598</v>
       </c>
       <c r="P12">
-        <v>15.1462060450837</v>
+        <v>13.3796009894527</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>340.434332809136</v>
+        <v>343.488442415344</v>
       </c>
       <c r="C13">
-        <v>13.4332766712327</v>
+        <v>16.1361806032513</v>
       </c>
       <c r="D13">
-        <v>0.470613373077618</v>
+        <v>0.316325357349563</v>
       </c>
       <c r="E13">
-        <v>8.54438908174726</v>
+        <v>8.643276350535849</v>
       </c>
       <c r="F13">
-        <v>2.96004799451376</v>
+        <v>3.44506188852067</v>
       </c>
       <c r="G13">
-        <v>6.57735065409901</v>
+        <v>6.19520635341796</v>
       </c>
       <c r="H13">
-        <v>0.762746746382646</v>
+        <v>0.8562540337390761</v>
       </c>
       <c r="I13">
-        <v>1.4907305266627</v>
+        <v>1.86728334072565</v>
       </c>
       <c r="J13">
-        <v>4.24319513185969</v>
+        <v>4.18801920703039</v>
       </c>
       <c r="K13">
-        <v>1.95190034674814</v>
+        <v>2.18064993021362</v>
       </c>
       <c r="L13">
-        <v>16.1105362770176</v>
+        <v>15.9449200800624</v>
       </c>
       <c r="M13">
-        <v>0.9027764786767</v>
+        <v>1.48096974350118</v>
       </c>
       <c r="N13">
-        <v>3.94320956880745</v>
+        <v>3.78625407919463</v>
       </c>
       <c r="O13">
-        <v>488.208768000319</v>
+        <v>486.430168109139</v>
       </c>
       <c r="P13">
-        <v>37.1492147299853</v>
+        <v>37.1739254293939</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3419.69011431481</v>
+        <v>3409.20161963753</v>
       </c>
       <c r="C14">
-        <v>108.684613493023</v>
+        <v>117.410830448277</v>
       </c>
       <c r="D14">
-        <v>7.33678050012362</v>
+        <v>10.5586152423018</v>
       </c>
       <c r="E14">
-        <v>74.82467887029161</v>
+        <v>75.32277284617351</v>
       </c>
       <c r="F14">
-        <v>18.7717688000046</v>
+        <v>16.9297394727951</v>
       </c>
       <c r="G14">
-        <v>54.8943586595408</v>
+        <v>61.0180375207468</v>
       </c>
       <c r="H14">
-        <v>40.2030329529182</v>
+        <v>38.5703820089437</v>
       </c>
       <c r="I14">
-        <v>23.3380506645263</v>
+        <v>23.4633006820458</v>
       </c>
       <c r="J14">
-        <v>101.508492482825</v>
+        <v>108.526918708846</v>
       </c>
       <c r="K14">
-        <v>76.56629515311231</v>
+        <v>72.92201879808189</v>
       </c>
       <c r="L14">
-        <v>74.9474738662925</v>
+        <v>72.86320621538781</v>
       </c>
       <c r="M14">
-        <v>68.7562328777634</v>
+        <v>66.6859347097416</v>
       </c>
       <c r="N14">
-        <v>58.786083082527</v>
+        <v>64.8088837737385</v>
       </c>
       <c r="O14">
-        <v>4283.36803883766</v>
+        <v>4263.13013396947</v>
       </c>
       <c r="P14">
-        <v>56.7625101993028</v>
+        <v>57.5678603629909</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1630.09351432515</v>
+        <v>1624.99512347569</v>
       </c>
       <c r="C15">
-        <v>45.3923896109315</v>
+        <v>42.409864528425</v>
       </c>
       <c r="D15">
-        <v>4.73495050968285</v>
+        <v>5.96377291326285</v>
       </c>
       <c r="E15">
-        <v>56.4388555432922</v>
+        <v>61.7431788409644</v>
       </c>
       <c r="F15">
-        <v>19.0337187770568</v>
+        <v>18.5960569660533</v>
       </c>
       <c r="G15">
-        <v>49.6283504455684</v>
+        <v>47.2715679962765</v>
       </c>
       <c r="H15">
-        <v>32.9214414143181</v>
+        <v>33.5809914379107</v>
       </c>
       <c r="I15">
-        <v>15.4246659407523</v>
+        <v>16.4277043113536</v>
       </c>
       <c r="J15">
-        <v>121.401723388904</v>
+        <v>118.298797968068</v>
       </c>
       <c r="K15">
-        <v>23.6128757528984</v>
+        <v>25.4580591176755</v>
       </c>
       <c r="L15">
-        <v>34.2326438656725</v>
+        <v>32.3678118706965</v>
       </c>
       <c r="M15">
-        <v>148.005952596911</v>
+        <v>141.662751525401</v>
       </c>
       <c r="N15">
-        <v>76.74027846537351</v>
+        <v>80.3557712233391</v>
       </c>
       <c r="O15">
-        <v>1973.70974027246</v>
+        <v>1975.35730500255</v>
       </c>
       <c r="P15">
-        <v>32.8395350765923</v>
+        <v>38.3296248917425</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>665.964936174467</v>
+        <v>672.622391019709</v>
       </c>
       <c r="C16">
-        <v>57.5567037723515</v>
+        <v>57.2001903415567</v>
       </c>
       <c r="D16">
-        <v>5.04800252350443</v>
+        <v>3.92305731998895</v>
       </c>
       <c r="E16">
-        <v>21.0402342818705</v>
+        <v>23.9796544084205</v>
       </c>
       <c r="F16">
-        <v>1.4785404782357</v>
+        <v>1.98652216147999</v>
       </c>
       <c r="G16">
-        <v>13.5037434772159</v>
+        <v>14.1200511675623</v>
       </c>
       <c r="H16">
-        <v>13.300516743725</v>
+        <v>12.2001589519665</v>
       </c>
       <c r="I16">
-        <v>5.32596490141887</v>
+        <v>5.12177443525161</v>
       </c>
       <c r="J16">
-        <v>39.7914903724291</v>
+        <v>38.8691805757653</v>
       </c>
       <c r="K16">
-        <v>40.9472960633097</v>
+        <v>36.7543036970416</v>
       </c>
       <c r="L16">
-        <v>16.019334834375</v>
+        <v>15.9934973198834</v>
       </c>
       <c r="M16">
-        <v>19.4272966323933</v>
+        <v>21.3274228260315</v>
       </c>
       <c r="N16">
-        <v>27.5975831458335</v>
+        <v>28.2828181216041</v>
       </c>
       <c r="O16">
-        <v>1044.85058237906</v>
+        <v>1043.86979189085</v>
       </c>
       <c r="P16">
-        <v>66.6915180166629</v>
+        <v>69.364844720151</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>630.373605185721</v>
+        <v>634.675338365074</v>
       </c>
       <c r="C17">
-        <v>19.8738919380178</v>
+        <v>20.3266453979662</v>
       </c>
       <c r="D17">
-        <v>5.2595178127799</v>
+        <v>3.23559173637779</v>
       </c>
       <c r="E17">
-        <v>22.223309740522</v>
+        <v>20.3519868667525</v>
       </c>
       <c r="F17">
-        <v>12.0814066593322</v>
+        <v>11.0698571187522</v>
       </c>
       <c r="G17">
-        <v>5.98811180228016</v>
+        <v>7.93071261433776</v>
       </c>
       <c r="H17">
-        <v>9.629081682315981</v>
+        <v>8.522858336493</v>
       </c>
       <c r="I17">
-        <v>5.68004211252943</v>
+        <v>5.57529157856468</v>
       </c>
       <c r="J17">
-        <v>19.1884801756322</v>
+        <v>17.4664106969027</v>
       </c>
       <c r="K17">
-        <v>6.592096781636</v>
+        <v>6.74794233526322</v>
       </c>
       <c r="L17">
-        <v>9.268494034500909</v>
+        <v>9.883350399923289</v>
       </c>
       <c r="M17">
-        <v>57.0955823671513</v>
+        <v>58.0751954870449</v>
       </c>
       <c r="N17">
-        <v>9.33392418754557</v>
+        <v>9.084794509183739</v>
       </c>
       <c r="O17">
-        <v>975.711968035149</v>
+        <v>977.542362924767</v>
       </c>
       <c r="P17">
-        <v>45.6495623129389</v>
+        <v>44.7853282963083</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1268.52632457868</v>
+        <v>1268.76967372807</v>
       </c>
       <c r="C18">
-        <v>19.518940185946</v>
+        <v>22.731777992142</v>
       </c>
       <c r="D18">
-        <v>4.59976766501488</v>
+        <v>4.17032145734009</v>
       </c>
       <c r="E18">
-        <v>28.0854425892942</v>
+        <v>32.460741849555</v>
       </c>
       <c r="F18">
-        <v>35.4733426640139</v>
+        <v>33.5521347604337</v>
       </c>
       <c r="G18">
-        <v>19.4804390139469</v>
+        <v>18.5707367797578</v>
       </c>
       <c r="H18">
-        <v>12.0505001544163</v>
+        <v>12.0077609004324</v>
       </c>
       <c r="I18">
-        <v>5.27107089993394</v>
+        <v>5.5156356633355</v>
       </c>
       <c r="J18">
-        <v>19.0472521355342</v>
+        <v>21.2339477320704</v>
       </c>
       <c r="K18">
-        <v>10.29650821485</v>
+        <v>9.62625669572601</v>
       </c>
       <c r="L18">
-        <v>20.2904387647706</v>
+        <v>23.0916119518</v>
       </c>
       <c r="M18">
-        <v>60.2591960823034</v>
+        <v>57.379139685414</v>
       </c>
       <c r="N18">
-        <v>18.8860751403908</v>
+        <v>19.1473290127464</v>
       </c>
       <c r="O18">
-        <v>1335.15105402833</v>
+        <v>1334.11161968827</v>
       </c>
       <c r="P18">
-        <v>48.980374969743</v>
+        <v>47.9440887720779</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1320.73046253156</v>
+        <v>1329.34119063388</v>
       </c>
       <c r="C19">
-        <v>31.4417332388038</v>
+        <v>31.0606261095809</v>
       </c>
       <c r="D19">
-        <v>2.72336068515636</v>
+        <v>2.73426283242113</v>
       </c>
       <c r="E19">
-        <v>32.8587139406511</v>
+        <v>31.0793298327691</v>
       </c>
       <c r="F19">
-        <v>70.22901289243239</v>
+        <v>72.0488366774031</v>
       </c>
       <c r="G19">
-        <v>34.9201354993676</v>
+        <v>33.1617520611705</v>
       </c>
       <c r="H19">
-        <v>8.85173597724531</v>
+        <v>7.46593876399989</v>
       </c>
       <c r="I19">
-        <v>5.58214421396669</v>
+        <v>4.58948977015011</v>
       </c>
       <c r="J19">
-        <v>25.8251048900184</v>
+        <v>22.6413972207533</v>
       </c>
       <c r="K19">
-        <v>4.81477038083998</v>
+        <v>6.18147290579421</v>
       </c>
       <c r="L19">
-        <v>1.36629940811673</v>
+        <v>1.39012110504089</v>
       </c>
       <c r="M19">
-        <v>21.0705560744024</v>
+        <v>18.3281864241217</v>
       </c>
       <c r="N19">
-        <v>10.9007060939527</v>
+        <v>10.905961988386</v>
       </c>
       <c r="O19">
-        <v>1345.75300396213</v>
+        <v>1338.31054713209</v>
       </c>
       <c r="P19">
-        <v>38.3423972818205</v>
+        <v>32.8302197399007</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>366.54647066085</v>
+        <v>366.05066899558</v>
       </c>
       <c r="C20">
-        <v>8.728347093165601</v>
+        <v>7.69920177461791</v>
       </c>
       <c r="D20">
-        <v>4.80052762764071</v>
+        <v>5.17903919072964</v>
       </c>
       <c r="E20">
-        <v>26.2286563490831</v>
+        <v>26.7550794052822</v>
       </c>
       <c r="F20">
-        <v>1.1955732965058</v>
+        <v>0.882760473940305</v>
       </c>
       <c r="G20">
-        <v>2.59310609138678</v>
+        <v>2.53098280299534</v>
       </c>
       <c r="H20">
-        <v>0.675516891190729</v>
+        <v>0.808336863407587</v>
       </c>
       <c r="I20">
-        <v>1.44803698415823</v>
+        <v>1.91501996110229</v>
       </c>
       <c r="J20">
-        <v>4.51023797712417</v>
+        <v>4.39554293463703</v>
       </c>
       <c r="K20">
-        <v>0.365346940915853</v>
+        <v>0.808840350266634</v>
       </c>
       <c r="L20">
-        <v>5.67215610640265</v>
+        <v>5.55481899182616</v>
       </c>
       <c r="M20">
-        <v>16.0227717067172</v>
+        <v>14.8144055134031</v>
       </c>
       <c r="N20">
-        <v>4.65045401290553</v>
+        <v>4.79641042339039</v>
       </c>
       <c r="O20">
-        <v>486.859403112057</v>
+        <v>482.089052806845</v>
       </c>
       <c r="P20">
-        <v>13.6508604915108</v>
+        <v>14.7860560656465</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1446.84735074428</v>
+        <v>1447.7171508504</v>
       </c>
       <c r="C21">
-        <v>12.87053625913</v>
+        <v>15.5158783588275</v>
       </c>
       <c r="D21">
-        <v>1.25576958211214</v>
+        <v>1.04862670197253</v>
       </c>
       <c r="E21">
-        <v>19.2804747904437</v>
+        <v>17.9882555884993</v>
       </c>
       <c r="F21">
-        <v>1.48017391734285</v>
+        <v>2.47757595286381</v>
       </c>
       <c r="G21">
-        <v>14.4519640214571</v>
+        <v>14.351458844801</v>
       </c>
       <c r="H21">
-        <v>5.36456604818769</v>
+        <v>3.65990175380597</v>
       </c>
       <c r="I21">
-        <v>9.54614273390858</v>
+        <v>9.4162781621107</v>
       </c>
       <c r="J21">
-        <v>18.9613679966208</v>
+        <v>20.2536049565146</v>
       </c>
       <c r="K21">
-        <v>1.32363371346231</v>
+        <v>1.32670117168742</v>
       </c>
       <c r="L21">
-        <v>19.8550972758871</v>
+        <v>22.1728473500283</v>
       </c>
       <c r="M21">
-        <v>14.6697719600024</v>
+        <v>16.4192579980345</v>
       </c>
       <c r="N21">
-        <v>9.09006130592069</v>
+        <v>11.2614737790831</v>
       </c>
       <c r="O21">
-        <v>2060.29569671247</v>
+        <v>2029.28272932662</v>
       </c>
       <c r="P21">
-        <v>16.0371171227895</v>
+        <v>17.6678731462025</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1661.53748672442</v>
+        <v>1680.44417046522</v>
       </c>
       <c r="C22">
-        <v>19.3174031978259</v>
+        <v>18.4855513801765</v>
       </c>
       <c r="D22">
-        <v>8.37540905040127</v>
+        <v>8.45547488148927</v>
       </c>
       <c r="E22">
-        <v>33.7986665220216</v>
+        <v>34.508127778751</v>
       </c>
       <c r="F22">
-        <v>2.38013824281568</v>
+        <v>2.27257393860164</v>
       </c>
       <c r="G22">
-        <v>21.0504902793471</v>
+        <v>23.2526953008328</v>
       </c>
       <c r="H22">
-        <v>13.415548008896</v>
+        <v>12.2508844744394</v>
       </c>
       <c r="I22">
-        <v>9.6526815855133</v>
+        <v>8.140298579491221</v>
       </c>
       <c r="J22">
-        <v>34.551532958414</v>
+        <v>32.1450667470029</v>
       </c>
       <c r="K22">
-        <v>2.65630411730754</v>
+        <v>4.83919039148825</v>
       </c>
       <c r="L22">
-        <v>76.38477883225779</v>
+        <v>80.3586918078548</v>
       </c>
       <c r="M22">
-        <v>15.7699514080266</v>
+        <v>14.1428006742285</v>
       </c>
       <c r="N22">
-        <v>42.6045971321384</v>
+        <v>44.8312115667887</v>
       </c>
       <c r="O22">
-        <v>2395.28280219311</v>
+        <v>2380.04741098229</v>
       </c>
       <c r="P22">
-        <v>10.00853521394</v>
+        <v>10.1729389662517</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2831.28515339422</v>
+        <v>2855.75033455681</v>
       </c>
       <c r="C23">
-        <v>22.1382588295434</v>
+        <v>27.308390111583</v>
       </c>
       <c r="D23">
-        <v>6.82429113225229</v>
+        <v>6.59095239961942</v>
       </c>
       <c r="E23">
-        <v>37.7400055938698</v>
+        <v>37.5388466270345</v>
       </c>
       <c r="F23">
-        <v>4.47392694486604</v>
+        <v>5.40038392221006</v>
       </c>
       <c r="G23">
-        <v>46.6222162191549</v>
+        <v>47.6567464202792</v>
       </c>
       <c r="H23">
-        <v>43.73817222583</v>
+        <v>44.6805844940656</v>
       </c>
       <c r="I23">
-        <v>13.77349614284</v>
+        <v>13.8045400450786</v>
       </c>
       <c r="J23">
-        <v>111.963978667064</v>
+        <v>100.077240570377</v>
       </c>
       <c r="K23">
-        <v>59.2949956686888</v>
+        <v>60.9245012865349</v>
       </c>
       <c r="L23">
-        <v>25.7748471966345</v>
+        <v>31.4420260603826</v>
       </c>
       <c r="M23">
-        <v>458.498872862254</v>
+        <v>447.481652804253</v>
       </c>
       <c r="N23">
-        <v>69.7327892689905</v>
+        <v>71.02258343107221</v>
       </c>
       <c r="O23">
-        <v>3131.15134721584</v>
+        <v>3095.53023052781</v>
       </c>
       <c r="P23">
-        <v>41.2544510670306</v>
+        <v>41.4540436015161</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1112.7369791584</v>
+        <v>1108.82137815533</v>
       </c>
       <c r="C24">
-        <v>38.6352728935301</v>
+        <v>41.5966213171795</v>
       </c>
       <c r="D24">
-        <v>5.49923031407771</v>
+        <v>5.55708455321026</v>
       </c>
       <c r="E24">
-        <v>44.6067416125674</v>
+        <v>49.9520225645333</v>
       </c>
       <c r="F24">
-        <v>8.557800405148671</v>
+        <v>7.93188170769902</v>
       </c>
       <c r="G24">
-        <v>25.7820258869431</v>
+        <v>22.9403824652866</v>
       </c>
       <c r="H24">
-        <v>14.5147271824071</v>
+        <v>17.6288144553988</v>
       </c>
       <c r="I24">
-        <v>11.7875160172081</v>
+        <v>11.7053557277632</v>
       </c>
       <c r="J24">
-        <v>48.8564336481998</v>
+        <v>43.8898971798551</v>
       </c>
       <c r="K24">
-        <v>16.5971348365216</v>
+        <v>17.6363410169302</v>
       </c>
       <c r="L24">
-        <v>64.580409441146</v>
+        <v>63.7325061624933</v>
       </c>
       <c r="M24">
-        <v>15.1032955872426</v>
+        <v>16.9194285975509</v>
       </c>
       <c r="N24">
-        <v>62.4968557509983</v>
+        <v>61.4880812565226</v>
       </c>
       <c r="O24">
-        <v>1904.71787964917</v>
+        <v>1902.37674298191</v>
       </c>
       <c r="P24">
-        <v>82.1287067139444</v>
+        <v>76.7987044645769</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>918.042571202292</v>
+        <v>920.192574723864</v>
       </c>
       <c r="C25">
-        <v>36.7150573878807</v>
+        <v>32.0252871303951</v>
       </c>
       <c r="D25">
-        <v>11.7026512978271</v>
+        <v>10.9168437598956</v>
       </c>
       <c r="E25">
-        <v>42.6039151214254</v>
+        <v>41.4854633549826</v>
       </c>
       <c r="F25">
-        <v>15.2526049059054</v>
+        <v>16.1519392197214</v>
       </c>
       <c r="G25">
-        <v>13.0740904593283</v>
+        <v>10.949066325752</v>
       </c>
       <c r="H25">
-        <v>4.56096252590672</v>
+        <v>7.57460335685247</v>
       </c>
       <c r="I25">
-        <v>5.64024311311249</v>
+        <v>4.99715164425217</v>
       </c>
       <c r="J25">
-        <v>6.22175413312039</v>
+        <v>7.87335307414618</v>
       </c>
       <c r="K25">
-        <v>4.14760619782383</v>
+        <v>4.04718063064994</v>
       </c>
       <c r="L25">
-        <v>9.977065553249879</v>
+        <v>9.901821202475359</v>
       </c>
       <c r="M25">
-        <v>34.7266432388917</v>
+        <v>34.8858514378957</v>
       </c>
       <c r="N25">
-        <v>42.9547983204552</v>
+        <v>38.9708395315094</v>
       </c>
       <c r="O25">
-        <v>744.545963381282</v>
+        <v>749.0081922906591</v>
       </c>
       <c r="P25">
-        <v>35.6155650123892</v>
+        <v>36.6611427129307</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1489.2352673357</v>
+        <v>1489.20347105929</v>
       </c>
       <c r="C26">
-        <v>41.1414919707075</v>
+        <v>43.8761413245483</v>
       </c>
       <c r="D26">
-        <v>1.87809677526346</v>
+        <v>3.25746482291306</v>
       </c>
       <c r="E26">
-        <v>40.7657067260946</v>
+        <v>43.1478104155036</v>
       </c>
       <c r="F26">
-        <v>9.550332792116761</v>
+        <v>9.67933274303206</v>
       </c>
       <c r="G26">
-        <v>24.8430893712065</v>
+        <v>23.2862715377016</v>
       </c>
       <c r="H26">
-        <v>11.9385054777862</v>
+        <v>13.8420020603897</v>
       </c>
       <c r="I26">
-        <v>10.6999066262853</v>
+        <v>14.7745333053568</v>
       </c>
       <c r="J26">
-        <v>24.0141522687263</v>
+        <v>32.2412770619725</v>
       </c>
       <c r="K26">
-        <v>11.702968595485</v>
+        <v>13.8068266830518</v>
       </c>
       <c r="L26">
-        <v>27.1769894078859</v>
+        <v>25.7974338303696</v>
       </c>
       <c r="M26">
-        <v>62.7769698633394</v>
+        <v>57.8577747634602</v>
       </c>
       <c r="N26">
-        <v>28.6420656533366</v>
+        <v>25.1797313632487</v>
       </c>
       <c r="O26">
-        <v>2104.86128848289</v>
+        <v>2094.06995668296</v>
       </c>
       <c r="P26">
-        <v>48.7767077975373</v>
+        <v>48.1750215449543</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>248.065692821738</v>
+        <v>249.336062104327</v>
       </c>
       <c r="C27">
-        <v>2.32702379153032</v>
+        <v>2.24970882123093</v>
       </c>
       <c r="D27">
-        <v>1.79710602634705</v>
+        <v>1.25277613355365</v>
       </c>
       <c r="E27">
-        <v>8.91598670427959</v>
+        <v>8.62342501252733</v>
       </c>
       <c r="F27">
-        <v>4.88379600641536</v>
+        <v>4.74360966755469</v>
       </c>
       <c r="G27">
-        <v>0.156081592364018</v>
+        <v>0.5220006513423791</v>
       </c>
       <c r="H27">
-        <v>0.248748608771881</v>
+        <v>0.136836820461855</v>
       </c>
       <c r="I27">
-        <v>2.19976577433062</v>
+        <v>1.87657530960591</v>
       </c>
       <c r="J27">
-        <v>2.47510240322237</v>
+        <v>2.80299749984738</v>
       </c>
       <c r="K27">
-        <v>0.412886761105947</v>
+        <v>0.249439110144741</v>
       </c>
       <c r="L27">
-        <v>1.90014630138956</v>
+        <v>1.63769473402488</v>
       </c>
       <c r="M27">
-        <v>0.384953175311291</v>
+        <v>0.382126837671714</v>
       </c>
       <c r="N27">
-        <v>3.06633246565009</v>
+        <v>3.15374950106213</v>
       </c>
       <c r="O27">
-        <v>333.426459363429</v>
+        <v>331.938490511004</v>
       </c>
       <c r="P27">
-        <v>37.7976055675051</v>
+        <v>37.4301991104999</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>378.64091054037</v>
+        <v>383.852044594505</v>
       </c>
       <c r="C28">
-        <v>27.7783958290243</v>
+        <v>27.6068470616336</v>
       </c>
       <c r="D28">
-        <v>1.20720248801747</v>
+        <v>1.37144507405534</v>
       </c>
       <c r="E28">
-        <v>7.35965309800912</v>
+        <v>5.39196711648137</v>
       </c>
       <c r="F28">
-        <v>0.81883078835415</v>
+        <v>0.789071447355846</v>
       </c>
       <c r="G28">
-        <v>3.8673919504813</v>
+        <v>3.66759085140725</v>
       </c>
       <c r="H28">
-        <v>6.88595999824102</v>
+        <v>7.16057492371003</v>
       </c>
       <c r="I28">
-        <v>4.23497521478189</v>
+        <v>3.40996349538454</v>
       </c>
       <c r="J28">
-        <v>18.8477902169042</v>
+        <v>18.2529191701459</v>
       </c>
       <c r="K28">
-        <v>8.154356406609621</v>
+        <v>8.020349297001109</v>
       </c>
       <c r="L28">
-        <v>10.8397327635845</v>
+        <v>11.3329202273539</v>
       </c>
       <c r="M28">
-        <v>8.53694763145389</v>
+        <v>8.55585828199947</v>
       </c>
       <c r="N28">
-        <v>8.87644159689804</v>
+        <v>8.063071212686079</v>
       </c>
       <c r="O28">
-        <v>636.618169010119</v>
+        <v>637.709705692065</v>
       </c>
       <c r="P28">
-        <v>72.6817289400971</v>
+        <v>69.63217877983151</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>561.466673934695</v>
+        <v>571.495735191917</v>
       </c>
       <c r="C29">
-        <v>4.5963368121731</v>
+        <v>4.70722861356231</v>
       </c>
       <c r="D29">
-        <v>1.07471586477789</v>
+        <v>1.56466208853705</v>
       </c>
       <c r="E29">
-        <v>3.71221663077105</v>
+        <v>3.90037090895272</v>
       </c>
       <c r="F29">
-        <v>23.7075024597964</v>
+        <v>22.4378554040699</v>
       </c>
       <c r="G29">
-        <v>4.49582240230131</v>
+        <v>3.97701043361944</v>
       </c>
       <c r="H29">
-        <v>0.566910962430748</v>
+        <v>0.684218102322267</v>
       </c>
       <c r="I29">
-        <v>1.38539513520454</v>
+        <v>1.14455278289986</v>
       </c>
       <c r="J29">
-        <v>3.25338614370172</v>
+        <v>2.83484718679198</v>
       </c>
       <c r="K29">
-        <v>0.6926930320732601</v>
+        <v>1.23402421044748</v>
       </c>
       <c r="L29">
-        <v>2.40359512827628</v>
+        <v>2.1933086773033</v>
       </c>
       <c r="M29">
-        <v>2.82639075919775</v>
+        <v>3.13975852107961</v>
       </c>
       <c r="N29">
-        <v>8.581685329502991</v>
+        <v>8.76700040271284</v>
       </c>
       <c r="O29">
-        <v>922.256141841533</v>
+        <v>917.69321265306</v>
       </c>
       <c r="P29">
-        <v>2.45597819397334</v>
+        <v>2.94658908310625</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>274.826175579784</v>
+        <v>277.896756429605</v>
       </c>
       <c r="C30">
-        <v>3.45239809681566</v>
+        <v>3.61676578051147</v>
       </c>
       <c r="D30">
-        <v>2.08109430416283</v>
+        <v>2.78539319855311</v>
       </c>
       <c r="E30">
-        <v>9.889460776613801</v>
+        <v>10.6746785278999</v>
       </c>
       <c r="F30">
-        <v>0.0740989621409311</v>
+        <v>0.140753040384069</v>
       </c>
       <c r="G30">
-        <v>4.4622562621485</v>
+        <v>4.53591168173487</v>
       </c>
       <c r="H30">
-        <v>3.73782595882215</v>
+        <v>3.47513907080151</v>
       </c>
       <c r="I30">
-        <v>1.90090258481345</v>
+        <v>1.76011417291521</v>
       </c>
       <c r="J30">
-        <v>14.8275141105417</v>
+        <v>14.9375929497452</v>
       </c>
       <c r="K30">
-        <v>3.78272782107182</v>
+        <v>4.13578669359605</v>
       </c>
       <c r="L30">
-        <v>36.8127902946531</v>
+        <v>34.0597795519581</v>
       </c>
       <c r="M30">
-        <v>7.70604127711706</v>
+        <v>7.52363935085679</v>
       </c>
       <c r="N30">
-        <v>12.4078823271006</v>
+        <v>12.0301935426371</v>
       </c>
       <c r="O30">
-        <v>478.44746042546</v>
+        <v>478.455073115043</v>
       </c>
       <c r="P30">
-        <v>4.69121616288024</v>
+        <v>4.61198486520948</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2336.17076141926</v>
+        <v>2346.99106763651</v>
       </c>
       <c r="C31">
-        <v>50.3714297230278</v>
+        <v>47.8436022304208</v>
       </c>
       <c r="D31">
-        <v>8.247952523251311</v>
+        <v>8.45399844834663</v>
       </c>
       <c r="E31">
-        <v>33.3497469829047</v>
+        <v>35.4145262750241</v>
       </c>
       <c r="F31">
-        <v>4.73561726986972</v>
+        <v>3.54038487517643</v>
       </c>
       <c r="G31">
-        <v>77.25142556640429</v>
+        <v>83.6177157838352</v>
       </c>
       <c r="H31">
-        <v>3.08105423876686</v>
+        <v>5.40681921183793</v>
       </c>
       <c r="I31">
-        <v>10.6008098949612</v>
+        <v>12.1489468428414</v>
       </c>
       <c r="J31">
-        <v>25.6960000403928</v>
+        <v>23.2619070557358</v>
       </c>
       <c r="K31">
-        <v>2.3595022752339</v>
+        <v>4.43095726958052</v>
       </c>
       <c r="L31">
-        <v>41.3701415238317</v>
+        <v>44.1388719031364</v>
       </c>
       <c r="M31">
-        <v>15.2528581079412</v>
+        <v>16.3079935326197</v>
       </c>
       <c r="N31">
-        <v>54.310477956046</v>
+        <v>49.1164686995939</v>
       </c>
       <c r="O31">
-        <v>3119.47037556238</v>
+        <v>3079.16464631608</v>
       </c>
       <c r="P31">
-        <v>17.5921480011813</v>
+        <v>15.057084917368</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>559.561717641304</v>
+        <v>566.369100168743</v>
       </c>
       <c r="C32">
-        <v>2.8743246195721</v>
+        <v>2.74079361093984</v>
       </c>
       <c r="D32">
-        <v>0.76494282753367</v>
+        <v>0.760942536880467</v>
       </c>
       <c r="E32">
-        <v>3.79781170510437</v>
+        <v>2.77783780868757</v>
       </c>
       <c r="F32">
-        <v>19.6749989433763</v>
+        <v>19.8153024111156</v>
       </c>
       <c r="G32">
-        <v>1.97484938566654</v>
+        <v>2.06391641810389</v>
       </c>
       <c r="H32">
-        <v>1.28175770613483</v>
+        <v>0.661729912166892</v>
       </c>
       <c r="I32">
-        <v>1.04028032276238</v>
+        <v>1.56110835825683</v>
       </c>
       <c r="J32">
-        <v>2.9526294399505</v>
+        <v>3.19508810735329</v>
       </c>
       <c r="K32">
-        <v>2.32812027938258</v>
+        <v>1.86564342804091</v>
       </c>
       <c r="L32">
-        <v>5.96321475248379</v>
+        <v>6.5117896160868</v>
       </c>
       <c r="M32">
-        <v>4.17073443237138</v>
+        <v>3.76761599930206</v>
       </c>
       <c r="N32">
-        <v>9.77080614447852</v>
+        <v>9.09456414409143</v>
       </c>
       <c r="O32">
-        <v>642.710910553248</v>
+        <v>636.133267766316</v>
       </c>
       <c r="P32">
-        <v>15.8053053707085</v>
+        <v>18.0701274840476</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5722.83230829766</v>
+        <v>5728.2390697821</v>
       </c>
       <c r="C33">
-        <v>69.3059478795283</v>
+        <v>64.9586317408171</v>
       </c>
       <c r="D33">
-        <v>10.7840964081555</v>
+        <v>12.9133041867047</v>
       </c>
       <c r="E33">
-        <v>56.2434142724098</v>
+        <v>57.1087661775697</v>
       </c>
       <c r="F33">
-        <v>4.89494291988133</v>
+        <v>6.42313551140044</v>
       </c>
       <c r="G33">
-        <v>51.1644969389994</v>
+        <v>52.2480891033075</v>
       </c>
       <c r="H33">
-        <v>26.2067804045109</v>
+        <v>25.3480196254141</v>
       </c>
       <c r="I33">
-        <v>16.5520500812936</v>
+        <v>17.6475872503503</v>
       </c>
       <c r="J33">
-        <v>73.3504623854089</v>
+        <v>72.0894994474755</v>
       </c>
       <c r="K33">
-        <v>48.8388863342347</v>
+        <v>50.3535663430645</v>
       </c>
       <c r="L33">
-        <v>86.80245906603039</v>
+        <v>89.5106375804784</v>
       </c>
       <c r="M33">
-        <v>43.7005088585157</v>
+        <v>43.7547722284646</v>
       </c>
       <c r="N33">
-        <v>125.132072868931</v>
+        <v>115.753643731137</v>
       </c>
       <c r="O33">
-        <v>6419.81864340559</v>
+        <v>6420.00422759354</v>
       </c>
       <c r="P33">
-        <v>75.3067451184787</v>
+        <v>72.64051983356031</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2349.07592812056</v>
+        <v>2389.12206288823</v>
       </c>
       <c r="C34">
-        <v>56.274354168022</v>
+        <v>58.053838933672</v>
       </c>
       <c r="D34">
-        <v>66.656403931345</v>
+        <v>73.15103154667911</v>
       </c>
       <c r="E34">
-        <v>47.8408231144299</v>
+        <v>43.4149194372097</v>
       </c>
       <c r="F34">
-        <v>1.36629458472321</v>
+        <v>2.16913715719174</v>
       </c>
       <c r="G34">
-        <v>37.3601767043831</v>
+        <v>35.8656268990577</v>
       </c>
       <c r="H34">
-        <v>35.4963022076304</v>
+        <v>35.2560427341302</v>
       </c>
       <c r="I34">
-        <v>10.2826880887465</v>
+        <v>9.719149180064299</v>
       </c>
       <c r="J34">
-        <v>37.7246716361343</v>
+        <v>42.7678338612631</v>
       </c>
       <c r="K34">
-        <v>3.08632164246102</v>
+        <v>6.52169735754274</v>
       </c>
       <c r="L34">
-        <v>95.1722780310016</v>
+        <v>88.2355810180312</v>
       </c>
       <c r="M34">
-        <v>31.4191954195893</v>
+        <v>32.6627432643878</v>
       </c>
       <c r="N34">
-        <v>109.906529380706</v>
+        <v>107.366701804984</v>
       </c>
       <c r="O34">
-        <v>2880.14789663597</v>
+        <v>2859.58085006443</v>
       </c>
       <c r="P34">
-        <v>50.179986107256</v>
+        <v>52.0432378822881</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>152.425480435009</v>
+        <v>152.568618049898</v>
       </c>
       <c r="C35">
-        <v>5.91364514636729</v>
+        <v>5.99305881777715</v>
       </c>
       <c r="D35">
-        <v>0.411647121742576</v>
+        <v>0.326074063952712</v>
       </c>
       <c r="E35">
-        <v>1.9503939509789</v>
+        <v>2.1716081598063</v>
       </c>
       <c r="F35">
-        <v>2.94834361230635</v>
+        <v>2.88613494426279</v>
       </c>
       <c r="G35">
-        <v>0.657370795783963</v>
+        <v>0.629643100533382</v>
       </c>
       <c r="H35">
-        <v>0.64485295567985</v>
+        <v>0.50217598527847</v>
       </c>
       <c r="I35">
-        <v>0.452056955404316</v>
+        <v>0.897020940594278</v>
       </c>
       <c r="J35">
-        <v>3.06255086106144</v>
+        <v>2.42803678616178</v>
       </c>
       <c r="K35">
-        <v>3.39055589520476</v>
+        <v>3.54180830195532</v>
       </c>
       <c r="L35">
-        <v>2.96319379421632</v>
+        <v>2.57221316052614</v>
       </c>
       <c r="M35">
-        <v>1.8410803627304</v>
+        <v>2.4128664323265</v>
       </c>
       <c r="N35">
-        <v>3.21143154449018</v>
+        <v>3.38837903469215</v>
       </c>
       <c r="O35">
-        <v>234.833053636144</v>
+        <v>233.66474382734</v>
       </c>
       <c r="P35">
-        <v>35.6975135013816</v>
+        <v>35.545331444137</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3167.82793326949</v>
+        <v>3194.54039313726</v>
       </c>
       <c r="C36">
-        <v>56.8398595406206</v>
+        <v>55.7871936670014</v>
       </c>
       <c r="D36">
-        <v>6.69583309562146</v>
+        <v>8.35751562799094</v>
       </c>
       <c r="E36">
-        <v>112.406216958508</v>
+        <v>110.414400942343</v>
       </c>
       <c r="F36">
-        <v>27.527077770837</v>
+        <v>26.3532512107157</v>
       </c>
       <c r="G36">
-        <v>64.44217903214221</v>
+        <v>71.566860466595</v>
       </c>
       <c r="H36">
-        <v>62.9298929730068</v>
+        <v>70.1829527988256</v>
       </c>
       <c r="I36">
-        <v>30.4516038515981</v>
+        <v>31.3067476451663</v>
       </c>
       <c r="J36">
-        <v>172.206233780002</v>
+        <v>173.091583319184</v>
       </c>
       <c r="K36">
-        <v>41.1206687835609</v>
+        <v>46.8257979301782</v>
       </c>
       <c r="L36">
-        <v>48.158060394864</v>
+        <v>52.8291976509862</v>
       </c>
       <c r="M36">
-        <v>176.276308470602</v>
+        <v>171.031417851369</v>
       </c>
       <c r="N36">
-        <v>89.8197484268607</v>
+        <v>90.1856221597471</v>
       </c>
       <c r="O36">
-        <v>3844.21498389731</v>
+        <v>3800.8703551585</v>
       </c>
       <c r="P36">
-        <v>42.53583359298</v>
+        <v>44.5752979350109</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1037.66302962944</v>
+        <v>1042.56756337171</v>
       </c>
       <c r="C37">
-        <v>13.7386956857526</v>
+        <v>15.4236110658517</v>
       </c>
       <c r="D37">
-        <v>1.91967336123524</v>
+        <v>1.98124893128803</v>
       </c>
       <c r="E37">
-        <v>13.8440741886203</v>
+        <v>20.0675550638812</v>
       </c>
       <c r="F37">
-        <v>29.0614233560471</v>
+        <v>33.3624632891329</v>
       </c>
       <c r="G37">
-        <v>7.29248001678176</v>
+        <v>5.5717038735746</v>
       </c>
       <c r="H37">
-        <v>22.080325324155</v>
+        <v>21.1976843580412</v>
       </c>
       <c r="I37">
-        <v>11.3638366231994</v>
+        <v>8.81743160397337</v>
       </c>
       <c r="J37">
-        <v>33.7646217310667</v>
+        <v>33.2909738795762</v>
       </c>
       <c r="K37">
-        <v>4.03523176119525</v>
+        <v>6.65293503566056</v>
       </c>
       <c r="L37">
-        <v>14.3724760409551</v>
+        <v>17.0383677422807</v>
       </c>
       <c r="M37">
-        <v>29.3692169170408</v>
+        <v>27.4208111016477</v>
       </c>
       <c r="N37">
-        <v>21.4130359182215</v>
+        <v>23.3307617238054</v>
       </c>
       <c r="O37">
-        <v>1138.98801923926</v>
+        <v>1128.93353904377</v>
       </c>
       <c r="P37">
-        <v>39.8965889646586</v>
+        <v>41.8061571786177</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1046.41448033565</v>
+        <v>1047.56471494203</v>
       </c>
       <c r="C38">
-        <v>25.1628416030252</v>
+        <v>23.6067861645485</v>
       </c>
       <c r="D38">
-        <v>5.78656568917777</v>
+        <v>5.23277057480281</v>
       </c>
       <c r="E38">
-        <v>42.1838790307683</v>
+        <v>41.6443142412429</v>
       </c>
       <c r="F38">
-        <v>0.602377187633056</v>
+        <v>1.06338991437309</v>
       </c>
       <c r="G38">
-        <v>7.24143763642939</v>
+        <v>7.7105967804166</v>
       </c>
       <c r="H38">
-        <v>1.38767958381627</v>
+        <v>1.59541436543614</v>
       </c>
       <c r="I38">
-        <v>0.731743653016961</v>
+        <v>1.84237540632509</v>
       </c>
       <c r="J38">
-        <v>23.452380981161</v>
+        <v>27.6320773544356</v>
       </c>
       <c r="K38">
-        <v>2.64500317915304</v>
+        <v>1.94081815934147</v>
       </c>
       <c r="L38">
-        <v>79.7955039183362</v>
+        <v>77.27696934442611</v>
       </c>
       <c r="M38">
-        <v>17.671220145752</v>
+        <v>18.0379521575426</v>
       </c>
       <c r="N38">
-        <v>40.598979422138</v>
+        <v>40.7861823149711</v>
       </c>
       <c r="O38">
-        <v>1235.33924584023</v>
+        <v>1224.49613284722</v>
       </c>
       <c r="P38">
-        <v>40.2149995683873</v>
+        <v>43.2186238033318</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3550.44288423228</v>
+        <v>3592.72925786034</v>
       </c>
       <c r="C39">
-        <v>82.1676965128232</v>
+        <v>82.513446448048</v>
       </c>
       <c r="D39">
-        <v>24.3613406148153</v>
+        <v>25.7992434449792</v>
       </c>
       <c r="E39">
-        <v>139.84495066142</v>
+        <v>130.568193105523</v>
       </c>
       <c r="F39">
-        <v>22.8688768785952</v>
+        <v>23.6964982473258</v>
       </c>
       <c r="G39">
-        <v>113.01863122353</v>
+        <v>105.805148952628</v>
       </c>
       <c r="H39">
-        <v>42.844479266713</v>
+        <v>44.2934779733989</v>
       </c>
       <c r="I39">
-        <v>21.974932580843</v>
+        <v>22.4837351845784</v>
       </c>
       <c r="J39">
-        <v>137.461826320514</v>
+        <v>137.144055017318</v>
       </c>
       <c r="K39">
-        <v>38.7858083989671</v>
+        <v>39.283673791086</v>
       </c>
       <c r="L39">
-        <v>85.66673761546321</v>
+        <v>87.21051262616351</v>
       </c>
       <c r="M39">
-        <v>62.566792297441</v>
+        <v>54.9249093828788</v>
       </c>
       <c r="N39">
-        <v>110.242722412715</v>
+        <v>107.31697302115</v>
       </c>
       <c r="O39">
-        <v>4255.71454657289</v>
+        <v>4252.18351976264</v>
       </c>
       <c r="P39">
-        <v>65.8516404397264</v>
+        <v>62.8016636906208</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>283.070434935943</v>
+        <v>281.545494079933</v>
       </c>
       <c r="C40">
-        <v>3.53643032533459</v>
+        <v>2.91761823293784</v>
       </c>
       <c r="D40">
-        <v>5.81048181090101</v>
+        <v>5.61667023436906</v>
       </c>
       <c r="E40">
-        <v>4.12306878269501</v>
+        <v>4.56267406765947</v>
       </c>
       <c r="F40">
-        <v>0.339533283417395</v>
+        <v>0.234881348959154</v>
       </c>
       <c r="G40">
-        <v>3.47791908384677</v>
+        <v>3.61065956988894</v>
       </c>
       <c r="H40">
-        <v>3.20522021497955</v>
+        <v>3.88960424569909</v>
       </c>
       <c r="I40">
-        <v>1.37858017860745</v>
+        <v>1.62760050748258</v>
       </c>
       <c r="J40">
-        <v>9.24212288722333</v>
+        <v>9.241944906241111</v>
       </c>
       <c r="K40">
-        <v>0.6611085851559561</v>
+        <v>1.19063061396898</v>
       </c>
       <c r="L40">
-        <v>8.75673904370195</v>
+        <v>9.29697892427253</v>
       </c>
       <c r="M40">
-        <v>3.61328992519523</v>
+        <v>3.80185787686792</v>
       </c>
       <c r="N40">
-        <v>16.9125727069825</v>
+        <v>16.804155221484</v>
       </c>
       <c r="O40">
-        <v>376.762985847408</v>
+        <v>374.469590069757</v>
       </c>
       <c r="P40">
-        <v>4.25078261723049</v>
+        <v>3.81982740157353</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1273.19278312153</v>
+        <v>1294.30753724399</v>
       </c>
       <c r="C41">
-        <v>10.8021777439807</v>
+        <v>10.9613575717829</v>
       </c>
       <c r="D41">
-        <v>54.0991783297965</v>
+        <v>52.7369033473367</v>
       </c>
       <c r="E41">
-        <v>31.2807485928101</v>
+        <v>25.6552045911402</v>
       </c>
       <c r="F41">
-        <v>1.3685438046765</v>
+        <v>0.823662024408905</v>
       </c>
       <c r="G41">
-        <v>25.917479445369</v>
+        <v>24.6603947240115</v>
       </c>
       <c r="H41">
-        <v>24.1867092325476</v>
+        <v>25.3648925910095</v>
       </c>
       <c r="I41">
-        <v>11.5309433680465</v>
+        <v>11.946365862675</v>
       </c>
       <c r="J41">
-        <v>34.5005081483288</v>
+        <v>34.0146234753174</v>
       </c>
       <c r="K41">
-        <v>6.1413359969607</v>
+        <v>6.82010288953717</v>
       </c>
       <c r="L41">
-        <v>23.6024893305068</v>
+        <v>26.8734019788361</v>
       </c>
       <c r="M41">
-        <v>28.2077103345448</v>
+        <v>28.3454766536043</v>
       </c>
       <c r="N41">
-        <v>16.451944168821</v>
+        <v>18.285314157672</v>
       </c>
       <c r="O41">
-        <v>1349.60945775573</v>
+        <v>1337.8907535827</v>
       </c>
       <c r="P41">
-        <v>18.337214261788</v>
+        <v>20.1037053958998</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>156.154293316235</v>
+        <v>158.835840227987</v>
       </c>
       <c r="C42">
-        <v>5.05146229169059</v>
+        <v>5.09691050478971</v>
       </c>
       <c r="D42">
-        <v>1.17062325886444</v>
+        <v>1.06114660460048</v>
       </c>
       <c r="E42">
-        <v>5.26665032663394</v>
+        <v>4.89050125171781</v>
       </c>
       <c r="F42">
-        <v>1.81904730977917</v>
+        <v>1.84062069380964</v>
       </c>
       <c r="G42">
-        <v>1.37415141381849</v>
+        <v>1.16209259245544</v>
       </c>
       <c r="H42">
-        <v>0.76837849897082</v>
+        <v>0.965690059963024</v>
       </c>
       <c r="I42">
-        <v>2.28196770356762</v>
+        <v>1.88187996878625</v>
       </c>
       <c r="J42">
-        <v>4.39621043102502</v>
+        <v>3.88853574195633</v>
       </c>
       <c r="K42">
-        <v>2.60784967209383</v>
+        <v>2.93302156522221</v>
       </c>
       <c r="L42">
-        <v>4.30257882531283</v>
+        <v>4.78706309829978</v>
       </c>
       <c r="M42">
-        <v>3.61500205217697</v>
+        <v>3.18539005179195</v>
       </c>
       <c r="N42">
-        <v>7.05614991853147</v>
+        <v>7.04354360845114</v>
       </c>
       <c r="O42">
-        <v>262.893829137959</v>
+        <v>264.522755212358</v>
       </c>
       <c r="P42">
-        <v>42.3850799049045</v>
+        <v>43.867332130369</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1801.61523388337</v>
+        <v>1785.37220402379</v>
       </c>
       <c r="C43">
-        <v>25.3242184496284</v>
+        <v>27.891383199374</v>
       </c>
       <c r="D43">
-        <v>15.7887346251742</v>
+        <v>20.8408890320489</v>
       </c>
       <c r="E43">
-        <v>58.4207593196531</v>
+        <v>56.5399225715675</v>
       </c>
       <c r="F43">
-        <v>7.969545451732</v>
+        <v>10.3837004984477</v>
       </c>
       <c r="G43">
-        <v>47.8971874279707</v>
+        <v>32.4153141581074</v>
       </c>
       <c r="H43">
-        <v>50.5311789865693</v>
+        <v>42.5299968832532</v>
       </c>
       <c r="I43">
-        <v>13.8447411578802</v>
+        <v>12.7056054334955</v>
       </c>
       <c r="J43">
-        <v>49.8669986893931</v>
+        <v>54.5530915642461</v>
       </c>
       <c r="K43">
-        <v>11.3360166831114</v>
+        <v>10.7874839543679</v>
       </c>
       <c r="L43">
-        <v>30.4404273654723</v>
+        <v>35.8453841616391</v>
       </c>
       <c r="M43">
-        <v>86.36374525724951</v>
+        <v>98.4191938482151</v>
       </c>
       <c r="N43">
-        <v>62.8544838495862</v>
+        <v>53.9318918337021</v>
       </c>
       <c r="O43">
-        <v>1888.2661228486</v>
+        <v>1902.36980666087</v>
       </c>
       <c r="P43">
-        <v>38.6548773800834</v>
+        <v>42.710010491799</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5651.70835230599</v>
+        <v>5672.68929713531</v>
       </c>
       <c r="C44">
-        <v>128.494647890005</v>
+        <v>122.888799179718</v>
       </c>
       <c r="D44">
-        <v>16.3246001024626</v>
+        <v>18.1754960801845</v>
       </c>
       <c r="E44">
-        <v>65.3715059676297</v>
+        <v>70.8913068414787</v>
       </c>
       <c r="F44">
-        <v>199.020763096628</v>
+        <v>211.662424017655</v>
       </c>
       <c r="G44">
-        <v>104.822360501489</v>
+        <v>111.488328022788</v>
       </c>
       <c r="H44">
-        <v>31.578225524356</v>
+        <v>30.7009170580008</v>
       </c>
       <c r="I44">
-        <v>44.7462191688471</v>
+        <v>44.0769951902436</v>
       </c>
       <c r="J44">
-        <v>111.762744683879</v>
+        <v>104.940209409211</v>
       </c>
       <c r="K44">
-        <v>25.9850499849942</v>
+        <v>28.9307066913161</v>
       </c>
       <c r="L44">
-        <v>136.012376451783</v>
+        <v>143.472104360389</v>
       </c>
       <c r="M44">
-        <v>63.9306961575697</v>
+        <v>68.7305025610241</v>
       </c>
       <c r="N44">
-        <v>85.51911772558449</v>
+        <v>87.1549360477174</v>
       </c>
       <c r="O44">
-        <v>7607.71660091757</v>
+        <v>7609.84091900306</v>
       </c>
       <c r="P44">
-        <v>175.071174320955</v>
+        <v>177.113373968881</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>514.376663317955</v>
+        <v>511.086001510563</v>
       </c>
       <c r="C45">
-        <v>17.6953573821495</v>
+        <v>18.3340115574186</v>
       </c>
       <c r="D45">
-        <v>1.38071699934366</v>
+        <v>1.43474449625445</v>
       </c>
       <c r="E45">
-        <v>13.2565368040047</v>
+        <v>14.3808543051336</v>
       </c>
       <c r="F45">
-        <v>19.9503237754132</v>
+        <v>20.6340590660371</v>
       </c>
       <c r="G45">
-        <v>5.2993988277453</v>
+        <v>5.49833556897509</v>
       </c>
       <c r="H45">
-        <v>1.86745088844998</v>
+        <v>2.09147983536662</v>
       </c>
       <c r="I45">
-        <v>5.28027712098777</v>
+        <v>3.7847006105396</v>
       </c>
       <c r="J45">
-        <v>19.8500888964971</v>
+        <v>21.7104064707632</v>
       </c>
       <c r="K45">
-        <v>1.30238563179253</v>
+        <v>2.22542354201028</v>
       </c>
       <c r="L45">
-        <v>14.5117357573927</v>
+        <v>15.0695970465356</v>
       </c>
       <c r="M45">
-        <v>13.8025372216392</v>
+        <v>13.5211093299621</v>
       </c>
       <c r="N45">
-        <v>25.9264634663747</v>
+        <v>27.6053492146512</v>
       </c>
       <c r="O45">
-        <v>807.133285961516</v>
+        <v>816.897416708193</v>
       </c>
       <c r="P45">
-        <v>13.6826275682189</v>
+        <v>15.30203927875</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>135.11214639305</v>
+        <v>136.411351130811</v>
       </c>
       <c r="C46">
-        <v>3.90384679071622</v>
+        <v>3.65743366380826</v>
       </c>
       <c r="D46">
-        <v>0.604922827353588</v>
+        <v>0.573914236235728</v>
       </c>
       <c r="E46">
-        <v>4.29962864367045</v>
+        <v>4.42225394659301</v>
       </c>
       <c r="F46">
-        <v>0.273130701705142</v>
+        <v>0.377992340983716</v>
       </c>
       <c r="G46">
-        <v>1.14296079094853</v>
+        <v>1.29354149218443</v>
       </c>
       <c r="H46">
-        <v>0.5368107839987309</v>
+        <v>0.960742162754641</v>
       </c>
       <c r="I46">
-        <v>1.61606010903924</v>
+        <v>1.85925639560792</v>
       </c>
       <c r="J46">
-        <v>3.09237200932139</v>
+        <v>3.69459511226679</v>
       </c>
       <c r="K46">
-        <v>1.03179774753729</v>
+        <v>0.962701055669434</v>
       </c>
       <c r="L46">
-        <v>9.60038849399772</v>
+        <v>10.241961849614</v>
       </c>
       <c r="M46">
-        <v>2.49930410001826</v>
+        <v>2.53172901132968</v>
       </c>
       <c r="N46">
-        <v>7.3069241573439</v>
+        <v>6.86675011594571</v>
       </c>
       <c r="O46">
-        <v>242.144366414087</v>
+        <v>240.765504156126</v>
       </c>
       <c r="P46">
-        <v>8.444869807654071</v>
+        <v>8.66524058121621</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1932.4706927276</v>
+        <v>1940.73970400142</v>
       </c>
       <c r="C47">
-        <v>36.6016873390525</v>
+        <v>40.0764742731615</v>
       </c>
       <c r="D47">
-        <v>14.9641118127377</v>
+        <v>14.4552299157253</v>
       </c>
       <c r="E47">
-        <v>36.6796211689825</v>
+        <v>40.7197288903315</v>
       </c>
       <c r="F47">
-        <v>3.58171148976345</v>
+        <v>3.90070143496738</v>
       </c>
       <c r="G47">
-        <v>21.2443022379995</v>
+        <v>23.4349237161992</v>
       </c>
       <c r="H47">
-        <v>8.131832693171599</v>
+        <v>8.295159521078229</v>
       </c>
       <c r="I47">
-        <v>2.29777529160449</v>
+        <v>4.209727007167</v>
       </c>
       <c r="J47">
-        <v>36.3076021183527</v>
+        <v>31.9209220350109</v>
       </c>
       <c r="K47">
-        <v>5.51460410341859</v>
+        <v>5.84515837922684</v>
       </c>
       <c r="L47">
-        <v>23.5476727957693</v>
+        <v>23.5932033591721</v>
       </c>
       <c r="M47">
-        <v>51.0925859171092</v>
+        <v>54.3533284221191</v>
       </c>
       <c r="N47">
-        <v>28.1528163966448</v>
+        <v>25.2206366817687</v>
       </c>
       <c r="O47">
-        <v>2706.66949560162</v>
+        <v>2694.95318057755</v>
       </c>
       <c r="P47">
-        <v>23.8850371501191</v>
+        <v>23.1373062338306</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1647.84287294504</v>
+        <v>1656.07324650033</v>
       </c>
       <c r="C48">
-        <v>33.4550541793095</v>
+        <v>30.3042854091405</v>
       </c>
       <c r="D48">
-        <v>5.28780271148737</v>
+        <v>5.18205502865339</v>
       </c>
       <c r="E48">
-        <v>61.7005486675928</v>
+        <v>58.5050745753584</v>
       </c>
       <c r="F48">
-        <v>12.9985164388615</v>
+        <v>10.4623081418416</v>
       </c>
       <c r="G48">
-        <v>4.04043699289793</v>
+        <v>5.91196149315414</v>
       </c>
       <c r="H48">
-        <v>4.98523038261478</v>
+        <v>6.96201079595959</v>
       </c>
       <c r="I48">
-        <v>8.536862915834201</v>
+        <v>8.08617669809292</v>
       </c>
       <c r="J48">
-        <v>34.4438655524002</v>
+        <v>34.3142083836205</v>
       </c>
       <c r="K48">
-        <v>5.58540853200054</v>
+        <v>7.36545243572561</v>
       </c>
       <c r="L48">
-        <v>43.2844526764293</v>
+        <v>40.9235116836745</v>
       </c>
       <c r="M48">
-        <v>120.593437317211</v>
+        <v>114.979459944873</v>
       </c>
       <c r="N48">
-        <v>28.7200376176432</v>
+        <v>33.1569776239958</v>
       </c>
       <c r="O48">
-        <v>2152.82463876395</v>
+        <v>2154.63242795861</v>
       </c>
       <c r="P48">
-        <v>65.8649743215919</v>
+        <v>72.1526404564942</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>717.812822362972</v>
+        <v>716.144594666595</v>
       </c>
       <c r="C49">
-        <v>4.27996913165998</v>
+        <v>3.92111637719924</v>
       </c>
       <c r="D49">
-        <v>0.9535010804212381</v>
+        <v>0.959436515285617</v>
       </c>
       <c r="E49">
-        <v>20.5063878112644</v>
+        <v>19.8167892661726</v>
       </c>
       <c r="F49">
-        <v>23.7073640157644</v>
+        <v>23.3106564346923</v>
       </c>
       <c r="G49">
-        <v>11.6566507509616</v>
+        <v>12.3710857471468</v>
       </c>
       <c r="H49">
-        <v>5.31594442125971</v>
+        <v>5.11430771877962</v>
       </c>
       <c r="I49">
-        <v>3.44350256720037</v>
+        <v>2.96098594493444</v>
       </c>
       <c r="J49">
-        <v>17.2900458833104</v>
+        <v>16.3785646820478</v>
       </c>
       <c r="K49">
-        <v>2.35780483134588</v>
+        <v>2.61124508383536</v>
       </c>
       <c r="L49">
-        <v>0.677511770572514</v>
+        <v>0.855820418718101</v>
       </c>
       <c r="M49">
-        <v>2.55764661745043</v>
+        <v>2.95733525822272</v>
       </c>
       <c r="N49">
-        <v>6.59688252969821</v>
+        <v>5.79185520639402</v>
       </c>
       <c r="O49">
-        <v>506.85149548624</v>
+        <v>512.572104583068</v>
       </c>
       <c r="P49">
-        <v>6.10578591408644</v>
+        <v>6.03549933535358</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1261.92898514109</v>
+        <v>1275.37169025679</v>
       </c>
       <c r="C50">
-        <v>63.4889803371061</v>
+        <v>61.5969391834591</v>
       </c>
       <c r="D50">
-        <v>8.456968246032909</v>
+        <v>8.40136410799324</v>
       </c>
       <c r="E50">
-        <v>124.042409806883</v>
+        <v>124.866980271685</v>
       </c>
       <c r="F50">
-        <v>3.6868306563263</v>
+        <v>2.55774078026031</v>
       </c>
       <c r="G50">
-        <v>26.6826025018059</v>
+        <v>26.4000126886324</v>
       </c>
       <c r="H50">
-        <v>34.6206764169225</v>
+        <v>37.9153512351346</v>
       </c>
       <c r="I50">
-        <v>4.91703022375865</v>
+        <v>6.60673460859786</v>
       </c>
       <c r="J50">
-        <v>77.5092111006299</v>
+        <v>77.4013344011789</v>
       </c>
       <c r="K50">
-        <v>44.5893876725763</v>
+        <v>43.4915071672941</v>
       </c>
       <c r="L50">
-        <v>58.654053996082</v>
+        <v>59.6260382743582</v>
       </c>
       <c r="M50">
-        <v>48.868440868425</v>
+        <v>47.1067920465905</v>
       </c>
       <c r="N50">
-        <v>52.2276009572687</v>
+        <v>52.4914273933757</v>
       </c>
       <c r="O50">
-        <v>1932.97964513542</v>
+        <v>1913.51860596928</v>
       </c>
       <c r="P50">
-        <v>87.22670718159741</v>
+        <v>82.1829302795316</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>117.014030485941</v>
+        <v>119.455067681155</v>
       </c>
       <c r="C51">
-        <v>3.17313636765099</v>
+        <v>2.62304290178174</v>
       </c>
       <c r="D51">
-        <v>0.0107271565591291</v>
+        <v>0.00512451286122372</v>
       </c>
       <c r="E51">
-        <v>1.68128322972124</v>
+        <v>1.83240059791383</v>
       </c>
       <c r="F51">
-        <v>23.4378166595554</v>
+        <v>23.1314690383285</v>
       </c>
       <c r="G51">
-        <v>1.34481290999447</v>
+        <v>1.29241346863791</v>
       </c>
       <c r="H51">
-        <v>0.00730329819261932</v>
+        <v>0.0631519143631437</v>
       </c>
       <c r="I51">
-        <v>0.7140002478612461</v>
+        <v>0.609838184423219</v>
       </c>
       <c r="J51">
-        <v>0.835910204410303</v>
+        <v>1.04714030083391</v>
       </c>
       <c r="K51">
-        <v>0.59776695602125</v>
+        <v>0.629474640817605</v>
       </c>
       <c r="L51">
-        <v>0.47540910742613</v>
+        <v>0.415310738501101</v>
       </c>
       <c r="M51">
-        <v>0.381458463040021</v>
+        <v>0.367812157324562</v>
       </c>
       <c r="N51">
-        <v>0.470662849124719</v>
+        <v>0.560454426596364</v>
       </c>
       <c r="O51">
-        <v>177.557200451767</v>
+        <v>176.141158852233</v>
       </c>
       <c r="P51">
-        <v>19.4730010554809</v>
+        <v>18.592795660156</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1476.39714614368</v>
+        <v>1323.21702566485</v>
       </c>
       <c r="C2">
-        <v>23.114343248394</v>
+        <v>19.6300747726189</v>
       </c>
       <c r="D2">
-        <v>23.7965847785778</v>
+        <v>31.2152367683313</v>
       </c>
       <c r="E2">
-        <v>44.6683352830912</v>
+        <v>48.9245546013918</v>
       </c>
       <c r="F2">
-        <v>23.6777441931329</v>
+        <v>26.3701059082059</v>
       </c>
       <c r="G2">
-        <v>14.0797234571173</v>
+        <v>14.4626143131043</v>
       </c>
       <c r="H2">
-        <v>11.4557344997475</v>
+        <v>14.088007781683</v>
       </c>
       <c r="I2">
-        <v>16.5606626714835</v>
+        <v>16.5258155767722</v>
       </c>
       <c r="J2">
-        <v>72.5619662557817</v>
+        <v>77.7889752984337</v>
       </c>
       <c r="K2">
-        <v>10.6665781527608</v>
+        <v>15.4908888761299</v>
       </c>
       <c r="L2">
-        <v>44.066194354504</v>
+        <v>46.5080744501787</v>
       </c>
       <c r="M2">
-        <v>34.3730091363089</v>
+        <v>42.0156686908897</v>
       </c>
       <c r="N2">
-        <v>28.0291600320182</v>
+        <v>27.9467693397478</v>
       </c>
       <c r="O2">
-        <v>1348.53865353168</v>
+        <v>1475.61515896338</v>
       </c>
       <c r="P2">
-        <v>20.5505838211517</v>
+        <v>20.5734876758949</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>120.67919371967</v>
+        <v>96.9777707415038</v>
       </c>
       <c r="C3">
-        <v>2.32805590388268</v>
+        <v>2.80415337929817</v>
       </c>
       <c r="D3">
-        <v>0.2147239209309</v>
+        <v>0.268990099557625</v>
       </c>
       <c r="E3">
-        <v>1.15002411190325</v>
+        <v>0.983463470100674</v>
       </c>
       <c r="F3">
-        <v>6.71878126529665</v>
+        <v>7.20014520418779</v>
       </c>
       <c r="G3">
-        <v>0.188135689705419</v>
+        <v>0.216490565862782</v>
       </c>
       <c r="H3">
-        <v>0.00385214939887185</v>
+        <v>0.00450962409490567</v>
       </c>
       <c r="I3">
-        <v>0.441081878901709</v>
+        <v>0.643412630643563</v>
       </c>
       <c r="J3">
-        <v>0.122504588776617</v>
+        <v>0.107926271151921</v>
       </c>
       <c r="K3">
-        <v>0.08782411954566299</v>
+        <v>0.0931376907043238</v>
       </c>
       <c r="L3">
-        <v>0.126988770241328</v>
+        <v>0.08928177410205</v>
       </c>
       <c r="M3">
-        <v>0.323017142160972</v>
+        <v>0.389280911061922</v>
       </c>
       <c r="N3">
-        <v>0.432727896824915</v>
+        <v>0.532426361499439</v>
       </c>
       <c r="O3">
-        <v>204.088970366163</v>
+        <v>229.471403982517</v>
       </c>
       <c r="P3">
-        <v>7.62135731122301</v>
+        <v>7.80269050995515</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1659.44641738948</v>
+        <v>1314.80518925919</v>
       </c>
       <c r="C4">
-        <v>9.40779174149379</v>
+        <v>10.9481637147924</v>
       </c>
       <c r="D4">
-        <v>2.88915866453954</v>
+        <v>2.42970608491033</v>
       </c>
       <c r="E4">
-        <v>19.2645604094075</v>
+        <v>22.6962653462389</v>
       </c>
       <c r="F4">
-        <v>10.9049324175722</v>
+        <v>11.3027682051464</v>
       </c>
       <c r="G4">
-        <v>5.25947391150009</v>
+        <v>6.01636807178841</v>
       </c>
       <c r="H4">
-        <v>8.301487126847841</v>
+        <v>8.534373125242411</v>
       </c>
       <c r="I4">
-        <v>8.398422899530861</v>
+        <v>7.89627129989622</v>
       </c>
       <c r="J4">
-        <v>23.6302138417727</v>
+        <v>30.1065434482792</v>
       </c>
       <c r="K4">
-        <v>2.78286071832088</v>
+        <v>3.82186282905618</v>
       </c>
       <c r="L4">
-        <v>54.9288927508443</v>
+        <v>63.7397371417</v>
       </c>
       <c r="M4">
-        <v>42.2488355706885</v>
+        <v>45.5984484398685</v>
       </c>
       <c r="N4">
-        <v>25.4523520101217</v>
+        <v>36.9631066308133</v>
       </c>
       <c r="O4">
-        <v>2025.09557747171</v>
+        <v>2331.27365373068</v>
       </c>
       <c r="P4">
-        <v>30.7816078313271</v>
+        <v>25.7299126286462</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>880.377554248973</v>
+        <v>727.729710680273</v>
       </c>
       <c r="C5">
-        <v>36.3830794412864</v>
+        <v>40.3062717963331</v>
       </c>
       <c r="D5">
-        <v>10.8353123205124</v>
+        <v>13.046617888442</v>
       </c>
       <c r="E5">
-        <v>28.2752406443057</v>
+        <v>31.8573690096213</v>
       </c>
       <c r="F5">
-        <v>7.08651255397569</v>
+        <v>7.55478353431792</v>
       </c>
       <c r="G5">
-        <v>3.78391648699482</v>
+        <v>5.53237946839456</v>
       </c>
       <c r="H5">
-        <v>9.75047131271381</v>
+        <v>11.3073876090305</v>
       </c>
       <c r="I5">
-        <v>7.23368662664149</v>
+        <v>7.77694706024837</v>
       </c>
       <c r="J5">
-        <v>29.1486253977409</v>
+        <v>30.6404045332002</v>
       </c>
       <c r="K5">
-        <v>4.52558640003394</v>
+        <v>5.04282300018797</v>
       </c>
       <c r="L5">
-        <v>10.0340620324173</v>
+        <v>13.0638272556593</v>
       </c>
       <c r="M5">
-        <v>12.3831318408153</v>
+        <v>15.4325303301528</v>
       </c>
       <c r="N5">
-        <v>20.958143317463</v>
+        <v>23.7649017928321</v>
       </c>
       <c r="O5">
-        <v>857.899095556963</v>
+        <v>993.852251147617</v>
       </c>
       <c r="P5">
-        <v>41.991297338263</v>
+        <v>54.6046032131998</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9394.503478267079</v>
+        <v>7561.80659477919</v>
       </c>
       <c r="C6">
-        <v>174.333810957615</v>
+        <v>233.680097468692</v>
       </c>
       <c r="D6">
-        <v>25.9622518266051</v>
+        <v>36.3390087865743</v>
       </c>
       <c r="E6">
-        <v>138.61626086987</v>
+        <v>169.243232218862</v>
       </c>
       <c r="F6">
-        <v>38.5527361668874</v>
+        <v>49.7499233753486</v>
       </c>
       <c r="G6">
-        <v>96.06267991058689</v>
+        <v>122.000899672528</v>
       </c>
       <c r="H6">
-        <v>30.7437216537743</v>
+        <v>41.0830587704968</v>
       </c>
       <c r="I6">
-        <v>36.9395848967713</v>
+        <v>45.5384475283355</v>
       </c>
       <c r="J6">
-        <v>126.51371126236</v>
+        <v>159.526228130679</v>
       </c>
       <c r="K6">
-        <v>38.2186479578686</v>
+        <v>50.3805829248496</v>
       </c>
       <c r="L6">
-        <v>372.448014079336</v>
+        <v>462.678188049387</v>
       </c>
       <c r="M6">
-        <v>204.16056937383</v>
+        <v>237.39196247549</v>
       </c>
       <c r="N6">
-        <v>201.804325913426</v>
+        <v>252.934346453387</v>
       </c>
       <c r="O6">
-        <v>11800.6043369119</v>
+        <v>13178.7961222271</v>
       </c>
       <c r="P6">
-        <v>261.074736882635</v>
+        <v>323.592275878204</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1030.36300081459</v>
+        <v>811.059269358001</v>
       </c>
       <c r="C7">
-        <v>40.0955889792471</v>
+        <v>44.3192713022014</v>
       </c>
       <c r="D7">
-        <v>3.50336531891735</v>
+        <v>4.67877388139572</v>
       </c>
       <c r="E7">
-        <v>17.9526758668976</v>
+        <v>20.45499445566</v>
       </c>
       <c r="F7">
-        <v>20.8675492860394</v>
+        <v>21.1221451400808</v>
       </c>
       <c r="G7">
-        <v>10.8679801505506</v>
+        <v>13.3692562690085</v>
       </c>
       <c r="H7">
-        <v>3.52606751166588</v>
+        <v>2.92482012402191</v>
       </c>
       <c r="I7">
-        <v>7.52978672640669</v>
+        <v>8.242624876977081</v>
       </c>
       <c r="J7">
-        <v>15.8875880436045</v>
+        <v>17.178706801224</v>
       </c>
       <c r="K7">
-        <v>3.97698672554324</v>
+        <v>4.16561769879498</v>
       </c>
       <c r="L7">
-        <v>45.1091123129602</v>
+        <v>55.3817009848153</v>
       </c>
       <c r="M7">
-        <v>9.929869381238159</v>
+        <v>12.4430721167661</v>
       </c>
       <c r="N7">
-        <v>20.5815547939417</v>
+        <v>22.4288513669751</v>
       </c>
       <c r="O7">
-        <v>1797.51834917492</v>
+        <v>1988.68913538503</v>
       </c>
       <c r="P7">
-        <v>30.4645784342695</v>
+        <v>31.5851465549878</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>832.144425224904</v>
+        <v>646.832900413131</v>
       </c>
       <c r="C8">
-        <v>10.3733913016944</v>
+        <v>11.5990801747604</v>
       </c>
       <c r="D8">
-        <v>1.82391244689222</v>
+        <v>2.009185619267</v>
       </c>
       <c r="E8">
-        <v>20.3962544503579</v>
+        <v>23.7140074860925</v>
       </c>
       <c r="F8">
-        <v>0.8006193484372191</v>
+        <v>0.959776507579036</v>
       </c>
       <c r="G8">
-        <v>18.8226446823755</v>
+        <v>23.3614614015326</v>
       </c>
       <c r="H8">
-        <v>6.80992421698998</v>
+        <v>7.56359326641417</v>
       </c>
       <c r="I8">
-        <v>7.43097084005457</v>
+        <v>8.96199794751773</v>
       </c>
       <c r="J8">
-        <v>31.5215086802573</v>
+        <v>38.966103386113</v>
       </c>
       <c r="K8">
-        <v>10.8102912255961</v>
+        <v>12.7387653306905</v>
       </c>
       <c r="L8">
-        <v>36.7026383343303</v>
+        <v>45.5678859102808</v>
       </c>
       <c r="M8">
-        <v>38.2933750105226</v>
+        <v>44.003900772401</v>
       </c>
       <c r="N8">
-        <v>23.7993267086776</v>
+        <v>28.4572349575705</v>
       </c>
       <c r="O8">
-        <v>1306.89101800763</v>
+        <v>1453.54473384565</v>
       </c>
       <c r="P8">
-        <v>5.00806420228838</v>
+        <v>5.28741722052409</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>224.039211301294</v>
+        <v>170.496163531513</v>
       </c>
       <c r="C9">
-        <v>6.50001490826458</v>
+        <v>8.699028074777161</v>
       </c>
       <c r="D9">
-        <v>1.69334766490943</v>
+        <v>2.70437211473167</v>
       </c>
       <c r="E9">
-        <v>2.84073486750875</v>
+        <v>3.72826923101778</v>
       </c>
       <c r="F9">
-        <v>0.573800402994433</v>
+        <v>0.413617877252536</v>
       </c>
       <c r="G9">
-        <v>15.1658162304632</v>
+        <v>18.1273592318288</v>
       </c>
       <c r="H9">
-        <v>2.15692551209944</v>
+        <v>2.62657918344865</v>
       </c>
       <c r="I9">
-        <v>0.860286785757222</v>
+        <v>0.965040852047697</v>
       </c>
       <c r="J9">
-        <v>4.37001408947855</v>
+        <v>5.57003663436685</v>
       </c>
       <c r="K9">
-        <v>0.379634181234006</v>
+        <v>0.528236451645439</v>
       </c>
       <c r="L9">
-        <v>2.57471780940238</v>
+        <v>3.1688959148988</v>
       </c>
       <c r="M9">
-        <v>4.06905948572097</v>
+        <v>4.28006974217898</v>
       </c>
       <c r="N9">
-        <v>2.21973786289144</v>
+        <v>2.77183899904775</v>
       </c>
       <c r="O9">
-        <v>302.656609666176</v>
+        <v>345.433623745376</v>
       </c>
       <c r="P9">
-        <v>4.08064788303617</v>
+        <v>5.57531755055681</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5567.33375922693</v>
+        <v>4168.15147920627</v>
       </c>
       <c r="C10">
-        <v>59.018458401186</v>
+        <v>78.175335551007</v>
       </c>
       <c r="D10">
-        <v>9.40709182485919</v>
+        <v>11.6757994394139</v>
       </c>
       <c r="E10">
-        <v>37.5059804701954</v>
+        <v>50.032093264231</v>
       </c>
       <c r="F10">
-        <v>5.71267913599933</v>
+        <v>8.02999927009469</v>
       </c>
       <c r="G10">
-        <v>25.1303218213558</v>
+        <v>37.4918390376783</v>
       </c>
       <c r="H10">
-        <v>14.2962864767421</v>
+        <v>15.4414849551862</v>
       </c>
       <c r="I10">
-        <v>24.32551867749</v>
+        <v>24.3398307547127</v>
       </c>
       <c r="J10">
-        <v>46.6208568254196</v>
+        <v>61.0356719237058</v>
       </c>
       <c r="K10">
-        <v>6.41659066372911</v>
+        <v>7.24605860116116</v>
       </c>
       <c r="L10">
-        <v>56.3413214079072</v>
+        <v>69.5591286883696</v>
       </c>
       <c r="M10">
-        <v>63.6597832133268</v>
+        <v>74.64069653561771</v>
       </c>
       <c r="N10">
-        <v>73.61774309673901</v>
+        <v>93.4299989399622</v>
       </c>
       <c r="O10">
-        <v>6392.83105808147</v>
+        <v>7630.30347493603</v>
       </c>
       <c r="P10">
-        <v>58.2235167452157</v>
+        <v>59.3880354173586</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2363.22368632713</v>
+        <v>1953.98194438698</v>
       </c>
       <c r="C11">
-        <v>69.88552150796259</v>
+        <v>84.3397661297186</v>
       </c>
       <c r="D11">
-        <v>104.450879370815</v>
+        <v>113.355978460799</v>
       </c>
       <c r="E11">
-        <v>64.3196630398983</v>
+        <v>74.693544248873</v>
       </c>
       <c r="F11">
-        <v>7.31886342276792</v>
+        <v>7.78896310919282</v>
       </c>
       <c r="G11">
-        <v>18.9628441936686</v>
+        <v>18.556132771112</v>
       </c>
       <c r="H11">
-        <v>16.0391090934318</v>
+        <v>19.5887089659362</v>
       </c>
       <c r="I11">
-        <v>12.7950891061509</v>
+        <v>15.5378788649669</v>
       </c>
       <c r="J11">
-        <v>39.0599864884665</v>
+        <v>38.6405965226717</v>
       </c>
       <c r="K11">
-        <v>6.9179150477006</v>
+        <v>8.64511431441357</v>
       </c>
       <c r="L11">
-        <v>36.7785368485458</v>
+        <v>45.1586215619032</v>
       </c>
       <c r="M11">
-        <v>37.5900289091007</v>
+        <v>40.352727900607</v>
       </c>
       <c r="N11">
-        <v>62.0080936712236</v>
+        <v>67.2587637415122</v>
       </c>
       <c r="O11">
-        <v>2964.27108598806</v>
+        <v>3354.39502285202</v>
       </c>
       <c r="P11">
-        <v>44.7454196358827</v>
+        <v>46.2690804125714</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>331.381028482271</v>
+        <v>232.118998839252</v>
       </c>
       <c r="C12">
-        <v>5.03349477128789</v>
+        <v>5.8097811433292</v>
       </c>
       <c r="D12">
-        <v>0.307635542537037</v>
+        <v>0.449491095114181</v>
       </c>
       <c r="E12">
-        <v>1.67139054786327</v>
+        <v>2.29495484324808</v>
       </c>
       <c r="F12">
-        <v>0.51037925565369</v>
+        <v>0.7983811261066</v>
       </c>
       <c r="G12">
-        <v>0.408409772313546</v>
+        <v>0.284941293065017</v>
       </c>
       <c r="H12">
-        <v>0.130970501245116</v>
+        <v>0.178572431272553</v>
       </c>
       <c r="I12">
-        <v>0.777706520657105</v>
+        <v>0.889964929931011</v>
       </c>
       <c r="J12">
-        <v>1.16997384577638</v>
+        <v>1.45829622883501</v>
       </c>
       <c r="K12">
-        <v>0.132534656843513</v>
+        <v>0.0052676256958157</v>
       </c>
       <c r="L12">
-        <v>0.32362852045898</v>
+        <v>0.224515307119513</v>
       </c>
       <c r="M12">
-        <v>2.7472687075364</v>
+        <v>3.47363485540982</v>
       </c>
       <c r="N12">
-        <v>3.0599867977074</v>
+        <v>4.44988554571311</v>
       </c>
       <c r="O12">
-        <v>462.144348306598</v>
+        <v>547.164067784615</v>
       </c>
       <c r="P12">
-        <v>13.3796009894527</v>
+        <v>17.4833949100083</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>343.488442415344</v>
+        <v>245.492042420468</v>
       </c>
       <c r="C13">
-        <v>16.1361806032513</v>
+        <v>17.1702497938207</v>
       </c>
       <c r="D13">
-        <v>0.316325357349563</v>
+        <v>0.455193792191635</v>
       </c>
       <c r="E13">
-        <v>8.643276350535849</v>
+        <v>10.0848285907895</v>
       </c>
       <c r="F13">
-        <v>3.44506188852067</v>
+        <v>2.98840977716044</v>
       </c>
       <c r="G13">
-        <v>6.19520635341796</v>
+        <v>6.00322019758848</v>
       </c>
       <c r="H13">
-        <v>0.8562540337390761</v>
+        <v>1.1354426850896</v>
       </c>
       <c r="I13">
-        <v>1.86728334072565</v>
+        <v>2.29938953043731</v>
       </c>
       <c r="J13">
-        <v>4.18801920703039</v>
+        <v>5.75084033495893</v>
       </c>
       <c r="K13">
-        <v>2.18064993021362</v>
+        <v>2.86034561808042</v>
       </c>
       <c r="L13">
-        <v>15.9449200800624</v>
+        <v>18.4939873555353</v>
       </c>
       <c r="M13">
-        <v>1.48096974350118</v>
+        <v>1.3306305866821</v>
       </c>
       <c r="N13">
-        <v>3.78625407919463</v>
+        <v>4.35889487483071</v>
       </c>
       <c r="O13">
-        <v>486.430168109139</v>
+        <v>553.519799515994</v>
       </c>
       <c r="P13">
-        <v>37.1739254293939</v>
+        <v>41.4607374014773</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3409.20161963753</v>
+        <v>2622.25223462844</v>
       </c>
       <c r="C14">
-        <v>117.410830448277</v>
+        <v>128.875527796857</v>
       </c>
       <c r="D14">
-        <v>10.5586152423018</v>
+        <v>11.4293947551802</v>
       </c>
       <c r="E14">
-        <v>75.32277284617351</v>
+        <v>91.9403301784012</v>
       </c>
       <c r="F14">
-        <v>16.9297394727951</v>
+        <v>20.8783364386594</v>
       </c>
       <c r="G14">
-        <v>61.0180375207468</v>
+        <v>74.0340246333552</v>
       </c>
       <c r="H14">
-        <v>38.5703820089437</v>
+        <v>38.837428538823</v>
       </c>
       <c r="I14">
-        <v>23.4633006820458</v>
+        <v>25.7537076744181</v>
       </c>
       <c r="J14">
-        <v>108.526918708846</v>
+        <v>132.37545254712</v>
       </c>
       <c r="K14">
-        <v>72.92201879808189</v>
+        <v>92.6493242920882</v>
       </c>
       <c r="L14">
-        <v>72.86320621538781</v>
+        <v>92.164358779319</v>
       </c>
       <c r="M14">
-        <v>66.6859347097416</v>
+        <v>72.46037007848869</v>
       </c>
       <c r="N14">
-        <v>64.8088837737385</v>
+        <v>78.2848193497135</v>
       </c>
       <c r="O14">
-        <v>4263.13013396947</v>
+        <v>4921.52018574117</v>
       </c>
       <c r="P14">
-        <v>57.5678603629909</v>
+        <v>60.1634471861769</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1624.99512347569</v>
+        <v>1267.41753002358</v>
       </c>
       <c r="C15">
-        <v>42.409864528425</v>
+        <v>51.3789238791841</v>
       </c>
       <c r="D15">
-        <v>5.96377291326285</v>
+        <v>7.41524437423796</v>
       </c>
       <c r="E15">
-        <v>61.7431788409644</v>
+        <v>73.04916620321001</v>
       </c>
       <c r="F15">
-        <v>18.5960569660533</v>
+        <v>25.4947216746545</v>
       </c>
       <c r="G15">
-        <v>47.2715679962765</v>
+        <v>53.1915962711693</v>
       </c>
       <c r="H15">
-        <v>33.5809914379107</v>
+        <v>37.01569545734</v>
       </c>
       <c r="I15">
-        <v>16.4277043113536</v>
+        <v>20.0284060246774</v>
       </c>
       <c r="J15">
-        <v>118.298797968068</v>
+        <v>138.924348150481</v>
       </c>
       <c r="K15">
-        <v>25.4580591176755</v>
+        <v>27.6814990950142</v>
       </c>
       <c r="L15">
-        <v>32.3678118706965</v>
+        <v>40.5206978217574</v>
       </c>
       <c r="M15">
-        <v>141.662751525401</v>
+        <v>161.621665375008</v>
       </c>
       <c r="N15">
-        <v>80.3557712233391</v>
+        <v>90.436173396078</v>
       </c>
       <c r="O15">
-        <v>1975.35730500255</v>
+        <v>2225.04325392665</v>
       </c>
       <c r="P15">
-        <v>38.3296248917425</v>
+        <v>47.8462769402008</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>672.622391019709</v>
+        <v>468.144957637161</v>
       </c>
       <c r="C16">
-        <v>57.2001903415567</v>
+        <v>68.2581747067885</v>
       </c>
       <c r="D16">
-        <v>3.92305731998895</v>
+        <v>3.49484099557163</v>
       </c>
       <c r="E16">
-        <v>23.9796544084205</v>
+        <v>27.1152479481267</v>
       </c>
       <c r="F16">
-        <v>1.98652216147999</v>
+        <v>1.95718426734</v>
       </c>
       <c r="G16">
-        <v>14.1200511675623</v>
+        <v>17.7305107464562</v>
       </c>
       <c r="H16">
-        <v>12.2001589519665</v>
+        <v>12.9894396092999</v>
       </c>
       <c r="I16">
-        <v>5.12177443525161</v>
+        <v>4.66300998769651</v>
       </c>
       <c r="J16">
-        <v>38.8691805757653</v>
+        <v>43.8592078503198</v>
       </c>
       <c r="K16">
-        <v>36.7543036970416</v>
+        <v>43.3863486137397</v>
       </c>
       <c r="L16">
-        <v>15.9934973198834</v>
+        <v>17.4547160682195</v>
       </c>
       <c r="M16">
-        <v>21.3274228260315</v>
+        <v>22.8283962385205</v>
       </c>
       <c r="N16">
-        <v>28.2828181216041</v>
+        <v>32.741868437732</v>
       </c>
       <c r="O16">
-        <v>1043.86979189085</v>
+        <v>1199.70823010768</v>
       </c>
       <c r="P16">
-        <v>69.364844720151</v>
+        <v>81.6953952021634</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>634.675338365074</v>
+        <v>475.768367910549</v>
       </c>
       <c r="C17">
-        <v>20.3266453979662</v>
+        <v>20.9168099725301</v>
       </c>
       <c r="D17">
-        <v>3.23559173637779</v>
+        <v>2.12626691089331</v>
       </c>
       <c r="E17">
-        <v>20.3519868667525</v>
+        <v>25.1818762958635</v>
       </c>
       <c r="F17">
-        <v>11.0698571187522</v>
+        <v>12.8853755595465</v>
       </c>
       <c r="G17">
-        <v>7.93071261433776</v>
+        <v>9.58826117234843</v>
       </c>
       <c r="H17">
-        <v>8.522858336493</v>
+        <v>11.3853116352027</v>
       </c>
       <c r="I17">
-        <v>5.57529157856468</v>
+        <v>5.5594514395731</v>
       </c>
       <c r="J17">
-        <v>17.4664106969027</v>
+        <v>20.0329403371766</v>
       </c>
       <c r="K17">
-        <v>6.74794233526322</v>
+        <v>8.435582152287781</v>
       </c>
       <c r="L17">
-        <v>9.883350399923289</v>
+        <v>12.5166515485321</v>
       </c>
       <c r="M17">
-        <v>58.0751954870449</v>
+        <v>69.5313637396597</v>
       </c>
       <c r="N17">
-        <v>9.084794509183739</v>
+        <v>10.6152835883839</v>
       </c>
       <c r="O17">
-        <v>977.542362924767</v>
+        <v>1087.8312579602</v>
       </c>
       <c r="P17">
-        <v>44.7853282963083</v>
+        <v>38.5706725147343</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1268.76967372807</v>
+        <v>1074.26526476807</v>
       </c>
       <c r="C18">
-        <v>22.731777992142</v>
+        <v>29.3670493739595</v>
       </c>
       <c r="D18">
-        <v>4.17032145734009</v>
+        <v>5.83286693970225</v>
       </c>
       <c r="E18">
-        <v>32.460741849555</v>
+        <v>39.9458967299747</v>
       </c>
       <c r="F18">
-        <v>33.5521347604337</v>
+        <v>38.9094550952945</v>
       </c>
       <c r="G18">
-        <v>18.5707367797578</v>
+        <v>18.4404561362654</v>
       </c>
       <c r="H18">
-        <v>12.0077609004324</v>
+        <v>13.4483298886053</v>
       </c>
       <c r="I18">
-        <v>5.5156356633355</v>
+        <v>4.40357345819361</v>
       </c>
       <c r="J18">
-        <v>21.2339477320704</v>
+        <v>25.557758535197</v>
       </c>
       <c r="K18">
-        <v>9.62625669572601</v>
+        <v>10.0642045207815</v>
       </c>
       <c r="L18">
-        <v>23.0916119518</v>
+        <v>30.1302208438737</v>
       </c>
       <c r="M18">
-        <v>57.379139685414</v>
+        <v>60.9515796039667</v>
       </c>
       <c r="N18">
-        <v>19.1473290127464</v>
+        <v>21.7845192878877</v>
       </c>
       <c r="O18">
-        <v>1334.11161968827</v>
+        <v>1502.87596640479</v>
       </c>
       <c r="P18">
-        <v>47.9440887720779</v>
+        <v>55.8418673734865</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1329.34119063388</v>
+        <v>1119.35273306122</v>
       </c>
       <c r="C19">
-        <v>31.0606261095809</v>
+        <v>38.3832441493483</v>
       </c>
       <c r="D19">
-        <v>2.73426283242113</v>
+        <v>2.83137611616178</v>
       </c>
       <c r="E19">
-        <v>31.0793298327691</v>
+        <v>32.9814159381699</v>
       </c>
       <c r="F19">
-        <v>72.0488366774031</v>
+        <v>86.666259040418</v>
       </c>
       <c r="G19">
-        <v>33.1617520611705</v>
+        <v>38.9034408121755</v>
       </c>
       <c r="H19">
-        <v>7.46593876399989</v>
+        <v>8.24568442089897</v>
       </c>
       <c r="I19">
-        <v>4.58948977015011</v>
+        <v>6.66585985741029</v>
       </c>
       <c r="J19">
-        <v>22.6413972207533</v>
+        <v>18.9290145962204</v>
       </c>
       <c r="K19">
-        <v>6.18147290579421</v>
+        <v>7.58550505459918</v>
       </c>
       <c r="L19">
-        <v>1.39012110504089</v>
+        <v>2.14595978843621</v>
       </c>
       <c r="M19">
-        <v>18.3281864241217</v>
+        <v>23.1355835967834</v>
       </c>
       <c r="N19">
-        <v>10.905961988386</v>
+        <v>12.8110415446948</v>
       </c>
       <c r="O19">
-        <v>1338.31054713209</v>
+        <v>1508.73946595688</v>
       </c>
       <c r="P19">
-        <v>32.8302197399007</v>
+        <v>43.612531200641</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>366.05066899558</v>
+        <v>279.764054550502</v>
       </c>
       <c r="C20">
-        <v>7.69920177461791</v>
+        <v>9.075175339554789</v>
       </c>
       <c r="D20">
-        <v>5.17903919072964</v>
+        <v>5.90546087711509</v>
       </c>
       <c r="E20">
-        <v>26.7550794052822</v>
+        <v>29.9305122108116</v>
       </c>
       <c r="F20">
-        <v>0.882760473940305</v>
+        <v>0.970297188996724</v>
       </c>
       <c r="G20">
-        <v>2.53098280299534</v>
+        <v>3.16865502951792</v>
       </c>
       <c r="H20">
-        <v>0.808336863407587</v>
+        <v>0.843269972143523</v>
       </c>
       <c r="I20">
-        <v>1.91501996110229</v>
+        <v>2.63421821669401</v>
       </c>
       <c r="J20">
-        <v>4.39554293463703</v>
+        <v>4.09945280520784</v>
       </c>
       <c r="K20">
-        <v>0.808840350266634</v>
+        <v>0.914123561457313</v>
       </c>
       <c r="L20">
-        <v>5.55481899182616</v>
+        <v>7.19554823097808</v>
       </c>
       <c r="M20">
-        <v>14.8144055134031</v>
+        <v>21.0366653250118</v>
       </c>
       <c r="N20">
-        <v>4.79641042339039</v>
+        <v>5.82319281760024</v>
       </c>
       <c r="O20">
-        <v>482.089052806845</v>
+        <v>557.094996324646</v>
       </c>
       <c r="P20">
-        <v>14.7860560656465</v>
+        <v>17.6182053632159</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1447.7171508504</v>
+        <v>1053.17342059794</v>
       </c>
       <c r="C21">
-        <v>15.5158783588275</v>
+        <v>18.8215134522744</v>
       </c>
       <c r="D21">
-        <v>1.04862670197253</v>
+        <v>1.02159184620063</v>
       </c>
       <c r="E21">
-        <v>17.9882555884993</v>
+        <v>19.1405941950568</v>
       </c>
       <c r="F21">
-        <v>2.47757595286381</v>
+        <v>3.10532075006454</v>
       </c>
       <c r="G21">
-        <v>14.351458844801</v>
+        <v>19.2659075711747</v>
       </c>
       <c r="H21">
-        <v>3.65990175380597</v>
+        <v>4.09807867267835</v>
       </c>
       <c r="I21">
-        <v>9.4162781621107</v>
+        <v>12.7552815828677</v>
       </c>
       <c r="J21">
-        <v>20.2536049565146</v>
+        <v>22.7701647364527</v>
       </c>
       <c r="K21">
-        <v>1.32670117168742</v>
+        <v>1.67762593735717</v>
       </c>
       <c r="L21">
-        <v>22.1728473500283</v>
+        <v>28.848946649169</v>
       </c>
       <c r="M21">
-        <v>16.4192579980345</v>
+        <v>21.0343428168707</v>
       </c>
       <c r="N21">
-        <v>11.2614737790831</v>
+        <v>13.5893112645457</v>
       </c>
       <c r="O21">
-        <v>2029.28272932662</v>
+        <v>2354.67421878635</v>
       </c>
       <c r="P21">
-        <v>17.6678731462025</v>
+        <v>20.2981347983941</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1680.44417046522</v>
+        <v>1233.08293447799</v>
       </c>
       <c r="C22">
-        <v>18.4855513801765</v>
+        <v>25.0344636159724</v>
       </c>
       <c r="D22">
-        <v>8.45547488148927</v>
+        <v>12.9872127044067</v>
       </c>
       <c r="E22">
-        <v>34.508127778751</v>
+        <v>43.701647338772</v>
       </c>
       <c r="F22">
-        <v>2.27257393860164</v>
+        <v>2.53629384854512</v>
       </c>
       <c r="G22">
-        <v>23.2526953008328</v>
+        <v>29.5034605573299</v>
       </c>
       <c r="H22">
-        <v>12.2508844744394</v>
+        <v>15.0459537723019</v>
       </c>
       <c r="I22">
-        <v>8.140298579491221</v>
+        <v>9.29341961996378</v>
       </c>
       <c r="J22">
-        <v>32.1450667470029</v>
+        <v>34.2243283059308</v>
       </c>
       <c r="K22">
-        <v>4.83919039148825</v>
+        <v>6.27829543300965</v>
       </c>
       <c r="L22">
-        <v>80.3586918078548</v>
+        <v>104.018260542091</v>
       </c>
       <c r="M22">
-        <v>14.1428006742285</v>
+        <v>17.1728314118507</v>
       </c>
       <c r="N22">
-        <v>44.8312115667887</v>
+        <v>56.3366078958958</v>
       </c>
       <c r="O22">
-        <v>2380.04741098229</v>
+        <v>2740.00631574782</v>
       </c>
       <c r="P22">
-        <v>10.1729389662517</v>
+        <v>11.1341473353092</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2855.75033455681</v>
+        <v>2373.79634512333</v>
       </c>
       <c r="C23">
-        <v>27.308390111583</v>
+        <v>32.4766631095875</v>
       </c>
       <c r="D23">
-        <v>6.59095239961942</v>
+        <v>6.33969578576414</v>
       </c>
       <c r="E23">
-        <v>37.5388466270345</v>
+        <v>44.8337531570569</v>
       </c>
       <c r="F23">
-        <v>5.40038392221006</v>
+        <v>8.554975105902811</v>
       </c>
       <c r="G23">
-        <v>47.6567464202792</v>
+        <v>51.1381785688948</v>
       </c>
       <c r="H23">
-        <v>44.6805844940656</v>
+        <v>53.139193723621</v>
       </c>
       <c r="I23">
-        <v>13.8045400450786</v>
+        <v>16.8504045341009</v>
       </c>
       <c r="J23">
-        <v>100.077240570377</v>
+        <v>116.121654441364</v>
       </c>
       <c r="K23">
-        <v>60.9245012865349</v>
+        <v>70.6948080575674</v>
       </c>
       <c r="L23">
-        <v>31.4420260603826</v>
+        <v>34.891079938995</v>
       </c>
       <c r="M23">
-        <v>447.481652804253</v>
+        <v>547.696270124707</v>
       </c>
       <c r="N23">
-        <v>71.02258343107221</v>
+        <v>83.5368543584987</v>
       </c>
       <c r="O23">
-        <v>3095.53023052781</v>
+        <v>3420.93691314511</v>
       </c>
       <c r="P23">
-        <v>41.4540436015161</v>
+        <v>45.6697991896684</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1108.82137815533</v>
+        <v>813.171158100138</v>
       </c>
       <c r="C24">
-        <v>41.5966213171795</v>
+        <v>45.4480894510775</v>
       </c>
       <c r="D24">
-        <v>5.55708455321026</v>
+        <v>5.96638524464397</v>
       </c>
       <c r="E24">
-        <v>49.9520225645333</v>
+        <v>57.5092768157294</v>
       </c>
       <c r="F24">
-        <v>7.93188170769902</v>
+        <v>9.907964687944281</v>
       </c>
       <c r="G24">
-        <v>22.9403824652866</v>
+        <v>27.3145273738503</v>
       </c>
       <c r="H24">
-        <v>17.6288144553988</v>
+        <v>21.4169909263842</v>
       </c>
       <c r="I24">
-        <v>11.7053557277632</v>
+        <v>14.3317909007712</v>
       </c>
       <c r="J24">
-        <v>43.8898971798551</v>
+        <v>52.9824192184187</v>
       </c>
       <c r="K24">
-        <v>17.6363410169302</v>
+        <v>20.2857452042578</v>
       </c>
       <c r="L24">
-        <v>63.7325061624933</v>
+        <v>72.73988856159239</v>
       </c>
       <c r="M24">
-        <v>16.9194285975509</v>
+        <v>20.4866896573237</v>
       </c>
       <c r="N24">
-        <v>61.4880812565226</v>
+        <v>76.3578178633652</v>
       </c>
       <c r="O24">
-        <v>1902.37674298191</v>
+        <v>2123.02056639817</v>
       </c>
       <c r="P24">
-        <v>76.7987044645769</v>
+        <v>77.53168037030581</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>920.192574723864</v>
+        <v>779.90157499421</v>
       </c>
       <c r="C25">
-        <v>32.0252871303951</v>
+        <v>42.3468245666561</v>
       </c>
       <c r="D25">
-        <v>10.9168437598956</v>
+        <v>12.9541185996033</v>
       </c>
       <c r="E25">
-        <v>41.4854633549826</v>
+        <v>49.7590388678241</v>
       </c>
       <c r="F25">
-        <v>16.1519392197214</v>
+        <v>14.9368179433603</v>
       </c>
       <c r="G25">
-        <v>10.949066325752</v>
+        <v>15.0465867695753</v>
       </c>
       <c r="H25">
-        <v>7.57460335685247</v>
+        <v>8.2314094062683</v>
       </c>
       <c r="I25">
-        <v>4.99715164425217</v>
+        <v>5.31143932513043</v>
       </c>
       <c r="J25">
-        <v>7.87335307414618</v>
+        <v>9.527813062635669</v>
       </c>
       <c r="K25">
-        <v>4.04718063064994</v>
+        <v>5.77065881285534</v>
       </c>
       <c r="L25">
-        <v>9.901821202475359</v>
+        <v>10.8379308724014</v>
       </c>
       <c r="M25">
-        <v>34.8858514378957</v>
+        <v>41.0534634761133</v>
       </c>
       <c r="N25">
-        <v>38.9708395315094</v>
+        <v>33.8875080188888</v>
       </c>
       <c r="O25">
-        <v>749.0081922906591</v>
+        <v>855.140764806208</v>
       </c>
       <c r="P25">
-        <v>36.6611427129307</v>
+        <v>45.4713246161325</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1489.20347105929</v>
+        <v>1141.98836480248</v>
       </c>
       <c r="C26">
-        <v>43.8761413245483</v>
+        <v>51.786259539547</v>
       </c>
       <c r="D26">
-        <v>3.25746482291306</v>
+        <v>2.68222433385185</v>
       </c>
       <c r="E26">
-        <v>43.1478104155036</v>
+        <v>44.6679738210031</v>
       </c>
       <c r="F26">
-        <v>9.67933274303206</v>
+        <v>10.4051856165662</v>
       </c>
       <c r="G26">
-        <v>23.2862715377016</v>
+        <v>30.451015369678</v>
       </c>
       <c r="H26">
-        <v>13.8420020603897</v>
+        <v>14.6201789250343</v>
       </c>
       <c r="I26">
-        <v>14.7745333053568</v>
+        <v>16.8644122479482</v>
       </c>
       <c r="J26">
-        <v>32.2412770619725</v>
+        <v>36.4255421695551</v>
       </c>
       <c r="K26">
-        <v>13.8068266830518</v>
+        <v>11.7388813260721</v>
       </c>
       <c r="L26">
-        <v>25.7974338303696</v>
+        <v>28.0638431855778</v>
       </c>
       <c r="M26">
-        <v>57.8577747634602</v>
+        <v>64.18544608015711</v>
       </c>
       <c r="N26">
-        <v>25.1797313632487</v>
+        <v>24.7117481119231</v>
       </c>
       <c r="O26">
-        <v>2094.06995668296</v>
+        <v>2387.23733282754</v>
       </c>
       <c r="P26">
-        <v>48.1750215449543</v>
+        <v>49.0559341347165</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>249.336062104327</v>
+        <v>187.550632051086</v>
       </c>
       <c r="C27">
-        <v>2.24970882123093</v>
+        <v>2.03913552432421</v>
       </c>
       <c r="D27">
-        <v>1.25277613355365</v>
+        <v>2.1722350249642</v>
       </c>
       <c r="E27">
-        <v>8.62342501252733</v>
+        <v>9.74401407833528</v>
       </c>
       <c r="F27">
-        <v>4.74360966755469</v>
+        <v>5.55719599318807</v>
       </c>
       <c r="G27">
-        <v>0.5220006513423791</v>
+        <v>0.740777497680276</v>
       </c>
       <c r="H27">
-        <v>0.136836820461855</v>
+        <v>0.194720273904482</v>
       </c>
       <c r="I27">
-        <v>1.87657530960591</v>
+        <v>2.4850762635946</v>
       </c>
       <c r="J27">
-        <v>2.80299749984738</v>
+        <v>3.7628726128254</v>
       </c>
       <c r="K27">
-        <v>0.249439110144741</v>
+        <v>0.334291417269556</v>
       </c>
       <c r="L27">
-        <v>1.63769473402488</v>
+        <v>2.11435758464095</v>
       </c>
       <c r="M27">
-        <v>0.382126837671714</v>
+        <v>0.526316231741772</v>
       </c>
       <c r="N27">
-        <v>3.15374950106213</v>
+        <v>3.38993054876018</v>
       </c>
       <c r="O27">
-        <v>331.938490511004</v>
+        <v>386.844183233946</v>
       </c>
       <c r="P27">
-        <v>37.4301991104999</v>
+        <v>40.2425187393162</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>383.852044594505</v>
+        <v>253.428037335302</v>
       </c>
       <c r="C28">
-        <v>27.6068470616336</v>
+        <v>32.7393043571472</v>
       </c>
       <c r="D28">
-        <v>1.37144507405534</v>
+        <v>1.30256601922554</v>
       </c>
       <c r="E28">
-        <v>5.39196711648137</v>
+        <v>6.43929749337762</v>
       </c>
       <c r="F28">
-        <v>0.789071447355846</v>
+        <v>0.612851743176596</v>
       </c>
       <c r="G28">
-        <v>3.66759085140725</v>
+        <v>4.86154336227721</v>
       </c>
       <c r="H28">
-        <v>7.16057492371003</v>
+        <v>6.98339148416677</v>
       </c>
       <c r="I28">
-        <v>3.40996349538454</v>
+        <v>3.95886258564028</v>
       </c>
       <c r="J28">
-        <v>18.2529191701459</v>
+        <v>19.0181185330004</v>
       </c>
       <c r="K28">
-        <v>8.020349297001109</v>
+        <v>10.0532465505657</v>
       </c>
       <c r="L28">
-        <v>11.3329202273539</v>
+        <v>13.1919922750279</v>
       </c>
       <c r="M28">
-        <v>8.55585828199947</v>
+        <v>10.7519656301693</v>
       </c>
       <c r="N28">
-        <v>8.063071212686079</v>
+        <v>10.742628524344</v>
       </c>
       <c r="O28">
-        <v>637.709705692065</v>
+        <v>742.267428593674</v>
       </c>
       <c r="P28">
-        <v>69.63217877983151</v>
+        <v>61.5525758073527</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>571.495735191917</v>
+        <v>436.262390201203</v>
       </c>
       <c r="C29">
-        <v>4.70722861356231</v>
+        <v>5.02283307233039</v>
       </c>
       <c r="D29">
-        <v>1.56466208853705</v>
+        <v>2.19868925546029</v>
       </c>
       <c r="E29">
-        <v>3.90037090895272</v>
+        <v>4.88310258673247</v>
       </c>
       <c r="F29">
-        <v>22.4378554040699</v>
+        <v>22.0054277157744</v>
       </c>
       <c r="G29">
-        <v>3.97701043361944</v>
+        <v>5.29293949835223</v>
       </c>
       <c r="H29">
-        <v>0.684218102322267</v>
+        <v>0.945691394079763</v>
       </c>
       <c r="I29">
-        <v>1.14455278289986</v>
+        <v>1.2969274585442</v>
       </c>
       <c r="J29">
-        <v>2.83484718679198</v>
+        <v>2.93805649369912</v>
       </c>
       <c r="K29">
-        <v>1.23402421044748</v>
+        <v>0.904494414467737</v>
       </c>
       <c r="L29">
-        <v>2.1933086773033</v>
+        <v>2.60530225023356</v>
       </c>
       <c r="M29">
-        <v>3.13975852107961</v>
+        <v>3.53226529429663</v>
       </c>
       <c r="N29">
-        <v>8.76700040271284</v>
+        <v>10.0683642541803</v>
       </c>
       <c r="O29">
-        <v>917.69321265306</v>
+        <v>1075.25555482124</v>
       </c>
       <c r="P29">
-        <v>2.94658908310625</v>
+        <v>3.74526269336473</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>277.896756429605</v>
+        <v>202.975049524485</v>
       </c>
       <c r="C30">
-        <v>3.61676578051147</v>
+        <v>4.30193013081788</v>
       </c>
       <c r="D30">
-        <v>2.78539319855311</v>
+        <v>3.45805130224134</v>
       </c>
       <c r="E30">
-        <v>10.6746785278999</v>
+        <v>11.4671738161217</v>
       </c>
       <c r="F30">
-        <v>0.140753040384069</v>
+        <v>0.202299718917887</v>
       </c>
       <c r="G30">
-        <v>4.53591168173487</v>
+        <v>5.22347093630219</v>
       </c>
       <c r="H30">
-        <v>3.47513907080151</v>
+        <v>3.92100613230891</v>
       </c>
       <c r="I30">
-        <v>1.76011417291521</v>
+        <v>2.05363848107548</v>
       </c>
       <c r="J30">
-        <v>14.9375929497452</v>
+        <v>18.0519313360269</v>
       </c>
       <c r="K30">
-        <v>4.13578669359605</v>
+        <v>5.16249230687208</v>
       </c>
       <c r="L30">
-        <v>34.0597795519581</v>
+        <v>41.4840501950696</v>
       </c>
       <c r="M30">
-        <v>7.52363935085679</v>
+        <v>9.68790854544171</v>
       </c>
       <c r="N30">
-        <v>12.0301935426371</v>
+        <v>15.5700629897577</v>
       </c>
       <c r="O30">
-        <v>478.455073115043</v>
+        <v>524.4747672295951</v>
       </c>
       <c r="P30">
-        <v>4.61198486520948</v>
+        <v>5.2926128483008</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2346.99106763651</v>
+        <v>1727.28047896024</v>
       </c>
       <c r="C31">
-        <v>47.8436022304208</v>
+        <v>60.8176942886639</v>
       </c>
       <c r="D31">
-        <v>8.45399844834663</v>
+        <v>8.747993581817751</v>
       </c>
       <c r="E31">
-        <v>35.4145262750241</v>
+        <v>39.771168490188</v>
       </c>
       <c r="F31">
-        <v>3.54038487517643</v>
+        <v>1.03059130920541</v>
       </c>
       <c r="G31">
-        <v>83.6177157838352</v>
+        <v>100.58926293984</v>
       </c>
       <c r="H31">
-        <v>5.40681921183793</v>
+        <v>6.5057251644449</v>
       </c>
       <c r="I31">
-        <v>12.1489468428414</v>
+        <v>13.4970553225811</v>
       </c>
       <c r="J31">
-        <v>23.2619070557358</v>
+        <v>30.5813998211936</v>
       </c>
       <c r="K31">
-        <v>4.43095726958052</v>
+        <v>5.87544747200057</v>
       </c>
       <c r="L31">
-        <v>44.1388719031364</v>
+        <v>60.2014628760586</v>
       </c>
       <c r="M31">
-        <v>16.3079935326197</v>
+        <v>20.7103245137565</v>
       </c>
       <c r="N31">
-        <v>49.1164686995939</v>
+        <v>55.6542120212557</v>
       </c>
       <c r="O31">
-        <v>3079.16464631608</v>
+        <v>3627.71929792097</v>
       </c>
       <c r="P31">
-        <v>15.057084917368</v>
+        <v>20.2317289057776</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>566.369100168743</v>
+        <v>459.061216984057</v>
       </c>
       <c r="C32">
-        <v>2.74079361093984</v>
+        <v>2.93356902687367</v>
       </c>
       <c r="D32">
-        <v>0.760942536880467</v>
+        <v>1.30878785468657</v>
       </c>
       <c r="E32">
-        <v>2.77783780868757</v>
+        <v>3.84770087810301</v>
       </c>
       <c r="F32">
-        <v>19.8153024111156</v>
+        <v>25.342208400767</v>
       </c>
       <c r="G32">
-        <v>2.06391641810389</v>
+        <v>2.73217840008498</v>
       </c>
       <c r="H32">
-        <v>0.661729912166892</v>
+        <v>0.343294013649588</v>
       </c>
       <c r="I32">
-        <v>1.56110835825683</v>
+        <v>1.72442989175655</v>
       </c>
       <c r="J32">
-        <v>3.19508810735329</v>
+        <v>4.53164234475627</v>
       </c>
       <c r="K32">
-        <v>1.86564342804091</v>
+        <v>2.6641405764105</v>
       </c>
       <c r="L32">
-        <v>6.5117896160868</v>
+        <v>7.84534802823692</v>
       </c>
       <c r="M32">
-        <v>3.76761599930206</v>
+        <v>5.26873853473006</v>
       </c>
       <c r="N32">
-        <v>9.09456414409143</v>
+        <v>12.3252374605149</v>
       </c>
       <c r="O32">
-        <v>636.133267766316</v>
+        <v>731.1279805794391</v>
       </c>
       <c r="P32">
-        <v>18.0701274840476</v>
+        <v>17.623077862682</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5728.2390697821</v>
+        <v>4484.10969368991</v>
       </c>
       <c r="C33">
-        <v>64.9586317408171</v>
+        <v>80.5655226259329</v>
       </c>
       <c r="D33">
-        <v>12.9133041867047</v>
+        <v>16.4256351152759</v>
       </c>
       <c r="E33">
-        <v>57.1087661775697</v>
+        <v>70.2363917423025</v>
       </c>
       <c r="F33">
-        <v>6.42313551140044</v>
+        <v>7.19593676018621</v>
       </c>
       <c r="G33">
-        <v>52.2480891033075</v>
+        <v>63.9856088972549</v>
       </c>
       <c r="H33">
-        <v>25.3480196254141</v>
+        <v>31.447396043848</v>
       </c>
       <c r="I33">
-        <v>17.6475872503503</v>
+        <v>23.4924360259857</v>
       </c>
       <c r="J33">
-        <v>72.0894994474755</v>
+        <v>93.9875114949111</v>
       </c>
       <c r="K33">
-        <v>50.3535663430645</v>
+        <v>57.985895021259</v>
       </c>
       <c r="L33">
-        <v>89.5106375804784</v>
+        <v>103.117708302955</v>
       </c>
       <c r="M33">
-        <v>43.7547722284646</v>
+        <v>52.9384004330668</v>
       </c>
       <c r="N33">
-        <v>115.753643731137</v>
+        <v>136.43183682265</v>
       </c>
       <c r="O33">
-        <v>6420.00422759354</v>
+        <v>7542.79785914593</v>
       </c>
       <c r="P33">
-        <v>72.64051983356031</v>
+        <v>56.9797732530442</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2389.12206288823</v>
+        <v>1926.80866513499</v>
       </c>
       <c r="C34">
-        <v>58.053838933672</v>
+        <v>72.7002774331194</v>
       </c>
       <c r="D34">
-        <v>73.15103154667911</v>
+        <v>93.46659841533931</v>
       </c>
       <c r="E34">
-        <v>43.4149194372097</v>
+        <v>52.8079995244228</v>
       </c>
       <c r="F34">
-        <v>2.16913715719174</v>
+        <v>2.51626474880785</v>
       </c>
       <c r="G34">
-        <v>35.8656268990577</v>
+        <v>44.5578691497308</v>
       </c>
       <c r="H34">
-        <v>35.2560427341302</v>
+        <v>45.3777860325213</v>
       </c>
       <c r="I34">
-        <v>9.719149180064299</v>
+        <v>12.6997576733286</v>
       </c>
       <c r="J34">
-        <v>42.7678338612631</v>
+        <v>47.3550501662741</v>
       </c>
       <c r="K34">
-        <v>6.52169735754274</v>
+        <v>8.217022516142119</v>
       </c>
       <c r="L34">
-        <v>88.2355810180312</v>
+        <v>107.177990744593</v>
       </c>
       <c r="M34">
-        <v>32.6627432643878</v>
+        <v>37.2761071133909</v>
       </c>
       <c r="N34">
-        <v>107.366701804984</v>
+        <v>130.661256132966</v>
       </c>
       <c r="O34">
-        <v>2859.58085006443</v>
+        <v>3220.93768857456</v>
       </c>
       <c r="P34">
-        <v>52.0432378822881</v>
+        <v>59.3446242882213</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>152.568618049898</v>
+        <v>99.8406912353334</v>
       </c>
       <c r="C35">
-        <v>5.99305881777715</v>
+        <v>6.73842976605609</v>
       </c>
       <c r="D35">
-        <v>0.326074063952712</v>
+        <v>0.24462227949684</v>
       </c>
       <c r="E35">
-        <v>2.1716081598063</v>
+        <v>2.60448936930551</v>
       </c>
       <c r="F35">
-        <v>2.88613494426279</v>
+        <v>3.43418625237462</v>
       </c>
       <c r="G35">
-        <v>0.629643100533382</v>
+        <v>0.911489635070573</v>
       </c>
       <c r="H35">
-        <v>0.50217598527847</v>
+        <v>0.567464590947137</v>
       </c>
       <c r="I35">
-        <v>0.897020940594278</v>
+        <v>1.05494900751167</v>
       </c>
       <c r="J35">
-        <v>2.42803678616178</v>
+        <v>2.94991376143595</v>
       </c>
       <c r="K35">
-        <v>3.54180830195532</v>
+        <v>4.47079562496268</v>
       </c>
       <c r="L35">
-        <v>2.57221316052614</v>
+        <v>2.71279659831499</v>
       </c>
       <c r="M35">
-        <v>2.4128664323265</v>
+        <v>2.83021421545224</v>
       </c>
       <c r="N35">
-        <v>3.38837903469215</v>
+        <v>3.98058712507229</v>
       </c>
       <c r="O35">
-        <v>233.66474382734</v>
+        <v>272.661451886599</v>
       </c>
       <c r="P35">
-        <v>35.545331444137</v>
+        <v>35.7232542256761</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3194.54039313726</v>
+        <v>2601.53244352743</v>
       </c>
       <c r="C36">
-        <v>55.7871936670014</v>
+        <v>64.95509511821859</v>
       </c>
       <c r="D36">
-        <v>8.35751562799094</v>
+        <v>8.64371874811533</v>
       </c>
       <c r="E36">
-        <v>110.414400942343</v>
+        <v>128.653637895193</v>
       </c>
       <c r="F36">
-        <v>26.3532512107157</v>
+        <v>32.8949875370815</v>
       </c>
       <c r="G36">
-        <v>71.566860466595</v>
+        <v>84.14422463445941</v>
       </c>
       <c r="H36">
-        <v>70.1829527988256</v>
+        <v>78.35087102124381</v>
       </c>
       <c r="I36">
-        <v>31.3067476451663</v>
+        <v>37.3745310894604</v>
       </c>
       <c r="J36">
-        <v>173.091583319184</v>
+        <v>210.594720794125</v>
       </c>
       <c r="K36">
-        <v>46.8257979301782</v>
+        <v>50.8574336915429</v>
       </c>
       <c r="L36">
-        <v>52.8291976509862</v>
+        <v>62.2473054152769</v>
       </c>
       <c r="M36">
-        <v>171.031417851369</v>
+        <v>191.752185670199</v>
       </c>
       <c r="N36">
-        <v>90.1856221597471</v>
+        <v>100.497727834361</v>
       </c>
       <c r="O36">
-        <v>3800.8703551585</v>
+        <v>4241.23846064913</v>
       </c>
       <c r="P36">
-        <v>44.5752979350109</v>
+        <v>53.8090322272629</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1042.56756337171</v>
+        <v>831.292526392184</v>
       </c>
       <c r="C37">
-        <v>15.4236110658517</v>
+        <v>20.7427708090809</v>
       </c>
       <c r="D37">
-        <v>1.98124893128803</v>
+        <v>2.09170578763764</v>
       </c>
       <c r="E37">
-        <v>20.0675550638812</v>
+        <v>22.0859816146728</v>
       </c>
       <c r="F37">
-        <v>33.3624632891329</v>
+        <v>34.2786622953432</v>
       </c>
       <c r="G37">
-        <v>5.5717038735746</v>
+        <v>6.12586888426639</v>
       </c>
       <c r="H37">
-        <v>21.1976843580412</v>
+        <v>25.9760461667815</v>
       </c>
       <c r="I37">
-        <v>8.81743160397337</v>
+        <v>9.58768848859865</v>
       </c>
       <c r="J37">
-        <v>33.2909738795762</v>
+        <v>39.1233723600672</v>
       </c>
       <c r="K37">
-        <v>6.65293503566056</v>
+        <v>9.071360654026471</v>
       </c>
       <c r="L37">
-        <v>17.0383677422807</v>
+        <v>21.6739367752546</v>
       </c>
       <c r="M37">
-        <v>27.4208111016477</v>
+        <v>36.9561358265563</v>
       </c>
       <c r="N37">
-        <v>23.3307617238054</v>
+        <v>26.6337903873274</v>
       </c>
       <c r="O37">
-        <v>1128.93353904377</v>
+        <v>1298.72493011727</v>
       </c>
       <c r="P37">
-        <v>41.8061571786177</v>
+        <v>44.5715680991613</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1047.56471494203</v>
+        <v>800.4311457872</v>
       </c>
       <c r="C38">
-        <v>23.6067861645485</v>
+        <v>24.761239913405</v>
       </c>
       <c r="D38">
-        <v>5.23277057480281</v>
+        <v>5.85810831126914</v>
       </c>
       <c r="E38">
-        <v>41.6443142412429</v>
+        <v>47.6971704589006</v>
       </c>
       <c r="F38">
-        <v>1.06338991437309</v>
+        <v>1.41014427400935</v>
       </c>
       <c r="G38">
-        <v>7.7105967804166</v>
+        <v>9.57131601126742</v>
       </c>
       <c r="H38">
-        <v>1.59541436543614</v>
+        <v>2.08010965842447</v>
       </c>
       <c r="I38">
-        <v>1.84237540632509</v>
+        <v>2.15279753367953</v>
       </c>
       <c r="J38">
-        <v>27.6320773544356</v>
+        <v>36.7874764930814</v>
       </c>
       <c r="K38">
-        <v>1.94081815934147</v>
+        <v>2.94787869316571</v>
       </c>
       <c r="L38">
-        <v>77.27696934442611</v>
+        <v>89.5026305361345</v>
       </c>
       <c r="M38">
-        <v>18.0379521575426</v>
+        <v>22.0972181913262</v>
       </c>
       <c r="N38">
-        <v>40.7861823149711</v>
+        <v>44.918198888887</v>
       </c>
       <c r="O38">
-        <v>1224.49613284722</v>
+        <v>1432.10348812846</v>
       </c>
       <c r="P38">
-        <v>43.2186238033318</v>
+        <v>57.169732963622</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3592.72925786034</v>
+        <v>2762.94422526962</v>
       </c>
       <c r="C39">
-        <v>82.513446448048</v>
+        <v>96.9791206841097</v>
       </c>
       <c r="D39">
-        <v>25.7992434449792</v>
+        <v>27.1919529609081</v>
       </c>
       <c r="E39">
-        <v>130.568193105523</v>
+        <v>142.553932181332</v>
       </c>
       <c r="F39">
-        <v>23.6964982473258</v>
+        <v>29.0461445431809</v>
       </c>
       <c r="G39">
-        <v>105.805148952628</v>
+        <v>128.88707362901</v>
       </c>
       <c r="H39">
-        <v>44.2934779733989</v>
+        <v>56.3796005863481</v>
       </c>
       <c r="I39">
-        <v>22.4837351845784</v>
+        <v>25.0204633861269</v>
       </c>
       <c r="J39">
-        <v>137.144055017318</v>
+        <v>162.076861002901</v>
       </c>
       <c r="K39">
-        <v>39.283673791086</v>
+        <v>47.1887983531178</v>
       </c>
       <c r="L39">
-        <v>87.21051262616351</v>
+        <v>112.526652476099</v>
       </c>
       <c r="M39">
-        <v>54.9249093828788</v>
+        <v>73.6185305737619</v>
       </c>
       <c r="N39">
-        <v>107.31697302115</v>
+        <v>126.855101973745</v>
       </c>
       <c r="O39">
-        <v>4252.18351976264</v>
+        <v>4893.4016074104</v>
       </c>
       <c r="P39">
-        <v>62.8016636906208</v>
+        <v>62.64729675605</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>281.545494079933</v>
+        <v>214.42576562503</v>
       </c>
       <c r="C40">
-        <v>2.91761823293784</v>
+        <v>2.50453792974271</v>
       </c>
       <c r="D40">
-        <v>5.61667023436906</v>
+        <v>7.03469347000726</v>
       </c>
       <c r="E40">
-        <v>4.56267406765947</v>
+        <v>4.64361609537966</v>
       </c>
       <c r="F40">
-        <v>0.234881348959154</v>
+        <v>0.333926256528233</v>
       </c>
       <c r="G40">
-        <v>3.61065956988894</v>
+        <v>3.99360171513865</v>
       </c>
       <c r="H40">
-        <v>3.88960424569909</v>
+        <v>4.345891519907</v>
       </c>
       <c r="I40">
-        <v>1.62760050748258</v>
+        <v>1.97153010205533</v>
       </c>
       <c r="J40">
-        <v>9.241944906241111</v>
+        <v>10.9324457847444</v>
       </c>
       <c r="K40">
-        <v>1.19063061396898</v>
+        <v>1.57117185211197</v>
       </c>
       <c r="L40">
-        <v>9.29697892427253</v>
+        <v>11.4238778076158</v>
       </c>
       <c r="M40">
-        <v>3.80185787686792</v>
+        <v>3.84395000318418</v>
       </c>
       <c r="N40">
-        <v>16.804155221484</v>
+        <v>20.230115822573</v>
       </c>
       <c r="O40">
-        <v>374.469590069757</v>
+        <v>421.810164700709</v>
       </c>
       <c r="P40">
-        <v>3.81982740157353</v>
+        <v>5.56682824576856</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1294.30753724399</v>
+        <v>1062.87297434348</v>
       </c>
       <c r="C41">
-        <v>10.9613575717829</v>
+        <v>14.2467904474496</v>
       </c>
       <c r="D41">
-        <v>52.7369033473367</v>
+        <v>64.284710819105</v>
       </c>
       <c r="E41">
-        <v>25.6552045911402</v>
+        <v>27.8541062736829</v>
       </c>
       <c r="F41">
-        <v>0.823662024408905</v>
+        <v>1.09105830362527</v>
       </c>
       <c r="G41">
-        <v>24.6603947240115</v>
+        <v>26.3912131988341</v>
       </c>
       <c r="H41">
-        <v>25.3648925910095</v>
+        <v>29.064006700821</v>
       </c>
       <c r="I41">
-        <v>11.946365862675</v>
+        <v>12.1522115635777</v>
       </c>
       <c r="J41">
-        <v>34.0146234753174</v>
+        <v>39.3241071912386</v>
       </c>
       <c r="K41">
-        <v>6.82010288953717</v>
+        <v>7.83400279330023</v>
       </c>
       <c r="L41">
-        <v>26.8734019788361</v>
+        <v>30.8447888404414</v>
       </c>
       <c r="M41">
-        <v>28.3454766536043</v>
+        <v>31.2960782937347</v>
       </c>
       <c r="N41">
-        <v>18.285314157672</v>
+        <v>18.9324105987243</v>
       </c>
       <c r="O41">
-        <v>1337.8907535827</v>
+        <v>1527.16842061451</v>
       </c>
       <c r="P41">
-        <v>20.1037053958998</v>
+        <v>21.0965714072729</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>158.835840227987</v>
+        <v>104.1656389994</v>
       </c>
       <c r="C42">
-        <v>5.09691050478971</v>
+        <v>6.59293259734538</v>
       </c>
       <c r="D42">
-        <v>1.06114660460048</v>
+        <v>1.6674393477088</v>
       </c>
       <c r="E42">
-        <v>4.89050125171781</v>
+        <v>6.15790388888607</v>
       </c>
       <c r="F42">
-        <v>1.84062069380964</v>
+        <v>2.31306107283814</v>
       </c>
       <c r="G42">
-        <v>1.16209259245544</v>
+        <v>1.45390979915257</v>
       </c>
       <c r="H42">
-        <v>0.965690059963024</v>
+        <v>1.06182540329507</v>
       </c>
       <c r="I42">
-        <v>1.88187996878625</v>
+        <v>1.94022242435749</v>
       </c>
       <c r="J42">
-        <v>3.88853574195633</v>
+        <v>4.86038216862291</v>
       </c>
       <c r="K42">
-        <v>2.93302156522221</v>
+        <v>3.73907780589872</v>
       </c>
       <c r="L42">
-        <v>4.78706309829978</v>
+        <v>5.34180110568332</v>
       </c>
       <c r="M42">
-        <v>3.18539005179195</v>
+        <v>4.03390406321079</v>
       </c>
       <c r="N42">
-        <v>7.04354360845114</v>
+        <v>8.511862805900909</v>
       </c>
       <c r="O42">
-        <v>264.522755212358</v>
+        <v>311.236750293775</v>
       </c>
       <c r="P42">
-        <v>43.867332130369</v>
+        <v>43.9514060184289</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1785.37220402379</v>
+        <v>1545.8095853343</v>
       </c>
       <c r="C43">
-        <v>27.891383199374</v>
+        <v>35.946073936683</v>
       </c>
       <c r="D43">
-        <v>20.8408890320489</v>
+        <v>20.6865073250298</v>
       </c>
       <c r="E43">
-        <v>56.5399225715675</v>
+        <v>72.59719638389301</v>
       </c>
       <c r="F43">
-        <v>10.3837004984477</v>
+        <v>9.23370408236049</v>
       </c>
       <c r="G43">
-        <v>32.4153141581074</v>
+        <v>38.8274762031515</v>
       </c>
       <c r="H43">
-        <v>42.5299968832532</v>
+        <v>44.2711612596967</v>
       </c>
       <c r="I43">
-        <v>12.7056054334955</v>
+        <v>14.7726779961049</v>
       </c>
       <c r="J43">
-        <v>54.5530915642461</v>
+        <v>65.4746240915611</v>
       </c>
       <c r="K43">
-        <v>10.7874839543679</v>
+        <v>11.2111046363945</v>
       </c>
       <c r="L43">
-        <v>35.8453841616391</v>
+        <v>36.1051027571284</v>
       </c>
       <c r="M43">
-        <v>98.4191938482151</v>
+        <v>102.889600425798</v>
       </c>
       <c r="N43">
-        <v>53.9318918337021</v>
+        <v>60.9504905287638</v>
       </c>
       <c r="O43">
-        <v>1902.36980666087</v>
+        <v>2113.93631083145</v>
       </c>
       <c r="P43">
-        <v>42.710010491799</v>
+        <v>55.7094336989246</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5672.68929713531</v>
+        <v>4662.52840298982</v>
       </c>
       <c r="C44">
-        <v>122.888799179718</v>
+        <v>148.070171288563</v>
       </c>
       <c r="D44">
-        <v>18.1754960801845</v>
+        <v>18.7836045454219</v>
       </c>
       <c r="E44">
-        <v>70.8913068414787</v>
+        <v>87.09110470640511</v>
       </c>
       <c r="F44">
-        <v>211.662424017655</v>
+        <v>241.615521731683</v>
       </c>
       <c r="G44">
-        <v>111.488328022788</v>
+        <v>134.796245935813</v>
       </c>
       <c r="H44">
-        <v>30.7009170580008</v>
+        <v>36.2650900153386</v>
       </c>
       <c r="I44">
-        <v>44.0769951902436</v>
+        <v>53.0106521398467</v>
       </c>
       <c r="J44">
-        <v>104.940209409211</v>
+        <v>124.632154548287</v>
       </c>
       <c r="K44">
-        <v>28.9307066913161</v>
+        <v>35.0567404645495</v>
       </c>
       <c r="L44">
-        <v>143.472104360389</v>
+        <v>172.249177913569</v>
       </c>
       <c r="M44">
-        <v>68.7305025610241</v>
+        <v>79.878569456859</v>
       </c>
       <c r="N44">
-        <v>87.1549360477174</v>
+        <v>100.620922804764</v>
       </c>
       <c r="O44">
-        <v>7609.84091900306</v>
+        <v>8484.71109326049</v>
       </c>
       <c r="P44">
-        <v>177.113373968881</v>
+        <v>160.594969246773</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>511.086001510563</v>
+        <v>399.011693669996</v>
       </c>
       <c r="C45">
-        <v>18.3340115574186</v>
+        <v>18.7667454037214</v>
       </c>
       <c r="D45">
-        <v>1.43474449625445</v>
+        <v>1.95851658913209</v>
       </c>
       <c r="E45">
-        <v>14.3808543051336</v>
+        <v>16.6128137528081</v>
       </c>
       <c r="F45">
-        <v>20.6340590660371</v>
+        <v>20.8278971453956</v>
       </c>
       <c r="G45">
-        <v>5.49833556897509</v>
+        <v>6.37879934305991</v>
       </c>
       <c r="H45">
-        <v>2.09147983536662</v>
+        <v>2.75895366736271</v>
       </c>
       <c r="I45">
-        <v>3.7847006105396</v>
+        <v>3.4364354182438</v>
       </c>
       <c r="J45">
-        <v>21.7104064707632</v>
+        <v>21.1242474952312</v>
       </c>
       <c r="K45">
-        <v>2.22542354201028</v>
+        <v>2.56261077910601</v>
       </c>
       <c r="L45">
-        <v>15.0695970465356</v>
+        <v>17.4726326024568</v>
       </c>
       <c r="M45">
-        <v>13.5211093299621</v>
+        <v>14.2737544436076</v>
       </c>
       <c r="N45">
-        <v>27.6053492146512</v>
+        <v>30.7780363412675</v>
       </c>
       <c r="O45">
-        <v>816.897416708193</v>
+        <v>879.310709564659</v>
       </c>
       <c r="P45">
-        <v>15.30203927875</v>
+        <v>18.8888205888526</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>136.411351130811</v>
+        <v>95.0207995720707</v>
       </c>
       <c r="C46">
-        <v>3.65743366380826</v>
+        <v>3.90671446054861</v>
       </c>
       <c r="D46">
-        <v>0.573914236235728</v>
+        <v>0.503600457768726</v>
       </c>
       <c r="E46">
-        <v>4.42225394659301</v>
+        <v>5.01720006110752</v>
       </c>
       <c r="F46">
-        <v>0.377992340983716</v>
+        <v>0.504826488433201</v>
       </c>
       <c r="G46">
-        <v>1.29354149218443</v>
+        <v>1.54309314010806</v>
       </c>
       <c r="H46">
-        <v>0.960742162754641</v>
+        <v>1.12351003070467</v>
       </c>
       <c r="I46">
-        <v>1.85925639560792</v>
+        <v>1.87337816419335</v>
       </c>
       <c r="J46">
-        <v>3.69459511226679</v>
+        <v>4.7625192481076</v>
       </c>
       <c r="K46">
-        <v>0.962701055669434</v>
+        <v>1.2225040669473</v>
       </c>
       <c r="L46">
-        <v>10.241961849614</v>
+        <v>13.7313995600342</v>
       </c>
       <c r="M46">
-        <v>2.53172901132968</v>
+        <v>3.04278071111463</v>
       </c>
       <c r="N46">
-        <v>6.86675011594571</v>
+        <v>9.340032814261971</v>
       </c>
       <c r="O46">
-        <v>240.765504156126</v>
+        <v>273.702912238953</v>
       </c>
       <c r="P46">
-        <v>8.66524058121621</v>
+        <v>8.400042856710099</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1940.73970400142</v>
+        <v>1576.94718573296</v>
       </c>
       <c r="C47">
-        <v>40.0764742731615</v>
+        <v>39.0335254174701</v>
       </c>
       <c r="D47">
-        <v>14.4552299157253</v>
+        <v>13.1922482670529</v>
       </c>
       <c r="E47">
-        <v>40.7197288903315</v>
+        <v>49.6531740611188</v>
       </c>
       <c r="F47">
-        <v>3.90070143496738</v>
+        <v>3.98724539093862</v>
       </c>
       <c r="G47">
-        <v>23.4349237161992</v>
+        <v>23.2279731213292</v>
       </c>
       <c r="H47">
-        <v>8.295159521078229</v>
+        <v>9.695829701218299</v>
       </c>
       <c r="I47">
-        <v>4.209727007167</v>
+        <v>4.23220146069561</v>
       </c>
       <c r="J47">
-        <v>31.9209220350109</v>
+        <v>29.5213569702258</v>
       </c>
       <c r="K47">
-        <v>5.84515837922684</v>
+        <v>6.73312808140353</v>
       </c>
       <c r="L47">
-        <v>23.5932033591721</v>
+        <v>30.686902824253</v>
       </c>
       <c r="M47">
-        <v>54.3533284221191</v>
+        <v>66.5131890858066</v>
       </c>
       <c r="N47">
-        <v>25.2206366817687</v>
+        <v>29.1034095977659</v>
       </c>
       <c r="O47">
-        <v>2694.95318057755</v>
+        <v>3012.19256826823</v>
       </c>
       <c r="P47">
-        <v>23.1373062338306</v>
+        <v>25.8353085052374</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1656.07324650033</v>
+        <v>1270.39651168441</v>
       </c>
       <c r="C48">
-        <v>30.3042854091405</v>
+        <v>33.3848477138479</v>
       </c>
       <c r="D48">
-        <v>5.18205502865339</v>
+        <v>6.66295402349315</v>
       </c>
       <c r="E48">
-        <v>58.5050745753584</v>
+        <v>68.5726874089108</v>
       </c>
       <c r="F48">
-        <v>10.4623081418416</v>
+        <v>14.7504005375024</v>
       </c>
       <c r="G48">
-        <v>5.91196149315414</v>
+        <v>7.35431594952886</v>
       </c>
       <c r="H48">
-        <v>6.96201079595959</v>
+        <v>7.56257417145014</v>
       </c>
       <c r="I48">
-        <v>8.08617669809292</v>
+        <v>9.63637091078091</v>
       </c>
       <c r="J48">
-        <v>34.3142083836205</v>
+        <v>40.4007344748803</v>
       </c>
       <c r="K48">
-        <v>7.36545243572561</v>
+        <v>9.64708816434362</v>
       </c>
       <c r="L48">
-        <v>40.9235116836745</v>
+        <v>51.6272347843492</v>
       </c>
       <c r="M48">
-        <v>114.979459944873</v>
+        <v>142.157785659165</v>
       </c>
       <c r="N48">
-        <v>33.1569776239958</v>
+        <v>42.1489519028123</v>
       </c>
       <c r="O48">
-        <v>2154.63242795861</v>
+        <v>2465.3062536599</v>
       </c>
       <c r="P48">
-        <v>72.1526404564942</v>
+        <v>86.6072027268018</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>716.144594666595</v>
+        <v>642.421871906698</v>
       </c>
       <c r="C49">
-        <v>3.92111637719924</v>
+        <v>4.63549034154312</v>
       </c>
       <c r="D49">
-        <v>0.959436515285617</v>
+        <v>1.29491879105306</v>
       </c>
       <c r="E49">
-        <v>19.8167892661726</v>
+        <v>24.127394909591</v>
       </c>
       <c r="F49">
-        <v>23.3106564346923</v>
+        <v>24.3039248120824</v>
       </c>
       <c r="G49">
-        <v>12.3710857471468</v>
+        <v>14.9338639296525</v>
       </c>
       <c r="H49">
-        <v>5.11430771877962</v>
+        <v>6.07470704715201</v>
       </c>
       <c r="I49">
-        <v>2.96098594493444</v>
+        <v>3.93566817675554</v>
       </c>
       <c r="J49">
-        <v>16.3785646820478</v>
+        <v>19.3023933320818</v>
       </c>
       <c r="K49">
-        <v>2.61124508383536</v>
+        <v>1.94396131149729</v>
       </c>
       <c r="L49">
-        <v>0.855820418718101</v>
+        <v>0.976753857553693</v>
       </c>
       <c r="M49">
-        <v>2.95733525822272</v>
+        <v>4.03705450144328</v>
       </c>
       <c r="N49">
-        <v>5.79185520639402</v>
+        <v>6.8999072016824</v>
       </c>
       <c r="O49">
-        <v>512.572104583068</v>
+        <v>576.954839405642</v>
       </c>
       <c r="P49">
-        <v>6.03549933535358</v>
+        <v>8.919653102327491</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1275.37169025679</v>
+        <v>915.6864842914901</v>
       </c>
       <c r="C50">
-        <v>61.5969391834591</v>
+        <v>68.79036292046931</v>
       </c>
       <c r="D50">
-        <v>8.40136410799324</v>
+        <v>10.8011551822002</v>
       </c>
       <c r="E50">
-        <v>124.866980271685</v>
+        <v>143.77502954732</v>
       </c>
       <c r="F50">
-        <v>2.55774078026031</v>
+        <v>3.01721266623551</v>
       </c>
       <c r="G50">
-        <v>26.4000126886324</v>
+        <v>33.8426032573194</v>
       </c>
       <c r="H50">
-        <v>37.9153512351346</v>
+        <v>42.7446609375464</v>
       </c>
       <c r="I50">
-        <v>6.60673460859786</v>
+        <v>7.95862681217005</v>
       </c>
       <c r="J50">
-        <v>77.4013344011789</v>
+        <v>88.0977677416813</v>
       </c>
       <c r="K50">
-        <v>43.4915071672941</v>
+        <v>49.163161685968</v>
       </c>
       <c r="L50">
-        <v>59.6260382743582</v>
+        <v>69.9421904862574</v>
       </c>
       <c r="M50">
-        <v>47.1067920465905</v>
+        <v>55.5639139148817</v>
       </c>
       <c r="N50">
-        <v>52.4914273933757</v>
+        <v>59.1450901721021</v>
       </c>
       <c r="O50">
-        <v>1913.51860596928</v>
+        <v>2187.81491904908</v>
       </c>
       <c r="P50">
-        <v>82.1829302795316</v>
+        <v>81.8076662983386</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.455067681155</v>
+        <v>88.0946188201205</v>
       </c>
       <c r="C51">
-        <v>2.62304290178174</v>
+        <v>3.78329082439232</v>
       </c>
       <c r="D51">
-        <v>0.00512451286122372</v>
+        <v>0.00722130722399109</v>
       </c>
       <c r="E51">
-        <v>1.83240059791383</v>
+        <v>1.44976429725956</v>
       </c>
       <c r="F51">
-        <v>23.1314690383285</v>
+        <v>25.0449771201357</v>
       </c>
       <c r="G51">
-        <v>1.29241346863791</v>
+        <v>1.5094924012183</v>
       </c>
       <c r="H51">
-        <v>0.0631519143631437</v>
+        <v>0.0880914697430302</v>
       </c>
       <c r="I51">
-        <v>0.609838184423219</v>
+        <v>0.7212244888949531</v>
       </c>
       <c r="J51">
-        <v>1.04714030083391</v>
+        <v>1.03963730572924</v>
       </c>
       <c r="K51">
-        <v>0.629474640817605</v>
+        <v>0.705294825564573</v>
       </c>
       <c r="L51">
-        <v>0.415310738501101</v>
+        <v>0.408683968349474</v>
       </c>
       <c r="M51">
-        <v>0.367812157324562</v>
+        <v>0.290966791952075</v>
       </c>
       <c r="N51">
-        <v>0.560454426596364</v>
+        <v>0.80312973531234</v>
       </c>
       <c r="O51">
-        <v>176.141158852233</v>
+        <v>204.734564812795</v>
       </c>
       <c r="P51">
-        <v>18.592795660156</v>
+        <v>18.7756616939677</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1323.21702566485</v>
+        <v>1325.15940148588</v>
       </c>
       <c r="C2">
-        <v>19.6300747726189</v>
+        <v>20.0379905899713</v>
       </c>
       <c r="D2">
-        <v>31.2152367683313</v>
+        <v>32.393466867517</v>
       </c>
       <c r="E2">
-        <v>48.9245546013918</v>
+        <v>50.8214275704839</v>
       </c>
       <c r="F2">
-        <v>26.3701059082059</v>
+        <v>26.7200386234396</v>
       </c>
       <c r="G2">
-        <v>14.4626143131043</v>
+        <v>14.4644284283009</v>
       </c>
       <c r="H2">
-        <v>14.088007781683</v>
+        <v>14.4810345880116</v>
       </c>
       <c r="I2">
-        <v>16.5258155767722</v>
+        <v>16.6892850065834</v>
       </c>
       <c r="J2">
-        <v>77.7889752984337</v>
+        <v>78.2154715590095</v>
       </c>
       <c r="K2">
-        <v>15.4908888761299</v>
+        <v>15.5667617395269</v>
       </c>
       <c r="L2">
-        <v>46.5080744501787</v>
+        <v>46.448469092014</v>
       </c>
       <c r="M2">
-        <v>42.0156686908897</v>
+        <v>41.9386805591802</v>
       </c>
       <c r="N2">
-        <v>27.9467693397478</v>
+        <v>28.180496433715</v>
       </c>
       <c r="O2">
-        <v>1475.61515896338</v>
+        <v>1469.0851130074</v>
       </c>
       <c r="P2">
-        <v>20.5734876758949</v>
+        <v>21.3461825819007</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>96.9777707415038</v>
+        <v>97.15212709210471</v>
       </c>
       <c r="C3">
-        <v>2.80415337929817</v>
+        <v>2.81228817526006</v>
       </c>
       <c r="D3">
-        <v>0.268990099557625</v>
+        <v>0.271902945777604</v>
       </c>
       <c r="E3">
-        <v>0.983463470100674</v>
+        <v>1.02183409163989</v>
       </c>
       <c r="F3">
-        <v>7.20014520418779</v>
+        <v>7.08750087512161</v>
       </c>
       <c r="G3">
-        <v>0.216490565862782</v>
+        <v>0.203743024275074</v>
       </c>
       <c r="H3">
-        <v>0.00450962409490567</v>
+        <v>0.00425763902512754</v>
       </c>
       <c r="I3">
-        <v>0.643412630643563</v>
+        <v>0.641575771654301</v>
       </c>
       <c r="J3">
-        <v>0.107926271151921</v>
+        <v>0.108067656312472</v>
       </c>
       <c r="K3">
-        <v>0.0931376907043238</v>
+        <v>0.0914235990435453</v>
       </c>
       <c r="L3">
-        <v>0.08928177410205</v>
+        <v>0.0891063210275376</v>
       </c>
       <c r="M3">
-        <v>0.389280911061922</v>
+        <v>0.388690010383989</v>
       </c>
       <c r="N3">
-        <v>0.532426361499439</v>
+        <v>0.534083860647533</v>
       </c>
       <c r="O3">
-        <v>229.471403982517</v>
+        <v>229.224467569827</v>
       </c>
       <c r="P3">
-        <v>7.80269050995515</v>
+        <v>8.304778901858789</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1314.80518925919</v>
+        <v>1314.69983128838</v>
       </c>
       <c r="C4">
-        <v>10.9481637147924</v>
+        <v>10.9602910801963</v>
       </c>
       <c r="D4">
-        <v>2.42970608491033</v>
+        <v>2.41248570746625</v>
       </c>
       <c r="E4">
-        <v>22.6962653462389</v>
+        <v>22.6760256905393</v>
       </c>
       <c r="F4">
-        <v>11.3027682051464</v>
+        <v>11.9434537369475</v>
       </c>
       <c r="G4">
-        <v>6.01636807178841</v>
+        <v>5.96539039026785</v>
       </c>
       <c r="H4">
-        <v>8.534373125242411</v>
+        <v>8.50909703970296</v>
       </c>
       <c r="I4">
-        <v>7.89627129989622</v>
+        <v>7.85838949547866</v>
       </c>
       <c r="J4">
-        <v>30.1065434482792</v>
+        <v>30.2940670695263</v>
       </c>
       <c r="K4">
-        <v>3.82186282905618</v>
+        <v>3.81393063284723</v>
       </c>
       <c r="L4">
-        <v>63.7397371417</v>
+        <v>62.9348856898237</v>
       </c>
       <c r="M4">
-        <v>45.5984484398685</v>
+        <v>45.1200182545057</v>
       </c>
       <c r="N4">
-        <v>36.9631066308133</v>
+        <v>36.852278006489</v>
       </c>
       <c r="O4">
-        <v>2331.27365373068</v>
+        <v>2327.38580018112</v>
       </c>
       <c r="P4">
-        <v>25.7299126286462</v>
+        <v>26.8758284609398</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>727.729710680273</v>
+        <v>729.154181928498</v>
       </c>
       <c r="C5">
-        <v>40.3062717963331</v>
+        <v>41.1483471069268</v>
       </c>
       <c r="D5">
-        <v>13.046617888442</v>
+        <v>13.6579842021976</v>
       </c>
       <c r="E5">
-        <v>31.8573690096213</v>
+        <v>33.0653408848855</v>
       </c>
       <c r="F5">
-        <v>7.55478353431792</v>
+        <v>7.75233922022413</v>
       </c>
       <c r="G5">
-        <v>5.53237946839456</v>
+        <v>5.56531324511003</v>
       </c>
       <c r="H5">
-        <v>11.3073876090305</v>
+        <v>11.5126301417119</v>
       </c>
       <c r="I5">
-        <v>7.77694706024837</v>
+        <v>7.8687161695212</v>
       </c>
       <c r="J5">
-        <v>30.6404045332002</v>
+        <v>31.1571874004039</v>
       </c>
       <c r="K5">
-        <v>5.04282300018797</v>
+        <v>5.14308661793164</v>
       </c>
       <c r="L5">
-        <v>13.0638272556593</v>
+        <v>13.2206078366444</v>
       </c>
       <c r="M5">
-        <v>15.4325303301528</v>
+        <v>15.6812531075894</v>
       </c>
       <c r="N5">
-        <v>23.7649017928321</v>
+        <v>24.3107453959829</v>
       </c>
       <c r="O5">
-        <v>993.852251147617</v>
+        <v>986.078268231775</v>
       </c>
       <c r="P5">
-        <v>54.6046032131998</v>
+        <v>58.0780817108453</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7561.80659477919</v>
+        <v>7564.95463791602</v>
       </c>
       <c r="C6">
-        <v>233.680097468692</v>
+        <v>234.552896049882</v>
       </c>
       <c r="D6">
-        <v>36.3390087865743</v>
+        <v>36.3173666257817</v>
       </c>
       <c r="E6">
-        <v>169.243232218862</v>
+        <v>169.413324110949</v>
       </c>
       <c r="F6">
-        <v>49.7499233753486</v>
+        <v>49.8247689051956</v>
       </c>
       <c r="G6">
-        <v>122.000899672528</v>
+        <v>121.966161613946</v>
       </c>
       <c r="H6">
-        <v>41.0830587704968</v>
+        <v>41.0440400303747</v>
       </c>
       <c r="I6">
-        <v>45.5384475283355</v>
+        <v>45.4804673170575</v>
       </c>
       <c r="J6">
-        <v>159.526228130679</v>
+        <v>159.303505442527</v>
       </c>
       <c r="K6">
-        <v>50.3805829248496</v>
+        <v>50.3156346190193</v>
       </c>
       <c r="L6">
-        <v>462.678188049387</v>
+        <v>461.396828129895</v>
       </c>
       <c r="M6">
-        <v>237.39196247549</v>
+        <v>236.84342392922</v>
       </c>
       <c r="N6">
-        <v>252.934346453387</v>
+        <v>252.678875008991</v>
       </c>
       <c r="O6">
-        <v>13178.7961222271</v>
+        <v>13165.5167564204</v>
       </c>
       <c r="P6">
-        <v>323.592275878204</v>
+        <v>334.098347605931</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>811.059269358001</v>
+        <v>811.129000312552</v>
       </c>
       <c r="C7">
-        <v>44.3192713022014</v>
+        <v>44.8394460878582</v>
       </c>
       <c r="D7">
-        <v>4.67877388139572</v>
+        <v>4.6493203418491</v>
       </c>
       <c r="E7">
-        <v>20.45499445566</v>
+        <v>20.3375567264629</v>
       </c>
       <c r="F7">
-        <v>21.1221451400808</v>
+        <v>21.6511082098497</v>
       </c>
       <c r="G7">
-        <v>13.3692562690085</v>
+        <v>13.2436865172042</v>
       </c>
       <c r="H7">
-        <v>2.92482012402191</v>
+        <v>2.90395503129373</v>
       </c>
       <c r="I7">
-        <v>8.242624876977081</v>
+        <v>8.31522149654232</v>
       </c>
       <c r="J7">
-        <v>17.178706801224</v>
+        <v>17.0721059963628</v>
       </c>
       <c r="K7">
-        <v>4.16561769879498</v>
+        <v>4.14778636790689</v>
       </c>
       <c r="L7">
-        <v>55.3817009848153</v>
+        <v>54.8566520137242</v>
       </c>
       <c r="M7">
-        <v>12.4430721167661</v>
+        <v>12.3047996474332</v>
       </c>
       <c r="N7">
-        <v>22.4288513669751</v>
+        <v>22.2173567447028</v>
       </c>
       <c r="O7">
-        <v>1988.68913538503</v>
+        <v>1983.24085612714</v>
       </c>
       <c r="P7">
-        <v>31.5851465549878</v>
+        <v>33.9369838314235</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>646.832900413131</v>
+        <v>646.7567086381561</v>
       </c>
       <c r="C8">
-        <v>11.5990801747604</v>
+        <v>11.6176856488199</v>
       </c>
       <c r="D8">
-        <v>2.009185619267</v>
+        <v>2.00418015519432</v>
       </c>
       <c r="E8">
-        <v>23.7140074860925</v>
+        <v>23.7592570881333</v>
       </c>
       <c r="F8">
-        <v>0.959776507579036</v>
+        <v>0.960666592922104</v>
       </c>
       <c r="G8">
-        <v>23.3614614015326</v>
+        <v>23.295505237817</v>
       </c>
       <c r="H8">
-        <v>7.56359326641417</v>
+        <v>7.55191957261617</v>
       </c>
       <c r="I8">
-        <v>8.96199794751773</v>
+        <v>8.975314929700289</v>
       </c>
       <c r="J8">
-        <v>38.966103386113</v>
+        <v>38.9445115639823</v>
       </c>
       <c r="K8">
-        <v>12.7387653306905</v>
+        <v>12.7380198232278</v>
       </c>
       <c r="L8">
-        <v>45.5678859102808</v>
+        <v>45.5199889716909</v>
       </c>
       <c r="M8">
-        <v>44.003900772401</v>
+        <v>44.0610802094449</v>
       </c>
       <c r="N8">
-        <v>28.4572349575705</v>
+        <v>28.4572501406344</v>
       </c>
       <c r="O8">
-        <v>1453.54473384565</v>
+        <v>1453.26835656684</v>
       </c>
       <c r="P8">
-        <v>5.28741722052409</v>
+        <v>5.32227179375724</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>170.496163531513</v>
+        <v>170.438056848865</v>
       </c>
       <c r="C9">
-        <v>8.699028074777161</v>
+        <v>8.79669215220075</v>
       </c>
       <c r="D9">
-        <v>2.70437211473167</v>
+        <v>2.7000774511205</v>
       </c>
       <c r="E9">
-        <v>3.72826923101778</v>
+        <v>3.72916432040373</v>
       </c>
       <c r="F9">
-        <v>0.413617877252536</v>
+        <v>0.417982825846829</v>
       </c>
       <c r="G9">
-        <v>18.1273592318288</v>
+        <v>17.8940128577367</v>
       </c>
       <c r="H9">
-        <v>2.62657918344865</v>
+        <v>2.60947999104446</v>
       </c>
       <c r="I9">
-        <v>0.965040852047697</v>
+        <v>0.965902464835848</v>
       </c>
       <c r="J9">
-        <v>5.57003663436685</v>
+        <v>5.55515854779088</v>
       </c>
       <c r="K9">
-        <v>0.528236451645439</v>
+        <v>0.526797495133541</v>
       </c>
       <c r="L9">
-        <v>3.1688959148988</v>
+        <v>3.14836981635981</v>
       </c>
       <c r="M9">
-        <v>4.28006974217898</v>
+        <v>4.07976478447932</v>
       </c>
       <c r="N9">
-        <v>2.77183899904775</v>
+        <v>2.7828758929719</v>
       </c>
       <c r="O9">
-        <v>345.433623745376</v>
+        <v>345.637869652232</v>
       </c>
       <c r="P9">
-        <v>5.57531755055681</v>
+        <v>5.73966654716843</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4168.15147920627</v>
+        <v>4167.54938230837</v>
       </c>
       <c r="C10">
-        <v>78.175335551007</v>
+        <v>78.6850810553517</v>
       </c>
       <c r="D10">
-        <v>11.6757994394139</v>
+        <v>11.6744851010548</v>
       </c>
       <c r="E10">
-        <v>50.032093264231</v>
+        <v>50.0900936709249</v>
       </c>
       <c r="F10">
-        <v>8.02999927009469</v>
+        <v>8.06064658098132</v>
       </c>
       <c r="G10">
-        <v>37.4918390376783</v>
+        <v>37.5337805720192</v>
       </c>
       <c r="H10">
-        <v>15.4414849551862</v>
+        <v>15.4495779133167</v>
       </c>
       <c r="I10">
-        <v>24.3398307547127</v>
+        <v>24.3895836315693</v>
       </c>
       <c r="J10">
-        <v>61.0356719237058</v>
+        <v>61.0976060323519</v>
       </c>
       <c r="K10">
-        <v>7.24605860116116</v>
+        <v>7.24352732852898</v>
       </c>
       <c r="L10">
-        <v>69.5591286883696</v>
+        <v>69.5271727063964</v>
       </c>
       <c r="M10">
-        <v>74.64069653561771</v>
+        <v>74.73293416380081</v>
       </c>
       <c r="N10">
-        <v>93.4299989399622</v>
+        <v>93.4282115528588</v>
       </c>
       <c r="O10">
-        <v>7630.30347493603</v>
+        <v>7624.64653420313</v>
       </c>
       <c r="P10">
-        <v>59.3880354173586</v>
+        <v>60.0415262960747</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1953.98194438698</v>
+        <v>1954.12740516755</v>
       </c>
       <c r="C11">
-        <v>84.3397661297186</v>
+        <v>85.10712724196981</v>
       </c>
       <c r="D11">
-        <v>113.355978460799</v>
+        <v>117.755643101113</v>
       </c>
       <c r="E11">
-        <v>74.693544248873</v>
+        <v>75.36102407215451</v>
       </c>
       <c r="F11">
-        <v>7.78896310919282</v>
+        <v>7.84141487086467</v>
       </c>
       <c r="G11">
-        <v>18.556132771112</v>
+        <v>18.7453772089979</v>
       </c>
       <c r="H11">
-        <v>19.5887089659362</v>
+        <v>19.8371785394158</v>
       </c>
       <c r="I11">
-        <v>15.5378788649669</v>
+        <v>15.5359889960512</v>
       </c>
       <c r="J11">
-        <v>38.6405965226717</v>
+        <v>38.8319475519492</v>
       </c>
       <c r="K11">
-        <v>8.64511431441357</v>
+        <v>8.68021832372172</v>
       </c>
       <c r="L11">
-        <v>45.1586215619032</v>
+        <v>45.0396891130605</v>
       </c>
       <c r="M11">
-        <v>40.352727900607</v>
+        <v>40.9155525655955</v>
       </c>
       <c r="N11">
-        <v>67.2587637415122</v>
+        <v>67.5003724332977</v>
       </c>
       <c r="O11">
-        <v>3354.39502285202</v>
+        <v>3345.93907249177</v>
       </c>
       <c r="P11">
-        <v>46.2690804125714</v>
+        <v>47.3550450544417</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>232.118998839252</v>
+        <v>232.107705816443</v>
       </c>
       <c r="C12">
-        <v>5.8097811433292</v>
+        <v>5.88908737728193</v>
       </c>
       <c r="D12">
-        <v>0.449491095114181</v>
+        <v>0.448526443625723</v>
       </c>
       <c r="E12">
-        <v>2.29495484324808</v>
+        <v>2.29017543977102</v>
       </c>
       <c r="F12">
-        <v>0.7983811261066</v>
+        <v>0.797796790447168</v>
       </c>
       <c r="G12">
-        <v>0.284941293065017</v>
+        <v>0.284675338361553</v>
       </c>
       <c r="H12">
-        <v>0.178572431272553</v>
+        <v>0.178529468837168</v>
       </c>
       <c r="I12">
-        <v>0.889964929931011</v>
+        <v>0.888371664962894</v>
       </c>
       <c r="J12">
-        <v>1.45829622883501</v>
+        <v>1.45224531447203</v>
       </c>
       <c r="K12">
-        <v>0.0052676256958157</v>
+        <v>0.00513939625360915</v>
       </c>
       <c r="L12">
-        <v>0.224515307119513</v>
+        <v>0.224143009668584</v>
       </c>
       <c r="M12">
-        <v>3.47363485540982</v>
+        <v>3.44040455605192</v>
       </c>
       <c r="N12">
-        <v>4.44988554571311</v>
+        <v>4.44368551517651</v>
       </c>
       <c r="O12">
-        <v>547.164067784615</v>
+        <v>546.725632168059</v>
       </c>
       <c r="P12">
-        <v>17.4833949100083</v>
+        <v>18.0254810243746</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>245.492042420468</v>
+        <v>246.354244591385</v>
       </c>
       <c r="C13">
-        <v>17.1702497938207</v>
+        <v>17.5496538884934</v>
       </c>
       <c r="D13">
-        <v>0.455193792191635</v>
+        <v>0.452192495232882</v>
       </c>
       <c r="E13">
-        <v>10.0848285907895</v>
+        <v>10.2278899833949</v>
       </c>
       <c r="F13">
-        <v>2.98840977716044</v>
+        <v>3.16671440699154</v>
       </c>
       <c r="G13">
-        <v>6.00322019758848</v>
+        <v>6.23851801848077</v>
       </c>
       <c r="H13">
-        <v>1.1354426850896</v>
+        <v>1.13834649891398</v>
       </c>
       <c r="I13">
-        <v>2.29938953043731</v>
+        <v>2.29282836562119</v>
       </c>
       <c r="J13">
-        <v>5.75084033495893</v>
+        <v>5.8046568275079</v>
       </c>
       <c r="K13">
-        <v>2.86034561808042</v>
+        <v>2.85425782365483</v>
       </c>
       <c r="L13">
-        <v>18.4939873555353</v>
+        <v>17.3772850549965</v>
       </c>
       <c r="M13">
-        <v>1.3306305866821</v>
+        <v>1.30920659667882</v>
       </c>
       <c r="N13">
-        <v>4.35889487483071</v>
+        <v>4.32815585647274</v>
       </c>
       <c r="O13">
-        <v>553.519799515994</v>
+        <v>550.432558949383</v>
       </c>
       <c r="P13">
-        <v>41.4607374014773</v>
+        <v>45.1607388992707</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2622.25223462844</v>
+        <v>2621.5803379076</v>
       </c>
       <c r="C14">
-        <v>128.875527796857</v>
+        <v>129.507943914224</v>
       </c>
       <c r="D14">
-        <v>11.4293947551802</v>
+        <v>11.4596837032051</v>
       </c>
       <c r="E14">
-        <v>91.9403301784012</v>
+        <v>92.3207276660648</v>
       </c>
       <c r="F14">
-        <v>20.8783364386594</v>
+        <v>21.0982198464041</v>
       </c>
       <c r="G14">
-        <v>74.0340246333552</v>
+        <v>74.180921710476</v>
       </c>
       <c r="H14">
-        <v>38.837428538823</v>
+        <v>39.2479075942993</v>
       </c>
       <c r="I14">
-        <v>25.7537076744181</v>
+        <v>26.0545520947787</v>
       </c>
       <c r="J14">
-        <v>132.37545254712</v>
+        <v>134.129536844546</v>
       </c>
       <c r="K14">
-        <v>92.6493242920882</v>
+        <v>94.6117393292358</v>
       </c>
       <c r="L14">
-        <v>92.164358779319</v>
+        <v>92.1922541207849</v>
       </c>
       <c r="M14">
-        <v>72.46037007848869</v>
+        <v>73.6071919025477</v>
       </c>
       <c r="N14">
-        <v>78.2848193497135</v>
+        <v>78.6191488481071</v>
       </c>
       <c r="O14">
-        <v>4921.52018574117</v>
+        <v>4906.57850630597</v>
       </c>
       <c r="P14">
-        <v>60.1634471861769</v>
+        <v>66.324762093837</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1267.41753002358</v>
+        <v>1267.50695392264</v>
       </c>
       <c r="C15">
-        <v>51.3789238791841</v>
+        <v>51.5541145764542</v>
       </c>
       <c r="D15">
-        <v>7.41524437423796</v>
+        <v>7.44041192675226</v>
       </c>
       <c r="E15">
-        <v>73.04916620321001</v>
+        <v>74.0162693204054</v>
       </c>
       <c r="F15">
-        <v>25.4947216746545</v>
+        <v>25.9981466484755</v>
       </c>
       <c r="G15">
-        <v>53.1915962711693</v>
+        <v>53.0629057272793</v>
       </c>
       <c r="H15">
-        <v>37.01569545734</v>
+        <v>37.5996110226098</v>
       </c>
       <c r="I15">
-        <v>20.0284060246774</v>
+        <v>20.2983845344124</v>
       </c>
       <c r="J15">
-        <v>138.924348150481</v>
+        <v>141.104531776713</v>
       </c>
       <c r="K15">
-        <v>27.6814990950142</v>
+        <v>28.0713869342221</v>
       </c>
       <c r="L15">
-        <v>40.5206978217574</v>
+        <v>41.0214779240239</v>
       </c>
       <c r="M15">
-        <v>161.621665375008</v>
+        <v>164.970187545469</v>
       </c>
       <c r="N15">
-        <v>90.436173396078</v>
+        <v>92.42998925723781</v>
       </c>
       <c r="O15">
-        <v>2225.04325392665</v>
+        <v>2215.21419977705</v>
       </c>
       <c r="P15">
-        <v>47.8462769402008</v>
+        <v>48.3962224809443</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>468.144957637161</v>
+        <v>467.617814479319</v>
       </c>
       <c r="C16">
-        <v>68.2581747067885</v>
+        <v>68.64386128387351</v>
       </c>
       <c r="D16">
-        <v>3.49484099557163</v>
+        <v>3.56811476411952</v>
       </c>
       <c r="E16">
-        <v>27.1152479481267</v>
+        <v>27.3902765944682</v>
       </c>
       <c r="F16">
-        <v>1.95718426734</v>
+        <v>2.17339051502207</v>
       </c>
       <c r="G16">
-        <v>17.7305107464562</v>
+        <v>17.8461342017184</v>
       </c>
       <c r="H16">
-        <v>12.9894396092999</v>
+        <v>13.2483546921035</v>
       </c>
       <c r="I16">
-        <v>4.66300998769651</v>
+        <v>4.85177461947143</v>
       </c>
       <c r="J16">
-        <v>43.8592078503198</v>
+        <v>44.9842189459026</v>
       </c>
       <c r="K16">
-        <v>43.3863486137397</v>
+        <v>44.4252491598236</v>
       </c>
       <c r="L16">
-        <v>17.4547160682195</v>
+        <v>17.4904143213089</v>
       </c>
       <c r="M16">
-        <v>22.8283962385205</v>
+        <v>23.3716801680572</v>
       </c>
       <c r="N16">
-        <v>32.741868437732</v>
+        <v>33.0748304949573</v>
       </c>
       <c r="O16">
-        <v>1199.70823010768</v>
+        <v>1190.17745837816</v>
       </c>
       <c r="P16">
-        <v>81.6953952021634</v>
+        <v>88.7018770518474</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>475.768367910549</v>
+        <v>475.475457314334</v>
       </c>
       <c r="C17">
-        <v>20.9168099725301</v>
+        <v>20.8011999462732</v>
       </c>
       <c r="D17">
-        <v>2.12626691089331</v>
+        <v>2.09331032254335</v>
       </c>
       <c r="E17">
-        <v>25.1818762958635</v>
+        <v>25.1067047214423</v>
       </c>
       <c r="F17">
-        <v>12.8853755595465</v>
+        <v>13.5609912723959</v>
       </c>
       <c r="G17">
-        <v>9.58826117234843</v>
+        <v>9.73331145845693</v>
       </c>
       <c r="H17">
-        <v>11.3853116352027</v>
+        <v>11.6640460109762</v>
       </c>
       <c r="I17">
-        <v>5.5594514395731</v>
+        <v>5.64595836787912</v>
       </c>
       <c r="J17">
-        <v>20.0329403371766</v>
+        <v>20.280010691091</v>
       </c>
       <c r="K17">
-        <v>8.435582152287781</v>
+        <v>8.438477821469601</v>
       </c>
       <c r="L17">
-        <v>12.5166515485321</v>
+        <v>12.373572613174</v>
       </c>
       <c r="M17">
-        <v>69.5313637396597</v>
+        <v>67.623654264491</v>
       </c>
       <c r="N17">
-        <v>10.6152835883839</v>
+        <v>10.5431584822386</v>
       </c>
       <c r="O17">
-        <v>1087.8312579602</v>
+        <v>1083.17966530698</v>
       </c>
       <c r="P17">
-        <v>38.5706725147343</v>
+        <v>45.2672462718532</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1074.26526476807</v>
+        <v>1074.58148415161</v>
       </c>
       <c r="C18">
-        <v>29.3670493739595</v>
+        <v>29.4592402736926</v>
       </c>
       <c r="D18">
-        <v>5.83286693970225</v>
+        <v>5.84271756410948</v>
       </c>
       <c r="E18">
-        <v>39.9458967299747</v>
+        <v>39.9554416372999</v>
       </c>
       <c r="F18">
-        <v>38.9094550952945</v>
+        <v>39.5653330781495</v>
       </c>
       <c r="G18">
-        <v>18.4404561362654</v>
+        <v>18.4576923267856</v>
       </c>
       <c r="H18">
-        <v>13.4483298886053</v>
+        <v>13.423309093424</v>
       </c>
       <c r="I18">
-        <v>4.40357345819361</v>
+        <v>4.40819764336658</v>
       </c>
       <c r="J18">
-        <v>25.557758535197</v>
+        <v>25.5725533792975</v>
       </c>
       <c r="K18">
-        <v>10.0642045207815</v>
+        <v>10.0537829702177</v>
       </c>
       <c r="L18">
-        <v>30.1302208438737</v>
+        <v>30.0631042741425</v>
       </c>
       <c r="M18">
-        <v>60.9515796039667</v>
+        <v>60.7907337378358</v>
       </c>
       <c r="N18">
-        <v>21.7845192878877</v>
+        <v>21.726369298282</v>
       </c>
       <c r="O18">
-        <v>1502.87596640479</v>
+        <v>1502.17506406658</v>
       </c>
       <c r="P18">
-        <v>55.8418673734865</v>
+        <v>56.1612262154816</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1119.35273306122</v>
+        <v>1118.3391995455</v>
       </c>
       <c r="C19">
-        <v>38.3832441493483</v>
+        <v>38.6526528114519</v>
       </c>
       <c r="D19">
-        <v>2.83137611616178</v>
+        <v>2.92649149343973</v>
       </c>
       <c r="E19">
-        <v>32.9814159381699</v>
+        <v>34.9740290626777</v>
       </c>
       <c r="F19">
-        <v>86.666259040418</v>
+        <v>86.73105648010601</v>
       </c>
       <c r="G19">
-        <v>38.9034408121755</v>
+        <v>38.9565375349019</v>
       </c>
       <c r="H19">
-        <v>8.24568442089897</v>
+        <v>8.24267391093233</v>
       </c>
       <c r="I19">
-        <v>6.66585985741029</v>
+        <v>6.6755635901477</v>
       </c>
       <c r="J19">
-        <v>18.9290145962204</v>
+        <v>19.1052084758734</v>
       </c>
       <c r="K19">
-        <v>7.58550505459918</v>
+        <v>7.68462251585836</v>
       </c>
       <c r="L19">
-        <v>2.14595978843621</v>
+        <v>2.14223328311039</v>
       </c>
       <c r="M19">
-        <v>23.1355835967834</v>
+        <v>22.9099649051146</v>
       </c>
       <c r="N19">
-        <v>12.8110415446948</v>
+        <v>12.8506511324487</v>
       </c>
       <c r="O19">
-        <v>1508.73946595688</v>
+        <v>1504.90527936149</v>
       </c>
       <c r="P19">
-        <v>43.612531200641</v>
+        <v>45.4789789361806</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>279.764054550502</v>
+        <v>280.85862023758</v>
       </c>
       <c r="C20">
-        <v>9.075175339554789</v>
+        <v>9.087073329768749</v>
       </c>
       <c r="D20">
-        <v>5.90546087711509</v>
+        <v>6.06190958562827</v>
       </c>
       <c r="E20">
-        <v>29.9305122108116</v>
+        <v>31.6897492679859</v>
       </c>
       <c r="F20">
-        <v>0.970297188996724</v>
+        <v>0.993494357623906</v>
       </c>
       <c r="G20">
-        <v>3.16865502951792</v>
+        <v>3.17288767044878</v>
       </c>
       <c r="H20">
-        <v>0.843269972143523</v>
+        <v>0.859070478442289</v>
       </c>
       <c r="I20">
-        <v>2.63421821669401</v>
+        <v>2.61607164446814</v>
       </c>
       <c r="J20">
-        <v>4.09945280520784</v>
+        <v>4.01923035101913</v>
       </c>
       <c r="K20">
-        <v>0.914123561457313</v>
+        <v>0.882635702287361</v>
       </c>
       <c r="L20">
-        <v>7.19554823097808</v>
+        <v>7.0670571373026</v>
       </c>
       <c r="M20">
-        <v>21.0366653250118</v>
+        <v>19.6358386761777</v>
       </c>
       <c r="N20">
-        <v>5.82319281760024</v>
+        <v>5.8882900676631</v>
       </c>
       <c r="O20">
-        <v>557.094996324646</v>
+        <v>555.4905960664109</v>
       </c>
       <c r="P20">
-        <v>17.6182053632159</v>
+        <v>18.6182938835496</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1053.17342059794</v>
+        <v>1052.76962121152</v>
       </c>
       <c r="C21">
-        <v>18.8215134522744</v>
+        <v>19.0013667332744</v>
       </c>
       <c r="D21">
-        <v>1.02159184620063</v>
+        <v>1.03907969516137</v>
       </c>
       <c r="E21">
-        <v>19.1405941950568</v>
+        <v>19.2347814176622</v>
       </c>
       <c r="F21">
-        <v>3.10532075006454</v>
+        <v>3.13591373538427</v>
       </c>
       <c r="G21">
-        <v>19.2659075711747</v>
+        <v>19.2802038273455</v>
       </c>
       <c r="H21">
-        <v>4.09807867267835</v>
+        <v>4.11121265816054</v>
       </c>
       <c r="I21">
-        <v>12.7552815828677</v>
+        <v>12.788972524117</v>
       </c>
       <c r="J21">
-        <v>22.7701647364527</v>
+        <v>22.9431355348092</v>
       </c>
       <c r="K21">
-        <v>1.67762593735717</v>
+        <v>1.6831945353032</v>
       </c>
       <c r="L21">
-        <v>28.848946649169</v>
+        <v>28.8578600691966</v>
       </c>
       <c r="M21">
-        <v>21.0343428168707</v>
+        <v>21.0468702284045</v>
       </c>
       <c r="N21">
-        <v>13.5893112645457</v>
+        <v>13.6023773425624</v>
       </c>
       <c r="O21">
-        <v>2354.67421878635</v>
+        <v>2352.09328907427</v>
       </c>
       <c r="P21">
-        <v>20.2981347983941</v>
+        <v>20.8543843378752</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1233.08293447799</v>
+        <v>1232.93631804705</v>
       </c>
       <c r="C22">
-        <v>25.0344636159724</v>
+        <v>25.1326234974413</v>
       </c>
       <c r="D22">
-        <v>12.9872127044067</v>
+        <v>13.0049686584484</v>
       </c>
       <c r="E22">
-        <v>43.701647338772</v>
+        <v>44.0332804686245</v>
       </c>
       <c r="F22">
-        <v>2.53629384854512</v>
+        <v>2.54270219649615</v>
       </c>
       <c r="G22">
-        <v>29.5034605573299</v>
+        <v>29.5171154396727</v>
       </c>
       <c r="H22">
-        <v>15.0459537723019</v>
+        <v>15.1068854611085</v>
       </c>
       <c r="I22">
-        <v>9.29341961996378</v>
+        <v>9.330010690413321</v>
       </c>
       <c r="J22">
-        <v>34.2243283059308</v>
+        <v>34.4540547386796</v>
       </c>
       <c r="K22">
-        <v>6.27829543300965</v>
+        <v>6.29049724431601</v>
       </c>
       <c r="L22">
-        <v>104.018260542091</v>
+        <v>103.871810163254</v>
       </c>
       <c r="M22">
-        <v>17.1728314118507</v>
+        <v>17.1484975891856</v>
       </c>
       <c r="N22">
-        <v>56.3366078958958</v>
+        <v>56.5183030825652</v>
       </c>
       <c r="O22">
-        <v>2740.00631574782</v>
+        <v>2738.02838364319</v>
       </c>
       <c r="P22">
-        <v>11.1341473353092</v>
+        <v>11.491926631634</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2373.79634512333</v>
+        <v>2376.08432038272</v>
       </c>
       <c r="C23">
-        <v>32.4766631095875</v>
+        <v>32.913109510268</v>
       </c>
       <c r="D23">
-        <v>6.33969578576414</v>
+        <v>6.37502450317868</v>
       </c>
       <c r="E23">
-        <v>44.8337531570569</v>
+        <v>45.4297664761262</v>
       </c>
       <c r="F23">
-        <v>8.554975105902811</v>
+        <v>9.11372368917954</v>
       </c>
       <c r="G23">
-        <v>51.1381785688948</v>
+        <v>50.9802548030206</v>
       </c>
       <c r="H23">
-        <v>53.139193723621</v>
+        <v>53.1216151383046</v>
       </c>
       <c r="I23">
-        <v>16.8504045341009</v>
+        <v>16.9443582604606</v>
       </c>
       <c r="J23">
-        <v>116.121654441364</v>
+        <v>115.844290914427</v>
       </c>
       <c r="K23">
-        <v>70.6948080575674</v>
+        <v>70.57609952954191</v>
       </c>
       <c r="L23">
-        <v>34.891079938995</v>
+        <v>34.7724502951006</v>
       </c>
       <c r="M23">
-        <v>547.696270124707</v>
+        <v>540.92022625288</v>
       </c>
       <c r="N23">
-        <v>83.5368543584987</v>
+        <v>83.3192924823277</v>
       </c>
       <c r="O23">
-        <v>3420.93691314511</v>
+        <v>3416.99559418815</v>
       </c>
       <c r="P23">
-        <v>45.6697991896684</v>
+        <v>50.2005390658863</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>813.171158100138</v>
+        <v>812.325253354308</v>
       </c>
       <c r="C24">
-        <v>45.4480894510775</v>
+        <v>47.2454889950873</v>
       </c>
       <c r="D24">
-        <v>5.96638524464397</v>
+        <v>6.26910528074734</v>
       </c>
       <c r="E24">
-        <v>57.5092768157294</v>
+        <v>57.0442127247312</v>
       </c>
       <c r="F24">
-        <v>9.907964687944281</v>
+        <v>10.2275433448041</v>
       </c>
       <c r="G24">
-        <v>27.3145273738503</v>
+        <v>27.1448624639907</v>
       </c>
       <c r="H24">
-        <v>21.4169909263842</v>
+        <v>21.4903493376652</v>
       </c>
       <c r="I24">
-        <v>14.3317909007712</v>
+        <v>14.2914577404156</v>
       </c>
       <c r="J24">
-        <v>52.9824192184187</v>
+        <v>53.5463504632595</v>
       </c>
       <c r="K24">
-        <v>20.2857452042578</v>
+        <v>20.3779103454689</v>
       </c>
       <c r="L24">
-        <v>72.73988856159239</v>
+        <v>71.362846929985</v>
       </c>
       <c r="M24">
-        <v>20.4866896573237</v>
+        <v>20.5775668201113</v>
       </c>
       <c r="N24">
-        <v>76.3578178633652</v>
+        <v>75.5044146175822</v>
       </c>
       <c r="O24">
-        <v>2123.02056639817</v>
+        <v>2102.09478939508</v>
       </c>
       <c r="P24">
-        <v>77.53168037030581</v>
+        <v>98.5071623463123</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>779.90157499421</v>
+        <v>779.542775627777</v>
       </c>
       <c r="C25">
-        <v>42.3468245666561</v>
+        <v>43.3420405986344</v>
       </c>
       <c r="D25">
-        <v>12.9541185996033</v>
+        <v>13.5155152041332</v>
       </c>
       <c r="E25">
-        <v>49.7590388678241</v>
+        <v>51.0181867274403</v>
       </c>
       <c r="F25">
-        <v>14.9368179433603</v>
+        <v>15.031055027299</v>
       </c>
       <c r="G25">
-        <v>15.0465867695753</v>
+        <v>15.2618830932887</v>
       </c>
       <c r="H25">
-        <v>8.2314094062683</v>
+        <v>8.529284267166521</v>
       </c>
       <c r="I25">
-        <v>5.31143932513043</v>
+        <v>5.4468302679349</v>
       </c>
       <c r="J25">
-        <v>9.527813062635669</v>
+        <v>9.8122254476783</v>
       </c>
       <c r="K25">
-        <v>5.77065881285534</v>
+        <v>5.84941940992466</v>
       </c>
       <c r="L25">
-        <v>10.8379308724014</v>
+        <v>11.1351750403265</v>
       </c>
       <c r="M25">
-        <v>41.0534634761133</v>
+        <v>41.0528935618703</v>
       </c>
       <c r="N25">
-        <v>33.8875080188888</v>
+        <v>35.3606418932417</v>
       </c>
       <c r="O25">
-        <v>855.140764806208</v>
+        <v>849.435386983438</v>
       </c>
       <c r="P25">
-        <v>45.4713246161325</v>
+        <v>47.3596637882975</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1141.98836480248</v>
+        <v>1141.87816007395</v>
       </c>
       <c r="C26">
-        <v>51.786259539547</v>
+        <v>53.103277266514</v>
       </c>
       <c r="D26">
-        <v>2.68222433385185</v>
+        <v>2.71605223729243</v>
       </c>
       <c r="E26">
-        <v>44.6679738210031</v>
+        <v>45.5605045138964</v>
       </c>
       <c r="F26">
-        <v>10.4051856165662</v>
+        <v>10.8247126631579</v>
       </c>
       <c r="G26">
-        <v>30.451015369678</v>
+        <v>30.3221309983121</v>
       </c>
       <c r="H26">
-        <v>14.6201789250343</v>
+        <v>14.8488687204833</v>
       </c>
       <c r="I26">
-        <v>16.8644122479482</v>
+        <v>17.1377132951159</v>
       </c>
       <c r="J26">
-        <v>36.4255421695551</v>
+        <v>36.7250813237788</v>
       </c>
       <c r="K26">
-        <v>11.7388813260721</v>
+        <v>11.8127200933468</v>
       </c>
       <c r="L26">
-        <v>28.0638431855778</v>
+        <v>28.4404139092828</v>
       </c>
       <c r="M26">
-        <v>64.18544608015711</v>
+        <v>64.51802371431221</v>
       </c>
       <c r="N26">
-        <v>24.7117481119231</v>
+        <v>24.9315236799272</v>
       </c>
       <c r="O26">
-        <v>2387.23733282754</v>
+        <v>2375.60598811701</v>
       </c>
       <c r="P26">
-        <v>49.0559341347165</v>
+        <v>54.7376911288576</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>187.550632051086</v>
+        <v>187.725526379805</v>
       </c>
       <c r="C27">
-        <v>2.03913552432421</v>
+        <v>2.10979412045833</v>
       </c>
       <c r="D27">
-        <v>2.1722350249642</v>
+        <v>2.23958623562063</v>
       </c>
       <c r="E27">
-        <v>9.74401407833528</v>
+        <v>9.78590974916651</v>
       </c>
       <c r="F27">
-        <v>5.55719599318807</v>
+        <v>5.68961198803331</v>
       </c>
       <c r="G27">
-        <v>0.740777497680276</v>
+        <v>0.731210560107826</v>
       </c>
       <c r="H27">
-        <v>0.194720273904482</v>
+        <v>0.192158566261928</v>
       </c>
       <c r="I27">
-        <v>2.4850762635946</v>
+        <v>2.52669555519334</v>
       </c>
       <c r="J27">
-        <v>3.7628726128254</v>
+        <v>3.76890862455058</v>
       </c>
       <c r="K27">
-        <v>0.334291417269556</v>
+        <v>0.330010703128542</v>
       </c>
       <c r="L27">
-        <v>2.11435758464095</v>
+        <v>2.05431004365187</v>
       </c>
       <c r="M27">
-        <v>0.526316231741772</v>
+        <v>0.5197169192211341</v>
       </c>
       <c r="N27">
-        <v>3.38993054876018</v>
+        <v>3.35523856335895</v>
       </c>
       <c r="O27">
-        <v>386.844183233946</v>
+        <v>383.078561707349</v>
       </c>
       <c r="P27">
-        <v>40.2425187393162</v>
+        <v>45.3904950715964</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>253.428037335302</v>
+        <v>251.866438193957</v>
       </c>
       <c r="C28">
-        <v>32.7393043571472</v>
+        <v>32.9127712490863</v>
       </c>
       <c r="D28">
-        <v>1.30256601922554</v>
+        <v>1.28789145909868</v>
       </c>
       <c r="E28">
-        <v>6.43929749337762</v>
+        <v>6.30774987032443</v>
       </c>
       <c r="F28">
-        <v>0.612851743176596</v>
+        <v>0.622002256780453</v>
       </c>
       <c r="G28">
-        <v>4.86154336227721</v>
+        <v>4.76973380037195</v>
       </c>
       <c r="H28">
-        <v>6.98339148416677</v>
+        <v>7.24045535255039</v>
       </c>
       <c r="I28">
-        <v>3.95886258564028</v>
+        <v>3.87488576811116</v>
       </c>
       <c r="J28">
-        <v>19.0181185330004</v>
+        <v>19.5984266397024</v>
       </c>
       <c r="K28">
-        <v>10.0532465505657</v>
+        <v>10.2024099182597</v>
       </c>
       <c r="L28">
-        <v>13.1919922750279</v>
+        <v>12.7355540882486</v>
       </c>
       <c r="M28">
-        <v>10.7519656301693</v>
+        <v>10.9138910463029</v>
       </c>
       <c r="N28">
-        <v>10.742628524344</v>
+        <v>10.5785719790871</v>
       </c>
       <c r="O28">
-        <v>742.267428593674</v>
+        <v>727.7453217083061</v>
       </c>
       <c r="P28">
-        <v>61.5525758073527</v>
+        <v>80.2849543001246</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>436.262390201203</v>
+        <v>435.749948158415</v>
       </c>
       <c r="C29">
-        <v>5.02283307233039</v>
+        <v>5.06478470958593</v>
       </c>
       <c r="D29">
-        <v>2.19868925546029</v>
+        <v>2.19357799778534</v>
       </c>
       <c r="E29">
-        <v>4.88310258673247</v>
+        <v>4.86685882789346</v>
       </c>
       <c r="F29">
-        <v>22.0054277157744</v>
+        <v>24.59020848561</v>
       </c>
       <c r="G29">
-        <v>5.29293949835223</v>
+        <v>5.27023196700345</v>
       </c>
       <c r="H29">
-        <v>0.945691394079763</v>
+        <v>0.938739605570043</v>
       </c>
       <c r="I29">
-        <v>1.2969274585442</v>
+        <v>1.4077129963086</v>
       </c>
       <c r="J29">
-        <v>2.93805649369912</v>
+        <v>2.92944571630488</v>
       </c>
       <c r="K29">
-        <v>0.904494414467737</v>
+        <v>0.899748893835682</v>
       </c>
       <c r="L29">
-        <v>2.60530225023356</v>
+        <v>2.59202236085554</v>
       </c>
       <c r="M29">
-        <v>3.53226529429663</v>
+        <v>3.51424751808983</v>
       </c>
       <c r="N29">
-        <v>10.0683642541803</v>
+        <v>10.030651743518</v>
       </c>
       <c r="O29">
-        <v>1075.25555482124</v>
+        <v>1072.03200560915</v>
       </c>
       <c r="P29">
-        <v>3.74526269336473</v>
+        <v>3.9743175148579</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>202.975049524485</v>
+        <v>202.883065846812</v>
       </c>
       <c r="C30">
-        <v>4.30193013081788</v>
+        <v>4.29373661043598</v>
       </c>
       <c r="D30">
-        <v>3.45805130224134</v>
+        <v>3.4692165800999</v>
       </c>
       <c r="E30">
-        <v>11.4671738161217</v>
+        <v>11.6260055164512</v>
       </c>
       <c r="F30">
-        <v>0.202299718917887</v>
+        <v>0.202554806700119</v>
       </c>
       <c r="G30">
-        <v>5.22347093630219</v>
+        <v>5.20939430142153</v>
       </c>
       <c r="H30">
-        <v>3.92100613230891</v>
+        <v>3.90440448331148</v>
       </c>
       <c r="I30">
-        <v>2.05363848107548</v>
+        <v>2.042754360069</v>
       </c>
       <c r="J30">
-        <v>18.0519313360269</v>
+        <v>17.9635948542922</v>
       </c>
       <c r="K30">
-        <v>5.16249230687208</v>
+        <v>5.12459720350171</v>
       </c>
       <c r="L30">
-        <v>41.4840501950696</v>
+        <v>40.8045852099071</v>
       </c>
       <c r="M30">
-        <v>9.68790854544171</v>
+        <v>9.587838948640259</v>
       </c>
       <c r="N30">
-        <v>15.5700629897577</v>
+        <v>15.5524519608482</v>
       </c>
       <c r="O30">
-        <v>524.4747672295951</v>
+        <v>524.526575451928</v>
       </c>
       <c r="P30">
-        <v>5.2926128483008</v>
+        <v>5.55966693025889</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1727.28047896024</v>
+        <v>1727.05715977345</v>
       </c>
       <c r="C31">
-        <v>60.8176942886639</v>
+        <v>60.8615372071735</v>
       </c>
       <c r="D31">
-        <v>8.747993581817751</v>
+        <v>8.734999969186189</v>
       </c>
       <c r="E31">
-        <v>39.771168490188</v>
+        <v>39.7921457156883</v>
       </c>
       <c r="F31">
-        <v>1.03059130920541</v>
+        <v>1.05651393248091</v>
       </c>
       <c r="G31">
-        <v>100.58926293984</v>
+        <v>100.603552248997</v>
       </c>
       <c r="H31">
-        <v>6.5057251644449</v>
+        <v>6.52643135386026</v>
       </c>
       <c r="I31">
-        <v>13.4970553225811</v>
+        <v>13.6149139353184</v>
       </c>
       <c r="J31">
-        <v>30.5813998211936</v>
+        <v>30.594793626628</v>
       </c>
       <c r="K31">
-        <v>5.87544747200057</v>
+        <v>5.87277887922363</v>
       </c>
       <c r="L31">
-        <v>60.2014628760586</v>
+        <v>60.1349237048641</v>
       </c>
       <c r="M31">
-        <v>20.7103245137565</v>
+        <v>20.7026127446401</v>
       </c>
       <c r="N31">
-        <v>55.6542120212557</v>
+        <v>55.6626477762304</v>
       </c>
       <c r="O31">
-        <v>3627.71929792097</v>
+        <v>3625.83504237932</v>
       </c>
       <c r="P31">
-        <v>20.2317289057776</v>
+        <v>20.6549688180271</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>459.061216984057</v>
+        <v>459.271587616929</v>
       </c>
       <c r="C32">
-        <v>2.93356902687367</v>
+        <v>2.95007208530657</v>
       </c>
       <c r="D32">
-        <v>1.30878785468657</v>
+        <v>1.30843428277739</v>
       </c>
       <c r="E32">
-        <v>3.84770087810301</v>
+        <v>3.92420377904961</v>
       </c>
       <c r="F32">
-        <v>25.342208400767</v>
+        <v>25.8320239887693</v>
       </c>
       <c r="G32">
-        <v>2.73217840008498</v>
+        <v>2.74419391610805</v>
       </c>
       <c r="H32">
-        <v>0.343294013649588</v>
+        <v>0.345278086163343</v>
       </c>
       <c r="I32">
-        <v>1.72442989175655</v>
+        <v>1.72468724588358</v>
       </c>
       <c r="J32">
-        <v>4.53164234475627</v>
+        <v>4.50307169567613</v>
       </c>
       <c r="K32">
-        <v>2.6641405764105</v>
+        <v>2.63753240927526</v>
       </c>
       <c r="L32">
-        <v>7.84534802823692</v>
+        <v>7.59604881602583</v>
       </c>
       <c r="M32">
-        <v>5.26873853473006</v>
+        <v>5.23557788399924</v>
       </c>
       <c r="N32">
-        <v>12.3252374605149</v>
+        <v>12.3135217111863</v>
       </c>
       <c r="O32">
-        <v>731.1279805794391</v>
+        <v>730.085063468767</v>
       </c>
       <c r="P32">
-        <v>17.623077862682</v>
+        <v>19.2170457598922</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4484.10969368991</v>
+        <v>4480.82023423503</v>
       </c>
       <c r="C33">
-        <v>80.5655226259329</v>
+        <v>81.30083031364001</v>
       </c>
       <c r="D33">
-        <v>16.4256351152759</v>
+        <v>16.3711136084909</v>
       </c>
       <c r="E33">
-        <v>70.2363917423025</v>
+        <v>70.8207221170165</v>
       </c>
       <c r="F33">
-        <v>7.19593676018621</v>
+        <v>7.19400125466011</v>
       </c>
       <c r="G33">
-        <v>63.9856088972549</v>
+        <v>64.8975519237877</v>
       </c>
       <c r="H33">
-        <v>31.447396043848</v>
+        <v>32.0146958604853</v>
       </c>
       <c r="I33">
-        <v>23.4924360259857</v>
+        <v>23.7629365962717</v>
       </c>
       <c r="J33">
-        <v>93.9875114949111</v>
+        <v>96.6225523859772</v>
       </c>
       <c r="K33">
-        <v>57.985895021259</v>
+        <v>59.5826912240976</v>
       </c>
       <c r="L33">
-        <v>103.117708302955</v>
+        <v>105.164922434416</v>
       </c>
       <c r="M33">
-        <v>52.9384004330668</v>
+        <v>54.7051119922651</v>
       </c>
       <c r="N33">
-        <v>136.43183682265</v>
+        <v>138.183061334743</v>
       </c>
       <c r="O33">
-        <v>7542.79785914593</v>
+        <v>7517.89659964268</v>
       </c>
       <c r="P33">
-        <v>56.9797732530442</v>
+        <v>66.7152876526843</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1926.80866513499</v>
+        <v>1928.0757396912</v>
       </c>
       <c r="C34">
-        <v>72.7002774331194</v>
+        <v>72.9837046254101</v>
       </c>
       <c r="D34">
-        <v>93.46659841533931</v>
+        <v>95.0114799545038</v>
       </c>
       <c r="E34">
-        <v>52.8079995244228</v>
+        <v>53.0288330825942</v>
       </c>
       <c r="F34">
-        <v>2.51626474880785</v>
+        <v>2.55788493075159</v>
       </c>
       <c r="G34">
-        <v>44.5578691497308</v>
+        <v>44.5779295890824</v>
       </c>
       <c r="H34">
-        <v>45.3777860325213</v>
+        <v>45.3689832135833</v>
       </c>
       <c r="I34">
-        <v>12.6997576733286</v>
+        <v>12.7140893688497</v>
       </c>
       <c r="J34">
-        <v>47.3550501662741</v>
+        <v>47.5523844042808</v>
       </c>
       <c r="K34">
-        <v>8.217022516142119</v>
+        <v>8.204587157654039</v>
       </c>
       <c r="L34">
-        <v>107.177990744593</v>
+        <v>107.341658777798</v>
       </c>
       <c r="M34">
-        <v>37.2761071133909</v>
+        <v>37.2034392266721</v>
       </c>
       <c r="N34">
-        <v>130.661256132966</v>
+        <v>131.793419411484</v>
       </c>
       <c r="O34">
-        <v>3220.93768857456</v>
+        <v>3216.87027880853</v>
       </c>
       <c r="P34">
-        <v>59.3446242882213</v>
+        <v>60.5533145132849</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>99.8406912353334</v>
+        <v>100.462303105577</v>
       </c>
       <c r="C35">
-        <v>6.73842976605609</v>
+        <v>6.80284543384547</v>
       </c>
       <c r="D35">
-        <v>0.24462227949684</v>
+        <v>0.241117966857843</v>
       </c>
       <c r="E35">
-        <v>2.60448936930551</v>
+        <v>2.54541926296787</v>
       </c>
       <c r="F35">
-        <v>3.43418625237462</v>
+        <v>3.58994414712441</v>
       </c>
       <c r="G35">
-        <v>0.911489635070573</v>
+        <v>0.8807991940980749</v>
       </c>
       <c r="H35">
-        <v>0.567464590947137</v>
+        <v>0.553807653101843</v>
       </c>
       <c r="I35">
-        <v>1.05494900751167</v>
+        <v>1.03834956073278</v>
       </c>
       <c r="J35">
-        <v>2.94991376143595</v>
+        <v>2.90841310977068</v>
       </c>
       <c r="K35">
-        <v>4.47079562496268</v>
+        <v>4.44751215060231</v>
       </c>
       <c r="L35">
-        <v>2.71279659831499</v>
+        <v>2.61018348159503</v>
       </c>
       <c r="M35">
-        <v>2.83021421545224</v>
+        <v>2.78578486278116</v>
       </c>
       <c r="N35">
-        <v>3.98058712507229</v>
+        <v>3.88241032440619</v>
       </c>
       <c r="O35">
-        <v>272.661451886599</v>
+        <v>266.99541229972</v>
       </c>
       <c r="P35">
-        <v>35.7232542256761</v>
+        <v>42.6555877477986</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2601.53244352743</v>
+        <v>2601.91940273965</v>
       </c>
       <c r="C36">
-        <v>64.95509511821859</v>
+        <v>65.2551650688017</v>
       </c>
       <c r="D36">
-        <v>8.64371874811533</v>
+        <v>8.724570440309661</v>
       </c>
       <c r="E36">
-        <v>128.653637895193</v>
+        <v>129.530591755783</v>
       </c>
       <c r="F36">
-        <v>32.8949875370815</v>
+        <v>33.5025873433754</v>
       </c>
       <c r="G36">
-        <v>84.14422463445941</v>
+        <v>84.5624738018988</v>
       </c>
       <c r="H36">
-        <v>78.35087102124381</v>
+        <v>79.8344389197228</v>
       </c>
       <c r="I36">
-        <v>37.3745310894604</v>
+        <v>37.7717676045076</v>
       </c>
       <c r="J36">
-        <v>210.594720794125</v>
+        <v>213.415826841195</v>
       </c>
       <c r="K36">
-        <v>50.8574336915429</v>
+        <v>51.5108393206046</v>
       </c>
       <c r="L36">
-        <v>62.2473054152769</v>
+        <v>62.6195328779147</v>
       </c>
       <c r="M36">
-        <v>191.752185670199</v>
+        <v>194.741549646748</v>
       </c>
       <c r="N36">
-        <v>100.497727834361</v>
+        <v>101.326427870044</v>
       </c>
       <c r="O36">
-        <v>4241.23846064913</v>
+        <v>4229.16872591428</v>
       </c>
       <c r="P36">
-        <v>53.8090322272629</v>
+        <v>54.6195101539351</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>831.292526392184</v>
+        <v>833.8893308470761</v>
       </c>
       <c r="C37">
-        <v>20.7427708090809</v>
+        <v>21.2760808691814</v>
       </c>
       <c r="D37">
-        <v>2.09170578763764</v>
+        <v>2.13732217644396</v>
       </c>
       <c r="E37">
-        <v>22.0859816146728</v>
+        <v>22.3708562441142</v>
       </c>
       <c r="F37">
-        <v>34.2786622953432</v>
+        <v>34.7806092669292</v>
       </c>
       <c r="G37">
-        <v>6.12586888426639</v>
+        <v>6.08473469829976</v>
       </c>
       <c r="H37">
-        <v>25.9760461667815</v>
+        <v>26.4378114294913</v>
       </c>
       <c r="I37">
-        <v>9.58768848859865</v>
+        <v>9.830780579192229</v>
       </c>
       <c r="J37">
-        <v>39.1233723600672</v>
+        <v>39.4783283024142</v>
       </c>
       <c r="K37">
-        <v>9.071360654026471</v>
+        <v>9.08933915299283</v>
       </c>
       <c r="L37">
-        <v>21.6739367752546</v>
+        <v>21.5940203352025</v>
       </c>
       <c r="M37">
-        <v>36.9561358265563</v>
+        <v>36.8599230856744</v>
       </c>
       <c r="N37">
-        <v>26.6337903873274</v>
+        <v>26.804776593289</v>
       </c>
       <c r="O37">
-        <v>1298.72493011727</v>
+        <v>1291.7560349505</v>
       </c>
       <c r="P37">
-        <v>44.5715680991613</v>
+        <v>48.0046111708642</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>800.4311457872</v>
+        <v>801.455959004761</v>
       </c>
       <c r="C38">
-        <v>24.761239913405</v>
+        <v>25.3122486145181</v>
       </c>
       <c r="D38">
-        <v>5.85810831126914</v>
+        <v>5.81835403433826</v>
       </c>
       <c r="E38">
-        <v>47.6971704589006</v>
+        <v>48.6308419124392</v>
       </c>
       <c r="F38">
-        <v>1.41014427400935</v>
+        <v>1.4125655429802</v>
       </c>
       <c r="G38">
-        <v>9.57131601126742</v>
+        <v>9.558191829734531</v>
       </c>
       <c r="H38">
-        <v>2.08010965842447</v>
+        <v>2.07200998559793</v>
       </c>
       <c r="I38">
-        <v>2.15279753367953</v>
+        <v>2.15304376235657</v>
       </c>
       <c r="J38">
-        <v>36.7874764930814</v>
+        <v>36.8000154384958</v>
       </c>
       <c r="K38">
-        <v>2.94787869316571</v>
+        <v>2.94239470082852</v>
       </c>
       <c r="L38">
-        <v>89.5026305361345</v>
+        <v>87.57678570594371</v>
       </c>
       <c r="M38">
-        <v>22.0972181913262</v>
+        <v>21.9495860766157</v>
       </c>
       <c r="N38">
-        <v>44.918198888887</v>
+        <v>44.8178337915431</v>
       </c>
       <c r="O38">
-        <v>1432.10348812846</v>
+        <v>1429.54195208257</v>
       </c>
       <c r="P38">
-        <v>57.169732963622</v>
+        <v>60.1466545420017</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2762.94422526962</v>
+        <v>2764.67469451579</v>
       </c>
       <c r="C39">
-        <v>96.9791206841097</v>
+        <v>97.7061494348569</v>
       </c>
       <c r="D39">
-        <v>27.1919529609081</v>
+        <v>27.9122973559082</v>
       </c>
       <c r="E39">
-        <v>142.553932181332</v>
+        <v>147.279623623645</v>
       </c>
       <c r="F39">
-        <v>29.0461445431809</v>
+        <v>30.1419409714016</v>
       </c>
       <c r="G39">
-        <v>128.88707362901</v>
+        <v>128.450195300991</v>
       </c>
       <c r="H39">
-        <v>56.3796005863481</v>
+        <v>57.6839847143842</v>
       </c>
       <c r="I39">
-        <v>25.0204633861269</v>
+        <v>25.5808836971351</v>
       </c>
       <c r="J39">
-        <v>162.076861002901</v>
+        <v>166.392114515781</v>
       </c>
       <c r="K39">
-        <v>47.1887983531178</v>
+        <v>48.68766757452</v>
       </c>
       <c r="L39">
-        <v>112.526652476099</v>
+        <v>113.233826640942</v>
       </c>
       <c r="M39">
-        <v>73.6185305737619</v>
+        <v>74.95002948904509</v>
       </c>
       <c r="N39">
-        <v>126.855101973745</v>
+        <v>129.434923391573</v>
       </c>
       <c r="O39">
-        <v>4893.4016074104</v>
+        <v>4869.24675237169</v>
       </c>
       <c r="P39">
-        <v>62.64729675605</v>
+        <v>67.3941440152708</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>214.42576562503</v>
+        <v>214.385245792039</v>
       </c>
       <c r="C40">
-        <v>2.50453792974271</v>
+        <v>2.50379004726128</v>
       </c>
       <c r="D40">
-        <v>7.03469347000726</v>
+        <v>7.04045399825069</v>
       </c>
       <c r="E40">
-        <v>4.64361609537966</v>
+        <v>4.64272114636419</v>
       </c>
       <c r="F40">
-        <v>0.333926256528233</v>
+        <v>0.333599926912412</v>
       </c>
       <c r="G40">
-        <v>3.99360171513865</v>
+        <v>4.01579405712731</v>
       </c>
       <c r="H40">
-        <v>4.345891519907</v>
+        <v>4.37309488229899</v>
       </c>
       <c r="I40">
-        <v>1.97153010205533</v>
+        <v>1.97230038465125</v>
       </c>
       <c r="J40">
-        <v>10.9324457847444</v>
+        <v>10.9317423879773</v>
       </c>
       <c r="K40">
-        <v>1.57117185211197</v>
+        <v>1.57120211233361</v>
       </c>
       <c r="L40">
-        <v>11.4238778076158</v>
+        <v>11.41903984621</v>
       </c>
       <c r="M40">
-        <v>3.84395000318418</v>
+        <v>3.83882406712291</v>
       </c>
       <c r="N40">
-        <v>20.230115822573</v>
+        <v>20.2118773703586</v>
       </c>
       <c r="O40">
-        <v>421.810164700709</v>
+        <v>421.732853409392</v>
       </c>
       <c r="P40">
-        <v>5.56682824576856</v>
+        <v>5.59634534886181</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1062.87297434348</v>
+        <v>1063.38529534003</v>
       </c>
       <c r="C41">
-        <v>14.2467904474496</v>
+        <v>14.4749295178564</v>
       </c>
       <c r="D41">
-        <v>64.284710819105</v>
+        <v>66.6638488808716</v>
       </c>
       <c r="E41">
-        <v>27.8541062736829</v>
+        <v>28.0320320816407</v>
       </c>
       <c r="F41">
-        <v>1.09105830362527</v>
+        <v>1.0877181125833</v>
       </c>
       <c r="G41">
-        <v>26.3912131988341</v>
+        <v>26.6128418124087</v>
       </c>
       <c r="H41">
-        <v>29.064006700821</v>
+        <v>29.4096656438459</v>
       </c>
       <c r="I41">
-        <v>12.1522115635777</v>
+        <v>12.3794812732457</v>
       </c>
       <c r="J41">
-        <v>39.3241071912386</v>
+        <v>39.5281818772246</v>
       </c>
       <c r="K41">
-        <v>7.83400279330023</v>
+        <v>7.83401097837437</v>
       </c>
       <c r="L41">
-        <v>30.8447888404414</v>
+        <v>30.7551333445598</v>
       </c>
       <c r="M41">
-        <v>31.2960782937347</v>
+        <v>31.4889344027578</v>
       </c>
       <c r="N41">
-        <v>18.9324105987243</v>
+        <v>18.9327368596466</v>
       </c>
       <c r="O41">
-        <v>1527.16842061451</v>
+        <v>1522.85743987169</v>
       </c>
       <c r="P41">
-        <v>21.0965714072729</v>
+        <v>21.564824758241</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>104.1656389994</v>
+        <v>103.64885314682</v>
       </c>
       <c r="C42">
-        <v>6.59293259734538</v>
+        <v>6.64529632038495</v>
       </c>
       <c r="D42">
-        <v>1.6674393477088</v>
+        <v>1.6344790487922</v>
       </c>
       <c r="E42">
-        <v>6.15790388888607</v>
+        <v>5.96534436834085</v>
       </c>
       <c r="F42">
-        <v>2.31306107283814</v>
+        <v>2.24766408245104</v>
       </c>
       <c r="G42">
-        <v>1.45390979915257</v>
+        <v>1.45678821053332</v>
       </c>
       <c r="H42">
-        <v>1.06182540329507</v>
+        <v>1.03090981123125</v>
       </c>
       <c r="I42">
-        <v>1.94022242435749</v>
+        <v>1.87841845212285</v>
       </c>
       <c r="J42">
-        <v>4.86038216862291</v>
+        <v>4.84395040336821</v>
       </c>
       <c r="K42">
-        <v>3.73907780589872</v>
+        <v>3.78468514872284</v>
       </c>
       <c r="L42">
-        <v>5.34180110568332</v>
+        <v>4.95565579136749</v>
       </c>
       <c r="M42">
-        <v>4.03390406321079</v>
+        <v>4.09183433515644</v>
       </c>
       <c r="N42">
-        <v>8.511862805900909</v>
+        <v>8.31998743879346</v>
       </c>
       <c r="O42">
-        <v>311.236750293775</v>
+        <v>305.565153112922</v>
       </c>
       <c r="P42">
-        <v>43.9514060184289</v>
+        <v>52.860613900157</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1545.8095853343</v>
+        <v>1545.8362759516</v>
       </c>
       <c r="C43">
-        <v>35.946073936683</v>
+        <v>35.8018838441998</v>
       </c>
       <c r="D43">
-        <v>20.6865073250298</v>
+        <v>21.5700360914679</v>
       </c>
       <c r="E43">
-        <v>72.59719638389301</v>
+        <v>72.78323866587731</v>
       </c>
       <c r="F43">
-        <v>9.23370408236049</v>
+        <v>9.48319483077319</v>
       </c>
       <c r="G43">
-        <v>38.8274762031515</v>
+        <v>39.2043450584232</v>
       </c>
       <c r="H43">
-        <v>44.2711612596967</v>
+        <v>45.1956947983177</v>
       </c>
       <c r="I43">
-        <v>14.7726779961049</v>
+        <v>15.2283942370537</v>
       </c>
       <c r="J43">
-        <v>65.4746240915611</v>
+        <v>66.7733226942962</v>
       </c>
       <c r="K43">
-        <v>11.2111046363945</v>
+        <v>11.565942612578</v>
       </c>
       <c r="L43">
-        <v>36.1051027571284</v>
+        <v>36.5557344453458</v>
       </c>
       <c r="M43">
-        <v>102.889600425798</v>
+        <v>105.780268124827</v>
       </c>
       <c r="N43">
-        <v>60.9504905287638</v>
+        <v>61.5981195357552</v>
       </c>
       <c r="O43">
-        <v>2113.93631083145</v>
+        <v>2104.81029740519</v>
       </c>
       <c r="P43">
-        <v>55.7094336989246</v>
+        <v>56.4764354549709</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4662.52840298982</v>
+        <v>4668.0190522457</v>
       </c>
       <c r="C44">
-        <v>148.070171288563</v>
+        <v>150.471530518331</v>
       </c>
       <c r="D44">
-        <v>18.7836045454219</v>
+        <v>18.8559232640208</v>
       </c>
       <c r="E44">
-        <v>87.09110470640511</v>
+        <v>87.345052386257</v>
       </c>
       <c r="F44">
-        <v>241.615521731683</v>
+        <v>242.886449853296</v>
       </c>
       <c r="G44">
-        <v>134.796245935813</v>
+        <v>134.853753851609</v>
       </c>
       <c r="H44">
-        <v>36.2650900153386</v>
+        <v>36.425899274039</v>
       </c>
       <c r="I44">
-        <v>53.0106521398467</v>
+        <v>53.2942413894212</v>
       </c>
       <c r="J44">
-        <v>124.632154548287</v>
+        <v>125.116007483072</v>
       </c>
       <c r="K44">
-        <v>35.0567404645495</v>
+        <v>35.1392201199287</v>
       </c>
       <c r="L44">
-        <v>172.249177913569</v>
+        <v>170.294963492694</v>
       </c>
       <c r="M44">
-        <v>79.878569456859</v>
+        <v>79.99859943127331</v>
       </c>
       <c r="N44">
-        <v>100.620922804764</v>
+        <v>100.516886234082</v>
       </c>
       <c r="O44">
-        <v>8484.71109326049</v>
+        <v>8466.84640963972</v>
       </c>
       <c r="P44">
-        <v>160.594969246773</v>
+        <v>170.722928252506</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>399.011693669996</v>
+        <v>399.903009729424</v>
       </c>
       <c r="C45">
-        <v>18.7667454037214</v>
+        <v>18.8721183007071</v>
       </c>
       <c r="D45">
-        <v>1.95851658913209</v>
+        <v>1.94309348192979</v>
       </c>
       <c r="E45">
-        <v>16.6128137528081</v>
+        <v>16.4934317653485</v>
       </c>
       <c r="F45">
-        <v>20.8278971453956</v>
+        <v>22.5489643002284</v>
       </c>
       <c r="G45">
-        <v>6.37879934305991</v>
+        <v>6.34816088761551</v>
       </c>
       <c r="H45">
-        <v>2.75895366736271</v>
+        <v>2.7609165224464</v>
       </c>
       <c r="I45">
-        <v>3.4364354182438</v>
+        <v>3.5131428075581</v>
       </c>
       <c r="J45">
-        <v>21.1242474952312</v>
+        <v>21.2189607622111</v>
       </c>
       <c r="K45">
-        <v>2.56261077910601</v>
+        <v>2.55243883829206</v>
       </c>
       <c r="L45">
-        <v>17.4726326024568</v>
+        <v>17.2918101814625</v>
       </c>
       <c r="M45">
-        <v>14.2737544436076</v>
+        <v>14.2547128607871</v>
       </c>
       <c r="N45">
-        <v>30.7780363412675</v>
+        <v>30.5056209128722</v>
       </c>
       <c r="O45">
-        <v>879.310709564659</v>
+        <v>875.169310606718</v>
       </c>
       <c r="P45">
-        <v>18.8888205888526</v>
+        <v>20.7491725374261</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>95.0207995720707</v>
+        <v>95.1887368236806</v>
       </c>
       <c r="C46">
-        <v>3.90671446054861</v>
+        <v>4.03580645583631</v>
       </c>
       <c r="D46">
-        <v>0.503600457768726</v>
+        <v>0.506707401147355</v>
       </c>
       <c r="E46">
-        <v>5.01720006110752</v>
+        <v>5.086048241795</v>
       </c>
       <c r="F46">
-        <v>0.504826488433201</v>
+        <v>0.506819128137333</v>
       </c>
       <c r="G46">
-        <v>1.54309314010806</v>
+        <v>1.52695088418844</v>
       </c>
       <c r="H46">
-        <v>1.12351003070467</v>
+        <v>1.12938548260498</v>
       </c>
       <c r="I46">
-        <v>1.87337816419335</v>
+        <v>1.85465194475317</v>
       </c>
       <c r="J46">
-        <v>4.7625192481076</v>
+        <v>4.7170119353973</v>
       </c>
       <c r="K46">
-        <v>1.2225040669473</v>
+        <v>1.21802669872034</v>
       </c>
       <c r="L46">
-        <v>13.7313995600342</v>
+        <v>12.8335638372054</v>
       </c>
       <c r="M46">
-        <v>3.04278071111463</v>
+        <v>2.947901817555</v>
       </c>
       <c r="N46">
-        <v>9.340032814261971</v>
+        <v>9.346365621759659</v>
       </c>
       <c r="O46">
-        <v>273.702912238953</v>
+        <v>273.738608169872</v>
       </c>
       <c r="P46">
-        <v>8.400042856710099</v>
+        <v>9.290475543741209</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1576.94718573296</v>
+        <v>1578.22797504227</v>
       </c>
       <c r="C47">
-        <v>39.0335254174701</v>
+        <v>39.9333272890265</v>
       </c>
       <c r="D47">
-        <v>13.1922482670529</v>
+        <v>13.6506868950763</v>
       </c>
       <c r="E47">
-        <v>49.6531740611188</v>
+        <v>50.1641605472111</v>
       </c>
       <c r="F47">
-        <v>3.98724539093862</v>
+        <v>4.15976897482152</v>
       </c>
       <c r="G47">
-        <v>23.2279731213292</v>
+        <v>23.5265355480399</v>
       </c>
       <c r="H47">
-        <v>9.695829701218299</v>
+        <v>9.88801994817651</v>
       </c>
       <c r="I47">
-        <v>4.23220146069561</v>
+        <v>4.29593812893794</v>
       </c>
       <c r="J47">
-        <v>29.5213569702258</v>
+        <v>29.8441241181047</v>
       </c>
       <c r="K47">
-        <v>6.73312808140353</v>
+        <v>6.70923881817327</v>
       </c>
       <c r="L47">
-        <v>30.686902824253</v>
+        <v>30.7932109614361</v>
       </c>
       <c r="M47">
-        <v>66.5131890858066</v>
+        <v>66.0821075984021</v>
       </c>
       <c r="N47">
-        <v>29.1034095977659</v>
+        <v>29.219617013939</v>
       </c>
       <c r="O47">
-        <v>3012.19256826823</v>
+        <v>3006.25329958044</v>
       </c>
       <c r="P47">
-        <v>25.8353085052374</v>
+        <v>26.6528324127365</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1270.39651168441</v>
+        <v>1272.05768636878</v>
       </c>
       <c r="C48">
-        <v>33.3848477138479</v>
+        <v>33.5313101986602</v>
       </c>
       <c r="D48">
-        <v>6.66295402349315</v>
+        <v>6.64130159572461</v>
       </c>
       <c r="E48">
-        <v>68.5726874089108</v>
+        <v>70.091138637293</v>
       </c>
       <c r="F48">
-        <v>14.7504005375024</v>
+        <v>14.8962460262743</v>
       </c>
       <c r="G48">
-        <v>7.35431594952886</v>
+        <v>7.31286205765093</v>
       </c>
       <c r="H48">
-        <v>7.56257417145014</v>
+        <v>7.53131963816594</v>
       </c>
       <c r="I48">
-        <v>9.63637091078091</v>
+        <v>9.80243773542983</v>
       </c>
       <c r="J48">
-        <v>40.4007344748803</v>
+        <v>40.1096282447428</v>
       </c>
       <c r="K48">
-        <v>9.64708816434362</v>
+        <v>9.5915036961664</v>
       </c>
       <c r="L48">
-        <v>51.6272347843492</v>
+        <v>51.2980959358397</v>
       </c>
       <c r="M48">
-        <v>142.157785659165</v>
+        <v>137.930202797849</v>
       </c>
       <c r="N48">
-        <v>42.1489519028123</v>
+        <v>42.1273059570121</v>
       </c>
       <c r="O48">
-        <v>2465.3062536599</v>
+        <v>2463.3821205294</v>
       </c>
       <c r="P48">
-        <v>86.6072027268018</v>
+        <v>90.11324149251919</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>642.421871906698</v>
+        <v>642.599103085878</v>
       </c>
       <c r="C49">
-        <v>4.63549034154312</v>
+        <v>4.64688122537761</v>
       </c>
       <c r="D49">
-        <v>1.29491879105306</v>
+        <v>1.3058057930451</v>
       </c>
       <c r="E49">
-        <v>24.127394909591</v>
+        <v>24.2204513278477</v>
       </c>
       <c r="F49">
-        <v>24.3039248120824</v>
+        <v>24.7112502894411</v>
       </c>
       <c r="G49">
-        <v>14.9338639296525</v>
+        <v>14.7700328528576</v>
       </c>
       <c r="H49">
-        <v>6.07470704715201</v>
+        <v>6.06321286080826</v>
       </c>
       <c r="I49">
-        <v>3.93566817675554</v>
+        <v>3.87195598698598</v>
       </c>
       <c r="J49">
-        <v>19.3023933320818</v>
+        <v>19.1142801850321</v>
       </c>
       <c r="K49">
-        <v>1.94396131149729</v>
+        <v>1.9361501156613</v>
       </c>
       <c r="L49">
-        <v>0.976753857553693</v>
+        <v>0.970377617486929</v>
       </c>
       <c r="M49">
-        <v>4.03705450144328</v>
+        <v>4.03771748892206</v>
       </c>
       <c r="N49">
-        <v>6.8999072016824</v>
+        <v>6.89697509928704</v>
       </c>
       <c r="O49">
-        <v>576.954839405642</v>
+        <v>576.9442236957281</v>
       </c>
       <c r="P49">
-        <v>8.919653102327491</v>
+        <v>8.955946568787491</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>915.6864842914901</v>
+        <v>916.9295212285271</v>
       </c>
       <c r="C50">
-        <v>68.79036292046931</v>
+        <v>71.39475641558521</v>
       </c>
       <c r="D50">
-        <v>10.8011551822002</v>
+        <v>10.9982815243602</v>
       </c>
       <c r="E50">
-        <v>143.77502954732</v>
+        <v>144.666617386756</v>
       </c>
       <c r="F50">
-        <v>3.01721266623551</v>
+        <v>3.00417101207433</v>
       </c>
       <c r="G50">
-        <v>33.8426032573194</v>
+        <v>33.5740698838346</v>
       </c>
       <c r="H50">
-        <v>42.7446609375464</v>
+        <v>42.7387006997996</v>
       </c>
       <c r="I50">
-        <v>7.95862681217005</v>
+        <v>8.066127724007259</v>
       </c>
       <c r="J50">
-        <v>88.0977677416813</v>
+        <v>88.2389392813073</v>
       </c>
       <c r="K50">
-        <v>49.163161685968</v>
+        <v>49.2424998805498</v>
       </c>
       <c r="L50">
-        <v>69.9421904862574</v>
+        <v>69.2198061593751</v>
       </c>
       <c r="M50">
-        <v>55.5639139148817</v>
+        <v>55.2869970999913</v>
       </c>
       <c r="N50">
-        <v>59.1450901721021</v>
+        <v>59.0115115261843</v>
       </c>
       <c r="O50">
-        <v>2187.81491904908</v>
+        <v>2170.98681049873</v>
       </c>
       <c r="P50">
-        <v>81.8076662983386</v>
+        <v>96.8862200138214</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>88.0946188201205</v>
+        <v>87.96337925872039</v>
       </c>
       <c r="C51">
-        <v>3.78329082439232</v>
+        <v>3.74446058667857</v>
       </c>
       <c r="D51">
-        <v>0.00722130722399109</v>
+        <v>0.00744126086877179</v>
       </c>
       <c r="E51">
-        <v>1.44976429725956</v>
+        <v>1.44854726689327</v>
       </c>
       <c r="F51">
-        <v>25.0449771201357</v>
+        <v>25.7017693110522</v>
       </c>
       <c r="G51">
-        <v>1.5094924012183</v>
+        <v>1.50775185688426</v>
       </c>
       <c r="H51">
-        <v>0.0880914697430302</v>
+        <v>0.08743928603840739</v>
       </c>
       <c r="I51">
-        <v>0.7212244888949531</v>
+        <v>0.720281235334178</v>
       </c>
       <c r="J51">
-        <v>1.03963730572924</v>
+        <v>1.02328766486278</v>
       </c>
       <c r="K51">
-        <v>0.705294825564573</v>
+        <v>0.7054873007688181</v>
       </c>
       <c r="L51">
-        <v>0.408683968349474</v>
+        <v>0.409684097475954</v>
       </c>
       <c r="M51">
-        <v>0.290966791952075</v>
+        <v>0.289011460493855</v>
       </c>
       <c r="N51">
-        <v>0.80312973531234</v>
+        <v>0.79637280533621</v>
       </c>
       <c r="O51">
-        <v>204.734564812795</v>
+        <v>203.843991414506</v>
       </c>
       <c r="P51">
-        <v>18.7756616939677</v>
+        <v>20.6250294542886</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2005.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2005.xlsx
@@ -727,7 +727,7 @@
         <v>2.90395503129373</v>
       </c>
       <c r="I7">
-        <v>8.31522149654232</v>
+        <v>8.315221496542319</v>
       </c>
       <c r="J7">
         <v>17.0721059963628</v>
@@ -1112,7 +1112,7 @@
         <v>4906.57850630597</v>
       </c>
       <c r="P14">
-        <v>66.324762093837</v>
+        <v>66.32476209383699</v>
       </c>
     </row>
     <row r="15">
@@ -1259,7 +1259,7 @@
         <v>12.373572613174</v>
       </c>
       <c r="M17">
-        <v>67.623654264491</v>
+        <v>67.62365426449099</v>
       </c>
       <c r="N17">
         <v>10.5431584822386</v>
@@ -3021,7 +3021,7 @@
         <v>1.02328766486278</v>
       </c>
       <c r="K51">
-        <v>0.7054873007688181</v>
+        <v>0.705487300768818</v>
       </c>
       <c r="L51">
         <v>0.409684097475954</v>
@@ -3483,7 +3483,7 @@
         <v>72.59839381650799</v>
       </c>
       <c r="I60">
-        <v>77.90100285240681</v>
+        <v>77.9010028524068</v>
       </c>
       <c r="J60">
         <v>227.449478692181</v>
@@ -3939,7 +3939,7 @@
         <v>105.494287292215</v>
       </c>
       <c r="E69">
-        <v>89.6610662345494</v>
+        <v>89.66106623454939</v>
       </c>
       <c r="F69">
         <v>21.4302553105527</v>
@@ -4315,7 +4315,7 @@
         <v>9.371343246728831</v>
       </c>
       <c r="I76">
-        <v>9.014339694472501</v>
+        <v>9.0143396944725</v>
       </c>
       <c r="J76">
         <v>15.4404036350866</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>69853.43749355291</v>
+        <v>69853.4374935529</v>
       </c>
       <c r="C82">
         <v>3506.22730257281</v>
@@ -4667,7 +4667,7 @@
         <v>825.804290613592</v>
       </c>
       <c r="E83">
-        <v>978.6209005127111</v>
+        <v>978.620900512711</v>
       </c>
       <c r="F83">
         <v>1131.48573030871</v>
